--- a/data/ch_5_subsidies_reform/random_250_subsidies_in_tca.xlsx
+++ b/data/ch_5_subsidies_reform/random_250_subsidies_in_tca.xlsx
@@ -387,6177 +387,6558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2381126902</t>
+          <t>https://openalex.org/W2111667046</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1074/jbc.274.1.29</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Liu (2000)</t>
+          <t>Wu &amp; Hancock (1999)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>On the Coordinating System of Reform in Political and Ideological Education in the Army in the New Times</t>
+          <t>Interaction of the Cyclic Antimicrobial Cationic Peptide Bactenecin with the Outer and Cytoplasmic Membrane</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>The so-called coordinating system of reform in political and ideological education in the Army in the New Times means the subjective and objective conditions, which the reforms in political and ideological education depend upon, they include important transformation in international political situation, the impacts of new trends in military revolutions in the world, the limitation of the very reality in the elementary phase of socialist,the new practice of construction of Three-modernization and the changes of the objects in the political and ideological education in the Army .They are both the basic gist of reforming the political and ideological education in the Army in the New Times ,and the very important task in reforming political and ideological education .It's of great practical meaning and far-reaching theoretical value for the ideological and political construction in the Army to study features and laws of the changes under these conditions carefully.</t>
+          <t>Bactenecin, a 12-amino acid cationic antimicrobial peptide from bovine neutrophils, has two cysteine residues, which form one disulfide bond, making it a cyclic molecule. To study the importance of the disulfide bond, a linear derivative Bac2S was made and the reduced form (linear bactenecin) was also included in this study. Circular dichroism spectroscopy showed that bactenecin existed as a type I β-turn structure regardless of its environment, while the reduced form and linear bactenecin adopted different conformations according to the lipophilicity of the environment. Bactenecin was more active against the Gram-negative wild type bacteria Escherichia coli, Pseudomonas aeruginosa, and Salmonella typhimurium than its linear derivative and reduced form, while all three peptides were equally active against the outer membrane barrier-defective mutants of the first two bacteria. Only the two linear peptides showed activity against the Gram-positive bacteria Staphylococcus epidermidis and Enterococcus facaelis. Bactenecin interacted well with the outer membrane and its higher affinity forE. coli UB1005 lipopolysaccharide and improved ability to permeabilize the outer membrane seemed to account for its better antimicrobial activity against Gram-negative bacteria. The interaction of bactenecin with the cytoplasmic membrane was determined by its ability to dissipate the membrane potential by using the fluorescence probe 3,3-dipropylthiacarbocyanine and an outer membrane barrier-defective mutant E. coli DC2. It was shown that the linear derivative and reduced form were able to dissipate the membrane potential at much lower concentrations than bactenecin despite the similar minimal inhibitory concentrations of all three against this barrier-defective mutant. Bactenecin, a 12-amino acid cationic antimicrobial peptide from bovine neutrophils, has two cysteine residues, which form one disulfide bond, making it a cyclic molecule. To study the importance of the disulfide bond, a linear derivative Bac2S was made and the reduced form (linear bactenecin) was also included in this study. Circular dichroism spectroscopy showed that bactenecin existed as a type I β-turn structure regardless of its environment, while the reduced form and linear bactenecin adopted different conformations according to the lipophilicity of the environment. Bactenecin was more active against the Gram-negative wild type bacteria Escherichia coli, Pseudomonas aeruginosa, and Salmonella typhimurium than its linear derivative and reduced form, while all three peptides were equally active against the outer membrane barrier-defective mutants of the first two bacteria. Only the two linear peptides showed activity against the Gram-positive bacteria Staphylococcus epidermidis and Enterococcus facaelis. Bactenecin interacted well with the outer membrane and its higher affinity forE. coli UB1005 lipopolysaccharide and improved ability to permeabilize the outer membrane seemed to account for its better antimicrobial activity against Gram-negative bacteria. The interaction of bactenecin with the cytoplasmic membrane was determined by its ability to dissipate the membrane potential by using the fluorescence probe 3,3-dipropylthiacarbocyanine and an outer membrane barrier-defective mutant E. coli DC2. It was shown that the linear derivative and reduced form were able to dissipate the membrane potential at much lower concentrations than bactenecin despite the similar minimal inhibitory concentrations of all three against this barrier-defective mutant. 1-N-phenylnaphylamine 3,3-dipropylthiacarbocyanine 5-dimethylaminonaphthalene-1-sulfonyl 1-pamitoyl-2-oleoyl-sn-glycero-3-phosphocholine 1-palmitoyl-2-oleoyl-sn-glycero-3-phosphoglycerol matrix-assisted laser desorption/ionization minimal inhibitory concentration(s) lipopolysaccharide. Polycationic antimicrobial peptides have been found in a variety of sources, including humans, mammals, plants, insects, and bacteria (1Hancock R.E.W. Falla T. Brown M.H. Adv. Microb. Physiol. 1995; 37: 135-175Crossref PubMed Scopus (253) Google Scholar). The primary structures of these positively charged molecules are highly diverse, yet their secondary structures share the common feature of amphipathicity (2Hancock R.E.W. Lancet. 1997; 349: 418-422Abstract Full Text Full Text PDF PubMed Scopus (1122) Google Scholar). α-Helical peptides, including cecropins (3Boman H.G. Hultmark D. Annu. Rev. Microbiol. 1987; 41: 103-126Crossref PubMed Scopus (654) Google Scholar) and β-sheet peptides, including defensins (4Westerhoff H.V. Juretic D. Hendler R.W. Zasloff M. Proc. Natl. Acad. Sci. U. S. A. 1989; 86: 6597-6601Crossref PubMed Scopus (261) Google Scholar), have been studied extensively. It has been proposed (1Hancock R.E.W. Falla T. Brown M.H. Adv. Microb. Physiol. 1995; 37: 135-175Crossref PubMed Scopus (253) Google Scholar, 2Hancock R.E.W. Lancet. 1997; 349: 418-422Abstract Full Text Full Text PDF PubMed Scopus (1122) Google Scholar) th</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1537617801</t>
+          <t>https://openalex.org/W3184580081</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1142/7226</t>
+          <t>https://doi.org/10.4000/medievalista.4535</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Okma et al. (2009)</t>
+          <t>Borchardt (2021)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Six Countries, Six Reform Models: The Healthcare Reform Experience of Israel, The Netherlands, New Zealand, Singapore, Switzerland and Taiwan</t>
+          <t>National Rivalry among Hospitallers?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Health Reform in Chile: From Military to Democratic Governance Health Reform in Israel: Partial Policy Implementation as Learning Opportunity Health Reform in The Netherlands: Change and Continuity Health Reform in New Zealand: Reform and Re-form Health Reform in Singapore: Willingness to Change and Pragmatism Health Reform in Switzerland: Privatizationj, Decentralization and Constraints of Federalism Health Reforms in Taiwan: Learning from International Experience and National Adjustments Conclusions: What to Make of the Reform Experiences? Empirical and Theoretical Findings.</t>
+          <t>Rivalry among Hospitallers?Medievalista, 30 | 2021who chaired the chapter, together with some or all of the preceptors and other Hospitallers who were present 17 .The 1392 document deals with a complaint of Fr.Johann Schenk and three named Hospitallers against Fr.Otto Lembucher and other, unnamed Hospitallers who had the backing of Duke Albert III of the Austrian line of the Habsburg family, whose territories included Mailberg.The notary public describes, more or less verbatim, the formal complaint (plancta) and the decision (esguardium) which was found and pronounced during the chapter.In the spring of 1391 Fr.Otto Lembucher had confiscated valuables, extorted payments and in a few cases incarcerated fellow-Hospitallers or their servants.His drastic measures against four commanders must have aroused public scandal, which contemporary chronicles 18 appear to ignore.They do mention, however, a heavy tax that Albert III had imposed on ecclesiastical institutions in 1390 19 .Albert's purpose was to pay debts his late brother Leopold III, the founder of the Styrian line of the Habsburg family, had contracted for his wars against the Swiss over the allegiance of the town and territory of Lucerne.Against the Swiss Leopold had lost the battle and his life at Sempach in 1386.Thereafter, Albert assumed the regency for Leopold's four underage sons.In this context, the rich town of Vienna twice obtained a ducal privilege to the effect that no Viennese should be exempt from taxes, except the courtiers of the duke 20 .Neither of these two privileges said anything about tax exemption for Viennese clergy; it may have struck many as a good idea that the church should contribute.Albert III, however, lacked papal licence to tax ecclesiastical institutions, so Pope Boniface IX in Rome excommunicated him.Fearing that Albert might change sides and recognise Pope Clement VII in Avignon, whom Leopold III had recognised, Boniface soon withdrew his excommunication 21 .Yet in the spring of 1391, Fr.Otto Lembucher obviously had the backing of Albert III when he extorted payments from recalcitrant Hospitallers.This becomes less surprising when we remember that Albert's chancellor Berthold von Wehingen ( † 1410) 22 was a brother of Lembucher's predecessor at Mailberg, Fr.Hugo von Wehingen.The Wehingen were knights from Swabia.Hugo the Elder had sold the family castle to Albert III's father Albert II in 1351, who had promised to look after his children in return.Thus Hugo the Younger became Commander of Hohenrain 23 , c. 20 kilometres north of Lucerne, and later on Commander of Mailberg 24 .On 22 March 1385, Albert III asked the Urbanist Hospitaller Master Fr.Riccardo Caracciolo to confirm Mailberg to Fr. Hugo for life 25 .The Duke's petition was granted at Cicciano, 35 km north-east of Naples, on 16 May 1385 by Fr.Riccardo and high-ranking Hospitaller brethren in his entourage 26 .At Genoa on 11 January 1386, Fr.Riccardo retained Fr.Hugo under his special jurisdiction 27 , an act that exempted Fr.Hugo personally together with his possessions from all other officers in the Hospital.In 1387 and 1389, Fr.Hugo was mentioned as Commander of Mailberg.Then he lost Mailberg to Fr. Otto Lembucher, contrary to his Magistral privilege of 1385.The reasons for this remain unclear.Certainly Fr.Hugo did not die, because from 1397 to 1405 he reappears, this time as Commander of Vienna and Laa 28 .The monies Fr.Otto Lembucher extorted from his opponents in 1391 were considerable, amounting to 1215 florins and 221 pounds, some 1615.3florins at a ratio of 1 florin for 132.5 pennies 29 .They may have been paid ultimately to Duke Albert III.Further context for Fr.Otto Lembucher's actions might be the tense relations between Albert III and King Wenceslaus, the ruler of the Empire and of Bohemia, because the Prior Fr.Marcold von Wrutitz was a close counsellor of Wenceslaus 30 .In the early 1390s, Albert allied National Rivalry among Hospitallers?</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4361859690</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1162/jinh_r_01927</t>
+          <t>https://openalex.org/W2892110098</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Brittsan (2023)</t>
+          <t>Marjanović et al. (2014)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>&lt;i&gt;The Grammar of Civil War: A Mexican Case Study, 1857–61&lt;/i&gt; by Will Fowler</t>
+          <t>Tax competition as global and regional phenomenon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>This book grows out of Fowler’s previous studies of the forceful negotiations that dominated the early political life of nineteenth-century Mexico. Known as pronunciamientos, these tense affairs usually ended without cataclysmic violence and led to concessions and agreement between the contending factions. In short, Fowler has already demonstrated how democracy by other means functioned in Mexico. Such was not the case with the War of Reform from 1857 to 1861, in which the fighting claimed approximately 200,000 lives. The Grammar of Civil War explores how and why this exceptional violence came to pass.But Fowler has more than the history of Mexico on his mind this time around. After all, his previous monograph, La Guerra de Tres Años, 1857–1861 (Mexico City, 2020) delves fully into that conflict as a singular military episode. The titular “grammar” of his present study amounts to an analytical framework that Fowler proposes for the study of any modern civil conflict around the world. He maintains that the deployment of this model can explicate even such far-flung events as the seventeenth-century English Civil War and the twenty-first-century Syrian civil war.Fowler begins by drawing from the contributions of political scientists like Kalyvas, Sambanis, and Conteh-Morgan to develop his definition of civil war.1 Crudely summarized, civil wars are conflicts located within the bounds of a nation-state that features a single government prior to the commencement of hostilities. They also involve at least two warring parties—one of which enjoys government sponsorship. Finally, civil wars require competing political factions that lay claim to national authority, sustained military operations, and a significant death toll of military and civilian lives on each side (7). Fowler closes his introduction by elucidating a tripartite framework for understanding how civil wars begin, the internal dynamics that compel people to continue fighting once war has begun, and the ways in which civil wars end.Each of these components receives consistent and clear explanation in a chapter of its own. To understand how civil wars begin, Fowler examines the macro-transnational sphere alongside the national-regional context, which encompasses structural contributing factors, social divides, ideological disputes, and cultural concerns. Amid these swirling forces, an activation period that is difficult to predict and even more challenging to defuse commences. He identifies eight unique but linked components that must become manifest before the preceding stress factors culminate in a civil war.Once it arrives at the actual fighting, the book explores how and why people decide to wield such brutality against others whom they might know intimately. Fowler’s model accounts for the tit-for-tat nature of violence and how it becomes justifiable to a range of participants, including those initially seeking to avoid it altogether. By examining evolving group dynamics and individual agency—everything from emotional grievance to economic gain—Fowler identifies multiple paths that generate a cold logic for waging total war against dehumanized opponents. The implications of this process are beyond sobering, and the third element of Fowler’s framework offers little solace. Although the fighting theoretically could end via exhaustion or negotiated resolution, he finds that, in most cases, the cycle of violence usually concludes where it began—at the business end of a rifle.Aside from the model building that sits at the center of the book, The Grammar of Civil War has much to offer scholars examining military conflict, civil war, and modern Latin America. Fowler draws deeply from primary sources to illustrate how violent conflict has unfolded in the past. The book’s second chapter provides a narrative of Mexico’s War of Reform as a stand-alone episode, with renewed emphasis on the critical roles played by the 1857 Plan de Tacubaya and the subsequent massacre of civilians at the same site in 1859. The war remains firmly in view, even as Fowler deploys that conflict in the service of his theoretical model in the chapters to follow. Although such an exercise potentially could dilute the history or the analytical framework, Fowler’s linguistic dexterity, respect for contingency, and clarity of vision hold the endeavor together.Along the way, Fowler compellingly examines why scholars and the reading public tend to overlook the War of Reform, especially in comparison with the U.S. Civil War. Fowler makes a convincing case for why the War of Reform deserves more consideration as a historical turning point. The book also effectively incorporates the perspectives of civil-war participants from a broad social and geographical swath of life. The ideological and religious imperatives guiding politicians, military leaders, and high clergy in Mexico City may dominate the proceedings, but Fowler does not neglect the imperatives of peripheral indigenous communities and regional bosses. Those seeking a better understanding of nineteenth-century Mexico or the cruel prerogatives of civil war elsewhere in the modern world will be well served by reading this book.</t>
+          <t>Globalization and the great mobility of capital, followed by a partial influence of internal factors directly_x000D_
+contributed to the transformation of the economic system in the world. Among others, significant changes_x000D_
+included the fiscal system, in which, the fiscal authorities seek to tax, financial and other incentives build_x000D_
+competitiveness. The lack of national borders and the establishment of world market contributed to the_x000D_
+greater mobility of factors of production. International companies that do business across borders have_x000D_
+become the holder of the world economy and development. Their mobility is significantly increased due to_x000D_
+the elimination of barriers between states. Tax competition exists in situations where the state, in the creation_x000D_
+of their tax policy seeks to reduce the tax burden (either by lowering the tax rate, approving new tax relief or_x000D_
+abolition of some existing taxes ), all with the aim to encourage productive entry of natural resources in their_x000D_
+respective markets or to prevent their outflow. It implies strategy that the government of a country used to the_x000D_
+appropriate privilege tax measures to attract foreign direct investment. Provide a favorable environment and_x000D_
+better conditions than the competition, be advantageous in at least one factor, an advantage and fight for_x000D_
+foreign direct investment, presents guidance on the existence of tax competition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2340944506</t>
+          <t>https://openalex.org/W4388079207</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10999949.2015.1127110</t>
+          <t>https://doi.org/10.1093/oso/9780199244157.003.0005</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Kee (2015)</t>
+          <t>Baumstark (2001)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>No Excuses or No Equity?: Narrative and Counternarrative Themes within Educational Discourse in New Orleans</t>
+          <t>The Pioneering Swedish Experiment in Railway Regulation</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>This article uses a research framework based in critical race methodology to analyze and emplot narrative and counternarrative themes in public discourse around education reform in New Orleans. It examines narratives from research literature, popular media, and teacher recruitment materials, including the theme of the open-access charter school system as an innovative solution to the failures of pre-Katrina neighborhood schools. It finally argues for the necessity of counternarratives grounded in the testimonies and lived experiences of parents, teachers and students navigating and surviving within a rapidly evolving pedagogical landscape.</t>
+          <t>Abstract Sweden’s railway reform is arousing interest in Europe. Initiated well before the European directive of 1991, it constitutes an ideal observatory for other countries facing the same problems. Held up as a success by numerous observers and presented as an alternative to the British reform, from which it differs in numerous respects, this experiment shows how deregulation of the railway industry can take a very different path. In Sweden, while the reform has been very gradual in nature, it appears to reflect a strong commitment. The decisions made to open the sector to competition have occurred without great discontinuity, as part of a transport policy whose main characteristics are the decentralization of decisions and a massive renewal of investment in railways. Openness to competition has not led to withdrawal by the state. Instead, it has been accompanied by profound institutional changes that have gradually created a new framework for public intervention that this paper proposes to analyse.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2735934895</t>
+          <t>https://openalex.org/W2994464521</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Meimon (2014)</t>
+          <t>Elson et al. (2012)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The Status Quo Dynamic: Innovative Financing and the Financial Transactions Tax (2008-2014)</t>
+          <t>Internal Control Failures at the Pine Grove YMCA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Initially proposed by James Tobin, the notion of a financial transactions tax was revived in the early 2000s in the area of development assistance. By making use of a globalized sector, it was seen as a mechanism allowing for new, stable and lasting multilateral resources for poor countries – the very definition of “innovative financing”. In 2002- 2012, this instrument was the object of unprecedented French diplomatic mobilization in international bodies. Its ultimate results, however, consisted in a domestic tax and a European process that excluded development financing. Drawing upon field work, the present article examines the political and administrative dynamics that ushered what was long seen as a heterodox instrument into the realm of possibility, transformed a global question into a purely domestic one and, in the European case, deflected the instrument from the purpose initially assigned to it – development financing – in order to win support at the international level. ■</t>
+          <t>CASE DESCRIPTION The primary subject matter of this case concerns internal control failures in a nonprofit organization which resulted in two overlapping but unrelated fraud. The case has a difficulty level of four, appropriate for senior level. The case is designed to be taught in one class period and is expected to require five hours of outside preparation by students. This case can be used in an internal or external auditing class, a fraud course, or a nonprofit accounting class. CASE SYNOPSIS The case relates to accounting control failures in a nonprofit organization which resulted in two unrelated fraud. It is loosely based on a real world situation and so, the organization's name and the fraudsters' identities are disguised. The first fraud involved the accounting manager, who stopped paying both state and federal payroll taxes on behalf of approximately 150 YMCA employees. She continued to file false quarterly payroll tax returns for a number of years, retaining the money in the organization's operating account. These actions resulted in the organization incurring a tax liability of approximately $1.4 million. In addition, the accounting manager wrote more than 168 checks for approximately $40,000 to herself from the organization's bank account over a five year period, disguising most as payroll checks. She also used her purchasing card to acquire approximately $23,000 worth of personal merchandise. The second fraud involved the executive director, who hired a local contractor to perform landscaping and renovations at the YMCA locations. The contractor was also hired to perform renovations on the executive director's personal residence. As part of the 'contractual relationship', approximately 26 of the contractor's employees were placed on the YMCA's payroll with the executive director's approval. In addition, materials and equipment brought with the organization's funds were used for landscaping projects at the executive director's residence with the contractor's employees performing the work. Approximately $377,000 of the organization's funds was diverted to the landscaper's employees with an additional $487,000 paid to the contractor for construction and repairs services. The executive director converted approximately $850,000 in federal YMCA funds for his use, disguising them as payments from the YMCA to the contactor. He then concealed his actions by destroying the records. The executive director also converted approximately $58,000 of the organization's funds for personal purposes. INTRODUCTION I can't believe this is happening to me, thought the accounting clerk as she slumped into her chair. The executive director had just informed her of the accounting manager's emergency two-week vacation. On one hand, her dream of having more responsibility had finally come true, but on the other hand it was the beginning of the month. There was so much to do - close the books, reconcile the general ledger accounts including the bank accounts, and prepare monthly financial statements - in addition to her normal duties. Clearly, she would need to prioritize her tasks and try to accomplish as much as possible while waiting for temporary help or the accounting manager's return. The accounting clerk thought that reconciling the bank accounts was a logical starting point. Pine Grove YMCA only had two bank accounts, the operating and payroll accounts, and the accounting manager never complained about reconciling them. In fact, reconciling the bank accounts was the accounting manager's first priority each month. The accounting clerk found the unopened BB&amp;K bank statements with the bank reconciliation file (containing the previous bank reconciliations) on top of the accounting manager's desk. The only missing item was the cash balance from the general ledger and so she printed the cash summary from the system. She was now ready to proceed with the easiest task of the day. …</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2141602489</t>
+          <t>https://openalex.org/W4240281452</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1839424</t>
+          <t>https://doi.org/10.1017/s1740355321000310</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Alessandria &amp; Choi (2011)</t>
+          <t>Pickard (2021)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Establishment Heterogeneity, Exporter Dynamics, and the Effects of Trade Liberalization</t>
+          <t>Guest Editorial</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>The authors study a variation of the Melitz (2003) model, a monopolistically competitive model with heterogeneity in productivity across establishments and fixed costs of exporting. They calibrate the model to match the employment size distribution of US manufacturing establishments. Export participation in the calibrated model is then compared to the data on US manufacturing exporters. With fixed costs of starting to export about 3.9 times as large as costs of continuing as an exporter, the model can match both the size distribution of exporters and transition into and out of exporting. The calibrated model is then used to estimate the effect of reducing tariffs on welfare, trade, and export participation. The authors find sizeable gains to moving to free trade. Contrary to the view that the gains to lowering tariffs are larger in models with export decisions, they find that steady state consumption increases by less in their benchmark model of exporting than in a similar model without fixed costs. However, they also find that comparisons of steady state consumption understate the welfare gains to trade reform in models with fixed costs and overstate the welfare gains in models without fixed costs. With fixed costs, tariffs lead to an overaccumulation of product varieties which can be used more effectively along the transition to the new steady state. Thus, following trade liberalizations economic activity overshoots its steady state, with the peak in output coming 10 years after the trade reform. Finally, the authors explore the impact of the key modelling assumptions in the theoretical literature for quantitative results.</t>
+          <t>This edition of the Journal of Anglican Studies focuses on the development of safe ministry protocols and practices at a number of different levels in the Anglican Communion.The background to this is the emerging stories of long-standing sexual abuse of children, young people and vulnerable adults in public institutions.The Church, generally including the Churches of the Anglican Communion, has not been exempt from this painful and tragic history.In one sense this ought to come as no surprise, for churches are made up of fallen and fallible human beings in solidarity with the rest of humankind and therefore capable of both the best and the worst of human behaviour.In another sense this makes the churches even more culpable given that the values and moral vision espoused by the Body of Christ are the very antithesis of the horrific stories of abuse of children that have come to light in recent decades.In a manner unlike any other public institution, the Church's purpose is directed to the valuing of human and all life, to care, justice and the peaceable kingdom of God.This is so well captured in the words of the Lord's Prayer, 'Your kingdom come on earth as it is in heaven'.Consequently, the Church's failure to safeguard the little ones it purports to cherish is the greater.The Matthean injunctions are right to the point: 'Jesus said, "Let the little children come to me, and do not stop them; for it is to such as these that the kingdom of heaven belongs"' (Mt.19.14); 'If any of you put a stumbling block before one of these little ones who believe in me, it would be better for you if a great millstone were fastened around your neck and you were drowned in the depth of the sea' (Mt.18.6).Over recent years, more often through public national inquiries and commissions, light has been shone on some dark places in the life of the churches not only in the documentation of abuses of children, but of a woeful failure of leadership, in particular bishops, in ignoring the cry of victims, covering up the actions of perpetrators whether clerical or lay, marginalizing the voices calling for justice, inadequate processes for reparation and healing, or paying little genuine attention to the needs for ecclesial reform by way of structures, policies and practices that would make for a safer church.We might say the Church's leadership has displayed a</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2893712539</t>
+          <t>https://openalex.org/W4312819791</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/actrade/9780190681388.003.0005</t>
+          <t>https://doi.org/10.4000/books.oep.15829</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marten (2018)</t>
+          <t>Conference (2022)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4. Creating a worldview of childhood</t>
+          <t>Proceedings of the Paris Open Science European Conference</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>The League of Nations made history on September 26, 1924, when it adopted a resolution declaring that children enjoyed certain rights. The Geneva Declaration of the Rights of the Child reflected a consensus among policymakers and reformers about what childhood meant. Despite its brevity, its idealism, and its lack of specifics—or perhaps because of them—the declaration encouraged a new worldview of children and childhood. “Creating a worldview of childhood” explains how its five clauses provide useful categories for assessing the status of childhood in the twentieth century and help to organize the many threads of reform and policymaking that appeared during the last half of the nineteenth and the first half of the twentieth centuries.</t>
+          <t>This conference on open science is covering many aspects of strategic relevance to build the future of Europe, a future based on knowledge leading to more opportunities for younger generations to express their talent in attractive research careers, be it in universities, research organisations or industry.Some sessions will be dedicated to discussing the assessment of research and researchers' performance, which affects their behaviours.This debate is timely and justified.Most researchers are used to measuring in their labs when collecting and processing data.Scientists have to measure with accuracy to produce reliable and verifiable results.The Nobel laureate Richard Feynman started one of his famous lectures challenging his students about the complexity introduced over the centuries by using different measurement units.Measuring research and researchers' performance is of a different nature and more complex in many ways.It has direct impact on people and a far-reaching policy dimension for the European Research Area.We therefore agree on the need to ensure objectiveness and fairness as guiding principles and we can use assessment methodologies to support broader policy objectives, considering that we live in times of change, including in the scientific methods and the public perception of the role of science.Research processes are in constant evolution, accelerated by the current pandemic and the transition to a resilient, green and digital economy and an inclusive society.The variety of activities making increased use of advanced technologies puts us in a situation where research deliverables are richer and not limited to delivering and counting publications.Modern science delivers other outputs, mostly digital, like datasets, software, algorithms or protocols, and it delivers highly skilled people through specialised education and mentoring.Multidisciplinary collaborations are required to address new scientific questions arising from increased complexity and that is another aspect of this evolution.More and more researchers from different domains, from biology and physics to economics, anthropology or humanities, work together in the boundaries of areas of knowledge.One of the actions included in the first Policy Agenda for the European Research Area, for the next three years 2022-2024, is to advance towards the reform of the assessment system for research, researchers and institutions to improve their quality, performance and impact.We consulted a variety of stakeholders in 2021, including organisations representing researchers, public funders, private funders, universities, research centres, academies, national evaluation agencies and policymakers, and we received strong support for the objective of ensuring a combination of qualitative and quantitative indicators to evaluate research and researchers without compromising on objectivity and peer review.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1977384150</t>
+          <t>https://openalex.org/W2047153714</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0047-2727(77)90029-9</t>
+          <t>https://doi.org/10.1080/00309230.2011.644571</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Frank &amp; Dekeyser-Meulders (1977)</t>
+          <t>Larsson (2012)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>A tax discrepancy coefficient resulting from tax evasion or tax expenditures</t>
+          <t>The discovery of the social life of Swedish schoolchildren</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tax evasion and tax expenditures introduce discrepancies between taxpayers. In this paper, a tax discrepancy coefficient has been worked out in order to establish, given a constant tax yield, what bigger or smaller amounts taxpayers would have to pay if tax evasion or tax expenditures were completely eliminated. After the definition of the coefficients these are calculated for individual income tax returns in Belgium. Similar coefficients can be established for other types of taxation, such as inheritance tax, corporate income tax or even sales tax (e.g. V.A.T.).</t>
+          <t>Abstract This article demonstrates the “discovery of the social life of schoolchildren” by showing how an interest for children’s peer relations emerged in a Swedish educational and medial context. Drawing on historical and sociological childhood studies, the article analyses the concept of schoolchildren’s social life in the 1950s, 1960s and 1970s in relation to changes in education, society and behavioural science. At the centre of attention is the apparent shift around 1970, observable in new interests in bullying among school children, when peer relations, going from almost unnoticed, became, seemingly overnight, the centre of the Swedish media discussions of children and school. Keywords: pupilsSwedenpost-war periodhistory of childhood Notes 1See e.g. Martyn Hammersley and Peter Woods, Life in School: The Sociology of Pupil Culture (Milton Keynes: Open University Press, 1984); Peter Blatchford, Social Life in School (London: Falmer Press, 1998); Anthony Pellegrini and Peter Blatchford, The Child at School: Interactions with Peers and Teachers (London: Arnold, 2003); and Phillip T. Slee and Ken Rigby, Children’s Peer Relations (London: Routledge, 1998). 2See e.g. Peter N. Stearns, “Defining Happy Childhoods: Assessing a Recent Change,” Journal of the History of Childhood and Youth 3, no. 2 (2010): 165–186; Peter N. Stearns, Anxious Parents: A History of Modern Child-Rearing in America (New York: New York University Press, 2003). 3Astri Andresen and others, Barnen och välfärdspolitiken: Nordiska barndomar 1900–2000 (Stockholm: Dialogos förlag, 2011), 342–9. 4Mead, Culture and Commitment: A Study of the Generation Gap (London: The Bodley Head, 1970). 5The acculturative process was one of the major interests of Mead throughout her career ever since the 1920s. The terms prefigurative, cofigurative and postfigurative were first used in “Cultural Determinants of Sexual Behaviour,” in Sex and Internal Secretion, ed. W.C. Young (Baltimore: Williams and Wilkins, 1961); see Mead, Culture and Commitment, 98. 6Peter Blatchford uses the expression in a similar way in Social Life in School. 7See e.g. Vivien Burr, Social Constructionism (London: Routledge, 2003); and Donileen R. Loseke, Thinking About Social Problems: An Introduction to Constructionist Perspectives (New York: Aldine de Gruyter, 2003). 8Thomas Ziehe and Herbert Stubenrauch, Plädoyer für ungewöhnliches Lernen: Ideen zur Jugensituation (Reinbek bei Hamburg: Rowolt, 1984), 30–1. 9Allison James and Alan Prout, Constructing and Reconstructing Childhood: Contemporary Issues in the Sociological Study of Childhood (London:Falmer, 1990). 10For outlines, see e.g. Colin Heywood, A History of Childhood: Children and Childhood in the West from Medieval to Modern Times (Cambridge: Polity, 2001); and Hugh Cunningham, Children and Childhood in Western Society (London: Longman, 1995). 11Peter N. Stearns, “Challenges in the History of Childhood,” Journal of the History of Childhood and Youth 1, no. 1 (2008): 36. 12There is a detailed analysis of how children’s peer relationships appear in this magazine in Anna Larsson, “Mobbningsfrågan i förändring: efterkrigstidens synsätt på skolbarns kamratrelationer,” Historisk tidskrift 130, no. 2 (2010): 241–64. 13Anna Larsson, ”Mobbningsbegreppets uppkomst och förhistoria: en begreppshistorisk analys,” Pedagogisk forskning i Sverige 13, no. 2 (2008): 19–36. 14Stearns, “Challenges in the History of Childhood,” 36. See also Joseph M. Hawes and N. Ray Hiner, “Hidden in Plain View: The History of Children (and Childhood) in the Twenty-first Century,” Journal of the History of Childhood and Youth 1, no. 1 (2008): 43–9. 15Compare Paula S. Fass, “Foreword,” in Designing Modern Childhoods: History, Space and the Material Culture of Children, ed. Marta Gutman and Ning de Coninck-Smith (New Brunswick:Rutgers University Press, 2008), xi–xiii. 16Karin Zetterqvist Nelson and Bengt Sandin, “The Politics of Reading and Writing Problems: Changing Definitions in Swedish Schooling during the Twentieth Century,” History of Education 34, no. 2 (2005): 189–205; and Tomas Englund, Curriculum as a Political Problem: Changing Educational Conceptions, with Special Reference to Citizenship Education (Lund: Studentlitteratur, 1986). 17Tomas Englund, Samhällsorientering och medborgarfostran i svensk skola under 1900-talet, kap 5–8 (Uppsala: Pedagogiska institutionen, 1986), 315. See also Gunnar Richardson, Drömmen om en ny skola: Idéer och realiteter i svensk skolpolitik 1945–1950 (Göteborg: LiberFörlag, 1983), 76–7. 18E. Stina Lyon, “Education for Modernity: The Impact of American Social Science on Alva and Gunnar Myrdal and the ‘Swedish Model’ of School Reform,” International Journal of Politics, Culture and Society 14, no. 3 (2001): 529–30. 19Englund, Samhällsorientering och medborgarfostran, 315. 20 Läroplan för grundskolan (Stockholm: Skolöverstyrelsen, 1962) and Läroplan för grundskolan (Stockholm: Skolöverstyrelsen, 1969). 21Larsson, “Mobbningsfrågan</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://openalex.org/W651668998</t>
+          <t>https://openalex.org/W2261282690</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Litman (2011)</t>
+          <t>Mammatt (2011)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Improving the Understanding of Transportation Economic Development Impacts</t>
+          <t>Integrate sustainability into strategy : strategy - sustainability</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Economic development refers to progress toward a community’s economic goals such as increased employment, income, productivity, property values, and tax revenues. This paper examines various ways that transportation policy and planning decisions affect economic development, methods for evaluating these impacts, and ways to maximize economic development benefits in transport decisions. Some of these impacts are often overlooked in conventional analysis. This paper emphasizes the importance of using accessibility-based analysis when evaluating transportation economic impacts.</t>
+          <t>South African businesses have reached a plateau regarding integrating sustainability into their business beyond which they cannot progress without radical changes being made to market structures and systems. Businesses need to look beyond financial metrics to their wider outcomes to understand their total footprint on society in terms of economic, environmental, tax and social effects and use what they find to guide their strategic decision making.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2087690962</t>
+          <t>https://openalex.org/W4380786600</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0094582x0202900302</t>
+          <t>https://doi.org/10.1007/s10784-023-09609-7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hamilton (2002)</t>
+          <t>Pickering (2023)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Whither Cuban Socialism?</t>
+          <t>Can democracy accelerate sustainability transformations? Policy coherence for participatory co-existence</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Given overwhelming global dominance of neoliberalism and capitalism today, Cuba is almost alone in providing an alternative socialist political, social, and economic path to development. This path has undergone huge changes over past four decades, and since breakup of Soviet bloc in early 1990s Cuban socialism has suffered greatly and has had to respond in unforeseen ways. Though changed fundamentally, Cuban Revolution has not only managed to survive, surprising critics and supporters alike, but in latter half of 1990s developed further, despite intensification of U.S. economic blockade of country. The political and economic transformation of Cuba and intensely hostile environment in which it has had to operate make it a fascinating subject for analysis. Twenty years ago Carmelo Mesa-Lago stated that the Cuban Revolution continues to polarise opinion, being a source of uncritical admiration, passionate criticism, and intriguing curiosity (1981: 1). This remains case today. This article adopts a political economy perspective, bringing together main ideological forces and changing political/institutional frameworks with key economic changes that have taken place during course of Revolution. Discussion is given to various stages of development of Cuban Revolution, with particular emphasis on recent economic reforms and their implications for future socialist development. A number of important issues are examined, including changing nature of Cuban socialism, implications of tying Cuba's economic development to Soviet bloc,</t>
+          <t>Abstract The 2030 Agenda envisages a world “in which democracy, good governance and the rule of law […] are essential for sustainable development” (Transforming our world: The 2030 Agenda for sustainable development, 2015, paragraph 9). However, the extent to which democratic practices can help or hinder sustainable development remains contested. I show how the relationship between democracy and environmental sustainability can be illuminated by recent advances in research on policy coherence for sustainable development. I apply a framework developed by Shawoo et al., (2022), to illustrate how (in)coherence between these two objectives is driven by a mix of ideas, institutions and interests. This framework can, in turn, help to identify policy options for strengthening coherence between democratic and environmental aims, spanning pluralisation of integrative frames and discourses, inclusive institutional design and reforms that broaden the range of public interests included in decision-making while restraining undue influence of vested interests.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2032519683</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1468-0270.1989.tb00707.x</t>
+          <t>https://openalex.org/W3171332067</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Hardie (1989)</t>
+          <t>Cerami (2015)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Distorted Signals The Taxation of Interest</t>
+          <t>Social Aspects of Transformation</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Should interest be taxed? Alexandra Hardie, of Exeter University, argues that the taxation of interest acts as a major distortion of the economy.</t>
+          <t>The fall of the Berlin Wall marked not the end of the transition to democracy but its beginning, with still uncertain outcomes in terms of electoral continuity and change. In order to provide a more comprehensive picture of the regime vulnerabilities and instabilities that stem from the difficult transition from a centrally planned, authoritarian economy to a free market–oriented democracy, this paper discusses the most important aspects of the transformation that has occurred in Central and Eastern Europe since the end of communism. These aspects include key patterns of social change, social welfare, social problems, and associated social pathologies. Understanding what worked and what went wrong in the social policy domain will improve our understanding of the prospects for future and more successful reforms in this region, as well as in other transitional and developing countries currently on the road to democracy. The first section of this paper provides a brief overview of the key patterns of social change, including social welfare, social problems, and social pathologies, as well citizens’ adaptation to the new environment. The second section discusses similarities and differences among countries in order to understand what policy options have been more successful and why. The third section complements this analysis by addressing ten areas where we can learn from previous mistakes.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2084760800</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.jbiotec.2008.07.1147</t>
+          <t>https://openalex.org/W2377203438</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Li et al. (2008)</t>
+          <t>Zhang (2010)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Very high gravity ethanol fermentation by repeated batch operation using a flocculating fusant yeast strain</t>
+          <t>The Requirement of Transformation of China's Economy: Shifting From Focusing on Quantitative Expansion to the Efficiency of Quality</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rising oil demand in (the) People′s Republic of China has resulted in surging oil imports and mounting environmental pollution. It is projected that by 2030 the demand for fossil fuel oil will be 250 million tons. Ethanol seems to be an attractive renewable alternative to fossil fuel. This study assesses (the) PRC’s ethanol supply potential by examining potential non-food crops as feedstock; emerging conversion technologies; and cost competitiveness. Results of this study show that sweet sorghum among all the non-food feedstocks has the greatest potential. It grows well on the available marginal lands and the Advanced Solid State Fermentation (ASSF) technology when commercialized will shorten the fermentation time which will lower the costs. Other emerging technologies such as improved saccharification and fermentation; and cellulosic technologies will make (the) PRC more competitive in ethanol production in the future. Based on the estimated available marginal lands for energy crop production and conversion yields of the potential feedstocks, the most likely and optimistic production levels are 19 and 50 million tons of ethanol by 2020. In order to achieve those levels, the roadmap for (the) PRC is to: select the non-food feedstock most suitable to grow on the available marginal land; provide funding to support the high priority conversion technologies identified by the scientists; provide monetary incentives to new and poor farmers to grow the feedstocks to revitalize rural economy; less market regulation and gradual reduction of subsidies to producers for industry efficiency; and educate consumers on the impact of fossil fuel on the environment to reduce consumption. Since the share of ethanol in the overall fuel demand is small, the impact of ethanol on lowering pollution and enhancing fuel security will be minimal.</t>
+          <t>Because of the continuous rapid economic growth,there are some problems with China's economy,such as the imbalance between domestic demand and external demand,investment and consumption,the economic growth and the environment's ability to tolerate,the regional and urban and rural development.The author puts forward that we should transform the pattern of economic growth and development,shift our focus on the quantitative expansion to the quality and efficiency of growth to promote the stable,coordinate and sustainable development.The author also puts forward some suggestions on how to promote the economic transformation,such as slowing down the economic growth,paying more attention to restructure and the transforming the pattern of economic development and deepening reform and improving the socialist market system.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2998724921</t>
+          <t>https://openalex.org/W4255043541</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/bhm.2019.0083</t>
+          <t>https://doi.org/10.1080/09668139608412420</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Amster (2019)</t>
+          <t>Barnett et al. (1996)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Medical Imperialism in French North Africa: Regenerating the Jewish Community of Colonial Tunis by Richard C. Parks</t>
+          <t>Reviews</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Reviewed by: Medical Imperialism in French North Africa: Regenerating the Jewish Community of Colonial Tunis by Richard C. Parks Ellen Amster Richard C. Parks. Medical Imperialism in French North Africa: Regenerating the Jewish Community of Colonial Tunis. Lincoln: University of Nebraska Press, 2017. xvi + 196 pp. $55.00 (978-0-8032-6845-6). Richard Parks' Medical Imperialism in French North Africa is about more than medicine—it is the historical journey of Jews in Tunis, from a Mizrahi and Sephardic community divided between the oldest indigenous Jewish population ("Twansa" in Tunisian colloquial) and the Tunisian Judeo-Italians originally from Livorno (the "Grana") to a unified Tunisian Jewish population seeking a new modern self. Tunisian Jews had to navigate the French protectorate administration, a cultural French "civilizing mission" of the metropolitan Alliance Israélite Universelle (AIU), and a muscular Zionism intent on recruiting North African Jews for regeneration in Israel. Parks argues that Tunis Jews embraced a neo-Lamarckian French positive eugenics to regenerate themselves as a "modern" Jewish population. Such self-modernizing was also an erasure, as French and Tunisian Jews worked with public health officials to destroy the traditional Jewish hara, or ghetto (p. 64). Each chapter of this micro-history begins with reflections by the Tunisian Jewish [End Page 626] intellectual Albert Memmi: "Just as I sat on the fence between two civilizations, so would I now find myself between two classes; and I realized that, in trying to sit on several chairs, one generally lands on the floor" (p. 63). Parks describes how colonial urban planning and public health worked to reshape the Jewish population under French colonial rule. To increase the small European population, French protectorate authorities selectively naturalized the most assimilated Tunisian Jews in order to avoid the "Italian threat" posed by so many Italian immigrants, while avoiding the mass enfranchisement of native Jews that occurred under the Crémieux Decree in French Algeria (pp. 76–80). Parks argues Tunisian Jews were then subject to intensive French hygienic regulation to instill "Frenchness" (p. 30). The open sewers in Jewish streets, open night soil pits in homes (pp. 36–39), and overcrowded housing (p. 46) suggest that such hygiene regulation was not without cause; however the focus of the book is not disease but the draconian French zoning that demolished historic Jewish quarters, excluded Muslims from renovated housing, and made multicultural Tunis into a racially segregated city (p. 60). The heart of the book lies in its rich depiction of the complex and interrelated factors shaping Jewish identities, between metropole, colony, and Israel. Chapter 3 shows the difference between metropolitan and colonial public health by following the "cleansing" policies for slum clearance in the metropolitan Paris Saint-Gervais Jewish quarter and the colonized Tunis Jewish hara ghetto quarter. In Paris, wealthy Parisian slumlords blocked reforms of their dilapidated buildings in Saint-Gervais as Third Republican officials dithered. Not until the Vichy regime was hygiene "enforced," as Jews were forcibly relocated to camps between 1941–42; their formerly unsafe housing was "renovated" for Aryan habitation (p. 74). In Tunis, French modernist hygiene had a free hand, and funds not spent on poor Jews in Paris were poured into Jewish Tunis. In the metropole, assimilated French Jews had internalized the French notion that Jews were irredeemable "save through the glory of France" and thus undertook a "mission to civilize" and uplift their degraded Oriental coreligionists through the AIU (p. 69). The Tunis Municipal Council consequently approved razing the traditional Jewish ghetto hara quarter in 1930. For their part, individual Tunisian Jews were fragmented in their loyalties, drawn alternately between French-Jewish ideologies, the Tunisian nationalist Destour ("constitution") movement, the goals of the French protectorate, secular Zionism, and revisionist Zionism. This complexity comes together in chapter 4, as the secularist Zionist Herzl, the labor Zionist Gordon, and the revisionist Jabotinsky each present different Zionist plans to regenerate world Jewry physically through settlement in Israel. The Tunisian Jew Albert Valensi represented the Tunisian adoption of a Mizrahi revisionist view (p. 103). Alliance Israelite Universelle teachers in Tunisia rejected Zionism and instead offered moral regeneration, a French education to "civilize" and thus rescue Oriental Jewish children in Alliance schools (pp. 96...</t>
+          <t>Abstract Anders Aslund, How Russia Became a Market Economy. Washington, DC: The Brookings Institution, 1995, xviii + 378 pp., £25.75/£9.95. Boris Kagarlitsky, Restoration in Russia: Why Capitalism Failed. London: Verso, 1995, 172 pp., £39.95/£11.95. Simon Clarke (ed.), Management and Industry in Russia: Formal and Informal Relations in the Period of Transition. Aldershot: Edward Elgar, 1995, xii + 244 pp. £45.00. Jan Adam, Why Did the Socialist System Collapse in Central and Eastern European Countries? The Case of Poland, the Former Czechoslovakia and Hungary. London: Macmillan, 1996, xii + 244 pp., £40.00. Ž Bogetić &amp; Arye L. Hillman (eds), Financing Government in the Transition: Bulgaria. The Political Economy of Tax Policies, Tax Bases, and Tax Evasion. Washington, DC: The World Bank, 1995, xv + 254 pp., £19.95. Vladimir Tismaneanu (ed.), Political Culture and Civil Society in Russia and the New States of Eurasia. Armonk, NY: M. E. Sharpe, 1995, xiii + 384 pp., $22.95. Alexander Maksimovich Yakovlev, Striving for Law in a Lawless Land—Memoirs of a Russian Reformer. New York: M. E. Sharpe, 1996, xvi + 237 pp., $62.95. Tuomas Forsberg (ed.), Contested Territory: Border Disputes at the Edge of the Former Soviet Empire. Aldershot: Edward Elgar, 1995, xi + 267 pp., £45.00. Graham Smith (ed.), The Nationalities Question in the Post‐Soviet States. London: Longman, 1996, xiv + 524 pp. Aleksandr’ G. Savel'yev &amp; Nikolai N. Detinov, The Big Five: Arms Control Decision‐making in the Soviet Union. Westport, CT: Praeger, 1995, xiv + 204 pp., £47.95. Keith L. Nelson, The Making of Detente: Soviet‐American Relations in the Shadow of Vietnam, Baltimore, MD: Johns Hopkins University Press, 1995, xvii + 217pp., £29.00. George Ginsburgs, Alvin Z. Rubinstein &amp; Oles M. Smolansky (eds), Russia and America: From Rivalry to Reconciliation, New York: M. Sharpe, 1993, xi + 353 pp. Diego Cordovez &amp; Selig S. Harrison, Out of Afghanistan: The Inside Story of the Soviet Withdrawal. Oxford: Oxford University Press, 1995, ix + 450 pp., $35.00. Andrei S. Grachev, Final Days. The Inside Story of the Collapse of the Soviet Union. Boulder, CO: Westview Press, 1995, xviii + 222 pp., £22.50. Ilya Prizel &amp; Andrew A. Michta (eds), Polish Foreign Policy Reconsidered. Challenges of Independence. Basingstoke, Macmillan, 1995, xiii + 174 pp., £25.00. James Riordan, Christopher Williams &amp; Igor Uynsky (eds), Young People in Post‐Communist Russia and Eastern Europe. Aldershot: Dartmouth, 1995, xvi + 215 pp., £39.50. James von Geldern &amp; Richard Stites (eds), Mass Culture in Soviet Russia: Tales, Poems, Songs, Movies, Plays and Folklore 1917–1953. Bloomington and Indianapolis, IN: Indiana University Press, 1995, xxix + 492 pp., £39.50 h/b, £19.50 p/b. Katerina Clark, Petersburg, Crucible of Cultural Revolution. Cambridge, MA: Harvard University Press, 1995, xii + 377 pp., £25.50. Anna Feldman Leibovich, The Russian Concept of Work: Suffering, Drama, and Tradition in Pre‐ and Post‐Revolutionary Russia. Westport, CT and London: Praeger, xv + 166 pp., £44.95. R. Antony French. Plans, Pragmatism &amp; People. The Legacy of Soviet Planning for Today's Cities. London: UCL Press, 1995, xi + 233 pp. Roger Brunet, Denis Eckert &amp; Vladimir Kolossov, Atlas de la Russie et des pays proches. Montpellier‐Paris: Reclus‐La Documentation Franchise, 1995, 208 pp., 220Ff. Bruce Grant, In the Soviet House of Culture: A Century of Perestroikas. Princeton, NJ: Princeton University Press, 1995, xvii + 225 pp., £12.00. Michael Bourdeaux (ed.), The Politics of Religion in Russia and the New States of Eurasia, The International Politics of Eurasia, Volume 3. Armonk, NY and London: M.E. Sharpe, 1995, xiv + 321 pp., $49.95 h/b, $19.95p/b.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2771554447</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/10463356.1992.11905050</t>
+          <t>https://openalex.org/W3089776740</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Clarke (1992)</t>
+          <t>Manaf &amp; Musa (2019)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Health Care Reform: What Does the Future Hold?</t>
+          <t>Editorial. Special Issue</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>This special issue of KEMANUSIAAN the Asian Journal of Humanities comprises of nine_x000D_
+articles that discuss various topics related to humanities and religiosity, focusing mainly_x000D_
+on Islamic thought and religious ideals. The first article ventures to uncover an extremely_x000D_
+crucial aspect that was often neglected in the treatment of Islamic scriptures. It attempts to_x000D_
+study the possibility of applying the art and science of voice intonation when reading the_x000D_
+scriptures, particularly the ḥadīth. This study not only looks at how voice intonation could_x000D_
+help identify various linguistic and prosodic elements as well as styles, but also how it_x000D_
+could significantly affect the understanding of a certain ḥadīth. The preliminary analysis of_x000D_
+this study has successfully raised this problem for further scholarly endeavours in religion_x000D_
+and humanity studies._x000D_
+The second article explores the linkages between Islamic spirituality and the instruction_x000D_
+of science. This explorative study on Islamic spirituality and science demonstrates that_x000D_
+the inclusion of spirituality in the teaching of natural sciences is beneficial for students as_x000D_
+it will help them connect their spiritual experience with the content of science, use their_x000D_
+innate abilities to further understand nature, and learn how to grasp the meaning of things._x000D_
+The third article, on the other hand, aims at delineating Islamic position with regard to_x000D_
+the conflict between the habituation method and the moral autonomy. The study shows_x000D_
+that habituation method is incompatible with the goal of Islamic education, which is the_x000D_
+rational growth and development of the youth. Hence, it cannot be accepted in Islamic_x000D_
+moral education._x000D_
+The fourth article examines a Persian travelogue written by Ḥājj Sayyāḥ, entitled_x000D_
+Safarnāmaḥ-i Ḥājj Sayyāḥ bih Farang, which presents a journey of escaping the captivity_x000D_
+of ignorance and heading towards absolute freedom by disciplining the soul in a sufi way._x000D_
+Moving to a modern application of Islamic thought, the fifth article examines the issue_x000D_
+of Islamic governance from an epistemological point of view as inspired by the general_x000D_
+theory of Maqasid al-Shariʿah. The study utilises an “inductive qualitative methodology”_x000D_
+(istiqra’) to explore some conceptual frameworks and critically analyse the texts from_x000D_
+authentic Islamic sources. The sixth article, however, invites the readers to explore the past._x000D_
+It analyses the structure of authorities and syncretic practices related to the development_x000D_
+of socio-political and cultural-religious environment in South East Asia prior to the spread_x000D_
+of Islam in the region._x000D_
+The seventh article not only reveals that Islamic movements played a very significant role_x000D_
+in reforming da‘wah work, but also proves that the differences in political ideology were_x000D_
+not a major obstacle for Islamic movements in developing da‘wah work in the country._x000D_
+The eighth article, interestingly, parades the life-changing experience of two Westerners’_x000D_
+conversion to Islam based on their autobiographies. In his autobiography The Road to_x000D_
+Mecca (1954), Leopold Weiss aka Muhammad Asad, a Jewish convert to Islam narrates _x000D_
+vi_x000D_
+the road that took him to Islam. Meanwhile, Kristiane Backer, an MTV celebrity presenter_x000D_
+who converted to Islam wrote an autobiography entitled From MTV to Mecca: How Islam_x000D_
+Inspired My Life (2012)._x000D_
+The ninth and final article in this issue assesses the underlying reasons for the sinicization_x000D_
+of Chinese Muslims apart from the obvious political necessity of the Chinese imperial_x000D_
+government, and the effects of the process on the Muslim community. This paper utilises_x000D_
+qualitative and library research methods to look at various factors which contributed to_x000D_
+the sinicization of Muslims in China and gives attention to the stimulus for synthesis byThis paper utilises_x000D_
+qualitative and library research methods to look at various factors which contributed to_x000D_
+the sinicization of Muslims in China and gives attention to the stimulus for synthesis by_x000D_
+Muslim intellectuals and scholars.. The findings of this paper indicate that one of such lasting impacts of sinicization is the formation of the Gedimu School which was essentially the synthesis of Chinese and Islamic ideas and traditions._x000D_
+_x000D_
+Nor Faridah Abdul Manaf_x000D_
+Muhammad Adli Musa_x000D_
+Guest Editors</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247711200</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/00263208608700655</t>
+          <t>https://openalex.org/W2910647986</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Gilbar et al. (1986)</t>
+          <t>NA (2017)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Book reviews</t>
+          <t>Nutrients - Elwha River salmon carcass addition experiment</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Abstract Iran: Monarchy, Bureaucracy and Reform under the Qajars: 1858–1896 by Shaul Bakhash. St.Antony's Middle East Monographs No.8. London: Ithaca Press, 1978. Glossary. Bibliography. Index. Pp. xii + 444. N.p. Cities and Trade: Consul Abbott on the Economy and Society of Iran 1847–1866 edited and with an introduction by Abbas Amanat. London: Ithaca Press for the Board of the Faculty of Oriental Studies, Oxford University, 1983. Oxford Oriental Monographs No. 5. Pp.xliv + 256; appendices; index. Arab and Regional Politics in the Middle East by P.J. Vatikiotis. New York: St. Martin's Press, 1984. £19.95. Conflict and Violence in Lebanon by Walid Khalidi. Cambridge: Harvard University Press, 1979. Pp.217. Christliche Gruppen im Libanon by Michael Kuderna. Wiesbaden; Franz Steiner Verlag, 1983. Pp.453. Moroccan Dialogues, Anthropology in Question by Kevin Dwyer. Baltimore and London: The Johns Hopkins’ University Press. 1982, Pp.297; index. N.p. Individuals in the Community: Social Life in 18th and 19th Century Moroccan Jewry by Shlomo Deshen. Hebrew text (Tzibbur ve‐Yehidim be‐Marocco). Israel: Misrad Habitachon, Pp.102; bibliography; illustrations. N.p. Saint Veneration among the Jews in Morocco by Issachar Ben‐Ami. Hebrew University of Jerusalem, Folklore Research Center Studies VIII. Jerusalem: Magnes Press, 1984. Pp.600 + 32 plates (Hebrew with English title‐page, list of contents and preface). N.p.</t>
+          <t>dam removal and other fish barrier removal projects in western north america are assumed to boost freshwater productivity via the transport of marine derived nutrients from recolonizing pacific salmon oncorhynchus spp in anticipation of the removal of two hydroelectric dams on the elwha river in washington state we tested this hypothesis with a salmon carcass addition experiment our study was designed to examine how background nutrient dynamics and benthic foodwebs vary seasonally and how these features respond to salmon subsidies we conducted our experiment in six side channels of the elwha river each with a spatially paired reference and treatment reach each reach was sampled on multiple occasions from october 2007 to august 2008 before and after carcass placement we evaluated nutrient limitation status measured water chemistry periphyton benthic invertebrates and juvenile rainbow trout o mykiss response and traced salmon derived nutrient uptake using stable isotopes outside of winter algal accrual was limited by both nitrogen and phosphorous and remained so even in the presence of salmon carcasses one month after salmon addition dissolved inorganic nitrogen levels doubled in treatment reaches two months after addition benthic algal accrual was significantly elevated we detected no changes in invertebrate or fish metrics with the exception of 15n enrichment natural seasonal variability was greater than salmon effects for the majority of our response metrics yet seasonality and synchronicity of nutrient supply and demand are often overlooked in nutrient enhancement studies timing and magnitude of salmon derived nitrogen uptake suggest that uptake of dissolved nutrients were favored over direct consumption of carcasses the highest proportion of salmon derived nitrogen was incorporated by herbivores 1830 and peaked 12 months after carcass addition peak nitrogen enrichment in predators 1116 occurred 23 months after addition all taxa returned to background d15n levels by 7 months since this study was conducted both dams on the elwha river were removed over 2011 2014 to open over 90 of the basin to anadromous fishes we anticipate that as the full portfolio of salmon species expand through the basin nutrient supply and demand will become more balanced and positive feedback loops of reciprocal nutrient transfer reinforced water chemistry nutrient diffusing substrates</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://openalex.org/W205580469</t>
+          <t>https://openalex.org/W322863031</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tirello et al. (1983)</t>
+          <t>Norquist et al. (1997)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Electric utility industry: rethinking regulation. [Monograph]</t>
+          <t>Reagan Betrayed: Are Conservatives Fumbling His Legacy?</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>This report identifies guideposts for those investors wishing to acquire a better understanding of current and prospective regulatory trends and issues. The view is proffered that ever-changing circumstances and growing uncertainty have created the need to recast existing regulatory approaches into a balanced system that consistently compensates investors with competitive returns for the nature of risks assumed when investing in utilities. Owing to the inadequacies of existing regulatory approaches, growing imbalances between perceived investor risks and earned returns are spawning alternative ways of thinking about regulatory structure. Electric utilities are being helped by the Economic Recovery Tax Act of 1981, which allows tax deferrals for reinvested dividends, provides enhanced investment tax credits, and permits accelerated cost recovery. However, the authors note that unresponsive regulation causes utilities to consistently fall short of earning allowed returns, thus providing investors with a powerful incentive to discriminate between different state regulatory environments.</t>
+          <t>What can conservatives today learn most from Ronald Reagan? Which features of Reagan's legacy (his principles, his rhetoric, his policies, his leadership style) are conservatives today most in danger of forgetting or betraying? Policy Review asked these questions of several of the conservative movement's top leaders. -- Grover G. Norquist -- Before Ronald Reagan, great men like Whittaker Chambers said and believed that conservatives were on the losing side of In the 1950s, Bill Buckley said that the task of conservatives was to stand athwart history and yell 'stop.'  From Ronald Reagan, conservatives have learned optimism and dis- covered they are on the winning side of history. Today, conservatives know that it is Marxism-Leninism that is in the dustbin of history, and we march with confidence against the welfare state. Speaker Newt Gingrich and Majority Leader Trent Lott move to abolish the capital-gains tax and the death tax and propose a single-rate tax on income or retail sales. Every conservative knows that we will win radical tax reform and reduction as soon as we elect a president who will sign the bill. The flow of history is with us. Our victories can be delayed, but not denied. This is the change wrought by Ronald Reagan. But conservative leaders sometimes forget that one of Reagan's great strengths was his ability to remain in visionary mode. He called for tax cuts, then left it to staffers such as James Baker to negotiate and compromise as needed to get a tax cut through Congress. Reagan himself never spoke about compromises. When one Republican leader was quoted recently as saying that conservatives lacked the votes to abolish the National Endowment for the Arts, the press misconstrued the statement as a retreat from efforts to defund the NEA. Leaders should keep their eyes on the goal and leave such comments to their staffs. Conservatives should also remember Reagan's willingness to repeat his mes- sage-over and over again. Active minds find it difficult to repeat, in speech after speech, the conservative goals of lower taxes, less regulation, and smaller government. But when you give the speech for the 100th time, there will be someone in the audience who is hearing it for the first time. Younger voters are always being introduced to the conservative message. Conservatives are repeating one important error of the 1980s. During the Reagan years, conservative activists often complained that they would win the day if only the president would focus on their issue of concern long enough to make a few phone calls or send out a letter or have a meeting. This, of course, was true. A president can win any small battle in which he engages. But there were hundreds, perhaps thousands, of possible problems to solve. We complained about what Reagan or his underlings failed to do for us. Now some conservatives are falling into the same trap, as they complain that we could win issue X if Gingrich or Lott won it for us. Whining about Gingrich or Lott is no substitute for doing the hard work of fighting these battles ourselves. -- Michael Reagan -- On the day he was inaugurated, my father placed his hand on his mother's well-worn Bible and took the presidential oath of office. His hand rested on 2 Chronicles 7:14: If My people who are called by My name will humble them- selves, and pray and seek My face, and turn from their wicked ways, then I will hear from heaven, and will forgive their sin and heal their land. America certainly needed healing that day. We had endured a long national nightmare: the Iranian hostage crisis, double-digit inflation, and entrenched pessimism. Our economy was in ruins. Our hollow military seemed no match for the Soviet power that threatened the globe. But the next eight years changed all that. Ronald Reagan had long known what he intended to do in office. In 1976, he wrote a newspaper column, Tax Cuts and Increased Revenue, that foreshadowed supply-side Reaganomics. …</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1995056154</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijhydene.2005.04.021</t>
+          <t>https://openalex.org/W3159369684</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Purwanto &amp; Akiyama (2006)</t>
+          <t>Holohan &amp; Mott (2021)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hydrogen production from biogas using hot slag</t>
+          <t>Improving Outcomes for Youth Transitioning from Foster Care to Adulthood: : An Innovative Model and Recommendations for Funding</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Possibility of hydrogen production from biogas using hot slag has been studied, in which decomposition rate of CO2–CH4 in a packed bed of granulated slag was measured at constant flow-rate and pressure. The molten slag, discharged at high temperature over 1700 K from smelting industries such as steelmaking or municipal waste incineration. It has enough potential for replacing energy required for hydrogen production due to the catalytic steam reforming or carbon decomposition of hydrocarbon. However, heat recovery of hot slag has never been established. Therefore, the objective of this work is to generate hydrogen from methane using heated slag particles as catalyst, in which the effect of temperature on the hydrogen generation was mainly investigated at range from 973 to 1273 K. In the experiments a mixed gas of CH4 and CO2 was continuously introduced into the packed bed of hot slag at constant flow-rate and atmospheric pressure and then the outlet gas was monitored by gas chromatography. The results indicate that slag acted as not only thermal media but also good catalyst, for promoting decomposition. The product gases were mainly hydrogen and carbon monoxide with/without solid carbon deposition on the surface of slag, depending on the reaction temperature. Increasing temperature led to large hydrogen generation with decreasing un-reacted methane in the outlet gas, at when the largest methane conversion was about 96%. The results suggested a new energy-saving process of hydrogen production, in which the waste heat from molten slag can replace the energy required for hydrogen production, reducing carbon dioxide emission.</t>
+          <t>Transitioning to adulthood is a daunting challenge for young people and can be a frightening time for young adults exiting the foster care system. Short-term and long-term outcomes for youth transitioning from foster care remain poor, when compared with all youth. These poor outcomes translate directly into lack of sustainable employment and contributing to the tax base, and increased use of public benefits. Housing instability has been identified as one of the major barriers to improving outcomes for this population. Extending services beyond age 18 when youth typically exit foster care is a critically important strategy for improving outcomes for youth. While many states have extended foster care services, funding streams are not set up to offer all the supports needed, including housing supports. To address this problem, Tabor Children’s Services has developed an innovative program model which improves supports for youth, and recommendations for using existing federal funding to promote housing stability.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2377310121</t>
+          <t>https://openalex.org/W4379621359</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/iur.2020.a838168</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Chun-ji (2013)</t>
+          <t>Middlemas (2020)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Research on the Practice Model of Cultivating Innovative Talents Through Regional Cooperation</t>
+          <t>Regional Comprehensive Economic Partnership (RCEP) &amp;amp; workers in Asia Pacific</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Engineering practice is the key link in cultivating students' engineering ability,one of the keys to promote the quality of application-oriented talents of independent colleges,and an important teaching process to cultivate innovative talents. The independent college should pay more attention to the form and content of practice,and strengthen the cooperation between different levels of schools. A four-in-onequality practice model based on production,teaching,scientific research and teambuilding is formed by strengtheninguniversity-enterprise-collegeregional collaborative innovation. Through exploring a series of thinking and methods in practice teaching for cultivating application-oriented personnel of independent colleges,it not only makes the good progress in talent training,but also provides a strong guarantee for the reform of enterprise technology and the development of new products,which has gained good social appraisal.</t>
+          <t>6 | International Union Rights | 27/4 FOCUS | TRADE UNION RIGHTS IN ASIA RegionalComprehensiveEconomic Partnership(RCEP)&amp;workersinAsiaPacific The COVID-19 pandemic has exposed the flaws of decades of neoliberal trade policy: from the shortages of essential medical supplies due to a lack of local manufacturing capacity, to the exportdependent supply chains in Asia that were brought to a standstill1, to the precarious workers at the bottom of global supply chains that bear the worst impacts of COVID-19, with limited or no access to social protection2. It is clear the COVID-19 crisis requires a rethink of the dominant neoliberal trade paradigm. We need a new model of trade that will enable governments the fiscal and policy space to deal with crises, and that prioritises the health and wellbeing of workers and communities over corporate interests. Instead, Governments in Asia Pacific have doubled down by signing the world’s largest trade agreement3, the Regional Comprehensive Economic Partnership (RCEP), on 15 November 2020. The secret negotiations have been ongoing since 2012 between the ten ASEAN members (Brunei Darussalam, Cambodia, Indonesia, Lao PDR, Malaysia, Myanmar, the Philippines, Singapore, Thailand and Vietnam), Australia, China, Japan, New Zealand and the Republic of Korea (India withdrew from the RCEP negotiations in 2019). The text of RCEP was finalised in 2019 and has not been updated to reflect the changed global circumstances and challenges presented by COVID19 . Indeed, many countries party to the RCEP agreement implemented response measures during the pandemic that could be in breach of RCEP rules, for example closing businesses in particular service sectors and classifying other businesses as essential, and governments taking control of private hospital facilities to treat COVID-19 patients. Despite this, the agreement was signed without changes or any assessment of the health, social, and economic impacts on RCEP countries. It is likely the commitments made in RCEP will constrain the ability of current and future governments to pursue a just and equal recovery from the COVID-19 crisis. The corporate agenda The negotiations for RCEP occurred in secret, without any consultation with unions or community groups. Meanwhile, at the request of RCEP country economic ministers, business representatives from ASEAN, Australia, China, India, Japan, Korea and New Zealand formed an advisory group in 2013 to provide ongoing business input into the negotiations4. The final RCEP agreement, though less draconian than some other trade deals such as the Comprehensive and Progressive Trans-Pacific Partnership (CPTPP)5, is an agreement that benefits corporate interests at the expense of workers and communities in Asia Pacific. RCEP is part of the ‘new generation’ of trade agreements that extends beyond the traditional trade issues of tariffs and goods to cover services, investment, intellectual property rights, government procurement, the digital economy, and the movement of workers – all areas of policy that should be determined through democratic processes. The objective of these trade agreements is to shift power to corporations through deregulation, protecting corporate property rights, and expanding their access to markets and cheap labour. These trade agreements open up countries to foreign investment, with governments agreeing that their laws will not favour local businesses over foreign enterprises - tariffs, subsidies and the preferencing of local businesses in procurement are all barriers that must be removed. Moreover, other types of public regulation, including the regulation of services, are considered barriers to trade and so must be eliminated. Some trade agreements even give foreign investors the ability to sue governments in tribunals for millions of dollars if they argue that a change in domestic law or policy will harm their investment - known as Investor-State Dispute Settlement (ISDS). ISDS cases have been brought against governments for regulating in the area of public health, labour rights, and the environment. Free trade agreements also reinforce power and wealth inequalities between lower and high-income countries. These inequalities were at play in the RCEP negotiations, which included a highly diverse group of economies, with Cambodia, Laos, and Myanmar the least developed countries, and Australia, Japan, Korea, New Zealand, and Singapore high-income economies. RCEP was touted as having a development focused agenda, but the lack of human rights, labour rights and environmental safeguards reinforces a destructive neoliberal development model based on deregulation...</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4230912939</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1787/9789264087637-7-en</t>
+          <t>https://openalex.org/W2249640652</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA (2010)</t>
+          <t>Paschel (2011)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Tax Design Considerations and other Tax-based Instruments</t>
+          <t>States, Movements and the New Politics of Blackness in Colombia and Brazil</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Author(s): Paschel, Tianna Shonta | Advisor(s): Evans, Peter B. | Abstract: The 1990s marked a dramatic shift throughout Latin America from constitutions and state policies that hinged on ideas of colorblindness and mestizaje to targeted policies for black and indigenous peoples. This study analyzes role black social movements played in this shift in Colombia and Brazil, two countries where state adopted most comprehensive reforms for black populations in region. It also analyzes impact of achieving such reforms on black movements' trajectories in two countries. In so doing, I not only examine how black movements are shaped by political context in which they emerge, but how they are able to reconfigure that political context in ways that ultimately reshape black movements themselves. Drawing on 18 months of fieldwork including in-depth interviews, archival analysis, and ethnographic methods, this study reveals new ways of understanding ethno-racial politics in these countries and offers insights about relationship between movements and state, as well as contestation within movements. Further, in examining how black movements seize upon changes in global political field, appropriate global discourses into local struggles, and build transnational alliances, this work also challenges us to integrate constant interplay between global and local processes into our analyses, especially when our aim is to understand social movement dynamics in Global South. In first part of dissertation, I show how rise of global policy norms around multiculturalism, and Durban World Conference against Racism, provided political openings for black movements in Colombia and Brazil, respectively. However, I maintain that it was interplay between such global factors and national political developments paired with strategic action by black movements that best explains states' adoption of these historic reforms. Even so, while both countries adopted policies for black populations beginning in 1990s, dominant discourse around black rights in Brazil centers on notions of the to equality and inclusion, whereas black issues in Colombia are largely framed in terms of right to difference, culture, territory and autonomy. I suggest that these discursive differences have as much to do with how black populations were historically imagined by state in two cases, as they do with different discursive tactics used by black movements when making demands on state. The second part examines consequences of shift to ethno-racial legislation on internal black movement dynamics in two countries. More specifically, I analyze nature of formal structures of political participation set up for black populations in response to movement pressure. I do this by examining how movement actors negotiate, inhabit and contest such spaces, revealing a reality of social movement institutionalization that is much more complex than literature suggests. Whereas black movements in Brazil have been absorbed into mainstream politics within a relatively democratic state, black movements in Colombia have either been repressed violently or institutionalized into precarious alternative political structures leading to unique internal movement dynamics. In order to understand relationship between structure and agency as well as ntional and international political processes in these two cases, I propose conceptual framework of national and global political fields which I argue contributes both to literature on race in Latin America and social movements.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2021785893</t>
+          <t>https://openalex.org/W4252534670</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1175/1520-0469(1986)043&lt;2061:tsoabe&gt;2.0.co;2</t>
+          <t>https://doi.org/10.5089/9781451832853.002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Trenberth (1986)</t>
+          <t>Fund (2006)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>The Signature of a Blocking Episode on the General Circulation in the Southern Hemisphere</t>
+          <t>Romania: 2006 Article IV Consultation: Staff Report; Staff Statement; Public Information Notice on the Executive Board Discussion; and Statement by the Executive Director for Romania</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Two major blocking events took place over the South Pacific Ocean east of New Zealand, 23 July-4 August and 19–27 August 1979. The configuration of the overall flow, including the split in the westerlies, the location of the blocking highs, and the wavenumber breakdown were very similar. The tendency for blocking highs to reform in the same location in close sequence is referred to as a blocking episode. The blocking events are analyzed in detail and the imprint they left on the general circulation statistics for the winter as a whole are presented. Since the blocking episode mostly prevented eddies from moving through the region, the variance of meridional velocity is small. Nevertheless, owing to the sequence of blocks the variance of geopotential height is a maximum. This signature on the general circulation is in marked contrast to that in storm track regions where the variance of geopotential height and meridional wind are both a maximum. A global-scale redistribution of mass was associated with the blocking episode.</t>
+          <t>Background.Real GDP growth slowed to 4.1 percent in 2005, with agricultural output falling as a result of floods and industrial output growth slowing due in part to the abolition of global textile quotas.Domestic demand grew strongly, however, reflecting a sharp increase in private consumption, which in turn was supported by a direct tax cut, higher wages, and rapid credit growth.Consequently, the disinflation process has slowed (CPI inflation was 8.6 percent y-o-y in December 2005 and 8.5 percent y-o-y in February 2006), and the current account deficit widened to 8.7 percent of GDP in 2005.Outlook.Growth is expected to pick up to 5.2 percent in 2006, driven by a recovery in agriculture and industry.Domestic demand growth will slow due to fiscal consolidation, more moderate wage growth, and monetary tightening.Staff's scenario projects inflation of 6.5 percent at end-2006 and a current account deficit of 8.5 percent of GDP.The authorities broadly agreed with the scenario, but thought that growth could be higher. Policy Issues and DiscussionsFiscal policy should be the centerpiece for the macroeconomic strategy, especially given the likelihood of continued large capital inflows.Further fiscal consolidation should aim at stemming excess demand and keeping public finances on a sustainable medium-term path.Staff advocated a balanced budget in 2006 and small surpluses over the medium term, but the authorities considered that a milder adjustment would be sufficient and appropriate to achieve their macro objectives.Given the tight expenditure envelope, Romania's substantial infrastructure requirements, and the need for additional resources for the country's contribution to the EU budget and co-financing of EU projects, the revenue base should be strengthened.A prudent wage policy is critical for successful disinflation.To this end, the government's wage policy needs to be recalibrated to the needs of a low inflation country, featuring wage increases only once a year.The authorities noted their recent decision to freeze non-EU-related vacant positions, and their intent to exercise prudence in their SOE-and minimum-wage policies, but acknowledged that vigilance will be necessary to avoid wage overruns.In light of the 2005 inflation outturn, the authorities need to establish firmly the credibility of their new inflation-targeting regime.Staff urged a tightening of monetary policy, through an increase in interest rates.In early-February, the NBR increased its policy rate by 100 basis points and has since stepped up sterilization operations, bringing the effective interest rate in line with the policy rate.The authorities agreed with the staff's assessment that the exchange rate remains competitive.Staff recommended that intervention in the foreign exchange market be fully sterilized and focused on reducing excess volatility, rather than controlling the longer-term trend.Financial soundness indicators point to a relatively healthy and resilient banking system, and the mission suggested further implementation of FSAP recommendations.Sustained growth and rapid convergence to EU living standards are contingent on progress in structural reforms.There was agreement on the need to maintain momentum on privatization, continue energy price adjustments, make the labor market more flexible, strengthen governance, and improve the business climate.©International Monetary Fund.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4238229661</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4324/9780203496831-7</t>
+          <t>https://openalex.org/W2766517752</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA (2013)</t>
+          <t>Maulid (2017)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Pittsburgh Protestant Churches and Early Progressive Reform in the Steel City</t>
+          <t>Accountability in education management : the efficient use of fiscal resources in Tanzania</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>This study investigates accountability, a subset of New Public Management technique and its facilitation in efficient management of school fiscal resources in Tanzania. Key issues include factors contributing to the applicability of NPM in Tanzania, the applicability of NPM in education sector, the way accountability facilitates rational use of school funds and factors towards misuse in schools. The NPM model and some other strands in rational choice perspectives and the new institutional theories particularly the public choice theory, were used. The empirical study included interviews, focus group interviews and documentary reviews. It included 56 participants. _x000D_
+It was found that the factors influencing applicability of NPM in the education sector in Tanzania include international policy transfer and policy changes within the education sector. The findings reveal that socioeconomic challenges led the government to formulate a series of education policy reforms in the 1990s. Several international aid agencies have also contributed to the application of NPM in the education sector. _x000D_
+The findings also revealed several factors influencing rational use of school funds in Tanzania. These are the nature of accountability and the way the key players are guided by a number of legislative frameworks in order to implement procedures in the management of school financial resources. Other factors are financial procedures involved during the flow/allocation and during utilisation. More findings revealed that factors attributed to misuse in schools are generally related to personal gain, weaknesses in organisational structure and weak financial procedures. _x000D_
+Overall, the study concludes that NPM reforms in Tanzania are relevant and have improved considerably the public sector in general and education sector in particular. However, it was also found that even though NPM is relevant in Tanzania, it has not been effectively implemented as compared to the five essential pillars commonly identified in the international literature. There is still a long way to go in terms of accountability. Accountability is affected by factors such as low levels of accounting standards and poor legislation which makes financial management systems in schools dysfunctional. As a result, fiscal resources are misused and children are denied their right to access quality education. Therefore, to improve this situation the study suggests a number of measures to remedy existing weaknesses, including public sector reforms, accountability and policy reforms in the education sector.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2462678066</t>
+          <t>https://openalex.org/W2980462014</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5465/amd.2019.0210</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Schott (2008)</t>
+          <t>Tucci et al. (2019)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[Medicine, natural philosophy and magic. Johann Laurentius Bausch from the medical history viewpoint].</t>
+          <t>Discovering the Discoveries: What AMD Authors’ Voices Can Tell us</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>The Bausch reception created a double image: On the one hand he is appreciated as the outstanding founder of the Academy (later called Leopoldina) with its most important impact on the history of science, on the other hand he appears as a rather mediocre doctor and natural scientist, an "uninteresting man", whose scientific ideas soon turned out to be obsolete. This contribution tries to illuminate especially the neglected shady side of Bausch. For this purpose, four of his major writings are analysed: the "Apothecken Tax" and the monographs on the blood stone, the eagle stone and the unicorn. Here, the author intended a synopsis as broad as possible; in his opinion, the collecting of historical documents was as valid as own observations and experiments. Although Bausch again and again alludes to ideas of natural philosophy and magic he does not follow a specific doctrine and particularly keeps out of the controversy between galenism and paracelsianism.</t>
+          <t>Academy of Management DiscoveriesVol. 5, No. 3 Free AccessDiscovering the Discoveries: What AMD Authors’ Voices Can Tell usChristopher Tucci, Jennifer Mueller, Marlys Christianson, Gail Whiteman and Peter BambergerChristopher TucciEPFL, Jennifer MuellerUniversity of San Diego, Marlys ChristiansonUniversity of Toronto, Gail WhitemanLancaster University and Peter BambergerTel Aviv UniversityPublished Online:14 Oct 2019https://doi.org/10.5465/amd.2019.0210AboutSectionsPDF/EPUB ToolsDownload CitationsAdd to favoritesTrack Citations ShareShare onFacebookTwitterLinkedInRedditEmail Academy of Management Discoveries articles are based on empirical explorations that lead to—no surprise—discoveries of different kinds. Discoveries are often serendipitous, and as such, almost always lead us to ask what led the investigator to embark down that path. Although the “true” story behind a study’s development is often left out of the official scholarly account, that story often provides critical insight into the nature of the discovery and the foundational work leading up to it. Moreover, this “backstage” account can also provide important information on the path-dependent nature of both the study design and outcomes. It is with this in mind that AMD pioneered a supplementary feature for each article that we publish, namely “in the authors’ voice” or “authors’ voice” for short. This unique feature of all AMD articles provides information about each research project in the authors’ own words. “Authors’ voice” audio recordings are embedded in each AMD article and involve authors answering a variety of questions such as: What motivated you to undertake this research? How did the research study evolve and change as you worked on it? Was there anything that surprised you about the findings? If you were able to do this study again, what would you do differently?As the authors’ voice recordings shed light on how AMD authors went about generating, examining, and publishing their discoveries, we wished to engage in our own discovery and learn more about the broader themes characterizing authors’ experience. Although each account is important in its own right, as a group they provide potentially important insights into the nature of abduction in management research, as well as implicit “tips” into what makes for a successful AMD submission. Therefore, to more deeply understand why and how authors published at AMD, we performed a thematic analysis of all authors’ voice recordings since the first issue.Broadly speaking, when we transcribed and analyzed all the authors’ voice recordings, we found that authors opted to publish their work in AMD (as opposed to a more traditional journal) because they believed they had a true discovery that either challenged existing theory or laid the groundwork for new theorizing. We also found that AMD authors’ experience of discovery was characterized by a sense of fun, curiosity, surprise, as well as the kind of effort and courage required to expand or push against established paradigms. Beyond these two main “discoveries” in Discoveries, we identified four recurrent themes in our authors’ insights, namely: how confusion, serendipity, and individual experience serve as key starting points for discovery, the role of surprise in discovery, the process of innovation related to discovery, and how discovery pushes the boundaries of existing models and theories. As we share the unvarnished accounts of AMD authors, we hope that these insights will help articulate why authors decided to publish at AMD and how these discoveries were developed and shaped over time to encourage prospective authors to engage in their own discovery-based research projects.STARTING POINTS FOR DISCOVERIES: WHEN PUZZLES MEET OPPORTUNITYWhat does it look like if you start with an empirical puzzle instead of theory?AMD publishes management research that surfaces significant new or emerging phenomena, identifies and explores surprising relationships, or offers empirically driven insights into and/or a plausible resolution of critical anomalies and discrepant findings. How do AMD authors do this?Before discussing this and related questions, we should make a contrast with the stance typically employed in a more deductive approach. At the risk of making a broad generalization, in such cases, a researcher might begin with theoretical puzzles, literature gaps, or combinations of theories, and develop hypotheses and predictions. The question that we address in this section is what does one do when not starting with theory? Our authors provide insight into this process, which includes what their initial motivations were and how they approached the problem, along with the conditions that they themselves created or fell into to be able to study it.In almost all cases, a theoretical motivation was not the primary consideration driving the research. We will discuss some of the nuances of the initial empirical work such as surprises and unexpected ou</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1753728876</t>
+          <t>https://openalex.org/W4226441549</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1525/jpms.2022.34.1.29</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Jeppsson &amp; Wallin (2012)</t>
+          <t>Grover (2022)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Attitudes' impact on authorities' marketing communication - a study of customers' attitudes towards the Swedish Tax Agency</t>
+          <t>Rock Trolls and Recovery</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">If you were a parent struggling to entertain bored children, or anybody else looking for a distraction from the early months of the COVID-19 pandemic, you might have watched Trolls: World Tour. In this jukebox musical sequel to 2016’s Trolls, Poppy and her queendom of other colorful animated trolls live happily in isolation, dancing and singing to Billboard hits like “Girls Just Want to Have Fun” (substituting “trolls” for “girls,” as you do). But Queen Poppy soon learns that the world is much bigger than her pop music paradise. Beyond the borders of the Pop Trolls’ realm, there are other communities of trolls with their own forms of music: the Country Trolls, Techno Trolls, Funk Trolls, Classical Music Trolls, and the Rock Trolls. Once separate and safe from outside interference, the troll tribes are now under attack by the Rock Trolls’ Queen Barb, a mohawked, fishnet-wearing guitarist who detests any music but hard rock. “By the end of my world tour, we’re all gonna have the same vibe,” Barb says before pillaging the land of the Techno Trolls. “We’re all gonna be one nation of Trolls…under rock!”1The idea that zealous devotion to rock music can be an imperialist force is nothing new, although seeing this theme appear in a children’s movie is certainly novel.2 Trolls: World Tour is about rockism, and pop-intolerant Queen Barb is the perfect caricature of a rockist. You don’t hear the words “rockist” and “rockism” too much these days—they’re of another era, after all. The terms first emerged in the 1980s as British New Wavers sought to distinguish themselves from the self-righteousness of American rock.3 Then, in the aughts, the terms resurfaced in impassioned debates about the ways critics analyze, document, and listen to popular music. Rockism, a value system that lionized rock for its supposed authenticity and aesthetic purity (due to rock’s traditional mandate that musicians write, perform, and provide instrumentation for their own songs), stood in sharp contrast to poptimism, a counter-effort to celebrate pop, hip hop, and the other genres rockists dismiss as commercial fluff. Much like Poppy’s quest to stop Barb from turning the trolls into mindless rock zombies, poptimists and otherwise anti-rockist writers published several pieces challenging what they saw as rockism’s dominance in popular criticism. Rockism, they warned, was more than favoritism towards the genre: it was an exclusionary worldview that reproduced more serious forms of prejudice.In 2013, Miles Parks Grier wrote an article for JPMS to make sense of this moment “before the rockism debate is retired.”4 Following Kelefa Sanneh’s “The Rap Against Rockism,” a piece that, Grier notes, “revived and popularized the term in the United States,” Grier was among many critics considering rockism’s connection to racism, sexism, and other systems of identity-based oppression.5 In presentations at Pop Con, a yearly gathering of critics, scholars, and tastemakers in popular music, Daphne Brooks and Gayle Wald argued that rockist mindsets elevate the artistry of white men, resulting in a rock canon that is predominantly white and predominantly male. They called on writers, historians, and rock’s other canon makers to recognize a wider diversity of artists and to excavate rock’s historical memory for submerged narratives about women and people of color.6Grier is all for these recuperative measures. Still, he cautions that canon expansion alone will not cure rockism: [T]he tremendous work involved in redeeming a dismissed or forgotten artist should be supplemented by a commensurate disinvestment from the search for an uncompromised rebel. For, it would appear that rockism’s fundamental power lies not in its capacity to canonize based on social identity but in its echoing the conventional wisdom that only in pursuing absolute independence can one enjoy a taste of freedom.7Rockists, Grier reminds us, are less concerned with an artist’s race or gender than with whether an artist embodies an attitude of rugged individualism; therefore, inserting overlooked women and people of color into rock’s canon isn’t necessarily a transformative act if that canon still “aligns with the pursuit of white male freedom.”8 If critics truly want to ensure that every rocker gets their due, Grier argues that they must first grapple with rockism’s vision of artistic integrity.This is exactly what Grier undertakes in “Said the Hooker to the Thief: ‘Some Way Out’ of Rockism.” Synthesizing debates about rock’s aesthetics and identity politics, Grier charts an expansive history of the “rockist imaginary” absent from most writing on the subject.9 He identifies two persistent tropes of rock culture that “have incited visceral desires to purify, protect, and strengthen rock in relation to competing genres”: the “cult artist” and the “prostitute.”10 The “cult artist,” an independent and self-possessed auteur, defends rock from the “prostitute,” an exhibitionist sell-out whose seemingly </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2480244203</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1515/9783486827668-008</t>
+          <t>https://openalex.org/W2241039809</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Danylow (1991)</t>
+          <t>Sergey (2014)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>REFORM UND STAGNATION IN OSTEUROPA</t>
+          <t>The History and Challenges of Reintroducing Trial by Jury in Russia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>This article examines the history of trial by jury as practiced in Russia from 1864 to the present. While implementing court reforms, Alexander II intended to eliminate defi ciencies in Russia’s Justice System, such as the slow consideration of cases, disenfranchisement of the accused and incessant corruption. Introduction of jury trials in post-Soviet Russia became possible due to the democratic changes in the early nineteen nineties and the rejection of totalitarianism. In nine regions of Russia, the reintroduction of trials by jury and the practical implementation of this institution were considered to be an evolutionary tool for reforming Soviet legal precedent, which was inquisitional in form and reprising by nature, especially with controversial proceedings. In particular, the introduction of jury trials made it possible to legitimize the rule that evidence obtained in violation of legal norms is inadmissible in procedural law. It also made the process of abolishing the death penalty in Russia irreversible. In this article, the author analyzes current trends in the development of Russian trials by jury. Among them is a tendency for the increased competence of jury trials. The method that appeared during judicial system development is the method for misleading the juror during consideration of a case. What’s more, it’s worth mentioning that the accused is not currently allowed to speak in the presence of the jury</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3168867835</t>
+          <t>https://openalex.org/W2068482810</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s0140-6736(10)61426-2</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yu &amp; Xiao-kang (2016)</t>
+          <t>Acuin et al. (2011)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>REGIONAL COMPETITION AND LOCAL GOVERNMENT SUBSIDY IN THE DEVELOPMENT OF STRATEGIC EMERGING INDUSTRIES</t>
+          <t>Southeast Asia: an emerging focus for global health</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>The Venetians monopolised it, then the Portuguese took control of it, and most European colonisers battled fiercely in the 17th and 18th centuries for nutmeg, mace, and cloves—once grown only in the Spice Islands of Indonesia, the world's largest tropical archipelago. Throughout its history, southeast Asia has witnessed the rise and fall of cultures, empires, colonial powers, and ideological regimes. Its natural environment mirrors its tumultuous past. Life-giving monsoons, so important for farming and sailing, also inundate and wreak destruction in local cities each year. Volcanic eruptions enrich and renew the topsoil, but also flatten scores of villages and bury vulnerable villagers. The wet and hot jungles between the Tropics of Cancer and Capricorn, friendly to infections and insurgents alike, also sustain animal and plant life unequalled in biodiversity. Life in all its compact, congested richness is what distinguishes the region of southeast Asia—straddling the vast Asian geography between India to the west and China to the north. Emerging infectious diseases in southeast Asia: regional challenges to controlSoutheast Asia is a hotspot for emerging infectious diseases, including those with pandemic potential. Emerging infectious diseases have exacted heavy public health and economic tolls. Severe acute respiratory syndrome rapidly decimated the region's tourist industry. Influenza A H5N1 has had a profound effect on the poultry industry. The reasons why southeast Asia is at risk from emerging infectious diseases are complex. The region is home to dynamic systems in which biological, social, ecological, and technological processes interconnect in ways that enable microbes to exploit new ecological niches. Full-Text PDF Health and health-care systems in southeast Asia: diversity and transitionsSoutheast Asia is a region of enormous social, economic, and political diversity, both across and within countries, shaped by its history, geography, and position as a major crossroad of trade and the movement of goods and services. These factors have not only contributed to the disparate health status of the region's diverse populations, but also to the diverse nature of its health systems, which are at varying stages of evolution. Rapid but inequitable socioeconomic development, coupled with differing rates of demographic and epidemiological transitions, have accentuated health disparities and posed great public health challenges for national health systems, particularly the control of emerging infectious diseases and the rise of non-communicable diseases within ageing populations. Full-Text PDF Maternal, neonatal, and child health in southeast Asia: towards greater regional collaborationAlthough maternal and child mortality are on the decline in southeast Asia, there are still major disparities, and greater equity is key to achieve the Millennium Development Goals. We used comparable cross-national data sources to document mortality trends from 1990 to 2008 and to assess major causes of maternal and child deaths. We present inequalities in intervention coverage by two common measures of wealth quintiles and rural or urban status. Case studies of reduction in mortality in Thailand and Indonesia indicate the varying extents of success and point to some factors that accelerate progress. Full-Text PDF The rise of chronic non-communicable diseases in southeast Asia: time for actionSoutheast Asia faces an epidemic of chronic non-communicable diseases, now responsible for 60% of deaths in the region. The problem stems from environmental factors that promote tobacco use, unhealthy diet, and inadequate physical activity. Disadvantaged populations are the hardest hit, with death rates inversely proportional to a country's gross national income. Families shoulder the financial burden, but entire economies suffer as well. Although attempts to control non-communicable diseases are increasing, more needs to be done. Full-Text PDF Human resources for health in southeast Asia: shortages, distributional challenges, and international trade in health servicesIn this paper, we address the issues of shortage and maldistribution of health personnel in southeast Asia in the context of the international trade in health services. Although there is no shortage of health workers in the region overall, when analysed separately, five low-income countries have some deficit. All countries in southeast Asia face problems of maldistribution of health workers, and rural areas are often understaffed. Despite a high capacity for medical and nursing training in both public and private facilities, there is weak coordination between production of health workers and capacity for employment. Full-Text PDF Health-financing reforms in southeast Asia: challenges in achieving universal coverageIn this sixth paper of the Series, we review health-financing reforms in seven countries in southeast Asia that have sought to reduce dependence on out-of-pocket pa</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2109706909</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/s0140-6736(15)61058-3</t>
+          <t>https://openalex.org/W1528486660</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Irwanto et al. (2015)</t>
+          <t>Langelier (2013)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Evidence-informed response to illicit drugs in Indonesia</t>
+          <t>La communauté politique et le budget participatif de Porto Alegre</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>To address the serious harm caused by drugs to individuals and the community is an important public health priority and one that all countries, including Indonesia, must tackle. The Indonesian Government, led by President Joko Widodo, has heralded its commitment to evidence-based policy making. The public health community welcomes this commitment; however, as researchers, scientists, and practitioners, we have grave concerns that the government is missing an opportunity to implement an effective response to illicit drugs informed by evidence. A close examination of the nature and extent of drug use in Indonesia reveals substantial gaps in knowledge and a scarcity of evidence to support forced rehabilitation and the punitive, law-enforcement-led approach favoured by the government. Opioid overdose and infectious diseases, including HIV transmitted through unsafe injecting practices, are the primary causes of drug-related deaths worldwide.1Degenhardt L Whiteford HA Ferrari AJ et al.Global burden of disease attributable to illicit drug use and dependence: findings from the Global Burden of Disease Study 2010.Lancet. 2013; 382: 1564-1574Summary Full Text Full Text PDF PubMed Scopus (622) Google Scholar In the past 10 years, Indonesia has taken positive steps forward by introducing strategies such as opioid substitution therapy, needle and syringe programmes, and increased access to HIV treatment. Substantial evidence2Tilson H Aramrattana A Bozzette S Preventing HIV infection among injecting drug users in high-risk countries: an assessment of the evidence. Institute of Medicine, Washington, DC2007Google Scholar supports the effectiveness of these interventions in reducing fatal overdose and HIV transmission, morbidity, and mortality. However, these interventions have yet to be implemented to scale in Indonesia, and this delay is preventing the realisation of their potential benefit. Meanwhile, there is evidence that criminalisation of people who use drugs and punitive law-enforcement approaches have failed to reduce the prevalence of drug use and are fuelling the HIV epidemic.3Reuter P Ten years after the United Nations General Assembly Special Session (UNGASS): assessing drug problems, policies and reform proposals.Addiction. 2009; 104: 510-517Crossref PubMed Scopus (0) Google Scholar Compulsory detention and rehabilitation of drug users has been shown to be ineffective in sustaining reductions in drug use.4WHO Regional Office for the Western PacificAssessment of compulsory treatment of people who use drugs in Cambodia, China, Malaysia and Viet Nam: an application of selected human rights principles. WHO Regional Office for the Western Pacific, Manila2009Google Scholar The Indonesian Government has frequently cited National Narcotics Board studies from 20085Badan Narkotika Nasional bekerjasama dengan Pusat Penelitian Kesehatan Universitas IndonesiaLaporan Survei Penyalahgunaan Narkoba di Indonesia: Studi Kerugian Ekonomi dan Sosial akibat Narkoba, tahun 2008. Badan Narkotika Nasional, Jakarta2008Google Scholar and 2011,6Badan Narkotika Nasional bekerjasama dengan Pusat Penelitian Kesehatan Universitas IndonesiaRingkasan Eksekutif Survei Penyalahgunaan Narkoba di Indonesia: Studi Kerugian Ekonomi dan Sosial akibat Narkoba, tahun 2011. Badan Narkotika Nasional, Jakarta2011Google Scholar which estimate drug-use prevalence to be 2·6% in the general population (equivalent to 4·5 million people) and as many as 50 deaths per day from drug-related causes. We have serious concerns about the validity of these estimates for the following reasons: the details and methods of these studies are not publicly accessible; from information that is available, the recruitment methods appear to have been inappropriate, resulting in an unrepresentative sample and results that are not generalisable; differentiation between different types of drugs and frequency and patterns of their use were inadequate to identify problematic drug use; definitions of addiction were inconsistent with accepted criteria for drug dependence; and the unorthodox method used to indirectly estimate drug-related mortality is unreliable. We call on the Indonesian Government to scale back punitive strategies that are ineffective and counterproductive and instead expand evidence-based interventions, such as opioid substitution therapy, needle and syringe programmes, HIV treatment, and care for people who use drugs; invest in the collection of better quality data on the scale and nature of drug use in Indonesia, without which an effective and appropriately targeted response cannot be developed; and form a national committee on drug use, comprising the National Narcotics Board, Ministry of Health, Ministry of Social Affairs, Ministry of Law and Human Rights, service providers, and community representatives, to review drug-related data, set priorities, recommend evidence-informed actions, and monitor progress. We support a transparent, peer-reviewed process for collecting data on drug-use indicators, and a commensurate evidence-based policy response. We declare no competing interests. Download .pdf (.35 MB) Help with pdf files Supplementary appendix</t>
+          <t>De la fin du XVIIIe siecle jusqu'aux dernieres decennies du XXe siecle, l'Etat-nation s'est impose sur tous les continents comme modele de communaute politique dominant. Par son autorite il prescrivait les regles de fonctionnement politique, economique et de gestion des conflits sociaux. Or, a partir des annees 1970, cette forme de communaute politique a subi de profondes transformations. En effet, la diffusion des idees neoliberales des les annees 1970-1980 s'est traduite par la dereglementation des leviers de controle economique des Etats-nations au profit du libre marche. Reprenant la philosophie liberale qui avait emerge en Angleterre au XVIe et XVIIe siecle, notamment sous la plume de John Locke, elle fut vehiculee par les libertariens au nom de la defense des libertes individuelles et du laissez-faire economique a l'echelle planetaire. Par le fait meme, la liberalisation de l'economie remit en cause le modele stato-national au sein duquel la citoyennete s'articulait. Desincarnee de ses institutions, des citoyens reclament des reformes democratiques, principalement depuis les grandes manifestations des altermondialistes, de Seattle, en passant par Genes, Quebec et les recentes protestations en Europe contre les mesures d'austerites et le mouvement Occupy. Ainsi, des reformes du systeme democratique sont reclamees pour redonner davantage de controle a la population sur les grandes decisions qui regissent et affectent la vie quotidienne et l'avenir des generations futures. Alors, dans ce contexte, l'introduction de processus participatifs, experimentes dans certaines villes et Etats a travers le monde, est percue comme une alternative politique au modele neoliberal, qui selon plusieurs auteurs entraine un accroissement des disparites de richesses entre les habitants des diverses nations. C'est pourquoi le budget participatif de Porto Alegre au Bresil a attire l'attention de nombreux chercheurs, militants, mais aussi des organisations internationales comme la Banque mondiale qui considere cette experience comme prometteuse sur le plan de la transparence et de l'imputabilite dans les nouvelles pratiques de gouvernance. Implante en 1989 par le Parti des travailleurs et les associations populaires de quartier, le budget participatif de Porto Alegre constitue un processus de democratie participative original qui accorde aux citoyens un pouvoir decisionnel important sur les orientations des investissements, notamment en matiere d'amenagement urbain. Cette experience est d'autant plus originale si l'on considere le contexte politique et social dans lequel elle s'est implantee. En effet, historiquement une part importante de la population bresilienne fut constamment marginalisee et opprimee par les autorites publiques dans les quartiers peripheriques des grandes villes. Ces quartiers informels etaient denudes d'infrastructures et de services alors que les parties centrales urbaines etaient reservees a l'elite sociale. Le peu d'investissements publics dont pouvaient beneficier les peripheries visaient a garantir le resultat d'elections par des relations de clientelisme et de cooptation. La democratisation du Bresil au cours des annees 1980 et l'introduction de mecanismes participatifs comme celui de Porto Alegre visaient a assainir ces methodes autoritaires et clientelistes et a garantir un developpement urbain plus equitable grâce au controle populaire. Or, le processus du budget participatif de Porto Alegre est genere par la democratie deliberative et s'apparente aux nombreuses theories elaborees a cet egard au cours des dernieres decennies, notamment celles de Jurgen Habermas. De plus, des analyses demontrent que ce processus a permis de favoriser une redistribution des richesses et un developpement urbain plus equitable. Ainsi, dans le contexte ou le modele stato-national est affaibli, tout comme la citoyennete qui en emanait et ou l'accroissement des inegalites se poursuit, consequences des politiques neoliberales, des questions fondamentales s'imposent : le processus du budget participatif de Porto Alegre, fonde sur la mobilisation de la societe civile, peut-il favoriser la construction d'une nouvelle forme de communaute politique de nature participative a l'echelle urbaine? Est-ce que la deliberation citoyenne permet l'adoption de mesures et de politiques fondees sur le bien commun? Le budget participatif permet la creation d'une nouvelle forme de communaute politique participative a l'echelle urbaine qui se distingue des autres modeles tels que le liberalisme ou le republicanisme. Cependant, la creation de cette communaute politique et son maintien ne peuvent se faire que sous des conditions particulieres, notamment par une fine collaboration entre l'Etat et la societe civile, une qualite deliberative et une disposition a redistribuer les richesses. C'est pourquoi cette these s'attardera a decrire les diverses formes de communaute politique et les concepts qui y sont rattaches; a analyser les theories sur</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1500841545</t>
+          <t>https://openalex.org/W4292253405</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.34007/jehss.v5i1.1310</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Blecher &amp; Woodhead (1978)</t>
+          <t>Hs et al. (2022)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>The Small Prospects for Shrinking the Big Antitrust Case by Procedural Reform</t>
+          <t>Implementasi Kebijakan Pelayanan Pajak Bumi dan Bangunan (PBB) Pada Badan Pengelola Pajak dan Retribusi Daerah Kota Medan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Policy implementation is a way for a policy to achieve its goals. Implementation is a general process of administrative action that can be investigated at a certain program level, this study aims to determine the implementation of the Land and Building Tax (PBB) service policy at the Medan City Regional Tax and Retribution Management Agency and to find out and analyze the factors that influence it. The form of this research belongs to descriptive research that uses qualitative data analysis, namely this research is investigated by observation or observation, interviews, and describes the state of the object of research based on the facts. There were 11 informants in this study. Data collection techniques were obtained from interviews, observations, and documentation. While the data analysis techniques are data collection, data reduction, data presentation, and drawing conclusions. Based on the results of the study, it can be concluded that the implementation of the Land and Building Tax (PBB) service policy at the Regional Tax and Retribution Management Agency of Medan City has not gone well. This can be seen from the lack of good communication, resources and bureaucratic structure. Factors that influence not going well are lack of knowledge, perception, physical condition, gender and community living environment, lack of human resources in charge of Land and Building Tax (PBB) services, lack of a special budget allocated for equipment Land and Building Tax (PBB) services, obstacles often occur so that the Service Operational Standards (SOP) are sometimes not met.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2357884591</t>
+          <t>https://openalex.org/W2610660533</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wan (2005)</t>
+          <t>Pye (2017)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Study and Practice on Curriculum Architecture of Programming in Computer Science</t>
+          <t>Global change impacts on organic matter dynamics in stream ecosystems</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>This paper first argues that undergraduates of computer science must be well equipped with the ability of computing application. Based on the analysis of the targeting ability system, curriculum architecture of programming is presented with its courses relationship, and then this paper points out problems on constructing curriculum architecture of programming. At last, the discussion on how to reform the new programming curriculum architecture and the new teaching pattern is made.</t>
+          <t>1. With freshwater ecosystems worldwide at significant risk from global change, there is an urgent need to understand the processes involved and to develop adaptive responses. Riparian management might offer a means of increasing resilience to global change in headwaters, but evidence is scarce. This thesis investigates the potential effects of riparian management on the storage, processing and downstream export of resource subsidies – dominantly as terrestrial litter – that enter streams from the riparian zone._x000D_
+2. In a large scale field study over four years, natural and experimental systems were used to test the hypothesis that riparian woodlands enhance stream ecosystem resilience to climatically mediated changes in flow regimes. Specific work included assessments of benthic organic matter stocks and export in contrasting catchments (broadleaf woodland, conifer plantations or sheep-grazed moorland), flow manipulations in mesocosms, and a large-scale field experiment simulating riparian broadleaved tree planting._x000D_
+3. Standing stocks of particulate organic matter (POM) were influenced by flow regime, and declined following larger and longer flow-events, but event frequency had no apparent impact. Experimental data showed also that coarse fractions of POM in transport were significantly elevated in the early stages of simulated floods._x000D_
+4. Despite flow effects on POM dynamics, streams bordered by broadleaves maintained consistently higher standing stocks of POM than conifer or moorland streams. Broadleaved streams also transported the highest concentrations of carbon in the form of high-quality FPOM. Leaf litter additions of stream channels did not reproduce these effects, possibly because the scale was insufficient to mimic real riparian woodlands._x000D_
+5. While predicted flow changes under a warmer climate might affect the storage and flux of organic matter, riparian broadleaves are likely to mitigate these effects in stream ecosystems. This project illustrates the value of blending catchment-scale studies with field-based mesocosms to understanding complex global change processes.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124720843</t>
+          <t>https://openalex.org/W4235179999</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7228/manchester/9780719074349.001.0001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Poterba (1989)</t>
+          <t>Robinson (2011)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Lifetime Incidence and the Distributional Burden of Excise Taxes</t>
+          <t>Gay Men and the Left in Post-war Britain</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>This implies that low-income households in one year have some chance of being higher-income households in other years, and significantly affects the estimated distributional burden of excise taxes. This paper shows that household expenditures on gasoline, alcohol, and tobacco as a share of total consumption (a proxy for lifetime income) are much more equally distributed than expenditures as a share of annual income. From a longer-horizon perspective, excise taxes on these goods are therefore much less regressive than standard analyses suggest.</t>
+          <t>This book demonstrates how the personal became political in post-war Britain, and argues that attention to gay activism can help us to rethink fundamentally the nature of post-war politics. While the Left were fighting among themselves and the reformists were struggling with the limits of law reform, gay men started organising for themselves, first individually within existing organisations and later rejecting formal political structures altogether. Gay activists intersected with Trotskyism, Stalinism, the New Left, feminism and youth movements. As the slogan of the Gay Liberation Front proclaimed, ‘Come out, come together and change the world’. Culture, performance and identity took over from economics and class struggle, as gay men worked to change the world through the politics of sexuality. Throughout the post-war years, the new cult of the teenager in the 1950s, CND and the counter-culture of the 1960s, gay liberation, feminism, the Punk movement and the miners' strike of 1984 all helped to build a politics of identity. When AIDS and Thatcherism impacted on gay men's lives in the 1980s, gay politics came into its own. There is an assumption among many of today's politicians that young people are apathetic and disengaged. This book argues that these politicians are looking in the wrong place. People now feel that they can impact the world through the way in which they live, shop, have sex and organise their private lives. The book shows that gay men and their politics have been central to this change in the post-war world.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2752604984</t>
+          <t>https://openalex.org/W1994711854</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/10439463.2017.1371718</t>
+          <t>https://doi.org/10.1080/03906701.2014.894343</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Campeau (2017)</t>
+          <t>Dash (2014)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Institutional myths and generational boundaries: cultural inertia in the police organisation</t>
+          <t>The moral basis of sustainable society: the Gandhian concept of ecological citizenship</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>This article provides an account for ‘cultural inertia’ – a reluctance to adapt to changing environmental conditions – in policing, despite a time of considerable demographic, policy, and practical reform. Drawing on 100 interviews and observation data collected over the course of 18 months of field work in a police department of a medium-sized Canadian city, I argue that the status quo is sustained by high-rank ‘old-school’ officers through a delicate balancing of both old and new cultural scripts and through the preservation of certain institutional myths: informal myth-management of internal practices on the one hand, and formal ceremonial myth-building with external policing constituents (i.e. government, oversight agencies, media, etc.) on the other. ‘New-generation’ officers deploy old and new cultural scripts to advance their professional standing and preserve their own sense of moral integrity as modern-day police. Frustrations on behalf of both parties, however, reveal subtle symptoms of a changing police landscape: the dominance of old-school ideas grows increasingly precarious as the reigning myths lose legitimacy for the new generation. This study bridges police studies with cultural sociology to further theoretical insight on the relationship between policing, organisational change, and cultural practice.</t>
+          <t>Dominant approaches to sustainability have focused on environmental governance with efficient mechanisms and technical quick-fixes for regulatory changes and policy reforms within the growth-centred economic model. However, they fail to develop an authentic ‘ecological citizenship’ for a more fundamental change in the framework of moral values guiding individuals' behaviour and attitude towards the environment and their choices to live lightly on earth. This article argues that the transformation to a sustainable society necessitates deeper moral changes and the development of an ecological morality at the individual level as the core of sustainability. The article examines the distinctiveness of the Gandhian approach to ‘ecological citizenship’ within his paradigm of non-violence and ethical holism as an alternative to the dominant thinking. Within his broader moral-philosophical framework, the paper focuses on Gandhi's theories of eco-localism, unity of life, economics of well-being, and the moral praxis of subordinating the material to moral development realized by the human self through an ‘inner revolution’ with a goal to improve the ‘quality of man’, moving beyond the conventional ‘fear–greed’ dichotomy as motivators of behaviour to bring about a societal transformation towards a sustainable society based on freedom, equity, justice, and peace.</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3033618246</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3406/ecop.2018.8229</t>
+          <t>https://openalex.org/W268659328</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lakhdar &amp; Kopp (2018)</t>
+          <t>Nelson et al. (2004)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Faut-il légaliser le cannabis en France ? Un bilan socio-économique</t>
+          <t>Defending Managed Earnings Cases by Understanding Revenue Recognition: Protecting Clients Means That Defense Counsel Must Be Prepared to Traverse a Jungle of Accounting Rules and Standards in Order to Avoid Catastrophe</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Should Cannabis be Legalized in France ? A Welfare Analysis. This article compares the current legal regime of cannabis in France, based on the Prohibition Lawof 31 December 1970, with different legalization scenarios. Despite the difficulties inherent in observing an underground market, a welfare function is estimated under different legal regime scenarios. Decriminalization of consumption would increase welfare. Full liberalization of the cannabis market would generate a higher positive variation in welfare, while resolving the issue of prohibition. The economic benefit of full legalization of cannabis could be attributable not only to the creation of tax revenue but also to the saving of public resources currently allocated to repression.</t>
+          <t>Protecting clients means that defense counsel must be prepared to traverse a jungle of accounting rules and standards in order to avoid catastrophe IN RESPONSE to the infamous Enron debacle, securities law reform legislation was enacted in the United States in 2002 by way of the Public Company Accounting Reform and Investor Protection Act, better known as the Sarbanes-Oxley Act of 2002.1 In addition, the Department of Justice (DOJ) and the Securities and Exchange Commission (SEC) stepped up the enforcement of existing securities laws. It now seems that hardly a week goes by without another publicly traded corporation announcing plans to restate its earnings. The typical scenario is, first, a publicly held company is forced to restate its because of past aggressive revenue recognition practices. Next, class action securities fraud and shareholder derivative suits are filed. At the same time, the DOJ and the SEC launch investigations. Thus, the stakes are remarkably high. Miscalculations in the revenue recognition context may lead to financial ruin and jail. IT'S SIMPLE-OR IS IT? The recent onslaught of DOJ and SEC investigations probing corporate accounting practices reflects a sea change in the government's approach to enforcement in managed earnings cases. One consequence is that many defense counsel have been or soon will be retained to defend these cases. The underlying concepts are simple. Revenue is to be recognized in the period in which it is actually earned. Publicly held corporations are not permitted to implement creative revenue recognition practices designed solely to boost quarterly earnings. Yet, those seeking to avoid the government's wrath, as well as that of disgruntled investors, must navigate the perilous straits between the Scylla and Charybdis of the revenue recognition provisions of the Generally Accepted Accounting Principles (GAAP), on the one hand, and the SEC staffs accounting bulletins, on the other. Distinguishing what is permitted from what is not permitted can be difficult. It is challenging simply to figure out where to look for answers. GAAP are the official standards adopted by the American Institute of Certified Public Accountants (AICPA) through its three successor organizations: the Committee on Accounting Procedure, the Accounting Principles Board (APB), and the Financial Accounting Standards Board (FASB). In In re K-tel International Inc. Securities Litigation,2 the Eighth Circuit held that a publicly-traded company's financial statements must comply with GAAP. In reality, however, GAAP are far from being a precise, canonical set of rules that ensure identical accounting treatment of identical transactions. Indeed, there are 19 different GAAP sources. The AICPA Auditing Standards Board Statement of Auditing Standards (SAS), SAS 69, identifies the following as the sources of GAAP: A. Accounting principles promulgated by a body designated by the AICPA Council to establish such principles, pursuant to Rule 203 of the AICPA Code of Professional Conduct. B. Pronouncements of bodies, composed of expert accountants, that deliberate accounting issues in public forums for the purpose of establishing accounting principles or describing existing accounting practices that are generally accepted, provided those pronouncements have been exposed for public comment and have been cleared by a body referred to in Category A. C. Pronouncements of bodies, organized by a body referred to in Category A and composed of expert accountants, that deliberate accounting issues in public forums for the purpose of interpreting or establishing accounting principles or describing existing accounting practices that are generally accepted, or pronouncements referred to in Category B that have been cleared by a body referred to in Category A but have not been exposed for public comment. D. Practices or pronouncements that are widely recognized as being generally accepted because they represent prevalent practice in a particular industry, or the knowledgeable application to specific circumstances or pronouncements that are generally accepted. …</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://openalex.org/W33620870</t>
+          <t>https://openalex.org/W2092444187</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1109/nsw.2013.6609193</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rasul &amp; Sahu (2011)</t>
+          <t>Comfort et al. (2013)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Use of IT and Its Impact on Service Quality in an Academic Library</t>
+          <t>Network evolution in disaster management: A comparison of response systems evolving after the 2005 and 2008 gulf coast hurricanes</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Introduction Information technology has profound effect on the progress and development of human civilization. The advances in science and technology has made a tremendous improvement and changed all activities of present society. Due to revolution of information technology, increased tremendously demand, consumption, and importance of information in present society. The librarians are faced challenges to managing massive volume of information for storage, process, retrieve, and disseminate in libraries (Ramana, 2004). Rapid advances in Information Technology in the past two decades have brought revolutionary changes in the concept, organization, functioning and management of library and information systems through out the world. The modern technology has greatly improved the capabilities of managing this explosive growth of information effectively. Information technologies today are characterized by their very dynamic development and increasing complexity. Information technology application in library and information field has made remarkable progress in the world. Information Technology not only affects the technical services of libraries but also shapes the library services that are being offered to the public. Worldwide libraries have been exploring new technologies for providing better and faster access to vast information resources and efficient information services to their users. Information Technology has offered better solutions to achieve greater level of efficiency, productivity and excellence services in libraries (Cholin, 2005). Information Technology Trends in Academic Libraries The advent of information society can be traced to 1960s when a shift occurred from the industrial processes to a service based economy. Since 1960s, libraries worldwide have been using technology in general and computers to automate the administrative &amp; technical tasks of the library (Raman, 1998). In India, computerization of library had started in the year of 1955 at Indian Statistical Institute, Calcutta. During 1970s DRTC, BARC, TIFR, IITMadras, and BHEL- Hyderbad have been used production of information product and services (Raman, 1998). Every facet of library work, in academic, school, public, and special libraries, is being transformed as a result of technological advances. Among the changes are: increased database access through CD-ROMs, local mainframes, or dial-up services; a shift in the focus of library instruction toward skills for using computer-based information systems; and the provision of access to local collections for remote users, and to remote collections for local users. The World Wide Web became a significant vehicle for distributing information. Information technology has emerged as the most potent tool to collect, organizes, and disseminates information to the people at large scale through communication network. Internet brought the biggest change in libraries as 1990s saw the rapidly increasing availability of access to computers generally. The Information and Communication Technologies (ICT) have brought revolutionary changes in handling delivering and storage of information. The transition of traditional library collections to digital or virtual collections presented the librarian with new opportunities and challenges. Libraries in India have struggled with many problems, but recent government support for research has provided an opportunity for the development of library services and increased access to information. Government encouragement of funding of private organizations through tax benefits has also led to investment in libraries and information as part of research activities (Ashraf, 2008). The internet, especially WWW has given the librarian a new dynamic role to play in the society and serve the new information based in better ways than every before, because of the powerful features of web i.e. distributed, heterogeneous, collaborative, multimedia, Standards and Protocols, architecture, world wide web has revolutionized the way people access information and has opened up new possibilities in areas such as digital libraries, Virtual libraries, efficient information retrieval and dissemination. …</t>
+          <t>Recent disasters have challenged the formal structure of emergency response plans in the U.S. disaster management system. Although major reform efforts have been undertaken over the last twenty years, the actual practice among federal, state, county/parish, and municipal agencies has changed in some instances, not in others. This article presents findings from an unusual quasi-experimental study of four hurricanes - Katrina and Rita that struck the Gulf Coast states of Louisiana and Texas in 2005, and Gustav and Ike that struck the same region in 2008 - to examine the network evolution from implemented changes. The analysis is based on data collected through a content analysis of local newspapers, which identified the organizational interactions that emerged in response operations following each of the hurricanes. These data were then analyzed to compare the four networks of action in terms of centrality, density, distance, and clustering. We next conducted a quadratic assignment procedure (QAP) analysis and a small world network analysis. Findings from the analyses reveal that the response systems in the State of Louisiana successfully achieved network evolution, the result of lessons learned from events in 2005 and implemented prior to 2008. In contrast, the response systems in the State of Texas demonstrated few signs of network evolution between the two storms.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4313008968</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35774/sf2022.02.133</t>
+          <t>https://openalex.org/W1771786829</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Karlin et al. (2022)</t>
+          <t>Hutchison (2010)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ECOLOGICAL TAXATION AND ECOLOGICAL FINANCING OF TERRITORIAL COMMUNITIES: EXPERIENCE OF UKRAINE AND EU</t>
+          <t>Test and Evaluation at the Speed of Need</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Introduction. The transition of most countries of the world to the construction of a car­bon-neutral economy in 2060 make the Ukrainian authorities with the task to accelerate the reform of the environmental financing system. But in this aspect, our country still lags behind the environmental requirements of European Union, to which countries Ukraine exports a sig­nificant part of its products. Therefore, it is important to study the experience of EU countries on this issue and implement the best of it in Ukraine The purpose of the article is to determine the problems of environmental taxation and financ­ing measures for environmental protection at the level of territorial communities in Ukraine and to develop recommendations for their solution, taking into account the experience of EU countries. Methods. General and special methods were used in the research, in particular – analysis and synthesis, induction and deduction, logical generalization, abstraction. Results. The structure of expenditures of the Consolidated Budget of Ukraine for environ­mental protection by types of budgets was analyzed. It was determined that the main sources of financing environmental protection measures are the funds of the state and local budgets, interna­tional organizations; funds received from the lease of water objects located within the boundaries of settlements of communities and others. It was revealed that the main source of income for en­vironmental protection funds is the environmental tax, which the state does not always use for its intended purpose. The experience of environmental taxation in the EU countries was studied and the ways of its introduction at the level of territorial communities in Ukraine were substantiated. Conclusions. Using the experience of the EU countries, it is proposed to: separate the carbon tax and use the revenues from it for investments in climate projects at the local level; at the level of territorial communities, implement co-financing and private-public partnership in the environmental sphere, providing appropriate financial incentives for enterprises and institutions, also financially encouraging them to carry out energy-saving measures and reduce greenhouse gas emissions; introduction "green" public procurement; use local "green" bonds to finance "green" projects at the local level.</t>
+          <t>During this past year, Congress passed the Weapons Systems Acquisition Reform Act, which made several changes to DoD acquisition organizations and processes. More recently, Congress passed, and the President signed, the National Defense Authorization Act for FY2010, becoming Public Law 111-84, directing changes in DoD acquisition of information technologies (IT). The law requires the DoD to base the new acquisition process on recommendations in the March 2009 Report of the Defense Science Board Task Force on Department of Defense Policies and Procedures for the Acquisition of Information Technology (hereafter DSB-IT). The report recommends an agile model for acquiring information technologies (IT) similar to successful commercial practices (see http://www.acq.osd.mil/dsb/reports.htm). A second DSB report, also issued in March 2009, the Report of the Defense Science Board Task Force on Achieving Interoperability in a Net Centric Environment (DSB-NC), made recommendations to ensure that IT acquisition delivers information-assured, interoperable capabilities essential to modern warfighting. Together, the reports provide a foundation on which to build the new model for acquisition and testing of IT; this paper attempts to connect them and fill the remaining gaps necessary to truly transform to agile processes that foster rapid acquisition of enhanced IT capabilities for the warfighter. Test and Evaluation at the Speed of Need Department of Defense acquisition is always under the watchful eye of the Congress. During this past year, Congress passed the Weapons Systems Acquisition Reform Act, which made several changes to DoD acquisition organizations and processes. More recently, Congress passed, and the President signed, the National Defense Authorization Act for FY2010, becoming Public Law 111-84, directing long overdue changes in DoD acquisition of information technologies (IT). According to section 804, “The Secretary of Defense shall develop and implement a new acquisition process for information technology systems.” The law requires the DoD to base the new acquisition process on recommendations in the March 2009 Report of the Defense Science Board Task Force on Department of Defense Policies and Procedures for the Acquisition of Information Technology (hereafter DSB-IT). The report recommends an agile model for acquiring information technologies (IT) similar to successful commercial practices (see http://www.acq.osd.mil/dsb/reports.htm). Interestingly, a second DSB report, also issued in March 2009, the Report of the Defense Science Board Task Force on Achieving = ^Aeiaeaiaca=oEeE~eAU=mecOe~a= do^ar^qb=p`elli=lc=_rpfkbpp=C=mr_if`=mlif`v= 167= k^s^i=mlpqdo^ar^qb=p`elli= Interoperability in a Net Centric Environment (DSB-NC), made recommendations to ensure that IT acquisition delivers information-assured, interoperable capabilities essential to modern warfighting. Together, the two reports should be used as the foundation on which to build the new model for acquisition and testing of IT; this paper attempts to connect them and fill the remaining gaps necessary to truly transform to agile processes that foster rapid acquisition of enhanced IT capabilities for the warfighter. Acquisition and Testing of Information Technologies in the DoD The DoD acquires IT using the same acquisition model as tanks and ships and planes. Figure 1 is the familiar Defense Acquisition Management System taken from DoD Instruction 5000.02. This system essentially makes no distinction between major defense acquisition programs (MDAP) and major automated information systems (MAIS); program managers for IT capabilities manage the same set of milestones and decision points and are subject to the same governance processes and oversight. Make no mistake; this system has produced the best military equipment in the world, but in recognizing this fact, it is important to realize that the process works well when there is a loooooooooong time between user need definition (far left of chart) and declaration of Initial Operational Capability (IOC) (subsequent to the final decision point on the chart). Therein lies the problem for IT: the fundamental reason this model does not work well for IT capabilities is that we typically want a very short time between user need definition and IOC. T Figure 1. The Defense Acquisition Management System The DSB-IT describes the current DoD IT acquisition process as a “big bang approach,” meaning we try to get everything in the first increment. The report describes the approach as one that “begins with an analysis phase followed by an equally long development phase that culminates in a single test and evaluation event.” The DSB-IT cited an analysis conducted by the Assistant Secretary of Defense for Networks and Information Integration (ASD(NII)) of 32 major automated information systems, which showed that the average time to deliver an initial capability is 91 months! Figure 2, taken from the DSB-IT report, sum</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124010458</t>
+          <t>https://openalex.org/W4200457336</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.2119050</t>
+          <t>https://doi.org/10.35387/ucj.1(3).2021.40-44</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Dungan et al. (2012)</t>
+          <t>Штепура (2021)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Macroeconomic Impacts of Canadian Immigration: Results from a Macro-Model</t>
+          <t>THEORETICAL PRINCIPLES OF FUTURE ENGLISH TEACHERS PROFESSIONAL TRAINING BY MEANS OF DISTANCE LEARNING IN POLAND HIGHER EDUCATION INSTITUTIONS</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>We use a macro-econometric forecasting model to simulate the impact on the Canadian economy of a hypothetical increase in immigration. Our simulations generally yield positive impacts on such factors as real GDP and GDP per capita, aggregate demand, investment, productivity, and government expenditures, taxes and especially net government balances, with essentially no impact on unemployment. This is generally buttressed by conclusions reached in the existing literature. Our analysis suggests that concern should be with respect to immigrants themselves as they are having an increasingly difficult time assimilating into the Canadian labour market, and new immigrants are increasingly falling into poverty.</t>
+          <t>The article analyzes the theoretical foundations of professional training of future English teachers by means of distance learning in higher educational institutions of the Republic of Poland. The use of distance learning tools in the training of future English teachers, psychological aspects of distance learning, changing the role of the teacher, the theory of multilateral education are the subject of active research by scientists. The research of Polish scholars highlights the methodological and didactic features of the training of future English teachers by means of distance learning. The importance of innovative forms and methods in the training of future foreign language teachers is revealed. The need for constant monitoring of the learning environment in the lifelong learning process is emphasized. It is noted that the global informatization of soci-ety and the rapid development of information and communication technologies place new demands on edu-cation. The directions of research singled out by Polish and Ukrainian scientists in the process of informatiza-tion of education are generalized.The expansion of international relations and the growing interest in learning foreign languages as a means of communication encourages European countries, in particular the Republic of Poland, to reform and improve the special professional training of English teachers in both traditional and alternative forms of ed-ucation. The works analyzed in the bibliographic analysis are an important source of information for a com-parative analysis of the training of future English teachers in distance learning in order to justify ways to use constructive ideas of the Polish experience of distance learning in higher education in Ukraine</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4367335547</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15453/0191-5096.4307</t>
+          <t>https://openalex.org/W1036201020</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA (2019)</t>
+          <t>Creagh (2010)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Journal of Sociology and Social Welfare Vol. 46 No. 2</t>
+          <t>Value and price: a transdisciplinary approach to ecologically sustainable urban water management</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Social work has experienced unique tensions related to its professional identity and dual purpose of social reform and individualized treatment. Scholars have represented this dual purpose, epitomized by Jane Addams and Mary Richmond, as indicating irreconcilable differences</t>
+          <t>This thesis puts forward the benefits of a transdisciplinary approach to environmental management, using urban New Zealand use and value of freshwater as a case in point. In New Zealand, the deficiencies of urban water management have become more evident over the last decades spurring a long process of water reform. Changing precipitation patterns are increasing the risk of flooding events and water shortages; there are regional and seasonal stresses on freshwater resources; and people's attitudes and expectations are poorly understood. Existing pricing structures are obscuring signals of both water shortages and wasteful practices. This research examined and mapped people's awareness, perceptions, attitudes and preferences in Auckland City and Christchurch City; two communities with different cultural, ecological and political systems of water management. A system-based contingent valuation method was developed to establish the level of acceptance for including ecosystem services as a part of the water infrastructure equation in the two communities. By eliciting a willingness to pay for water related ecosystem goods and services, values were coupled with price and consumption. It was found that the old mindset seeing water as a free gift from nature prevails in some communities even in the presence of higher environmental awareness, encouraging unsustainable consumption and potentially creating political inertia about water management reforms. It was found that there was a positive willingness to pay for ecosystem services in both cities, and that motivational factors were stronger predictors than socioeconomic variables for accepting the proposed pricing structure in Christchurch. The systems approach developed in this thesis identified cultural-ecological city identity constructs as having a strong potential for building community expectations for ecologically sustainable water management. It is recommended that local water authorities are established consisting of tangata whenua, stakeholders and experts from social, economic and ecological fields, and to be charged with developing local visions for water management and restoration programmes for water related ecosystems. It is recommended that pricing should include terms for full-cost recovery, resource rent, scarcity and investment in natural capital.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2361211280</t>
+          <t>https://openalex.org/W1606760350</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4135/9781446218976</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Xiao-lu (2006)</t>
+          <t>Chryssochoou (2001)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Teachers' role shift in college English teaching reform</t>
+          <t>Theorizing European Integration</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>This paper starts with the current situations of college English teaching reform and based on the discussion of their role's implications,the rationale,and inevitability of the role shift, the paper focuses on the role orientation and integrated efforts of the whole college.</t>
+          <t>Fully revised and updated throughout, Theorizing European Integration 2nd edition provides a comprehensive introduction to the theoretical study of European integration. Combining perspectives from international relations, comparative politics and social and political theory, Dimitris N. Chryssochoou offers a complete overview of the many competing approaches that have sought to capture and explain the evolving political nature of the European Union (EU) and its qualitative transition from a union of states to a polity in its own right. Contemporary issues, themes and theories addressed include: the different uses and current state of EU theorizing statecentric accounts of integration and their critics new normative challenges to the study of the EU the political dynamics of European treaty reform new forms of democracy, citizenship and governance the limits and possibilities of EU constitutionalism interdisciplinary understandings of EU polityhood the introduction of a theory of organized synarchy the transformations of state sovereignty in late modern Europe.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2351525792</t>
+          <t>https://openalex.org/W4313136905</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4000/books.oep.16142</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jian-mi (2011)</t>
+          <t>Becerril-García (2022)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Consideration on Cancelling the Third Batch Enrolment of University Level Degree in Fujian Province</t>
+          <t>Academic Publishing and Latin America</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Reform of college entrance examination by community has always been concern.recently, fujian sleeve of my sleeve to publish 2011 in the three,the three universities and two institutions are placed in second batch of joint admission.For such a batch of change,will three side effect of batch: Bound guideline,the choice to optimize;higher education,promotion of higher institutional level;Be higher education opportunities and challenges to raise status and coexist.</t>
+          <t>This conference on open science is covering many aspects of strategic relevance to build the future of Europe, a future based on knowledge leading to more opportunities for younger generations to express their talent in attractive research careers, be it in universities, research organisations or industry.Some sessions will be dedicated to discussing the assessment of research and researchers' performance, which affects their behaviours.This debate is timely and justified.Most researchers are used to measuring in their labs when collecting and processing data.Scientists have to measure with accuracy to produce reliable and verifiable results.The Nobel laureate Richard Feynman started one of his famous lectures challenging his students about the complexity introduced over the centuries by using different measurement units.Measuring research and researchers' performance is of a different nature and more complex in many ways.It has direct impact on people and a far-reaching policy dimension for the European Research Area.We therefore agree on the need to ensure objectiveness and fairness as guiding principles and we can use assessment methodologies to support broader policy objectives, considering that we live in times of change, including in the scientific methods and the public perception of the role of science.Research processes are in constant evolution, accelerated by the current pandemic and the transition to a resilient, green and digital economy and an inclusive society.The variety of activities making increased use of advanced technologies puts us in a situation where research deliverables are richer and not limited to delivering and counting publications.Modern science delivers other outputs, mostly digital, like datasets, software, algorithms or protocols, and it delivers highly skilled people through specialised education and mentoring.Multidisciplinary collaborations are required to address new scientific questions arising from increased complexity and that is another aspect of this evolution.More and more researchers from different domains, from biology and physics to economics, anthropology or humanities, work together in the boundaries of areas of knowledge.One of the actions included in the first Policy Agenda for the European Research Area, for the next three years 2022-2024, is to advance towards the reform of the assessment system for research, researchers and institutions to improve their quality, performance and impact.We consulted a variety of stakeholders in 2021, including organisations representing researchers, public funders, private funders, universities, research centres, academies, national evaluation agencies and policymakers, and we received strong support for the objective of ensuring a combination of qualitative and quantitative indicators to evaluate research and researchers without compromising on objectivity and peer review.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4237025486</t>
+          <t>https://openalex.org/W4391924252</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1086/ntj41790369</t>
+          <t>https://doi.org/10.1007/978-3-031-41283-7_15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>McGuire (2007)</t>
+          <t>Caballero (2024)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Note from the Editor</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessNote from the EditorTherese J. McGuireTherese J. McGuire Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by National Tax Journal Volume 60, Number 1March 2007 Published for: The National Tax Association Article DOIhttps://doi.org/10.1086/NTJ41790369 Views: 1Total views on this site © 2007 National Tax Association. All rights reserved.PDF download Crossref reports no articles citing this article.</t>
+          <t>Abstract In general terms, the Spanish system of local government under the current Constitution (1978) is relatively stable. Various economic crises and social and political changes (such as the emergence of new political parties at the state, regional, and local levels) have brought about several adjustments in the local government system, but have not modified its pillars. Although both state and autonomous communities (regions) tend to reduce local autonomy, this reduction has not been dramatic yet. The constraints on local governments are mainly relevant in financial matters, in which since 2012 state and regional controls on local authorities have significantly increased to ensure the balance and sustainability of local budgets. Currently, the most urgent reforms concern the second tier of local government (provinces), whose contours are not clearly set out either in the Constitution or in the general laws, and the rural municipalities, many of which are continuously losing population and are at risk of disappearing.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2760134492</t>
+          <t>https://openalex.org/W2175499178</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Johansson (2017)</t>
+          <t>Ciolos-Villemin (2012)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Norwegian petroleum taxation : estimating the value of allowing companies to pledge tax allowances from investments on the Norwegian continental shelf</t>
+          <t>La restructuration comportementale postsocialiste et la bipolarité des trajectoires vinicoles roumaines</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>La chute du mur de Berlin, fin 1989, marque l'ouverture au capitalisme et a l'economie de marche pour de nombreux pays d'Europe centrale et orientale. A l'enthousiasme succede la remise en cause de l'approche neoclassique des reformes. Le bilan de la privatisation est beaucoup moins satisfaisant que prevu ; les entreprises privatisees a l'Est ne se comportent pas comme des entreprises privees.Notre these s'interesse aux comportements des acteurs economiques et plus particulierement aux modalites et aux determinants du changement comportemental, en vue de leur adaptation a une economie dite de marche, avec pour cas d'etude, les unites vinicoles roumaines.Nous proposons un modele de la comportementale postsocialiste, qui integre : (1) l'approche en termes de restructuration comportementale, qui permet de depasser la variable propriete privee comme seul determinant des transformations microeconomiques ; (2) la theorie evolutionniste qui apprehende les comportements selon une approche dynamique ; (3) la grille structures-comportements-performances qui propose une classification des determinants comportementaux et de leur interrelations et (4) les facteurs herites du passe.Le modele qualitatif resultant met en evidence une grande variete de trajectoires coexistantes, y compris celles des orientees vers l'autoconsommation, souvent negligees par les etudes sectorielles bien qu'occupant 70 % des surfaces viticoles. Notre modele offre une explication de l'expansion post-1990 des hybrides, comme consequence du developpement de la trajectoire des minifundistes. Sa coexistence avec la trajectoire minifundia Vitis vinifera est determinee par les facteurs herites du passe. Conformement a la litterature, les modalites de gouvernance et le capital sont confirmes comme des determinants discriminants de la nature des trajectoires des unites commerciales, avec un accent sur l'origine du capital.Outre l'interet du modele pour une lecture des changements comportementaux en economie postsocialiste, mais aussi plus generalement en contexte de transformation systemique, notre travail invite a la prise en compte des logiques d'autoconsommation, aux cotes des logiques commerciales, lors de l'elaboration et de la mise en œuvre des politiques sectorielles.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124743824</t>
+          <t>https://openalex.org/W4382047810</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.2276942</t>
+          <t>https://doi.org/10.1086/726022</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Črnigoj (2013)</t>
+          <t>Schrire (2023)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>The Responsiveness of Corporate Investments to Changes in Corporate Taxation during the Financial Crisis: Empirical Evidence from Slovenian Firms</t>
+          <t>:&lt;i&gt;Enlistment: Lists in Medieval and Early Modern Literature&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>I examine the responsiveness of corporate investments to changes in corporate income taxation during the financial crisis. When investigating tax effects in financially constrained firms, the model of investment demand needs to be extended to include an additional channel through which taxes could affect investments. I model the tax effects via two transmission channels, the traditional user cost of capital channel and the cash flow channel being crucial for financially constrained firms. The empirical results show that corporate investments in financially constrained firms do not respond to changes in corporate income taxation through the user cost of capital channel, but there is strong evidence of the effect that materializes through the cash flow channel.</t>
+          <t>Previous articleNext article FreeBook ReviewEnlistment: Lists in Medieval and Early Modern Literature. Edited by Eva von Contzen and James Simpson. Columbus: Ohio State University Press, 2022. Pp. 232.Ray SchrireRay SchrireTel-Aviv University Search for more articles by this author PDFPDF PLUSFull Text Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmailPrint SectionsMorethe various tasks of the reeve written in Old-Englishan Anglo-Saxon poem about legendary kings and kingdomsthe names of God in Middle Englisha devotional mnemonic work based on the children of Jacobexegeses on the names of the rivers in paradisethe Middle English tradition of the Trojan War;the dream poetry of Chaucer and Douglascatalogs of trees among Elizabethan poetshumanist textbooks, administrative records, and Protestant playsPolemical, Reformation-era intrasentence inventoriesWhat all these texts have in common (hereafter, list 1) is that they are all discussed in the thought-provoking collection of essays Enlistment: Lists in Medieval and Early Modern Literature. As the authors of this volume show (and as list 1 summarizes), lists—a literary form that has “not received much attention from scholars” (4)—were in fact found everywhere, from the most canonical to most obscure literary works of the Middle Ages and early modernity.What justifies bringing such diverse texts together in one volume is the intention to “offer answers to the question, ‘what are lists capable of doing in medieval and early modern literature?’” (8), as the editors of the volume write in the very helpful and generous introduction. Indeed, reading through the ten essays that comprise this volume, we learn that the lists recorded in list 1 can do quite a lot. They can raise questions of culture, history, and temporality (Andrew James Johnston); emphasize the ignorance of their writer (Alexis Kellner Becker); give the appearance of objective truth while at the same time undermine the notion of objective truth (Eva von Contzen); mark what is notable in each item (Ingo Berensmeyer); raise the soul to a state of ecstasy (Suzanne Conklin Akbari); dismantle the sacredness of the ancien régime (James Simpson); break and remake order like a kaleidoscope (Kathryn Mogk Wagner); serve as a mental map (Martha D. Rust); help identify paradoxes in intellectual movements and bureaucratic reforms (Alex Davis); relate a text to the genre of the epic (Eva von Contzen); bring order to the cognitive household (Wolfram R. Keller); help authors participate in a community of poets (Ingo Berensmeyer); destroy the flow of syntax (James Simpson); or lead to a sweet and eternal annihilation (Suzanne Conklin Akbari). As this list indicates (hereafter list 2), the essays in this collection go a long way to displaying just how creative the use of lists was by the texts presented in list 1.In sum, these essays demonstrate that we find lists in many literary texts (list 1) and that these lists can do outstanding things (list 2). But this volume does more. The introduction and the essays (naturally, some more than others) offer us helpful analytical categories to think about lists in general. We can thus come up with a third list that will offer scholars new ways to relate to any list according to criteria, such as—directionality or lack thereof (e.g., list 1 follows the order of the ten essays, while list 2 takes what I think to be a rhetorical order); exhaustiveness versus incompleteness, closedness versus open-endedness (e.g., list 1 aims to reflect each of the ten essays, while list 2 invites readers to add more uses as they read through the volume); shape (e.g., list 1 is vertical while list 2 is linear); attribution to an author or lack thereof; susceptibility to changes, mistakes, and reinterpretations; role in ordering or disordering knowledge; embeddedness within or independence from syntax; or degree of playfulness or seriousness. Some of these categories interact in interesting ways. For example, as Kathryn Mogk Wagner shows in her excellent essay, the fact that the lists of divine names were seen as lacking any clear author allowed them to be more easily edited and enlarged.The collection makes rewarding reading for literary critics and historians working on the periods discussed in this volume (and, frankly, scholars working on other literary traditions and periods will also benefit from diving into these essays). Its readers will become much more attuned to the lists found in their texts and discover sophisticated new ways of thinking about them. But by showing the richness of the subject matter and the abundant number of possibilities for approaching it, the collection also leaves important questions unanswered.For example, what is it in the list form that allows it to perform all the things that the authors of the essays show it does? At least some of the functions on list 2 could be achieved—and often are indeed achieved—by</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071466328</t>
+          <t>https://openalex.org/W3140115854</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/icalt.2014.217</t>
+          <t>https://doi.org/10.2139/ssrn.2326354</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Avgerinou &amp; Gialamas (2014)</t>
+          <t>Park et al. (2012)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>i2Flex: Integrating a Large-Scale Technology Supported Educational Innovation in a K-12 International School Setting</t>
+          <t>(In Search of New Economic Path of US in the Post Global Financial Crisis)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>In response to the global educational reform the American Community School of Athens (ACS Athens) Greece has developed its own education paradigm, Morfosis which is defined within the 21st century framework, as a holistic, meaningful, and harmonious educational experience, guided by ethos. The vehicle to implement Morfosis, is the i2Flex (isquareFlex), a non-traditional learning methodology, organically developed by the ACS Athens community of learners. I2Flex integrates face-to-face and internet-based instruction with faculty-guided, student independent learning, and aims aat developing higher order cognitive skills within a learning design framework that is flexible in terms of time, pace, place, and/or mode. Ultimately, i2Flex aims at developing students' 21st century skills, while also helping them successfully prepare for their higher education studies and their future careers.</t>
+          <t>2008년 글로벌 금융위기는 외형적으로는 미국 금융기관의 파산으로 인한 위기였다. 하지만 이 위기는 단순히 미국의 금융시장이나 금융산업에 대한 재검토를 넘어 미국경제 전반을 되돌아보는 계기가 된 것으로 평가된다. 그리고 다수의 학자들은 이 위기가 단순히 금융부문의 문제에서 비롯된 것이 아니라, 그보다 더 깊고 구조적인 원인에서 비롯되었다고 지적하고 있다. 본 보고서는 글로벌 금융위기 이후 미국의 경제정책이 구조적인 원인을 치유하기 위한 근본적인 전환 혹은 개혁의 방향으로 가고 있는가를 평가하는 것을 목적으로 하였다. 연구결과에 따르면 위기 이후 미국에서 과거와는 다른 새로운 정책적 방향이 일부 나타나고는 있지만, 새로운 정책 패러다임의 형성 혹은 근본적 전환이 나타났다고 평가하기는 어렵다는 것이 결론이다. 1980년대 이후 위기 이전까지의 미국의 정책방향은 국내적으로는 금융부문을 중심으로 해서 정부규제를 완화하는 것이었다. 그리고 금융산업을 비롯한 서비스업의 비중이 증가하는 것이 비교우위의 관점에서 자연스러운 현상이라고 판단하였다. 그리고 전통적 제조업의 경쟁력 상실에 대해서는 큰 경각심을 갖지 않았으며, 지식기반형 혹은 혁신형 제조업의 성장에만 주목한 것으로 판단된다. 대외적으로는 교역대상국의 개방을 촉진하기 위해서 FTA 체결과 같은 정책을 사용했지만, 경제적 이익보다는 전략적 목적에 더 큰 비중을 두었다고 할 수 있다. EU의 경제통합에 대응하기 위해 NATFA를 결성한 이후 전략적으로 중요한 중동국가, 남미국가, 그리고 아시아의 한국과 FTA 체결을 추진하였다. 즉 통상정책은 상당 정도 전략적 목적을 띠고 있었다. 그리고 경제적 이익을 고려할 때도 자국 금융산업이나 서비스업의 해외진출, 그리고 수입품 가격인하를 통한 소비자후생의 증가 등 간접적이고 다소 포괄적인 이익을 기대하였다. 2008년 글로벌 금융위기 이후 이런 기존의 정책 방향에 전환이 이었던 것은 분명하다. 요약하면 규제완화와 전략적 측면 중시에서 규제강화와 경제적 실익 중시로의 전환이라고 할 수 있다. 좀 더 구체적으로는 금융업 및 서비스업 중시에서 제조업을 강조하는 정책으로 변화되었으며, 통상정책에서도 전략적 고려 대신 수출확대나 국내 일자리 창출과 같은 실익을 중시하는 정책으로 전환하였다. 그리고 위기의 원인이 되었던 금융혁신과 금융자유화 대신 고위험 금융거래에 대한 규제의 강화와 금융감독의 강화를 선택하였다. 이러한 정책의 전환은 글로벌 금융위기를 계기로 나타난 측면도 있지만, 2009년 이후 오바마 대통령이 취임하면서 정권이 공화당에서 민주당으로 교체됨으로 해서 나타난 부분도 있다. 우선 제조업 중시정책과 관련하여, 금융위기 이후 금융산업을 성장의 동력으로 삼는 대신 제조업에 다시 주목한 것은 위기에 대한 단순한 반응 이상인 것으로 판단된다. 금융위기 직후 국제경쟁력을 상실한 자동차 회사의 처리를 두고 민주당과 공화당 사이에 의견 대립이 있었는데 오바마 대통령은 자동차산업에 대한 정부차원의 지원을 명확히 하였다. 이것은 제조업을 쉽게 포기할 수 없으며, 양질의 안정적 일자리 창출을 위해 제조업이 반드시 필요하다는 오바마 대통령의 신뢰에서 비롯되었다고 할 수 있다. 나아가 제조업의 쇠퇴를 필연으로 받아들이는 대신 미국 제조업 부활을 위해 2010년 ‘제조업증강법’을 제정하여 다양한 제조업 지원책을 마련하였다. 또 제조업 수출확대를 위해 ‘국가수출구상’을 발표하였다. 기업들의 R&amp;D활동을 지원하고, 셰일가스를 중심으로 한 에너지분야 지원을 통해 기업의 가격경쟁력을 향상하기 위한 노력도 하고 있다. 미국의 제조업 육성 정책이 얼마나 성과를 거두었는지 현재로서는 판단하기 어렵다. 하지만 미국 상품 수출 증가율을 다른 지역과 비교해 보면 미국 제조업이 다시 활력을 회복할 가능성이 있음을 시사한다. 2011년 미국의 상품 수출증가율(수량기준)은 7.2%였으며 2012년은 5.3%로 예상된다. 이런 성장률은 세계 평균이나 다른 지역에 비해 높은 수준이다. 선진국 평균에 비해 1.5%p, 3.0%p 각각 높은 수준이며 신흥시장의 평균에 비해서도 오히려 더 높다. 이러한 양호한 수출증가율은 적극적이고 실용적인 통상정책의 결과일 수도 있다. 금융위기 이후에 집권한 오마바 대통령은 통상정책에서도 과거의 정책과 다른 태도를 보였다. 오바마의 접근은 통상정책에 관한 기존 민주당의 입장과도 다른 것이었다. 위기 후 미국 통상정책의 기조는 한 마디로 수출확대와 국내 일자리 창출이라는 이익의 관점에서 철저히 실용적 접근을 하는 것이다. 개방의 확대는 교역을 통한 포괄적 이익을 얻기 위해 필요하다는 공화당의 이념 대신, 수출과 일자리 확대에 기여할 수 있도록 통상정책의 구체적 내용에 주목하고 있다. 이것은 FTA에 환경과 노동 관련 규정을 강화하겠다는 정도의 민주당의 기존 입장과도 다른 것이다. 가치로서의 환경과 노동 규정이 아니라 그 규정이 신흥시장으로부터의 수입을 억제하는 데 도움이 된다면 그것을 요구하겠다는 것이다. 전략적 지역 중시에서 경제적 이익의 확대될 수 있는 아시아 지역 중시로의 전환이다. 경제성장과 일자리 창출을 최고의 목표로 하는 ‘국가수출확대구상(NEI)’의 추진을 2011년 통상정책의 최우선 과제로 선정한 것이 정책전환의 대표적인 예이다. 그리고 FTA의 잠재적 이익을 실현하기 추진 중인 FTA를 마무리하고 아시아국가들과 TPP를 추진하는 것 역시 그 예라고 할 수 있다. 금융부문에서도 정책적 전환이 있었다. 금융혁신을 위해 규제완화를 추구하는 방향과는 정반대로 금융규제를 강화하는 쪽으로 선회한 것이다. 이러한 방향 선회는 시스템적으로 중요한 대규모 금융기관에 대한 규제 강화나 파생금융상품의 거래에 대한 제한, 신용평가기관의 투명성 강화 요구 등에 표현되어 있다. 하지만 2008년 글로벌 금융위기 이후 미국의 금융정책의 변화는 1930년대 대공화기와 비교해 보면 패러다임의 변화라고 평가하기는 어렵다. 대공황 이후에는 시장에 대한 정부의 규제와 감독이 강화되어야 한다는 이념적 전환이 있었다면 이번에는 그렇지 않았다는 것이다. 우선 금융개혁의 경우 금융기관의 일부 행위(behavior)에 대한 규제는 강화되었지만, 금융시장의 구조(structure)를 변화시킬 만한 개혁은 없었다. 대공황과 달리 이번 글로벌 금융위기 이후에 정책의 근본적 패러다임 변화가 나타나지 않은 이유 중 하나는, 글로벌 금융위기가 대공황만큼 심각하지 않았기 때문이다. 다른 한 원인은 정치적 갈등 혹은 이념적 차이와 관련되었다고 할 수 있다. 대공황 이후에는 양당 사이의 이념적 격차가 급격히 축소되었다. 하지만 지금은 미국 의회의 이념적 격차가 계속 확대되고 있다. 이 문제는 오바마 대통령이 개혁을 추진한 데 있어 심각한 정치적 장애가 되고 있다. 도드-프랭크 금융개혁법안이 금융가의 반대에 의해 후퇴된 것, 그리고 소득불균형을 완화하기 위한 조치의 일부라 할 수 있는 의료보험 개혁이 공화당의 극심한 반대에 부딪혔던 것이 대표적인 예이다. The global financial crisis of 2008 prompted the United States to reassess its whole economy as well as financial markets. Numerous studies suggest that the reason for the crisis should be found not simply at financial malfunction, but more fundamentally at structural elements. This study aims at making an assessment on whether the post-crisis economic policies have been re-aligned to remedy its structural flaws and fundamentally reform the economy. Until the global financial crisis after the 1980s, the economic policies were oriented toward deregulation, notably at the financial industry. Internally, the growth of the service industry such as financial services was regarded to be positive and natural from the comparative advantage perspective. As well, the United States was not alerted to the loss of competitiveness in stale manufacturing industries, and instead paid attention only to the rise of knowledge-or innovation-based industries. Externally, although it adopted measures such as the FTA to open partner's markets more, it tended to put an emphasis on strategic aspects more than its economic interests. It is certain that after the financial crisis there was a shift in the economic policy stance of the United States. In summary, the pre-crisis deregulation and strategic-interest-first policy turned into re-regulation and economic-interest-first. Specifically, it started to move the focus on the revival of the manufacturing away from the financial or service industry, and to consider practical benefits such as export and job creation more than geo-political or strategi</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390293972</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.59403/1cnvkf4</t>
+          <t>https://openalex.org/W2360232173</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wilkie (2012)</t>
+          <t>Shiwu (2012)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Services Permanent Establishments and the Canada–United States Income Tax Treaty</t>
+          <t>Long-term impacts of China's "Unifying Two Tax Schedules" reform</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>This article explains the “services permanent establishment” provision in the Canada–United States Income Tax Treaty in the context of the OECD’s views on this extension of the typical PE notion, and in light of several interpretative comments offered by the Canada Revenue Agency.</t>
+          <t>Based on firms listed in Shanghai or Shenzhen Stock Exchanges,this paper analyzes the long-term impacts of China's Unifying Two Tax Schedules reform on the economic performance of firms with different ownership structures using the method of event study.Analyses show that,on March 16th in 2007 when the reform was announced,the firms with different ownership structures responded differently to this news.Specifically,compared with domestic firms,the stock prices of firms with 0—25% foreign-owned shares significantly increased by 3%,but the stock prices of firms with more than 25% foreign-owned shares did not change significantly.According to the efficient market hypothesis,firms' stock prices reflect their economic performance in the long term.The results show that the Unifying Two Tax Schedules reform in general will have positive effects on firms' economic performance,and therefore on the growth of the whole economy.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2106150245</t>
+          <t>https://openalex.org/W10631287</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Poell (2010)</t>
+          <t>Marchiș (2014)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>The French occupation and the transformation of the Dutch public sphere (1795-1813)</t>
+          <t>The Eu New Cohesion Policy - a Leading Part in Transforming the European Economy</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>First, this chapter shows how the French Revolution and occupation facilitated, between 1795 and 1798, the development of a centralized Dutch public sphere, based on universalistic principles. In reaction to the failure of the Patriot Revolt (1780-1787), the Dutch revolutionaries were quick to embrace the French unitary democratic state model. Subsequently, the much welcomed invasion of 1795, gave them the opportunity to revive the revolutionary clubs and press, and start the reform of the Dutch state. This reform process was driven by a series of temporary coalitions with the French authorities, which allowed the revolutionary politicians to eliminate the opposition against the centralization and democratization of the Dutch state. Second, the investigation demonstrates that the collapse of the public sphere, after 1798, can only partially be attributed to the rise of French authoritarianism. In fact, the Dutch revolutionaries themselves played a crucial role in the breakdown of the political press and the elimination of revolutionary associations. Public political activities, as well as official democratic procedures, were, after the establishment of the unitary democratic constitution of 1798, increasingly considered by the revolutionaries as obstacles for political reform. In turn, the French authorities only became truly repressive after the Dutch state had been annexed by the French Empire in 1810. By this time, the Dutch public sphere, at least what remained of it, was increasingly mobilized in direct opposition to the French occupiers.</t>
+          <t>ABSTRACT.The new architecture of the EU cohesion policy for the programming period 2014-2020, was designed based on the current challenges faced by all regions and member states, such as: emerging from the economic crisis, the impact of globalization, aging and demographic change, technological change and requirements for innovation, environmental and energy problems, and etcetera. Finding integrated solutions, to these diverse and multidimensional problems, is at the heart of the new philosophy of communitarian development, described by Europe 2020 strategy. The aim of this paper is to increase the awareness and the perception of all relevant stakeholders that are involved in the implementation of EU cohesion policy (relevant ministries, regions, municipalities, professional organizations, research centers, businesses or social partners), on their responsibilities for directing and using the EU funding in a more efficient, consistent and cost-effective way in order to reach their full potential in creating growth and jobs in entire Europe.JEL codes: F36; 052; F63; 040; E61Keywords: ESI funds; Europe 2020; economic growth; regional development1. IntroductionThe European economy still faces a difficult period marked by the crisis and also by the austerity measures set to combat it. Over recent year, cohesion policy has shifted from an infrastructure oriented policy to an investment policy in order to have an increased contribution to economic activity by stimulating growth and jobs.Transforming the European economy accordingly with the objectives of Europe 2020 strategy means to refocus and to restructure the cohesion policy in order to tackle the current challenges such as: unemployment, the lack of competitiveness, climate change, aging and demographic change energy problems, and etc.For the upcoming period, the new cohesion policy must be focus on long-term growth. Thus, the rationale of cohesion policy for 2014-2020 is to capitalize on the full potential of Europe's regions to rebuild their economies on competitive foundations.2. Brief History of the EU Financial Instruments under the Shield of Cohesion PolicyCohesion policy emerged and progressively developed from the fierce quest for sustained economic growth. Thus, in 1958, European Social Fund was set up, for financing bold experiments with human development and social protection policies. In 1962, European Agriculture Guidance and Guarantee Fund (EAGGF) was established for the purpose of implementing the common agriculture policy (CAP). In 1975, as a consequence of the enlargement process and also because of the energetic crisis from 1973, the European Regional Development Fund (ERDF) was set up with the aim of promoting innovation and infrastructure development in order to correct the gaps among Community members. All of these funds were reformed in 1988 and received the generic name of Structural Funds. Initially, the period of operation of these funds was set at five years (1989-1993) having as programming documents the Community Support Framework and the Operational Programs.The Cohesion Fund was bom on the basis of the Treaty on European Union (article 130d) and entered into force in 1993. The main goal of this fund is to improve the transport infrastructure and to protect the environment. For the programming period 1994-1999, both the regulations regarding the Structural Funds and the list of eligible regions were reformed in order to address the specific problems of the time.In 1994, Financial Instrument for Fisheries Guidance (FIFG) was set up in order to develop the regions of which main economic activity is fishery.For the next programming period 2000-2006 the objectives financed under the aegis of Structural Funds were revised accordingly with the necessities of member states. In fact, this represents the operating mode of the Community financial support.In order to respond closely to the goal of economic and social cohesion, the EU financial instruments were revised for the programming period 20072013. …</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1578633204</t>
+          <t>https://openalex.org/W288002994</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Jones (2006)</t>
+          <t>Oliveira (1992)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Low-hanging fruit : money saving tips</t>
+          <t>Managing domestic and external debt</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Extracted from text ... Moneyweb's PERSONAL FINANCE September 2006 15 
-MONEY SAVING TIPS 
-By STEVEN JONES 
-Low-hanging fruit 
-In the wild, it is the fruit that hangs low on 
-the tree that is most easily accessed, and 
-therefore provides nourishment. 
-Here are some tips to provide instant 
-nourishment to your finances 
-?? SARS is increasingly moving to 
-an electronic platform for submission 
-of income tax returns, and for 
-the 2006 tax year, salary earners 
-(those who have received IT12 S or 
-IT12 SS returns) can submit their 
-returns online via www.sarsefiling. 
-co.za. Wary of these new-fangled 
-technologies? An incentive to 
-switch to ..</t>
+          <t>The rapporteur's report of the senior policy seminar 'Latin America: facing the challenges of adjustment and growth' presents the key viewpoints of the seminar participants. It is organized in three sections: what went wrong in the 1980s; policy mechanisms to restore stability and growth in the region; and a final evaluation of growth and investment prospects in the 1990s. This report highlights the seminar's major conclusions and policy recommendations: 1) tremendous change has already been taken in fiscal and monetary policies, particularly in deficit finance policy. The author reminds us that as recently as 1985, policy makers were arguing that budget deficits and inflation are unrelated; 2) public sector reforms must emphasize tax reforms rather than short-term fiscal and financial gimmicks. A thorough examination of the distributive, structural, and allocative aspect of fiscal policies is needed throughout the region; 3) seminar participants agreed that general trade and internal reforms should be conducted simultaneously due to the complementary nature of their effects; 4) a need to define a long-term social strategy in line with structural adjustment objectives; and 5) investment in the 1990s must rely on domestic savings-particularly on public savings generated from budget surpluses.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1921482427</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.960133</t>
+          <t>https://openalex.org/W1917886614</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ghezzi &amp; Malberti (2007)</t>
+          <t>장병문 (1998)</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Corporate Law Reforms in Europe: The Two-Tier Model and the One-Tier Model of Corporate Governance in the Italian Reform of Corporate Law</t>
+          <t xml:space="preserve">개발제한구역 제도의 실효성 문제와 개선 대책</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>This paper explores the Italian reform of corporate governance of 2003, which, for the first time, allowed corporations to choose among three different models of governance in part inspired by foreign legal systems. Italian corporations have three governance options. First, corporations may adopt the Italian traditional system of governance which has been modernized by the reform of corporate law. This model of governance is still the most influential and most commonly used in Italy. Besides the traditional model two other alternative systems of governance were created by the 2003 reform: the two-tier system and the one-tier system. The first model owes its basic structure to the German tradition, where the shareholders' meeting appoints a supervisory board, which then appoints a management board. In contrast, the one-tier model derives from the Anglo-American tradition. In this system the shareholders' meeting appoints the board of directors, which then appoints a number of directors to an audit committee entrusted with monitoring functions. Taking into account the initial goals of the Italian legislator in designing the 2003 reform, we illustrate how the models have been implemented in Italian practice, and describe the initial predictions of their benefits and disadvantages. Then, we provide some empirical evidence of the practical consequences of the Italian reform of corporate governance three years after its enactment, and we investigate whether the predictions mentioned above were accurate.</t>
+          <t>The main purpose of this paper is to provide reform measures on the basis of an evaluation of the problems and efficacy of green belts system(GBS) in Korea in an application of evaluation elements, derived from four evaluation criteria for urban development guidance system and related six growth management factors. As for efficacy of Korean GBS, we found that 1) the GBS does not organized with goals of urban growth management system and general plan and large amounts land in green belts have been converted for various public uses by public agencies, 2) designation of green belts area had been against police power regulations, eventually causing inefficient land uses, 3) taking issues through exercise of police power and eminent domain are the most critical concerns raised by landowner, and 4) the GBS does not equipped with such necessary regulation as floor area ratio(FAR), minimum lot area(MLA) and yard size for land development. As for reform measures of Korean GBS, we suggest that 1) after determining the nature of Korean GBS, the GBS as a tool of urban growth management must be consistent with goals of urban growth management and general plan of the cities, 2) along with sufficient compensation on excess land use regulations and land acquisition through an exercise of eminent domain by public bodies, the GBS must prepare such criterion as FAR, MLA and yard size for land development, permitting system based on positive regulations on land use activities, and standards for public uses of green belts area, 3) the GBS is required such device as subzoning, planned unit development, transfer of development right, purchase of development rights and regional capital improvement programming for remedial purposes of problems caused by green belts, and tax incremental financing, preferential taxation, impact fees, beneficiary fees and fees on conversion of open space for funding green belts area. The evaluating elements and approach, developed for this study, are turned out to be highly useful and to be applicable to evaluation of efficacy of other urban development tools.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2361915957</t>
+          <t>https://openalex.org/W2093522899</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1108/00400910210432103</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wang (2004)</t>
+          <t>Buchmann (2002)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>On China's Strategic Choices to Countering the Economy Globalization</t>
+          <t>Labour market entry and beyond: some reflections on the changing structure of work</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Globalization produces positive influences. Meanwhile, it also brings about negative influences, such as challenges against a country's economic sovereignty, enlarged differences between the rich and the poor worldwide, virtual economy's deviation from practical economy, potential worldwide economy crisis and biological disasters, etc. As a developing country, China should learn from the developed countries, strengthen the research of nation development strategy, speed up the reform of the structure of industry, promote innovations in science and technology and management, establish protecting net for economic security as well as for biological security, etc.</t>
+          <t>This article raises the question of how recent labour market developments affect the transition from school to work (i.e. labour market entry) and the successive employment career. The focus of interest are countries characterised by well‐established and wide‐spread vocational training systems, constituting strong institutionalised links between the educational and the employment systems (i.e. Austria, Germany and Switzerland). The arguments advanced show that the changing structure of work (i.e. the shifting nature of work, the decrease in the temporal validity of skills and the changing cultural significance of work) is likely to modify the well‐established interplay between the supply and demand sides in the labour markets of these countries, thus exerting considerable pressure on the stability and orderliness of employment trajectories. Against this background, the most critical issues of vocational training systems are described and reforms of these systems are discussed.</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3148664464</t>
+          <t>https://openalex.org/W2916799706</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/2953352</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Annisha &amp; Afrizal (2017)</t>
+          <t>Sollom (1997)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Dampak Kebijakan Pelayanan Perizinan Terpadu Dan Penanaman Modal Terhadap Daya Tarik Investasi Asing Di Provinsi Riau Tahun 2013-2016</t>
+          <t>State Actions on Reproductive Health Issues in 1996</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>With the enactment of regional autonomy by the Indonesian government, the Riau provincial government established an institution that serves to minimize the process, the permit is always requested by the owners of capital / investors. The agency is the Integrated Licensing Service Agency and Capital Investment. This study aims to determine the policy of the institution, to know foreign investment in Riau province, to know the impact of the policy of the institution to foreign investment in Riau province. This research uses the perspectives of liberalism, this theory is pioneered by david ricardo &amp; adam amith. The concept of this theory is based on the idea of market sovereignty in the economy. In this study the author uses the policy theory of Richard Snyder as a reference. The results of this study are positively impacting the economy in Riau province through incentive policies in the field of foreign investment including tax facilities and licensing facilities.</t>
+          <t>States took steps in 1996 to increase their level of control over health care, welfare reform, education, and the environment. While many of the initiatives resulted from the federal government's delegation of more power and responsibilities to the states, sometimes states independently asserted their authority over policy issues in which they had a particular interest. Reproductive health policy and the provision of services attracted state legislator and official concern. There was a particularly high level of legislative activity on the issues of abortion services and postpartum hospital stays. While the majority of the hundreds of reproductive health-related legislative initiatives launched in 1996 were neither implemented nor considered by the end of the year, they have clearly spawned a heightened awareness of fertility-related matters and their impact upon women's reproductive lives. State actions on abortion, family planning, maternal and child health, and sex education are discussed.</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2367651796</t>
+          <t>https://openalex.org/W2238573137</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hong-yun (2011)</t>
+          <t>Popławski (2012)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>A Study of Effectiveness of U.S. Financial Regulation Based on the Efficiency of Financial Markets</t>
+          <t>The fiscal compact - Europe's "hard core" based on German economic conditions. OSW Commentary No. 71, 2012-03-07</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Financial regulation is designed to reduce market failures and improve financial market efficiency.Based on this,the comparision of the efficiency improvement of financial markets can test and judge the effectiveness of the financial regulatory reform.This paper selects world 's most typical regulatory periods of the United States in the 1980s(efficiency priority) and 1990s(both safety and efficiency),and to exam the two different stages of the effectiveness of U.S.financial regulation by analysis of stock returns R/S and Hurst which reveals efficiency of financial markets.The empirical results show that the second phase of financial market efficiency was significantly higher than the first stage,but it is exactly the period of the early sub-prime crisis,which shows the efficiency of financial markets still need further improvement,and the effectiveness of supervision needs to be strengthened.The results of this paper provides an important theoretical basis and reference value for a new round of the world 's financial regulatory reform.</t>
+          <t>On 2 March, the leaders of 25 EU member states signed the Treaty on stability, coordination and governance in the economic and monetary union._x000D_
+It will introduce new fiscal constraints and officially vest new competences in the eurozone countries. Thus, their right to coordinate economic policy among them will be sanctioned. So far, the Lisbon Treaty has only provided for organisation of informal Eurogroup meetings, to be attended by representatives of the European Commission. The principles introduced by the compact, if the eurozone countries are really determined to observe its provisions, will create a new way of managing the single currency. Within the next few years, the most indebted countries will have to carry out radical reforms to boost their competitiveness and adjust it to German standards. During this period the Federal Republic of Germany will most probably decide to offer higher loan guarantees to relieve these countries’ budgets. The compact’s political consequences are also of great significance, especially considering how the treaty was finalised. The eurozone states have in fact accepted that the direction for changes will be devised by France and Germany, and the role of European institutions such as the Commission or the Parliament may weaken. From the perspective of eurozone candidate countries, the introduction of the fiscal compact means expanding the scope of conditions they must meet to become members of the single currency area. In the future, a country, in order to adopt the single currency, will have to meet the structural deficit criterion, and also most probably carry out economic reforms such as unifying its fiscal system. These goals will be achieved across the eurozone gradually, in the subsequent stages of the economic governance reform.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2578144858</t>
+          <t>https://openalex.org/W2176850513</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-319-21641-6_14</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Pellow &amp; Kuhns (1992)</t>
+          <t>Chatterjee (2016)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>The "Re" Maelstrom of Educational Reform: Restructure, Renewal, Reform, Recreate, Reconstitute, Redesign, Refurbish, Rethink, Redraft, Restrengthen.</t>
+          <t>Corporate Social Responsibility in India: From Traditional Ethos to Contemporary Transitions</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A holistic concept of societal embeddedness has been deeply rooted in Indian tradition and continues to dominate the ethos of a significant number of contemporary corporations. The traditional wisdom literature drawn from a diverse range of religious texts emphasized a deeper level integration of secular ideas of societal good within the world of work. Though the ancient tradition emphasized more on philanthropy by imposing religious responsibilities, a deeper and integrated logic of external engagement, no doubt, was an overwhelming and critical assumption. In the twentieth century, during the country’s independence movement many of India’s indigenous business houses were inspired by the promotion of the ‘trusteeship concept’ by Mahatma Gandhi where the key goal of business was aimed at benefitting the society. The adoption of the socialistic ‘mixed economy’ model following India’s independence and subsequent major economic reform of the 1990s have seen dramatic shifts in the CSR approach in India in the recent decades. The unprecedented legal requirement for certain sized companies to mandatorily earmark 2 % of their profits towards approved corporate social responsibility (CSR) initiatives since 2014 has changed the thousands of years of ‘volunteerism’ into a new experimental stage. This paper traces these dramatic transitions of CSR concepts and practices and attempts to explore the motivations of this new law in terms of business being a critical force in strengthening healthy ecosystems, fostering social inclusiveness as well as sustaining a long term growth. As the concepts and practices of CSR evolve and expand their scope and scale, the case of India, may be of considerable relevance to the emerging economies around the world.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2228342364</t>
+          <t>https://openalex.org/W83858118</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yépez-García (2012)</t>
+          <t>Zakaria (2008)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mitigación de la vulnerabilidad a los precios del petróleo altos y volátiles: Experiencia del sector eléctrico en América</t>
+          <t>Sustainable Consumption Practices Among Civil Servants In Perak And Kedah, Malaysia</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Countries heavily dependent on imported oil to power a significant portion of their electricity generation are especially vulnerable to high and volatile oil prices. In net oil-importing countries worldwide, high and volatile oil prices ripple through the power sector to numerous segments of the economy. As prices move up and down, so does the cost of electricity production, which has far-reaching effects on the economy, fiscal and trade balances, businesses, and household living standards. High and volatile oil prices affect economies at both a macro and micro level. The major direct effects at the macro level are a deteriorating trade balance, through a higher import bill, reflecting a worsening in terms of trade; and a weakening fiscal balance due to greater government transfers and subsidies to insulate movements in international energy markets. At the micro level, investment uncertainty results from the higher risk of engaging in new projects and associated development and sunk costs, which, in turn, affects policy decisions and economic growth. This study responds to the needs of policy makers and energy planners in oil-importing countries to better manage exposure to oil price risk. The study's objective is threefold. First, it analyzes the economic effects of higher and volatile prices on oil-importing countries, with emphasis on the power sector, using examples from Latin America and the Caribbean (LAC). Second, it proposes a menu of complementary options that can be applied over multiple time frames. Several structural measures are designed to reduce oil generation and consumption, while a range of financial instruments are suggested for managing price risk in the short term. Finally, it attempts to quantify some of the macroeconomic and microeconomic benefits that could accrue from implementing such options.</t>
+          <t>Human are generally responsible for the destruction of environment in Malaysia and throughout the world through their production and consumption activities. The main objective of this study was to analyze sustainable consumption practices among civil servants. The study assessed the adoption of value towards environment, attitude towards sustainable consumption practices, materialistic value orientation, and sustainable consumption practices. The factors influencing civil servants’ sustainable consumption practice and the existence of value-action gap in sustainable consumption practices were also examined. This study adopted multi-stage sampling method. The data of this study originated from Intensification of Research in Priority Areas (IRPA) project conducted in 2004. For the purpose of this study, 289 respondents from Kedah and Perak were selected.The analysis of descriptive statistics and multiple regression were conducted to measure the variables (gender, age, educational level, job category, income level, value towards environment, attitude towards sustainable consumption practices, and materialistic value orientation) and determine the predictors of sustainable consumption practices. The study found that respondents reported high level of value towards environment and attitude towards sustainable consumption practices. The results of descriptive statistics for materialistic value orientation and sustainable consumption practices showed a moderate adoption. Importantly, the analysis on the intensity of adoption revealed that only half of the respondents reported applying sustainable consumption practices (47.8%)._x000D_
+The analysis of multiple regression showed that the beta value (B) for value towards the environment is 0.220, attitude towards sustainable consumption practices is 0.265, and materialistic value orientation is -0.203. All psychosocial variables (value towards environment, attitude towards sustainable consumption practices, and materialistic value orientation) have proved to influence sustainable consumption practices. However, none of the socio-demographic variables (gender, age, educational level, job category, and income level) is significant in predicting sustainable consumption practices._x000D_
+Multiple regression analysis revealed that value towards the environment, attitude towards sustainable consumption practices, and materialistic value orientation explained 15% of the variability of sustainable consumption practices. The RSquare value (.15) illustrates a small relationship between the independent and dependent variables. Thus, this demonstrates that there is a value-action gap as the contribution of value and attitude is not strong enough to predict sustainable consumption practices. It also implies that the aspect of practice has to be strengthened._x000D_
+Some strategies involving the aspect of facilities, laws, incentives, and taxes need to be planned. The barriers which might restrain people from applying sustainable consumption practices need to be removed. The campaigns should focus more on the process of consumption and how consumption leads to environmental deterioration. Thus, civil servants in Kedah and Perak have to be awakened that they are a part of something bigger and their consumption practice will make a substantial difference to the earth.</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1553069382</t>
+          <t>https://openalex.org/W3123607708</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>McLeod (1994)</t>
+          <t>Weaver (2013)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Review of Western Australian State Taxes, Taxation Policy Elective, 1994 (Editor)</t>
+          <t>Grandma in the White House: Legal Support for Intergenerational Caregiving</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Marian Robinson’s status as the live-in First Grandmother is an example of a growing trend in the United States - the multigenerational family. The 2010 United States Census Data reflects that the number of households with multiple generations living under one roof has increased by 25% this decade. Mrs. Robinson also reflects another new development in American families: grandparents helping their adult children with caregiving. More than 70% of grandparents are taking care of their grandkids on a regular basis, and 13% are primary caretakers. Many grandparents treat their role as caregiver like a profession, and they sacrifice jobs, residences, money, time, and part of their autonomy in order to ‘retribe’ their family. Often times, these grandparents are not as fortunate as Mrs. Robinson, and their selfless commitment to family not only reduces their current income, but also negatively affects their retirement funds and ability to care for themselves in the future. As the number of citizens over the age of sixty-five increases and the average age of grandparents decreases, these fundamental changes in the family caregiving network pose a threat to a significant portion of our population, particularly women, who make up the majority of grandparent caregivers. The impact of this family evolution on the older generation has yet to be examined from a legal perspective that goes beyond the traditional spectrum of family law. This article fills a gap in the legal analysis of family law reform in that it focuses on two underdeveloped topics: grandparents who are an integral part of the family, and the impending crisis of a significant aging population. This Article explores how employment, tax, and housing laws discourage intergenerational caregiving. Although research shows that grandparent involvement in their grandchildren’s lives results in multiple positive outcomes, government support for the extended family network lags behind the social framework of today. This Article examines how other modern countries in Europe and Australia have adopted laws that reduce the economic strain of grandparent caregiving. It further argues that the transubstantive nature of family law requires advocacy for grandparents beyond custody and visitation rights. Expanding social welfare for grandparent caregivers will revise the concept of the system of laws that supports family care work and can reform the administration of federal, state, and local regulations governing work and family.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://openalex.org/W192591491</t>
+          <t>https://openalex.org/W2902941110</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.32643/fk.142.4.2</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Uriarte &amp; Lynn (1989)</t>
+          <t>Csorba et al. (2018)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Media and Politics in Latin America: The Struggle for Democracy</t>
+          <t>A földrajzi tájak tipizálása európai kitekintéssel</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>INTERNATIONAL COMMUNICATION Fox. ELIZABETH, ed. Media and Politics in Lai in America: The Struggle for Democracy. Beverly Hills, Calif.: Sage Publications, 1988, 193 pp. $16.50 paper. This collection of essays-each one focused on a specific nation-contributes significantly toward filling the English-language void of information about media policies in America. One Central American and eight South American nations are included. The book presents culturally anchored perspectives. Almost all of the authors are American, some of the work is translated from original publications in Spanish and Portuguese. The foreward by Luis Ramiro Beltran lucidly discusses the problems of media policy in the context of changing governments and the rise of repression, pointing out that just as the region was moving toward serious consideration of reforms encouraged by the New World Information Order debate, military governments were tightening their hold on the continent. He also notes the elements of class exploitation that historically shaped media development in a number of American situations. A comprehensive introduction and conclusions by the editor provides additional context within which to frame the information supplied by each author. Beginning with the 1976 UNESCO-sponsored international meeting in Costa Rica, where for the first time high level government officials considered a general proposal for media reform, twenty American and Caribbean governments met to discuss aspects of the New World Information Order. In perhaps the pivotal point of the introduction, Fox notes: Latin America was the first Third World region as a whole to identify certain problems in its national media systems, propose national communications policies and in some cases carry out major structural reforms of broadcasting and the press. They criticized the huge import of news, recordings and television programmes, the lack of regional news exchange, the almost totally private control of the mass media and the absence of public services and channels of popular participation and access. They cited among other problems censorship of news and entertainment and a shortage of trained professionals, technological know-how and regional production facilities. The chapters that follow each deal with some aspect of these criticisms, highlighting situations that impact directly on media policies and performance. Thus, the thoughtful, informed reader comes away with a selection of examples with which to consider the many implications of interaction between media policy, government intervention, private greed and individual inno-, vation. Missing, however, is an explicit discussion of the continuing economic interlocks between U.S. and American interests which currently impact media policy. Fox notes the conflict around the NWIO issues: Latin American broadcasters and newspaper owners, arguing freedom of expression, bitterly resisted what they considered the movement towards new government regulation . .. Before, during and after, the meeting received extensive and mainly negative publicity in the American and world press. …</t>
+          <t>Although the classification of geographical landscapes is an important field of landscape science, an accepted method concerning how to carry it out exactly does not exist. The traditional definitions of landscape types have focused on relief, natural vegetation, and landuse, though nowadays the focus has shifted increasingly to landcover, which can be classified according to remote sensing data. The traditional school of landscape classification appeared in German and Russian geography more than a hundred years ago, as well as in other European countries with a large territiory, where practically no detailed landscape-type map existed (France for example). There is a strong incentive at the EU-level to elaborate a general landscape classification and mapping system, which would be useful when checking agricultural subsidies in the member countries.This paper presents a European survey of the methods of landscape classification in different countries, with special attention to landscape-type maps of the neighbouring countries in the Carpathian Basin. We present here a new and detailed landscape-type map of the Northern Serbian county of Vojvodina. The landscape definitions and maps on the two sides of the Hungarian border (along the entire Hungarian border) are almost completely incompatible with each other, hence it is a necessary and very urgent professional task to elaborate a general landscape-type map of the Carpathian Basin. In the field of the historical landscape classification of the Carpathian Basin the situation is better, as we have a map referring to the landscape from approximately 900 AD and another one from the period between 1200 and 1600 AD. An important conclusion of the paper is that traditional descriptions of landscape types are suitable for a general survey but not for practical purposes such as landscape planning, landscape protection, or tourism geography.For these purposes more elaborate special classification methods are a must.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1524869169</t>
+          <t>https://openalex.org/W4390965932</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.1007261</t>
+          <t>https://doi.org/10.1016/b978-0-323-99164-3.00004-5</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Turner (2007)</t>
+          <t>Kumar et al. (2024)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>The Racial Integration of Emory University: Ben F. Johnson, Jr., and the Humanity of Law</t>
+          <t>Introduction to earth observation in urban monitoring</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>This article describes the racial integration of Emory University and the subsequent creation of Pre-Start, an affirmative action program at Emory Law School from 1966 to 1972. It focuses on the initiative of the Dean of Emory Law School at the time, Ben F. Johnson, Jr. (1914-2006). Johnson played a number of leadership roles throughout his life, including successfully arguing a case before the United States Supreme Court while he was an Assistant Attorney General of Georgia, promoting legislation to create Atlanta's subway system as a state senator, and representing Emory in its lawsuit to strike down the state statute that would have rescinded its tax exemption if it admitted African American students (Emory v. Nash, 218 Ga. 317 (Ga. 1962)). This account supplements my related article on Pre-Start, 'A Bulwark against Anarchy': Affirmative Action, Emory Law School, and Southern Self-Help (SSRN abstract 1007006), providing more information about historical context generally, and particularly about Emory v. Nash. Johnson was ambitious for Emory as a whole, and particularly for the Law School, and he saw in segregation the single largest impediment to making Emory a nationally prominent research university. The story of Emory's integration, and Johnson's leadership, requires revision of the prevailing story of integration generally, and especially of universities. Integration at Emory came about because of the pressure that African Americans and their supporters created through the civil rights movement, but Emory administrators responded to such pressure more constructively than most (e.g., Universities of Alabama, Mississippi, Georgia, and Vanderbilt). Their actions provide an interesting case study in effective leadership during a period of significant moral and political conflict.</t>
+          <t>The rapid urban growth and increasing demand for natural resources lead to the considerable environmental degradation and habitat loss. The application of earth observation-based methods enables a better understanding of urban complexity with different spatio-spectral resolutions at temporal scales and contributes to addressing the adverse ecological impacts. There is an urgent need to understand the interdependencies of ecological conditions and changing urban growth to formulate a city-specific framework for sustainable urban development. Therefore the present chapter elucidates the fundamental components of the urban system emphasizing the earth observation-based technologies available to assess the urban environmental conditions that help in defining the settlement pattern and segregation of different land cover features. The inclusion of advanced artificial intelligence and machine learning algorithms provides precision analysis for future predictions and formulation of mitigation strategies. Furthermore, it helps in the determination of factors responsible for urban risk and of societal importance as well as in the implementation of significant policies and reforms for sustainable urban planning, monitoring, and management.</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2390997024</t>
+          <t>https://openalex.org/W2073220979</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1521/jscp.1996.15.1.1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Shi (2003)</t>
+          <t>Weinstein &amp; Klein (1996)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Education of Geography in China:Inheriting and Innovation</t>
+          <t>Unrealistic Optimism: Present and Future</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>The education of geography should meet the needs of geog ra phical talents in the science of earth system and sustainable developm ent as well as the socio-economic development in China, especially mee t the needs of sustainable development strategy. Therefore, it is nece ssary to launch a comprehensive reform about the primary and advanced education of geography. Three countermeasures to achieve development with leaps and bounds in geographical education are further presented in this pap er: (1) in the background of earth system science and sustainable developm ent science, to establish a new system of geographical education in China; (2) on the premise of adaptation to national and international criterion, to standa rdize the classification of geographical knowledge system and geographic al curriculum system; and (3) on the premise of technical glossary cen sor, to normalize the terms of geographical advanced education.</t>
+          <t>Unrealistic Optimism: Present and FutureNeil D. Weinstein and William M. KleinNeil D. WeinsteinSearch for more papers by this author and William M. Klein1 Rutgers, The State University of New jersey2 Colby CollegeSearch for more papers by this authorPublished Online:January 2011https://doi.org/10.1521/jscp.1996.15.1.1PDFPDF PLUS ShareShare onFacebookTwitterLinkedInRedditEmail ToolsAdd to favoritesDownload CitationsTrack Citations About Next article FiguresReferencesRelatedDetails Cited byCited by1. An evaluation of a video-based intervention targeting alcohol consumption during aquatic activitiesOnline publication date: 16 February 2022. Go to citation Crossref Google Scholar2. Designing rewards‐based crowdfunding campaigns for strategic (but distracted) contributorsOnline publication date: 15 September 2022. Go to citation Crossref Google Scholar3. Barriers to Seeking Psychotherapy for Mental Health Problems in Adolescents: a mixed method studyOnline publication date: 22 July 2022. Go to citation Crossref Google Scholar4. Are you too happy to serve others? When and why positive affect makes customer mistreatment experience feel worseOnline publication date: Go to citation Crossref Google Scholar5. Public Perceptions of Food Contamination Risks: A Simulation Experiment on the Psychological Impact of Incident Severity and IntentionalityOnline publication date: 8 August 2022. Go to citation Crossref Google Scholar6. Do Behavioral Biases Influence the Length of Sell-Side Analysts’ Observable Careers?Online publication date: 23 June 2022. Go to citation Crossref Google Scholar7. Assessment of pesticide exposure risks among cocoa farmers in Western region of GhanaOnline publication date: 8 June 2022. Go to citation Crossref Google Scholar8. A Literature Review on the Dual Effect of Corporate Tax Planning and Managerial Power on Executive Compensation Structure*Online publication date: 21 January 2022. Go to citation Crossref Google Scholar9. If You Quit Smoking, This Could Happen to You: Investigating Framing and Modeling Effects in an Anti-Smoking Serious GameOnline publication date: 6 October 2021. Go to citation Crossref Google Scholar10. Persevering in Fertility Treatments Despite Failures: Unrealistic Optimism and the Reality of a Pronatalist CultureOnline publication date: 18 May 2021. Go to citation Crossref Google Scholar11. The Role of Psychological Capital and Work Engagement in Enhancing Construction Workers' Safety BehaviorOnline publication date: 4 March 2022. Go to citation Crossref Google Scholar12. Do Risky Scenarios Affect Forecasts of Savings and Expenses?Online publication date: 21 February 2022. Go to citation Crossref Google Scholar13. A behavioral decomposition of willingness to pay for health insuranceOnline publication date: 22 March 2022. Go to citation Crossref Google Scholar14. Optimistic Bias and Exposure Affect Security Incidents on Home ComputerOnline publication date: 14 February 2020. Go to citation Crossref Google Scholar15. A Bias Detection Tool for Construction Dispute NegotiationOnline publication date: 31 August 2021. Go to citation Crossref Google Scholar16. Are People Optimistically Biased about the Risk of COVID-19 Infection? Lessons from the First Wave of the Pandemic in EuropeOnline publication date: 31 December 2021. Go to citation Crossref Google Scholar17. Behavioral Economics in Military Personnel Research and PolicyOnline publication date: 6 January 2022. Go to citation Crossref Google Scholar18. Optimistic Youth: Young Adults Predicted a Faster Decrease in Risk during COVID-19 Emergency State in PortugalOnline publication date: 20 April 2022. Go to citation Crossref Google Scholar19. Personal experience with Covid-19 is associated with increased environmental concern and pro-environmental behavioral intentionsOnline publication date: Go to citation Crossref Google Scholar20. A model of factors influencing deck officers’ cyber risk perception in offshore operationsOnline publication date: Go to citation Crossref Google Scholar21. Different Strategies for Coping with Occupational Crises from the Perspective of Those AffectedOnline publication date: 19 August 2022. Go to citation Crossref Google Scholar22. “What does it depend on?”: Perceptions of safety related to firearms in homes and neighborhoodsOnline publication date: 29 December 2021. Go to citation Crossref Google Scholar23. Verification of a theory of planned behavior model of medication adherence in Korean adults: focused on moderating effects of optimistic or present biasOnline publication date: 13 July 2021. Go to citation Crossref Google Scholar24. Future Imaginings: Public and Personal Culture, Social Location, and the Shaping of Dreams* †Online publication date: 5 October 2021. Go to citation Crossref Google Scholar25. Internal-Control Willingness and Managerial OverconfidenceOnline publication date: 30 November 2021. Go to citation Crossref Google Scholar26. Unveiling the neural underpinnings of optimi</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://openalex.org/W429680591</t>
+          <t>https://openalex.org/W2283088283</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sorin &amp; Dorina (2013)</t>
+          <t>Kumar (2011)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>THE EFFECTS OF ENTERPRISE ACCOUNTING POLICIES REGARDING DEPRECIATIONS UPON THE RESULTS AND CORPORATE TAXES</t>
+          <t>Food security in India: Critical issues and perspectives — A study of post-reform era</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Depreciation and net results define the self-financing ability of an enterprise and any change in depreciations generates reverse effects upon a corporate tax. That is why the measurement and depreciation system of assets must be correlated with capital maintenance. In the event of depreciation, accounting policies may envisage the choice of one of the depreciation methods, for example straight-line, accelerated or degressive methods of depreciation. Choosing a method of depreciation involves an accounting option. The present article includes a comparative approach of depreciation methods and their implications upon the results and profit taxes, comprising own perspectives and opening new research prospects. The question can be “Which method is the best to use?”. The answer depends on enterprise objectives, on the “aggressiveness” used when it wants to approach fiscal management.</t>
+          <t>Present age is the age of ‘Transition’ for India’. Our economy and society is becoming more and more global with the reduction in the various restrictions after 1991 reforms. These reductions of restrictions have open up new vistas in the development, but at the same time; they have put serious challenges in front of policy makers, especially in terms of Food-security. Food-security is very crucial for every nation, whether developed or developing nation. Sustained availability, affordability of food in any society is function of various interrelated issues and most prominent of them in the case of India is economic reforms and establishment of WTO. Present Paper is an attempt to study the challenges to Indian food security in the context of policy changes after 1991. Paper presents silent trends in Indian agriculture that have potential to alter food balance in India. And at the same time study also suggests some ways to ameliorate the potential food crisis.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3123736894</t>
+          <t>https://openalex.org/W3035530010</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1162/jinh_r_01543</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Weicher (2007)</t>
+          <t>Roediger (2020)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>The Long and Short of Housing: The Home Ownership Boom and the Subprime Foreclosure Bust</t>
+          <t>&lt;i&gt;Structuring Poverty in the Windy City: Autonomy, Virtue, and Isolation in Post-Fire Chicago&lt;/i&gt;. By Joel E. Black (Lawrence, University Press of Kansas, 2019) 259 pp. $55.00 cloth $24.95 paper</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>The increasing risks that subprime lenders have been willing to take have culminated in a debacle of rising foreclosures. So far, however, subprime defaults and foreclosures are lower than they were about five years ago, and the problem is likely to be confined to the subprime market, rather than the conventional mortgage market or the US economy. Extensive public and private efforts are being made to mitigate the problem. In addition, despite popular consensus to the contrary, house prices in general have not fallen over the past year, and few markets are experiencing a substantial decline. Lenders and regulators are both taking action to reform subprime lending, and the foreclosure problem is likely to be limited to the 2004-2006 ledgers of business. Meanwhile, there has been a long-term homeownership boom, extending broadly across American society and including minority groups with high immigration rates. This boom has been facilitated by the revolution in information technology, making it possible for lenders to measure risk more accurately, and by the growth of financial literacy initiatives and counseling. For these reasons, the subprime foreclosure problem is likely to be short-term. Looking at individual markets, many areas in Indiana, Michigan and Ohio are having serious problems, though there are some grounds for hope that they will not experience the worst of the subprime debacle.</t>
+          <t>June 01 2020 Structuring Poverty in the Windy City: Autonomy, Virtue, and Isolation in Post-Fire Chicago Structuring Poverty in the Windy City: Autonomy, Virtue, and Isolation in Post-Fire Chicago. By Joel E.Black (Lawrence, University Press of Kansas, 2019) 259 pp. $55.00 cloth $24.95 paper David Roediger David Roediger University of Kansas Search for other works by this author on: This Site Google Scholar Author and Article Information David Roediger University of Kansas Online Issn: 1530-9169 Print Issn: 0022-1953 © 2020 by the Massachusetts Institute of Technology and The Journal of Interdisciplinary History, Inc.2020by the Massachusetts Institute of Technology and The Journal of Interdisciplinary History, Inc. The Journal of Interdisciplinary History (2020) 51 (1): 164–166. https://doi.org/10.1162/jinh_r_01543 Cite Icon Cite Permissions Share Icon Share Facebook Twitter LinkedIn Email Views Icon Views Article contents Figures &amp; tables Video Audio Supplementary Data Search Site Citation David Roediger; Structuring Poverty in the Windy City: Autonomy, Virtue, and Isolation in Post-Fire Chicago. The Journal of Interdisciplinary History 2020; 51 (1): 164–166. doi: https://doi.org/10.1162/jinh_r_01543 Download citation file: Ris (Zotero) Reference Manager EasyBib Bookends Mendeley Papers EndNote RefWorks BibTex toolbar search Search nav search search input Search input auto suggest search filter All ContentAll JournalsThe Journal of Interdisciplinary History Search Advanced Search In this engaging and ambitiously researched contribution to urban history, public policy, and legal studies, Black carves out his topic with considerable independence of mind, bracketing a period around the calamity in its subtitle and the New Deal reforms and continuities with which Structuring Poverty closes. The 1871 Chicago fire functioned on this view much as disasters do in the writings of Klein, providing a “shock” that also creates opportunities for elites to rebuild environments and social relations from the ground, and to take their own planning roles still more seriously.1 The urgencies of rebuilding Chicago on a vastly greater scale turned especially on providing housing and on attracting labor, without assuming ongoing responsibilities for the fate of the latter... © 2020 by the Massachusetts Institute of Technology and The Journal of Interdisciplinary History, Inc.2020by the Massachusetts Institute of Technology and The Journal of Interdisciplinary History, Inc. You do not currently have access to this content.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1913671378</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5860/choice.40-0527</t>
+          <t>https://openalex.org/W3038634332</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>NA (2002)</t>
+          <t>Dekker et al. (2020)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>The History of the Jews in the Netherlands</t>
+          <t>CO2MORROW: The role of CO2 in the agrifood sector in the transition to a cirular economy in the province of South Holland</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>List of illustrations Editorial note List of abbreviations Introduction IVO SCHA-FFER 1The Middle Ages B. M. J. SPEET First Signs of a Jewish Presence * The Northern Netherlands * Violent Persecution * Gelderland in the Fifteenth Century * Discrimination and Expulsion * The Christian Origins of Antisemitism * Fresh Accusations * In Search of an Explanation 2Between the Middle Ages and the Golden Age, 1516-1621 DANIEL M. SWETSCHINSKI Jews in the Holy Roman Empire * The Iberian Background * Portuguese New Christians in Antwerp * The Attitude of Humanists and Reformers to Jews and Judaism * The Toleration Debate and the Jews * Portuguese New Christians in Holland * Four Christian Views of Jews * The Growth of the Sephardi Colony in Amsterdam * The Future Still Uncertain 3The Republic of the United Netherlands until about 1750: Demography and Economic Activity JONATHAN I. ISRAEL The Early Decades, 1595-1648 * Expansion and Colonization * The Burgeoning of Commerce and of the Credit System, 1648-1713 * Growing Population Figures During the Period of Economic Decline, 1713-1750 4The Jews in the Republic until about 1750: Religious, Cultural, and Social Life YOSEF KAPLAN The Organization of the Community * Three Congregations * The Influx of Paupers * The Power of the Mahamad * New Synagogues * Sephardim and Ashkenazim outside Amsterdam * Religious Life: Tradition and Change * A Good Education * Ashkenazi Life * Jewish Printers in Amsterdam * The Shabbatean Movement in Amsterdam * Influential Rabbis * Culture and Secular Creativity * Literature and the Stage * Everyday Life * Ideological Conflicts * Relations between Jews and Christians * Jewish Stereotypes 5 Enlightenment and Emancipation, c.1750-1814 RENATE G. FUKS-MANSFELD Good Citizens * Demographic Changes and Emigration * Economic Changes * The Administration of the Jewish Communities * Administrative Changes after 1796 * Religious and Cultural Life 6 Arduous Adaptation, 1814-1870 RENATE G. FUKS-MANSFELD The Government and the Jews * Education * The Reorganization of the Jewish Communities after 1848 * The Government and Jews under Threat Abroad * Dutch Jews as Citizens * Economic and Social Changes * The Attitude of Protestants and Catholics towards Jews * Cultural and Religious Trends * Reactions to the New Jewish Fellow-Citizens 7Jewish Netherlanders, Netherlands Jews, and Jews in the Netherlands, 1870-1940 J. C. H. BLOM and JOEL J. CAHEN Demography * Occupations, Economic Role, and Poverty * Religious Life, (Sub)culture, and Pillarization * Assimilation, Integration, and Antisemitism * Solidarity with International Jewry and Zionism * Refugees from Germany * Jews in the Dutch Colonies * Jew and Netherlander 8The War, 1940-1945 PETER ROMIJN The German Invasion * Registration * Segregation * New Regulations * Outlaws * Deportations and the Yellow Star * Forced Removal and Labour Camps * Organization and Selection * Flight, Going into Hiding, and Resistance * The Transit Camps * Deportation and Murder * Conclusion 9After the Second World War: From Religious Community to Cultural Minority F. CHAYA BRASZ The First Few Months * The Jewish Co-ordination Committee * Antisemitism * Religious Congregations * Migration * The Struggle for the Jewish War Orphans * The Purges * Jews in Modern Dutch Society after 1950 * Numbers and Distribution * A Cultural Minority * Religious Developments * The Colonies * Jews and Christians * Zionism * Middle East Policy * The Holocaust * Epilogue Bibliographical essays Bibliography Notes on contributors Index of names General Index</t>
+          <t>The province of South Holland is a key player in the global food economy. However, its agrifood sector is currently generating unwanted outputs. CO2 emissions are the largest and most problematic output flow of this sector, causing negative externalities such as climate change and sea-level rise. Actors producing the CO2 are interlocked into a system and do not have the resources to escape this. This report uses the concept of the circular economy to design out this polluting output flow, while also taking the financial position of the actors into account. The transition to a circular agrifood economy for CO2 has to happen spatially. The available space in the province of South Holland is already under pressure to solve other major challenges, such as land degradation, climate adaptation, decreasing biodiversity and a poor urban landscape relationship. Solving all these challenges separately is inefficient and impossible. This report explores the possible synergies between mitigating those challenges and the transition towards a CO2 circular (i.e. CO2 neutral) agrifood economy, while also taking spatial justice into account. A future is envisioned of an interconnected metropolitan landscape where CO2 is stored in the form of biomass and where knowledge about a biobased economy is gained and exported to the world. A cross-subsidy CO2 exchange policy based on creating synergies with other challenges is proposed as a catalyst policy for this transition. Furthermore, specific spatial interventions in the form of setting up knowledge parks are also contributing to the transition. The agrifood sector will become much more robust and sustainable by trading CO2 together. The production of biomass mitigates other spatial challenges too, and vulnerable farmers get an additional source of income. With the proposed strategies, the province of South Holland is ready for a sustainable and cooperating tomorrow.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387037134</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.rcsop.2023.100337</t>
+          <t>https://openalex.org/W580795317</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Amador-Fernández et al. (2023)</t>
+          <t>Fratianni et al. (2003)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Development of self-care in Spanish community pharmacies</t>
+          <t>Sustaining Global Growth and Development: G7 and IMF Governance</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Spain is a European country with over 47.5 million inhabitants and a public National Health System model (i.e., SNS or "Sistema Nacional de Salud") that provides universal coverage to residents and non-residents. The system is funded primarily by general taxes, and it is managed by the 17 regions that have responsibility for the provision and management of healthcare services in their respective territories. The health system recognizes self-care as an important element where individuals have an important role to play in maintaining their own health and preventing illness. In addition, there are non-governmental organizations that promote self-care and provide resources and support to individuals and health professionals. Over 55 thousand pharmacists work in 22,198 community pharmacies distributed throughout the Spanish territory. Pharmacies are the only setting that provide non-prescription medications, which is one of the most used tools for self-care. In addition, they provide a range of Primary Care services to improve patient outcomes and the efficiency of the SNS. This paper includes a description and a classification of the community pharmacy services following the seven pillars of self-care established by the International Self-Care Foundation:-Related to pillars 1 to 4 and 6, Spanish community pharmacists provide health promotion, health education, health information and nutritional assessment.-In relation to pillar 5, the services offered are HIV and syphilis screening, colorectal and cervix cancer screening, SARS-CoV-2 screening test and communication, diabetes, high blood pressure and hypercholesterolemia screening. Regarding the programs for avoiding/stopping drug use: methadone supply, syringe exchange and smoking cessation. Another important service is immunization. Spanish community pharmacists are not legally allowed to vaccinate; however, they contribute through education, or vaccines supply, among others.-For the pillar 7, community pharmacists provide services such as a minor ailment service, an adherence service or a network to actively monitor medication safety (sentinel pharmacies).-Many of the pharmacy services related to self-care have been defined and classified at a national level; however, not all community pharmacies provide them while only some services are funded by the regional health systems.</t>
+          <t>Contents: Introduction, observations and conclusions, Michele Fratianni, Paolo Savona and John J. Kirton. Part I: Generating Growth Through Productivity, ICT, and Trade: Globalization, international competitiveness, the new economy, and growth in the G7, Dominick Salvatore Productivity growth in Canada and the G7, Allan Crawford The global information society and development: smoke without a fire?, Andreas Freytag The World Trade Organization, multinational enterprise, and civil society, Alan M. Rugman and Alain Verbeke Globalization, growth and health: the private sector perspective, Paolo Savona and Chiara Oldani. Part II: Designing African Development Through NEPAD: The New Partnership for Africa's Development and the G8's Africa Action Plan: a Marshall Plan for Africa?, Nicholas Bayne Designing for development in Africa: the role of international institutions, Ivan Mbirimi Is African development through the New Partnership for Africa's Development synonymous with sustainable development?, Stephane Doumbe-Bille. Part III: Critical Challenges in International Finance: The International Monetary Fund and its critics, Michele Fratianni Evaluating Koizumi's reforms and the implications for the global economy, Takashi Kiuchi The Chinese crux of monetary union in East Asia, George M. von Furstenberg and Jianjun Wei. Part IV: Conclusion: The G7/8 contribution at Kananaskis and beyond, John J. Kirton and Ella Kokotsis. Analytical Appendices: Impressions of the Kananaskis summit, 26-27 June 2002, Nicholas Bayne Summit achievement grades, 1975-2002, John J. Kirton Commitments by summit, 1975-2002, Ella Kokotsis and John J. Kirton Summit performance assessment by issue and country, 2002, G8 Research Group Keeping Genoa's commitments: the 2001 - 02 compliance report, Ella Kokotsis, John J. Kirton and the G8 Research Group. Documentary Appendices: Statement of G7 finance ministers and central bank governors, Ottawa, 8 February 2002 Statement of G7 finance ministers and central bank governors, Washington DC, 20 April 2002 Statement of G7 finance ministers, Halifax, 15 June 2002 G8 Africa Action Plan, Kananaskis, 27 June 2002 Statement by G7 leaders: delivering on the promise of the enhanced HIPC initiative, Kananaskis, 27 June 2002 The Kananaskis summit chair's summary, Kananaskis, 27 June 2002 Statement by G7 finance ministers on the framework for the International Monetary Fund program for Brazil, 8 August 2002 Statement of G7 finance ministers and central bank governors, Washington DC, 27 September 2002 G8 development ministers meeting, Chair's summary, Windsor, 27 September 2002 G20 finance ministers and central bank governors meeting, Delhi Communique, 23 November 2002 Bibliography Index.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1983693880</t>
+          <t>https://openalex.org/W2048656467</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1559/152304095782540537</t>
+          <t>https://doi.org/10.1074/jbc.270.43.25564</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Weiner et al. (1995)</t>
+          <t>Wang et al. (1995)</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Apartheid Representations in a Digital Landscape: GIS, Remote Sensing and Local Knowledge in Kiepersol, South Africa</t>
+          <t>Interaction of Virion Protein Vpr of Human Immunodeficiency Virus Type 1 with Cellular Transcription Factor Sp1 and trans-Activation of Viral Long Terminal Repeat</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>A GIS is currently being developed for the Kiepersol locality in the Eastern Transvaal which integrates conventional environmental and infrastructural data with nonconventional behavioral and cognitive information. Regional political ecology informs the GIS design in which socially differentiated knowledge sources are brought together. The GIS production process is undertaken with concern for the competing discourses associated with post-apartheid social transformation in South Africa and in full appreciation that geographic information systems are social constructions. The multiple realities of resource access and use represented within the Kiepersol GIS are intended to contribute to democratic decision-making for land and agrarian reform.</t>
+          <t>Acquired immunodeficiency syndrome (AIDS) is a result of replication of the human immunodeficiency virus type 1 (HIV-1) predominantly in CD4+ T lymphocytes and macrophages. However, most of these cells in vivo are immunologically quiescent, a condition restricting HIV-1 replication. Vpr is an HIV-1 virion protein suspected to enhance HIV-1 replication in vivo. We demonstrate in this report that Vpr specifically activates HIV-1 long terminal repeat (LTR)-directed transcription. This effect is most pronounced on a minimal promoter from HIV-1 LTR containing the TATA box and binding motifs for the ubiquitous cellular transcription factor Sp1. Evidence is presented that Vpr interacts with Sp1 when Sp1 is bound to the Sp1 motifs within the HIV-1 LTR. Both Vpr-Sp1 interaction and Vpr trans-activation require a central Leu/Ile-rich domain in Vpr. Our findings suggest that Vpr trans-activation through Sp1 is most critical for the immediate early transcription of HIV-1 when other positive regulators, such as NF-κB, are limited or inactive, a condition presumably present in vivo. By interacting with Sp1, Vpr also has the potential to influence cellular gene expression and cellular functions. Thus, therapeutic approaches directed toward blocking the Vpr trans-activation function could prove valuable in treating AIDS. Acquired immunodeficiency syndrome (AIDS) is a result of replication of the human immunodeficiency virus type 1 (HIV-1) predominantly in CD4+ T lymphocytes and macrophages. However, most of these cells in vivo are immunologically quiescent, a condition restricting HIV-1 replication. Vpr is an HIV-1 virion protein suspected to enhance HIV-1 replication in vivo. We demonstrate in this report that Vpr specifically activates HIV-1 long terminal repeat (LTR)-directed transcription. This effect is most pronounced on a minimal promoter from HIV-1 LTR containing the TATA box and binding motifs for the ubiquitous cellular transcription factor Sp1. Evidence is presented that Vpr interacts with Sp1 when Sp1 is bound to the Sp1 motifs within the HIV-1 LTR. Both Vpr-Sp1 interaction and Vpr trans-activation require a central Leu/Ile-rich domain in Vpr. Our findings suggest that Vpr trans-activation through Sp1 is most critical for the immediate early transcription of HIV-1 when other positive regulators, such as NF-κB, are limited or inactive, a condition presumably present in vivo. By interacting with Sp1, Vpr also has the potential to influence cellular gene expression and cellular functions. Thus, therapeutic approaches directed toward blocking the Vpr trans-activation function could prove valuable in treating AIDS. INTRODUCTIONHIV-1 1The abbreviations used are: HIVhuman immunodeficiency virusSIVmacsimian immunodeficiency virus macaqueLR-domainLeu/Ile-rich domainaaamino acidLTRlong terminal repeatCATchloramphenicol acetyltransferaseRSVRous sarcoma virusAdMLadenovirus major late promoter. is the etiological agent of AIDS. The hallmark of AIDS is the slow but progressive depletion of CD4+-T cells, a class of T cells crucial for immune functions. Depletion of CD4+-T cell results in immunodeficiency and AIDS-related disorders, including encephalopathy, dementia, and malignancies(1Levy J.A. Microbiol. Rev. 1993; 57: 189-289Crossref Google Scholar). Despite tremendous efforts in the past, the mechanism of these AIDS-related disorders has remained unclear. However, it is clear that these are a consequence of function of HIV-1 encoded gene products. For example, the HIV-1 envelope glycoprotein was implicated to be involved in toxic effects on neuronal cells(2Giulian D. Wendt E. Vaca K. Noonan C.A. Proc. Natl. Acad. Sci. U. S. A. 1993; 90: 2769-2773Crossref PubMed Scopus (202) Google Scholar). Recently, the HIV-1 Vpr protein in peripheral blood of HIV-1-infected people was shown to activate HIV-1 replication in latently infected cells(3Levy D.N. Refaeli Y. MacGregor R.R. Weiner D.B. Proc. Natl. Acad. Sci. U. S. A. 1994; 91: 10873-10877Crossref PubMed Scopus (221) Google Scholar, 4Levy D.N. Refaeli Y. Weiner D.B. J. Virol. 1995; 69: 1243-1252Crossref PubMed Google Scholar). This effect of Vpr was suggested to contribute to HIV-1 pathogenesis in vivo.The HIV-1 genome encodes structural as well as regulatory gene products(5Greene W.C. Annu. Rev. Immunol. 1990; 8: 453-475Crossref PubMed Scopus (80) Google Scholar, 6Cullen B. Microbiol. Rev. 1992; 56: 375-394Crossref PubMed Google Scholar). Recently, great efforts have been made toward understanding the function of the so-called accessory regulatory genes, namely vif, vpr, vpu and nef. These genes are generally non-essential for HIV-1 to replicate in activated T cells. Yet, animal model studies with two of these genes, vpr and nef, suggested that they are required for in vivo replication and pathogenesis of the simian immunodeficiency virus(7Lang S.M. Weeger M. Stahl-Hennig C. Coulibaly C. Hunsmann G. Muller J. Muller-Hermelink H. Fuchs D. Wachter H. Daniel M.M. Desrosiers R.C. Fl</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2886831713</t>
+          <t>https://openalex.org/W2323864063</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2307/2541814</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Essuman (2018)</t>
+          <t>Houlbrooke &amp; Sacks (1993)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>The Challenge of Fee-Free Secondary Education and Educational Access in Ghana: A Reflection on the Past, Realities and Feasible Choices</t>
+          <t>:&lt;i&gt;The Widening Gate: Bristol and the Atlantic Economy 1450-1700&lt;/i&gt;</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>In 2001, the Government of Ghana introduced subsidies at the Senior High School meant to reduce the burden on parents and guardians of wards in such schools. Since 2012, there has been an intensive debate on fee-free senior high school education in Ghana. While some see this as preposterous and unimaginable, others consider it as a poverty alleviation option and a panacea to providing the required cadre of youths with skills needed for the economic development of Ghana. This paper considers the feasibility of how such a policy may improve access to senior high school education in Ghana and be sustained. The paper examines some policies and practices on funding secondary education in Ghana Findings suggest that a uniform fee-free policy approach will include a sizeable number of students who do not need to be supported by government in the secondary schooling. The study further finds out that demand for secondary education, particularly, regarding low income families may not always be dependent solely on fee free secondary education but on other cost variables, including opportunity costs and perceived economic returns from such education. The study concludes with some feasible choices on the need to adopt painstaking approaches to identify those who are needy and a fundamental objective for such policies to benefit the poor. Keywords : Universalization of secondary education, policies and practices, pro-poor targeting, secondary education financing.</t>
+          <t>From the Preface: Bristol is the city that John Cabot sailed from and Thomas Chatterton dreamed, that Hugh Latimer preached to and Oliver Cromwell seized, that entertained Parliaments in the Middle Ages and rioted for Reform in the nineteenth century. Since the Norman Conquest, it has always had an important place in English history, experiencing events and contributing to developments that stirred the nation. What follows is an account of its connection with one small piece of that history, the rise of the Atlantic economy in the early modern period and the accompanying transformation of English economic ideas and practices. But this book is not about economics alone. It is grounded on the belief that we can no more abstract the economy from politics, culture, and society than we can separate intentional human action from thought and judgment. It also rejects the notion that the life of a city like Bristol could ever be treated as a self-contained whole. Instead it views such cities as social organisms living in close relationship with their surroundings. What gives them their structure is the set of internal codes they carry. And what enables them to survive is their ability to adapt to or transform their environment, which itself is always changing.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2924518378</t>
+          <t>https://openalex.org/W2996458413</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1109/tmc.2019.2910264</t>
+          <t>https://doi.org/10.17185/duepublico/70968</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Yu et al. (2020)</t>
+          <t>Jones &amp; Li (2017)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Pricing for Collaboration between Online Apps and Offline Venues</t>
+          <t>Effects of Collecting Income: Taxes on Social Security BenefitsThe</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>An increasing number of mobile applications (abbrev. apps), like Pokemon Go and Snapchat, reward the users who physically visit some locations tagged as POIs (places-of-interest) by the apps. We study the novel POI-based collaboration between apps and venues (e.g., restaurants). On the one hand, an app charges a venue and tags the venue as a POI. The POI tag motivates users to visit the venue, which potentially increases the venue's sales. On the other hand, the venue can invest in the app-related infrastructure, which enables more users to use the app and further benefits the app's business. The apps' existing POI tariffs cannot fully incentivize the venue's infrastructure investment, and hence cannot lead to the most effective app-venue collaboration. We design an optimal two-part tariff, which charges the venue for becoming a POI, and subsidizes the venue every time a user interacts with the POI. The subsidy design efficiently incentivizes the venue's infrastructure investment, and we prove that our tariff achieves the highest app's revenue among a general class of tariffs. Furthermore, we derive some counter-intuitive guidelines for the POI-based collaboration. For example, a bandwidth-consuming app should collaborate with a low-quality venue (users have low utilities when consuming the venue's products).</t>
+          <t>Since 1983, Social Security benefits have been subject to income taxation, a provision that can significantly increase the marginal income tax rate for older individuals. To assess the impact of this tax, we construct and calibrate a detailed life-cycle model of labor supply, saving, and Social Security claiming. We find that in a long-run stationary environment, replacing the taxation of Social Security benefits with a revenue-equivalent change in the payroll tax would increase labor supply, consumption, and welfare. From an ex-ante perspective an equally desirable reform would be to make the portion of benefits subject to income taxes completely independent of other income.</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2786138852</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.29313/.v0i0.8905</t>
+          <t>https://openalex.org/W2371455541</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Tianlean &amp; Sumiyati (2018)</t>
+          <t>Zhi-qiang (2009)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kedudukan Kantor Pajak sebagai Kreditur Preferen dalam Rapat Kreditur pada Penundaan Kewajiban Pembayaran Utang (PKPU) Sementara PT. Hotel Panghegar dan PT. Panghegar Kana Properti yang Menimbulkan Kepailitan Dikaitkan dengan Undang-Undang Nomor 37 Tahun 2004 tentang Kepailitan dan Penundaan Kewajiban Pembayaran Utang</t>
+          <t>Accounting and Analyzing Eco-economic System Using a Modified Emergy-Based Ecological Footprint Model:A Case Study in Guangdong Province (1978-2006)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Abstract . The company as one economic players, playing an important role in the economy. The company has excess done law and the rest when legal action caused problems like bankruptcy an enterprise because he was unable to pay debt maturing and can billed. The bankruptcy will cause problems new bankrupt to the division of property creditors concerned, as happened in PT. Hotel panghegar and PT. Panghegar kana property declared bankrupt in 2016 and having more than two creditors, and one of the preferen creditor did not participate in the process of PKPU until the fall of decisions bankrupt. Accordingly this problem was calculated as follows: (1) how the tax offices position if not present in the Suspension Of Obligation For Payment Of Debts (PKPU) in the interim, (2) Legal consequences the tax offices did not participate in PKPU while meeting. The method which was used in this research was qualitative analysis. The data was gained through the literature study, the online, according to interviews with the speakers concerned and secondary data in the form of tax arrears 2016 year KPP Madya Bandung and KPP pratama in cibeunying. The result of this research suggests that the office tax unchanged though not attending a meeting of PKPU only temporary can change when a separatist claims the insolvensi use rights and had no law significant over it. Keywords: Bankruptcy, Tax office Positions, Suspension of Debt Payment Obligations, and Legal Effects Abstrak.  Perusahaan sebagai salah satu pelaku ekonomi, memegang peranan penting dalam putaran roda perekonomian. Perusahaan memiliki kelebihan melakukan perbuatan hukum dan kekurangannya apabila perbuatan hukum itu menimbulkan masalah seperti kepailitan suatu perusahaan karena tidak mampu melunasi utang yang jatuh tempo dan dapat ditagih. Terjadinya kepailitan akan menimbulkan persoalan baru yakni pembagian harta pailit kepada kreditur-kreditur yang bersangkutan, seperti yang terjadi pada PT. Hotel Panghegar dan PT. Panghegar Kana Properti yang dinyatakan pailit pada tahun 2016 dan memiliki lebih dari dua kreditur, dan salah satu krediturnya yakni kreditur preferen tidak ikut serta dalam proses PKPU sampai jatuhnya putusan pailit. Maka permasalahan ini dirumuskan sebagai berikut: (1) bagaimana kedudukan kreditur apabila tidak hadir dalam rapat Penundaan Kewajiban Pembayaran Utang (PKPU) Sementara, (2) akibat hukum utang pajak yang tidak ikut serta dalam rapat PKPU Sementara. Peneliti menggunakan metode analisis kualitatif. Data diperoleh melalui studi pustaka, data online, hasil wawancara dengan narasumber yang bersangkutan serta data sekunder berupa data tunggakan pajak tahun 2016 pada KPP Madya Bandung dan KPP Pratama Cibeunying. Hasil penelitian ini menunjukan bahwa kedudukan kantor pajak tidak berubah meskipun tidak mengikuti rapat PKPU Sementara tetapi dapat berubah apabila kreditur separatis menggunakan hak insolvensinya serta tidak ada akibat hukum yang signifikan atasnya. Kata Kunci: Kepailitan, Kedudukan Kantor Pajak, Penundaan Kewajiban Pembayaran Utang, dan Akibat Hukum</t>
+          <t>By using a modified emergy-based ecological footprint model,the authors accounted and analyzed the changing processes of the per capita consumption ecological footprint and local output ecological carrying capacity in Guangdong Province from 1978 to 2006. Growth trend was found in both processes, and the growth rate of the output carrying capacity was higher than consumption ecological footprint. The authors researched the structural characteristics and trends of consumption ecological footprint and local output ecological carrying capacity according to the different accounts of biological resources, energy resources, industry, human resource and trade respectively. The growth of the non-biological resources consumption footprint was the most important part of the growth of total consumption, while the growth of product output carrying capacity also benefited from the second major industrial development. Extensive trade and the continuous improvement of human resources since reform and opening up policy were the major reasons for continuous improvement of carrying capacity in Guangdong Province.</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2515532903</t>
+          <t>https://openalex.org/W3036711731</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5539/ass.v12n9p9</t>
+          <t>https://doi.org/10.1108/jpbafm-11-2019-0172</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Wen (2016)</t>
+          <t>Pilonato (2020)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Off-campus Entrepreneurship Tutorial System in China</t>
+          <t>Accounting can support a “sustainable” corruption network: a case analysis</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>&amp;lt;p&amp;gt;Nowadays, with the reform of undergraduate teaching constantly goes deeper, it is the wave of future to think and explore a newly efficient way to cultivate innovative talents for adapting the higher education development in China. From the perspective of the Oxford Tutorial, the paper indicates the perfection of Off-campus Entrepreneurship Tutorial System and presents the proper strategies from five aspects, in combination of entrepreneurial education of Chinese undergraduates. Furthermore, the strategies can be helpful in training talents and for sustainable higher education development. The paper tries to make the tutorial system play a more important role in training the innovative talents meeting all requirements needed of society.&amp;lt;/p&amp;gt;</t>
+          <t>Purpose The paper aims to explore the links between corruption and accounting in the public procurement setting. In particular, it investigates how accounting can fight or facilitate corruption Design/methodology/approach The study takes a qualitative approach, analyzing one of the worst recent Italian cases of corruption, the “MOSE” trial. Documents produced during the trial are analyzed. Findings The findings contribute to our understanding of how the (mis)use of accounting can help to build a “sustainable” corruption network, and be used to create, maintain and share corruptive cash flows. Participating actors can use accounting tools to coordinate their actions and organize their misconduct. Accounting may also reveal the existence of such networks, however, by enabling the fiscal police to discover tax fraud, and by reconstructing how a corruption network functions from records kept to manage internal cash flows and the provision of other benefits. Practical implications Because corruption is a worldwide phenomenon, a better understanding of how it functions may lead (among other things) to the identification of more effective prevention measures. Particular attention should be paid to events that favor corruption, such as extraordinary occurrences, huge amounts of public resources and new institutional structure without appropriate control and balance tools. Originality/value Given the specific features of episodes of corruption, qualitative studies on this topic are scarce. Little is known about corruption processes, and even less about the part that accounting can play in them. The MOSE case offers some intriguing insight, showing how accounting can be used to build a “sustainable” corruption network by collecting slush funds and facilitating benefit-sharing among individuals.</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1969916207</t>
+          <t>https://openalex.org/W4290615807</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0167-2231(77)90025-2</t>
+          <t>https://doi.org/10.17072/1995-4190-2022-56-187-207</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Dewald (1977)</t>
+          <t>Maslov (2022)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Fine principles and prospects for financial institutions reform</t>
+          <t>THREATS TO NATIONAL TAX SECURITY: LEGAL DIMENSION</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Ма с ло в К. В. 188 THREATS TO NATIONAL TAX SECURITY: LEGAL DIMENSION K. V. Maslov Dostoevsky Omsk State University E-mail: mas_law@mail.ru Rece iv e d 1 Fe b 2 0 2 2 Introduction: the article is devoted to the identification of essential signs of threats to na- tional tax security, significant for lawmaking and law enforcement. The study of the content and types of such threats makes it possible to determine the forms and methods of legal support for the tax security of the state, to minimize the likelihood of harmful properties of the legal norms themselves. Purpose: to identify the essence of threats to national tax security and classify them in the context of their legal regulation. Methods: system analysis of the provisions of the phi- losophy of security, taxation theory; analysis of Russian and foreign doctrinal sources in the field of legal theory and branch legal sciences; theoretical methods of formal and dialectical logic, deduction and induction; the legal-dogmatic method and the method of interpretation of legal norms. Results: threats to national tax security essentially represent a set of events or acts that can prevent the collection of the planned amount of tax revenue calculated so that there could be ensured full funding necessary for the performance of their functions and tasks by the state and municipalities both in the current period and for a long-term development. The paper provides a classification of threats which was developed based on criteria such as the degree of their being targeted against tax collection, the source and territory of occurrence, the subject, the period of action, the participation of a person, the object, the relationship with law. Conclu- sions: threats to national tax security are not limited to the most harmful violations of tax legis- lation but also comprise deeper determinants that make illegal behavior accessible and profita- ble for private and public participants in tax relations. Through defining the nature and identi- fying the types of threats to national tax security, it is possible to adequately minimize their im- pact by appropriate legal regulation</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3023543900</t>
+          <t>https://openalex.org/W2080274460</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1596/1813-9450-6055</t>
+          <t>https://doi.org/10.1086/468136</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Emran &amp; Shilpi (2012)</t>
+          <t>Bebchuk (1988)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gender, Geography and Generations: Intergenerational Educational Mobility in Post-Reform India</t>
+          <t>Suing Solely to Extract a Settlement Offer</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>India experienced sustained economic growth for more than two decades following the economic liberalization in 1991. While economic growth reduced poverty significantly, it was associated with an increase in inequality. Does this increase in inequality reflect deep-seated inequality of opportunity or efficient incentive structure in a market oriented economy? This paper provides evidence on economic mobility in post-reform India by focusing on the educational attainment of children. It uses two related measures of immobility: sibling and intergenerational correlations. The paper analyzes the trends in and patterns of educational mobility from 1992/93 to 2006, with a special emphasis on the roles played by gender and geography. The evidence shows that family background plays a strong role; the estimated sibling correlation in India in 2006 is higher than the available estimates for Latin American countries. There is a persistent gender gap in rural and less-developed areas. The only group that experienced substantial improvements is women in urban and developed areas, with the lower caste women benefiting the most. Almost 70 percent of the variance in children's education can be accounted for by parental education and geographic location. The authors provide possible explanations for the apparently puzzling improvements for urban women in a country with strong son preference.</t>
+          <t>Previous articleNext article No AccessSuing Solely to Extract a Settlement OfferLucian Arye BebchukLucian Arye Bebchuk Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The Journal of Legal Studies Volume 17, Number 2Jun., 1988 Sponsored by The University of Chicago Law School Article DOIhttps://doi.org/10.1086/468136 Views: 12Total views on this site Citations: 99Citations are reported from Crossref Copyright 1988 The University of ChicagoPDF download Crossref reports the following articles citing this article:Wenming Xu SPC’s 2003 Provisions and the Collective Action Problem of Securities Litigation, (Mar 2022): 101–119.https://doi.org/10.1007/978-981-19-0904-7_6Yannick Gabuthy, Emmanuel Peterle, Jean-Christian Tisserand Legal Fees, Cost-Shifting Rules and Litigation: Experimental Evidence, Journal of Behavioral and Experimental Economics 9 (Apr 2021): 101705.https://doi.org/10.1016/j.socec.2021.101705Giuseppe Dari-Mattiacci, Margherita Saraceno Fee shifting and accuracy in adjudication, International Review of Law and Economics 63 (Sep 2020): 105890.https://doi.org/10.1016/j.irle.2020.105890Andrew F Daughety, Jennifer F Reinganum Reducing Unjust Convictions: Plea Bargaining, Trial, and Evidence Disclosure, The Journal of Law, Economics, and Organization 36, no.22 (Mar 2020): 378–414.https://doi.org/10.1093/jleo/ewaa001Myriam Doriat-Duban, Yannick Gabuthy, Eve-Angéline Lambert Actions en justice et rémunération des avocats : une revue de la littérature, Revue économique Vol. 71, no.33 (Jun 2020): 557–590.https://doi.org/10.3917/reco.713.0557Leshui He A theory of pre-filing settlement and patent assertion entities, International Journal of Industrial Organization 70 (May 2020): 102618.https://doi.org/10.1016/j.ijindorg.2020.102618Samuel Antill, Steven R. Grenadier Financing the Litigation Arms Race, SSRN Electronic Journal 15 (Jan 2020).https://doi.org/10.2139/ssrn.3719238Ünsal Sığrı, Hakan Karabacak Conflict resolution role of mediation in labor disputes in Turkey, International Journal of Conflict Management 30, no.33 (Jun 2019): 395–415.https://doi.org/10.1108/IJCMA-01-2019-0013Yannick Gabuthy, Eve-Angéline Lambert Frivolous Suits, (Apr 2019): 904–907.https://doi.org/10.1007/978-1-4614-7753-2_732Albert H. Choi, Kathryn E. Spier Taking a Financial Position in Your Opponent in Litigation, American Economic Review 108, no.1212 (Dec 2018): 3626–3650.https://doi.org/10.1257/aer.20161863Amol M. Joshi, Iman Hemmatian How do legal surprises drive organizational attention and case resolution? An analysis of false patent marking lawsuits, Research Policy 47, no.99 (Nov 2018): 1741–1761.https://doi.org/10.1016/j.respol.2018.06.007Margherita Saraceno Justice: Greater Access, Lower Costs, Italian Economic Journal 4, no.22 (Jul 2017): 283–312.https://doi.org/10.1007/s40797-017-0059-xClaudia M. Landeo, Maxim Nikitin Financially-constrained lawyers: An economic theory of legal disputes, Games and Economic Behavior 109 (May 2018): 625–647.https://doi.org/10.1016/j.geb.2018.03.002Kathryn E. Spier Litigation, Economics of, (Feb 2018): 7939–7950.https://doi.org/10.1057/978-1-349-95189-5_2492Leshui He A Theory of Pre-Litigation Settlement and Patent Assertion Entities, SSRN Electronic Journal (Jan 2018).https://doi.org/10.2139/ssrn.3110379Yongqiang Chu Shareholder litigation, shareholder–creditor conflict, and the cost of bank loans, Journal of Corporate Finance 45 (Aug 2017): 318–332.https://doi.org/10.1016/j.jcorpfin.2017.05.005Amy Farmer, Paul Pecorino Litigation with judgment proof defendants, International Review of Law and Economics 49 (Mar 2017): 1–9.https://doi.org/10.1016/j.irle.2016.10.001Yannick Gabuthy, Eve-Angéline Lambert Frivolous Suits, (Aug 2017): 1–4.https://doi.org/10.1007/978-1-4614-7883-6_732-1Tim Friehe, Thomas J. Miceli A Note on Trial Delay and Social Welfare: The Impact of Multiple Equilibria, Review of Law &amp; Economics 13, no.11 (Jan 2017).https://doi.org/10.1515/rle-2015-0044William H. J. Hubbard Costly Signaling, Pleading, and Settlement, SSRN Electronic Journal (Jan 2017).https://doi.org/10.2139/ssrn.2947302Giuseppe DariiMattiacci, Margherita Saraceno Fee Shifting and Accuracy in Adjudication, SSRN Electronic Journal (Jan 2017).https://doi.org/10.2139/ssrn.2982293Brishti Guha Malicious litigation, International Review of Law and Economics 47 (Aug 2016): 24–32.https://doi.org/10.1016/j.irle.2016.04.001Nahum Biger, Noam Sher New Financial Tools for Small Businesses: A Commitment Mechanism to Secure Funding, SSRN Electronic Journal (Jan 2016).https://doi.org/10.2139/ssrn.2804614Osnat Jacobi, Noam Sher A Commitment Mechanism to Eliminate Willful Contract Litigation, Review of Law &amp; Economics 11, no.22 (May 2015): 231–266.https://doi.org/10.1515/rle-2015-0019D. Bernhardt, F. Z. X. Lee Trial Incentives in Sequential Litigation, American Law and Ec</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3123564198</t>
+          <t>https://openalex.org/W3116328979</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.25156/ptjhss.v1n2y2020.pp50-65</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Levinson (2002)</t>
+          <t>Saeed &amp; Khedher (2020)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Environmental Regulatory Competition: A Status Report and Some New Evident</t>
+          <t>Role of Reducing Profit Management Practices on Tax Evasion in the Kurdistan Region of Iraq</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Concerns about devolving environmental regulatory powers to lower levels of government permeate debates in the U.S. and Europe about the appropriate level of regulatory authority. In theory, given a long list of conditions, regulatory competition by local governments can be efficient in the same way that tax competition can be efficient: local welfare-maximizing governments set the same standards or taxes as would an omniscient welfare-maximizing central government. In practice, however, these conditions are improbable, especially in the case of environmental regulations, and local competition is potentially inefficient. In the past two years, evidence has begun to emerge regarding the empirical importance of these inefficiencies. In this paper, I describe this nascent literature, drawing parallels to the tax competition literature, suggest some avenues for empirical research, and present some new results.</t>
+          <t>The primary objective of accounting, as an information system, is the measurement and delivery of data and information to the decision makers of users. Among the users, there are the financial authority of the appraisers and the tax examination procedures. However, the pursuit of some companies management to adopt procedures that would get illegal gains in so-called earnings management procedures. These procedures would work to create a gap in confidence in the services provided by the accounting profession. This situation causes suspicious cases on financial statements prepared by these services in the regard of official government bodies for tax function. The researcher reached, through the theoretical and practical aspects, certain conclusions. The most important of which is the earning management practiced today by companies in Iraqi Kurdistan Region to reduce the real profit in order to avoid the tax imposed on them. The alternatives in the accounting treatments and flexibility in the accounting standards is not the way paved to earningsmanagement practices if the accountant does not respect the rules and ethics of the their profession, choosing the inappropriate alternative to the nature of the company’s activity. Another conclusion is the existence of collusion between the external auditors and the taxpayer’s company. Accordingly, the study recommended that the concerned bodies should ensure that earnings management is not practiced by companies. The need of awareness is raised about earning management and negative effects on companies. The need to maintain a single accounting process is relevant and not change it without the approval of the competent authorities. it is necessary to emphasis on company governance and not to allow the collusion between the auditors and the taxpayer’s companies, activating the role of the association of accountants and auditors, in order to advancement of the profession as well as to defend the accountants members in case of facing pressures from the owners to manipulate and cheating.</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2071305137</t>
+          <t>https://openalex.org/W3182977655</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1353/elh.0.0063</t>
+          <t>https://doi.org/10.22146/lembaran-sejarah.60993</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Henderson (2009)</t>
+          <t>Luthfi (2021)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>The "Gold Bar of Heaven": Framing Objectivity in D. G. Rossetti's Poetry and Painting</t>
+          <t>Decolonizing Agrarian Knowledge and the Emergence of Indonesian Critical Agrarian Studies</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>The "Gold Bar of Heaven":Framing Objectivity in D. G. Rossetti's Poetry and Painting Andrea Henderson In Lewis Carroll's novel Sylvie and Bruno, a "spectacled woman," whose conversation consists entirely of the philosophical cant of the day, pronounces to a group of alarmed party guests: "the Objective is only attainable through the Subjective!"1 If, as Lorraine Daston argues, Samuel Taylor Coleridge's importation of Immanuel Kant to nineteenth-century England "crystallized an opposition of subjective and objective," for Coleridge himself and other romantics the preeminence of the subjective in this scheme "had yet to become a matter for regret or reproach."2 By the mid-nineteenth century, however, objectivity had come to seem both newly desirable and disturbingly elusive, so that by the time of Carroll's 1880 novel the difficulty of achieving objectivity had become a cliché. Even in the natural sciences, where objectivity had come to be a core value, having replaced the traditional standard of "truth to nature," it was defined only negatively, as the absence of subjective distortion, and regarded as an unreachable, if laudable, goal.3 This oppositional epistemological framework had, of course, profound implications for those Victorian artists who, heirs of the romantics, regarded art as a vehicle for the exploration and manifestation of subjective experience. The contemporary reverence for the universality associated with objectivity squared uneasily with a conception of artistic production and consumption as idiosyncratic, and made the determination of the proper function and value of art, as witnessed in Ruskin's "A Joy Forever," an abiding critical preoccupation. Given that even contemporary economic theory—which aimed to provide a systematic account of social value—concerned itself with subjective desires and their effects on the market rather than the inherent qualities of commodities, it is perhaps unsurprising that the value of art should have seemed particularly liable to fluctuation.4 As William Morris lamented, "in spite of all the success I have had, I have not failed to be conscious that the art I have been helping to produce would fall with the death of a few of us who really care about it, that a reform in art which is [End Page 911] founded on individualism must perish with the individuals who have set it going."5 In his preface to The Renaissance Walter Pater tries to do an end-run around the polarization of objective and subjective by means of a rhetorical sleight-of-hand: "To see the object as in itself it really is," has been justly said to be the aim of all true criticism whatever; and in aesthetic criticism the first step towards seeing one's object as it really is, is to know one's own impression as it really is. . . . The objects with which aesthetic criticism deals . . . are indeed receptacles of so many powers or forces. . . . What is this song or picture, this engaging personality presented in life or in a book, to me? . . . Does it give me pleasure?6 Whether deliberately or unwittingly, Pater entirely misconstrues the Arnoldian tenet with which he opens, slipping from the object into the depths of the subject. On the one hand Pater speaks of the beautiful object as a receptacle of "powers or forces," and on the other of strictly subjective responses to it. This vacillation appears to arise from the fact that the emphasis on the subjective nature of aesthetic pleasure threatens to undermine the aesthete's faith in the inherent value of the aesthetic object. In an aesthetics where the subject is so much more important than the object, the latter, in almost compensatory fashion, is described as bulging with "powers" and "forces." Few Victorian artists have seemed to critics more resolutely individualist and idiosyncratic than D. G. Rossetti, whom one critic describes simply as a "subjective poet."7 Jerome McGann argues that this subjectivity is in fact so thoroughgoing that, like Blakean vision, it ultimately gives rise to poetic worlds that could be said to have their own "objective truth."8 I will argue, however, that the iconic character of Rossetti's art is a symptom not of achieved objectivity but of the difficulty of reconciling an investment in subjective experience with...</t>
+          <t>Agricultural production growth has been the main priority in agrarian development in Indonesia but its ends and means have been varied. In the colonial era, an export- oriented colonial plantation system resulted in the transformation of the Indonesian land tenurial system. In the post-colonial period, Soekarno’s regime pursued agrarian development seeking to strengthening people’s land rights through its land reform policies. Land rights were seen as the basis for agricultural production. Soeharto’s New Order regime implemented its Green Revolution policy by developing agricultural mechanization and extensification which managed to improve agricultural production, but it gave greater privileges to the rural elite class and caused dependence on foreign inputs and aid. All agrarian policies were supported by knowledge produced through the research of influential institutions and individuals, including critical responses against the impacts of the transformation of land tenure. In this context, knowledge in agrarian studies with its critical perspectives were re-shaped as part of the process of knowledge decolonization.</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2604965174</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/rirt.12918</t>
+          <t>https://openalex.org/W2364662977</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Whyte (2017)</t>
+          <t>Xu (2004)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>&lt;b&gt;Timothy Richard's Vision: Education and Reform in China, 1880–1910&lt;/b&gt;, Eunice V. Johnson, Lutterworth, 2015 (ISBN 978‐0‐7188‐9383‐5), xiv + 194 pp., pb £15</t>
+          <t>ON BUILDING FISHING HARBOR ECONOMIC ZONE</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Reviews in Religion &amp; TheologyVolume 24, Issue 2 p. 307-309 Review Timothy Richard's Vision: Education and Reform in China, 1880–1910, Eunice V. Johnson, Lutterworth, 2015 (ISBN 978-0-7188-9383-5), xiv + 194 pp., pb £15 Bob Whyte, Bob Whyte Belper, Derbyshire, UKSearch for more papers by this author Bob Whyte, Bob Whyte Belper, Derbyshire, UKSearch for more papers by this author First published: 02 April 2017 https://doi.org/10.1111/rirt.12918Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Volume24, Issue2April 2017Pages 307-309 RelatedInformation</t>
+          <t>The fishing port economy area is a kind of economic and social function areas,re gard-ing fishing port as centrally.It provides the great platform for development of fishermen who change themselves jobs to living opportunity,for industrialization of fishery,for optimization of ocean industrial structure,and for formation of marine economic assemboly zone.In the construction of the fishing port economy areas,some measures should be implemented as follows:making coordinate program,guiding according the different categories,leading to realizes the plan by policies,supporting in funds;pushed by the science and technology,at the same time ,increase the area's culture tasty.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2392485871</t>
+          <t>https://openalex.org/W3013451119</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/aet2.10450</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Yong-ming (2006)</t>
+          <t>Khamees et al. (2020)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Bridge Seismic Damage Analysis and Seismic Design</t>
+          <t>In Crisis: Medical Students in the COVID‐19 Pandemic</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>It can reduce the bridge seismic damage effectively and provide references for similar research that reforms the bridge by the methods of strengthening bridge construction,control technologies and seismic reinforcement of bridge when making seismic design for bridge.</t>
+          <t>AEM Education and TrainingVolume 4, Issue 3 p. 284-290 Commentary – Unsolicited In Crisis: Medical Students in the COVID-19 Pandemic Deena Khamees MD, Corresponding Author Deena Khamees MD [email protected] orcid.org/0000-0002-2262-9964 Department of Emergency Medicine, University of Michigan, Ann Arbor, MI Address for correspondence and reprints: Deena Khamees, MD; e-mail: [email protected].Search for more papers by this authorCharles A. Brown MD, Charles A. Brown MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorMiguel Arribas MD, Miguel Arribas MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorAnnie C. Murphey BA, Annie C. Murphey BA Michigan Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorMary R. C. Haas MD, Mary R. C. Haas MD orcid.org/0000-0002-9506-5928 Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorJoseph B. House MD, Joseph B. House MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this author Deena Khamees MD, Corresponding Author Deena Khamees MD [email protected] orcid.org/0000-0002-2262-9964 Department of Emergency Medicine, University of Michigan, Ann Arbor, MI Address for correspondence and reprints: Deena Khamees, MD; e-mail: [email protected].Search for more papers by this authorCharles A. Brown MD, Charles A. Brown MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorMiguel Arribas MD, Miguel Arribas MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorAnnie C. Murphey BA, Annie C. Murphey BA Michigan Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorMary R. C. Haas MD, Mary R. C. Haas MD orcid.org/0000-0002-9506-5928 Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this authorJoseph B. House MD, Joseph B. House MD Department of Emergency Medicine, University of Michigan, Ann Arbor, MISearch for more papers by this author First published: 28 March 2020 https://doi.org/10.1002/aet2.10450Citations: 28 The authors have no relevant financial information or potential conflicts to disclose. Author contributions: paper concept and design—MRCH, DK, and JBH; acquisition of data—DK, CAB, MA, ACM, and JBH; drafting of the manuscript—DK, CAB, MA, and ACM; and critical revision of the manuscript—DK, CAB, MA, ACM, MRCH, JBH. DK, CAB, MA, ACM, MRCH, and JBH report no conflict of interest. Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onEmailFacebookTwitterLinkedInRedditWechat References 1 Guidance on Medical Students' Clinical Participation: Effective Immediately. Washington, DC: Association of American Medical Colleges, 2020. Available at: https://www.aamc.org/system/files/2020-03/Guidance%20on%20Student%20Clinical%20Participation%203.17.20%20Final.pdf. Accessed Mar 17, 2020. Google Scholar 2Trilla A, Trilla G, Daer C. The 1918 “Spanish flu” in Spain. Clin Infect Dis 2008; 47: 668–73. 10.1086/590567 PubMedWeb of Science®Google Scholar 3Ott M, Shaw SF, Danila RN, Lynfield R. Lessons learned from the 1918–1919 influenza pandemic in Minneapolis and St. Paul, Minnesota. Public Health Rep 2007; 122: 803–10. 10.1177/003335490712200612 PubMedWeb of Science®Google Scholar 4Starr I. Influenza in 1918: recollections of the epidemic in Philadelphia. Ann Intern Med 2006; 145: 138–40. 10.7326/0003-4819-145-2-200607180-00132 PubMedWeb of Science®Google Scholar 5Patil NG, Yan YCH. SARS and its effect on medical education in Hong Kong. Med Educ 2003; 37: 1127–7. 10.1046/j.1365-2923.2003.01723.x CASPubMedWeb of Science®Google Scholar 6Clark J. Fear of SARS thwarts medical education in Toronto. BMJ 2003; 326: 784. 10.1136/bmj.326.7393.784/c PubMedGoogle Scholar 7Legraien L. Government Is Considering Using Medical Students to Help in Coronavirus Outbreak. London, UK: Pulse Today, 2020. Available at: http://www.pulsetoday.co.uk/clinical/clinical-specialties/infectious-diseases/government-is-considering-using-medical-students-to-help-in-coronavirus-outbreak/20040272.article. Accessed Mar 17, 2020. Google Scholar 8Amante A, Balmer C. Italy Rushes New Doctors Into Service as Coronavirus Deaths Rise Above 2,500. Rome: Reuters: 2020. Available at: https://www.reuters.com/article/us-health-coronavirus-italy/italy-rushes-to-promote-new</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4220715467</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.mcat.2022.112242</t>
+          <t>https://openalex.org/W3125398267</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ghodke et al. (2022)</t>
+          <t>Dutta &amp; Bezbaruah (2006)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Effect of B site substitution in Gd2B2-xNiyO7-δ (B= Ti, Zr) ternary metal oxide catalysts in dry reforming of methane</t>
+          <t>Institutional Factors behind Effectiveness of Irrigation: A Study in the Brahmaputra Valley in Eastern India</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Structured catalysts are emerging as active and durable catalysts in dry reforming of methane due to their inherent characteristics like lattice insertion of active metals and consequent stability imparted. Here we report Ti and Zr substituted Gd2B2-xNiyO7-δ (B = Ti, Zr) catalysts synthesized by citrate gel method, which are characterized and tested for dry reforming of methane. Structure and Ni substitution has been confirmed by Rietveld refinement of powder XRD patterns and Raman analysis. TPR and CO2-TPD were performed to analyze the reducibility and effect of basic sites of catalysts in DRM activity. Ni doped Ti analogue shows stable and superior activity towards dry reforming of methane for 100 h. The in situ IR studies and XPS analysis confirmed the presence of surface hydroxyl species in this catalyst, which triggers the activation of CO2 and provides higher and durable activity in dry reforming reaction. Absence of any C formation in this catalyst after durability test indicates the mechanism of C gasification by the surface hydroxyl species enhancing stable activity for long durations.</t>
+          <t>As the adverse consequences of the policies of input subsidy and increasing food-grain procurement prices became prominent in Indian agriculture, researchers and policy makers documented the need for policy changes. For sustaining production of rice, there are now calls for shift of emphasis from large farmers in Green Revolution areas in Northwest India to small and marginal farmers in Eastern and rain-fed areas, where returns to both labor and capital are high and potentials for exploiting the existing technology are yet largely untapped. A major constraint on exploiting such potentials in parts of Eastern India such as the Brahmaputra Valley is paucity of irrigation. While investment for expanding irrigation capacity is needed, it is equally important to put necessary institutions in place to ensure that the installed capacity is effectively utilized. This study based on survey of 172 farms from three agro-climatic zones of the Brahmaputra Valley has found that farmers' control over management and operation of irrigation system is crucial in determining their success in effectively using irrigation in terms of level and intensity of productivity increasing practices associated with irrigation. The study hence suggests that to improve effectiveness, and thereby reap higher social returns on public investment on irrigation, involvement of farmers in operation and management of public sector irrigation systems should be secured. In view of the effectiveness of small-scale private tube-wells and the abundance of ground water reserves in the Brahmaputra valley, facilitation of private investments in such sys tems is recommended for expanding total irrigation capacity.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2029475763</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1089/acm.2009.0012</t>
+          <t>https://openalex.org/W2270000741</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Redwood (2009)</t>
+          <t>Jones (2013)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>The Health Reform Moment: Peril and Possibility in the Obama Era</t>
+          <t>Employment Incentive Bill - the way forward? : : from the editor</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>The Journal of Alternative and Complementary MedicineVol. 15, No. 1 EDITORIALFree AccessThe Health Reform Moment: Peril and Possibility in the Obama EraDaniel RedwoodDaniel RedwoodSearch for more papers by this authorPublished Online:27 Jan 2009https://doi.org/10.1089/acm.2009.0012AboutSectionsPDF/EPUB ToolsPermissionsDownload CitationsTrack CitationsAdd to favorites Back To Publication ShareShare onFacebookTwitterLinked InRedditEmail FiguresReferencesRelatedDetailsCited byHealth Reform, Prevention and Health Promotion: Milestone Moment on a Long Journey18 May 2010 | The Journal of Alternative and Complementary Medicine, Vol. 16, No. 5Increasing Therapeutic Gain and Controlling Radiation-Induced Injuries with Asian Botanicals and Acupuncture18 December 2009The Ongoing Debate: Do Acupuncture Points Have Lower Skin Resistance Than Nonacupuncture Sites?22 October 2009 | The Journal of Alternative and Complementary Medicine, Vol. 15, No. 10A Public Health Immunization Resource Web Site for Chiropractors: Discussion of Current Issues and Future Challenges for Evidence-Based Initiatives for the Chiropractic ProfessionJournal of Manipulative and Physiological Therapeutics, Vol. 32, No. 6U.S. Health Care: Perils and Potentials18 May 2009 | The Journal of Alternative and Complementary Medicine, Vol. 15, No. 5 Volume 15Issue 1Jan 2009 Information© 2009 Mary Ann Liebert, Inc.To cite this article:Daniel Redwood.The Health Reform Moment: Peril and Possibility in the Obama Era.The Journal of Alternative and Complementary Medicine.Jan 2009.1-3.http://doi.org/10.1089/acm.2009.0012Published in Volume: 15 Issue 1: January 27, 2009Online Ahead of Print:January 18, 2009PDF download</t>
+          <t>The end of the year is upon us, and with tax filing season coming to an end on the 22nd November for non-provisional efilers, tax professionals will have their hands full trying to complete their clients' tax returns in time. With the added burden of the no compromise approach taken by SARS in recent times, tax professionals will have to be more vigilant than ever before. This is another reason why tax professionals need to keep up to date with the changing tax landscape. In order to do this, registered tax practitioners are urged to meet their CPD requirements as set out by their recognised controlling bodies.</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2040511810</t>
+          <t>https://openalex.org/W842019721</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3917/edd.hs02.0131</t>
+          <t>https://doi.org/10.1163/ej.9789004181120.i-364.72</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Herkenrath (2014)</t>
+          <t>Scholten (2010)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Tax Havens and Capital Flight from Developing Countries: The Social and Political Implications</t>
+          <t>Chapter Ten. Transition Management And Institutional Reform: The Case Of A Transition To Hydrogen As A Motor Fuel In The Netherlands</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>There is an emerging consensus among scholars and practitioners of development policy that capital flight in the form of illicit financial flows (IFF) has “devastating effects on developing countries” (OECD 2013: 1). As the Organisation for Economic Co-operation and Development (OECD) puts it, IFF “strip resources from developing countries that could be used to finance much-needed public services, from security and justice to basic social services such as health and education, weakening their financial systems and economic potential” (ibid.: 15; see also AfDB/OECD-DC 2010: Part II).</t>
+          <t>This chapter provides an in-depth look at Dutch transition policy to the present day with an eye to institutional reform. To do so, it will take a closer look at the transition to the use of hydrogen as an 'alternative motor fuel', one of the possibilities identified by the Dutch government as part of creating a more sustainable energy system. The first part of the chapter starts by elaborating transition theory in order to understand the complexity of sociotechnical change. The second part introduces a Dutch hydrogen transition pathway to illustrate the conceptual framework. The third part brings both former sections together in an attempt to analyze the role transition management has played until now in governing a transition to hydrogen. Keywords: Dutch hydrogen transition pathway; sustainable energy system; transition theory</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2978038441</t>
+          <t>https://openalex.org/W1989606421</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>https://doi.org/10.15396/afres2012_119</t>
+          <t>https://doi.org/10.1353/jod.2011.0025</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Gavor &amp; Williamson (2012)</t>
+          <t>Knaus &amp; Lee (2011)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Realizing the Benefits of an Innovative Approach to Land Governance: The Cape Town, South Africa Story</t>
+          <t>Opening North Korea</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>"The Cape Town, South Africa Story” captures the successful story of Cape Town’s innovative approach to improved land governance and management through continuous investments. During the past decade, Cape Town has embraced a new set of valuation statutes, updated its technology and processes, and continued to make improvements on an annual basis. From its general valuations in 2000, 2006, and 2009 to recent systems upgrades, Cape Town has realized quantifiable returns on its investments and added value to improve efficiency and provide better outcomes for its citizens. The price of administering a very complex tax has continued to go down in cost while at the same time dramatic improvements have been achieved in overall levels of equity and increased customer satisfaction. Cape Town’s approach and the tools implemented are scalable and applicable to rapidly emerging economies around the world as they seek to establish and administer efficient and equitable property taxation systems that return taxes to communities through public investments like schools, hospitals, roads, water and electrical utilities. The establishment, assessment as well as collection of property tax is complex and vital to the financial health of local government. Professional Valuers are responsible for managing the valuation of property and the administration of property tax using their technical expertise. The primary task of these Valuers is to identify and value all property in their jurisdiction. The timely, accurate and efficient administration of property tax is critical to the financial health and cash flow of the city. As in many municipalities, Cape Town’s property tax is one of the largest revenue sources, accounting for 21% of the R23+ billion budget in FY2010-2011. To ensure accurate assessment and collection of property tax, the city conducted its first general valuation for 2000. The total cost of the full market value system was in excess of R100m, implemented over several years, and met with many challenges and detractors. The city transformed criticisms into opportunities to address public concerns. In addition to proactively seeking feedback from ratepayers, the city sought the assistance of an external, professional organization to perform an operational and procedural audit of the valuation practices. It used the audit results to establish a continuous improvement of its processes. For Cape Town’s second general valuation, which was implemented in 2007, the city was able to build upon the 2000 general valuation results and lessons learned to make improvements in its business processes and saw increases in ratepayer satisfaction. In addition, the city started to add spatial data source components to drive business practices. Cape Town made numerous valuation improvements in a very aggressive and active real estate market. Between 2000 and 2006 the city’s real estate market and supplementary valuations saw double and triple-digit increases in overall property values in line with national trends, putting more pressure on the valuation and taxation offices. For the 2009 general valuation, the city expanded its use of spatial data and also began to utilize oblique aerial imagery to review data from the office for many functions that were previously handled through field visits. The addition of a systems upgrade in 2009 and 2010 allowed the city to utilize technology to further drive down costs and significantly increase the quality of results. Cape Town also started to focus on departmental work processes. The city underwent a complete business process review. The evaluation of as-is and to-be business processes provided a clear direction for the efforts. New business processes and practices were outlined and then implemented using workflow tools which allowed for monitoring of the new efficiencies. The results are now tied to the city’s geographical information system, which is used to drive spatial analytics of the Cape Town property market. Cape Town has continued to update and implement technology to drive its ever-increasing return on investment. What Cape Town has accomplished is nothing less than inspiring considering its starting point a little over a decade ago. The process of implementing a complex tax and then striving for continuous process improvement shows that we are driven to doing our job in the best way possible. By continuing to focus not just on the requirements of the Municipal Property Rates Act, 2004 but also seeking more efficient ways of doing business will ensure that Cape Town becomes a trendsetter for the region in the next decade. The authors will show how Cape Town’s capacity building and knowledge transfer through investments in technology and business processes can lead to greater efficiencies and higher customer satisfaction in rapidly emerging economies around the world.</t>
+          <t>Opening North Korea John Knaus (bio) and Lynn Lee (bio) Witness to Transformation: Refugee Insights into North Korea. By Marcus Noland and Stephan Haggard. Peterson Institute for International Economics, 2011. 256 pp. One of the most compelling images of North Korea is a satellite photograph showing the Korean Peninsula at night. Modern, democratic, capitalist South Korea is lit up like a Christmas tree with almost the entire country aglow. But above the demilitarized zone, save for a dim glimmer emanating from Pyongyang, isolated, communist North Korea sits in darkness. Many have used this image to contrast the vibrancy of South Korea with the rusting decay of North Korea. Although the image is a vivid snapshot of the disparity of development between the two countries, until now very few been able to see into the darkness, leaving the world to guess what life must be like in the so-called Hermit Kingdom. Defector testimonies and biographies and a handful of books have begun to paint a picture of daily life in North Korea, but these so far have offered only anecdotal evidence of a harsh and sometimes brutal existence for the people of the country. Only now, with Stephan Haggard and Marcus Noland's work, can readers find a methodical analysis of some of the remarkable changes that are occurring in the world's most repressive country. The data in Witness to Transformation are based on two surveys—the first, of 1,346 North Korean refugees living in China conducted between August 2004 and September 2005, and the second, of 300 refugees living in South Korea conducted in November 2008. Even after one takes [End Page 170] into account the special nature of a refugee population (as the authors do), the surveys offer unprecedented insight into a society which, though still under the iron bootheel of a brutal regime, is undergoing substantial changes. If Haggard and Noland subsequently update this important work, it would greatly benefit from a third survey focusing primarily on those refugees who have left the country after 2008. As the authors explain, only 15 percent of those who took part in the second survey left between 2006 and 2008, meaning that even they escaped before the disastrous currency revaluation of late 2009 and the events surrounding the announcement of Kim Jung Eun as Kim Jung Il's successor in 2010. In addition, unlike in other refugee situations where the refugees can provide almost instantaneous information on the situations inside their respective countries, the participants in both these surveys, as the authors note, had already spent considerable time outside North Korea before they were interviewed. Haggard and Noland do an especially effective job of establishing links among the communist regime's failed economic policies, the growth of independent markets (or jangmadang) as a coping mechanism, the rise of corruption and the increased use of the penal system by government officials, and the subsequent political discontent that all these trends have fueled. The authors further demonstrate how an increase in independent market activity within North Korea has led to on-again, off-again attempts by the Kim regime—worried about its grip on the country—first to encourage markets and then to crack down on them with, for instance, new laws that criminalize certain market-related activities. What Haggard and Noland call "marketization from below" is a fairly recent phenomenon. The public distribution system, which until the early 1990s had been North Koreans' main channel for obtaining food, collapsed due to the regime's failed economic policies and the loss of much outside assistance when the USSR fell. The government's inability to provide for its people, coupled with the corrupt and predatory behavior of regime officials, has led to signs of growing discontent among average North Koreans that were unheard of even a few years ago. Haggard and Noland conclude with an outline of how the international community should use the survey data to encourage reform within North Korea as well as more responsible behavior from the regime. The authors lay out a comprehensive plan—complete with suggestions for the governments of China, South Korea, and the United States—designed to encourage desperately needed reforms through bilateral and...</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3080930402</t>
+          <t>https://openalex.org/W4387312242</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/1.jei.29.4.043024</t>
+          <t>https://doi.org/10.1080/09546553.2023.2259992</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Meng et al. (2020)</t>
+          <t>Sandler (2023)</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Adaptive decision-level fusion and complementary mining for visual object tracking with deeper networks</t>
+          <t>An Economic Perspective on Terrorism and Counterterrorism</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Multiple region proposal networks (RPNs) have been recently combined with the Siamese network with deeper backbone networks for tracking and shown excellent accuracy with high efficiency. Although the destruction of the strict translation invariance caused by network padding in the original ResNet-50 is solved by a custom sampling strategy, its impact is not eliminated from the network structure itself, and the multilayer feature fusion is insufficient. To this end, we propose an object tracking framework based on SiamRPN with the deeper backbone networks and cascaded RPN (D-CRPN). First, we exploit the cropping-inside residual units for reforming ResNet-50 to break the spatial invariance restriction and train the robust backbone networks for visual tracking. Then, the feature transfer blocks are proposed to achieve the effective integration of the outputs of multiple blocks in a specific network stage. Finally, to improve the robustness of our tracker, we present a quality measure for the synthetic response maps of RPN modules and then use it to calculate the adaptive weights for the linear weighting method. The extensive evaluation performed on OTB100, VOT2016, and VOT2018 benchmark datasets demonstrates that the proposed D-CRPN tracker outperforms most of the state-of-the-art approaches while maintaining real-time tracking speed.</t>
+          <t>ABSTRACTThis occasional-series paper offers an economic perspective on the study of terrorism and counterterrorism. At the outset, the paper identifies how the economic perspective enriches terrorism analysis by stressing rational choice of myriad agents (e.g., the terrorist groups, their supporters, and targeted governments) subject to constraints. Game-theoretic strategic rational choice allows allied and adversarial agents to incorporate the responses of others into their interdependent choices. Economists’ theoretical paradigms are judged by their success in predicting agents’ behavior and informing effective policies. Since 9/11, many political scientists, operation researchers, sociologists, and others applied economic methods to their study of terrorism. To illustrate selected applications of the economic approach, the paper considers findings from economic studies on bargaining and making concessions during hostage incidents, judging the effectiveness of counterterrorism strategies, identifying the economic consequences of terrorism, and finding adequate identification strategies in empirical studies. Future directions and some shortcomings of the economic approach complete the study.KEYWORDS: Economic approachrationality and terrorismconcessions in hostage incidentseconomic consequences of terrorist attacksempirical identification strategies AcknowledgmentsThe author profited from comments from two anonymous reviewers.Disclosure statementNo potential conflict of interest was reported by the author(s).Notes1. Lionel Robbins, The Nature and Significance of Economic Science (London: Macmillan, 1962), 16.2. Jack Hirshleifer, “The Expanding Domain of Economics,” American Economic Review 75, no. 6 (1985): 53–68.3. See, e.g., Navin A. Bapat, “Transnational Terrorism, US Military Aid, and the Incentive to Misrepresent,” Journal of Peace Research 48, no. 3 (2011): 303–18; Ethan Bueno de Mesquita, “Conciliation, Counterterrorism, and Patterns of Terrorist Violence,” International Organization 59, no. 1 (2005): 145–76; Ethan Bueno de Mesquita, “The Quality of Terror,” American Journal of Political Science 49, no. 3 (2005): 515–30; David B. Carter, “The Strategy of Territorial Conflict,” American Journal of Political Science 54, no. 4 (2010): 969–87; David B. Carter, “A Blessing or Curse? State Support for Terrorist Groups,” International Organization 66, no. 1 (2012): 129–51; James A. Piazza, “Incubators of Terror: Do Failed and Failing States Promote Transnational Terrorism?” International Studies Quarterly 52, no. 3 (2008): 469–88; James A. Piazza, “Poverty, Minority Economic Discrimination, and Domestic Terrorism,” Journal of Peace Research 48, no. 3 (2011): 339–53.4. Walter Enders and Todd Sandler, The Political Economy of Terrorism, 2nd ed. (New York: Cambridge University Press, 2012), 4.5. See, e.g., Yonah Alexander and Dennis Pluchinsky, Europe’s Red Terrorists: The Fighting Communist Organizations (London: Frank Cass, 1992); Martha Crenshaw, “The Causes of Terrorism,” Comparative Politics 13, no. 4 (1981): 379–99: William L. Eubank and Leonard B. Weinberg, “Does Democracy Encourage Terrorism?” Terrorism and Political Violence 6, no. 4 (1994): 417–35; Bruce Hoffman, Inside Terrorism, 3rd ed. (New York: Columbia University Press, 2012); Paul Wilkinson, Terrorism and the Liberal State, revised ed. (London: Frank Cass, 1986).6. Reinhard Selten, “A Simple Game Model of Kidnappings,” in Mathematical Economics and Game Theory: Essays in Honor of Oskar Morgenstern, ed. Rudolf Henn and Otto Moeschlin (Berlin: Springer, 1977), 139–55.7. Harvey E. Lapan and Todd Sandler, “To Bargain or Not to Bargain: That Is the Question,” American Economic Association Papers and Proceedings 78, no. 2 (1988): 16–21.8. William M. Landes, “An Economic Study of US Aircraft Hijackings, 1961–1976,” Journal of Law and Economics 21, no. 1 (1978): 1–31.9. Ibid., 12–13.10. Todd Sandler, John T. Tschirhart, and Jon Cauley, “A Theoretical Analysis of Transnational Terrorism,” American Political Science Review 77, no. 1 (1983): 36–54.11. Scott E. Atkinson, Todd Sandler, and John T. Tschirhart, “Terrorism in a Bargaining Framework,” Journal of Law and Economics 30, no. 1 (1987): 1–21.12. Charles H. Anderton and John R. Carter, “On Rational Choice Theory and the Study of Terrorism,” Defence and Peace Economics 16, no. 4 (2005): 275–82: Andreas Freytag, Jens J. Krüger, Daniel Meierrieks, and Friedrich Schneider, “The Origins of Terrorism: Cross-Country Estimates of Socio-Economic Determinants of Terrorism,” European Journal of Political Economy 27, no. Suppl. (2011): S5–S16; Sandler et al., “A Theoretical Analysis of Transnational Terrorism.”13. Walter Enders and Todd Sandler, “The Effectiveness of Antiterrorism Policies: A Vector-Autoregression-Intervention Analysis,” American Political Science Review 87, no. 4 (1993): 829–44; Enders and Sandler, The Political Economy of Terrorism.14. Enders and Sandler, “The Effectiveness of Antiterrorism P</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://openalex.org/W578232581</t>
+          <t>https://openalex.org/W4282588628</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.31219/osf.io/jdvnq</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Swan (2009)</t>
+          <t>Huston (2022)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Monetary Problems and Reforms</t>
+          <t>Future of education and research: preliminary thematic analysis</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>There seems to be a crisis in education and research. The education landscape looks fragmented, expensive and yet fails millions. A common perception is that, armed with cultural and social capital, the ‘sharp elbows of the middle classes’ game a commodified system to amass credentials. The media rails against learning institutions that inflate grades to cover up failings. Some academics game the system or churn out indigestible papers of negligible practical social impact. In an effort to unravel some of these issues and sketch the future of education and research, the study conducted a preliminary exploratory thematic investigation. First, it chose six credible institutions in the field. A brief review of associated web content chose prominent ‘sound bites’. In Phase II, the author identified relevant journal articles, using a focused rather than structured or systematic approach. Finally, in Phase III, the inquiry creatively and interactively grouped the collected secondary martial into themes, underpinned by reflection on decades of embedded teaching experience in a dozen schools or colleges and seven universities. The convenience sampling and judgemental analysis generated ten themes from recent seminal discourse on the future of education and research: TENSION PARADOX, ECOSYSTEM ENRICHMENT, PHRONESIS vs. COMMODIFICATION, ACCESS vs. ELITE CREDENTIALISATION, STRATEGIC COLLABORATION, NURTURING EMOTIONAL &amp;amp;amp; SOCIAL WELLBEING, FUNDING/RECONFIGURING CAPITALISM, JUDICIOUS TECHNOLOGY, INVESTMENT IN PEOPLE, DEMOCRATISING DIALOGUE. The most salient dimensions were PHRONESIS vs. COMMODIFICATION and STRATEGIC COLLABORATION. In effect, much recent managerialist educational reform (notwithstanding its transformative gloss) seems, actually, fundamentally misguided. Second, impactful research in, for example, deep tech, resilience or health calls for strategic interdisciplinary collaboration.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2359072797</t>
+          <t>https://openalex.org/W2413681530</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Chen (2001)</t>
+          <t>Thorpe &amp; Hart (2013)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Innovation in Financial Infrastructure and the Economic Development</t>
+          <t>Changing climates, changing cities?: Planning reform and urban sustainability in New South Wales</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>This paper discusses the function of financial infrastructure in the process of financial development and economic growth, argues that innovations in financial infrastructure play a crucial role in capital accumulation, technical advance, as well as evolution of financial structure by a dynamic equilibrium model. Such conclusion from the model has significant implications to the financial reform and financial development in China.</t>
+          <t>In its White Paper outlining proposed reforms to the legal framework for planning, the NSW government states that the 'key objective' of the new planning system will be 'to promote and enable economic growth and positive development for the benefit of the entire community, while protecting the environment and enhancing people's way of life. It is about enabling development that is sustainable.' This article discusses the way in which sustainability is treated in the White Paper and the draft planning legislation released with it in 2013. Drawing on the most recent findings from urban climatology, it argues that climate change is critical for sustainability in NSW, and that there is a particular need for both climate change mitigation and adaptation in urban areas. It examines the concept of 'sustainable development' put forward in the government's reform proposals, followed by a consideration of its treatment in the new frameworks proposed for strategic planning and development assessment. It then examines one of the most controversial aspects of the reform proposals: the move to dramatically increase the proportion of development assessed using non-discretionary development codes. Despite the government's rhetoric, this article finds little in the reform proposals to suggest that the new planning system will indeed foster sustainable development in NSW.</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2167351094</t>
+          <t>https://openalex.org/W3200769614</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/0020764009106631</t>
+          <t>https://doi.org/10.1162/ajle_a_00019</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Arvidsson (2009)</t>
+          <t>Minow (2021)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Gender Differences in Needs and Care of Severely Mentally Ill Persons: Findings From a Swedish Cross-Sectional and Longitudinal Study</t>
+          <t>EQUALITY VS. EQUITY</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Background: A great amount of research has been done in the area of gender and severe mental illness. However, there is an apparent lack of studies on gender differences concerning needs and care. Aim: To analyze differences in needs and care between men and women considered to be severely mentally ill (SMI) after the 1995 Swedish mental health care reform. Method: In one area of Sweden, surveys were made in 1995/96 and 2006 of persons considered to be SMI. These persons were interviewed and their needs assessed. In a cross-sectional study in 2006, the needs and care of men and women were compared. In a longitudinal study, men and women interviewed in both 1995/96 and 2006 were compared concerning the development of needs and care. Results: The structure of needs differed between men and women. Men had more needs concerning functional disability and those needs seemed possible to meet in the existing service structure. Women’s needs concerning physical health, information about health and own security, seemed to be more difficult to meet. Only a few gender differences were found in satisfaction with services and service utilization. Conclusion: It seems urgent to have a gender perspective in a needs-led mental healthcare service.</t>
+          <t>“There’s a big difference between equality and equity,” said now Vice President Kamala Harris as she ran for the presidency of the United States, and many millions watched and shared her video, which depicted one mountain climber who starts in a deep hole and another who starts much higher up.1 On the very day of his inauguration, with Vice President Harris at his side, President Joe Biden embraced the word “equity” in executive orders.2 He charged Susan Rice, director of his Domestic Policy Council, “with ensuring that the new administration embeds issues of racial equity into everything it does.”3 Federal agencies have been ordered to report on systemic barriers hampering access to benefits, services, and procurement opportunities.Immediately, critics responded with objections. Some charged the new administration with seeking to install discriminatory practices, favoring some racial and ethnic groups over others and attempting to inflame rather than heal racial division.4 Commentator Noah Rothman warned, “In practice, that looks less like ‘equity’ and more like ‘retribution.’”5 Others attacked the Biden administration’s approach for promoting a “spoils” system, more governmentally imposed constraints on freedom, and abandonment of equality.6 In contrast, key advisor Rice declared, “Advancing equity is a critical part of healing and of restoring unity in our nation.”7 Robert Kuttner, a commentator on the left, however, warned that change will come only with massive restructuring of the power relations across labor, capital, and government, as well as class-based coalitions against racism.8The political debate reflects, but also clouds, work underway in educational and employment settings. Over the course of the last decade, “equity” initiatives have been organized in U.S. schools, in human resources departments at colleges, in corporations, in philanthropies, and in nonprofit organizations. Often, “equality” appears as the inadequate alternative. For example, a memorable cartoon circulating on the internet depicts two scenes of three children looking over a fence at a ball game. The first scene is labeled “Equality” and shows each child standing on a box with the tall child looking easily over the fence, a middle-size child able to just see over the fence, and a small child unable to see over the fence at all. The second scene, labeled “Equity,” depicts the tall child able to look over the fence while standing on the ground, the middle-size child able to see over the fence by standing on one box, and the small child, now standing on two stacked boxes, also able to see over the fence; all three are essentially getting the same view.9 The images provide vivid contrasts. They are invoked in discussions urging equity rather than equality. Individualized accommodations for students with disabilities represent one version of equity, already mandated and implemented by law under frameworks labeled in terms of antidiscrimination, inclusion, or equality. Whatever it is called, treating everyone the same, regardless of background factors, historical inequities, and personal situation, inspired Anatole France’s observation, “The law, in its majestic equality, forbids rich and poor alike to sleep under bridges, to beg in the streets, and to steal their bread.”10 Tailored treatment, rather than identical treatment, could proceed based on assessments of an individual’s needs and situation or instead based on diagnosis of systemic conditions of disadvantage and exclusion.But the contrast between the terms “equality” and “equity” does not illuminate real differences in potential visions of society. The terms “equality” and “equity” have become weapons in polarized political arguments rather than analytic tools. The political volley over words neglects and obscures decades of litigation, policy, and academic work in both American law and comparative law. The U.S. Constitution prohibits government denial of “equal protection” of the laws; state and federal statutes guard against discrimination on the basis of individual characteristics (e.g., race, gender, disability, age, sexual orientation or identity). The relevant state or federal authority does not use the term “equity.” In ongoing litigation challenges to any attention to race used by the admission processes of selective colleges and universities, the defense must proceed by reference to the Fourteenth Amendment’s guarantee of equal protection of the law as well as statutory protections against discrimination or exclusion on the basis of race.11 Dumping on “equality” is a poor strategy for any who support inclusion, affirmative action, and overcoming historic and ongoing barriers based on individuals’ group membership or situation. Attacking “equality” jeopardizes public support and surrenders intellectual and legal resources—including laws and judicial decisions—otherwise available for enforceable changes. Ceding the term “equality” to those who oppose any redress of</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4381949437</t>
+          <t>https://openalex.org/W4212867484</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>https://doi.org/10.30890/2567-5273.2023-26-02-070</t>
+          <t>https://doi.org/10.5430/ijhe.v11n4p91</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ліхоносова &amp; Зієінієв (2023)</t>
+          <t>Mavuru &amp; Ramaila (2022)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>THREATS TO THE FINANCIAL AND ECONOMIC SECURITY OF AEROSPACE ENTERPRISES</t>
+          <t>COVID-19 Pandemic as A Catalyst for Fostering Reformed Pedagogy in Science Education</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>The study provides an analysis of modern challenges and conditions in which Ukrainian business operates during hostilities, and their impact on accounting and tax activities. An analysis of laws and regulatory documents developed by the state for the fun</t>
+          <t>The study examined the role of COVID-19 pandemic as a catalyst for fostering reformed pedagogy in science education within the South African context. The prevalence of COVID-19 pandemic compelled teachers as key agents of educational change to fundamentally rethink their pedagogical practices with a view to bring about reformed pedagogy. The study adopted a phenomenological design located within the critical paradigm. The empirical investigation involved 21 purposively selected in-service science teachers enrolled for postgraduate studies in science education at a South African university. Critical theory was adopted as a theoretical lens to provide insightful elucidation into how science teachers negotiated and transformed their pedagogical practices in response to the formidable challenges posed by COVID-19 pandemic. The COVID-19 pandemic critically exposed socio-economic disparities in science teaching and learning within the broader South African context. Under-resourced schools represented inappropriate educational entities which rendered encouragement of critical thinking and promotion of innovative pedagogical practices extremely difficult to realize. Science teachers at under-resourced schools were largely left to their own devices when navigating formidable challenges posed by the prevalence of COVID-19 pandemic. This dilemma represents a structural problem that ought to be addressed as a matter of priority in order to ensure social justice in terms of the creation of conducive teaching and learning environments at under-resourced schools in particular. Meaningful transformation of pedagogy remains an arduous task in the face of fundamental challenges afflicting teacher professional growth and its ramifications.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4229692776</t>
+          <t>https://openalex.org/W4321612045</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/acprof:oso/9780199367863.001.0001</t>
+          <t>https://doi.org/10.1016/j.renene.2023.02.069</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Panagariya et al. (2014)</t>
+          <t>Sun et al. (2023)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>State Level Reforms, Growth, and Development in Indian States</t>
+          <t>How does fiscal decentralization lead to renewable energy transition and a sustainable environment? Evidence from highly decentralized economies</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Abstract With a population of 1.2 billion, India is many countries. Ten of its states have populations equaling or exceeding that of the United Kingdom. Therefore, to understand fully the current experiment in economic reforms in the country, we must study it at the level of the state. In this spirit, the present book provides the first-ever comprehensive analysis of how the national reforms have shaped the economies of different states in India. It shows that, unlike China, where growth has been uneven across regions, growth acceleration in India has successfully penetrated every state. Each state has grown faster during the last decade than any other decade in the post-independence era. Some of the poorest states, notably Bihar and Orissa, have been among the fastest growing states. Reforms have also helped bring poverty down in every single state and across all major social and religious groups. The book argues that liberalization by the central government now offers states the opportunity to shape their own destinies. To this end, it outlines the reforms that are within their power in areas of agriculture, industry, urban development, infrastructure, health, and education. It draws on the experience of states that have successfully carried out some of these reforms.</t>
+          <t>Effective fiscal management ensures the coordination of taxes and spending authority for attaining inclusive and sustainable growth. Therefore, this study intends to estimate the direct and indirect channels of expenditure, revenue, and composite fiscal decentralization on carbon emissions through renewable energy transition in highly decentralized countries. It employs a cross-sectional augmented auto-regressive distributed Lag (CS-ARDL) method, allowing dependencies across countries and heterogeneity in the slope parameters. In the long run, the direct effects of expenditure (revenue) decentralization on carbon emissions are significantly positive (negative) with coefficient magnitudes of 0.16% and 0.04% (0.09% and 0.08%). The indirect effects of expenditure and revenue decentralization are substantially negative through renewable energy consumption with the coefficient magnitude of 0.135% and 0.138%, respectively. In contrast, composite decentralization and its interactive terms with renewable energy show an emissions-mitigating effect of 0.179% and 0.192%, respectively. These outcomes exhibit that the down-delegation of financial authority (revenue or composite) at local government increases resource efficiency and leads to higher renewable energy consumption. Similar results are echoed in the short run; however, the magnitude of coefficients is significantly higher in the long run. The overall findings provide fascinating policy recommendations.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4283693621</t>
+          <t>https://openalex.org/W4293056075</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1088/1755-1315/1045/1/012029</t>
+          <t>https://doi.org/10.31219/osf.io/qzmea</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ketkina (2022)</t>
+          <t>White-Lewis et al. (2022)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Waste sorting acceptability with information provision</t>
+          <t>Framing the Dialogue for Systemic Equity Reform in STEM Faculty Careers</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Abstract To decrease the environmental degradation due to increasing amount of municipal solid waste the Ecology National Project was implemented in Russia. Its main goal is to increase recycling and liquidate all unauthorized landfills within the urban borders. While the key objective of the project is to ensure ecological improvement and to amend environmental situation in Russia its public acceptability and awareness is under question, especially in rural communities. The paper analyses rural waste management reform in small rural town in region (Sverdlovskay oblast). The main focus is on peoples’ knowledge, acceptability and perceptions of the reform and its components, especially separate waste collection.</t>
+          <t>The NSF-funded Envisioning and Enacting an Inclusive and Diverse STEM Professoriate (EEIDSP; NSF# 2041007) Framing the Dialogue for Systemic Equity Reform in STEM Faculty Careers report advances three big ideas we believe are essential for a national dialogue on systemic reform for equity in STEM faculty careers: 1) Tracing, Addressing, and Dismantling Systemic Inequities in STEM Faculty Careers; 2) Tracking in STEM Faculty Careers; and, 3) Broadening the Bar: Redefining What Counts in Hiring and Evaluation. We believe that engagement with these key ideas across the entire faculty career ecosystem (including institutions of higher education, funding agencies, disciplinary societies, publishers, and other parts of the ecosystem) will help to lay the foundation for building consensus towards key equity-advancing transformation in STEM faculty careers.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4281938446</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.31390/gradschool_dissertations.4575</t>
+          <t>https://openalex.org/W3186818466</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dabney (2022)</t>
+          <t>Bhagat &amp; Hubbard (2021)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Describing the Education Reform Landscape: A Typology of State Charter School Laws</t>
+          <t>Rule of Law, and Purpose of the Corporation</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Since 2014, 42 states have adopted charter school legislation. Research has been conducted on charter school effectiveness and legislative adoption. However, limitations in the research exist regarding school choice in that studies address inequalities and outcomes at the school level, with limited attention to the state-level policy environment. Additionally, research does not consider variations in state school choice policy nor does it link policy differences to equitable educational outcomes.</t>
+          <t>Research Question: What is the purpose of the modern corporation? How is the rule of law related to the purpose of the modern corporation?_x000D_
+_x000D_
+Research Insights: We study the role of rule of law in enabling corporations to enhance economic prosperity and diminish income inequality across the globe._x000D_
+_x000D_
+Theoretical/Academic Implications: First, we provide empirical evidence on the role of rule of law in enhancing economic prosperity and diminishing income inequality across the globe. Next, we draw on the law and finance literature, and the finance and growth literature to highlight the role of rule of law in enabling corporations to be the major driver of a country’s economic growth. Specifically, rule of law is necessary for a citizenry’s belief in secure private property rights, which gives the citizenry confidence to invest in physical capital, human capital, and innovation – the three catalysts of economic growth. Also, the rule of law allows for an effective judiciary that can enforce legal contracts. Shareholder reliance on limited liability, and debtholder rights originate from the legal contracts among shareholders, debtholders, and other stakeholders. This highlights the importance of rule of law in enabling companies to raise equity and debt financing, leading to financial development. Given this background on the role of the rule of law in the issuance of equity capital to provide financial resources to corporations, we analyze the current debate among policymakers, corporate leaders, institutional investors, and social activists on the purpose of the modern corporation. We conclude that the modern corporation should maximize long-term shareholder value, while conforming to the law of the land._x000D_
+_x000D_
+Practitioner/Policy Implications: At the national and international level, policymakers should focus on improving rule of law – this enhances economic prosperity and diminishes income inequality. At the individual country level, we suggest steps to align shareholder wealth maximization with stakeholder interests: First, antitrust public policies should be vigorously enforced to maintain and enhance competition in product markets and labor markets. Second, management and board compensation should be reformed to focus on creating and sustaining long-term shareholder value. Finally, for many of society’s more serious problems, corporations do not represent the appropriate level of action. Climate change, for example, poses significant challenges for societies and businesses. But significant changes to combat climate change require public policy changes in the United States and abroad. Turning more to corporations because the political process seems broken won’t do.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2197261581</t>
+          <t>https://openalex.org/W1520397748</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22004/ag.econ.129173</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Nesmith (2015)</t>
+          <t>Hurley &amp; Cai (2012)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Tough on Crime or Tough Luck for the Incarcerated? Exploring the Adverse Psychological Impacts of Mandatory Minimum Sentencing and Pushing for Action</t>
+          <t>A Dynamic and Flexible Undergraduate Curriculum: Preparing Agribusiness Students for a Continually Changing Agricultural Sector</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>There is little doubt that the criminal justice system in the United States is in need of substantive reform and repair. Yet, our nation's prison population dwarfs countries worldwide as it continues to become even more overcrowded with individuals subject to draconian mandatory minimum sentences. But this comes at what negative psychological costs to these incarcerated individuals, their families, and their communities? This article analyzes the history and philosophy of mandatory minimum sentencing and the adverse psychological impacts that these sentences have on these individuals as they deal with the struggles of incarceration and the mounting structural barriers facing them upon reentry into society. This article also examines the recent reforms enacted by U.S. Attorney General Eric Holder and the U.S. Sentencing Commission and offers recommendations for solving our nation’s incarceration problems and minimizing their psychological impacts.</t>
+          <t>Individuals entering the Agribusiness industry need to have the flexibility to adapt to a rapidly changing global environment, and so does an Agribusiness curriculum. This essay provides an overview of a major curriculum overhaul that has transformed the Department of Agribusiness at the California Polytechnic State University. A rigid concentration structure has been reformed to a more flexible and dynamic no-concentration structure to develop successful future leaders in an ever-evolving industry. This essay explains the need for a more flexible undergraduate agribusiness curriculum and identifies its potential benefits and drawbacks.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2476581345</t>
+          <t>https://openalex.org/W2151734808</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4155/bio.13.206</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kester &amp; Hoover (2016)</t>
+          <t>Kissinger (2013)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FRICTO Analysis: A Framework For Making Capital Structure And Financing Decisions</t>
+          <t>The bioanalytical recession continues</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>In a seminal paper, Nobel Laureates Modigliani and Miller (1958) advanced proposition that, based upon several simplifying assumptions, capital structure has no effect on value of firm. However, recognizing impact of taxes, bankruptcy, agency costs, and asymmetric information, capital structure theory has evolved to acknowledge real world that use of debt does affect value of firm. Modern theories of capital structure can be classified into at least two categories: static tradeoff and order hypothesis. Static tradeoff models imply an optimal debt-equity mix that is determined by a tradeoff between benefits and costs of debt (e.g., balancing tax and leverage advantages of debt against risk of bankruptcy and agency costs). However, as argued by Myers (1998), although the (static tradeoff) theory may sound right to financial economists, and business people will give it lip service if asked ... it may be a weak guide to average behavior. It is not much help in understanding any given firm's decisions. The pecking order hypothesis implies a hierarchy in raising funds, in which internal financing (retained earnings) is preferred to external financing and, if firm obtains external financing, debt is preferred to equity. This empirically motivated hypothesis, which has been theoretically supported on basis of asymmetric information by Myers and Majluf (1984), is consistent with Donaldson's (1961) observation that firms prefer internal financing and have an aversion to issuing common stock. In a survey of chief financial officers of Fortune 500 companies in United</t>
+          <t xml:space="preserve">BioanalysisVol. 5, No. 20 EditorialFree AccessThe bioanalytical recession continuesPeter T KissingerPeter T KissingerPurdue University, 560 Oval Drive, West Lafayette, IN 47907, USA. Search for more papers by this authorEmail the corresponding author at kissingp@purdue.eduPublished Online:18 Oct 2013https://doi.org/10.4155/bio.13.206AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack CitationsPermissionsReprints ShareShare onFacebookTwitterLinkedInRedditEmail Keywords: contract researcheconomicsglobal recessionMSFour years ago Richard Abbott opined on these pages about the impact of the recession on bioanalysis in a wide ranging report, drilling down from the various pressures on Pharma at that time [1]. At least in the USA, the recession officially, but imperceptibly, ended in June of 2009 and thus 4 years later we would expect to be back to a more positive frame of mind. However, we are not! Several things have continued to go badly wrong on a global basis. Austerity in Europe has not worked and neither has stimulus in the USA. The best that can be said is that it could have been worse. In both cases the private economy yawned. The self-evident problem is that when a government needs money, it must tax the private economy. There must be an economy to tax. Pharmaceutical R&amp;D facilities continue to be closed and headcount reductions are ongoing. AstraZeneca, for example, is again refocusing and realigning its research sites. Lilly recently announced a further three log unit cutback. Merck is rumored to now be looking for R&amp;D efficiencies, an activity that should be continuous, not sporadic or lumpy. Acquisitions and licensing deals continue at a good pace and that is positive for bioanalytical research.Over 80% of prescriptions are now written for generics. While 2012 was a bounce-back year for innovative medicine approvals in the USA, these were at a high cost per treatment, which reflects a combination of complicated biology, a high regulatory hurdle and a focus on unmet needs for orphan diseases and cancer, where premium pricing is feasible. The industry remains heavily burdened by its successes 20–30 years ago, which now make pricing pressure in many common therapeutic areas so high that further research is discouraged. Besides the usual safety and efficacy concerns, there is a large risk that new medicines will not pass muster in comparative effectiveness contests with the now generic products. Our Pharma (and thus bioanalytical) recession continues unabated. Yet we still have a US$600 billion industry and that is not too bad. The large problems of cost versus safety versus efficacy versus speed-to-market are unresolvable. Opinions will always differ. Economic enough, safe enough, efficacious enough and fast enough are indeterminate variables. There are encouraging signs that companion diagnostics (some genotype, some phenotype; some singular tests and some as panels) exhibit promise for personalized clinical trials and therapy, but we must be patient. In addition, more therapeutic drug monitoring may assure that the bioavailability anticipated from trial averages is proper in individuals. The challenge remains to accomplish these tasks conveniently and economically.If only we could advance chemical measurement performance at the pace of semiconductor innovation. During my career we have reduced the volume required and the concentration required by a million fold (in a few cases both together), but unlike for semiconductors, only rarely has the cost come down in proportion for the tools or the labor. The last major bioanalytical disruption was two decades ago, when quantitative LC–MS/MS made UV, fluorescence and electrochemical detectors historical curiosities for most work with biological samples. I have recently commented in this journal on the ontogeny of analytical instruments [2]. Where will the next major disruption come from and when? I want methods that are not faster per sample in a large batch with QCs, but are random access methods allowing much faster turnaround time to clinical decisions. This is conceivable with an LCectomy on LC–MS/MS, leaving ambient ionization MS/MS. My academic colleagues Cooks and Ouyang see this as feasible and their laboratories at Purdue University (IN, USA) are very determined [101]. So too are our laboratories at Prosolia (IN, USA) with my business colleague Wiseman and his team [102].Bioanalysis no doubt remains an ambiguous term. In this journal we tend to consider it as determination of drugs and metabolites in preclinical and clinical phases of biological samples research. The broader context includes in vitro work, all forms of omics, ex vivo tissue imaging of endogenous substances and xenobiotics, flow cytometry, in vivo imaging, biomarkers and the related companion diagnostics. The term has also been applied to analysis of anything biological, even an isolated protein.Recession is also an ambiguous term and we have a financial recession, a </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2766512466</t>
+          <t>https://openalex.org/W2260815535</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>https://doi.org/10.35800/akulturasi.5.10.2017.17826</t>
+          <t>https://doi.org/10.2139/ssrn.1872553</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Widjaya (2017)</t>
+          <t>Wolf (2011)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ALIH FUNGSI LAHAN PANGAN DI KABUPATEN PESAWARAN PROVINSI LAMPUNG</t>
+          <t>Simultaneously Waste and Wasted Opportunity: The Inequality of Federal Tax Incentives for Conservation Easement Donations</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>AbstractLand conversion phenomenon is the greatest immediate threat to food security of the nation. Therefore, it necessary effort to prevent. The Regulation No. 41/2009 regarding a sustainable foodland protection aim to deal with the threat of foodland conversion. Those concerned about the current implementation of the policies relatively ineffective. This study aims to describes the spread of foodland, land conversion trend; to identify significant factor of foodland conversion and then formulate concept and strategy to deal with significant factors influencing foodland conversion in Pesawaran Regency, Lampung Province. This study was an exploratory and qualitative methods. Foodland are spread in all around Pesawaran Regency area. Due to the ownership of foodland by farmers are relatively small (0,50 hectares average). Foodland conversion had been for a long time, began with relatively low frequencies conveyance through a sale transaction. However, economic factors as driving forces of land conversion. In the strategy to deal with foodland conversion are strict enforcement The Regulation No.41/2009 through suitable policy began with establishing regional regulation of sustainable foodland protection and formulated several strategic plan with suitable budget policy. The implementation of regulation about foodland sale transaction system can be considered as a instrument to prevent land conversion with incentives for farmers through subsidy those increase land productivity and increasing community participation to defend sustainable foodland in order to gain sustainable prosperous living. Keywords: land conversion, sustainable foodland, foodland protection AbstrakFenomena alih fungsi lahan pangan sangat mengancam ketahanan dan kedaulatan pangan bangsa. Terbitnya Undang-Undang No. 41 Tahun 2009 Tentang Perlindungan Lahan Pertanian Berkelanjutan merupakan antisipasi dalam mengatasi alih fungsi lahan pertanian pangan. Masalah yang dihadapi adalah rendahnya efektifitas dalam implementasi kebijakan. Tujuan penelitian adalah untuk mendiskripsikan sebaran lahan pertanian pangan, kecenderungan alih fungsi lahan pangan; mengidentifikasi faktor penyebab dan merumuskan konsep serta strategi mengatasi alih fungsi lahan pangan di Kabupaten Pesawaran, Provinsi Lampung. Penelitian menggunakan metode ekploratif dan kualitatif. Lahan pertanian pangan tersebar di seluruh kecamatan Kabupaten Pesawaran. Pemilikan sawah kecil (rata-rata 0,50 ha). Alih fungsi lahan pangan sudah berlangsung cukup lama, diawali dengan pemindahan hak atas tanah melalui proses jual beli dengan frekuensi relatif rendah. Alih fungsi lahan pangan disebabkan oleh faktor ekonomi. Strategi untuk mengatasi alih fungsi lahan pangan adalah menindaklanjuti Undang-Undang No. 41/ Tahun 2009 melalui perumusan kebijakan yang tepat diawali dengan Penetapan Peraturan Daerah tentang perlindungan lahan pangan berkelanjutan dan penyusunan rencana strategis dalam implementasinya Pserta ditunjang kebijakan anggaran yang sesuai. Penerapan peraturan sistem jual beli lahan pangan dapat dipertimbangkan sebagai instrumen untuk pencegahan alih fungsi lahan pangan disertai pemberian insentif kepada petani berupa subsidi yang mampu meningkatkan kualitas lahan produktivitasnya, serta kebijakan pajak bagi petani yang mampu mempertahankan keberadaan lahan pangan berkelanjutan serta peningkatan partisipasi masyarakat mempertahankan lahan pangan secara berkelanjutan bagi keberlangsungan kehidupan yang sejahtera. Kata Kunci: alih fungsi lahan, lahan pangan berkelanjutan, perlindunga lahan pangan</t>
+          <t>In 2008, 3,095 taxpayers donated 3,158 conservation easements to non-profit organizations worth an aggregate $1.17 billion. For their generosity, these taxpayers have received and will receive myriad tax benefits, including federal income tax deductions for up to the full value of their easements, estate tax benefits for the amount their donations lowered the taxable values of their estates, and numerous other federal exemptions. Depending on where they reside, donors may also receive state income and property tax benefits. This note examines the relationship between the peculiar financial circumstances of an easement donor (namely her income and wealth) and the ultimate value of her tax benefits. Consistent with deductions and exemptions generally, across two donors of identical easements, the Internal Revenue Code provides a greater aggregate subsidy to the donor with higher taxable income and the higher taxable estate. Unlike other deductions and exemptions, however, the differential far exceeds the difference in federal income tax brackets. For the “wealthiest” of donors, the aggregate subsidy approaches, if not exceeds, the full fair market value of the donated easement. For a donor with relatively little taxable income and no estate tax liability, however, the subsidy amounts to small fraction of the value of her easement. Using studies of subjective preferences for non-use environmental goods (which establish that individuals’ interest in conservation does not decrease with their income or wealth), I argue that it is inefficient to grant larger incentives to wealthier donors of conservation easements than to poorer donors. I propose granting all donors a tax benefit worth a fixed percentage of the value of their donation and outline specific changes to the Internal Revenue Code that would bring about this change. I further argue that such a change is a prerequisite to the reform of the methodology for valuing conservation easements. I conclude with a discussion of the implications of equalizing incentives for the United States’ response to climate change.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3121755106</t>
+          <t>https://openalex.org/W4379165107</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22364/atee.2022.35</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Gersbach et al. (2011)</t>
+          <t>Avotiņa &amp; Froloviceva (2023)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sustainable Climate Treaties</t>
+          <t>Rubrics as a Tool for Objective Assessment in Art Education</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>We examine a global refunding scheme for mitigating climate change. Countries pay an initial fee into a global fund that is invested in long-run assets. In each period, part of the fund is distributed among the participating countries in relation to the emission reductions they have achieved in this period. We identify two possible types of sustainable treaty. A first-best sustainable treaty involves varying amounts of refunded wealth and a minimal amount of initial fees inducing socially desirable abatement efforts in each period. In a secondbest sustainable treaty with only two parameters - optimally selected initial fees and constant refunds equal to the interest earned on the fund - the stock of greenhouse gases converges to the socially optimal stock. Finally, we suggest ways for countries to raise money for the payment of initial fees that are neutral to tax payers and international capital markets.</t>
+          <t>The paper describes the importance of a rubric as an assessment tool in art education. The assessment of a work of art, for example, a landscape or a portrait painting usually consists of a combination of objective information and a subjective point of view, which makes it difficult for educators to assess students’ learning outcomes. The use of rubrics is considered an innovative way for educators not only to measure the student’s comprehension and skills but also as a teaching method to increase learners’ engagement in order to bring the creation of art to the forefront of the learning process within school art education. The relevance of the subject of this paper is defined by the changes in the evaluation system during the ongoing education reform in Latvia. The rubric, as an assessment tool in Latvia, was first introduced in 2020 as a part of the reform of the school curriculum. Rubrics for creative art assignments observe the main stages of the learning process, including sketching, expression of original ideas, creative work, documentation of the creation process and self-evaluation. It can be used for both, summative and formative assessments of learning outcomes. The criteria are based on the Common European Framework of Reference for Visual Literacy which was developed by The European Network of Visual Literacy. Therefore, the research aim is to determine the optimal way to evaluate students’ work in art lessons within the framework of school art education. The research involved two stages of data collection. During the first stage (2021) there was conducted a survey of 60 Latvian secondary school teachers that identified several problematic issues concerning the evaluation criteria. In the second stage (2022) the in-depth analysis was performed to investigate the connection between the feedback from educational practice and recommended rubrics in new curricula.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3137160424</t>
+          <t>https://openalex.org/W4385580177</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.3411847</t>
+          <t>https://doi.org/10.1016/j.jclepro.2023.138294</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Risch (2019)</t>
+          <t>Belamkar et al. (2023)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Does Taxing Business Owners Affect Their Employees? Evidence from a Change in the Top Marginal Tax Rate</t>
+          <t>Multi-objective optimization of agro-food supply chain networking problem integrating economic viability and environmental sustainability through type-2 fuzzy-based decision making</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Debates about the taxation of business owners often center around the distributional impacts of these taxes and the degree to which they affect workers. The majority of business income in the U.S. is earned by pass-through businesses and taxed subject to the personal income tax system, yet the existence and magnitude of spillovers from personal income taxation to firm behavior has been difficult to estimate. This paper uses a new linked owner-firm-employee dataset created from administrative tax records to analyze how a recent increase in the top marginal tax rate faced by pass-through business owners affected the compensation of their employees. I use panel difference-in-differences methods to compare the earnings of employees in similar firms but whose owners were differentially exposed to a recent tax increase and estimate that approximately 15 to 18 cents per dollar of new tax liability was passed through to employee earnings. This resulted from lower earnings growth among employees attached to their firms, not compositional changes in employment. These results show behavioral responses to the business income taxation embedded in the personal income tax system and imply that the incidence of the personal income tax was not fully borne by those directly subject to the tax change.</t>
+          <t>Balancing economic and environmental considerations in Agro-Food Supply Chain Networks (AFSCNs) is a critical challenge faced by decision-makers in developing countries. This study focuses on the Apple industry’s supply chain network problem and emphasizes the importance of environmentally friendly transportation systems. To address this concern, a multi-objective mixed-integer transportation model is developed to maximize profit by considering revenue and rewards for lower CO2 emissions while simultaneously minimizing costs associated with purchase, loading, unloading, transportation, fixed expenses, CO2 taxes, and penalties for exceeding permitted emission levels and reducing overall carbon dioxide (CO2) emissions in the AFSCN. Uncertain parameters, including revenue, purchase cost, loading cost, unloading cost, reward, fuel consumption, and CO2 emissions for different fuel-type vehicles, are handled using type-2 picture fuzzy numbers for accounting for uncertainty. The data and information used in this study were acquired from a survey conducted among Apple industry wholesalers in Shimla, Mandi, and Kothkai in Himachal Pradesh, providing authentic and reliable insights on supply chain network dynamics. The proposed multi-objective model is solved using LINGO 19.0 optimization software, utilizing diverse optimization methodologies, including the weighted sum method, fuzzy goal programming, interactive fuzzy satisfying technique, global criteria methodology, and weighted Tchebycheff metrics programming. This enables decision-makers to make informed choices and optimize the AFSCN’s problems on economic and environmental performance. Additionally, sensitivity analysis is conducted to evaluate the model’s resilience and responsiveness to changes in the carbon budget, carbon cap, and CO2 emission sources. The results demonstrate the model’s suitability for assessing different scenarios and policy measures, providing insights into the potential impact on the AFSCN’s economic viability and environmental sustainability.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2364269304</t>
+          <t>https://openalex.org/W2364504422</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Xin-jia (2009)</t>
+          <t>Xiu-lin (2004)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Revelation of College Physical Education Reform from the Concept of People-Oriented Development</t>
+          <t>On the Selection and Transformation of Finance Mode in China ——Starting from Studying the General Laws in the Development and Evolution of Finance Mode</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>The Raising of scientific view of development is sublimation for human social development.It's essence and core is people-oriented.Solid set up and ascertain scientific view of development,adjust and enrich school sports,respect student's main body position,attach importance to development valuation,reinforce the colleges and universities sports educational reform have significant but far-reaching significance to the high-caliber talented person training in all-round development.</t>
+          <t>The development and evolution of finance mode is restricted by basic economic laws and, objectively, will go through four developmental stages, namely primitive finance, traditional finance, public finance and constructive finance. Of these, public finance is the finance mode that is in compliance with the development of market economy. It is an objective law independent of man's will that public finance has to be built in order to develop market economy. The constructive finance mode that was established under the planning system was in contradiction to the general laws in finance mode development. And China is bound to experience the transitional stage of dual finance so as to effect the transformation from constructive finance to public finance. With the deepening reform at state-owned enterprises, the public nature of state-owned capital will become increasingly manifest and dual finance eventually replaced by unitary public finance.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4387387466</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1353/fil.1996.a908215</t>
+          <t>https://openalex.org/W2889160746</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Woods (1996)</t>
+          <t>Laverick (2018)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ilocano Immigration and the Attitudes of American Missionaries</t>
+          <t>Enforcing the ISM Code, and Improving Maritime Safety, with an Improved Corporate Manslaughter Act: A Safety Culture Theory Perspective</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>ILOCANO IMMIGRATION AND THE ATTITUDES OF AMERICAN MISSIONARIES* by L. Shelton Woods INTRODU Why people immigrate is a subject that scholars continue to debate.1 There are multiple reasons people choose to leave their home and seek their fortune in other places. This article explores Filipino immigration to the United States and the motives revolving around this immigration. The first section is an overview of Asian and Filipino immigration to Hawaii and the United States. The second part of this article examines the first Filipino immigrants to travel to the Hawaiian plantations and to the North American Continent. In particular, the Ilocano ethnic group is examined as they made up the majority of early Filipinos who travelled to work in the sugarcane fields ofHawaii. The last section of this work details the role of early American missionaries among the Ilocanos and how their treatment of Ilocanos may have led to the Ilocanos feeling that they should seek to gain a "better" identity by travelling across the Pacific to the mythic paradise of "America." ASIAN/FILIPINO IMMIGRATION The story of Asian immigration to the United States has come more into focus during the past two decades.2 Scholarship on this subject has reached the point where Asian-American study programs are being created in universities throughout the United States. The story of Asian immigration to the United States begins with the diaspora of Chinese from southern China in the middle ofthe nineteenth century. Famine,. the inability to pay taxes in silver, and rebellions (including the famous Taiping Rebellion) led many Chinese men to seek their * Presented during the Third Regional Conference of FANHS Midwest Chapter held June 24, 1995 at Royce Hotel, Romulus, Michigan. L. Shelton Woods, Ph. D. is an assistant professor in the Department ofHistory at Boise StateUniversity in Boise, Idaho. Filipino American National Historical Society Journal 19 fortunes outside the "Middle Kingdom." They travelled to places like Malaya, Singapore and the United States. It was, in fact, the promise of gold that drew many Chinese men to the United States.3 As the gold rush came to a halt many of these Chinese made a living through railroad construction, laundry service and various service businesses in Chinatowns. The Japanese followed the Chinese as the second Asian group to seek better fortunes in the United States. Post Tokugawa Japanese came to the United States with different motives than their Chinese neighbors. The first wave of Chinese immigrants (mostly men) did not intend to stay in the United States whereas the Japanese men brought their wives or sent for picture brides as they sought to make America their home. Perhaps it was this that made many white Americans fearful of being overrun by the "yellow" race. Laws were passed to keep the Japanese immigration to a minimum. The sentiments of politicians against Japanese immigration in the early 1920s is demonstrated in this testimony to the U.S. Congress by California Representative V. S. McClatchy: "Of all races ineligible to citizenship, the Japanese are the least assimilable and the most dangerous to this country...With greatpride ofrace, they have no idea ofassimilating in the sense ofamalgamation. They do not come to this country with any desire or any intent to lose their racial identity. They come here specifically and prof essedly f or the purpose of colonizing and establishing here permanently the proud Yamato race. They never cease to be Japanese. '14 As the wave of Chiriese and Japanese immigration declined to a trickle, American businessmen sought other "cheap" labor to work in the farms and plantations of Hawaii. They found this nextgroup in their new colony: the Philippines.5 In the Filipinos American recruiters found an Asian group that had ties to the western world. Spain's tenure as the Philippines' colonial mother had resulted in the majority of Filipinos embracing the Catholic faith. Apart from religion, American businessmen were pleasantly surprised by the increased education the Filipino youth were receiving. After America annexed the Philippines in 1898 the United States' panacea for the Philippines was a complete stamping out ofFilipino "ignorance" through the education of its youth. Act 74 of the Volume 4 - 1996 20 Philippine Commission authorized the...</t>
+          <t>The International Safety Management (ISM) Code was introduced in 1998 in response to a number of high-profile maritime disasters, with the aim of establishing minimum standards for the safe operation of ships and creating an enhanced safety culture. It was the first piece of legislation introduced by the International Maritime Organisation that demanded a change in the behaviour and attitude of the international maritime community. Whilst there is no doubt that the ISM Code has been successful at improving maritime safety, there is now an increasing problem with complacency. The aim of this thesis is to consider how complacency with the ISM Code in the UK can be tackled by using reformed corporate manslaughter legislation._x000D_
+_x000D_
+This thesis adopts a Safety Culture Theory approach and uses a multi-model research design methodology; a doctrinal model and a socio-legal model. The thesis hypothesis and the author's proposed corporate manslaughter reforms are tested through case studies and a survey. _x000D_
+_x000D_
+The thesis proposes the introduction of secondary individual liability for corporate manslaughter, in addition to existing primary corporate liability. If the proposed provisions were to be implemented, a gap in the law would be filled and, for the maritime industry, both the ship company and its corporate individuals would be held accountable for deaths at sea that are attributable to non-implementation of the ISM Code. It is suggested that this would deter further ISM complacency and so encourage the ISM Code’s intended safety culture. _x000D_
+This thesis contributes to the intellectual advancement of the significant and developing interplay between criminal and maritime law, by adding to the scholarly understanding of the safety culture operating within the international maritime community, and examining how corporate manslaughter legislation could be used to improve implementation of the ISM Code. It offers sound research for consideration by legal researchers and scholars, and also by those working within the field of maritime safety regulation.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3038181789</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.bar.2020.100935</t>
+          <t>https://openalex.org/W2555196572</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Wu &amp; Chen (2021)</t>
+          <t>Mulcahy (2000)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Corporate environmental disclosure and political connection in regulatory and leadership changes: The case of China</t>
+          <t>The Official Discourse and Organizational Memory of the Royal Ulster Constabulary</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>With a rapid increase of corporate environmental disclosure in developing countries, more attention is drawn to the extent to which this increase is influenced by corporate political connection. This paper focuses on China, a country experiencing increasing tensions between fast economic growth and heavy environmental pollution, complicated by high levels of political connections. A more important context in China is a historical leadership change entangled with significant regulatory reform to tackle corruption in 2013–14. Using hand-collected data from heavily polluting companies in 2012 and 2015 respectively, this study finds that there is a positive association between political connections of corporate chairmen and environmental disclosure levels in 2015 but not in 2012, suggesting that corporate disclosure behaviour has become more politically motivated after the regulatory and leadership change. There has been a significant improvement in environmental disclosure quality and this improvement is prominent in firms with politically connected chairmen. Although the regulatory change to eliminate corruption has led to substantial reductions in political connections of CEOs and senior executives, change associated with corporate chairmen is marginal. These results imply that the improvement of environmental disclosure is related more to the greater political intervention enabled by the leadership shift and power consolidation during the anti-corruption campaign than to the regulatory change to reduce political shield.</t>
+          <t>This paper considers the nature and impact of the organizational memories that form the core of the Royal Ulster Constabulary's (RUC) official discourse. As the ongoing Northern Ireland peace process developed, the issue of police reform moved to theforefront of the political agenda. Reform proponents who drew on historical controversies to press for specific changes werefrequently dismissed by the RUC as hatemongers who were locked in the past. While the force maintained that its focus was on the future rather than on the past, the RUC's collective identity is itself heavily reliant on spedfic constructions of history. This is most evident in theRUC's active celebration of the themes of sacrifice and bravery, community support, and accountability. These organizational memories underpin the force's critidsm of proposals for radical reform and its denigration of reform proponents. While these memories function to legitimize the RUC in the eyes of its supporters, they also undermine the development of institutional reflexivity central to processes of political transition and conflict resolution. Constructions of the past are fundamental to understandings of the present and visions</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2272152311</t>
+          <t>https://openalex.org/W114608324</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Hope (2011)</t>
+          <t>Prince &amp; Forgione (1993)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Migrated security interests: Lost in transition</t>
+          <t>Raising Standards and Measuring Performance Equitably: Challenges for the National Education Goals Panel and State Assessment Systems.</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Part 9.4, division 6 of the Personal Property Securities Act 2009 (Cth) ('PPSA') introduces a concept that is unique to Australia: the migrated security interest. This represents an ambitious and facilitative approach to implementing personal property securities reform within Australia and on its face appears to support the aim of providing a 'single uniform regime on a national basis'. No other jurisdiction effecting personal property securities reform of this type has opted for universal migration of existing security interests. The investigation in this article considers whether the Australian approach sets a new benchmark in personal property securities reform or whether the unintended consequences of migration strike at the heart of what it was intended to achieve: certainty, simplicity and efficiency.</t>
+          <t>Approaches to equitable performance standards and assessment are discussed with three points of focus. First, the work of the National Education Goals Panel is described, with particular attention to Goal 3, Student Achievement and Citizenship, and the Panel's efforts to establish world-class standards performance. National standards are assumed to include content standards, student performance standards, school delivery standards, and system performance standards. Second, four possible approaches to standard-setting for students with special needs are presented. They include the following: one standard for everybody; same standard, different conditions; different standards for different groups; and exclusion of some groups from assessment altogether. Potential advantages and disadvantages of each approach are discussed. Third, a discussion of how states are reacting to the national interest in standard-setting and assessments focuses on the standards-based approach to educational improvement adopted in Delaware. The New Directions for Education in Delaware reform plan adopted in May, 1992, clearly defines a strategy of educational standards and related assessments and accountability that will define the nature of educational change needed if Delaware students are to be prepared for life in the 21st century. Four Delaware Curriculum Framework Commissions (English/language arts, mathematics, science, and social studies) participate in the standards development. Contains 7 references. (LB) *********************************************************************** Reproductions supplied by EDRS are the best that can be made from the original document. *********************************************************************** Raising Standards and Measuring Performance Equitably: Challenges for the National Education Goals Padel and State Assessment Systems U.S. DEPARTMENT OF EDUCATION CRC. CA Educe( one' Research and Im Wessman( EDUCATIONAL RESOURCES INFORMATION CENTER &amp;MCI ms 00Curnint has been ',product/1 as Owed from the bereOn or cagenaahon ong,naung Minor changes hey] Dean 0110, (0 MOrOdiKtiOn gusloty Points of wow or opmeons slated in IMS doc tr mint go MI necissaerfly represent Official OE RI pompon or policy Cynthia D. Prince, National Education Goals Panel Pascal D. Eorgione, Jr., Delaware Department of Public Instruction PERMISSION TO REPRODUCE THIS MATERIAL HAS BEEN GRANTED BY TO THE EDUCATIONAL RESOURCES INFORMATION CENTER (ERIC).</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4240020328</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.7765/9781526119902.00002</t>
+          <t>https://openalex.org/W3013384074</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Dekavalla (2018)</t>
+          <t>Ashraf &amp; Hasan (2020)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Contents</t>
+          <t>Groundwater Management in Balochistan, Pakistan : A Case Study of Karez Rehabilitation</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>This book considers the underlying causes of the end of social democracy's golden age. It argues that the cross-national trend in social democratic parties since the 1970s has been towards an accommodation with neo-liberalism and a corresponding dilution of traditional social democratic commitments. The book looks at the impact of the change in economic conditions on social democracy in general, before examining the specific cases of Germany, Sweden and Australia. It examines the ideological crisis that engulfed social democracy. The book also looks at the post-1970 development of social policy, its fiscal implications and economic consequences in three European countries. It considers the evolution of the Spanish Socialist Workers' Party (PSOE) from its re-emergence as a significant political force during the 1970s until the present day under José Luis Rodríguez Zapatero. The book also examines the evolution of the Swedish model in conjunction with social democratic reformism and the party's relations to the union movement. It explores the latest debate about what the German Social Democratic Party (SPD) stands for. The SPD became the role model for programmatic modernisation for the European centre-left. The book considers how British socialist and social democratic thought from the late nineteenth century to the present has treated the objective of helping people to fulfil their potential, talents and ambitions. It aims to contribute to a broader conversation about the future of social democracy by considering ways in which the political thought of 'third way' social democracy might be radicalised for the twenty-first century.</t>
+          <t>Balochistan is an arid region with limited and seasonal surface water resources. It is also home to the ancient Karez water supply system that has long served as a buffer against droughts. About one-third of the 3,000 such systems that were believed to be in place in 1970 are still functioning. Aside from its cultural and historical significance, the Karez system has helped transform the agrarian landscape of the uplands, improving socioeconomic conditions. However, recurring droughts since the 1960s resulted in reduced recharge to groundwater supporting the Karez systems at a time of growing demands. To maintain their livelihoods, farmers installed tubewells, aided by energy subsidies from the provincial government.</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2389548011</t>
+          <t>https://openalex.org/W2169167855</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09668136.2012.759722</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Wen-jin (2004)</t>
+          <t>Holmes (2013)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>On Jiao Hong's Political Thoughts</t>
+          <t>&lt;i&gt;Perestroika&lt;/i&gt;: A Reassessment&lt;sup&gt;*&lt;/sup&gt;</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Jiao Hong was a brilliant scholar and also a great master of Taizhou School. He advocated rigorous administration of the nation and strict self-cultivation of the individuals, institutional reform and corruption abolishment, integration of punishment with law and rituals, benefiting people by facilitating trade, sensible financing, and talents recruitment, which reflect the political achievements of Taizhou School.</t>
+          <t>Click to increase image sizeClick to decrease image sizeView correction statement:Corrigendum Notes * This article was originally published with errors. This version has been corrected. Please see corrigendum (http://dx.doi.org/10.1080/09668136.2013.779788) 1 For a recent analysis see Brown (2009 Brown, A. 2009. The Rise and Fall of Communism, London: The Bodley Head. [Google Scholar], pp. 481–602). 2 As Archie Brown (2011 Brown, A. 2011. The Gorbachev Factor Revisited. Problems of Post-Communism, 58(4) July–August [Google Scholar]) argues, Gorbachev cannot be blamed for the disintegration of the Soviet Union; many of those who do blame him are explicitly or implicitly arguing that he should have taken the USSR backwards, to a period of much greater repression. A 2011 survey conducted by VTSIOM indicated that while most older Russians blamed Gorbachev for the break-up, 37% of respondents (and 41% of young Russians) believed that the country would have disintegrated with or without Gorbachev (Interfax 2011 Interfax (2011) ‘Elderly Citizens Blame Gorbachev for USSR Disintegration, Youngsters say USSR was Doomed—Poll’, Interfax, 3 March, in Johnson's Russia List 2011, No. 40, 4 March. [Google Scholar]). Another 2011 survey, this one by the Levada Center, suggested that almost 40% of Russians had, by 2011, come to realise that the August 1991 plotters were largely to blame for the break-up, compared with only 25% a decade earlier (Bridge 2011 Bridge, R. (2011) ‘Twenty Years after the Soviet Coup, Russia Takes a Hard Look in the Mirror’, RT, 19 August. [Google Scholar]). 3 There has been a steady stream of Russian analyses of Andropov in recent years—see for example the work by Medvedev (2004 Medvedev, R. 2004. Andropov: Neizvestnoe ob Neizvestnom, Moscow: Vremya. [Google Scholar]), Mlechin (2008 Mlechin, L. 2008. Andropov, Moscow: Velbi Prospekt. [Google Scholar]) and Semanov (2011 Semanov, S. 2011. Yurii Andropov: Gensek iz KGB, Moscow: Algoritm. [Google Scholar]). 4 See for example, Brown (2009 Brown, A. 2009. The Rise and Fall of Communism, London: The Bodley Head. [Google Scholar], p. 486) and Zlotnik (1984 Zlotnik, M. 1984. Chernenko Succeeds. Problems of Communism, 33(2) March–April [Google Scholar], p. 3); for an atypical and more positive analysis of Chernenko's role see Zemtsov (1989 Zemtsov, I. 1989. Chernenko—The Last Bolshevik: The Soviet Union on the Eve of Perestroika, New Brunswick, NJ: Transaction Press. [Google Scholar]). 5 For example, Sakwa (1990 Sakwa, R. 1990. Gorbachev and his Reforms 1985–1990, Hemel Hempstead: Philip Allan. [Google Scholar], p. 268); see also Gorbachev's own analysis of the development of perestroika in Gorbachev (1987 Gorbachev, M. 1987. Perestroika: New Thinking for Our Country and the World, London: Collins. [Google Scholar]), and his speech to the 27th CPSU Congress in Gorbachev (1986 Gorbachev, M. 1986. “Politicheskii Doklad Tsentral'nogo Komiteta KPSS XXVII S”ezdu Kommunisticheskoi Partii Sovetskogo Soyuza”. In Materialy XXVII S”ezda Kommunisticheskoi Partii Sovetskogo Soyuza, Moscow: Izdatel'stvo Politicheskoi Literatury. [Google Scholar]). 6 It is well known that the Communist Party of the Russian Federation (CPRF) was deemed legal by the Russian Constitutional Court in November 1992, thus reversing the suspension (August 1991) and the ban (November 1991) imposed by Yel'tsin. (For details of the complexities of this situation see Henderson-2007 Henderson, J. 2007. The Russian Constitutional Court and the Communist Party Case: Watershed or Whitewash?. Communist and Post-Communist Studies, 40(1) March[Crossref] , [Google Scholar]). There is less awareness that the CPSU itself—also suspended in August and finally banned in Russia in November 1991—was in essence resurrected in mid-1992. Unlike the CPRF, however, which has since 1995 consistently come either first or second in parliamentary (Duma) elections, the CPSU has not been registered by the Ministry of Justice, and so cannot participate in Russian elections—and is of marginal significance. But it has a website, which is available at http://kpss.net.ru/, accessed 28 July 2012. 7 It could be argued that the only amendment made so far to the 1993 Russian constitution—extending the term of office of the president from four to six years (and of the Duma from four to five years), passed in 2008 and in the case of the presidential reform effective from 2012—does help to increase Putin's power. But ever since 2008, when the world saw how Putin would de facto retain power by playing musical chairs with a hand-picked replacement president, it has been obvious that he does not need to change the constitution to be the actual leader of Russia. The extension of terms simply means that Putin does not have to play musical chairs so frequently, and that he can be the de jure head of the Russian state for longer than would have previously been the case. 8 Not all observers accept that Putin is a strong leader; see for example S</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1518629213</t>
+          <t>https://openalex.org/W2290011165</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>https://doi.org/10.37119/ojs2013.v19i2.149</t>
+          <t>https://doi.org/10.2991/itms-15.2015.46</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Kulnieks et al. (2014)</t>
+          <t>Liu &amp; Li (2015)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Engaging Literacies Through Ecologically Minded Curriculum: Educating Teachers About Indigenous Education Through an Ecojustice Education Framework</t>
+          <t>Influence of Rural Financial Institutions on the Progress of Rural Technology</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>In this article, we conceptualize curricula through an EcoJustice Education (EJE) framework to educate teachers about Indigenous and environmental education. The primary tasks of EJE are to engage learners in a cultural analysis of the ecological crisis and in the identification of diverse cultural methods that can bring about eco-democratic reforms that emphasize sustainable ways of living. An important method to infuse Indigenous knowledge into curricula is to invite local Elders to share stories that are Indigenous to place. In this paper, however, we consider methods of developing literacies through an engagement with the places within which learners live. We highlight the importance of developing a relationship with food and place, and an understanding about language through an eco-hermeneutic lens (Kulnieks, Longboat, &amp;amp; Young, 2010; 2011). We demonstrate how an aesthetic teaching form, in this case a poem entitled "Remembering Your Work," can help to foster important connections with local places and the cultural origins of food. Asking students to engage with both oral and literary traditions can promote an important dialogue about intergenerational knowledge, and foster the development of their relationships with food and place. Keywords: EcoJustice Education; Indigenous teachings; intergenerational knowledge; curriculum; literacies</t>
+          <t>Technological progress is the key factor to influence economic growth. This article uses Empirical Analysis to analyze the relationship between rural technological progress and rural financial institution and finds that there exists one-way causal relationship between them in China. The progress of rural technology can promote the development of rural financial institutions, but the development of rural finance has not brought the progress of rural technology. It is necessary to deepen the reform of rural financial institutions, to promote the progress of rural technology. KEYWORD: Rural financial institutions; Rural technological progress; One-way causal relationship International Conference on Industrial Technology and Management Science (ITMS 2015) © 2015. The authors Published by Atlantis Press 182 technological innovation, the liquidity and size of the stock market are promotion to technological innovation. Liu Jia (2008) makes an empirical analysis and finds the organization and activeness of financial system do not have obvious impact on technological innovation. However, the improvement of efficiency which financial system promotes technological innovation root in the financial system enlarges the input of technology, but the management efficiency is decreasing. Based on the above research about this topic, we can easily find out the development of rural financial system is important to rural technological innovation. The rural financial organizations are established mainly aiming at the actual situation of our countryside and they can promote the progress of all aspects in rural to some degree. Meanwhile the rural technological progress will perfect the rural financial system extremely efficiency. But in practice, there exist many problems in rural financial organizations. So we need to support the rural financial organization, continue to deepen the reform, perfect the rural financial organization, enhance the competitiveness of rural finance to a larger extent, increase its impact on rural technology, finally achieve the sustainable development of rural economy, and work out issues of agriculture, farmer and rural areas problem. This article chooses the rural financial organization and rural technological progress as the research objects, makes empirical analysis on their relationship, studies the mechanism and characteristic of rural financial organization, puts forward that we can promote the rural technological progress to enhance sustainable development of rural financial organizations and perfect rural financial system, provides new development ideas about the distribution of rural financial organization and rural technological progress, enhances the relationship between these two issues, which can promote the rural financial organization serve for rural technological progress more efficiently and quickly, changes the one-way causation of these two issues, and contributes to the development of rural area in China. 2 VARIABLES SELECTION AND DATA SOURCES 2.1 Variables selection 2.1.1 The total power of agricultural machinery (TPAM) The total power of agricultural machinery refers to the total power of power machineries of Agricultural, forest, animal husbandry and fishery, including tillage machineries, irrigation machineries, harvesting machineries, agricultural transport machineries, plant protection machineries, animal husbandry machineries, forestry machineries, fishery machineries and other agricultural machineries. This shows the progress of rural technology in theory, but the technology is not directly transformed into the farmers' productivity. It can greatly improve the agricultural land productivity, labor productivity, product commercialization and the utilization rate of resources to carry out technological transformation and upgrade of traditional agriculture with modern science and technology, Therefore, the degree of agricultural mechanization is the reasonable index to reflect the level of agriculture technology. This article selects agriculture machinery total power (TPAM) to measure the progress of rural technology. 2.1.2 The rural financial interrelation ratio (RFIR) Financial interrelation ratio is the ratio of the value of financial assets and total economic activity in the country at a certain date. This article emphasizes on the influence on the progress of rural technology and the development of rural financial institutions. Therefore, the financial interrelations ratio (RFIR) is simplified to the rural financial institutions loans / rural GDP, which is used to measure the development of rural finance in china.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2368472689</t>
+          <t>https://openalex.org/W1983997575</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/1467-8373.00038</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Shu-mei (2010)</t>
+          <t>Cai (1997)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>On Rationality and Limitation of Local Government in Business Invitation and Investment Attraction</t>
+          <t>Relationship changes between lowlander and hill tribes in Xishuangbanna, P.R. China</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>For a long time,China's local government has been leading foreign investment attracting,which has its own history,rational and realistic significance,but there are limitations of government-led foreign investment attracting,resulting in a lot of problems.The main reason is that the government misplaced its functions.Government should carry out effective macro-control,create a good investment environment,innovate ways to attract foreign investment,while local governments should reform the current assessment index system.</t>
+          <t>Xishuangbanna, which is well known for its ethnic diversity, is located in the upper reaches of the Mekong River. Dai lowlanders make up one third of the total population, 13 other indigenous highland groups make up another third and the balance are Han Chinese. The research on which this paper is based was conducted in three villages, Dai, Hani and Jinuo communities and designed to explore the changing relationships between lowlanders and highlanders. It was found that over the past five decades two critical events triggered profound changes. One was liberation by the Chinese Communist Party in 1950, and the other the land and economic reform policies introduced at the beginning of the 1980s.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390447301</t>
+          <t>https://openalex.org/W2801464312</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>https://doi.org/10.51209/platform.2.8.2023.12-33</t>
+          <t>https://doi.org/10.1353/cub.2018.0025</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pogrebnіak (2023)</t>
+          <t>Díaz-Briquets (2018)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Musical culture of screen direction</t>
+          <t>Entrepreneurial Cuba: The Changing Policy Landscape by Archibald R. M. Ritter and Ted A. Henken</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>The article examines the phenomenon of music in audiovisual art. The work of Ennio Morricone in world cinema is analyzed. This approach made it possible to deeply reveal the role of music in the screen arts and to show the peculiarities of the collaboration between the director and the composer. Signs of collective authorship in the screen arts have been identified, which provoked the emergence of creative tandems, a director-composer. In addition, the director's creativity was studied in the context of the composer's practices of creating music for audiovisual art. Composer practices of Ennio Morricone in different directorial models are analyzed. The main features of the author's style of the composer are revealed, his innovative approaches in creating music for the screen and symphonic music are revealed. The experimental music of a prominent composer is characterized. The main techniques of E. Morricone's tonal music are singled out and the specifics of the use of musical instruments in the artist's scores are clarified. The artist's use of various composing technologies is analyzed. It is substantiated that the composer tried to reform film music and modern music in general. The composer's unique ability to work in a cinematographic production team has been proven. It is shown that sometimes the screen music of the maestro became more popular than the films for which it was written.&amp;#x0D; In the development of the topic, the methods of scientific analysis, comparison, and generalization were comprehensively applied. Analytical and systematic methods in their unity were involved to consider the art-historical aspect of the problem.&amp;#x0D; As a result, the specifics of the use of musical means in screen arts are determined through the study of creative models of the director and composer, the relevance of using the systematic method in studying the peculiarities of composers' creativity in the context of audiovisual art and production is proven.</t>
+          <t>Reviewed by: Entrepreneurial Cuba: The Changing Policy Landscape by Archibald R. M. Ritter and Ted A. Henken Sergio Díaz-Briquets Archibald R. M. Ritter and Ted A. Henken. Entrepreneurial Cuba: The Changing Policy Landscape. Boulder, CO: First Forum Press, 2015. 373 pp. The small business sector, under many different guises, often has been, since the 1960s, at the center of Cuban economic policy. In some ways it has been the canary in the mine. As ideological winds have shifted and economic conditions changed, it has been repressed or encouraged, morphed and gone underground, surviving, if not thriving, as part of the second or underground economy. Along the way, it has helped satisfy consumer needs not fulfilled by the inefficient state economy. This intricate, at times even colorful, trajectory has seen the 1968 Revolutionary Offensive that did away with even the smallest private businesses, modest efforts to legalize self-employment in the 1979s, the Mercados Libres Campesinos experiment of the 1980s, and the late 1980s ideological retrenchment associated with the late 1980s Rectification Process. Of much consequence—ideologically and increasingly economically—are the policy decisions implemented since the 1990s by the regime, under the leadership of both Castro brothers. Initially as part of Special Period, various emergency measures were introduced to allow Cuba to cope with the economic crisis precipitated by the collapse of the communist bloc and the end of Soviet subsidies. These early, modest entrepreneurial openings were eventually expanded as part of the deeper institutional reforms implemented by Raúl upon assuming power in 2006, at first temporarily, and then permanently upon the resignation of his brother as head of the Cuban government. In keeping with the historical zigzag policy pattern surrounding small businesses activities—euphemistically labeled these days as the "non-state sector"—while increasingly liberal, they have not been immune to temporary reversals. Among the more significant reforms were the approval of an increasing number of self-employment occupations, gradual expansion of the number of patrons restaurants could serve (as dictated by the allowed number of chairs in privately owned paladares), and the gradual, if uneven, relaxation of regulatory, taxing, and employment regulations. Absent has been the authorization for professionals (with minor exceptions, such as student tutoring) to privately engage in their crafts and the inability to provide wholesale markets where self-employed workers could purchase inputs for their small enterprises. The authors of this volume, an economist and a sociologist, have combined their talents and carefully documented this ever-changing policy landscape, including the cooperative sector. They have centered their attention on post–Special Period policies and their implications, specifically to "evaluate the effects of these policy changes in terms of the generation of productive employment in the non-state sector, the efficient provision of goods and services [End Page 375] by this emergent sector, and the reduction in the size and scope of the underground economy" (297). While assessing post-1990 changes, Entrepreneurial Cuba also generated a systematic examination of the evolution of the self-employment sector in the early decades of the revolution in light of shifting ideological, political, and economic motivations. Likewise, the contextual setting is enhanced by placing Cuban self-employment within the broader global informal economy framework, particularly in Latin America, and by assessing the overall features of the second economy in socialist economies "neither regulated by the state nor included in its central plan" (41). These historical and contextual factors are of prime importance in assessing the promise and potential pitfalls the small enterprise sector confronts in a changing Cuba. Rich in its analysis, the book is balanced and comprehensive. It is wide ranging in that it carefully evaluates the many factors impinging on the performance of the small business sector, including their legal and regulatory underpinnings. The authors also evaluate challenges in the Cuban economic model and how they have shaped the proclivity for Cuban entrepreneurs to bend the rules. Present is a treatment of the informal social and trading networks that have sustained the second economy, including the ever-present pilfering of state property and the regulatory and transactional corruption so prevalent in Cuba's centralized economy. While none of the above is new to students of...</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://openalex.org/W128876463</t>
+          <t>https://openalex.org/W4393397676</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.417242</t>
+          <t>https://doi.org/10.31891/2307-5740-2024-326-21</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Dallas (2003)</t>
+          <t>Шкварук &amp; Donchak (2024)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Developments in U.S. Boards of Directors and the Multiple Roles of Corporate Boards</t>
+          <t>GREEN FINANCE: THEORETICAL ASPECT AND FEATURES OF FUNCTIONING IN UKRAINE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>As corporations have increased in size and complexity so have the demands on their operations, requiring more complex organizational structures. The demands on corporate boards of directors have also changed. These demands require boards to perform a multitude of functions that call for attention to the structure of boards and to their composition and practices. Insufficient changes have been made, however, to accommodate these multiple roles of corporate boards. This paper is about the multiple roles of corporate boards, which are defined as the manager-monitoring, relational and strategic management roles of boards. This paper argues that these roles more accurately describe board functions than the description of board functions as control, service and strategy. In addition, this paper argues that the multiple roles of boards often come into conflict with each other. A recent meta-analysis has found that both insider-dominated boards and outsider-dominated boards are associated with more successful corporations in terms of return on assets. In this paper, I explore a number of alternative explanations for these findings. I offer an interpretation that is based on the multiple conflicting roles of corporate boards. I argue that insider-dominated board perform some roles more effectively than outsider-dominated boards, particularly strategic management. I argue that the advantages of the insider-dominated board in strategic management comes from the advantages of group decision making by peers (fellow executives) which decreases corporate politics and the chance of a dominant CEO becoming convinced of his invincibility. In addition, the quality of decision making is enhanced in ambiguous and uncertain situations when diverse perspectives are shared and this sharing is encouraged when persons are in similar social positions. Outsider-dominated boards perform other functions better than insider-dominated boards, such as manager-monitoring functions, to the extent that the outside directors are truly independent of management. This analysis suggests a number of reforms for corporate boards that will enable them to perform their multiple functions more effectively.</t>
+          <t>The article analyzes the concept of "green finance", which is the concept and practice of financial instruments and resources aimed at supporting projects and initiatives that promote environmental sustainability, as well as social and economic well-being. It can cover a wide variety of financial products, from loans and investments to debt and insurance, aimed at reducing the impact of human activities on the environment. The main idea is to promote sustainable development, preserve natural resources and improve the quality of life, while ensuring economic development. The main components of the green finance structure are identified: green bonds, green loans and credits, specialized insurance services, green investment funds, financing of green startups, etc. Green loans and credits issued by banks promote energy saving projects and the use of renewable energy sources. Green bonds issued by governments and companies attract investments for environmental initiatives. Investment funds focused on green technologies and sustainable construction are characterized by specialization. Socially responsible investments include sustainability and environmental responsibility criteria. Specialized insurance products cover risks associated with climate change. Green startup financing supports the development of innovative environmental technologies. This diversity reflects the growing interest in sustainability and environmental finance. Based on the analysis, the importance of theoretical substantiation of the concept of green finance in the context of Ukraine's European integration processes is proved. Strategies for overcoming the difficulties associated with the application of green finance in Ukraine are proposed. As for the strategies to overcome the difficulties, it is important to develop common standards and definitions for green finance, which will help to unify the understanding and application of this concept. In addition, engaging government agencies and international institutions to create a favorable legislative and regulatory environment is an important aspect. Financial barriers can be reduced through the development of incentives, subsidies, and other instruments aimed at green investments. Finally, it is important to promote education and awareness campaigns to raise awareness of the benefits and opportunities of green finance among all stakeholders.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2391393440</t>
+          <t>https://openalex.org/W2228991185</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Faltlhauser et al. (1992)</t>
+          <t>황기형 et al. (2007)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Reform der Unternehmensbesteuerung</t>
+          <t>수산부문 유통협약 및 자조금사업 활성화 방안</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>The Korean government introduced a subsidy program for marketing agreements and check-off programs in the aquaculture sector, aiming to stabilize prices of aquacultural commodities by encouraging fishermens collective action in accordance with the supply and demand situation regarding individual products. While marketing agreements and check-off programs can be effective vehicles to support prices of primary products, there are a number of requirements for the viability of the programs, which include fishermens willingness to participate, availability of active producers organizations, institutional solutions for external economies, and democratic and transparent operational frameworks. This study evaluates marketing agreements and check-off programs operated in Koreas aquaculture sector in terms of those requirements, and suggests policy options to promote these programs. To do so, surveys of fishermen are conducted to assess to what extent they appreciate the necessity and performance of the programs, and their desire to participate in the programs. Also, analyses of technical characteristics and the socioeconomic environment of the production of major aquacultural commodities are carried out to assess whether marketing agreements or check-off programs are applicable to those commodities. The results indicate that the basic requirements are yet to be met for the programs to proliferate. In the first place, fishermen do not sufficiently recognize the programs. Producers organizations of each commodity as a core body to initiate the programs are not sufficiently active. There is no institutional framework to cope with the free-rider problem. Consequently, suggestions are made to strengthen the basis of the programs, which include expansion of public relations and education programs, provision of detailed market information and consulting services, and formulation of guidelines on decision-making, operations, and evaluation of the programs. Introduction of marketing orders and mandatory check-off programs should be considered as a long-term agenda. Finally it is also suggested to convert the current subsidy program into an incentive system in the long-term, by which a limited amount of financial support is granted upon evaluation of program performance.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2415453026</t>
+          <t>https://openalex.org/W4293860085</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.agsy.2022.103487</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Carlos et al. (2006)</t>
+          <t>Bertolozzi-Caredio et al. (2022)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>COMPETENCE X PROTECTIONISM PERSPECTIVES OF BRAZILIAN SUGAR EXPORTS IN VIEW OF THE END OF THE EUROPEAN UNION'S SUBSIDIES</t>
+          <t>Analysis of perceived robustness, adaptability and transformability of Spanish extensive livestock farms under alternative challenging scenarios</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>The present paper has the objective of examining, through a questionnaire applied to the most important exporting agents in Brazil, the factors that may influence the decision of the European Union to eliminate sugar subsidies, as well as the internal logistic factors that may influence Brazilian exportation. The paper presents a theoretical reference system that shows the importance of the sugar-alcohol sector for the Brazilian agribusiness, discusses the world sugar market as regarding the World Trade Organization’s decision, and shows the damaging effects of subsidies to market equilibrium. According to the interviewed exporting agents, the EU will comply with the WTO’s resolution; nevertheless, Brazilian exporters should join efforts with the government to remove traditional logistic bottlenecks such as deficiencies in transportation, roads, and port infrastructure. When these obstacles have been overcome, Brazil will be able to meet an additional demand of 1.6 million tons of sugar.</t>
+          <t>Extensive livestock farms in the EU operate in a context of increasing market liberalization and competition, changing consumer patterns and decreasing meat consumption, and increasing climate change-related risks. In turn, EU policy calls for better supporting extensive systems due to their numerous socio-ecological benefits and aims to improve the resilience of extensive livestock farms. The research question underlying this paper is: which resilience capacities may help livestock farmers deal with different types of challenges? The specific research objectives are: 1) to quantify the resilience capacities of robustness, adaptability and transformability and the challenges as perceived by farmers; 2) to identify the main challenges affecting the perceived resilience capacities; and 3) to evaluate how perceived resilience capacities perform under alternative scenarios. The paper relies on the use of data from a survey of 120 cattle and sheep farmers in Spain to study the latent property of resilience through farmers' perception. The methodology consists of mixed statistical methods to address the three specific objectives. First, descriptive statistics to quantify the perceived resilience capacities and challenges threatening farming systems; second, fitting Partial Least Square regressions to identify the main challenges affecting robustness, adaptability and transformability; and third, stochastically simulate challenging scenarios to predict the behavior of the three resilience capacities under different types of challenges. Resilience capacities perform in different manners when dealing with challenges. Adaptability and transformability seem to be more effective under socio-economic long-term pressures. Robustness performs poorly under challenges either in the short- or long-run and appears to be more effective against economic and environmental challenges. Institutional challenges are the main threats to resilience, especially when it comes to reduced subsidies, restricted access to land, and subsidies-induced competition. The paper's contribution consists of the empirical advances in understanding the resilience capacities and their ability to deal with different types of challenges, about which the literature offers little guidance. To this end, the paper proposes a quantitative methodological solution that is relevant considering the need for methodological progress towards resilience quantifications. Lastly, the paper may inform policymaking by bringing new evidence into the debate on the future of extensive livestock in the EU based on the case of Spanish cattle and sheep farms.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2739152285</t>
+          <t>https://openalex.org/W1525140395</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Blick (2012)</t>
+          <t>Salehi &amp; Manesh (2012)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Select committee report shows way forward on voter registration</t>
+          <t>A Study of the Roles of Firm and Country on Specific Determinates in Capital Structure: Iranian Evidence</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>The Political and Constitutional Reform Select Committee’s 10threport of session, Individual Electoral Registration and Electoral Administration, has generated widespread media coverage. It is safe to say that a select committee report on electoral registration has never been awaited, and greeted, with such interest. Stuart Wilks-Heeg looks at the reasons why.</t>
+          <t>[Abstract] Our main objective is to analyze firm-specific determinates and the role of various country-specific factors in determining corporate capital structure. On the other hand, we show that country-specific factors can also influence corporate leverage indirectly through their impact on the effect of firm-specific factors. We analyze a sample of 59 companies during the years of 2004-2011. We analyze the firm-specific determinants of leverage, like firm size, asset tangibility, profitability, and growth opportunities. Additionally, we incorporate a number of country-specific variables in our analysis, including market size, gross domestic product growth, and inflation rate. We find that the impact of several firm-specific factors on capital structure is significant and considerable explanatory power of country-specific variables beyond firm-specific factors. Prior research in Iran often investigated a firm's capital structure as influenced by firm-specific factors. In this study, we show that country-specific factors can also influence corporate leverage indirectly through their impact on the effect of firm-specific factors. Overall, the evidence provided here highlights the importance of country-specific factors in corporate capital structure decisions. [Keywords] capital structure; macroeconomic factors; gross domestic product; profitability; growth opportunities (ProQuest: ... denotes formulae omitted.) Introduction Ih the past 50 years, after presentation of capital structure irrelevance theory by Modigliani-Miller (MM) (1985), researchers did well to examine structure theory. Researchers considered subjects such as agency signaling costs (Heinkel, 1982; Poitevin, 1989), bankruptcy (Ross, 1997), tax (Leland &amp; Tpft, 1996), features of organizational and historical national financial systems (Laporta et al., 2006; Rajanand Zingales, 2003) in order to discover determinant factors of corporate capital structure. But up until, identification of national and international determinant factors of corporate capital structure, they have been constrained and ambiguous (Aggarwal &amp; Jamdee, 2003). Researchers studied the roles of firmspecific determinants on capital structure, but specific-country determinants or macroeconomic factors have still not been investigated in Iran. In this research, the roles of two determinant factors of capital structure in Iran will be investigated, such as studied by De Jong, et al., (2008). This study encompasses 59 companies during the period 2004-2011 in Iran. We analyze the standard firm-specific determinants of leverage, like profitability, growth opportunities and firm size, and incorporate a large number of country-specific variables in our analysis, including market size, gross domestic product growth, and inflation rate. We find firm-specific determinants explain almost 1/2 percent of the changes in capital structure. Between the variables of firm-specific respectively profitability, growth opportunities and firm size had the greatest influence on capital structure. In the analysis of the impact of country-specific factors, we observe that certain factors like GDP growth rate, market size, and inflation rate have a positive relationship with capital structure. Adding these variables to the model increased its explanatory power to 54 percent. Literature Review Deesomsake et al. (2004) and Booth et al. (2001) investigated determinant factors of capital structure in the Indian Ocean area. According to the studies of Deesomsak et al. (2004), decisions related to capital structure are influenced by specific factors of company and environment in which companies have activity. The fiscal crisis in 1997 had huge and reverse impressions on decisions of tangibility of assets, capability of profitability, firm size, growth opportunities, not having debt tax shelter, liquidity, profit variances, and performance of stock price. Moreover, they studied seven country-specific variables, such as the scale of stock market activities, interest ratio level, legal protection of equity interest, centralization of ownership, and three specific-country figurative variables. …</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2987089502</t>
+          <t>https://openalex.org/W2045256743</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1163/22142312-12340111</t>
+          <t>https://doi.org/10.1021/cm202709y</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Veere (2019)</t>
+          <t>Misch et al. (2011)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>The Technological Utopia: Mimamori Care and Family Separation in Japan</t>
+          <t>C–H Bond Activation by Pd-substituted CeO&lt;sub&gt;2&lt;/sub&gt;: Substituted Ions versus Reduced Species</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Abstract Japan is undergoing a significant demographic upheaval, and the Japanese government is formulating policies for stimulating technological advances based on the assumption that they will solve issues such as labour shortages and elder care. The government argues through policy initiatives that technology will decrease the care burden on Japan’s workers, families, and itself. Although the domestic media show awareness of changing family patterns in Japan, newspapers are following a similar pattern of technological utopianism. However, this article posits that the proposed policy reforms rely on a conservative ideal of the extended family that ignores changing patterns in Japanese households. Moreover, it argues that, rather than facilitating a return to the ideal of an extended family, technology is exacerbating separation among families that have been growing apart for some time.</t>
+          <t>Substituted metal oxides containing ionic species have been attracting a great deal of attention because of their potential ability to reduce the usage of precious metals in heterogeneous catalysts. We investigate Pd-substituted CeO2 for C–H bond activation reactions including the partial oxidation and dry reforming of CH4. This catalyst has been previously studied for CO oxidation, NOx reduction, and the water-gas shift reaction. Pd-substituted CeO2, Ce1–xPdxO2−δ, was prepared as a powder with high surface area and a hollow sphere morphology using ultrasonic spray pyrolysis. The catalysts were extensively characterized using synchrotron X-ray diffraction and other techniques, confirming phase pure samples up to 10 mol % Pd substitution. Ce0.95Pd0.05O2−δ was found to be active for partial oxidation of CH4 around 500 °C and higher. Our studies, including postcatalytic synchrotron diffraction, suggest that the single-phase Ce1–xPdxO2−δ material is not the active species and that catalysis occurs instead over the reduced two-phase Pd0/CeO2. This observation has been further confirmed by verifying the activity of the reduced Pd0/CeO2 catalysts for ethylene hydrogenation, a reaction that is known to require Pd0.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4214889171</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.dche.2022.100019</t>
+          <t>https://openalex.org/W3127625545</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Yandrapu &amp; Rao (2022)</t>
+          <t>Hadgu (2020)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Energy, economic, environment assessment and process safety of methylchloride plant using Aspen HYSYS simulation model</t>
+          <t>Integration of allotment garden in public green space for the social wellbeing of urban residents</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Methyl chloride is the starting material for various chemicals of industrial importance. Because of its toxic, flammable, and explosive nature, safety is also equally important. Based on its industrial importance and safety issues, this research focused on improving efficiency and process safety. In this research, a model simulating the methyl chloride production process through hydrochlorination of methanol is investigated. Using the simulation model results an attempt has been made to improve the methyl chloride production process plant's efficiency in the aspects of energy, economy, safety, and sustainability using process integration. Energy analysis improved the total utilities saving potential up to 36% by adding two new heat exchangers to the existing design. The payback period is reported as 0.63 years. Product cost is reduced by 2.78 USD per ton, Greenhouse gas emissions reduced by 26%, and carbon tax by 26.34%. The location of the pressure safety valves, orifice sizes are calculated for the entire process plant and the storage tank. A quantitative risk assessment was performed by hazard modeling studies using the ALOHA modeling tool for methyl chloride leak from the storage tank. The safety margin calculated is 1900 m. The results of this research can be implemented in process engineering design. The process design methodology using process integration and hazard modeling tools by integrating the energy, economic, and safety approaches at the initial design stages itself is useful to design efficient new plants and to increase the profitability and the safety of the existing methyl chloride production plants.</t>
+          <t>Background: Agriculture is among the relevant factors for the formation of cities and it has been an integral part of city life throughout history. Despite the increase in population growth, urban agriculture can offer a unique opportunity for improving the livelihood of individuals through the practice of growing food in urban green spaces. Nevertheless, maintaining urban green spaces as part of the urban fabric presents a unique challenge in an environment where there is a shortage of housing and urban space is limited for development. Allotment gardens might be seen as compensation for the lack of green space and private gardens in cities, especially in dense urban areas. However, due to the long waiting list for renting out, not everyone can get access to growing locally cultivated food and other benefits, especially people who are less privileged and cannot afford private gardens._x000D_
+_x000D_
+Objective: The aim of this thesis, therefore, was to design a proposal for urban green space, Ekebydalen, to show how to integrate allotment gardening with other social activities. Also, as an input to the proposal, the history of allotment gardens and the theory of sustainable wellbeing was reviewed, and local public participation was investigated._x000D_
+_x000D_
+Method: Literature was extensively reviewed in an attempt to identify relevant studies and better understand the context and characteristics of allotment gardens from a social and environmental context, the change in its land use, and accessibility; all in the perspective of the general development of urban agriculture and specifically in allotment movement through history in Sweden. Moreover, Site observation was conducted in a purposely selected allotment garden, Ekebydalen, Uppsala city. Also, an online and paper-based self-administered cross-sectional survey was done among 40 participants._x000D_
+_x000D_
+Result: 6 different allotment gardens were observed and characterized. Based on the case study (observation), the Ekebydalen allotment garden was chosen as the main site for further pro-posal development. (60%) of the respondents in the survey were middle-aged (30 -50 years old) women (77.5%), most of them with university education (88%) and Swedish background (90%). Despite the participants has reported living in close proximity to the gardens, around a fourth of them reported having waited for more than six months. Gardening and nature interest (100%), socializing (15%), food complement (62%), and maintaining wellbeing (65%) are the motivation for renting allotment gardens._x000D_
+_x000D_
+Conclusion: This thesis argues that the economic and wellbeing values of allotment gardens are perceived as highly significant compared to the social benefit that is allegedly seen less. Nevertheless, the social value can be seen as equally important if integrated as an activity with other social activities in a city, especially in urban communities that don’t have enough space for gardening and are caught in their busy lives. Moreover, a design strategy was proposed to show how the allotment garden can be integrated as an activity for cultivation and recreation use (Cultivation park). This thesis has also implied that policy support, institutional recognition, and strong political will from policymakers and planners are required to bring urban agriculture into city planning for improving the quality of life for the people living and working in cities.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2625344634</t>
+          <t>https://openalex.org/W2100076073</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5897/err.9000139</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Poshedin &amp; Chulaievska (2017)</t>
+          <t>Goderya-Shaikh et al. (2006)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>European Integration of Ukraine: Tool for Internal Reform, Source of Problems or Pass Ticket to EU Membership?</t>
+          <t>Ensuring quality during monitoring of the learning environment of government primary schools achieved through the UEI-PDP for teachers and head teachers</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Despite the signing of the EU-Ukraine Association Agreement, there would seem to be no alternative to the European choice for Ukraine, given the current Russian aggression; there are different views on the objectives and results of the European integration of Ukraine. This article examines three of the most common points of view related to this process: European integration as a tool for internal transformation in Ukraine; European integration as a pass ticket to the EU membership; European integration as a source of problems in Ukraine.</t>
+          <t>A positive change in the learning environment in schools is visible through ongoing professional development of teachers and administrators. Monitoring the professional development program and providing support to teachers and administrators to transfer their learnings into the school environment ensures some measures of quality. Quality issues led to the launching of the Professional Development Program (PDP) for Primary School Teachers (PSTs) of Sindh by the United Educational Initiative (UEI), a consortium of five Governmental and Non-Governmental Organizations, working under the supervision of Education Sector Reform Assistance (ESRA). Implementation of the UEI-PDP in four districts of Sindh, is ensured by a team of professionals in each district. Recognising that capacity building of district education employees would improve the educational system in the country, 130 Master Trainers were selected, on merit, from the District Education Office for the training of 17,000 teachers and 3000 Head teachers/administrators over a period of two years. This paper developed the design of a Monitoring Process for a Professional Development Program for Primary School Teachers and Administrators. Data was collected through Pre/Post observations, Interviews, Questionnaires and Reports. Such tools make it possible for the monitoring teams to observe, to inquire further, and, along with the Managers, Master Trainers and School Support Team, seek to explain the progress of the program and take corrective action where indicated. Both formative evaluations as well as summative  evaluation techniques are utilized for evaluating the program. The monitoring process that assisted in formative evaluations is described. In order to assist in summative evaluation, data collected through the monitoring process was further developed to categorize the schools where teachers and head teachers are trained. It is hoped that the categorization of the schools may lead to further improvements in those schools which fall in the group for need improvement. It may also initiate further research as to reasons behind why some schools are in the good category and why others fall in the average category.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124367417</t>
+          <t>https://openalex.org/W3156489184</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/asej.12157</t>
+          <t>https://doi.org/10.1016/j.heliyon.2021.e06660</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Lee &amp; Pyun (2018)</t>
+          <t>Stewart et al. (2021)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>North Korea’s Economic Integration and Growth Potential</t>
+          <t>Gendered stereotypes and norms: A systematic review of interventions designed to shift attitudes and behaviour</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>The growth projections based on cross‐country evidence show that North Korea could achieve higher economic growth in the long run if it embarks on substantial policy reforms toward a market‐oriented and open economy. Using an empirical gravity model of trade and direct investment, we forecast that, when the two Koreas pursue economic integration and cooperation without military conflicts, North Korea's trade with South Korea can increase by up to 36 percent of North Korea's GDP and its foreign direct investment (FDI) flows from South Korea by up to 6 percent of GDP. Overall, by promoting trade and FDI integration with South Korea, North Korea can boost its GDP growth by approximately 3 percentage points per year. Combined with a market‐oriented reform, the North Korean economy could grow by approximately 4.7 percent per year over the coming decades. Conversely, if more rigid sanctions imposed on North Korea become effective, its trade and investment will decrease and its GDP growth rate is expected to fall by approximately 2 percentage points per year.</t>
+          <t>In the face of ongoing attempts to achieve gender equality, there is increasing focus on the need to address outdated and detrimental gendered stereotypes and norms, to support societal and cultural change through individual attitudinal and behaviour change. This article systematically reviews interventions aiming to address gendered stereotypes and norms across several outcomes of gender inequality such as violence against women and sexual and reproductive health, to draw out common theory and practice and identify success factors. Three databases were searched; ProQuest Central, PsycINFO and Web of Science. Articles were included if they used established public health interventions types (direct participation programs, community mobilisation or strengthening, organisational or workforce development, communications, social marketing and social media, advocacy, legislative or policy reform) to shift attitudes and/or behaviour in relation to rigid gender stereotypes and norms. A total of 71 studies were included addressing norms and/or stereotypes across a range of intervention types and gender inequality outcomes, 55 of which reported statistically significant or mixed outcomes. The implicit theory of change in most studies was to change participants' attitudes by increasing their knowledge/awareness of gendered stereotypes or norms. Five additional strategies were identified that appear to strengthen intervention impact; peer engagement, addressing multiple levels of the ecological framework, developing agents of change, modelling/role models and co-design of interventions with participants or target populations. Consideration of cohort sex, length of intervention (multi-session vs single-session) and need for follow up data collection were all identified as factors influencing success. When it comes to engaging men and boys in particular, interventions with greater success include interactive learning, co-design and peer leadership. Several recommendations are made for program design, including that practitioners need to be cognisant of breaking down stereotypes amongst men (not just between genders) and the avoidance of reinforcing outdated stereotypes and norms inadvertently.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2765908228</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-981-10-5646-8_10</t>
+          <t>https://openalex.org/W3148695445</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Zhang &amp; Zhou (2017)</t>
+          <t>McInerney et al. (2007)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Development of China’s Agricultural Science and Technology (AST) System</t>
+          <t>Standards in education</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>China’s agricultural science and technology (AST) system has long been in a state of reform and development. Many years of practical experience and explorations have given rise to a system for innovations in agricultural science and technology and dissemination of applications, one of standardized management, with highly efficient operations, of strong capacity to innovate and compete, highly vigorous and full of vitality. We have accumulated rich experience and ascertained the direction of reforms.</t>
+          <t>PART I: Standards: Teaching Practice and Teacher Behavior The State of Play in Standards and Standards Reform, Martin Dowson, Dennis M McInerney, and Shawn Van Etten Teacher Risk Taking Changes in the Context of School Reform: A Sociocultural and Cognitive Motivational Perspective, Thomas G. Reio, Jr. and Sue Lasky Bridging Across the Mile-Wide and Mile-Deep Chasm: Living and Coping with Standards-Based Reform in Science Education, Junlei Li Educational Effectiveness: The Importance of Evidence-Based Teaching Practices for the Provision of Quality Teaching and Learning Standards, Kenneth J. Rowe Towards a Theory of Practice: Critical Transdisciplinary Multiliteracies, James Albright, Christopher S. Walsh, and Kiran D. Purohit PART II: Standards: Student Motivation and Engagement Identification with Academics, Stereotype Threat, and Motivation to Achieve in School, Jason W. Osborne, J. Thomas Kellow, and Brett D. Jones The Effects of ICT Standards on Educational Motivation and Learning: The Australian Experience, Juhani E. Tuovinen National Education in Singapore Schools: Challenges of Engagement and Motivation, Giok Ling Ooi Motivation in the Context of Project Work: The Self-Determination Perspective, Woon Chia Liu, Oon Seng Tan, C. K. John Wang, Caroline Koh, and Jessie Ee PART III: Standards: Specific Educational Activities and Environments Professional Preparation Standards for the Practicum, Catherine Sinclair Standards in Higher Education Distance Learning Environments: A Sociocultural Perspective, Martin Dowson, Stuart Devenish, and Julie Passmore Designing Educational Web Pages: The Standards for Activist Online Communications, Gulsun Kurubacak and Eyup Irgat Standards for Quantitative Research in Diverse Sociocultural Contexts, Phillip Parker, Martin Dowson, and Dennis McInerney The Contribution of Home Background to Student Inequality in Secondary Schools in Norway, Lihong Huang About the Contributors.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3173361705</t>
+          <t>https://openalex.org/W3121399330</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>https://doi.org/10.20491/isarder.2021.1234</t>
+          <t>https://doi.org/10.5089/9781475510256.001</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Yalçın &amp; Marşap (2021)</t>
+          <t>Park (2012)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Türkiye de Bireysel Emeklilik Sisteminin Yapısal Kırılma Testi İle Değerlendirilmesi (Evaluation of Individual Pension System in Turkey with the use of Structural Break Test)</t>
+          <t>Brazil’s Capital Market: Current Status and Issues for Further Development</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Purpose – This study aims at the effect of the state contribution application, which is one of the reforms made for the development of the private pension system in our country, on the system components in general to reveal the change in the development direction of the individual pension system before and after the state contribution application.
-Design/methodology/approach – This constitutes the research universe and pension companies operating in Turkey, 18 of the Pension Monitoring Center data they have transferred IBM SPSS (Statistical Package for the Social Sciences) was used in the redesigned work environment prior to analysis. The research model was designed to reveal the structural difference before and after the state contribution, and the development model of the state contribution fund amount was created. In this direction, system components were examined by trend analysis from time series analysis and chow test from structural breakage tests. The artificial variable effect was also examined in terms of determining the source of the structural difference.
-Findings – By analyzing the system components using statistical analysis methods, it was determined that a structural difference occurred in the system with the state contribution application as a result of the analysis. Based on the findings obtained in this context, it is seen that the development tendency of the system is found to be stronger after application of the state contribution.
-Discussion – In this study, which aims to reveal the effectiveness of the state contribution application in terms of the development of the individual pension system. It is thought that the research is important in terms of the trends towards the sustainability and developability of the state contribution application.</t>
+          <t>Capital market development in Brazil is a key policy issue going forward to foster savings, investment and absorptive capacity in a context of prospects for sizable capital flows in the medium term.During the last decade, Brazil has achieved substantial progress in capital market development.The menu of available financial instruments has been expanded, market infrastructure has been reformed and strengthened, and a diversified investor base has been built.Nonetheless, Brazil's capital markets are still facing a number of challenges including prevalent short-term indexation, investors' risk aversion to long-term fixed rate bonds, still low liquidity in the secondary market, and managing the role of BNDES.A shift to a lower yield curve environment should continue to gradually take place.But further progress will require continued policy effort to assure macro stability and financial sector reforms to promote the development of longer-term private finance.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2613770947</t>
+          <t>https://openalex.org/W2049373742</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/j.1467-9485.1993.tb00663.x</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Han (2017)</t>
+          <t>Collie (1993)</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>L'évolution historique de la politique monétaire chinoise</t>
+          <t>PROFIT‐SHIFTING EXPORT SUBSIDIES AND THE SUSTAINABILITY OF FREE TRADE*</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Au cours des six dernieres decennies, la Chine a connu un passage d’une economie planifiee a une economie de marche. Durant la meme periode, un changement profond a eu lieu dans les instruments et la mise en œuvre de la politique monetaire. Cependant, jusqu’a present, la politique monetaire chinoise se distingue considerablement de celui des economies de marche developpees. Durant la periode de l’economie planifiee, la Chine a adopte le systeme de la banque unique et le systeme de gestion des credits hautement centralisee. Ces systemes permettait a la Banque populaire de Chine (la BPC) de controler directement le volume d’emission de liquidites et les transferts bancaires par le plan de liquidites et le plan de credit afin d’ajuster les agregats monetaires. Durant la periode de la transition economique, la Chine a progressivement abandonne son systeme de la banque unique. Neanmoins, la BPC n’etait pas encore une banque centrale veritablement independante, parce qu’elle conservait une partie de ses operations de financement direct a l’appui du developpement des agents non-financiers. Meme si la BPC a commence a employer les leviers indirects pour ajuster la dynamique monetaire, elle a continue a mettre en œuvre les instruments d’ajustement direct. En 1994, annee ou la Chine a entame des reformes economiques plus importantes, a ete etabli un systeme de la banque centrale veritablement independant, qui a ensuite ete ameliore en 1998. La BPC a exerce, de facon exclusive, les fonctions d’une banque centrale et a mis en œuvre sa politique monetaire principalement a travers des instruments d’ajustement indirect. Cependant, la BPC n’a pas totalement abandonne l’usage du controle administratif direct sur les agregats de credits. L’autorite monetaire chinoise renforce progressivement le controle des activites du systeme bancaire parallele, la centralisation de la politique monetaire et son efficacite depuis 2014, par peur de la hausse du levier financier et de l’endettement eleve.</t>
+          <t>Scottish Journal of Political EconomyVolume 40, Issue 4 p. 408-419 PROFIT-SHIFTING EXPORT SUBSIDIES AND THE SUSTAINABILITY OF FREE TRADE* David Collie, David Collie Department of Economics, University of WarwickSearch for more papers by this author David Collie, David Collie Department of Economics, University of WarwickSearch for more papers by this author First published: November 1993 https://doi.org/10.1111/j.1467-9485.1993.tb00663.xCitations: 7 *An earlier version of this paper entitled ‘Export Subsidies and Retaliation’ was presented at the European Research Workshop in International Trade at Stockholm in June 1991, and at the Royal Economic Society Conference at City University in April 1992. The author would like to thank the participants, Morten Hviid, and two anonymous referees for their helpful comments. AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinked InRedditWechat Citing Literature Volume40, Issue4November 1993Pages 408-419 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>https://openalex.org/W604367427</t>
+          <t>https://openalex.org/W2153427598</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Jeffrey-Cook &amp; Rigby (1972)</t>
+          <t>Culhane et al. (2003)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Finance act, 1972, with annotations : income tax, surtax, capital gains and corporation tax provisions together with a survey of the whole act</t>
+          <t>The Impact of Welfare Reform on Public Shelter Utilization in Philadelphia: A Time-Series Analysis</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>The use of public shelters in Philadelphia was examined both before and after the implementation of Act 35, Pennsylvania’s response to the Personal Responsibility and Work Opportunity Reconciliation Act of 1996. Univariate interrupted time-series analyses were conducted to determine if trends in shelter utilization (the number of families admitted, by family size, by race, by age of household head, by income, by disability indicator, and by average length of stay) changed significantly after March 1997, the month in which Act 35 was implemented, or after 3, 6, 9, and 12 months of implementation. Results indicate that family size and household head age increased after the implementation of Temporary Assistance for Needy Families, although not at consistent lags. A small negative effect on self-reported substance abuse and a small positive effect on the proportion of household heads with a disability were found, but at inconsistent lags. As is the case with most evaluations of welfare reform, it is difficult to separate the effects of welfare reform and Philadelphia’s economy during the study period. To test the effect of Act 35’s implementation while controlling for economic factors, a multivariate regression analysis of family shelter admissions was conducted along with variables for the unemployment rate and for the consumer price index for the cost of rental housing. This analysis revealed a significant positive effect of unemployment and housing costs on public shelter admissions among families and no effect of the implementation of welfare reform.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4246297942</t>
+          <t>https://openalex.org/W3044363107</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4135/9781483300634.n282</t>
+          <t>https://doi.org/10.1016/s0140-6736(20)31639-1</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>NA (2008)</t>
+          <t>Devi (2020)</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Poll Tax</t>
+          <t>Ukrainian health authorities adopt hepatitis C project</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>With a relatively high proportion of the population infected with hepatitis C virus, the government is taking up an MSF programme to treat patients. Sharmila Devi reports. A project using generic drugs to treat hepatitis C in Ukraine, run by Médecins Sans Frontières (MSF), was transferred to local authorities earlier this month amid hopes that it will be implemented across the country, as Ukraine continues to reform its health system. An estimated 3·5% of Ukrainians live with hepatitis C, much higher than the European average of 1·5%. The causes include a large number of people who inject drugs, which has also led to high HIV rates, Karan Kamble, MSF's medical activity manager for the Ukraine project, told The Lancet. “There is a large vulnerable group of drugs users and a high prevalence of HIV, which has a direct correlation with hepatitis C”, he said. “Also, the health structure of any post-Soviet country needs time to reform and grow its health-care system.” However, it was uncertain if Ukraine would continue the Mykolaiv project after the drugs donated by MSF ran out in late 2021, he said. The MSF project started 3 years ago in the Mykolaiv region on the Black Sea coast in southern Ukraine. Under a model developed with the Ukrainian Ministry of Health, generic drugs were used for the first time to treat hepatitis C for free, and MSF provided tests, laboratory equipment, and supplies. Previously, patients would have had to pay for treatment themselves, which vulnerable groups would have found extremely difficult, said Kamble. On offer was the WHO-recommended combination of daclatasvir and sofosbuvir, which is effective for treating all types of hepatitis C after 12–24 weeks, and has fewer side-effects than pegylated interferon. The new treatment regimen has had a cure rate of almost 94% in Mykolaiv. MSF and other groups continue to campaign for generic versions of sofosbuvir, which has been estimated to cost about US$5 to make, whereas brand-name regimens cost thousands of dollars in the USA. “After MSF came, generic versions were registered in Ukraine and [their] use has been adopted by the ministry of health, but there are many health and other challenges in the country”, said Kamble. “For example, the HIV budget has been cut to $55 per patient. In India, first-line drugs cost a minimum of $80 per patient and second-line drugs around $400.” Ukraine could reach the WHO aim of eliminating viral hepatitis as a public threat by 2030 if there was concerted action, said Antons Mozalevskis, medical officer for the joint tuberculosis, HIV, and viral hepatitis programme at the WHO Regional Office for Europe. “Ukraine has the potential to reach those targets due to improved access to low-cost quality medicines, strong collaboration between the government and civil society sector, and political commitment”, he told The Lancet. 1163 patients have been treated for hepatitis C in Mykolaiv and just under 300 are awaiting testing, which has been delayed because of COVID-19. Patients living with HIV or undergoing opioid substitution therapy were also offered psychosocial support. Medicines have been delivered by post and support given by telephone during the pandemic. Among the challenges in efforts, such as MSF's, to scale up treatments was knowing exactly how many people were infected with hepatitis C, said Mozalevskis. “The figure of 3·5% is our best guess in the absence of a proper serology survey as has happened in Georgia, for example”, he said. Combating hepatitis was firmly on the Ukrainian Government's agenda, but health reforms had taken many years and were not yet complete, he said. WHO conducted a hepatitis response assessment mission in 2017, at the request of the government. Its report said there was “increasing awareness and commitment to responding to viral hepatitis by the majority of government and non-government stakeholders. Still, at the national level hepatitis response is currently fragmented.” Planning for health needs in Ukraine has been difficult because of decentralisation in the large country, which has a population of around 42 million. “Compared with Georgia and the republics of Moldova and Belarus, Ukraine is big and this is why it's difficult to coordinate and decentralise treatment programmes and planning to the regions”, said Mozalevskis. “Presently, the regions send requests for medicines to the central level, the ministry of health, and public health centre. This could be improved with, for example, a national registry to implement hepatitis C treatment projects.” To this end, WHO has been working with all partners, including the government and civil society, to improve outcomes, he said.</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>https://openalex.org/W203885628</t>
+          <t>https://openalex.org/W2017103452</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/jqr.2014.0003</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Howard (2005)</t>
+          <t>Dynner (2014)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Primary School educators' beliefs about suspension and exclusion of students with challenging behaviours</t>
+          <t>“A Jewish Drunk Is Hard to Find”: Jewish Drinking Practices and the Sobriety Stereotype in Eastern Europe</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>A growing international research base is suggesting that there can be no more serious sanction taken against children of primary school age than to withdraw their rights to attend school through suspension and exclusion - referred to in Queensland as School Disciplinary Absence (SDA). The short and long-term detrimental consequences of SDA to student recipients, their families, and social structures are well documented. Yet, SDA remains as a controversial, often policy-supported means to manage challenging student behaviour increasingly used by Queensland government schools. To contribute to this growing research, this project examines the potential influence of an array of principals' and teachers' beliefs on their decisions regarding the use of SDA within five government primary schools in Queensland. The study adopts a multi-method, case-study approach and is informed by social constructionist and critical theory perspectives. It draws from Rokeach's (1968) conceptualisation of the human belief system as having a number of sections where particular stated beliefs may be influenced by more powerful beliefs situated within another part of the system, which may (in turn) influence decisions and actions. Data were drawn from school documents, surveys, and interviews. Survey data revealed strong support for the use of SDA but interview data suggested that most participants believed that SDA was ineffective and held overriding concerns for the wellbeing and education of students exhibiting challenging behaviours. In some cases, particular beliefs were shown to override this unfavourable view of SDA and cause educators to become more likely to endorse its implementation. The study examines the complex construction of a variety of educator beliefs regarding SDA in general, the types of students who are more at risk of SDA, school and educator responsibility for supporting these students, and factors believed to prevent or make it difficult to avoid the use of SDA. Also, participants' concerns and recommendations regarding SDA are examined and implications for professional practice and school reform are considered.</t>
+          <t>“A Jewish Drunk Is Hard to Find”: Jewish Drinking Practices and the Sobriety Stereotype in Eastern Europe Glenn Dynner Indeed, one frequently observes in life how great and even monumental consequences are the product of minute causes. A peasant sows wheat; a miller mills some of it into flour; the rest finds its way to a distillery where it is made into vodka; a portion of both is delivered to Gittel the tavernkeeper; she adds a bit of yeast and water to the flour, kneads it, and rolls it into knishes; in her pantry, thanks to the Phoenicians, who invented the art of glassmaking thousands of years ago, are some glasses; and when the vodka is poured into them, and the hot knishes are put on platters, and these are set before a band of hungry and thirsty Jews, there is no telling what may happen . . . S.Y. Abramowitsh, The Brief Travels of Benjamin the Third The Jews, according to the Polish noble and social reformer Antoni Ostrowski, “are always sober, and this virtue should be conceded: drunks are rare among Jews.”1 This seemed to be the consensus among Polish elites during the nineteenth century, the era of the partitions. Only Jews, it was believed, were immune from the current epidemic of drunkenness that had depleted the Polish nation’s strength at a time when strength was most desperately needed. Even prominent Catholic clergy admonished parishioners to learn from the temperance of the country’s Jews. “Although he supports himself by dealing in drinks,” Father Karol [End Page 9] Mikoszewski observed, referring to the Kingdom of Poland’s thousands of Jewish tavern keepers, “a Jewish drunk is hard to find.”2 It was not always meant as a compliment. According to many Polish social reformers, Jewish tavern keepers only stayed sober in order to more effectively exploit their naive peasant customers, seeing to it that they ran up their tabs and became drunk enough to swindle.3 A peasant memoirist named Jan Slomka similarly described his neighbors spending hours in taverns “making themselves at home, taking their drink: while the [Jews] got more out of them, exploiting their weaknesses.”4 A peasant proverb warned ominously that “the peasant drinks at the inn and the Jew does him in.”5 Government officials used these suspicions about Jewish sobriety to justify their efforts to penalize, restrict, and ban Jewish participation in the lucrative liquor trade.6 But the positive side to the stereotype probably outweighed the negative. The Polish nobles who actually owned the majority of taverns and distilleries were so convinced of Jewish sobriety that they all but refused to lease them to anyone else. Only Jews, they were conditioned to believe, could restrain themselves from drinking up the product. As a result, when the Russian, Prussian, and Austrian regimes that ruled the formerly Polish lands tried, in turn, to drive Jews out of the liquor trade, most nobles instructed their Jewish tavern keepers to prop up Christian bartenders as “fronts” and carry on business as usual. Over the course of the nineteenth century, officials and social reformers alike grumbled rather helplessly that “Jews everywhere” continually evaded Jewish-specific concessions and bans by hiring Christians to sell their liquor.7 [End Page 10] From the Jewish perspective, maintaining an image of sobriety was thus critical for the continual awarding of tavern leases.8 In addition to this obvious economic advantage, however, the sobriety stereotype helped East European Jews sustain an internal sense of cultural superiority. No matter how marginalized or excluded, Jews could still compare themselves favorably to the daily spectacle of drunken gentile clientele presented in their taverns. Who can forget the pungent descriptions in some of the classics of Hebrew and Yiddish literature—H. N. Bialik’s father’s customers, who “sated themselves amid vomit, monstrous faces corrupted and tongues flowing with invectives” as Bialik imbibed whispered words of Torah from his father’s lips; or S. Y. Abramovitch’s “whole groups of country folk, some of them tottering on their legs, or already fallen; others keeping their feet, though by now on their fourth or fifth round,” in contrast to the “lively Jewish matron” seated...</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2308504533</t>
+          <t>https://openalex.org/W3016549115</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.24158/fik.2020.4.14</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Zissopoulos et al. (2008)</t>
+          <t>Клименко (2020)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Eutaxy-ML: meta language to homogenize a product for distribution in a custom made barter network</t>
+          <t>Освещение проблем истории малого и среднего предпринимательства на Дальнем Востоке в переходный период к рынку в отечественной литературе</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>A new standard belonging to SGML class of languages is proposed under the term EUTAXY ML. This new definition will facilitate Business to Business barter along European SMEs. Apart this straightforward approach of EUTAXY-barter sales and delivery network, a number of significant developments are made: innovative product comparison expert system, an arbitrage court, insurance fund, internal tax system, automated sensors for contracting and a new generation of workers.</t>
+          <t>The research of the formation of entrepreneurship in the era of market reforms in Russia is an urgent issue that is important for understanding the transformation process. The article considers the main problems of small and medium-sized enterprises in their coverage of domestic and foreign researchers. The study emphasizes the debatable nature of assessments, highlighting several factors of this historiographic situation: the appearance of publications at different stages of denationalization as a major historical event, including the incompleteness of the privatization process, the non-recognition of its legitimacy in the public mind, the inclusion of authors with different political views, and party belonging, inclusion in the socio-political analytics of publicists and historians of different generations. Various approaches and aspects of studying the problem both at the state and regional levels are given, taking into account the chronological stages of the study. The author has cщme to the conclusion that one of the promising areas in the study of small and medium-sized enterprises can become a socio-anthropological approach. The possibilities and prospects of further study of this issue are analyzed.</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2083256500</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/13504630.2012.652846</t>
+          <t>https://openalex.org/W796780961</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Mahdavi (2012)</t>
+          <t>McKenzie (2005)</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Questioning the global gays(ze): constructions of sexual identities in post-revolution Iran</t>
+          <t>Building Institutions for Sustainability: A New Zealand Case Study</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>This paper seeks to question the global discursivity about sexual politics in Iran while examining ways in which the discourse constructed about sexuality in Iran (by those outside Iran) contrasts with lived experiences and actual narratives of young Tehranis as they speak about their own sexual identities. The author begins by drawing on ethnographic fieldwork conducted between 2000 and 2007 with young people (ages 18–30) in urban Tehran and Mashhad, which looks at what young Tehranis refer to as ‘Iran's sexual revolution’, or enqelab-i-jensi, in their own words. In detailing ways in which the discourse on sexuality and sexual identity is changing, this paper talks about the politicization of the body by members of the regime, as well as the strategic deployment of sexuality and the comportment of resistance as young people's involvement in the sexual revolution in Iran paves the way for their involvement in pushing for social and political reform. The sexual revolution taking place in Iran today is trying to reformulate sexual identity, and trying to carve out a space to talk about, think about, and experiment with sexualities not sanctioned by members of the regime. In this paper, I aim to describe the strategic construction of sexual identity, chronicling the transition in the narratives of my interlocutors who insisted, up until 2005, that the hetero/homo binary – so fixed in the ‘West’ – did not exist nor translate in the Iranian case, as they move in the space between the fluidity of sexual identity, to the politicization of sexuality towards social reform.</t>
+          <t>One of the most important challenges facing Western capitalist societies at the beginning of the 21st century is how to achieve sustainable economic, social and environmental futures. The successful translation of the principles underpinning sustainability into concrete outcomes is dependent on the institutional context within which political contests over alternative futures take place. It is as important to build an institutional fabric that preserves sustainability options for future generations as preserving the environment itself.
+The importance of aligning juridical-political institutions with the principles of sustainability has become embedded in international political agreements, global action plans such as Agenda 21 and national and international policy discourses. Yet little attention has been paid to investigating the impact of juridical-political institutions on the achievement of sustainable futures let alone implementing these recommendations.
+Between 1984 and 1991 New Zealand actively reconfigured its juridical-political environmental institutional fabric. The reform process was driven by a desire to create a new market based long wave of economic growth and to actively incorporate the principles underpinning sustainability into the juridical-political institutional fabric. The reforms involved the restructuring of the national state's environmental bureaucracy, the reorganisation of regional and local government and a comprehensive review of environmental and planning legislation that resulted in the enactment of the Resource Management Act l99l (RMA).
+This dissertation aims to test common assumptions about the importance of juridical-political change for sustainability. It investigates the extent to which juridical-political institutions help to secure sustainable outcomes drawing on a geographically inspired, theoretically informed investigation into recent attempts to manage the water quality of New Zealand's largest lake, Lake Taupo. The dissertation argues that juridical-political institutions for sustainability have a regulatory role and a governance role. In the former instance, they attempt to redefine the relationship between economy, society and environment in a manner that supports continued capitalist accumulation. In the latter instance, they establish the rules within which particular contests over environmental futures are fought. The precise outcome of contests over the environment depends on the complex interaction of institutions, material factors, actors, strategies and discourses. Juridical-political institutional change may help to steer society towards sustainability. It does not, however, guarantee sustainable outcomes. While it is important to build juridical-political institutions that incorporate the principles underpinning sustainability the process of achieving sustainability requires also requires reflexive political action and value change through society.
+Key words: juridical-political institutions, sustainability, regulation, governance, water resource management,…</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2257693017</t>
+          <t>https://openalex.org/W4297120720</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.17159/sajs.2022/13340</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Dw (1995)</t>
+          <t>Dunjana et al. (2022)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>In Japanese, there is no word for abstinence. Report from the 12th World Congress of Sexology.</t>
+          <t>Sorghum as a household food and livelihood security crop under climate change in South Africa: A review</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>The 12th World Congress of Sexology took place in August 1995 in Japan under the sponsorship of the World Association for Sexology, a conglomerate of 60 member organizations representing 25 countries. The conference focused on sexuality education, and participants from around the world recounted how sexuality education and sexual rights are being politicalized in their countries. Sexuality professionals world-wide look to US professionals for information about effective programs, resources, and research, but the US has a great deal to learn from countries such as those in Scandinavia which have extremely low levels of unplanned pregnancy or sexually transmitted diseases as a result of their commitment to sexuality education and services for young people. During the Congress, debates centered around whether the nature of sexuality is a social construct or is innate and universal. The biological nature of sexuality was explored, and reports of sexuality surveys from around the world revealed surprisingly similar patterns of behavior. Homosexuality emerged as the issue most shaped by culture. In some countries, male same-sex behavior is recognized without being categorized into a separate identity. Terminology for sex behavior also differs across cultures. For example, there is no word for "abstinence" in Japanese or in Swedish. Conference participants were urged to exchange information, expand their work in sex education to "sexuality" education, evaluate their efforts, educate themselves and others, and encourage reforms to assure sexuality education and sexual rights.</t>
+          <t>Extreme events, declining rainfall and increasing temperatures under climate change threaten smallholder households’ food and livelihoods security. The potential of sorghum (Sorghum bicolor [L.] Moench) to contribute to food security and livelihoods of smallholders in South Africa has not been realised, despite its resilience to heat and drought, due to its marginalisation in research, breeding, the scale of production, and policy support. Consequently, to reduce vulnerability and boost sorghum’s position as a key climate change adaptation crop, in this review we examined some biophysical, socio-economic, socio-cultural and institutional barriers that constrain its production and performance on smallholder farms in South Africa. We further suggest pertinent issues to be addressed to improve production and productivity on smallholder farms. Increasing awareness, policy development and support, and capacitation of extension services, as well as improving market access, agronomic and cultural practices, and availability of more locally adapted sorghum varieties are requisite factors in addressing the prevailing constraints limiting sorghum production. Furthermore, tailored and site-specific studies at farm and landscape level are imperative for informed management and decision support. Thus, an integrated and multidisciplinary approach is key in fostering significant improvement in sorghum production and performance in smallholder systems in South Africa to reduce climate change vulnerability. Significance: Sorghum has the potential to bolster food and livelihoods of smallholder farmers in South Africa. Socio-economic, socio-cultural and biophysical challenges limit sorghum production and performance in South Africa. An integrated and multidisciplinary approach is required to optimise the opportunities to improve sorghum production and performance in South Africa.</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2382883728</t>
+          <t>https://openalex.org/W843695823</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-1-4899-6683-4_5</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Liu (2010)</t>
+          <t>Gould (1985)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Thoughts about Curriculum Reform of Building Materials in Higher Vocational Colleges</t>
+          <t>The Effects of Acid Rain</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>According to the requirements of curriculum reform and its own features,explore the reform of curriculum building materials from some aspects:such as programme targets,course contents,teaching methods,teaching aids,and assessment methods.</t>
+          <t>Water is the most important substance on earth, and acidity is one of its key properties. Everything on earth — living and inanimate — is either composed of water or in contact with water at some time in its existence. It is not surprising then that acid rain has caused profound environmental changes, some benign, some alarming. The challenge to scientists has been to determine what changes have already taken place, and to predict what future effects will emerge. Acid rain is an intricate scientific puzzle that has taxed the entire range of physical and life sciences.</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2326022135</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/0896920514544042</t>
+          <t>https://openalex.org/W2174243955</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Mannion (2014)</t>
+          <t>Erling (2015)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Autonomy, Race, and State Reproduction of Status: Durkheim and Weber on Education and Immigration</t>
+          <t>The Relationship Between English and Employability in the Middle East and North Africa</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Durkheim and Weber contributed a neglected, but substantial and controversial body of literature to the topics of education and immigration. A sanitized version of Durkheim and Weber exists in the literature that should be critically revisited. Durkheim’s work fails to engage the implementation of one of the most selective school systems, Weber’s work contains Darwinian, racial overtones in response to Polish migration. Durkheim and Weber’s articulation of autonomy vis-a-vis their subjects of inquiry is examined. The article argues that a limited and restricted version of autonomy out of necessity impaired the progressive potential of the policy reforms that Durkheim and Weber pursued. It draws on McNally’s concept of a ‘feudalized’ bourgeois elite aligned with nationalist interests in order to explain Durkheim and Weber’s conservative, statist solutions for education and immigration, and the administrative, political reproduction of class distinctions that were to follow in France and Germany.</t>
+          <t>This report explores what is known about the relationship between English language learning and employability in the Middle East and North Africa (MENA). _x000D_
+_x000D_
+Section 1 summarises the economic situation in MENA and describes some of the approaches to reform that have been proposed to generate economic growth, which include labour market reform (a focus on demand), and investment in education and changes in education systems (a focus on supply). It concludes with a collated list of recommendations for reforming MENA economies._x000D_
+_x000D_
+Section 2 provides an overview of education systems in MENA and educational policy attempts to respond to economic and social needs in the region. Included in these reforms are proposals to enhance both access to and quality of education; making education more responsive to the needs of the private sector; and expanding and improving English language teaching. This section also presents an overview of the data that exists on the relationship between economic development and education that is relevant to the region. It demonstrates that overall investments in education, though significant in many countries across the region (and particularly in the Gulf Cooperation Council (GCC), have not resulted in the expected outcomes (i.e. significant improvements in the provision of education). _x000D_
+_x000D_
+Section 3 looks at the role and status of English in society and in education systems across MENA, and considers the role of the language in promoting employability. The section first reviews the evidence that relates English language learning to economic gain for nations and individuals, paying heed also to the results that have been found elsewhere. It suggests that there is a relationship between English language skills and economic gain, but the benefits at a national level are limited by the wider system and factors such as macro-economic stability, good governance and transparency. Similarly, a person’s social environment and individual circumstances limit the returns of English at an individual level. So without targeting the long-embedded inequalities in terms of gender, ethnicity and the urban-rural divide, education in general – and English language education in particular – is not likely to provide disadvantaged individuals with the resources that they need to catch up. There is little quantitative evidence from the MENA region that would allow us to make claims such as “an individual who speaks English earns X% more than an individual that doesn’t” – and this might be the type of evidence that parents and policy makers would most like to see. But even when such claims are made, they are restricted to certain employment sectors and geographic regions and cannot be generalised to whole populations or regions. _x000D_
+_x000D_
+Evidence also shows that while English language skills are related to economic opportunities, the same can be said of any language skills. Multilingualism is very valuable for societies, and it is certainly not the case, as was once thought by some, that multilingualism acts as a barrier to economic development. This provides good justification for ensuring that local and national languages maintain a strong role in societies, and that children are offered opportunities to develop a strong foundation of literacy and communication skills in local languages, which will then, in turn, ensure a strong basis for second language learning. _x000D_
+_x000D_
+Section 3 ends with a review of the emerging research into English language teaching programmes and programmes in higher education that are using English as medium of instruction (EMI). These studies highlight the serious challenges involved in implementing effective English language teaching initiatives in the region. They also uncover clear needs to develop teachers’ competences in student-centred, communicative teaching approaches, as well as abilities to deliver sector-specific, authentic ESP programmes. Research into EMI raises severe concerns about the efficacy of such programmes in MENA and the opportunities for students to access learning through English. Moreover, the research uncovers concerns among some MENA populations (overall but particularly in the GCC) of dominance of global culture over local values, as well as efforts to maintain local values, cultures, religion and languages. _x000D_
+_x000D_
+This research therefore implies that offering quality English language teaching is a challenge in the region. Offering education through English as the only medium seems likely to act as a further hindrance to learning. Despite the significant investment of governments and individuals, even in some of the most generously funded education systems in the world, these challenges persist. This suggests that there are wider issues at stake, and that there is a need for significant transformation in education systems and traditions. Access to high quality English language teaching should be equitable, and should offer individuals opportunities to enhance their c</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2258513842</t>
+          <t>https://openalex.org/W4384569162</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1230751</t>
+          <t>https://doi.org/10.52260/2304-7216.2023.1(50).28</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Kendrick (1935)</t>
+          <t>Kishibaeva et al. (2023)</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>The Processing Taxes and Some Problems Raised by Them</t>
+          <t>ANALYSIS OF CAPITAL STRUCTURE AND FINANCIAL STABILITY OF AN ENTERPRISE</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Agricultural commodities on their way to consumption are usually subjected to one or more processing operations in order to prepare them for use. Individual definitions of processing are given in the agricultural adjustment act for six of the fourteen commodities designated by it as basic. Thus, the processing of wheat, rice and corn means the milling or other processing (except cleaning and drying) of wheat, rice, or corn for market, including custom milling for toll as well as commercial milling, but not include the grinding or cracking thereof not in the form of flour for feed purposes only. The processing of cotton means the spinning, manufacturing, or other processing (except ginning) of cotton; and the term 'cotton' does not include cotton linters.</t>
+          <t>Нарықтық экономика жағдайында кәсіпорындардың өзінің қаржылық-шаруашылық қызметін қажетті қаржы ресурстарымен қамтамасыз ету олардың өз мойындарында. Кәсіпорындардың меншікті және қарыз қаражаттар тарту нәтижесінде қалыптасқан капитал құрылымы оның қызметінің тиімділігін, бәсекелсетік ортадағы өміршеңдігін, қызметінің түпкі мақсаты болып табылатын табыстылығын анықтап беретін бастапқы фактор болып табылады. Капитал құрылымын оңтайландыру - кәсіпорындардың қаржылық тұрақтылығын басқару жүйесінің ажырамас бөлігі. Экономикалық жағдайдың, салық заңнамасының, бәсекелестік күштерінің өзгерістеріне бейімделудің үздіксіз процесі. Мақала авторлары көміртегі шикізатын өндіру және сату кәсіпорындарының капитал құрылымын және оның құнын анықтаудың теориялық және әдістемелік негіздеріне сүйене оты In a market economy, enterprises must provide their financial and economic activities with the necessary financial resources. The capital structure formed as a result of attracting the company's own and borrowed funds, the initial factor is determining the effectiveness of its activities, viability in a competitive environment and the ultimate goal of its activities and profitability. Optimization of the capital structure is an integral part of the financial stability management system of enterprises. This is a continuous process of adaptation to changes in the economic situation, tax legislation, and competitive forces. The authors of the article, relying on the theoretical and methodological foundations for determining the structure of capital and its value of enterprises producing and selling carbon raw materials, conducted an analysis based on the data of their annual financial statements on the assessment of the structure and cost of capital, the development of analysis techniques, financial stability coefficients. The article analyzes the capital structure of enterprises, JSC "Caspian Oil", 2019-2021. it is established that the existing capital structure has a significant excess volume of borrowed funds and ensures their financial stability in the market. The company — JSC "KMK Munai" turned out to be financially unstable. It is proposed to develop proposals to improve the financial condition of the enterprise, to ensure its financial security.</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2164758648</t>
+          <t>https://openalex.org/W2314395732</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9781849774796-8</t>
+          <t>https://doi.org/10.3184/003685016x14528569315192</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Achterhuis et al. (2010)</t>
+          <t>Rhodes (2016)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Water Property Relations and Modern Policy Regimes: Neoliberal Utopia and the Disempowerment of Collective Action</t>
+          <t>The 2015 Paris Climate Change Conference: Cop21</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Water policies and reforms are mostly discussed in seemingly neutral terms,
-focusing on technical, administrative, legal or institutional means of allocating
-water most efficiently and effectively. The use of technical policy language
-makes water reforms appear as politically objective. Our aim with this chapter
-is to show that this is dangerously inaccurate. We argue that water reforms are,
-instead, deeply political. As we have argued elsewhere, this is because they
-entail far-reaching redistributions of water – and of water rights, water power
-and water-based profits (Boelens and Zwarteveen, 2005). But water reforms
-are also an intrinsic element of the larger project of neoliberalism. For a critical
-analysis of water reforms, then, there is merit in seeing water reforms as
-exponents of this larger project, as driven by the dream and mission to create a
-free market utopia.</t>
+          <t>Introduction and overview COP21 (1) is the latest in the annual Conference of Parties, which began in Berlin in 1995, with a main aim to review the implementation of the Convention--the UN Framework Convention on Climate Change (2) (UNFCCC)--which entered into force on the 21 March 1994. The UNFCCC was adopted at the Rio de Janeiro Earth Summit of 1992, and sets out an overall framework intended to stabilise atmospheric concentrations of greenhouse gases (GFIGs) so to prevent dangerous anthropogenic interference with the climate system. The UNFCCC membership is now practically universal and, as of December 2015, consists of 197 parties. Some of the more significant conferences (and their associated actions) include COP3 (Kyoto Protocol adopted), COP 11 (Montreal Action Plan agreed), COP 15 in Copenhagen (agreement not achieved to implement the Kyoto Protocol) and COP 17 in Durban (Green Climate Fund agreed). COP21 stands out from all previous conferences (1), in that it aimed to limit the rise in global temperatures to well below 2 [degrees]C above pre-industrial levels (with the background target being 1.5 [degrees]C), by establishing a universal agreement on climate, among all the nations of the world, that is legally binding. The negotiations at COP21 led to the Paris Agreement3 being adopted on 12 December 2015, which governs measures for climate change reduction from 2020, and concluded the work of the Durban platform, which was set out as part of the activities of COP 17. However, it is required (3) that 55 countries which produce at least 55% of the world's greenhouse gas emissions (Figure 1) ratify the Agreement, in order for it to enter into force and become fully binding. The Agreement must be signed in New York between 22 April 2016 and 21 April 2017, by these parties, who must also assimilate it, as appropriate, within their own legal systems, via ratification, acceptance, approval, or accession. However, it is speculated that some parties, particularly the United States, may not agree to do so. Indeed, although it is a requirement that each country that ratifies the agreement must set a target for its reduction in emissions, there is no compulsory amount for this (4). Moreover, there is to be no means to compel the setting of a target by a specific date nor penalty measures imposed should a set target not be met (4) (in contrast with the more specific and draconian Kyoto Protocol). Any noncompliant countries will merely be named and shamed, which has contributed to severe criticism of the whole enterprise, e.g. by such eminent figures as James Hansen, who is quoted (5) as saying: [FIGURE 1 OMITTED] a fraud really, a fake. just bullshit for them to say: 'We'll have a 2 [degrees]C warming target and then try to do a little better every five years.' It's just worthless words. There is no action, just promises. As long as fossil fuels appear to be the cheapest fuels out there, they will be continued to be burned. At COP21, particular focus has been given to two primary issues: namely, whether the critical temperature limit should be set at 1.5 [degrees]C or 2 [degrees]C above preindustrial levels; and the appropriate level of funding that should be awarded by developed nations to developing countries that are potentially vulnerable to sea-level rise, and to expectedly more severe weather events (5). In Hansen's view, all of this carries little weight without taxes for greenhouse gas emissions being imposed equally and globally, being of the belief that this is the only strategy that can drive reductions in greenhouse gas emissions at the relatively rapid rate that is necessary to mitigate the worst possible scenarios of climate change (5). However, the United States Secretary of State, John Kerry has opposed Hansen's criticisms of COP21, and is adamant that the deal will auger in a global replacement of fossil fuels by renewable energy sources (6). …</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2376930546</t>
+          <t>https://openalex.org/W3214772502</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.37020/jgtr.6.2_163</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Hou (2013)</t>
+          <t>Shimauchi (2021)</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Discussion on Reforms of National S&amp;T Plan in the Twelfth Five-Year Period——the Change and Challenges of Funds</t>
+          <t>Renewed focus on cycling</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Comparison of the two types of National ST Plans('863'projects and 'ZHICHENG' projects) in agriculture area in the twelfth five-year period with the eleventh five-period,it can be concluded that there is a rapidly increase of indirect costs while a sharp decrease of supporting funds,and a slightly increase of labor costs with a small decrease of instruments costs and international collaboration costs.Furthermore,some focus topics,such as indirect costs and collaboration funds were also discussed.</t>
+          <t>In European countries, interests in the bicycle resurged since 1970s for as a clean, light, sustainable and humane means of personal transport. In this paper, we overviewed the measures taken by Luxembourg, one of the founding nations of the EU, in terms of cycling promotion. The country has been heavily dependent on personal vehicle for transportation, causing various economic and ecological problems. To address the issues, the government has been implementing policies for modal shift from private vehicles to public transport and soft mobility such as walking and cycling. The policy packages to promote cycling encompass multiple pillars, such as cycle sharing system, cycle path construction and purchase subsidies. One notable program is Vëlosummer, which aims to support domestic hospitality sectors through cycle tourism.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2909620316</t>
+          <t>https://openalex.org/W2546497054</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-3-319-98860-3_4</t>
+          <t>https://doi.org/10.1111/1468-2346.12771</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ding &amp; King (2019)</t>
+          <t>Vogler (2016)</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>China and Hong Kong</t>
+          <t>An unfinished foundation: the United Nations and global environmental governance. By Ken Conca</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>This chapter tells two distinct stories. The first charts the construction and evolution of China’s cultural policy since 1949 and reveals its relationship to the country’s transition from planned to market economy and consequent reforms of political, economic, and cultural institutions. This context is important for the second story, where we examine the retrocession of a former colony of the UK, Hong Kong, back into China. This transition is also, for the arts and cultural institutions of Hong Kong, as dramatic as the changes taking place in similar sectors in China. These stories converge in their response to change, and the evidence suggested in this chapter reveals that this is not an easy process. Each is following a journey that might be described as traveling in opposite directions, and yet they also need to meet somewhere in the middle in the not too distant future. The obvious question is whether they will collide, which will result in something getting broken, or will they find a workable solution? Indisputably arts and culture will play a key role in China over the next few decades, and uppermost in this will be the different perceptions of the role and value of cultural governance.</t>
+          <t>An unfinished foundation: the United Nations and global environmental governance. By Ken Conca. New York: Oxford University Press. 2015. 301pp. £64.00. isbn 978 0 19023 286 3. Available as e-book. An unfinished foundation is a rare book, combining scholarship with optimism and proposals for a set of reforms designed to make the United Nations a ‘stronger foundation for global environmental governance’. This book is also unusual in its focus on that ‘most formal and conventional of international institutions’ (p. x), when its author, Ken Conca, is well known as an engaged scholar of environmental politics who has been, as he admits, generally sceptical of formal political processes, concentrating instead on transnational green activism in the search for a more sustainable world. Rather than simply criticizing the manifest failures of the UN in this regard, he explores its potential as a framework within which a more effective movement for global change can thrive: ‘The UN itself will not be the source for such a movement. However, mobilizing the powerful ideals embedded in its mandate—strengthening people's human rights in, around and through nature, and securing for them a more peaceful and less vulnerable footing in the human and natural worlds—can surely help to build it’ (p. 216).</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3214760993</t>
+          <t>https://openalex.org/W2778474253</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.3081940</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Pięta (2017)</t>
+          <t>Maurer (2017)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Paweł Swianiewicz, Adam Gendźwiłł, Julita Łukomska, Anna Kurniewicz. Wielkość gmin i powiatów a sprawność ich funkcjonowania. Hipotezy wielkoludów i liliptów. – Warszawa : Wydawnictwo Naukowe SCHOLAR, 2016. – 191 p.</t>
+          <t>Digital Publishing: Three Futures (and How to Get There)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>The dispute which concerns the size of municipalities and administrative division of countries is constantly current in academic debate and also in political actions. These issues are especially important for areas which have limited experience and practice of democracy and self government. An example of this type of area is Poland, where self government has de facto a short history, therefore a lot of global trends and solution in this issue are implemented with delays. The most significant change in Poland was the public administration reform in 1999 which reduced the number of provinces (voivodships) and restored counties. After implementation of these reforms there were a lot of discussion of scientists and politicians about further reducing of number of voivodeship. Currently an important issue is the separation of the area of Warsaw city from the Mazovia voivodeship. The main imperfection of previous considerations and research on this issue in Poland is the conviction about some well-worn myths such as statement, that small municipalities perform their tasks much better than bigger units. The book of Pawel Swianiewicz, Adam Gendźwill, Julita Łukomska and Anna Kurniewicz is noteworthy and innovatory attempt of explanation of the relationship between the effectiveness of functioning of municipalities and their size.</t>
+          <t>The usual assumption that copyright rewards creativity is a fiction. In practice, most authors earn very little compared to their publishers. This article asks what services, if any, publishers supply to justify these payments. We argue that the only reasonable candidate is search, i.e. finding worthwhile titles among the million or so books written each year. _x000D_
+For most of the 20th Century, there was just one search technology: Human judgment. This led to a complex ecosystem of editors, bookstore owners, reviewers and other middlemen. The difference in the 21st Century is the emergence of a second technology – “Big Data” – that could make traditional methods obsolete. But in that case what new institutions will implement it? Depending on how Big Data evolves, we can anticipate three futures. In the first, the technology never advances much beyond its existing capabilities so that current institutions continue in something like their present form. We argue that is already an improvement over mid-20th Century publishing. At the same time, the advent of e-readers allows new forms of price discrimination that could significantly improve economic efficiency. Judges should reform the Second Circuit’s Apple decision to make this happen. _x000D_
+More powerful “Big Data” technologies will force deeper changes. These will almost certainly start with massive vertical integration. Our second future analyzes the case where today’s dominant on-line retailers continue expanding up- and downstream. Despite obvious concerns, we argue that clearing away costly middlemen will almost certainly improve social welfare on net. We also consider an alternate future in which today’s dominant publishers preempt retailers by creating an open search platform. Taking search outside traditional proprietary models can radically improve consumer welfare, but only if legislators are prepared to make correspondingly large adjustments to copyright law. _x000D_
+Finally, we ask which of our three futures is most likely. We argue that Big Data algorithms are inherently voracious, so that the future belongs to whichever institutions collect the biggest and most useful datasets. We identify the conditions under which proprietary solutions can outperform open source and vice versa. The article concludes by asking what judges and policymakers should do to create a level playing field so that the most efficient institutions really do emerge if and when technology makes them possible.</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3130438071</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26140/knz4-2020-0903-0030</t>
+          <t>https://openalex.org/W2102666674</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vodopianova &amp; Saenko (2020)</t>
+          <t>Fox (1994)</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>UNIFIED AGRICULTURAL TAX-A TOOL OPTIMIZATION OF THE TAX BURDEN ORGANIZATIONS OF THE FISHING INDUSTRY OF THE RUSSIAN FEDERATION</t>
+          <t>The Politics of Mexico's New Peasant Economy</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Водопьянова Валентина Александровна</t>
+          <t>Valdes Ubalde Vera, Oscar. 1988. The Political Economy of Privatization in Mexico. Presented at the conference The Privatization of Public Enterprises in Latin America, University of California, San Diego, La Jolla. Political Change in Mexico's New Peasant Economy Jonathan Fox INTRODUCTION The Mexican state is recasting its long-standing leading role in the national economic development process. The postrevolurionary state balanced the competing challenges of economic growth and political stability by closely r e l a t i n g the distribution of both income and property. This model of regulation framed Mexico's political develop- ment until the economic crisis of 1982. Since then, Mexico's presidents have been restructuring the nature of state intervention in the economy, gradually dismantling much of the revolutionary nationalist legacy i n favor of increased integration into the international market. The new official ideology of social liberalism calls for the state to encourage private sector-led economic development by largely with- drawing from most of its past regulatory and productive activities, while continuing its ccmirnitment to social justice through more efficient and less paternalistic distributive reforms. Like past Mexican policy makers, however, the social liberals base much of their political legitimacy on their success at encouraging both growth and distribution. A n d since both Mexico's contested 1988 presidential election and the Gorbachev experience underscored how democratic political competition could complicate efforts toward economic change, Mexican policy makers have worked largely within the existing political system to carry out their economic reform project. I -would like to thank the volume editors, as well as Luis Hernandez, Sergio Zermeno, Judy Harper, and an anonymous government official for Iheix helpful comments. This essay was completed in September 1993.</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2991688004</t>
+          <t>https://openalex.org/W3187873420</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1101/2021.07.29.454315</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Chowdhury (1996)</t>
+          <t>Masese et al. (2021)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Safe delivery programme in Bangladesh: the role of TBAs.</t>
+          <t>Large herbivorous wildlife and livestock differentially influence the relative importance of different sources of carbon for riverine food webs</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Safe delivery is one of the most important interventions in primary health care, a good indicator for monitoring the quality of health care services, and something which saves the lives of both mothers and children. It has been shown in some studies that when a mother dies, her baby also soon dies. On the other hand, when a baby dies, the mother soon gets pregnant. Such repeated pregnancy taxes the health of the mother to such an extent that it threatens both her life and that of the fetus. In Bangladesh, untrained traditional birth attendants (TBAs) are responsible for 95% of deliveries annually. Some blame the TBAs for the prevailing high levels of maternal and infant mortality. The majority of such deaths, however, occur during the prenatal period. The TBA can manage routine antenatal care and be the central link between the community and health referral points for women who have developed fatal conditions. Gonoshasthaya Kendra (GK) has included TBAs in the mainstream of its health care services for 20 years, providing appropriate training for aseptic and safe delivery. GK TBAs are also taught to recognize high-risk mothers.</t>
+          <t>Abstract In many regions around the world, large populations of native wildlife have declined or been replaced by livestock grazing areas and farmlands, with consequences on terrestrial-aquatic ecosystems connectivity and trophic resources supporting food webs in aquatic ecosystems. The river continuum concept (RCC) and the riverine productivity model (RPM) predict a shift of carbon supplying aquatic food webs along the river: from terrestrial inputs in low-order streams to autochthonous production in mid-sized rivers. Here, we studied the influence of replacing large wildlife (mainly hippos) with livestock on the relative importance of C3 vegetation, C4 grasses and periphyton on macroinvertebrates in the Mara River, which is an African montane-savanna river known to receive large subsidy fluxes of terrestrial carbon and nutrients mediated by LMH, both wildlife and livestock. Using stable carbon (δ 13 C) and nitrogen (δ 15 N) isotopes, we identified spatial patterns of the relative importance of allochthonous carbon from C3 and C4 plants (woody vegetation and grasses, respectively) and autochthonous carbon from periphyton for macroinvertebrates at various sites of the Mara River and its tributaries. Potential organic carbon sources and invertebrates were sampled at 80 sites spanning stream orders 1 to 7, various catchment land uses (forest, agriculture and grasslands) and different loading rates of organic matter and nutrients by LMH (livestock and wildlife, i.e., hippopotamus). The importance of different sources of carbon along the river did not follow predictions of RCC and RPM. First, the importance of C3 and C4 carbon was not related to river order or location along the fluvial continuum but to the loading of organic matter (dung) by both wildlife and livestock. Notably, C4 carbon was important for macroinvertebrates even in large river sections inhabited by hippos. Second, even in small 1 st −3 rd order forested streams, autochthonous carbon was a major source of energy for macroinvertebrates, and this was fostered by livestock inputs fuelling aquatic primary production throughout the river network. Importantly, our results show that replacing wildlife (hippos) with livestock shifts river systems towards greater reliance on autochthonous carbon through an algae-grazer pathway as opposed to reliance on allochthonous inputs of C4 carbon through a detrital pathway.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3101803010</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.5951/mt.83.4.0264</t>
+          <t>https://openalex.org/W2407490752</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Taback (1990)</t>
+          <t>Grubman (2016)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Coordinate Geometry: A Powerful Tool for Solving Problems</t>
+          <t>Methods for Managing Risk and Promoting Resident-Centered Care in Nursing Homes</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>In calling for reform in the teaching and learning of mathematics, the Curriculum and Evaluation Standards for School Mathematics (Standards) developed by NCTM (1989) envisions mathematics study in which students reason and communicate about mathematical ideas that emerge from problem situations. A fundamental premise of the Standards , in fact, is the belief that “mathematical problem solving … is nearly synonymous with doing mathematics” (p. 137). And the ability to solve problems, we are told, is facilitated when students have opportunities to explore “connections” among different branches of mathematics.</t>
+          <t>I. INTRODUCTIONIn 1900, 4.1 percent of the American population was 65 or older.1 The U.S. Department of Health and Human Services Administration on Aging estimates seniors (65 or older) will number above 70 million, representing 20 percent of the population, by 2030.2 This simple numerical reality indicates the importance of developing sound elder care policy, and recent discussions of longterm care have identified an important characteristic of smart policy: It should facilitate both of care and of life for long-term care residents.3As the American population ages, policymakers are receiving increasing signals that they must revise their ideas about how providers of long-term care should operate. In the mid-1980s, landmark home policy reform marked a significant shift in how regulators assess the of healthcare provided in long-term care facilities.4 The Nursing Home Reform Act (NHRA), which passed as part of the Omnibus Budget Reconciliation Act of 1987 (OBRA),5 altered enforcement requirements and reformed care standards in two ways: First, it revised regulations related to of medical and, second, it added new consideration for of life among home residents.6 Taken together, these reforms introduced a change in the overall approach to home regulation:This [was] the first time the federal government [had] ever expressed the certification and participation obligations under Medicaid and patients' rights under Medicaid in terms of quality of life. In doing so, OBRA explicitly rejected the narrow, instrumental and process oriented medical and custodial care paradigm that defined care under the old regulatory scheme.7Under OBRA, [a] skilled facility must care for its residents in such a manner and in such an environment as will promote maintenance or enhancement of the of life of each resident.8Over time, of life has taken on increased significance in the eyes of skilled-care providers. In 1986, the National Academy of Sciences' Institute of Medicine (IOM) released a seminal report on home reform, Improving Quality of Care in Nursing Homes, which translated directly into the provisions passed by Congress as part of OBRA.9 In name and the majority of the substance, the report and subsequent legislation emphasized quality of care, defined as the clinical healthcare outcomes achieved by each provider.10 The legislation overhauled the regulatory scheme, introducing new surveying practices11 and raising standards of care,12 though it retained some of the previous regulatory regime's focus on the nursing component of homes - the clinical measures by which regulators assess resident health and safety.13 Thus, despite recognizing the im- portance of of life in homes, the law increased facilities' focus on medical outcomes rather than committing to significant quality-of-life improvements.14Still, the regulatory foundation was laid for increased focus on of life in skilled-care facilities, leading to what the Pioneer Network15 and other reform leaders have labeled Change.16 The Culture Change movement, which began in full in the late 1990s, calls for a shift in thinking among providers and regulators, with an emphasis on fostering a home-like atmosphere in long-term care.17 As the Culture Change movement has recognized, the medical model of care (an approach that views homes as more similar to hospitals than to homes) cannot fulfill the goals of long-term care: While hospital operators can and should focus mostly on clinical outcomes for shortterm medical problems, homes seek to offer, in essence, new homes for their residents. In long-term care settings, as Professor Maureen Armour has asserted, quality of life is very important for its own sake (that is, as an outcome goal) and because it is intimately related to of care in homes. …</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2773514585</t>
+          <t>https://openalex.org/W2781527314</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1056/nejmp1714824</t>
+          <t>https://doi.org/10.1021/acs.energyfuels.7b03945</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sommers &amp; Kesselheim (2018)</t>
+          <t>Qu et al. (2018)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Massachusetts’ Proposed Medicaid Reforms — Cheaper Drugs and Better Coverage?</t>
+          <t>Syngas Production from Carbon Dioxide Reforming of Ethanol over Ir/Ce&lt;sub&gt;0.75&lt;/sub&gt;Zr&lt;sub&gt;0.25&lt;/sub&gt;O&lt;sub&gt;2&lt;/sub&gt; Catalyst: Effect of Calcination Temperatures</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Massachusetts has applied for a federal waiver to create a closed drug formulary for Medicaid, which would be a first for the program. If the plan is approved, other states would follow suit, and it would be critical to include consumer protections.</t>
+          <t>Ir/Ce0.75Zr0.25O2 catalysts synthesized by the facile co-precipitation method were calcined at various temperatures. The influence of calcination temperature on their physicochemical features and catalytic behavior for carbon dioxide reforming of ethanol was investigated. Several key factors such as Ir dispersion, reducibility, and oxygen vacancies as well as Ir–support interaction declined with increasing the calcination temperature, which result into the decrease of ethanol conversion and less-intrinsic turnover frequency (TOF). Among the catalysts tested, the IrCeZr550 sample exhibited satisfactory activity and maintained stable performance as long as 90 h of time on-stream. In contrast, full ethanol conversion was only achieved at 750 °C for the more sintered IrCeZr850 catalyst, thereby higher than that of the others. Moreover, stability test of IrCeZr850 elucidated that ethanol conversion continuously decreased from 87% to 62%, and the molar ratio of H2 to CO increased from 1.16 to 1.32 due to the inhibition of reverse water gas-shift reaction. For the deactivated IrCeZr850 catalyst, characterization results including HRTEM, XRD, Raman, and TPO revealed that the observed deactivation might be caused by the combination of the encapsulated carbon formation because of fewer oxygen defects and the remarkable sintering of active Ir species due to weaker Ir–support interaction. This established structure–activity relationship might provide insight on the development of suitable catalysts for syngas production from ethanol dry reforming.</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3122419832</t>
+          <t>https://openalex.org/W2076189800</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/1467-8489.12018</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Ünveren (2017)</t>
+          <t>Wegener (2013)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>On Risk Induced by Technical Change</t>
+          <t>Douglas Henry McKAY, CBE, 1923-2012</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Purpose: The purpose of this paper is to analyze the efficiency loss due to incomplete financial markets when risk is induced by technological uncertainty. _x000D_
-Design/methodology/approach: A worker-capitalist general equilibrium model is developed. It is assumed that future technical change is a stochastic event, causing uncertainty in future relative prices. Then the model is calibrated to the US data. _x000D_
-Findings: Our first finding is theoretical: The competitive equilibrium is Pareto-inefficient. Then we numerically calculate the taxes that make all individuals better-off at the calibrated parameter values. The results clearly show how the burden of taxation should be shared among workers and capitalists when the government uses redistribution of income as a tool of mitigating the loss of efficiency due to technological shocks. _x000D_
-Research limitations/implications: The model is obviously a stripped-down version of reality, and hence, the results should be taken with a grain of salt as the numerical computations would be definitely sensitive to certain rich details of real life that are neglected in this study. _x000D_
-Originality/value: The results show that the total amount of employment and production are not affected by optimal taxation, which is a surprising result. Indeed, the inefficiency is primarily caused by the distribution of labor supply among individuals. The optimal taxes are also numerically computed.</t>
+          <t>Douglas Henry McKay was born in North Sydney on 5 September 1923 and grew up around Tumbarumba then Narrandera in southern NSW. This idyllic childhood ended abruptly in 1934 when his father, Oswald McKay, a postmaster, suffered a disabling stroke. A meagre pension, plus the Depression, left his mother unable to feed and clothe, let alone educate, six children, so Doug and three of his siblings were sent to board at the William Thompson Masonic School in Baulkham Hills. There, McKay secured both sustenance and education: he attended Parramatta Intermediate and Parramatta High schools. After taking his Leaving Certificate at 15 and working for a brief time at Austral Bronze, McKay moved to work at the Taxation Office. The NSW Masonic organisation paid his fees to the University of Sydney, where he studied economics part-time. In 1942, McKay enlisted in the AIF. He became a sapper in the Engineering Corps and was quickly deployed to the 2/4th Field Company, 18th Brigade, 7th Division, at Milne Bay in New Guinea. Later campaigns included Buna, Gona and Sandana. In March 1945, his commanding officer learnt that McKay had university training, so he was promptly demobilised and sent back to the university. He graduated when he was 21 and soon afterwards married his wartime sweetheart, Ruth Irwin. Attracted by the idea of combining economics and work outdoors, McKay joined the Bureau of Agricultural Economics in Canberra in 1948. In 1960, he was appointed the agricultural representative at the Australian High Commission in London. McKay became director of the BAE in 1963, deputy secretary of the Department of Trade in 1968, and Secretary from 1971 to 1977. He was appointed Secretary of the Department of Primary Industry in 1978, where he provided clear-sighted, considered, often very direct, advice to his ministers John McEwen, Doug Anthony, Jim Cairns, Frank Crean, and Ian Sinclair and accompanied prime ministers Gough Whitlam and Malcolm Fraser on overseas visits. McKay made several important contributions to domestic agricultural policy. In delivering the Presidential Address to the Eleventh Annual Conference of the Australian Agricultural Economics Society in February 1967, McKay, then Director of the Bureau of Agricultural Economics, presented the first detailed analysis of the small farm problem in Australia – and, in doing so, laid the foundations for debate in government and university circles about the implications for the welfare of farming families and the need for structural adjustment. McKay's analysis showed that incomes too low to either sustain a family or allow for reinvestment in their farms was not a new problem, the result of occasional poor seasons or periods of low prices. It was systemic, reflecting in various proportions inadequate farm size, marginal land, limited managerial ability and lack of capital. He also recognised that on many of these farms, prospects to improve productivity were limited: while ever costs continue to increase at a faster rate than the prices … general measures (devaluation, international commodity agreements, input and output subsidies) can do no more than slow down the rate at which farms may fall into the low-income category. In his address, McKay raised an issue that continued to influence agricultural policy over many decades: whether structural adjustment should be left to economic forces or whether steps would be required to ease the process of change. McKay's keen intellect, ability to glean information from disparate sources, understanding of agricultural production and economics, pithy way with words, physical stamina and hard-headed determination made him an outstanding negotiator. He took the most personal satisfaction from the role he played in securing an international sugar agreement in 1968. In a memoir prepared for family and friends, he recalled his involvement in creating the 1968 International Sugar Agreement as his most difficult negotiation. The year long negotiations began just months after his Presidential Address to the Australian Agricultural Economics Society. He was, in reality, the lead negotiator, but had McEwen, Anthony, the Queensland premier Joh Bjelke-Petersen (plus press secretaries) and several Australian industry advisers looking over his shoulder. In 1968, the international sugar market was oversupplied, prices depressed and international relations fraught. The United States had cut-off imports from Cuba after the missile crisis. The Soviet Union then became a major importer (and unhelpful re-exporter) of Cuban sugar. Britain, also a major importer, was again considering entering the European Economic Community, while the EEC was raising its own sugar production. Sugar was a highly politicised commodity, subject to a number of closed and very different marketing regimes. An agreement had been sought for years among sugar-producing countries who sold into the world ‘free’ market where, as described by McKay, the price through the</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2582652833</t>
+          <t>https://openalex.org/W4205188028</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/sea2.12237</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Петрович &amp; Григорьевич (2014)</t>
+          <t>Guindi (2022)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Управление российским вузом в рыночных условиях</t>
+          <t>Turning the world on its head: The virus that disrupted “business as usual”</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>The reform of the system of higher education being held in Russia requires not only to change curriculum and technologies of realizing educational process, but also profound rethinking and reconstructing of the structure of principal directions of academic institution's activity and management. The authors consider approaches to forming directions of academic institution's activity, creating synergetic effect and possibilities to construct a system of academic institution management on the basis of Stafford Beer's model.</t>
+          <t>While we might feel small, separate and all alone, Our people have never been more closely tethered The question isn't if we can weather this unknown, But how we will weather this unknown together. —Amanda Gorman, “The Miracle of Morning” In a sweeping stroke, the onslaught of the COVID-19 virus turned the world upside down. People faced a natural phenomenon from antiquity,11 This essay is not considering the possibility of a lab-created virus. Investigation of the Wuhan lab in China is ongoing, and conclusions are not definitive. a virus seeking human hosts, particularly those weakened by ill health and low immunity, and conditions worsened by contemporary societal inequalities and failed political responses.22 I have published several pieces and made Zoom presentations in international conferences bringing up the possible roles of these variables. COVID-19 relentlessly pursued its goal of survival by rapidly changing (variants and mutations) to enhance its inherent transmissibility among bewildered folk. The effectiveness and success of the (unintelligent) virus mutating rapidly and prevailing over (intelligent) human resources resembled the stuff of fiction. Most people could not comprehend the fact that the virus acted naturally as an organism and that it is not a new phenomenon. Its efficiency and speed were outside easy reach of familiar political, medical, technological, and financial solutions. They were facing an invisible life-threatening organism of a seemingly enigmatic nature. The difficulty was how to deal with science. Scientifically reliable facts are slow to produce and difficult to understand. Rigor is a process, and science takes time. The pace of systematic research is too slow to satisfy a public's anxious need to know. It is far easier to deal with facts. Politicians were scapegoated as they fumbled to balance public health safety and maintain the economy. As reliable data gradually appeared, evolving technologies expedited instant communication, radiating the information out to national health centers and on social media, which made it instantly accessible to people. The World Health Organization (WHO) acted as a global hub, instantly reaching anxious folk around the world. In my initial analysis of the pandemic, I had noted an omission of what I considered a compelling yet grossly overlooked aspect (El Guindi 2020a, 2020c). The pandemic, I argue, unmasked hidden realities about society, which perhaps politicians chose to deprioritize—poverty, poor health services, homelessness, neglect of the elderly population, racist inequalities, unemployment, unequal access to health care, and poor quality of food, which are all conditions already present in affluent countries but neglected in favor of other priorities. Slowly, as social scientists began to focus on these factors, rigorous publications on these issues began to appear in peer-reviewed publications (Andrasfay and Goldman 2021; Schmelz and Bowles 2021). In this essay, I identify some overlooked pandemic patterns that merit consideration. I also analyze approaches taken by some countries in dealing with development, examples that provide insight into what might work better in today's world, particularly in dealing with global-scale crises. The proposed approach is rooted in notions traditionally central to the field of economic anthropology, such as the concept of exchange and “the gift,” in a way that conceptually centers the concept of value and the ideal of socio-moral justice. A rethinking is proposed to deal with today's “world closely tethered.” Business was no more “as usual.” The shock from the pandemic onslaught led to nonlinear, multidirectional changes in many realms—business, work, travel, school, family, politics, health, social life, and more. For example, the interruption of international travel, which brought big losses to multinational airline corporations, turned international conferences into virtual meetings. Domestically and internationally, people were meeting online. This brought the world closer more safely, but in a different and unfamiliar way. Access to the internet had facilitated webinar meetings as an option prior to the pandemic, but with the crisis, it became a necessity, used more frequently and more widely around the world. Instead of experiencing jet lag at meetings and conferences, participants were able to cross oceans, borders, and time zones, exponentially expanding worldwide connections while remaining stationary. Missing in these connections was face-to-face interaction. In the sphere of world politics and economics, globalization was proceeding on a path toward eliminating borders and replacing nation-states with a global world order. There was an “Infinite War on Terror” with no vision but with its sight set on other nations' natural resources, to be acquired by “constructive chaos.” The rise of terror groups like ISIS, secured by proxy and mercenary threats, brought about violence and an in</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2899831599</t>
+          <t>https://openalex.org/W2183838852</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Alfaro (2017)</t>
+          <t>Sharma (2001)</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Impuesto verde en fuentes móviles : ¿fin recaudatorio o desincentivo real a la contaminación?</t>
+          <t>Technical and Vocational Studies in Fiji Secondary Schools: A modular approach</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>La ley 20.780 introdujo un nuevo impuesto a las fuentes moviles de contaminacion, que
-grava la compraventa de vehiculos nuevos. Si bien se declaro que se trataba de un impuesto verde, es
-decir, que fue establecido para desincentivar las conductas contaminantes, lo cierto es que no lo ha
-logrado efectivamente y solo ha generado un aumento en la recaudacion fiscal. Se analizara el concepto
-de impuesto verde en abstracto, la historia fidedigna de la modificacion legal y los datos del mercado
-automotor.
-Law 20,780 introduced a new tax on movable sources of pollution, which levies the purchase
-of new vehicles. Despite having being declared as a green tax, that is, having being established to
-discourage polluting behaviors, this has not been successfully achieved, and has only increase the tax
-collection. It will be further analyzed the abstract concept of green tax, the history of the legal
-amendment and data from the vehicle market.; Law 20,780 introduced a new tax on movable sources of pollution, which levies the purchase
-of new vehicles. Despite having being declared as a green tax, that is, having being established to
-discourage polluting behaviors, this has not been successfully achieved, and has only increase the tax
-collection. It will be further analyzed the abstract concept of green tax, the history of the legal
-amendment and data from the vehicle market.</t>
+          <t>For more than half a century, the search for an appropriate secondary school curriculum has preoccupied educational thinking. The role of technical and vocational education and training (TVET), especially in relation to delivering quality education, has been the subject of considerable discussion, research and policy reforms. TVET is now perceived largely as a possible second chance educational opportunity for students who are not academically inclined. Moreover, in response to the rapidly changing nature of the workforce and the skills required to perform effectively within the changing context, schools are now being called upon to provide programmes that support greater understanding of the world of work. Such programmes are intended to equip students with those skills and abilities that they would need to use in their working lives. Greater school retention beyond the compulsory years of schooling, resulting partly from the lack of employment opportunities for early school-leavers, has added to this imperative. The post-compulsory curriculum, previously designed for a minority of students who aspired to higher education, no longer meets the needs of the increasing number of students staying on at school to improve their chances of meaningful and worthwhile employment. In many countries, it has been the employers and businesses themselves which have driven the quest for a more relevant curriculum and the development of higher skill levels amongst all school-leavers. The UNESCO Second International Congress on Technical and Vocational Education, held in Korea in 1999, called for:</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2378606140</t>
+          <t>https://openalex.org/W2943089232</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13639080.2019.1596231</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Li (2011)</t>
+          <t>Hodgson &amp; Spours (2019)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>The intersection of Credibility Crisis,Network Control Technology and Political Reform——On Government Network Public Opinion Crisis</t>
+          <t>Further education in England: at the crossroads between a national, competitive sector and a locally collaborative system?</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>As one kind of public crises,government network opinion crisis is a kind of the urgent situations that the public distrust the government on account of some public policy or official behaviors.In this situation,network opinions depart from government-led values and mainstream words,causing government trust crisis and power crisis.The government network opinion crisis is rooted in the constantly damaged government trust and the ruined harmonious relationship between government and the public.It is also the result of the gathering network opinions,the awaking civic awareness and political problems which erupt frequently in the period of social transformation.There are four levels of governance to cope with government network opinion crisis,they are as follows:Firstly,adopting crisis management to make the situation calm down;secondly,promoting rational network political participation,and using technical control properly;thirdly,regaining the public's trust and promoting social harmony and stability;,and fourthly,promoting political reform and creating political consensus.</t>
+          <t>During the 25 years since Incorporation, when further education (FE) colleges were taken out of local government control, FE in England has been shaped by processes of marketisation to become a competitive national sector that has increasingly diverged from the more ‘collaborative system logic’ of the other three countries of the UK. However, following recent government reforms, FE in England appears to have reached a crossroads with the opportunity to participate in a more collaborative skills-based landscape at the local and sub-regional levels. This article brings together evidence from historical and international comparative system analysis, a series of UK-wide seminars and in-depth research on the Area-Based Review of FE colleges to assess the strategic direction of FE in England at this critical juncture. We argue that English FE providers can take advantage of these trends to make a transition from a reactive, competitive national sector towards a more collaborative, regional and sub-regional system focused on inclusive economic and skills development. The article concludes that the potential for cross-UK policy learning depends on whether FE in England gradually transitions towards a more collaborative future that could bring it closer to FE and skills systems in Scotland, Wales and Northern Ireland.</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3150942945</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2139/ssrn.3145207</t>
+          <t>https://openalex.org/W2160586171</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Χαλλουμής (2018)</t>
+          <t>Havas (2009)</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Impact Factor of Risks of Tax System</t>
+          <t>Universities and the Emerging New Players: Building futures for higher education</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>This paper is about the risks which handle the enterprises in the tax system. Thence, we have an analysis for the impact factor of the tax revenues of the countries subject to the risks of companies in the tax system. Thereupon from the view of the level of influence of the enterprises which participate in controlled transactions of transfer pricing to the global tax revenue, is plausible to identify the impact factor of risk, when there exists that factor with the case which that factor is avoided. Then the impact factor of risk in combination with the tax revenues is determined through the Q.E. method. Therefore, is clarified the behavior of the tax system subject to the risks of the tax system.</t>
+          <t>Universities are long-established organisations, and although they have reinvented themselves several times, major reforms are needed again, underpinned by systematic prospective analyses. A novel method is needed to take into account the wide-ranging and complex factors, shaping the future of the higher education system. ‘Futures’ should be devised in a multi-level structure as the bulk of trends and driving forces are international in their nature and universities are embedded in broader socio-economic systems. This new approach is demonstrated here by devising ‘cascading’ futures for the European Union (EU), the European Research and Innovation Area (ERIA) and universities. Several advantages can be expected from this type of prospective analysis: (i) the potential changes of these broader settings, in which universities operate, as well as their impacts on higher education can be explored; (ii) the huge diversity of higher education systems and individual universities can be reflected; and (iii) the likely impacts of different policy options can also be explored. It is also proposed to select foresight programmes from the ‘prospective toolkit’, given their specific features and benefits compared to other prospective methods.</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2373680240</t>
+          <t>https://openalex.org/W2299051682</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Huang (2011)</t>
+          <t>Havas (2008)</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Relationship between the Reform of Theatre and Women Emancipation in Late Qing Dynasty and the Early Republic of China: Henan as an Example</t>
+          <t>Universities and the emerging new players: Building futures for higher education</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>During the late Qing Dynasty and the early Republic of China,movement to reform traditional theatre began to rise and its purpose was to transform social traditions,an aspect of which was women's liberation.At the end of Qing Dynasty,the government of Henan Province,an influential theatre market,allowed women to watch performances in theatres.There were more and more opportunities for actresses to perform on stage during the beginning of early Republic of China.Once well-known actresses staged shows for disaster relief and supporting education,largely helping promote women's status.The examination of the reforms of Henan theatre shows that these reforms promoted women's liberation,and conversely,women's liberation contributed to innovations in theatre.</t>
+          <t>Universities are long-established organisations, and although reinvented themselves several times, major reforms are needed again, underpinned by systematic prospective analyses. A novel method is needed to take into account the wide-ranging and complex factors, shaping the future of the higher education system. ‘Futures’ should be devised in a multi-level structure as the bulk of trends and driving forces are international in their nature and universities are embedded in broader socio-economic systems. This new approach is demonstrated here by devising ‘cascading’ futures for the EU, the European Research and Innovation Area and universities. Several advantages can be expected from this type of prospective analysis: (i) the potential changes of these broader settings, in which universities operate, as well as their impacts on higher education can be explored; (ii) the huge diversity of higher education systems and individual universities can be reflected; and (iii) the likely impacts of different policy options can also be explored. It is also proposed to select foresight programmes from the ‘prospective toolkit’, given their specific features and benefits compared to other prospective methods.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2246893406</t>
+          <t>https://openalex.org/W258207401</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>https://doi.org/10.21061/jcte.v21i1.647</t>
+          <t>https://doi.org/10.2139/ssrn.2064242</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Stone (2004)</t>
+          <t>Schulz (2012)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Math Course Taking For CTE Concentrators: Evidence from Three Studies of the Impact of a Decade of Education Reform</t>
+          <t>New Governance and Industry Culture</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>This paper presents an argument supported by evidence that the positive effects of education reform legislation take time to accumulate, and, given time, have the power to bring about improvement. Specifically, the course-taking patterns in mathematics of CTE students in the years following the 1990 Perkins II Act and 1994 School-to-Work Opportunities Act clearly show that these students are taking part in an increasing number of higher mathematics courses, while at the same time decreasing the number of lower-level math courses taken ( &lt;a href="https://ejournals.lib.vt.edu/JCTE/article/view/647/940#levesque2003"&gt; Levesque, 2003 &lt;/a&gt; ). These trends have developed over a number of years, accentuating the necessity of allowing for the passage of time before evaluating whether a particular reform movement has been successful.</t>
+          <t>New scholarship argues that a blend of public and private regulation is playing an increasing role in influencing firm behavior. Despite its burgeoning growth, scholarship is critiqued as lacking practical examples. This Article begins to fill that void by conducting a institutional economics analysis of forest sustainability certifications, an example of governance. This Article analyzes the features of the domestic forest industry to trace why emerged within it and has persisted for over seventy years. The industrial characteristics that contribute to this longstanding regime include strong norms within the industry, a resource-type that favors user-developed rules, and robust competition among private actors to regulate the industry. These findings suggest that may emerge as a regulatory tool to address environmental problems in other industries that possess similar characteristics. The Article also sheds light into the broader discussion of how to measure the success of regimes. B identifies stakeholder involvement relative to the democratic process and displacement of other regulatory tools as two key considerations in evaluating approaches. INTRODUCTION New governance--legal reform emphasizing the role of non-state actors in influencing behavior against a backdrop of the state (1)--is an important emerging intellectual movement. (2) New scholars are engaged in developing a broad menu of legal reform strategies that involve private industry and nongovernmental actors in a variety of ways while maintaining the necessary role of the state to aid weaker groups in order to promote overall welfare and equity. (3) A central feature of is extralegal regulation that privileges private actors in rule setting and rule enforcement, (4) which marks a shift from the previous state centric or market mechanism regulatory approaches. (5) Although the term new governance appeared in the literature relatively recently, (6) the underlying idea of private regulation against a backdrop of state enforcement is not new. This Article traces that idea through a review of literatures addressing corporate social responsibility; (7) environmental nongovernmental organizations, (8) and the study of norms in law and economics. (9) Each of these literatures foreshadowed the emergence of by observing that industrial action can be regulated by private regulatory schemes operating against the backdrop of state regulation. Critiques of scholarship center on the lack of detailed empirical studies illustrating the principles in action. Leading articles are critiqued as having a high level of generality (10) and focusing on ambiguous and scattered policy assessments with innovations found here and there. (11) As a result, examples in the field appear aberrational, idiosyncratic, or unproven, and the anecdotes and case studies heralding these developments unconvincing.... (12) Adherents to agree that there is a pressing need for detailed studies examining the circumstances of when non-state regulation succeeds. (13) This Article joins in the task of providing examples of (14) to provide a detailed analysis of operating within a particular industrial setting. It conducts a institutional economics (15) analysis of the industrial features that led to voluntary, market-based sustainability certifications for forests and forest products. Sustainability certifications are a voluntary, primarily private (16) regulatory regime that incentivizes firms to conduct their operations in accordance with what the certification identifies as socially desirable standards. (17) For reasons previously unexplored, the forest industry contains an unusually longstanding example of sustainability certifications. …</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4321366674</t>
+          <t>https://openalex.org/W1967162660</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>https://doi.org/10.14733/cadaps.2023.s8.100-111</t>
+          <t>https://doi.org/10.1016/j.sbspro.2014.09.061</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Chai &amp; Li (2023)</t>
+          <t>Izuchukwu et al. (2014)</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Discussion on Teaching and Learning Strategy of Industrial Product Design Skill Competition</t>
+          <t>Employee's Perception of Change Effect as a Competitive Advantage on Nigeria Banking Industry: An Empirical Analysis</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>At present, the market competition environment of all industries is in an unstable state, and events such as mergers and acquisitions, new product listing, and negative news and information may lead to major changes in the market competition pattern.However, with the reform and opening up, especially the increasing competition in the automobile market in recent years, the overall survival environment is very difficult.This paper analyzes and visualizes the brand competition in the automobile industry based on CAD technology, and uses CAD technology to carry out structural design and structural analysis on the body.Although this transformation and adjustment of the development strategy has not achieved significant results, it reflects the market adaptability of the automobile brand management team to a certain extent, and provides a strong guarantee for the automobile brand to better adapt to the rapidly changing environment of the market economy.CAD technology also plays a powerful role in the manufacturing process of automobile panel dies.It can infer the weight of each attribute in the clustering process according to several nodes entered by the user, and conduct community search, while comparing and displaying the competition between them.</t>
+          <t>The intensity of competition has increased within the Nigeria banking system, due to series of reforms that led to implementing organizational development in the industry as away of repositioning the country's economy to achieve the objective of becoming one of the 20 largest economy by the year 2020. Creating a sustainable competitive advantage therefore has become paramount importance considering the institutional changes that were introduced in form of strategy to conform to the changing norms and patterns of operation in the industry. Such strategies include merger and acquisitions, private placement, re-engineering process, right sizing and so on. This paper attempts to evaluate employee's perception of change effect as a competitive advantage on the Nigeria banking industry, thereby assessing employees’ perception of change effect on personal job outcome variables in relation to change success. Using multiple regression analysis, the findings of the study reveal the existence of significant relationship between employees’ perception of change success and the personal job outcome variables. The beta analysis shows that employee perception of job commitment; good salary and job security were the strong determinants of employee perception of change effect with perception of self- actualization and career progression as the weak determinants. It is proffered in the paper that change agents in the banking industry should always consider the aspect of job security and motivational incentives when implementing change.</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247084986</t>
+          <t>https://openalex.org/W1987039570</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4324/9780203109960-22</t>
+          <t>https://doi.org/10.1016/j.jocd.2009.02.006</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>NA (2012)</t>
+          <t>Moore et al. (2009)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Housing subsidies</t>
+          <t>Prevalence of Osteopenia and Osteoporosis in Patients Undergoing Joint Replacement Surgery</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>For patients undergoing CT colonography (CTC), the screening presents an opportunity for concurrent osteoporosis screening, without increasing radiation exposure or the time involved for the patient, using proximal femur quantitative CT-CT x-ray absorptiometry (QCT-CTXA).This cohort included 129 women and 112 men (mean age: 60.1 ± 8.2 years; range: 50–95 years) who underwent CTC between March 2013 and September 2014. Areal bone mineral density (BMD; g/cm2), and resultant left femoral neck T-score, was prospectively measured on the supine CT series. QCT results were reported with the CTC. Chart review evaluated whether the patients were eligible for BMD screening according to guidelines from the US Preventive Services Task Force and the National Osteoporosis Foundation guidelines; whether they had undergone prior BMD testing; and whether QCT results changed patient management.Overall, 68.0% (164 of 241) of patients from this cohort had not previously undergone BMD screening. According to the National Osteoporosis Foundation guidelines, 44.0% (106 of 241) of patients were eligible for screening. T-scores within the osteopenic and osteoporotic range were detected in 32.3% (78 of 241) and 5.0% (12 of 241) of patients, respectively. Of these patients with low BMD, 66.7% (60 of 90) either had not previously undergone screening or were eligible for BMD testing. Reporting of QCT-CTXA T-scores altered management in 9 patients (3.7%) who had low BMD.Maximizing the pre-existing value from imaging studies is crucial in the current era of health care reform. We demonstrate that colorectal and osteoporosis screening can be combined at CT examination, adding clinical and likely economic value.</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4253446212</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1108/s0732-1317(2012)0000022002</t>
+          <t>https://openalex.org/W2621323367</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Baimyrzaeva (2012)</t>
+          <t>Kang et al. (2017)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Preface</t>
+          <t>Interaction among New Firm Formation, Privatization, and Business Environment in Transition Countries</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>How can we design and redesign more effective, fair, and enforceable government institutions? By government institutions, I mean the entire set of rules and organizations that enables governments to perform their functions. In government, the political machinery, such as the electoral system, tends to get the spotlight, but, in reality, this constitutes only small portion. Meanwhile, the largest portion of government machinery – the public-administration system – has been given short shrift. It has not been sufficiently researched, and reformers do not clearly understand how to improve it. This book is concerned with the reform of public-administration institutions and deals with political institutions only to the extent the latter shape the former.</t>
+          <t>(ProQuest: ... denotes formulae omitted.)I.IntroductionThe creation of new private firms is key to a successful transition from socialism to a market economy. The formation of new firms accelerates reallocation and restructuring, which are the two core elements of transition identified by Blanchard (1997); these elements lead to increased productivity and competitiveness. In matured market economies, the entry of new firms increases efficiency because they are likely to enter the market with an efficient combination of capital and labor. New firms play a crucial role in the transition process given the structural imbalance in post-communist economies prior to transition. Furthermore, private firms are not subject to soft-budget constraints that prevail among state-owned enterprises in the socialist era (Kornai 1994).Transition countries implemented a large-scale privatization program to transform ownership from the state to a private entity. Policy makers expected the program to encourage entrepreneurship and the formation of new firms. This expectation appears to have been realized as shown in the significant average increase of shares of the private sector in 26 transition countries from 12% in 1990 to 68% in 2009.However, privatization per se does not increase the creation of new firms. Rather, the consequences of privatization are diversified according to the fundamental conditions of transition countries. In some cases, privatization may leave an insignificant effect on the entry of new firms despite a notable increase in the shares of the private sector. Moreover, excessive concentration on privatization could distract attention away from the central task of encouraging new start-ups (Murrell 1995).Mixtures of barriers exist in transition economies even after privatization. These barriers include complicated and time-consuming registration, ambiguous tax laws, and corruption. This finding implies that the aims of privatization, namely, competition and efficiency, are hard to achieve and may even produce negative effects without appropriate support for institutional reforms and favorable business environments. The case of the Russian oligarchy indicates that privatization with poor institutional quality and business environments may concentrate ownership in the wrong hands, which may retard the emergence of a free market. Havrylyshyn, and McGettigan (2000) reflected on these features and claimed that only privatization conditioned by good business environment contributes to an increase in new firm registrations. This finding suggests that the effects of privatization increases when it is combined with good market institutions. However, this conjecture was not empirically tested.The present study examines how reform in large-scale privatization and the business environment, as measured by start-up barriers, interactively affect the density of new firms across transition countries. Two datasets are used, namely, World Development Indicators (WDI) and the European Bank for Reconstruction and Development (EBRD) reform index. For new firm density, we use new business density in WDI, which was calculated as the number of new limited liability corporations registered in a calendar year per 1,000 people aged 15-64. WDI provides information on new firm density, start-up barriers, private credit, and real GDP per capita. Start-up barriers are measured by start-up costs, start-up day, and start-up procedures. We extract information on the degree of large-scale privatization reform from EBRD. The final dataset includes an unbalanced panel of 119 observations from 25 countries over a five-year period from 2005-2009.We find that large-scale privatization significantly contributes to the formation of new firms when the costs of start-up are low. However, the effect of large-scale privatization on new firm formation becomes negligible when firms face high start-up costs. The main difference between the present study and existing literature on institutions is the emphasis of previous studies on the role of various institutional factors1 in privatization process; by contrast, the present study indicates that business environments are directly correlated with the impact of privatization on the formation of new firms. …</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3010798683</t>
+          <t>https://openalex.org/W4235107589</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/sais.0.0061</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Véliz (1959)</t>
+          <t>Fisher et al. (2009)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Arthur Young and the English landed interest 1784-1813</t>
+          <t>Foreword</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>This thesis is a study of agrarian pressure-groups during the last two decades of the eighteenth century. _x000D_
-_x000D_
-The body of the work consists of an examination, of three important controversies which affected the landed interest! the struggle for a general hill of enclosure, the opposition to the Tool Bill of 1788, and the attempt to reform the existing system of tithe collection. In these three issues, Arthur Young, the agricultural journalist and pamphleteer, participated as unofficial leader and representative of a loosely organized group which, although mainly agrarian in composition and outlook, was basically different from the traditional landed interest. In fact, in those three controversies the of Arthur Young upheld positions towards which the traditional landed interest was either indifferent or opposed. _x000D_
-_x000D_
-The first case examined is the struggle for a general enclosure hill which took place between 1789 and 1001, Boring these years there were six different attempts to pass such a law and they were all unsuccessful. Even the 1801 so-called General Enclosure Bill was a far cry from what Young and the farming interest had asked for. There were a number of reasons why these attempts failed, including the question of parliamentary fees, the tithes clauses, etc., but the main one was the indifference of a Parliament controlled by the landed aristocracy._x000D_
-_x000D_
-The second controversy was that over the hill which increased the penalties and restrictions on the exportation of wool from England. This bill was opposed by a well-organised pressure-group which included most of the wool-growers of the kingdom, but it passed both Houses with comfortable majorities._x000D_
-_x000D_
-The third case under study did not receive as much parliamentary attention as the first two. The attempt to commute tithes was debated throughout the last twenty years of the century with irregular intensity* This projected reform, like the other policies supported by the farming Interest, was also unsuccessful. These three failures indicate that Young was not, as it Is believed, the spokesman for the landed interest, but for a smaller group of agriculturists. This group held views different from those of the traditional landed interest and constituted a commercially-minded, agrarian middle-class with an egocentric attitude towards economic problems. Their rigidity of outlook was one of the main causes of their early disappearance as an important agricultural pressure-group.</t>
+          <t>Foreword Efrem Fisher, Elizabeth Allen, Sam Abrams, and Shane Perkinson Within the realm of international affairs, the biblical truism out of Ecclesiastes perhaps says it best: that at the end of the day, “there is nothing new under the sun.” Or is there? Indeed, since the end of the Cold War, debates have raged about a host of thorny issues, from the kind of polarity that the new international system will sustain, to the potential for regional blocs to emerge as players on the world’s stage. The recent emergence of the so-called ‘BRICs’ (Brazil, Russia, India, and China) into the realm of world power politics has likewise altered the tenor of popular discourse about the role of developing countries as formidable players in their own right. Given these developments, surely this is an appropriate time to explore our theme: new international players. In truth, many of today’s debates in international affairs are not strictly new, having proliferated within different contexts and moments throughout the course of human history. The same is generally true of the players involved, as well. And yet, at this moment, they are all somehow, and in some way, new again. Perhaps, therefore, what is new are the particular changes in ideas and ways of thinking. These shifts are what inspired us to approach this seemingly straightforward theme in both traditional and creative ways. Our first section, “New State and Non-State Players,” begins with a look at Brazil, penned by international correspondent Joshua Goodman. Goodman’s article is followed by Reidar Visser’s examination of the Shiite clergy in Iraq, which he argues is a non-state player par excellence whose impact extends beyond the Iraqi state to include the wider Middle East. Finally, four writers from the International Center for Research on Women round out our first section by exploring the largest group of ‘new international players’ globally: women. Our next section, “Rethinking Institutional Players,” looks at two influential international institutions, the United Nations and the International Criminal Court (ICC), with an eye towards reforming both and making them international players renewed. Journalist Matthew Lee explores power politics within the UN by examining the institution’s response to the recent violent counter-insurgency campaign in Sri Lanka, while journalist Angelo Izama discusses the problems and inefficiencies in the political strategy of the ICC in Central Africa. Our final section pays due to one of the most influential, but least appreciated, players throughout history. In “New Ideas in International Affairs,” ideas take center stage, bringing with them their potential power to alter the status quo. This section begins with Erik Jones’s timely examination of the export-led growth strategies of surplus countries, and the contribution of these strategies to the global imbalances that lay at the [End Page 1] heart of the current economic crisis. Jones’s piece is followed by an equally timely article by Ömer Taşpınar on terrorism—currently one of the greatest challenges in international affairs—in which he recommends an ideational shift from fighting terrorism to fighting radicalism. Donna Oglesby’s piece, meanwhile, calls for a new course and strategy for U.S. diplomacy, with the goal of making it more effective in a world of many rising new international state players. The section ends with Jacob Heim’s policy piece in which he advocates for the greater application of power cycle theory in national security assessments. The exploration of our theme is followed by Sean Brooks’s extensive review of Mahmood Mamdani’s recent book, Saviors and Survivors: Darfur, Politics, and the War on Terror (2009). We also congratulate our SAIS Prize winners, Sana Khan for her article on microcredit, Maany Peyvan for his photo essay on religion in India, and David Fowkes for his review of Paul Collier’s Wars, Guns and Votes: Democracy in Dangerous Places (2009). Finally, our issue concludes with a response to an article in our previous issue, Cities. We thank our advisory board for helping shape and guide this issue, and our entire staff of associate editors for their hard work. Enjoy. [End Page 2] Copyright © 2009 The Johns Hopkins University Press</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4233941536</t>
+          <t>https://openalex.org/W2783584049</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1111/imig.12838/v2/review1</t>
+          <t>https://doi.org/10.25904/1912/2606</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>NA (2020)</t>
+          <t>Ying-hong (2012)</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Review for "Undocumented migrants in Saudi Arabia: COVID‐19 and amnesty reforms"</t>
+          <t>Culture Teaching in the Chinese High School Education Context: A Study of Teachers' Attitudes and Beliefs</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Developing learners’ intercultural awareness and their communicative competence has been an important and acknowledged goal of foreign language education. To achieve this goal, the integration of culture teaching has become important for researchers and practitioners in the field of foreign language education. Understanding of the concept of culture, the approach to culture teaching and the cultural content of the curriculum varies across different social environments. This study looks at culture teaching in the current context of English teaching in Chinese high schools, exploring teachers’ attitudes and beliefs about culture teaching in the Chinese educational context.
+The impetus for locating this research focus in teacher attitudes and beliefs comes from reforms to current Chinese school education that started in 2001. The central appeal of this reform, and what differentiates it from previous reforms, is that it shifts attention to humanities-based education across school subjects. The reform in relation to English teaching was launched with the promulgation of the National High School English Curriculum Standard (MoE, 2001, the Standard used in this thesis). Developing students’ intercultural awareness and cultivating in them a healthy global view is explicitly stated in the Standard as one of the ultimate goals of school English education. Therefore, the cultural dimension is clearly stated as one of the explicit teaching content areas instead of being a hidden aspect of the curriculum as it was in previous curricula. The aim of the investigation of this study is to answer two research questions: “To what extent are teachers’ attitudes and beliefs about culture teaching congruent with the relevant objectives presented in the Standard?” and “To what extent can the cultural objectives stated in the Standard be achieved within the current Chinese educational environment?”</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509378101</t>
+          <t>https://openalex.org/W1971488029</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.amjmed.2010.11.010</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Sheiman &amp; Shishkin (2014)</t>
+          <t>Supri &amp; Malone (2011)</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Russian Health Care</t>
+          <t>On the Critical List: The US Institution of Medicine</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>The article analyzes significant changes in the Russian health-care system, possible ways of further reforming it, and the objectives of government policy in the current situation. The authors analyze the objectives, priorities, and unresolved problems of the National Project on Health as well as the draft of the Conceptual Framework for Development of the Health-Care System in the Russian Federation up to 2020. The authors suggest possible models for the organization of Russian health care in the foreseeable future.</t>
+          <t>United States' medicine, once regarded as the best in the world, is in a sorry state of health. The US ranks lowest on almost every dimension of health system performance relative to other major westernized nations.1Davis K. Schoen C. Stremikis K. Mirror, Mirror on the Wall: How the Performance of the U.S. Health Care System Compares Internationally. The Commonwealth Fund, New York, NY2010Google Scholar It not only lags well behind Japan, Western Europe, and Australasia – it even falls behind Poland, the Czech Republic, and Slovakia.2Fullbrook E. 28th out of 30: Poor Medicine and Unhealthy Americans.http://mpra.ub.uni-muenchen.de/17690/Google Scholar Twice as many Americans die before the age of 60, as compared with Europeans3World Health OrganizationWorld Health Statistics 2009.http://www.who.int/whosis/whostat/EN_WHS09_Full.pdfGoogle Scholar; infant mortality in the US is double that of many countries in Europe, and life expectancy at birth is lower3World Health OrganizationWorld Health Statistics 2009.http://www.who.int/whosis/whostat/EN_WHS09_Full.pdfGoogle Scholar; Japan has over 3 times as many acute care hospital beds,4Organisation for Economic Co-operation and DevelopmentOECD Health Data 2010. OCED, Paris, France2010Google Scholar and Greece has over twice as many doctors.4Organisation for Economic Co-operation and DevelopmentOECD Health Data 2010. OCED, Paris, France2010Google Scholar America has a health care system that is, frankly, third-rate.To add insult to injury, the US has by far the most expensive health care system in the world. We spend $7,290 per capita on health care annually, more than double the Organisation for Economic Co-operation and Development average. The UK by contrast spends $2,992 and ranks second in international comparisons.1Davis K. Schoen C. Stremikis K. Mirror, Mirror on the Wall: How the Performance of the U.S. Health Care System Compares Internationally. The Commonwealth Fund, New York, NY2010Google ScholarTo explain why we have the most expensive health care system in the world and yet one of the lowest performing, we need to take a perspective that focuses on the US institution of medicine as a whole. We expose the hidden rules by which this institution operates and discuss how its powerful organizations shape, control and perpetuate this ailing system.The US Institution of MedicineThe US institution of medicine is not a single, comprehensive and cohesive system of health care. Instead, it is comprised of a myriad of large and powerful organizations, including insurance companies, Health Maintenance Organizations (HMOs), corporate for-profit hospital chains, and pharmaceutical companies. This institutional structure is large and vast, and has over the years become ever more labyrinthine. For example, there are hundreds of health insurance companies, each with a bewildering array of policies – a system of health insurance so vast that many insured have no idea of the type and extent of their coverage.Setting the “Rules of the Game”Not only is the institutional structure large, it is dynamic, and actively creates, shapes, and maintains the institution of medicine. It does this through what we call setting the “rules of the game”; that is, by imposing the terms by which the system operates.Insurance companies have set the rule “restrict choice and coverage.” They enact this through their elaborate system of copayments and deductibles, exclusion clauses and loopholes, each designed to deter patients from claiming the health care they need, and to override physicians' medical judgment.HMOs have set the rule “manage care.” This rule serves to restrict patients' utilization of health care by limiting the number of treatments patients receive, days spent in hospital, and choice of provider. This rule denies patients access to the full range of treatment options that they need.The pharmaceutical industry has set the rule “charge as much as we want, because insurance will pay.” This rule has resulted in prescription drug prices that are much higher than anywhere else in the world – nearly 60% higher than in Canada, and nearly 100% higher than in Europe.5Mueller R. As Sick as it Gets: The Shocking Reality of America's Healthcare. Olin Frederick, Dunkirk, New York2001Google Scholar Moreover, this rule has led to patients being prescribed sometimes unnecessary, often useless, and even potentially dangerous drugs – a recent study found that 85% of all new pharmaceuticals either do not work or have serious side effects.6Light D. The Risks of Prescription Drugs. Columbia University Press, New York2010Google ScholarCorporate hospital chains have set the rule “test as much as we want, because insurance will pay.” Under this rule, they extend the patient's range of tests and procedures, even when excessive or unnecessary. At the same time, fearing litigation, physicians are compelled to perform “defensive medicine” – a practice unknown in the rest of the world.7Alpert J. The 800 Poun</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2908036129</t>
+          <t>https://openalex.org/W108467826</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/bf03405688</t>
+          <t>https://doi.org/10.1017/cbo9780511763410.008</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Yamaguchi &amp; Sanker (2006)</t>
+          <t>Marsden (2011)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Empirical Analysis on General Equilibrium Performance of Agricultural Trade of Sri Lanka Under Adjustment Policy Reform</t>
+          <t>Analyzing case studies</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>In this chapter, I first summarize and compare the case studies in the earlier chapters across SROs, discovering the factors which led to success or failure, sustainability or ossification. I explore path dependence, then funding and resources, reform processes, expansion of scale and scope, enforcement powers and practices, reporting, public engagement and media literacy efforts among users. This leads to a summary of governance mechanisms, focused on independence of directors from industry and the representation of civil society stakeholders. The second section examines the failure of self-regulation in the case of copyright enforcement under the Digital Economy Act 2010 (‘DEAct’), introduced in order to broker an enforced settlement between ISPs and copyright holders. It demonstrates many of the conditions that need to be present for co-regulation to succeed and that intractable industry stakeholders combined with political will for action may veto such arrangements and force a regulatory solution. Such is the contemporary importance of the ISP challenge to the legality of the regulatory solution adopted by Parliament, that I devote the third section to exploring the prospects for judicial review of the relevant provisions of the DEAct. The fourth and concluding section summarizes the type of problems that prevent the successful adoption of co-regulatory solutions. In the final chapter, I will go on to draw general principles for co-regulation taken from the case study analysis.</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2005677675</t>
+          <t>https://openalex.org/W1510613894</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ijhydene.2009.04.016</t>
+          <t>https://doi.org/10.2139/ssrn.951594</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Yan et al. (2010)</t>
+          <t>Bertrand &amp; Ivaldi (2006)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hydrogen production from bio-oil aqueous fraction with in situ carbon dioxide capture</t>
+          <t>European Competition Policy in International Markets</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>This paper presents the results of the investigation on steam reforming bio-oil aqueous fraction coupled with in situ carbon dioxide capture for hydrogen production. Experiments were carried out in a bench-scale fixed-bed reactor with calcined dolomite as the sorbent. The effects of temperature and water to bio-oil ratio on hydrogen production are reported. In the presence of calcined dolomite, maximum hydrogen yield of 75% was obtained among without sorbent, with CaO and with calcined dolomite at 600 °C, whereas hydrogen content was 83%, a little lower than that of 85% when CaO was used. Hydrogen content varies little at different water to bio-oil ratios and hydrogen yield was the greatest at the water to bio-oil ratio of 1:1. After regeneration of the sorbent, hydrogen content was back to the initial level but the hydrogen yield dropped.</t>
+          <t>Changes in the institutional, technological and economic environment raise new challenges to the European competition policy. In this context, it is timely for European authorities to appraise the external dimension of the European competition policy as well as its articulation with current internal reforms. Globalisation can increase the costs of monitoring and seriously reduce the ability of European authorities to tackle cross-border anti-competitive conducts. In addition, conflicts are exacerbated by industrial policy motivations.</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2594837439</t>
+          <t>https://openalex.org/W2277773608</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.ecolecon.2017.02.001</t>
+          <t>https://doi.org/10.1080/10350330.2016.1145386</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Germain (2017)</t>
+          <t>Catalano &amp; Gatti (2016)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Optimal Versus Sustainable Degrowth Policies</t>
+          <t>Representing teachers as criminals in the news: a multimodal critical discourse analysis of the Atlanta schools’ “Cheating Scandal”</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>This paper introduces a natural resource and pollution in a Ramsey growth model which relies on the postulates of ecological economics. It studies the impact of voluntary degrowth policies on production and welfare. The instrument of these policies is a tax on the natural resource. These public policies are implemented after the downturn of the households' welfare following from the increased pollution. Two kinds of policies are considered and rely either on an optimality criterion or on an intergenerational equity criterion. With respect to the laissez-faire case, they decrease both production and pollution but increase welfare. Classes of sustainable degrowth paths characterized by time-constant or time-increasing tax rates are determined.</t>
+          <t>On 1 April 2015, 11 Atlanta teachers accused of changing answers on their students’ standardized tests were convicted of racketeering and sentenced to 5–20 years in prison. Despite ample news coverage, few sources investigated teachers’ motivations for altering students’ responses or explored what the consequences would have been if student scores had not been changed to passing. Moreover, the fact that the teachers’ actions resulted from systemic problems associated with working within a high-stakes testing environment is glossed over and all but lost in the reporting of the “Cheating Scandal” events. The authors conduct a critical multimodal analysis of how semiotic resources were used to represent teachers in the Atlanta “Cheating Scandal” and show how the media's framing of teachers both reflects and conceals specific interests of the powerful educational reform movement and the corporations that benefit from it, such as Pearson, Inc. Data sources included four online news sources from April 2015 that covered the teachers’ sentencing, and the authors analyzed the visual and verbal transformations that occurred during the process of recontextualization. Analysis revealed the construction of a moral narrative that depicted the teachers as selfish and incompetent, reinforcing the dominant paradigm driving school reform in the USA. The authors conclude by calling for more counter-narratives that expose how dominant representations reify negative public perceptions of teachers.</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2090824917</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.12968/nuwa.2009.15.9.1093466</t>
+          <t>https://openalex.org/W408523</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Evans (2009)</t>
+          <t>Dana (1999)</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Work Matters: Guide to qualifications reform Part 3 - New level 3</t>
+          <t>Small Business in Israel</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Nursery WorldVol. 2009, No. 9 FeatureWork Matters: Guide to qualifications reform Part 3 - New level 3Mary EvansMary EvansSearch for more papers by this authorMary EvansPublished Online:4 Mar 2014https://doi.org/10.12968/nuwa.2009.15.9.1093466AboutSectionsView articleView Full TextView EPUB ToolsAdd to favoritesDownload CitationsTrack CitationsPermissions ShareShare onFacebookTwitterLinked InEmail View articleAbstractSuperseding award will be better fit with EYFS. FiguresReferencesRelatedDetails 1 September 2009Volume 2009Issue 9ISSN (print): 0029-6422ISSN (online): 2059-9358 Metrics History Published online 4 March 2014 Published in print 1 September 2009 Information© MA Education Ltd</t>
+          <t>Israel, a country built on ideology, has experienced rapid economic changes since the reforms and peace initiatives of the mid-1990s. Israel has had an unusual combination of high economic growth indicators and a stable economic infrastructure. Per capita GDP is at par with Western European countries, while its growth has surpassed that of Asia's tigers. Israel was the first nation in the world to have free trade agreements with the European Union, the United States, and Canada. Foreign investment has recently been soaring. However, the state has traditionally done relatively little to encourage small business; instead, private funds have promoted entrepreneurship. Israel since Statehood In 1947, the United Nations' Resolution 181 proposed a partition of British Palestine. As a result, the territory originally known as British Palestine was carved up into three legal entities: the eastern part, called Jordan; a second Arab country, known as Arab Palestine; and Israel, 80 percent of which was already populated or owned by Jews. Israel's declaration of independence, on May 14, 1948, was met by an Arab military invasion. During this war, Jordan succeeded in occupying East Jerusalem and the West Bank (of the Jordan River), and the map of Palestine was re-drawn. In the decades following, a series of short wars between Israel and its neighboring Arab nations continued this pattern of shifting political boundaries and uneasy truces. This turbulent recent history has certainly had an impact on Israel's economy. During its early years, the Israeli government played a paternalistic role, protecting its people - defense expenditures were high and two out of three people worked for the state. In the Six Day War, Israel reunited Jerusalem and occupied the West Bank, the Golan Heights, and the Gaza Strip. All these areas were integrated into the Israeli economy, but this meant higher prices and political discontent. During these turbulent times, taxes were high in order to pay for a high national defense budget. The Labor Party was in power, and the government was intervening heavily in the economy, through heavy regulation, high taxes, empowered unions, and a welfare state. The socialist policies of the Labor-led government were not conducive to the development of the small business sector. In 1977, the conservative Likud Party was elected into power, led by Prime Minister Menachem Begin. Begin abolished foreign exchange controls, import licenses, and the notorious travel tax. Further, Israelis were allowed to open foreign bank accounts. Despite these reforms, the Israeli economy was stagnant and inflation reached as high as 112 percent(1) in 1979. The economy was still over-protected and in need of massive restructuring. In response to this situation, the coalition government launched a comprehensive economic stabilization program in July 1985. This emergency measure included a wage freeze, cuts in public spending, and a pegging of the national currency to the United States dollar. On September 4, 1985, a new currency was introduced. One thousand sheqels became one new sheqel. In spite of opposition from labor unions and public officials, a privatization program was launched in 1987. In 1989, the Soviet Union allowed mass immigration to Israel, and the latter's population grew significantly with the arrival of 500,000 immigrants seeking to improve their standard of living. Although most were well educated, these immigrants lacked expertise in entrepreneurship. Israel also absorbed 30,000 immigrants from Ethiopia during the early 1990s. Housing starts for new immigrants resulted in frenetic construction activity. Continuing immigration and increasing privatization marked the 1990s as the government realized its role had changed. The 1990s also brought inflation under control. The annual rate of inflation had risen from 10 percent in 1970 to 445 percent in 1984, before dropping to 9 percent in 1992 and leveling off at 10 percent in 1996. …</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2353444361</t>
+          <t>https://openalex.org/W2091773454</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1386/jammr.1.3.215_1</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Ya-jun (2010)</t>
+          <t>Hamdy (2009)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>The Exploration of American Chronic Care Model</t>
+          <t>Building capabilities of Egyptian journalists in preparation for a media in transition</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Chronic non-communicable diseases have become important public health problems jeopardizing the health of people in the 21st century.The development of the American chronic care model is complete and we should learn from its good experiences.A suitable model for chronic disease management in China should be explored actively by measures of striving for policy support and improving overall quality of the citizens.</t>
+          <t>Egypt is going through a dramatic transition in its media sector. The proliferation of satellite and Internet technology combined with pressure to free the media and the government's relative acceptance of media openness have created an environment that has attracted many agencies, associations and foundations to invest in training programmes intended to develop the journalism profession. This study was conducted to gauge these programs and to address questions relevant to these efforts. By analysing data from a survey on Egyptian journalists and in-depth interviews with media training experts, results show that Egypt's media reforms have made it possible for the paradigm of professional journalism training to emerge as a dominant theme. Egyptian journalists are enthusiastic toward training, despite some dissatisfaction. Furthermore, they have a relative highly perceived self-efficacy and conviction in their active role as agents of social change and as contributors to the development of a stronger democracy.</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2357769605</t>
+          <t>https://openalex.org/W4391580764</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1525/elementa.2023.00051</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Zheng (2009)</t>
+          <t>Kerr &amp; Wynberg (2024)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Thinking and methods of TCM curriculum system reform</t>
+          <t>Fields of contestation and contamination: Maize seeds, agroecology and the (de)coloniality of agriculture in Malawi and South Africa</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>The current model of TCM higher education is taking TCM as body and Western medicine for use,which has some necessity and rationality. But there are some negative effects such as the students are not proficient in both Chinese and Western medicine,which are direct and inevitable result caused by current mode of TCM curriculum system. The reform of approaches and ideas of TCM curriculum system were put forward in the paper based on the status and problems at present,including conforming and optimizing subjects,and regularizing courses.</t>
+          <t>Farmer-managed seed systems and the conservation of agrobiodiversity are increasingly recognized as important components of food and seed sovereignty. In contrast, hybrid, genetically modified (GM), and, increasingly, gene-edited crops continue to be promoted by Green Revolution proponents as a “climate smart” package that includes fertilizers, pesticides, purchased seeds, and links to global markets. Influencing seed laws and policies to support the uptake of modern crop varieties has been a key entry point in many countries, facilitated by networks of foreign donors, philanthropists, governments, and multinational companies. Using the case of South Africa, where GM crops have been grown for several decades, we provide insights on implications for Malawi, which passed a Seed Act in 2022, implicitly supporting GM crops. Both countries have histories of colonial agriculture with strong policy support for modern, hybrid varieties of maize, and the replacement (and displacement) of local, open-pollinated maize varieties. In South Africa, several studies have revealed the contamination of smallholder fields and seed systems. Through a political ecology lens, we explore how maize and its cotechnologies were commodified in South Africa and Malawi, and what South African experiences of GM crop adoption in smallholder farming systems can tell us about the challenges to be faced by smallholder Malawian farmers. We reveal how colonial histories and ongoing colonialities of power, knowledge, being, and nature continue to shape the character and form of agriculture in both countries, running counter to the needs of agroecological smallholder farmers and their ways of knowing and being. We conclude by envisioning what reimagined, transformed and decolonial approaches for food and agriculture might look like on the African continent, and how they might contribute toward the attainment of food and seed sovereignty and an agroecological future.</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4245365648</t>
+          <t>https://openalex.org/W2074158937</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1001/jama.265.19.2566</t>
+          <t>https://doi.org/10.1080/10670564.2013.809979</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Lundberg (1991)</t>
+          <t>Chen &amp; Jin (2013)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>National health care reform. An aura of inevitability is upon us</t>
+          <t>Income Elasticity of Housing Demand in China: micro-data evidence from Shanghai</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>"With malice toward none; with charity for all...." So spoke Abraham Lincoln in his second Inaugural Address, recognizing that he had no political consensus regarding either the constitutionality of states' seceding or the morality of slavery's being abolished. Nonetheless, he knew what was right and was able, through persuasive, often inspiring rhetoric, to conclude a bloody and divisive civil war and constitute the foundation for this great democracy. Yet, access to basic medical care for all of our inhabitants is still not a reality in this country. There are many reasons for this, not the least of which is long-standing, systematic, institutionalized racial discrimination. The major studies of health care maldistribution reinforce this statement with hard data, especially with regard to blacks and Hispanics.&lt;sup&gt;1,2&lt;/sup&gt;It is not a coincidence that the United States of America and the Republic of South Africa—the only two developed, industrialized countries that do not</t>
+          <t>AbstractSince 1998, the Chinese housing market has played a fundamental role in driving macroeconomic stability and economic growth. This paper attempts to estimate the income elasticity of housing demand in Shanghai based on a household survey conducted by the National Bureau of Statistics of China in 2007. We utilize a two-stage model, which integrates analysis of both tenure choice and housing demand. Our findings indicate that both permanent and current income has significant influence on tenure choice in Shanghai, and that owner-occupiers' permanent income elasticity of housing demand in Shanghai is between 0.375 and 0.447. Our research also suggests that migrant homeowners have higher permanent income elasticity than Shanghai natives and that most Chinese households are liquidity constrained with regards to obtaining homeownership. We also find that permanent income elasticity increases with age. Finally, the existence of an urban–rural and regional difference is shown. Notes 1. Morris A. Davis and Jonathan Heathcote, ‘Housing and the business cycle’, International Economic Review 46(3), (2005), pp. 751–784. 2. Geoffrey Carliner, ‘Income elasticity of housing demand’, The Review of Economics and Statistics 55(4), (1973), pp. 528–532. 3. Asian Development Bank, ‘The rise of Asia's middle class’, Key Indicators for Asia and the Pacific 2010 (Asian Development Bank, 2010). 4. John R. Logan, Yiping Fang and Zhanxin Zhang, ‘The winners in China's urban housing reform’, Housing Studies 25(1), (2010), pp. 101–117. 5. Bill Adams, ‘Macroeconomic implications of China urban housing privatization, 1998–1999’, Journal of Contemporary China 18(62), (2009), pp. 881–888; Jie Chen, Feng Guo and Aiyong Zhu, ‘The housing-led growth hypothesis revisited: evidence from the Chinese provincial panel data’, Urban Studies 48(10), (2011), pp. 2049–2067. 6. For example, Zhizhuang Zou and Linlin Niu, ‘Demand and supply for residential housing in urban China’, Journal of Financial Research no. 355, (2010). 7. Erwin Charlier, Bertrand Melenberg and Arthur van Soest, ‘An analysis of housing expenditure using semiparametric models and panel data’, Journal of Econometrics 101(1), (2001), pp. 71–107. 8. Stephen K. Mayo, ‘Theory and estimation in the economics of housing demand’, Journal of Urban Economics 10(1), (1981), pp. 95–116. 9. Allen C. Goodman, ‘An econometric model of housing price, permanent income, tenure choice, and housing demand’, Journal of Urban Economics 23(3), (1988), pp. 327–353.10. Allen C. Goodman, ‘Estimating equilibrium housing demand for “stayers”’, Journal of Urban Economics 51(1), (2002), pp. 1–24.11. Jeffrey E. Zabel, ‘The demand for housing services’, Journal of Housing Economics 13(1), (2004), pp. 16–35.12. John Ermisch, Jeanette Findlay and Kenneth Gibb, ‘The price elasticity of housing demand in Britain: issues of sample selection’, Journal of Housing Economics 5, (1996), pp. 64–86.13. Axel Börsch-Supana, Florian Heissb and Miki Sekoc, ‘Housing demand in Germany and Japan’, Journal of Housing Economics 10(3), (2001), pp. 229–252.14. Javier A. Barrios García and José E. Rodríguez Hernández, ‘Housing demand in Spain according to dwelling type: microeconometric evidence’, Regional Science and Urban Economics 38(4), (2008), pp. 363–377.15. Matías Fontenla and Fidel Gonzalez, ‘Housing demand in Mexico’, Journal of Housing Economics 18(1), (2009), pp. 1–12.16. Raymond Y. C. Tse and John Raftery, ‘Income elasticity of housing consumption in Hong Kong’, Journal of Property Research 16(2), (1999), pp. 123–138.17. Fontenla and Gonzalez, ‘Housing demand in Mexico’.18. García and Hernández, ‘Housing demand in Spain according to dwelling type’.19. Chen et al., ‘The housing-led growth hypothesis revisited’; Adams, ‘Macroeconomic implications of China urban housing privatization’.20. Zou and Niu, ‘Demand and supply for residential housing in urban China.’ Financial Research (Jin Rong Yan Jiu) (in Chinese), 33(1), (2010), pp. 1–12.21. Mayo, ‘Theory and estimation in the economics of housing demand’.22. Charlier et al., ‘An analysis of housing expenditure using semiparametric models and panel data’; Goodman, ‘Estimating equilibrium housing demand for “stayers”’.23. Jeffrey S. Zax, ‘Latent demand for urban housing in the People's Republic of China’, Journal of Urban Economics 42(3), (1997), pp. 377–401; Yuming Fua, David K. Tse and Nan Zhou, ‘Housing choice behavior of urban workers in China's transition to a housing market’, Journal of Urban Economics 47(1), (2000), pp. 61–87; Xuehui Han, ‘Housing demand in Shanghai: a discrete choice approach’, China Economic Review 21(2), (2010), pp. 355–376.24. Wu, ‘Sources of migrant housing disadvantage in urban China’; Han, ‘Housing demand in Shanghai’; Chen et al., ‘The housing-led growth hypothesis revisited’.25. Gary Painter, Stuart Gabriel and Dowell Myers, ‘Race, immigrant status, and housing tenure choice’, Journal of Urban Economics 49(1), (2001), pp. 150–167.26. United Nat</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1520462853</t>
+          <t>https://openalex.org/W1585177941</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2307/1229629</t>
+          <t>https://doi.org/10.1002/eet.1640</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Gordon &amp; Rhode (2002)</t>
+          <t>Ye &amp; Zhang (2014)</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Portrait of a Profession in Paralysis</t>
+          <t>Local Environmental Enforcement Constrained by Central–Local Relations in China</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Reading Deborah Rhode's book on the legal profession is a profoundly depressing experience. This is precisely because of the book's understatement. Unlike many of the recent jeremiads lamenting the fall of the profession from a golden age of ethical practice and public service, In the Interests of Justice is far from an undiscriminating broadside against the bar and its works. Rhode strives to be restrained, temperate and discriminating in her critiques. Unlike most of the political and media critics of the profession, she relies on a substantial body of sober research on lawyers and their work rather than on anecdotal horror stories. Indeed she uses this research to defend lawyers against some of the more common attacks on them, such as that criminal defense lawyers regularly bring about the release of dangerous criminals on technicalities, and that personal injury lawyers are seriously damaging the American economy by deluging businesses with frivolous lawsuits. (The real scandals, as she points out, are that most accused criminals get no effective representation at all and that most valid personal injury claims never reach the tort system and remain uncompensated.) Nor is her book purely destructive, an indictment without remedies. Although often acerbic, her tone is detached and diagnostic rather than polemical or accusing. She has many practical proposals for reform, which on the whole are modest, incremental, sensible, and entirely feasible.</t>
+          <t>ABSTRACT Environmental pollution has become a major health concern and has escalated to a major political issue in China. It has been identified that enforcement of environmental regulation is the weakest link in environmental protection. Local government is often the focus of study because of its legal obligation for enforcement under national environmental law, and for its significance in the complex and intriguing central–local relations in the Chinese government system. We propose an interpretative framework to explain the local environmental enforcement dilemma in China, based on an institutional approach. Local governments tend to underperform. We argue that the overall national institutional environment that defines central–local relations in both political and financial terms is key for explaining why local governments fail to meet their obligations. Local governments tend to promote economic growth and maximize tax revenue, by attracting external investment and protecting polluting businesses, at the expense of environmental quality. Inadequate disclosure of environmental data and occasionally intentionally distorting information obstruct public participation and supervision – a key factor for ensuring the accountability of local enforcement. The policy implications of this analysis are that central government, in its capacity as the rule‐maker, must take action to adjust the existing central–local relations with respect to the political promotion system and the tax‐sharing mechanism. In addition, more stringent procedures and standards must be made by central government regarding the disclosure of environmental data to enable effective public participation. Copyright © 2014 John Wiley &amp;amp; Sons, Ltd and ERP Environment</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2358393030</t>
+          <t>https://openalex.org/W2145116133</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Li-dong (2007)</t>
+          <t>Arabatzis et al. (2010)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>The Internal Disorder and Foreign Invasions of China during the Late Qing Dynasty and Start of Japanese Modernization</t>
+          <t>Rural development and LEADER+in Greece: evaluation of local action groups.</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>China repeatedly suffered the aggressions of western colonialists and perished gradually during the late Qing dynasty.At the same time the large-scale peasant uprising erupted.This turned China into the situation of internal disorder and foreign invasions.This situation,however,send out the intense warning repeatedly to Japan which was closed off at that time from other countries.Japan,with such enlightenment of reforming and defending against the invasion powers,stepped onto the modernization road of opening the country,opposing Tokugawa Shogunate movement and the Meiji Restoration.</t>
+          <t>The reform of the structural funds that took place in 1988 gave the European Union the opportunity to provide EU member-states with special funding through community initiatives in order to diminish regional inequalities and contribute to the integrated development of the rural sector, which had been following a downward course in the last few decades. The LEADER I Community Initiative (CI) at first, followed by LEADER II and LEADER+, reinforced the local identity of the regions in which they were implemented, enhanced their natural and cultural resources, brought together for the first time local productive sectors like agriculture and tourism and revived local skills. The present paper evaluates the Local Action Groups (LAGs) implementing the LEADER+ CI in Greece, by using the PROMETHEE II multicriteria analysis. The data used is related to the budgets per measure and intervention area pertaining to each LAG. The analysis showed that the top positions in this ranking are mainly occupied by LAGs active in insular areas, which focus on the development of rural tourism and the enhancement of the natural and built environment of their region.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2146866036</t>
+          <t>https://openalex.org/W2784109980</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s0009443902220288</t>
+          <t>https://doi.org/10.2991/mcei-17.2017.10</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Beynon (2002)</t>
+          <t>Sun (2017)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>&lt;i&gt;Chinese Urban Life under Reform: The Changing Social Contract&lt;/i&gt;. By W&lt;scp&gt;enfang&lt;/scp&gt; T&lt;scp&gt;ang &lt;/scp&gt;and W&lt;scp&gt;illiam&lt;/scp&gt; L. P&lt;scp&gt;arish&lt;/scp&gt;. [Cambridge: Cambridge University Press, 2000. 308pp. £15.99. ISBN 0-521-77865-4.]</t>
+          <t>Study on the Effect of Modern Educational Technology on Quality Education</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>As state enterprise reform in China gathers pace, this book provides a timely description of urban life between the late 1980s and early 1990s, and the transformations wrought by the emergence of a market economy. The authors, a political scientist and a sociologist, explore two central issues: the systemic consequences of socialist and market social contracts, and the winners and losers in the politics of transition.</t>
+          <t>Modern educational technology is the product of the combination of advanced education thought and advanced science and technology.It is the sum of all the technical means adopted by human beings in educational activities, while quality education is the key content of China's education system reform.This article aims to study how to use modern education technology to promote the further development of quality education, taking how to use modern educational technology to deepen the educational reform, how to use modern education technology to cultivate innovative talents and the sustainable development of talent as the starting point, discussed the important role of the modern education technology in quality education.With the rapid development of science and technology, the modern educational technology with the core of information technology application has been widely used in the actual education and teaching process, and has become an important means of modern distance education, social education and lifelong education.In our country, the Ministry of Education issued "The Decision on Deepening the Educational Reform to Promote the Quality Education in an All-round Way" to promote the transformation of our school education and training objectives from "exam-oriented education" to "quality-oriented education", focusing on cultivating students' practical ability and the courage to innovate, and then gradually improve the overall quality of students, and thus promote the real implementation of quality education.</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2185053488</t>
+          <t>https://openalex.org/W2899944755</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Mustilli &amp; Pelkmans (2013)</t>
+          <t>Qerimi &amp; Qorrolli (2013)</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Access Barriers to Services Markets Mapping, tracing, understanding and measuring</t>
+          <t>A Constitutional Tradition in the Making</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>EU and national policy-makers argue that the single services market is a key to EU growth, but that many barriers to services market access remain. Grasping the scope, nature and economic meaning of these barriers, however, has proven rather difficult. This is exactly what the present CEPS Special Report helps the reader to do. We trace all market access barriers in services, as far as the data allow, and attempt to understand their nature and economic meaning (given that they are usually forms of domestic regulation) and discuss aspects of the measurement of restrictiveness. We make a sharp distinction between market access barriers restrictions in a non-EU WTO/GATS environment and intra-EU ones, and demonstrate the significant difference in ambition between the two. The paper specifies in detail the progress made by the EU's horizontal reform in services markets, documenting the removal of many cross-border obstacles to trade in services and establishment. Finally, following these conceptual and descriptive analyses, a brief assessment of access restrictiveness indices is provided for both the non-EU WTO environment and for intra-EU services access barriers.</t>
+          <t>In a period of less than a year, two decisions of the newly established Constitutional Court of the Republic of Kosovo resulted in the resignation of two Presidents of the new State. Ruling on the unconstitutionality of the act of simultaneously holding the position of the head of State and that of his political party, in one case; and ruling on the unconstitutionality of his election due to procedural irregularities in the other, the Court prompted fundamental changes to the political landscape of Kosovo that in the first case led to new and extraordinary elections, whereas in the second to a political arrangement that would ultimately lead to constitutional reforms. Following the Court’s decisions, both Presidents (Sejdiu and Pacolli) resigned from their posts. This article offers a textual analysis of the merits and controversies surrounding both decisions, which will be situated in the broader context of the seemingly powerful role of Constitutional Courts in certain societies in transition. The overall analysis demonstrates the weaknesses inherent to the initial stages of State formation, and to the foundational constitutional instrument, indicating the importance of the Constitution’s clarity for political stability. In an environment characterized by a dominant perception of a politicized judiciary, the Court’s decisions testify to the judicial activism of the Constitutional Court and, in terms of the substance and consequences of its key decisions, also to judicial supremacy. The Court’s decisions have also had some significance for testing the country’s political culture, a test that has been met in both cases eventually with compliance by those most affected.</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2491761226</t>
+          <t>https://openalex.org/W3049375599</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/chol9780521871105.016</t>
+          <t>https://doi.org/10.4018/978-1-7998-4984-1.ch030</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Hamm (2000)</t>
+          <t>Zein et al. (2020)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>The Middle Colonies, 1680–1730</t>
+          <t>Entrepreneurship and Technopreneurship in Era 4.0</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>More than a generation ago Carl Bridenbaugh, summing up the religious experience of the colonists on the Hudson and the Delaware, wrote, “In a region of so many nationalities – Dutch, Swedes, Finns, French, Germans, English – toleration was vital.” In contrast to the colonies to the north and south, which were largely ethnically homogeneous before 1730, with powerful established churches, Congregationalism in New England and Anglicanism in the South, the Middle Colonies – for the purposes of this essay New York, New Jersey, Pennsylvania, and Delaware – presented a diverse array of faiths and peoples. All of the following found homes there: Dutch and German Reformed; French Huguenots; Swedish and German Lutherans; Scottish, Irish, and English Presbyterians; Welsh and English Baptists; English Congregationalists; and German, English, and Welsh Quakers, not to mention a variety of other sects. Roman Catholics also achieved grudging toleration there, and by 1730 most of North America's tiny Jewish population lived in New York. Living near them, of course, were Native Americans whose religious relationship with Europeans was often uneasy. And arriving involuntarily were growing numbers of enslaved Africans, who would be a source of both missionary labor and uneasy conscience for some of their European neighbors.</t>
+          <t>This chapter discussed that the combination of entrepreneurship and technopreneurship is a crucial factor in the long-term sustainability of e-commerce and e-businesses. The Industrial Revolution 4.0 produced very rapidly, disruption, and exponential changes. The development of digital technology will change and displace traditional industries. Not only traditional industries but also various repetitive jobs such as cashiers, admins, or small and micro-manufacturing industry workers sooner or later will be replaced by machines or automation robots. Even professions and analytical work such as tax consultant, accountant, or translator will be carried out by digital systems that will process input data more quickly, accurately without human error, and precision according to principles. One of the professions that is believed to continue to develop and will continue to exist is technopreneurship that is primarily supported by the increasing number of forms of technology-based entrepreneurship, such GO-JEK.</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2345484325</t>
+          <t>https://openalex.org/W2369940683</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Guidotti (2015)</t>
+          <t>Wei (2009)</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Close Companies in Italy</t>
+          <t>Analysis of Peasant Income Growth and Its Countmeasure in Jilin Province</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>The paper provides a general overview of the three types of Close Companies in Italy and the relationship between Italian reforms and the current situation in some other EU Member States. The work is primarily descriptive but it also focuses on the flexibility of the Italian National Law regarding the Limited Liability Company and the importance of creating a new European Company legal form in order to facilitate the establishment of companies and the cross-border operations within the European Single Market.</t>
+          <t>The growth of peasant income was slow and unstable,the structure was single,the gap of Urban-rural income was constantly widening.Based on time evolution,structure transition,Urban-rural income gap,the paper studied the evolution process of peasant income in Jilin Province after reform and opening up,analyzed impacts of restrictive factors on peasant income,and discussed the countermeasure of implementing sustained growth of peasant income.</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2921376117</t>
+          <t>https://openalex.org/W3047067040</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/rirt.13863</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Jackson (2018)</t>
+          <t>Graff (2020)</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Towards inclusive workforce development: socio-economic diversity in the Australian early childhood workforce and its implications for practice</t>
+          <t>Conversion and the Rehabilitation of the Penal System: A Theological Rereading of Criminal Justice, AndrewSkotnicki, Oxford University Press, 2019 (ISBN 978‐0‐19‐088083‐5), viii + 192 pp., hb £16.99</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>This study describes various aspects of socio-economic diversity in the Australian early childhood education and care (ECEC) workforce, and considers their implications for educators’ practice. Its main hypothesis is that educators’ qualifications are likely to be associated with other aspects of social advantage, and that this association may contribute to the relationship between educators’ qualifications and quality of practice that underpins ECEC workforce development policy in Australia. Drawing on the work of Pierre Bourdieu, the study conceptualises social advantage as comprising different levels of cultural, economic and social capital, which influence practice through the mechanism of habitus. The study uses existing data from three large-scale surveys to identify indicators that relate to capital and its effects for the Australian ECEC workforce, and describe their relationship with educators’ qualifications. The Australian Bureau of Statistics Census of Population and Housing is used to describe educators’ position in Australian society; the National ECEC Workforce Census to describe educators’ subjective experience of their work; and the Longitudinal Surveys of Australian Youth to describe educators’ school and family backgrounds, and transitions. The results indicate that the effects of cultural capital (especially achievement at school) are associated with educators’ qualifications as Bourdieu’s theory predicts, as is educators’ access to economic capital. The study also identifies various strengths and challenges associated with social advantage for educators with different qualifications, which may have bearing on the quality of their practice. The study concludes with discussion of how these findings might inform support for educators’ professional growth, including by informing educators’ own collaborative professional reflection. The study aims to guide more inclusive approaches to ECEC workforce development, by looking beyond qualifications to the dynamics of social advantage that complicate ECEC workforce reform.</t>
+          <t>‘You taught me language, and my profit on't/Is, I know how to curse’ (William Shakespeare, The Tempest, Act 1, Scene 2). Caliban's language, simultaneously cursed and cursing, is not a far cry from the grammars of coercion that Andrew Skotnicki diagnoses in Conversion and the Rehabilitation of the Penal System as at the heart of the contemporary prison-industrial complex. As the title's penological pun suggests, the book is a clarion call not solely to rehabilitate the millions of people currently incarcerated in America, but first and foremost to rehabilitate the criminological project of rehabilitation itself. In this regard, Skotnicki joins the numerous voices who advocate radical penal reform, including lawyers, politicians, activists, academics, journalists, novelists, and artists. Where his project diverges most significantly is the methodological suggestion that penological rehabilitation might fruitfully begin in and through a kind of penological ressourcement. To rediscover confinement as historically rooted in the penitential practice of the early Christian Church, he argues, is to begin to reimagine how the ‘anthropological and moral horizon found in theological systems’ (p. 13) might radically reinstitute the origin and end of confinement as not punishment, but conversion. As he states categorically at the onset of the book, conversion is the ‘only justification that can bear the moral and social weight and “unwanted irony” of inflicting the public violence of incarceration as a reaction to acts of private misconduct’ (p. 1). The argumentative aim of Skotnicki's text is threefold: to disabuse a naive reliance upon the myriad forms of coercion that underlie contemporary criminological theory and practice (Chapters 1 and 2); to propose a robust definition of ‘conversion’ as the process of innate human goodness overcoming alienation in and through compassionate accompaniment (Chapter 3); and to chart how conversion might productively address the lacunae present within the best current models of rehabilitation, in order ultimately to envision how conversion can ‘rehabilitate’ the penal system (Chapters 4 and 5). In Chapter 1, Skotnicki sketches a historical outline of the emergent ethical incoherence of contemporary criminal justice. In the absence of ‘a life-affirming moral ontology’ (p. 13) and its attendant ‘penitential and re-integrative methodology that addresses human violence without a need for violence’ (p. 13), Skotnicki avers that the penal system has ‘lost its ability to frame a convincing moral justification either to those punished or to those in whose ostensible name the punishment is inflicted’ (pp. 15–16), and therefore must inevitably resort to ‘a default reserve of coercive power’ (p. 15) to effect compliance in the prisoner. Underlying this functional reserve of coercive power, however, is the more fundamental philosophical flaw of a ‘dualist’ worldview, which posits a fundamental division and distance, rather than unity and relationality, between the self (and/or the collective self of a given community, ideology, or government) and the other. The incarcerated individual is no longer a fellow human being presumed to participate in a shared project of desire for the good and attunement to the truth, but is rather reduced in the civic realm to a public ‘risk’ to be managed and converted in the criminological field into a scientific object to be analyzed at a distance. Chapter 2 complements Chapter 1 by attempting to disabuse punishment, that is, ‘the moral sanction to bring willful harm upon those found guilty of crime’ (p. 33) as a regulative principle for criminal justice. He does so by critiquing two commonly cited justifications for punishment: retributivism and deterrence. Concerning the corpus of arguments adduced on behalf of the former, Skotnicki treats primarily the four common justifications of ‘responsibility, desert, emphasis on the action itself rather than the person performing it, and support for other punitive justifications as long as they are secondary claims’ (p. 37). Regardless of rationale, he concludes that the problematic of ‘human fallibility’ in and of itself, ‘whether that of the offender or the judge, or, for that matter, the victim’ raises significant doubts as to one's capacity to discern adequately either the ‘internal degree of moral responsibility of another’ or ‘the amount of suffering to which he or she can rightly be subjected’ (p. 51). Likewise, Skotnicki finds deterrence, that is, the use of punishment as ‘a tool to deflate the appeal of illegal conduct both by the offender and the wider populace’ (pp. 54–55), to be both morally and functionally problematic. In defense, he cites not only the ‘obvious moral objection of using the offender as a pawn in a strategy of inflicting suffering as a means of inducing fear and moral compliance’ (p. 55), but also more fundamentally the direct correlation between deterrence and the reductive hedonic calculat</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4236949866</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1787/9789264311695-6-en</t>
+          <t>https://openalex.org/W3005799307</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NA (2019)</t>
+          <t>Marzilli (2019)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Agricultural policy framework and objectives</t>
+          <t>Cambios, desafíos e incógnitas en la iglesia que conocemos: Influencia y expansión de la Nueva Reforma Apostólica</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Agricultural policies in Argentina have suffered the same volatility as other policies, especially macroeconomic and trade policies. The open economy approach of the 1990s was followed by a period of economic isolation with higher tariffs and export taxes over 2001-15. The current Government has renewed the open economy approach since 2015. The Ministry of Agriculture was only separated from the Ministry of Economy in 2009, while a broader focus on the whole value chain was introduced in 2015 and reflected in the new name of Ministry of Agroindustry, which is part of the Ministry of Production and Labour since September 2018. Several decentralised institutions with responsibility for implementing agricultural policies and services have a long tradition of professionalism; these include the research and extension institute, INTA, and the animal and plant health service, SENASA. There are very few input or output payments to producers in Argentina, with the exception of programmes under the Special Tobacco Fund (FET), preferential credit mainly to small producers through FINAGRO and some infrastructure programmes such as PROSAP.</t>
+          <t>espanolEl presente trabajo es una breve sintesis de mi tesis doctoral en el campo de la sociologia de la religion que busco comprender la Influencia y expansion de la Nueva Reforma Apostolica en las iglesias evangelicales. Un estudio enfocado en la Iglesia Bautista de la Ciudad Autonoma de Buenos Aires y el Primer Cordon del Conurbano Bonaerense. Si bien el estudio de la nueva Reforma Apostolica no es nuevo en nuestro contexto, si es novedoso el analisis abocado al impacto de la misma en las dimensiones practicas de la iglesia (teologia, gobierno, liturgia, organizacion y evangelismo). Al tiempo que se busco analizar si hay un reacomodamiento de la taxonomia del campo evangelico argentino asimilado por Wynarczyk a un campo de fuerzas y compuesto basicamente por el polo historico-liberacionista y el polo conservador biblico, en este sentido veremos que hay desplazamientos y nuevos marcos interpretativos de accion colectiva que van dinamizando y transformando el paisaje taxonomico. EnglishThe present work is a brief synthesis of my doctoral thesis in the field of religion sociology that seeks to comprehend the influence and expansion on the New Apostolic Reform in evangelical churches. It’s a study focused on Autonomous City of Buenos Aires’s Baptist Church and the First Line of the Buenos Aires Province. Although the study of the New Apostolic Reform is nothing new, the analysis around its impact on the practical dimensions of the church (theology, government, liturgy, organization and evangelism). As we dive into whether there is a reorganization of the Argentinean Evangelical Field’s taxonomy described by Wynarczyk into a Force Field composed of the historic-liberationist pole and the biblical conservative pole, we’ll see that, in a way, there are shifts and new interpretative frames of collective action that move and transform the taxonomic landscape</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2974355122</t>
+          <t>https://openalex.org/W4378604444</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>https://doi.org/10.18202/jamal.2019.08.10015</t>
+          <t>https://doi.org/10.1353/cye.2008.0013</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Hidayah &amp; Rahmawati (2019)</t>
+          <t>Chawla (2008)</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>MANFAAT LABA UNTUK MENAMBAH UTANG DAN MENGURANGI PAJAK</t>
+          <t>Revolutionizing Education: Youth Participatory Action Research in Motion</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Abstrak: Manfaat Laba untuk Menambah Utang dan Mengurangi Pajak. Penelitian ini bertujuan menemukan dampak serentak dan parsial pada likuiditas, struktur aset serta laba korporasi atas struktur modal. Regresi linear berganda digunakan sebagai metode terhadap 25 korporasi ritel sejak tahun 2011-2017. Hasil temuan mengindikasikan korporasi ritel cenderung memaksimalkan pemanfaatan pembiayaan internal dari pada laba ditahan. Laba ditahan digunakan untuk membiayai aktivitas operasional serta ekspansi bisnisnya sehingga tingkat utang mengalami penurunan. Namun laba korporasi tidak dimanfaatkan manajemen untuk menarik kreditur baru sehingga pembayaran pajak menjadi lebih tinggi. Oleh sebab itu, manajemen harus memanfaatkan laba untuk menambah utang korporasi sebagai pengurang biaya pajak. Abstract: The Benefits of Profit for Increasing Debt and Reducing Taxes. This study aims to find a simultaneous and partial impact on liquidity, asset structure, and profit on the capital structure. Multiple linear regression was used as a method for 25 retail corporations from 2011-2017. The findings indicate that corporations tend to maximize the utilization of internal financing from retained earnings. It is used to finance operational activities and business expansion so that the level of debt has decreased. However, the profit isn’t utilized by management to attract new creditors so that tax is higher. Therefore management must use the profit to increase corporate debt as a deduction from tax costs.</t>
+          <t>Children, Youth and Environments Vol. 18 No. 2 (2008) ISSN: 1546-2250 Revolutionizing Education: Youth Participatory Action Research in Motion Cammarota, Julio and Fine, Michelle (2008). New York: Routledge; 248 pages. $34.95. ISBN 0415956161. This book discusses how the methods of Youth-Led Participatory Action Research (YPAR) can be applied in different settings to put tools for education that promotes social justice in young people’s hands. In their introduction, the editors note that when youth develop a critical awareness of injustice, they can respond in three ways: by self-defeating resistance, such as dropping out of schools or job markets that fail to meet their needs; by conforming with the existing system for personal gain, even if they do not agree with many of its premises; or by transformational resistance that seeks to analyze systemic causes of injustice and take action for social change. The chapters that follow describe projects that embody the practice of transformational resistance, using YPAR as a means to democratize knowledge, foster critical inquiry about daily life, and develop liberatory practices. Most chapters focus on engaging youth in investigating and envisioning school reform, but in a chapter that is likely to be of particular interest to CYEreaders who practice participatory planning with youth, Caitlin Cahill, Indra Rios-Moore and Tiffany Threatts describe how YPAR was applied to examine links between the gentrification of the Lower East Side in New York and the stereotyping of young women of color who grew up there. As the project progressed, the young women learned to see their community and themselves in new ways. As one youth researcher said, “I just see with different eyes now. Open eyes . . . I just think that just recently I’ve been opening my eyes.” 292 Reviewer Information Chawla, Louise Louise Chawla is a professor in the College of Architecture and Planning at the University of Colorado. ...</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1753546731</t>
+          <t>https://openalex.org/W3137781188</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/0261-5177(86)90036-1</t>
+          <t>https://doi.org/10.1016/j.ijrobp.2020.11.056</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Hanlon (1986)</t>
+          <t>Shah &amp; Royce (2021)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Indian air transport</t>
+          <t>Chicken Little or Goose-is-Cooked? The State of the US Radiation Oncology Workforce: Workforce Concerns in US Radiation Oncology</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Despite high rates of growth and reasonably healthy financial results, Indian air transport is not without its economic problems. Surpluses earned on some services are used to cross-subsidize deficits incurred on others and this, in situations where there are some severe shortages in aircraft capacity, is effectively acting as a brake upon the long-term development of tourism. This article examines the economics of the Indian airline industry, identifying the main demand and cost factors affecting Its performance. It considers the possibilities for charters on international routes, and suggests ways in which the economic efficiency of domestic operations might be improved by reforming passenger tariffs.</t>
+          <t>The US radiation oncology (RO) workforce history is well documented, with reports going back &gt;35 years.1Davis L.W. Cox J. Diamond J. et al.The manpower crisis facing radiation oncology.Int J Radiat Oncol Biol Phys. 1986; 12: 1873-1878Abstract Full Text PDF PubMed Scopus (16) Google Scholar, 2Burt L.M. Trifletti D.M. Nabavizadeh N. et al.Supply and demand for radiation oncology in the United States: A resident perspective.Int J Radiat Oncol Biol Phys. 2017; 97: 225-227Abstract Full Text Full Text PDF PubMed Scopus (20) Google Scholar, 3McClelland S. Jagsi R. What has been will be again- challenges in post-residency radiation oncology employment.Int J Radiat Oncol Biol Phys. 2020; 106: 216-217Abstract Full Text Full Text PDF PubMed Scopus (5) Google Scholar, 4Hussey D.H. Horton J.L. Mendenhall N.P. et al.Manpower needs for radiation oncology: A preliminary report of the ASTRO human resources committee. American Society for Therapeutic Radiology and Oncology.Int J Radiat Oncol Biol Phys. 1996; 35: 809-820Abstract Full Text PDF PubMed Scopus (34) Google Scholar Periodic assessments are informative because of the dynamic balance between RO supply and demand. The field has oscillated from perceived oversupply (∼1993-1999) to balanced supply (∼1999-2005) to undersupply (∼2005-2011) and back to perceived oversupply (2011-present; Fig. 1).4Hussey D.H. Horton J.L. Mendenhall N.P. et al.Manpower needs for radiation oncology: A preliminary report of the ASTRO human resources committee. American Society for Therapeutic Radiology and Oncology.Int J Radiat Oncol Biol Phys. 1996; 35: 809-820Abstract Full Text PDF PubMed Scopus (34) Google Scholar, 5Flynn D.F. Kresl J.J. Sheldon J.M. The employment status of 1995 graduates from radiation oncology training programs in the United States.Int J Radiat Oncol Biol Phys. 1999; 43: 1075-1081Abstract Full Text Full Text PDF PubMed Scopus (15) Google Scholar, 6Smith B.D. Haffty B.G. Wilson L.D. et al.The future of radiation oncology in the United States from 2010 to 2020: Will supply keep pace with demand?.J Clin Oncol. 2010; 28: 5160-5165Crossref PubMed Scopus (118) Google Scholar, 7Pan H.Y. Haffty B.G. Falit B.P. et al.Supply and demand for radiation oncology in the United States: Updated projections for 2015 to 2025.Int J Rdiat Oncol Biol Phys. 2016; 96: 493-500Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar, 8Fung C.Y. Chen E. Vapiwala N. et al.The American Society for Radiation Oncology 2017 radiation oncologist workforce study.Int J Radiat Oncol Biol Phys. 2019; 103: 547-556Abstract Full Text Full Text PDF PubMed Scopus (80) Google Scholar The current era is well characterized, with increasing resident complements observed since 2013, a projected oversupply, and increased concern among the workforce.7Pan H.Y. Haffty B.G. Falit B.P. et al.Supply and demand for radiation oncology in the United States: Updated projections for 2015 to 2025.Int J Rdiat Oncol Biol Phys. 2016; 96: 493-500Abstract Full Text Full Text PDF PubMed Scopus (71) Google Scholar, 8Fung C.Y. Chen E. Vapiwala N. et al.The American Society for Radiation Oncology 2017 radiation oncologist workforce study.Int J Radiat Oncol Biol Phys. 2019; 103: 547-556Abstract Full Text Full Text PDF PubMed Scopus (80) Google Scholar, 9Shah C. Expanding the number of trainees in radiation oncology: Has the pendulum swung too far?.Int J Radiat Oncol Biol Phys. 2013; 85: 1157-1158Abstract Full Text Full Text PDF PubMed Scopus (31) Google Scholar Since the 2016 oversupply projections, substantial developments (eg, national payment policy shifts) have further complicated the calculus. In addition, interpretations of the current state remain mixed between trainees/recent graduates and more established radiation oncologists.10Kahn J. Goodman C.R. Albert A. et al.Top concerns of radiation oncology trainees in 2019: Job market, board examinations, and residency expansion.Int J Radiat Oncol Biol Phys. 2020; 106: 19-25Abstract Full Text Full Text PDF PubMed Scopus (40) Google Scholar,11Potters L. Liu F.F. Bonner J. The top concerns of radiation oncology trainees in 2019: A response from SCAROP.Int J Radiat Oncol Biol Phys. 2020; 106: 26-28Abstract Full Text Full Text PDF PubMed Scopus (2) Google Scholar Regardless, oversupply worries have reached a fever pitch among trainees, with the job market being the primary concern and 52% perceiving an increasingly competitive market10Kahn J. Goodman C.R. Albert A. et al.Top concerns of radiation oncology trainees in 2019: Job market, board examinations, and residency expansion.Int J Radiat Oncol Biol Phys. 2020; 106: 19-25Abstract Full Text Full Text PDF PubMed Scopus (40) Google Scholar; these concerns have manifested in a precipitous decline in student interest, with 14% of RO residency positions unmatched in the 2020 Match (compared with previous rates of near 0%) and worse numbers expected for the 2021 match.12Agarwal A. Royce T.J. Goodman C.R. et al.Unfilled position in the 2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4206695448</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.26516/2071-8136.2021.4.71</t>
+          <t>https://openalex.org/W2254868105</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bondareva &amp; AUTHOR_ID (2021)</t>
+          <t>Beck et al. (2015)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>These insights into the pension law trends peculiar to the USSR and Russian federation: analysis of the results achieved</t>
+          <t>Euro area macro-financial stability: A flow-of-funds perspective</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pension law trends peculiar to the USSR and Russian Federation, their fundamental influence upon the ultimate results of pension provision as to the citizens of the USSR and the ones of post-Soviet Russia are the concern of the present study. A brief review of Soviet pension law is provided herein, key elements of legal regulation of pension entitlement during Soviet period are analyzed along with the results achieved both in the USSR and Russian Federation as to the old-age insurance. The information about scales of pensions at the periods of time listed above – their minimum, medium and maximum values – is represented therewith; the purchasing power of Soviet and Russian pensions is compared, figures concerning coefficient of substitution of lost wage with pensions are dealt with. It is pointed out that the unified public pension system of the USSR has been a beneficial experience along with the establishment of proper social standards in the domain of pension provision, opportune getting the pension law development priorities right, approach and coherent rise in the standard of living of pensioners. The results of legislative work through the 90s of the 20-th century in the domain of pension provision in Russia are also summing up herein, correlation of reformative decisions made during the last decades and their consequences for the Russian pensioners are considered. Relying on the analysis above the following conclusions can be reached: pension provision reforming in Russia nowadays has not brought to rise in the standard of living of most pensioners. Moreover the level of pension provision in Russia has become lower than the one in the USSR. By this means it is concluded that fundamental reforming of pension provision setup in Russian Federation is extremely necessary and thereafter some ways of its improvement are suggested.</t>
+          <t>The global financial crisis (as well as the European sovereign debt crisis) has led to a substantial redesign of rules and institutions - aiming in particular at underwriting financial stability. At the same time, the crisis generated a renewed interest in properly appraising systemic financial vulnerabilities. Employing most recent data and applying a variety of largely only recently developed methods we provide an assessment of indicators of financial stability within the Euro Area. Taking a functional approach, we analyze comprehensively all financial intermediary activities, regardless of the institutional roof - banks or non-bank (shadow) banks - under which they are conducted. Our results reveal a declining role of banks (and a commensurate increase in non-bank banking). These structural shifts (between institutions) are coincident with regulatory and supervisory reforms (implemented or firmly anticipated) as well as a non-standard monetary policy environment. They might, unintendedly, actually imply a rise in systemic risk. Overall, however, our analyses suggest that financial imbalances have been reduced over the course of recent years. Hence, the financial intermediation sector has become more resilient. Nonetheless, existing (equity) buffers would probably not suffice to face substantial volatility shocks.</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2752307681</t>
+          <t>https://openalex.org/W3198336711</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09644016.2021.1959756</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>권재열 (2005)</t>
+          <t>Rabitz (2021)</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Some Thoughts on the Reform of Regulation on the Maximum Resale Price Maintenance</t>
+          <t>The international governance of gene drive organisms</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Gene Drive Organisms (GDOs) are a proposed biotechnological intervention that might generate significant benefits for the conservation and sustainable use of biological diversity while also raising critical biosafety issues. Despite their inevitable transboundary effects, their implications for international institutions remain undertheorized. This text develops a theoretical analysis of international GDO governance. First, it elaborates the problem-structural characteristics of GDOs that turn them into a novel and distinct governance challenge, focusing on leverage, cost-benefit distributions, irreversibility, as well as uncertainty and unpredictability. Second, it derives the implications of problem structure for institutional design by focusing on pre-release risk assessment and authorization, as well as post-release monitoring and liability. Third, it uses these institutional implications for benchmarking the Cartagena Protocol on Biosafety, the focal point in international biotechnology regulation, for effective GDO governance. The text concludes that institutional reforms are required for folding GDOs into international biodiversity policy.</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124257099</t>
+          <t>https://openalex.org/W4391996043</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/su16051760</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Hodge (2000)</t>
+          <t>Song et al. (2024)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>National Health Information Privacy and New Federalism</t>
+          <t>How Does the Low-Carbon City Pilot Policy Affect Enterprises’ Green Innovation? Empirical Evidence from the Context of China’s Digital Economy Development</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>In a modern national health information infrastructure that encourages widespread collection, storage, and disclosure of identifiable health information, there exist new challenges to protecting health data privacy. Arguments for better health information privacy protections have motivated significant legal reform, particularly at the state level. Through the use of their virtually limitless police powers, states have enacted numerous types of privacy laws and policies concerning health data. These varied state privacy laws and regulations, however, have resulted in a patchwork system of protections with glaring exceptions. Consequently, many suggest the need for national federal health information privacy protections. Congress has introduced comprehensive health information privacy bills over the past several years and the federal Department of Health and Human Services is preparing to implement administrative regulations for the same purpose. Yet it is uncertain whether, and to what extent, the federal government should or can effectually protect health information privacy in an era of new federalism. The relationship between federalism and health information privacy ultimately concerns the ability of government in the United States to protect individual privacy. Principles of new federalism suggest not only that the existing powers of the federal government should be limited, but that prior federal responsibilities should increasingly be returned to the states. As these principles are explored against the need for privacy protections, the assumption that the federal government may appropriately supply these protections is challenged. The existing patchwork of state protections must not only be preserved, but may actually be preferred.</t>
+          <t>The integrated development of green innovation and digital economy is crucial for addressing global climate change, promoting the application and popularization of digital technologies in the green sector, and achieving efficient, intelligent, and sustainable economic development and lifestyles. Using panel data from China’s listed enterprises from 2003 to 2021, this study examines the impacts of environmental regulations on green innovation in the low-carbon city pilot policy (LCCPP) context, which serves as a quasi-natural experiment in the digital economy. The results show that LCCPP effectively enhances enterprises’ green innovation by increasing enterprises’ environmental and research and development investments, and boosting digital transformation. Heterogeneity analysis reveals that the promotion effect of LCCPP on green innovation is highly pronounced for enterprises in the eastern region, for those with low financial constraints, and for technology-intensive enterprises. This effect is closely and positively correlated with the digital economy level in the regions where the enterprises are located. This study provides new empirical evidence for the relationship between environmental regulations and enterprises’ green innovation and discusses policy support for addressing global climate change challenges through environmental regulations in the digital economy context, thereby promoting global sustainable development.</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2082548053</t>
+          <t>https://openalex.org/W2020080520</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1136/bmj.303.6812.1216</t>
+          <t>https://doi.org/10.1016/j.catena.2015.04.010</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Greenberger et al. (1991)</t>
+          <t>Karamesouti et al. (2015)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Reforming health care in the United States.</t>
+          <t>Land-use and land degradation processes affecting soil resources: Evidence from a traditional Mediterranean cropland (Greece)</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Land degradation is a complex process resulting from the permanent interaction between physical and human factors. The effect of changes in land-use and land management on soil erosion and desertification risk has been studied in Messara Valley (Crete, Greece) over the last six decades (1950–2010). Vegetation cover and land-use have been analyzed using representative aerial photographs and ortho-photomaps for representative dates. Soil attributes have been described in a semi-detailed survey in 2010. Soil erosion rates and desertification risk have been assessed for each period using the PESERA and TERON models and the MEDALUS methodology, respectively. Based on distinct socio-ecological characteristics of the area three major time intervals have been identified. Cereals extensively cultivated during the first time interval were progressively replaced by olive plantations and vineyards in the following periods. Soil erosion due to water runoff was important especially in the olive transition period, declining in the olive subsidy period. However, tillage erosion became an important degradation process especially in the olive subsidy period due to mechanization of the agriculture determining soil losses ranging from 0.5 to 30 cm in sloping areas. Desertification risk due to soil erosion and land characteristics has significantly increased during the olive subsidy period.</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3211036874</t>
+          <t>https://openalex.org/W3032417237</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31940/jasafint.v4i2.143-150</t>
+          <t>https://doi.org/10.16538/j.cnki.jsufe.2019.05.007</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DEWI et al. (2021)</t>
+          <t>Hualei et al. (2019)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>The Effect of Government-Borne Final Income Tax Incentives on the Compliance of MSMEs Taxpayers During the Covid-19 Pandemic in Badung Regency</t>
+          <t>Reducing Endowment Insurance Contribution Rate and Potential Economic Growth Rate</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>The Covid-19 pandemic has had an impact on the decline in MSME income. Final income tax incentives borne by the government is one of the government's efforts in the field of taxation. This study aims to determine the effect and magnitude of the effect of the Government's Final Income Tax Incentive on MSME taxpayer compliance during the Covid-19 pandemic in Badung Regency. The questionnaire was used as a data collection tool and the sample used was 95 corporate MSME taxpayers. The focus of this study is the final income tax incentives borne by the government that will apply in 2020 as regulated in the Minister of Finance Regulation starting from PMK 44/2020, PMK 86/2020 to PMK 110/2020 and undergoing several changes and time extensions until PMK 86/2021 which is valid until the end of 2021. The conclusions of this study are (1) The final income tax incentives borne by the government have a positive and significant effect on MSME taxpayer compliance; (2) The final income tax incentive borne by the government has an effect of 23.9% on MSME taxpayer compliance.</t>
+          <t>Facing the downward trend of economic growth year by year, in order to promote the sustained and stable development of China’s economy, and smoothly achieve two hundred-year goals, reducing the tax burden of enterprises, especially reducing the contribution rate of enterprise endowment insurance, has become an important policy grasp. On May 1, 2019, China reduced the contribution rate of enterprise endowment insurance to 16%. Under this background, will reducing the contribution rate of enterprise endowment insurance to 16% promote the real potential economic growth rate in the future, and to what extent can reducing the contribution rate of enterprise endowment insurance promote economic growth? Is it true that the lower the contribution rate of enterprise endowment insurance, the better the China’s future economic performance? These become the urgent question to be answered.In response to the above key scientific questions, by constructing a dynamic general equilibrium model and simulating with realistic and feasible parameters, it is found that although reducing the contribution rate of enterprise endowment insurance to 16% cannot change the downward trend of economic growth, it indeed increase China’s potential economic growth rate, especially in the short term. Taking into account the experience of OECD countries, further simulation shows that the above conclusions are still robust. Reducing the contribution rate of enterprise endowment insurance to 16% will increase the average economic growth rate by 0.912%, 0.132% and 0.211% between 2019-2021, 2022-2050 and 2019-2050, respectively. Meanwhile, it is not true that the lower the contribution rate of enterprise endowment insurance, the better the China’s future economic performance. There is an optimal contribution rate of 16.454%. If we reduce the contribution rate of enterprise endowment insurance, meanwhile increase the contribution rate of individual account endowment insurance, that is, from the pay-as-you-go system to the funding pension insurance system, we can not only reduce the negative impact of reducing the enterprise contribution rate on the future welfare of current working population, but also promote economic growth, especially in the long run.The contribution of this study lies in the timely and quantitative assessment of the impact of the reduction of enterprise endowment insurance contribution rate to 16% and further reduction of the contribution rate on the real potential economic growth rate in the future, which may provide a numerical basis and decision-making reference for the formulation of public policy. Compared with the previous research methods, in the model setting, a new mechanism that the impact of reducing the contribution rate of enterprise endowment insurance on economic growth is added by affecting human capital and labor productivity, this may provide an extensible theoretical framework for scholars to analyze the impact of reducing the contribution rate of enterprise endowment insurance on economic growth.</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3121248655</t>
+          <t>https://openalex.org/W2547771653</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s12992-016-0204-6</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Brown &amp; Erin (2013)</t>
+          <t>Balarajan &amp; Reich (2016)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Developing a Durable Right to Health Care</t>
+          <t>Political economy challenges in nutrition</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>The Affordable Care Act’s (ACA) signature accomplishment was the creation of a statutory right to health care for the uninsured. The ambition and the degree of societal and political debate leading up to the Act’s passage suggests it is a “superstatute,” a rare breed of statute that creates rights and institutions typically thought to be the province of constitutions. Nevertheless, the ACA’s right to health care is fragile and risks falling short of becoming a durable right. The ACA may end up as a “quasi-superstatute,” a statute that aspires but fails to become a superstatute through a failure of political and public entrenchment. The problem is that the right to health care is to be delivered largely through changes to the private health insurance market, requiring the cooperation of reluctant states, industry, and individuals. The ACA’s right to health care faces significant political and market challenges that threaten to weaken its benefits in the public’s mind. This vulnerability is concentrated early in its lifespan, and if it survives these early years, the endowment effect may strengthen the right’s durability as its benefits take hold. The risk of becoming a “quasi-superstatute” highlights the importance of structuring such reforms to achieve durability.</t>
+          <t>Historically, implementing nutrition policy has confronted persistent obstacles, with many of these obstacles arising from political economy sources. While there has been increased global policy attention to improving nutrition in recent years, the difficulty of translating this policy momentum into results remains.We present key political economy themes emanating from the political economy of nutrition literature. Together, these interrelated themes create a complex web of obstacles to moving nutrition policy forward. From these themes, we frame six political economy challenges facing the implementation of nutrition policy today. Building awareness of the broader political and economic issues that shape nutrition actions and adopting a more systematic approach to political economy analysis may help to mitigate these challenges.Improving nutrition will require managing the political economy challenges that persist in the nutrition field at global, national and subnational levels. We argue that a "mindshift" is required to build greater awareness of the broader political economy factors shaping the global nutrition landscape; and to embed systematic political economy analysis into the work of stakeholders navigating this field. This mindshift may help to improve the political feasibility of efforts to reform nutrition policy and implementation-and ensure that historical legacies do not continue to shape the future.</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1572387449</t>
+          <t>https://openalex.org/W2044599209</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/tech.2006.0163</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Nash (1986)</t>
+          <t>Brimblecombe (2006)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>The American People: Creating a Nation and a Society</t>
+          <t>Shock Cities: The Environmental Transformation and Reform of Manchester and Chicago (review)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>16. The Union Reconstructed. IV. AN INDUSTRIALIZING PEOPLE, 1865-1900. 17. Rural America: The West and the New South. 18. The Rise of Smokestack America. 19. Politics and Reform. 20. Becoming a World Power. V. A MODERNIZING PEOPLE, 1900-1945. 21. The Progressives Confront Industrial Capitalism. 22. The Great War. 23. Affluence and Anxiety. 24. The Great Depression and the New Deal. 25. World War II. VI. A RESILIENT PEOPLE, 1945-2002. 26. Postwar Growth at Home, 1945 - 1960. 27. Chills and Fever During the Cold War, 1945 - 1960. 28. Reform and Rebellion in the Turbulent Sixties, 1960 - 1969. 29. Disorder and Discontent, 1969 - 1980. 30. The Revival of Conservatism, 1980 - 1992. 31. The Post-Cold War World. Appendix. The Declararation of Independece. The Constitution of the United States of America. Presidential Elections. States of the United States. Population of the United States. Appendix. The Declararation of Independece. The Constitution of the United States of America. Presidential Elections. States of the United States. Population of the United States. Index.</t>
+          <t>Reviewed by: Shock Cities: The Environmental Transformation and Reform of Manchester and Chicago Peter Brimblecombe (bio) Shock Cities: The Environmental Transformation and Reform of Manchester and Chicago. By Harold L. Platt. Chicago: Chicago University Press, 2005. Pp. xvi+628. $49. The Victorian age seems increasingly, even in popular presentations, to be recast as a time of great imagination, rather than one of repression and conservatism. I was long reluctant to abandon my enthusiasm for the environment of early modern England in favor of an interest in the Victorian period. However, despite the expected constraints of pro-industrialism, discrimination, and a well-defined class structure, I am fascinated by the way that a growing professionalism, liberalism, and inventiveness challenged the society in which the Victorians found themselves. Harold Platt's Shock Cities is preoccupied with an examination of the challenges that environmental transformation and reform brought to nineteenth-century Manchester and Chicago. This is an important and thoroughly researched book by a historian with a long interest in the two cities. I know I will return to it many times as I ponder the environmental struggles of the Victorian period. Platt begins by describing the effects of rapid industrialization following the arrival of steam power in Manchester. He pays special attention to the writings of contemporaries such as Alexis de Tocqueville, James Phillips Kay, Angus Reach, and Friedrich Engels, who understood the contradictions in the creation of wealth and poverty at the same place. The industrial transformation was initially seen as something that was almost anomalous, rather than signaling the environment that was to typify urban areas in the hundred years to follow. After treating Manchester's unprecedented growth, Platt turns to Chicago, "mudhole in the prairie," and the battles over water supply and sewerage, battles involving enormous profits. They show the ambitions of the planners and engineers and the inevitable failings of grand schemes, which benefited the wealthier citizens while the poor often continued to suffer the environmental burdens and an unfair proportion of the costs. Platt explores interesting differences in governance; Chicago's was more variable than Manchester's, which remained in the hands of a narrower ruling elite. Many topics in Shock Cities continue to concern us today—urban sprawl, environmental justice. While it is not Platt's prime intention to [End Page 665] draw parallels with the present, the reader inevitably makes links with the past. The citizens of Chicago and Manchester were aware that the collapse of reservoirs and the devastation caused by floods were not unforeseen accidents of nature. The risks were well-known, remedial measures too expensive or undertaken too slowly. In Manchester the city government was keen to provide drinking water from Thirlmere some distance off, but there were demands that one of the nation's few remaining unspoiled havens be protected. I must confess that I am not a great enthusiast of comparative studies. Platt argues that such studies are useful, especially where they make cross-national comparisons. However, there are dangers of looking too hard for similarities and differences, and the approach can also make it hard for a reader who must move back and forward between a number of narratives. There is a lengthy section in the middle of the book on brewing, which has strong connections with the book's underlying themes. Although such connections will not be immediately obvious to all readers, Platt does a good job of relating brewing and urban pollution. In medieval times, brewing wastes contaminated the rivers and in Elizabethan London coal burned by brewers polluted the air, damaged buildings, and offended the monarch. The relationship between brewing and microbiology is also an important theme, and Platt tries to tie the effort to improve beers with the understanding of water pollution. The importance of microorganisms and germ theory again comes up in the discussion of air pollution. Medical officers grappling with disease and the contamination of water supplies could make a ready connection between microorganisms and the diseases they created. They argue that the inorganic nature of smoke particles and the sulfur dioxide from coal posed few obvious health risks; indeed, sulfur dioxide had antiseptic properties. The ascendance of germ theory may have actually...</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3148399797</t>
+          <t>https://openalex.org/W1515611687</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Ladipo et al. (2009)</t>
+          <t>Stephan &amp; Zickert (2008)</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Accountability in Public Expenditures in Latin America and the Caribbean : Revitalizing Reforms in Financial Management and Procurement</t>
+          <t>Participation of unemployment benefit recipients in active labor market programs: before and after the German labor market reforms</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Based on a sample of countries in Latin America and the Caribbean, this book sets out areas in which governments could focus to improve the quality of public expenditures. It seeks to identify, from a regional perspective, first, the cross-cutting strengths and weaknesses of public financial management and procurement systems, and second, the characteristics of and lessons that can be learned from reform programs. In undertaking this analysis, the authors have taken a particular interest in establishing what role civil society organizations may have played, or could play, in promoting transparency and accountability in the public sector. More specifically, this book focuses on the specific institutional arrangements and the policy choices that underpin the management of public finances, which are set out primarily in a sample of publicly available Country Financial Accountability Assessments and Country Procurement Assessment Reports undertaken by the World Bank and its development partners.</t>
+          <t>Between 2005 and 2007 the German government raised a per-capita amount of around 10.000 Euros for each transition out of unemployment benefit receipt into basic social care, to be paid by the unemployment insurance. The so called 'Aussteuerungsbetrag' set strong incentives that investments in active labor market programs for unemployment benefit recipients should pay off - in terms of an exit from registered unemployment - before a transition into basic social care for needy jobseekers occurred. This raised considerable public concerns that less programs would be granted, in particular for hard-to-place workers. Our paper analyzes if these concerns were justified. We compare four cohorts, eligible for unemployment benefits at the beginning of their unemployment spell during March of the years 2003 to 2006. We conduct some descriptive analyses and estimate piecewise constant exponential hazard models to investigate the correlation between individual characteristics and transition rates into programs. The results show that transition rates into programs were in fact low across the 2005 cohort, but rather high for the 2006 cohort. The expectation that particular disadvantaged groups of unemployed would participate less in active labor market programs in the postreform period is not confirmed; their transition rates into programs were significantly higher across the 2006 cohort than in pre-reform cohorts. (Author's abstract, IAB-Doku) ((en))</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1594304515</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/2553477</t>
+          <t>https://openalex.org/W3010282892</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Barr &amp; Hall (1981)</t>
+          <t>Almeida (2019)</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>The Probability of Dependence on Public Assistance</t>
+          <t>Teoria de mudança e resultados de uma iniciativa para melhoria doacesso e efetividade do transplante renal</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Despite almost incessant discussion of welfare reform (see Levy, 1978, and Department of Health and Social Security, 1978), traditional systems of income support and their associated problems remain largely intact. The most intractable difficulty has been the conflict between the desire to reduce costs by concentrating benefits on the poorest families, and the desire to preserve work incentives by not withdrawing benefits too rapidly if a recipient family starts earning. Hanoch and Honig (1978) show that the incentive effect of income support schemes is theoretically ambiguous. Levy (1979) investigates the labour supply issue empirically. This paper looks at the whole issue of welfare dependency using data on American families receiving benefits under the largest scheme of public assistance, Aid to Families with Dependent Children (AFDC). We concentrate on an important group of poor families-those without fathers-and examine in particular the following issues: (a) the effectiveness of AFDC in selecting the very poorest families for the largest benefits; (b) the extent to which the number of recipients is influenced by the generosity of benefits and the implicit tax on earnings; (c) the extent to which recipients take advantage of the opportunity to supplement benefits with earnings; (d) whether the implicit tax on earnings discourages families from working; (e) whether the disproportionate share of blacks among recipients reflects a difference in attitudes about work and welfare between blacks and whites, or whether it is explained by the adverse circumstances of blacks. Four different levels of dependence are considered: none; partial (i.e. benefits less than earnings); substantial (i.e. benefits more than earnings); and total. The probability of each level of dependence is taken as a function of family characteristics, including earning potential and of the characteristics of the AFDC system. Section I describes a theory of family behaviour based on the assumption that observed differences in the behaviour of apparently identical families reflect an underlying distribution of unobserved differences. Section II discusses the statistical method used to estimate the probabilities, a straightforward generalization of logit analysis. Section III presents and interprets the statistical results, and Section IV summarizes our answers to the five issues posed above. Two comments on the choice and use of the data should be made before proceeding. The choice of data for 1967 was influenced not only by the availability of two surveys, the Survey of Economic Opportunity and a survey of AFDC recipients, but also by the fact that 1967 was the last year in which AFDC was a relatively pure scheme. Subsequent legislation imposed constraints on the extent to which states could withdraw benefits as recipients' incomes rose. More recently, the explosion in the size of the food stamp programme (still very small in</t>
+          <t>The predominance of the renal chronic disease has been growing, being still the access to the_x000D_
+renal transplant a great problem in Brazil, in spite of the universal public system of health._x000D_
+This work aimed to study an initiative turned to the improvement of the equity of the access_x000D_
+to the renal transplant and effectiveness of the treatment. It came from the premise that the_x000D_
+deepened knowledge of as an intervention works, and under which context conditions, it is_x000D_
+fundamental so that knowledge is built in the area of the improvement of the quality of the_x000D_
+care of health and if it points to ways for the dissemination of successful interventions. It_x000D_
+looked to identify the active beginnings and mechanisms of change wrapped in the initiative,_x000D_
+the context of his implementation and his effects. The initiative was implemented in a_x000D_
+transplant center of Minas Gerais in December of 2012, being the developed retrospective_x000D_
+study, with a quantitative qualitative and the other one quantitative. For the identification of_x000D_
+the mechanisms of change and factors context wrapped, thematic analysis of interviews was_x000D_
+carried out with the implementing of the initiative and too professional of the organization_x000D_
+where it is inserted the center transplant. To observe the effects of the intervention were_x000D_
+carried out time series analysis of indicators with graphical presentation of data in five_x000D_
+previous and subsequent years to the intervention. It was noticed that after the implementation_x000D_
+of the initiative enlargement of the access was obtained to the renal transplant and bigger_x000D_
+effectiveness of the treatment. The mechanisms of change identified went to articulation_x000D_
+between different services, the rationality for the driving of better practices and the adoption_x000D_
+of the best result for the patient like a value. Different context factors were identified how_x000D_
+crucial to the implementation, interfering how facilitators or barriers, when they were_x000D_
+influenced or not for a scenery more general of search of the hospital it shears trust. Lessons_x000D_
+learnt can favor both the dissemination of similar initiatives of possible and sustainable way,_x000D_
+and subsidies for more general interventions. It deserves distinction to observation of what_x000D_
+positive significant changes they can be promoted in micro systems of the care inserted in less_x000D_
+favorable more spacious environments.</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2354181518</t>
+          <t>https://openalex.org/W3029675848</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-94-024-1751-7_3</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Chan-xia (2013)</t>
+          <t>Omwami &amp; Rust (2020)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Economic Analyses of the Reform of the Collective Forest Right System</t>
+          <t>Globalization, Nationalism, and Inclusive Education for All: A Reflection on the Ideological Shifts in Education Reform</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>By the theory of property rights,the author analyses the phenomenon of vague property right bodies,ambiguous property rights borderline,unreasonable income right realization mechanism,being deprived of the right to trade trees,and so on,which exist in China's new round of reform of the collective forest rights system.So,the reform of forest can be conducive to clean property right bodies,define property rights borderline,implement disposition rights,and make sure usufruct rights.And then,by The theory of motivation,the author illustrates that further reasonable arrangements the system of collective forest rights should impulsively focus on interests lever,should actively take effective incentives to stimulate forester silviculture.Lastly,because of the national characteristics of economic people,by the state theory,the author proves that the establishment of clear property rights,definite responsibilities and rights forestry management system can help to realize the goal of the economic man enriching people and thriving forest.</t>
+          <t>This chapter examines the concept of inclusive education for all as articulated in the United Nations against the rise of nationalism and ethnicism. We begin with a discussion of the concept of globalization. At the turn of this century, globalization was a positive force in the forward march of modernization. The former Soviet Union had collapsed barely a decade earlier, and liberal democracy became the dominant regime form around the world. In fact, no other option appeared to be possible. As we examine the rise in nationalism and ethnicism in the post-2000 era, that point of view now seems quaint. We explore the implications in education reforms under the global shift towards human rights-based development, with the adoption of the 2000 United Nations Millennium Development Goals (MDGs) and the more recent 2015 Sustainable Development Goals (SDGs). We offer a reflection on global education reforms that began with the adoption of the Dakar 2000 Framework of Action and the more recent 2015 Incheon Declaration and Framework for Action for the implementation of Sustainable Development Goal 4. We conclude with an extrapolation of the education reform outcomes arising from the synergy and contradictions embedded in the global shift that has taken place.</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1137025768</t>
+          <t>https://openalex.org/W3041267308</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/s2212-5671(15)00766-2</t>
+          <t>https://doi.org/10.1016/j.gee.2020.07.002</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Bušovský (2015)</t>
+          <t>Li et al. (2021)</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>The Impact of Public Finance on Tertiary Education</t>
+          <t>Production of high-purity hydrogen from paper recycling black liquor via sorption enhanced steam reforming</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>The main aim of paper is to estimate, how much affects public finances on unemployment of university absolvents. The paper includes econometric analysis of examined impacts (for public and private universities). Results are summarized in tables and graphs and they are commented as a tool of optimization. The paper works with regression models of standardized unemployment rate of university absolvents, tax quota, public expenditure and numbers of university students.</t>
+          <t>Environmentally friendly and energy saving treatment of black liquor (BL), a massively produced waste in Kraft papermaking process, still remains a big challenge. Here, by adopting a NiCaOCa12Al14O33 bifunctional catalyst derived from hydrotalcite-like materials, we demonstrate the feasibility of producing high-purity H2 (∼96%) with 0.9 mol H2 mol−1 C yield via the sorption enhanced steam reforming (SESR) of BL. The SESRBL performance in terms of H2 production maintained stable for 5 cycles, but declined from the 6th cycle. XRD, Raman spectroscopy, elemental analysis and energy dispersive techniques were employed to rationalize the deactivation of the catalyst. It was revealed that gradual sintering and agglomeration of Ni and CaO and associated coking played important roles in catalyst deactivation and performance degradation of SESRBL, while deposition of Na and K from the BL might also be responsible for the declined performance. On the other hand, it was demonstrated that the SESRBL process could effectively reduce the emission of sulfur species by storing it as CaSO3. Our results highlight a promising alternative for BL treatment and H2 production, thereby being beneficial for pollution control and environment governance in the context of mitigation of climate change.</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3199646516</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.15688/re.volsu.2021.2.9</t>
+          <t>https://openalex.org/W165705995</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Berdnikova (2021)</t>
+          <t>Klaus (2004)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Integrated Regional Zoning for the Purposes of State Cadastral Evaluation</t>
+          <t>Elements of a Hermeneutics of Knowledge in Government : The Coalition of Public Sector Reform and Enterprise Resource Planning</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>The article analyses the issue of development a methodology for the effective evaluation zoning of rural and urban land for tax purposes. The final result of such zoning was a set of municipalities in the region, for which the factors in price formation are established and unified models for the cadastral value calculation are applied. The analysis of existing methods showed that zoning may be based on the average specific market price of a typical object of evaluation per 1 sq. m., the size of municipalities. The interpolation method of weighted inverse distances can also be applied. Consequently, it was found that the well-known grouping methods can be conditionally divided into three types: expert (subjective), economic-statistical and cartographic zoning methods. The article suggests the author’s approach to the evaluation zoning, which consists in the analysis of factors of administrative and territorial division, forms of territorial development of cities, natural and climatic factors, economic, production and social factors. Using as the example Krasnodar Krai, the agglomeration core, coastal cities with a semicircular and striped structure, coastal small towns and rural municipalities along the Black and Azov Seas, municipal districts with an actively developing economy and a favorable investment climate, areas with a stable economic situation, moderately developing areas and areas with a difficult economic situation were identified. As a result of the evaluation zoning, eleven zones were identified, within the boundaries of which it is possible to analyze the situation on the real estate market, assess its dynamics and implement correlation and regression modeling.</t>
+          <t>In techno-organisational innovation, knowledge is reconstituted. Understanding this process in its complexity and its outcomes asks for an inquiry and interpretation that heed to the conditions at the end of modernity, and must therefore take recourse to practical philosophy. This understanding has been formulated with reference to a field study that inquired into the conduct of reform and effectuation of new information technology by the central department of a regional government over a period of approximately eight years. In considering this ambience, the study has been informed by (i) a synopsis of hermeneutic thinking on knowledge; (ii) an outline of governmentality and (information) technology; (iii) a reflection on the conditions of the social sciences and their relation to information technology; (iv) an exploration of the possibilities of social inquiry at the end of modernity. Deliberating the stipulations of social inquiry, the destructive narrative is proposed that allows for a rational and argumentative appropriation of the past, beyond scientific method and mere perceptivity. Events, ideas, and experiences indicate the reciprocal relation of political and organisational rationalities, on the one hand, and managerial and informational technologies on the other. Within these dimensions, the knowledge of governmentality is being re-defined, shifting expertise into the harness of business discipline. The rationalities of information, process, integration, prediction and performance, and ultimately efficiency, make bureaucracy itself an object of increased scrutiny. These rationalities also remind that the challenge of Ge-stell and the rule of politics-as-fabrication do neither come to pass primarily in implementations of managerial technologies, nor in instantiations of information systems, but within the articulations of the technological worldview. Due to the fragmented and contentious nature of knowledge, innovation as routine nevertheless appears disjointed and asynchronous, yet upholding the representational and disciplinary constellations.</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3173262382</t>
+          <t>https://openalex.org/W4387727128</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.3827613</t>
+          <t>https://doi.org/10.1787/331f6278-hu</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Tricaud (2021)</t>
+          <t>NA (2015)</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Better Alone? Evidence on the Costs of Intermunicipal Cooperation</t>
+          <t>Environment at a Glance 2015 (Summary in Hungarian)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>While central governments encourage intermunicipal cooperation to achieve economies of scale, municipalities are often reluctant to integrate. This paper provides new evidence on the factors explaining their resistance by exploiting a 2010 reform in France that forced non-integrated municipalities to enter an intermunicipal community. Using a difference-in-differences strategy, I assess the causal impact of integration on resisting municipalities. Comparing their experience to that of municipalities that had chosen to integrate before the law, I can identify the local consequences explaining why resisting municipalities opposed integration in the first place. I first find that municipalities forced to integrate experienced a 12.5-percent increase in the number of building permits delivered per year. This impact is driven by high-demand urban municipalities, consistent with NIMBYism explaining their resistance to integration. Second, I find that rural municipalities ended up with fewer local public services. I do not find the same effects for municipalities that voluntarily integrated, while I show that both types of municipality enjoyed similar benefits of integration, in terms of better access to public transport and higher fiscal revenues. These findings support the fact that municipalities resisted to avoid the local costs of integration.</t>
+          <t>Since 2000, progress is visible in emissions of traditional air pollutants, transport fuel efficiency, energy intensity, renewable energy, water use, sewage treatment, and biodiversity protection.This is partly explained by the slowdown in economic activity following the economic crisis, but also by increased uptake by OECD countries of instruments to address environmental pressures, including taxation to influence consumer behaviour and internalise environmental costs.Environmental considerations are also increasingly being mainstreamed in development co-operation and in research and development.Many of these developments still take place at the margin though, and policies often lack coherence, thus undermining efforts to reduce negative environmental impacts.Countries continue to support fossil fuel production and consumption in many ways, and economic activity remains tied to carbon emissions and wasteful consumption of energy and other natural resources.Major challenges ahead include climate change and the impact of environmental degradation on health and on future growth and development.Robust policies and reliable information are needed to address these challenges, especially as growth resumes. Key findingsAir pollution continues to be a concern for the climate and for human health • Greenhouse gas (GHG) emissions are growing worldwide but they have been declining in almost all OECD countries between 2000 and 2012, revealing an overall decoupling from EXECUTIVE SUMMARY ENVIRONMENT AT A GLANCE 2015: OECD INDICATORS © OECD 2015 8Water demand is increasing but water use remained stable• Freshwater abstractions remained stable due to more efficient use and better pricing policies, but also to greater exploitation of alternative water sources such as re-used and desalinated water.While many countries show a relative decoupling of water abstractions from GDP growth, in a third of countries, freshwater resources are under medium to high stress, and many countries have to cope with local or seasonal water shortages.Climate change may further exacerbate such shortages, including in countries that benefit from a reliable water supply.• Close to 80% of the population of OECD countries benefit from wastewater treatment.Several countries now face increasing costs to upgrade ageing water supply and sanitation networks.Some have to find other ways of serving small or isolated settlements and ensuring proper control of small independent treatment facilities. Landfill remains the major disposal method for municipal waste• The generation of municipal waste slowed down in the 2000s.A person living in the OECD area generates on average 520 kg of waste per year; this is 30 kg less than in 2000, though still 20 kg more than in 1990.While waste is increasingly fed back into the economy through recycling, landfill remains the major disposal method in half of the OECD countries. Threats to biodiversity are increasing• Many animal and plant species in OECD countries are endangered, particularly in countries with a high population and infrastructure density.In North America and Europe, farmland and forest birds have declined by nearly 30% in 40 years.Many forests are threatened by degradation, fragmentation and conversion to other uses.Demand for wood to reach renewable energy targets plays a growing role in the exploitation of forests. Environmental progress in economic sectors in uneven• Energy intensity continued to improve over the 2000-14 period.Renewable energy is increasingly used, particularly in Europe.Renewables account for 21% of OECD electricity production (15.6% in 2000), and for almost 9% of total supply (6% in 2000).But fossil fuels still dominate supply (80%).• In most OECD countries, road traffic growth rates exceeded economic growth.Countries' efforts to promote cleaner vehicles are often offset by increases in vehicle stocks and traffic, resulting in additional fuel consumption and pollution.• Farmland decreased in nearly all countries as did some agriculture-related GHG emissions and the use of phosphate fertilisers.However, the share of land under organic farming remains low, just above 2%, though this masks substantial variations across countries.The shares tend to be higher in the European Union, reaching 10% to 17% in some countries. Support to research, development and innovation is growing• Public R&amp;D spending dedicated to environment grew by more than 20% since 2000, and recovered at a faster rate than total public R&amp;D after the 2008 economic crisis.Its share in total public R&amp;D spending represents however less than 2%.The share of spending on renewable energy in total energy spending increased from 8% to 24%. EXECUTIVE SUMMARY• Official development aid (ODA) for environmental purposes continued to rise; its share in total ODA increased from 9.6% in 2002 to 12.6%, aid for renewable energy surpassed aid for non-renewables. Implementing market instruments to price pollution remains difficult• The use of</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1579396249</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2753/ces1097-1475460204</t>
+          <t>https://openalex.org/W2389785375</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Prime &amp; Qi (2013)</t>
+          <t>Iroko &amp; Zhang (2004)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Determinants of Firm Leverage</t>
+          <t>Re-employed Analysis on the Laid-off Workers in Beijing Region</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Using a large survey sample of manufacturing firms between 2003 and 2006, the majority of them not listed on either stock exchange, we studied financing behavior in China and tested a series of hypotheses about the determinants of firm leverage as derived from the pecking-order theory. Overall our results show that the theory well explains private firm financing where the amount of leverage is negatively related to profits, liquidity, and age, and positively related to firm size and average leverage ratio. However, different ownership types and firms located in different market environments do not have the same determinants of leverage, and their financing behavior is not well explained by the pecking-order theory. This suggests that China's economic and financial reforms have not yet been completed.</t>
+          <t>Using the data gathered by myself about the laid-off workers in Beijing region,this paper firstly analyses the causes of the laid-off workers continuing to be out of work by Hazardmodel. Secondly, this paper applies Tobit model to explore the causes of the change of the laid-offworkers income before they are re-employed and after that. From above analysis, we draw somemajor conclusions: First, although the policy of lay-off has accelerated the establishing of labormarket to some extent, with the prolonged time to keep the laid-off workers to be out of work,the policy has turn out to be obstacle for the labor-marketing. Meanwhile, it will obstruct to setup and to perfect the social system of unemployment benefit under market economic system.Second, it is necessary to be reeducated to adapt to new economic environment as well as tobe trained more skill for those laid-off workers who have worked experiences under traditional sys-tem, especially for those who had worked for enterprise as managers.Third, thelay-offis not only a policy in special phase during the process of china economicsystem reform, but also a special phenomenon which is the structural unemployment revealed fromChinese economic system. And with respect to this unemployment problem resulted from thechange of industry structure, the government must to constitute more active unemployment poli-cy.</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3121932852</t>
+          <t>https://openalex.org/W2897058147</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/lag.2018.0058</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>MacDonald &amp; Ramsay (2016)</t>
+          <t>Hilburn (2018)</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>The Australian Sports Commission's "Governance Reform in Sport" Discussion Paper and Voting Rules in Corporate Constitutions</t>
+          <t>El petróleo en México y sus impactos sobre el territorio ed. by Martín M. Checa-Artasu and Regina Henández Franyuti</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>The Australian Sports Commission’s 2015 “Governance Reform in Sport”
-Discussion Paper proposes to limit voting by members of a National Sporting
-Organisation to essentially the minimal set of issues required by the Corporations
-Act 2001 (Cth), and to further mandate the voting rule to be adopted for
-each issue. The authors critique the Discussion Paper and argue that three
-issues require discussion to decide which voting rules to implement – the
-efficiency of the proposed voting rules, the efficiency of mandatory rules in
-corporate governance regulation and the balance of power between members
-and directors. They argue that constitutional voting rules ought to minimise the
-sum of the decision-making costs and the external costs of the issue to be
-determined. These two costs of voting depend upon the nature of the issue
-itself and crucially, upon the identity, the number and the preference heterogeneity
-of the voting members. There is no ex ante reason to assume that a
-simple majority or any other mandatory voting rule is optimal.</t>
+          <t>Reviewed by: El petróleo en México y sus impactos sobre el territorio ed. by Martín M. Checa-Artasu and Regina Henández Franyuti Andrew M. Hilburn Martín M. Checa-Artasu and Regina Henández Franyuti, eds. El petróleo en México y sus impactos sobre el territorio Distrito Federal, México: Instituto de Investigaciones Dr. José María Luis Mora, 2016. 268 pp. Maps, tables, introduction, bibliography, index. $235.00MXP paper (ISBN 978–607–9475–43–7). The apocryphal eagle with a snake in its beak standing atop a nopal is likely the most recognizable symbol of Mexico. It is the central figure of the bandera nacional and serves as a statement of ethnic and cultural hybridity linked to deep (pre)historical roots. However, considering the development of Mexico since the early twentieth century—through the Revolution, the “Mexican Miracle,” the long PRI hegemony, the neoliberal turn, and now into the post-neoliberal era it may be entering—perhaps a gushing oil derrick would be a more fitting, if less aesthetically pleasing, symbol at the center of the flag. Oil has been central to Mexico’s revenues and the economic and social development it has paid for have created a general sense of national pride and self-determination around oil. Today, Mexico is the twelfth largest producer in the world of oil and eighteenth globally in natural gas. Despite declining production from the Cantarell and Ku-Maloob-Zaap superfields, oil and gas development remains a linchpin of Mexico’s financial bottom line and thus its political stability. The edited volume El petróleo en Mexico y sus impactos sobre el territorio takes this as a given fact and goes a step further, through geographical explorations of how oil has made itself spatially manifest, via the concepts of territory and landscape. The editors, Martin M. Checa-Artasu and Regina Hernández Franyuti, note from the outset that this book is the summary result of a 2015 symposium of presentations concerning the clearly stated title of the book. The editors make this book more conceptually focused by leading its six original contributions with well-written and deeply-researched introductory and bibliographic chapters. What follows are an assortment of chapters that range from the theoretical to the methodological and empirical investigating the spatialities of hydrocarbons in Mexico. In the opening bibliographic chapter, Martin Checa goes through an impressively expansive epistemology of hydrocarbon extraction in Mexico. Aiming this work at scholars of hydrocarbon extraction in Mexico, Checa begins by framing the epistemology within the political-economic structures that produced it. He then organizes seminal works on the subject by theme and chronology. Later in the chapter, Checa narrows this broad literature to works that bear a “vinculo territorial,” rolling them out through their [End Page 273] evolutionary stages or turns, geographic/regional focus, and thematic categories, all which serve to create the broader context into which the following six chapters fit. The heart of the book begins with a historical examination on the potential ecological consequences of the 2013–2014 Energy Reforms in Mexico. Author Myrna Santiago, a preeminent environmental historian of oil, begins by providing a legal history of Mexican constitutional law related to hydrocarbons, from the early twentieth century to the 1938 expropriation and Pemex years, to modifications of Article 27 and the recent energy reforms. In a compelling narrative, Santiago shows how these legal changes to how, and by whom, hydrocarbons can be extracted have affected people and environments in Mexico. The violent dispossession of campesinos and indigenous people amid ecological ruin that are associated with twentieth-century hydrocarbon development serve as a warning for the post-reform hydrocarbon regime in Mexico. The next chapter, again by Checa, positions itself at the thematic core of the volume. In it, he explores the concept of territoriality of hydrocarbon development in Mexico by showing how the interrelation of geology, infrastructure, and professional practice have produced the fundamental territorial unit of the Mexican energy sector, the campo or “field.” This in-depth and well-researched chapter illustrates how the hydrocarbon campo is defined as a legal entity, as a resource, and a container for the environmental and the...</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3168873429</t>
+          <t>https://openalex.org/W3081907830</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>이양기 et al. (2018)</t>
+          <t>Yunita et al. (2020)</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>전자적 용역의 수입에 대한 현행 부가가치세 과세제도 개선방안</t>
+          <t>A Structural Relationship of Change Management and its Supply Change Strategy for Improving Officer and Organizational Performance</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>In view of the growth of e-commerce, it is necessary to establish Value Added Tax base for electronic services under the VAT Act. And it is necessary to harmonize with the foreign trade law and the Customs Act which is related to import customs clearance. In order to impose VAT on imports of electronic services and establish a sound and sincere taxation climate for the importation of electronic services, it is important to identify the limitations of the system in the VAT Law and the necessary systems in the Foreign Trade Law and the Customs Act related to importation.</t>
+          <t>Nowadays, most institutions are working in an ever-changing, volatile, challenging, and competitive environment. It requires organizations to select the change in management strategies. Of these, the present study is written to examine the relationship of planned change, organizational climate and transformational leadership toward personnel performance and to determine the moderating role of bureaucratic reform in their relationship on institution performance. This study was designed using a quantitative approach through a survey questionnaire (self-administered). A total of 389 police personnel participated in this study. The data analyzed using the Structural Equation Modelling (SEM), by involving the Confirmatory Factor Analysis (CFA). Applying the SEM approach, this study found that the variable of planned change, organizational climate, and transformational leadership has a significant relationship toward personnel and institution performance. Also, personnel performance plays a role as a mediator variable to institution performance. Besides, this study also found that bureaucratic reform plays a role of moderating variable. Keywords—.Change Management; Supply Change Strategy, Organizational Performance; Officer Performance; Bureaucratic Reform</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>https://openalex.org/W117489891</t>
+          <t>https://openalex.org/W1494077197</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5860/choice.42-4631</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Hargovan (2008)</t>
+          <t>NA (2005)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Shareholders as Creditors in Hong Kong Corporate Insolvency: Myth or Reality?</t>
+          <t>Environmental governance reconsidered: challenges, choices, and opportunities</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>The recent landmark High Court decision in Sons of Gwalia Ltd v Margaretic (2007) in Australia has altered the topography of modem Australian insolvency law by recognising distributive equality in the treatment of shareholder and ordinary unsecured creditor claims in certain circumstances. Some commentators fear that the elevation of shareholder claims in Australia may have significant implications for ordinary unsecured creditors in corporate insolvencies in Hong Kong. Australia and Hong Kong share a common legal heritage. In particular, there are identical statutory debt subordination provisions in both jurisdictions which subordinate shareholder claims in favour of ordinary creditors. The article assesses the prospects and possible impact of Sons of Gwalia in the legal treatment of shareholder claims in corporate insolvencies in Hong Kong. A comparative assessment is made, focusing on material differences in the commercial and insolvency landscape between the two jurisdictions and in the enforcement culture of investor protection laws. Such significant disparities lead to the conclusion that the impact on creditors in Hong Kong will be minimal, unless accompanied by other significant legal developments and reforms discussed in the article.</t>
+          <t>This survey of current issues and controversies in environmental policy and management is unique in its thematic mix, broad coverage of key debates and approaches, and in-depth analysis of concepts treated less thoroughly in other texts. The contributing authors, all distinguished scholars or practitioners, offer a comprehensive examination of key topics in environmental governance today, including perspectives from environmental economics, democratic theory, public policy, law, political science, and public administration. Environmental Governance Reconsidered is the first book to integrate these wide-ranging topics and perspectives thematically in one volume.Many are calling for a change in the bureaucratic, adversarial, technology-based regulatory approach that is the basis for much environmental policy -- a move from rule-based to results-based regulation. Each of the thirteen chapters in Environmental Governance Reconsidered critically examines one aspect of this generation of environmental reform, assesses its promise-versus-performance to date, and points out future challenges and opportunities. The first section of the book, Reconceptualizing Purpose, discusses the concepts of sustainability, global interdependence, the precautionary principle, and common pool resource theory. The second section, Reconnecting with Stakeholders, examines deliberative democracy, civic environmentalism, environmental justice, property rights and regulatory takings, and environmental conflict resolution. The final section, Redefining Administrative Rationality, analyzes devolution, regulatory flexibility, pollution prevention, and third-party environmental management systems auditing. This book will benefit students, scholars, managers, natural resource specialists, policymakers, and reformers and is ideal for class adoption.</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1591434987</t>
+          <t>https://openalex.org/W2032095047</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13510340903083000</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Freeman &amp; Godsil (1994)</t>
+          <t>Muskhelishvili &amp; Jorjoliani (2009)</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>The Question of Risk: Incorporating Community Perceptions into Environmental Risk Assessments</t>
+          <t>Georgia's ongoing struggle for a better future continued: democracy promotion through civil society development</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>The environmental justice movement has seen some successes. After years of neglect, the federal government and several states are directing legislative and executive efforts towards reforming siting processes and remedying discriminatory enforcement of environmental regulations. Community opposition in general has proved to be quite powerful in some instances. Since the passage of the Resource Conservation and Recovery Act in 1976, there has been only one new siting of a hazardous waste landfill and few new sitings of hazardous waste incinerators. To a lesser extent, municipal solid waste and medical waste incinerators have also been successfully blocked or delayed. However, certain factors behind these successes suggest that procedural reforms of the siting process, though sorely needed, may not provide a complete solution to disparate dumping unless they also address the conflict over the nature of risk and how it is measured. This Article discusses the issues of perception of risk and citizen involvement in environmentally sensitive siting decisions. Part I describes the different phases of the siting process, i.e., the various determinations made at certain points during the process, the factors that enter into these calculations, and the interests implicated in each. Part II discusses the gap between citizens’ and government agencies’ understanding of environmental problems: what constitutes an acceptable risk, how risk is measured, and who makes these decisions. Part III sets out ways in which community groups can more effectively incorporate their concerns into the siting process and argues that public officials should give greater weight to public perceptions of risk.</t>
+          <t xml:space="preserve">Abstract To provide long-term democracy development assistance, foreign actors need to develop a medium through which such assistance will be provided. The NGO community which emerged in Georgia in the 1990s fulfilled this function. It was envisaged as developing into a civil society, but turned out to be elitist and politicized. The role that the NGO community was able to play in Georgia's democratization was weakened by the fact that the community was expected to be politically impartial and to achieve a political result at the same time. During the Rose Revolution, democracy promotion was channelled through the NGO community, and contributed to a change of power, but democracy did not follow. After the Rose Revolution, democracy promotion weakened. Despite the fact that a new wave of political protests during 2007–2008 provided another opportunity for Georgia to accomplish a democratic transition, foreign actors did not play the same role as they did before. The change in approach of the foreign actors can be explained not only by political considerations, but also by the fact that the international community had weak personal, organizational and ideological links with the new wave of the pro-democracy movement. Keywords: democracy promotionGeorgiacivil societynon-governmental organizationsRose Revolution Notes Stewart, ‘Democracy Promotion Before and After the “Colour Revolutions”’, 647. Burnell, ‘Democracy Assistance’, 9. The Gettysburg Address by Abraham Lincoln. Freedom House applies a certain taxonomy to label countries with similar scores as having one or another political system, but this labelling does not reflect essential similarities and differences which could provide an answer to our question. The system may also be described as a kind of dominant-power politics. See Carothers, ‘The End of Transitional Paradigm’. Freedom House, http://www.freedomhouse.org. Diamond, ‘Promoting Democracy’. Some TACIS projects were oriented towards democracy promotion, such as strengthening the parliament through the development of a parliamentary research service. Also, the European Neighborhood Policy Action plan includes strengthening the institutions of democracy and the rule of law as its first priority focus. OSCE/ODIHR Election Observation Mission. ‘Final Report’, 4 March 2008 and 9 September 2008. On external democracy legitimation see Jorjoliani, ‘Colour Revolutions’. Linz and Stepan, Problems of Democratic Transition, 7–8. De Tocqueville, Democracy in America, 513–14; see also Putnam, Making Democracy Work, 89. Putnam's work provides an example of convincing empirical research and demonstrates the importance of a well-established civic communal tradition for the effective performance of the institutions of democracy. The example of NGOs providing support for party development demonstrated this very clearly. Leaders of three local non-governmental organizations, which in 2005–2008 channelled funding for party system development, were awarded ministerial posts by the already openly non-democratic regime (Dmitri Shashkin, Director of the International Republican Institute in Georgia; Ghia Nodia, Head of the Caucasian Institute for Peace, Democracy and Development; Temur Iakobashvili, Executive Vice-President of the Georgian Foundation for Strategic and International Studies). Years established: OSGF – 1994, http://osgf.ge; Eurasia foundation – 1995 http://www.epfound.org; Horizonti foundation – 1994 (first ISAR, issuing small individual grants before 1994), http://www.horizonti.org; Friedrich-Ebert-Stiftung – 1994, http://www.fes.ge. On the initial stages of the popular movements see Aves, Path to National Independence in Georgia, 1987–1990. NB: The authors of this paper were part of these developments, and this statement, as well as many others in this article, stems both from their ‘participatory observation’ and from numerous discussions with other NGO leaders. Economic output in 1995 was less than 25% of the level for 1989 estimates. See UNDP, ‘Human Development Report’, 39–41. In 1997 over three thousand NGOs were already formally registered, although only a few of them actually functioned. Compare with only two formally registered in 1988. See UNDP, ‘Development Report: Georgia 1998’, 11. ‘Most [NGOs] represent the views of a relatively young, educated and liberal section of urban society’, ibid. See also Muskhelishvili, ‘Democratization versus the Development of Democracy’; Muskhelishvili, ‘The Avant-guarde of “Democratization”’; Muskhelishvili, ‘Democracy as Communism’. For one such debate, see for example the round table discussion reported in CIPDD/CAP. ‘Public Image of Non-governmental Organizations in Georgia’. Soros named his philanthropic organization the Open Society Foundation, in honour of Karl Popper, who considered society to be ‘open’ if its members base their decisions on collective deliberation and their intellectual capacity. Popper, The Open Society and its Enemies. Such criteria </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1485574722</t>
+          <t>https://openalex.org/W2149715875</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Nottage (2011)</t>
+          <t>Lkhagvadorj (2012)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Afterthoughts: International Commercial Contracts and Arbitration</t>
+          <t>An Analysis of the New Budget Law of Mongolia of 2011</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>This article mainly responds to Professor Bonell’s three proposals to expand usage of the UNIDROIT Principles of International Commercial Contracts (UPICC). As UPICC are primarily opt-in rules, they can be more ambitious than the United Nations Sales Convention (CISG). They also needed to be, being designed for all commercial contracts - including many more relational contracts. This imparts a somewhat different 'vibe' to UPICC, creating one impediment to the proposal for a UN Declaration urging interpretation of CISG in light of UPICC. As a formal reasoning based legal system, particularly in contract law, Australia also still struggles with such soft law initiatives. More promising will be law reform clarifying that courts, not just arbitrators in proceedings with the seat in Australia governed by the UNCITRAL Model Law on International Commercial Arbitration, are free to apply 'rules of law' - including UPICC - as the governing law. Elevating UPICC into a Model Law for International Commercial Contracts would also be useful. Australia could then adopt or adapt provisions as the basis for more comprehensive reform of its contract law. This would better mesh with burgeoning relational transactions, and many norms (such as good faith) could also extend to domestic dealings.</t>
+          <t>The government of Mongolia developed and passed a new Budget Law on 23 December 2011 in order to improve the legal framework for budgeting, budget relations and fiscal management by integrating the Budget Law of 2002 and Public Sector Management and Finance Law. 
+The purpose of new Budget Law is to ensure fiscal stability, enhance the efficiency and predictability of resource allocation, and to increase citizens’ participation in the budgeting process. The new Budget Law in its 11 chapters and 66 articles redefines the budgeting principles, scope, composition, classification of the budget, clarifies expenditure and revenue assignment, improves authorities and responsibilities of the bodies that participate in the budgeting process, and improves regulations on budget transparency and accountability.
+The key new regulations introduced by the Budget Law concern the following areas:
+•	Public investment budgeting;
+•	Government debt management;
+•	Program budgeting;
+•	Public private partnership;
+•	Formula based transfer allocation; and
+•	Citizens’ participation in budgeting.
+The most important change introduced by new Budget Law is a reform of the intergovernmental fiscal relations system towards greater decentralization. The law clarifies expenditure assignments by clearly defining delegated functions and differentiating the functions among sub-national governments. It also introduces a formula based transfer allocation that will allow predictability and sustainability in the local budgeting process.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2095629839</t>
+          <t>https://openalex.org/W4231304146</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.proeng.2011.08.983</t>
+          <t>https://doi.org/10.1504/ijgw.2019.096761</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Wang et al. (2011)</t>
+          <t>Akhtar et al. (2019)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>A Thorough Analysis on Chinese livelihood</t>
+          <t>Future realities of climate change impacts: an integrated assessment study of Canada</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Chinese livelihood has made a great progress since the reform and opening up. But for some reasons, especially for the imperfect and scanty mechanisms and systems, the protruding well-being issues in education, medical health and social security, etc, have already influenced the social harmony and stability. Therefore, the reform must be further deepened and the public decision-making mechanism, public service system, public finance system and the public appeal mechanism must be built and perfected so as to guarantee and improve the livelihood fundamentally.</t>
+          <t>This paper presents an integrated assessment model for use with climate policy decision making in Canada. The feedback based integrated assessment model ANEMI_CDN represents Canada within the global society-biosphere-climate-economy-energy system. The model uses a system dynamics simulation approach to investigate the impacts of climate change in Canada and policy options for adapting to changing global conditions. The disaggregation techniques allow ANEMI_CDN to show results with various temporal resolutions. Two Canadian policy scenarios are presented as illustrative examples to map policy impacts on key model variables, including population, water-stress, food production, energy consumption, and emissions under changing climate over this century. The main finding is a significant impact of a carbon tax on energy consumption. Two policy scenario simulations provide additional insights to policy makers regarding the choice of adaptation/mitigation options along with their implementation time.</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2369675157</t>
+          <t>https://openalex.org/W2289137284</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Li (2005)</t>
+          <t>Rhebergen &amp; Waal (2013)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>A Discussion on the Administrations of Humanity Education to College Supervisors</t>
+          <t>Benefits of wildlife-based land uses on private lands in Namibia and limitations affecting their development P. A. L INDSEY ,C. P. H AVEMANN ,R. M. L INES ,A. E. P RICE ,T. A. R ETIEF T. R HEBERGEN ,C. V AN D ER W AAL and S. S. R OMAÑACH</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>In 21st century, the steady development of knowledge economy and the reform of China's education system pose both challenge and opportunity for educational administration in advanced schools. As administration workers in the front line, college counselors should analyze the tendency of college students' administration scientifically and objectively, and insist the student-centered, humanistic working principle. At the same time they should hold the correct opinions of education and talent, which can adapt themselves to China's economic and social development. Their work is deeply related to how to improve China's educational level and quality, furthermore, how to improve the international competitive position of Chinese education system. College counselors' professional quality plays a key role in realizing Chinese education to meet the chanllenges of world,future,and modernization.</t>
+          <t>Legislative changes during the 1960s-1970s granted user rights over wildlife to landowners in southern Africa, resulting in a shift from livestock farming to wildlife- based land uses. Few comprehensive assessments of such land uses on private land in southern Africa have been conducted and the associated benefits are not always acknowledged by politicians. Nonetheless, wildlife-based land uses are growing in prevalence on private land. In Namibia wildlife-based land use occurs over c. 287,000 km 2 . Employment is positively related to income from ecotour- ism and negatively related to income from livestock. While 87% of meat from livestock is exported $95% of venison from wildlife-based land uses remains within the country, contributing to food security. Wildlife populations are increasing with expansion of wildlife-based land uses, and private farms contain 21-33 times more wildlife than in protected areas. Because of the popularity of wildlife-based landusesamongyoungerfarmers, increasingtouristarrivals and projected impacts of climate change on livestock production, the economic output of wildlife-based land uses will probably soon exceed that of livestock. However, existing policies favour livestock production and are prejudiced against wildlife-based land uses by prohibiting reintroductions of buffalo Syncerus caffer, a key species for tourism and safari hunting, and through subsidies that artificially inflate the profitability of livestock production. Returnsfromwildlife-based land uses are also limited by the failure to reintroduce other charismatic species, failure to develop fully-integrated conservancies and to integrate black farmers sufficiently.</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1780849676</t>
+          <t>https://openalex.org/W2473611781</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/ref:odnb/4470</t>
+          <t>https://doi.org/10.2307/2667538</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Dawson (2004)</t>
+          <t>NA (2000)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Campbell, Archibald, fifth earl of Argyll (1538–1573), magnate and protestant reformer</t>
+          <t>Sophisticated Guides to a Changing Chinese Landscape&lt;i&gt;Streetlife China&lt;/i&gt;. Michael Dutton&lt;i&gt;The China Reader: The Reform Era&lt;/i&gt;. Orville Schell, David Shambaugh</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Previous articleNext article No AccessReview EssaysSophisticated Guides to a Changing Chinese Landscape Streetlife China. Michael Dutton The China Reader: The Reform Era. Orville Schell, David ShambaughJeffrey N. WasserstromJeffrey N. Wasserstrom Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by The China Journal Volume 43Jan., 2000 Published on behalf of the Australian Centre on China in the World at the Australian National University Article DOIhttps://doi.org/10.2307/2667538 Views: 5Total views on this site Copyright The China JournalPDF download Crossref reports no articles citing this article.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2159915619</t>
+          <t>https://openalex.org/W4232997672</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3386/w8158</t>
+          <t>https://doi.org/10.31219/osf.io/p9t34</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Kopczuk &amp; Slemrod (2001)</t>
+          <t>Kencanasari (2021)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Dying to Save Taxes: Evidence from Estate Tax Returns on the Death Elasticity</t>
+          <t>ECONOMIC INDONESIA GOOD CORPORATE GOVERNANCE</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>This paper examines data from U.S. federal tax returns to shed light on whether the timing of death is responsive to its tax consequences. We investigate the temporal pattern of deaths around the time of changes in the estate tax system periods when living longer, or dying sooner, could significantly affect estate tax liability. We find some evidence that there is a small death elasticity, although we cannot rule out that what we have uncovered is ex post doctoring of the reported date of death. However, the fact that we find that postponement, rather than acceleration, of death is more likely to occur suggests that this phenomenon is at last partly a real (albeit timing) response to taxation.</t>
+          <t>The condition of the world economy in 2018 tended to be sluggish and unbalanced and was followed by uncertainty in world finances which were still high. The disturbance is expected to occur until now (2020). Indonesian business people are urged to continue to make reforms, innovations and create diversification in order to survive in the market. The implementation of quality Good Corporate Governance (GCG) enables the creation of added value for stakeholders, and in turn will create sustainable business success (Effendi 2009). Basically, GCG is a set of rules that govern, manage and oversee the relationship between company managers and stakeholders in the company in an effort to increase company value and market valuation.The implementation of GCG in companies is proven to be able to increase company value, market value, cultural value, information disclosure, audit system effectiveness, and risk control. Maximization of benefits can be obtained if governance runs well and is always in line with compliance and conformity to ethics and norms.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2567740054</t>
+          <t>https://openalex.org/W1602301405</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/001979399705000414</t>
+          <t>https://doi.org/10.5204/mcj.554</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>McCall (1997)</t>
+          <t>Wilken &amp; McCosker (2012)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Book Review: Income and Social Security and Substandard Working Conditions: Rights at Work: Pay Equity Reform and the Politics of Legal Mobilization</t>
+          <t>The Everyday Work of Lists</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>IntroductionThis article explores the work of lists in mediating the materiality and complexity of everyday life. In contemporary cultural contexts the endless proliferation of listing forms and practices takes on a “self-reflexivity” that signals their functional and productive role in negotiating the everyday. Grocery lists, to do lists, and other fragmentary notes work as personal tools for ordering and managing daily needs and activities. But what do these fragments tell us about the work of lists? Do they “merely” describe or provide analytical insight into the everyday? To address these questions we explore the issues and anxieties raised by everyday consumption drawing on theories of everyday life. These concerns, which are examined in detail in the second part of the paper, lie at the heart of French writer Georges Perec’s interest in the “infra-ordinary”—that which resides within the everyday. In the parts of his writing that he designated in retrospect as “sociological,” Perec takes the form and function of lists as a starting point for a range of literary experiments that work as tools of discovery and invention capable in their seeming banality of both mapping and disrupting everyday life. Les Choses (Things) and Je Me Souviens (I Remember), for example, take the form of endless and repetitious lists of things, places, people, and memories, collections of fragments that aim to achieve a new kind of sociology of everyday life. While this project may be contentious in terms of its “representativeness,” as a discursive method or mode of ethnographic practice (Becker) it points to the generative power of lists as both of the everyday and as an analytical tool of discovery for understanding the everyday. Perec’s sociology of the everyday is not, we argue, articulated as a form of a cohesive or generalizable characterisation of social institutions, but rather emerges as an “invent-ory” of the rich texture and disjunctures that populated his everyday spaces, personal encounters, and memories. Lists and the EverydayTo see lists as tools of common use, to paraphrase Spufford (2), is to place the list squarely within the realm of the everyday. A particular feature of the everyday—its “special quality,” as Highmore puts it—is that it is characterised by “the unnoticed, the inconspicuous, the unobtrusive” (Highmore 1). The everyday is enigmatic, elusive, difficult to grasp, and important because of this. In Maurice Blanchot’s famous formulation, “whatever its other aspects, the everyday has this essential trait: it allows no hold. It escapes” (14). Its pervasiveness renders it as platitude, but, as Blanchot adds, “this banality is also what is most important, if it brings us back to existence in its very spontaneity and as it is lived” (13). This tension poses special challenges for critics of the everyday who must register it as a part of, as inhering in, “manifold lived experience” without it “dissolving” into “statistics, properties, data” when it is “made the object of study” (Sheringham 360). In short, as Fran Martin (2) points out, “even though it surrounds us completely and takes up the vast majority of our time, the everyday is extremely difficult to pin down.” It is a predicament that is made all the more difficult in light of the complicated entanglement of the everyday and consumer capitalism (Jagose; Lury; Schor and Holt). This close relationship between consumer objects—things—and everyday life (along with other historical factors), has profoundly shifted critical understanding of the processes of subject formation and identity performance. One influential formulation of these transformations, associated most strongly with the work of Giddens and Beck, is captured in the notion of “reflexive modernity.” This refers to the understanding that, increasingly, at a broader societal level, “the very idea of controllability, certainty or security” is being challenged (Beck, World Risk Society 2)—developments that impact directly on how self-identity is formed (Giddens), reformed and performed (Hall). Faced with such upheavals, it is suggested that the individual increasingly “must produce, stage and cobble together their biographies themselves” (Beck, “Reinvention” 13), they must self-reflexively “invent” themselves. As Slater puts it, individuals, by force of circumstance, are required to “choose, construct, interpret, negotiate, display who they are to be seen as” (84) using a wide array of resources, both material and symbolic. Consumerism, it is widely argued, proffers its goods as solutions to these problems of identity (Slater 85). For instance, Adam Arvidsson notes how goods are used in the construction of “social relations, shared emotions, personal identity or forms of community” (18). This is particularly the case in relation to lifestyle consumption, which for Chaney (11) functions as a response to the loss of meaning in modern life following the sorts of larger societal upheavals described</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2107018482</t>
+          <t>https://openalex.org/W2314733765</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1093/geront/45.1.12</t>
+          <t>https://doi.org/10.1215/00182168-45.2.257</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Herd (2005)</t>
+          <t>Faulk (1965)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Ensuring a Minimum: Social Security Reform and Women</t>
+          <t>Ranching in Spanish Texas</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>The potential effects of implementing three different minimum benefits in Social Security, which have accompanied proposals to privatize the program and reform family benefits, are examined in relation to the adequacy of benefits for women reaching age 62 between 2020 and 2030.The 1992 Health and Retirement Study is used to conduct a simplified microsimulation.The minimum benefit proposal accompanying privatization proposals, which requires 40 earnings years for a poverty level benefit, fails to cover significant numbers of vulnerable women. The elimination of spousal benefits, criticized for being outdated and regressive, helps offset the costs of more generous minimum benefits, such as those that require residency or 10 earnings years for eligibility.Noncontributory benefits distributed based on marital status are not as effective at protecting poorer women, as well as a new generation of women that is less likely to be married, than are minimum benefits where eligibility is tied to U.S. residency or simply Social Security eligibility.</t>
+          <t>IT IS FAIRLY well-known among twentieth-century Americans that the open-range cattle industry originated in Spanish Texas more than a century before its romantic heyday after the Civil War. Yet little specific information has been available about this aspect of the cowboy complex. The usual impression today is that while present cattle-handling methods have vague roots in the Spanish past, their development was uniquely an AngloAmerican adaptation of vaquero practices. Almost unknown is the fact that this industry was widespread in Spanish Texas, and that cattle and horses were the major export from the province during the late eighteenth and early nineteenth centuries. Present-day ignorance about the magnitude of ranching in Spanish Texas is primarily a result of the paucity of records kept about the industry. Cattle raising apparently was so commonplace that the Spaniards generally overlooked it when they compiled their otherwise elaborate statistics and made their endless reports about life in the colony. Beginning in 1778, however, tax-hungry government officials turned their attention to the large herds of livestock roaming the plains of Texas, necessitating the keeping of records-records that allow a tantalizing glimpse of this ranching activity. Alonso de Leon and Domingo Teran de los Rios probably drove cattle with them to East Texas in 1690 and 1691 respectively, but it was the expedition headed by the Marquis de Aguayo in 1721 which first brought livestock to the province in significant numbers. This herd consisted of 400 sheep and 300 cattle from Nuevo Leon.' Sheep increased very slowly in the new environment because the area was thickly wooded and abounded in predatory animals, and because many of them were lost owing to a shortage of trained herders. In the brush country of South Texas, however, cattle thrived and became a primary source of food for the early Texans. Livestock also constituted the principal wealth of the missions.2</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>https://openalex.org/W33461221</t>
+          <t>https://openalex.org/W2044923163</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/b978-0-08-018167-7.50005-7</t>
+          <t>https://doi.org/10.1016/0168-8510(94)90078-7</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Cumes (1974)</t>
+          <t>Liu et al. (1994)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>The balance of production</t>
+          <t>Privatization of the medical market in socialist China: A historical approach</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>This chapter focuses on the balance of production. The two strongly contributing causes to the contemporary superfluities of demand suggest that one must look more closely at the balance of production in the modern economy. The continuing use of significant resources in inefficient sectors of the economy and special support for these sectors reduces growth and increases costs, especially in those phases of the economic cycle at which production falls below demand. The OECD suggested the obvious solutions that governments should reduce agricultural protection, including price-support systems, and limit intervention in some important industrial sectors that give rise to inefficiencies and high costs. In an economy in which labor flows are particularly sharp to certain sectors, stability and balance and equilibrium will be facilitated by relaxing demand for labor in and/or increasing supply of labor to those sectors. In a modern economy in which labor is increasingly concentrated in the service sector, stability will be promoted by bringing demand and supply for labor in the tertiary industry, including many government services, more nearly into balance.</t>
+          <t>A Socialist-Market Economy was defined as a target model for China's economic reform by China's 14th National Congress in 1992. Such an innovative change in China's more than a decade long economic reform has brought both new challenges and opportunities for its health care system reform as it moves toward a market determination mechanism and involvement of the private sector. A better understanding of the nature and history of the Chinese private medical market and its dynamic socio-economic environment would certainly shed a great deal of light onto the accomplishments of the health care reform. Research in this area, however, is almost non-existent at either national or international levels. The present study attempts to fill this gap by providing a comprehensive assessment of both historical and prospective development of the Chinese private medical market. Three stages are defined to present the tortuous development of this market over the last four decades, coupled with our critiques of the underlying merits and problems. Predictions are also made on the future perspective of the private market, and its possible impact and role in shaping the reform of the entire Chinese health care system. The government's role as well as its future strategy to cope with the issues surrounding Chinese health care reform are also summarized. The study concludes with five health policy recommendations aimed at facilitating China's health care reform via more market-oriented determination of resources allocation, production, and distribution, coupled with promotion of the private sector's involvement while minimizing its potential adverse side effects.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138470323</t>
+          <t>https://openalex.org/W408836655</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Aguilera (1999)</t>
+          <t>Kelly (1990)</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>UN SONDEO ESTRATIGRÁFICO EN LA CAPILLA DEL PALACIO EPISCOPAL: REFLEXIONES SOBRE LA ESTRATIGRAF~A DEL S. XIII EN LA CIUDAD DE MURCIA</t>
+          <t>Consumer behavior patterns among users of public accounting services</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Les ouvres de restauration realisees a la Chapelle du Palais Episcopale a Murcie, on inotivee des fouilles d'emergence qui on mis au jour I'importance et profundite des differentes reformes de la ville pendant le XIII'' siecle. Ces reformes, successivement almohades et chretiennes, supposent la necesite de faire une revission methodique des diverses hypotheses et propositions realissees jusqu'a maintenant a propos du XII' et XIIIull' siecles a Murcie.</t>
+          <t>Research Summary Australia, with its vast reserves of natural resources, its agrarian origins, and its geographic isolation, has been considered a primary production economy from its earliest days. This view is changing. With development, Australia's service industries are contributing an increasing proportion of Gross Domestic Product. This report analyses the literature on one of those service sectors, the pub lie accounting industry. Initially, the report examines the public accounting profession and its developing role as a service provider, and then considers the profession as a service in the marketing environment. Public accounting suffers from the common problems associated with service marketing as opposed to product marketing. It markets a service that is intangible. This intangibility is associated with a inability of consumers to determine service quality. Service quality perception problems are compounded by the high degree of heterogeneity of accounting service offerings. Also, public accounting services are inseparable in terms of production and consumption, and subject to the service feature of perishability;- they cannot be stored after production for future consumption. After examining the marketing weaknesses of services in general and public accounting services in particular, the report poses the question;- why marketing? Why do we need to market the service at all? Four areas are outlined:- 1. A revised legal and ethical climate, where restrictions against the use of advertising, solicitation, competitive bids, and certain promotional tools have sparked a wave of intensifying promotional and competitive activity in most of the professions, threatening the survival of those who do not follow suit. 2. An oversupply of professionals, which, while it has not yet affected Australia to the same extent as it has the United States and the United Kingdom, will become reality here as Federal and State governments intensify their efforts to educate more accounting and business administration professionals. The emergence of the houses, offering alternatives to the engagement of professional accountants, is another associated factor. 3. Increased dissatisfaction with professionals, resulting largely from the popular media image of solicitors as ambulance chasers, and accountants as tax loophole finders. 4. Rapidly changing technologies in data processing, communications, and other areas are causing clients to demand faster and more timely data. Those firms which keep up with the new technology thrive, while those who fall behind are struggling. A prime example of this is the……</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2049626266</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.apcata.2008.08.017</t>
+          <t>https://openalex.org/W1688306771</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Li et al. (2008)</t>
+          <t>Brante (2008)</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Superior catalytic behavior of trace Pt-doped Ni/Mg(Al)O in methane reforming under daily start-up and shut-down operation</t>
+          <t>Lärare av idag : om konstitutioneringen av identitet och roll</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Doping effects of Pt and Ru on Ni/Mg(Al)O catalysts were compared in daily start-up and shut-down operations of steam reforming of CH4. Trace Pt-doped catalyst showed better behavior than trace Ru-doped catalyst; the former was self-activated but the latter was not, although both exhibited self-regenerative activity. Moreover, the former exhibited sustainable activity, although the latter was quickly passivated, in the autothermal reforming of CH4. Formation of Pt–Ni alloy on the surface of fine Ni metal particles on the catalysts was suggested by EXAFS analyses. CH4 was dissociatively activated to form hydrogen on Pt, assisted by adsorbed O or OH species, leading to the self-activation via Ni reduction by hydrogen spillover from Pt. The self-regeneration of the Pt–Ni/Mg(Al)O catalysts can be achieved by the continuous rebirth of active Ni metal species via reversible reduction–oxidation between Ni0 and Ni2+ in/on Mg(Ni,Al)O periclase assisted by the hydrogen spillover.</t>
+          <t>This thesis comprises four articles and a summarizing text. The articles build on three sets of data regarding various aspects of the teaching profession. One objective is to illustrate and discuss what may make teaching appear to be a complex and intensive profession, as well as what conditions are necessary to make the relationship between teachers and pupils appear to be characterized by asymmetry. A second objective is to discuss which changes to working conditions could in turn lead to changes to the apparent complications in teachers’ working conditions. Using a systemic approach as the point of departure, different mechanisms that may contribute to the constitution of teachers’ identity and role are discussed. On the one hand the systemic analysis moves from a biological point of view, via a cultural, a psychological and a societal point of view, to explain and comprehend how groups can develop asymmetrical relationships. On the other hand, curriculum changes, as well as changes in the school system over the last twenty years and the synchronous nature of teacher work, are used in discussing the complex and intensive character of teaching. Abduction makes it possible to explain the complex and intensive character of the teaching profession, as well as the asymmetric relationship between teachers and pupils, using these mechanisms. It is also proposed that interplay exists between these two aspects. A third result is the proposal that many of these problems may be explained by the extensive reforms that have burdened teachers and schools since the end of the last century. In conclusion, changes in teachers’ attitudes towards innovation, their approach to knowledge, the relationship with the pupils, and the teachers’ mission, are suggested as possible means of modifying the situation.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2940636171</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.25236/icefbd.18.031</t>
+          <t>https://openalex.org/W137487491</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Guo (2018)</t>
+          <t>Lynch (2013)</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Study on the Reconstruction of Shanxi Local Tax System after the Full Implementation of Reform by Business Policy</t>
+          <t>River of Contention: Scarcity Discourse and Water Competition in Highland Peru</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>The policy prescriptions of international institutions seeking to transform
+fresh water governance in Latin America are driven by fear of an impending
+crisis due to an absolute scarcity of fresh water. The assumption that scarcity
+is the fundamental problem for the governance of fresh water resources leads
+to adoption of three main types of policy solutions. One is to build a new
+institutional architecture to support integrated water resource management
+(IWRM) at the national and river basin levels. The second is to emphasize
+new infrastructure to capture free flowing water, the transfer from regions of
+abundance to regions of deficit, and new technologies that make water
+delivery more efficient (e.g., drip irrigation). The third solution is to treat
+water as an economic good by pricing it, creating transferable rights in water,
+and supporting the development of water markets.
+These policy prescriptions, coupled with World Bank and InterAmerican
+Development bank loans, have driven recent water reforms in Peru, a country
+where water conflicts have been numerous and often severe, posing difficult
+if not insuperable challenges for water governance. Is water scarcity the
+reason for these conflicts, or are other factors equally if not more important?
+And, are policies shaped by a fear of impending scarcity part of the solution
+or part of the problem?</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3008080686</t>
+          <t>https://openalex.org/W2098312760</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>https://doi.org/10.7249/ip175</t>
+          <t>https://doi.org/10.1080/00020180701275949</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Keltner (1998)</t>
+          <t>Thompson (2007)</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Funding Comprehensive School Reform</t>
+          <t>‘Is it Lawful for People to have their Things taken away by Force?’1 High Modernism and Ungovernability in Colonial Zimbabwe</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Based on RAND analysis of the New American Schools initiative, this paper discusses aspects of comprehensive school reform-specifically, allocation of such resources as teacher time, personnel, design services, and material and conferences.</t>
+          <t>Click to increase image sizeClick to decrease image size Notes 1. Comment by a delegation from Filabusi to the Chief Native Commissioner – NAZ S2808/2/6, ‘Record of a Meeting’, undated [c. 1961]:1. 2. The following discussion of the main provisions of the NLHA is based on Southern Rhodesia Citation1952a:893–916; Pendered and Von Memerty Citation1955:99–109; Bradford Citation1955:165–170; Bulman Citation1970:5–10. 3. For a detailed discussion of these interventions, see Fairhead and Leach Citation2000:44–45; Hodgson Citation2000:56–57; Van Beusekom Citation2000:80, 96–97. For contemporary accounts and discussion of these interventions by colonial officers and academics, see Meek Citation1953:158–166; Thomson Citation1953:66–69; Maserfield Citation1954:41–51; Colson Citation1958:86–89; Clayton Citation1959:144–150. 4. For example, see National Archives of Zimbabwe (hereafter NAZ) SRG-4, ‘Report of the Southern Rhodesian Government to the Food and Agriculture Organisation of the United Nations for the Year 1949/1950’; NAZ SRG-4 ‘FAO: Seminar on Land Policies in East and Central Africa to be held in Uganda, October 1960: Southern Rhodesia Country Paper’; SARCUS, Extension Methods in Southern Africa: Report of the Proceedings and Findings of the Extension Methods Workshop, Salisbury, Rhodesia and Nyasaland, May 1962 (Pretoria: Government Printer); NAZ S483/2/75 ‘Prime Minister's Office: Land Utilisation Legislation’, Officer Administering the Government, Government House, Accra, Gold Coast to Governor, Southern Rhodesia, 27/7/50, requesting information on the draft NLHA as the Gold Coast administration was considering similar measures. 5. The Swynnerton plan has not yet been the subject of in-depth historical research. While there are numerous brief references to the scheme, the only significant publication focusing on the plans is a booklet published by the Cambridge African Studies Centre: Thurston Citation1987. 6. Howman, then an administrative officer at NAD headquarters, complained that the Act gave too much authority to technical staff, so implementation would cut across the ‘fundamental social structure of the people’ ignoring the ‘natural political unit of the Dunhu’ in Shona areas; his concerns were summarily dismissed by the Superintendent of Native Affairs. NAZ, S2818/12 NLHA Circulars, Roger Howman's 1952 handwritten comments attached to Circular No 309, Addendum C, ‘Centralisation and Individual Allocation of Arable Land in the Reserves and the Special Native Areas’ dated 31/7/52; H/O 129/359/71/2, SNA to R. Howman, 31/1/53; Director of Native Agriculture to Assistant Secretary for Native Economic Development, 14/10/52. 7. For examples of the extensive promotion of the NLHA, see Southern Rhodesia Citation1955; Southern Rhodesia Citation1952b; the annual reports of the Chief Native Commissioner 1951–1961 (especially the report for 1959 which has an extensive report on the NLHA Coordination Centre); the newspaper Nhume (published for African staff of the government); and the two films made by the Central African Film Unit to promote the NLHA, The New Acres and Changing the Land. 8. This discussion of the disciplinary regime is derived from Foucault 1979, especially pages 26–27, 38–39, 80, 89. In Decolonization and African Society, Cooper argues that Foucault's model of the disciplinary regime cannot be used to explain the second colonial occupation because Foucault was vague about how the disciplinary regime was formed and how elite ideas shaped the behaviour of the disciplined, and because he questions the applicability of the idea of surveillance in a colonial situation (1996:15, 335). I contend that Foucault's model of the disciplinary regime works in this situation because it provided the conceptual basis for the officials who drafted the law, and encapsulates common assumptions that they held about the way the state and economy should operate. On this abstracted level, I hold that the problems of historicity with Foucault's model that Cooper identified are not important. 9. Eric Worby has also advanced a Foucauldian analysis of the NLHA in ‘Discipline Without Oppression’; we appear to have both developed these analyses during graduate work in different institutions – McGill University and University of Minnesota – and different disciplines – anthropology and history. While he also roots his analysis in Discipline and Punish, he takes a very different angle, seeing the NLHA as a mechanism to discipline African hygienic practices, to stabilise and reform the family, regularise tenure and rationalise agrarian techniques – see 2000:103–111. 10. NAZ LAN20/7/D18/53, ‘Land Holding Under the Native Land Husbandry Act of 1951’, p 2. 11. For similar comments on officials' dismissive attitudes towards indigenous knowledge and African abilities, see Cooper Citation1996:123 and Scott Citation1998:349. 12. NAZ S2818/12, Circular No 309, Addendum C, ‘Centralisation and Individual Allocation of Arable Land in th</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587856912</t>
+          <t>https://openalex.org/W3121243018</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7591/cornell/9781501749568.003.0006</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Formanowicz &amp; Sczesny (2015)</t>
+          <t>Lindsay (2020)</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>The benefits and pitfalls of language change – The case of gender-fair language use</t>
+          <t>Irregular Problems and Biased Solutions</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Gender-fair language (GFL) is a symmetric linguistic treatment of women and men. To create GFL two principle strategies can be deployed. Neutralization means that gender-unmarked forms (police officer) are used to substitute the male-biased (policeman). Feminization, implies that feminine forms of nouns are used systematically to make female referents visible. The results of a comprehensive European research program provide evidence in support of a non-discrimination policy in language, yet identify the potential setbacks preventing linguistic reforms to be effective. In general, studies indicate positive effects of GFL. In an applied context, for example women feel more motivated to apply for the position if a job advertisement is formulated in a GFL. However, negative effects of reformed usage were also reported specifically when GFL is novel. For example, a woman referred to as a chairperson was evaluated lower in occupational status than a woman referred to as a chairman.</t>
+          <t>This chapter details how the U.S. intervention in Iraq completed a full cycle through the information practice framework between 2003 and 2008. During the invasion and its aftermath, managed practice turned into insulated practice, which prompted both internal and external actors to adapt. During the subsequent occupation, adaptive practice turned into problematic practice, which in turn encouraged the U.S. military to institutionalize doctrinal reforms. The chapter explores the ways in which insulated practice still persisted at the end of this process, curiously enough, even in a tactical unit close to the fight that had ample opportunity to make sense of facts on the ground. It also surveys the Special Operations Task Force's (SOTF) information system and then compares the SOTF to other units that conducted a similar mission (Joint Special Operations Command, JSOC) or operated in the same environment (U.S. Marines) to demonstrate how different institutional choices can generate different qualities of information practice.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4214651151</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-981-16-6875-3_30</t>
+          <t>https://openalex.org/W2354316811</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Sharma et al. (2022)</t>
+          <t>Jin (2007)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Role of Subsidies for PV Solar Installations in India: A Cost–Benefit Analysis</t>
+          <t>Civil Society and the Reconstruction of the Social Class Structure</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>The paper highlights the role of subsidies in the PV solar installments both from the lenders and from the receiver’s perspective, evaluating the existing financial incentives contributing to the adoption of PV solar technology. It evaluates the costs and benefits accumulated by the installation of grid-connected PV solar panel of size 2.5 and 10 kW using the method of cost–benefit analysis and net present value. The paper observes a significant role of subsidies in realizing the benefits in case of PV solar installations. The results of cost–benefit analysis reveal that the internal rate of return is greater in case of subsidy than without subsidy indicating the role of subsidies in incentivizing the investment in PV solar systems. An internal rate of return is 13% for smaller plant and 19.94% for larger plant with subsidy. However, the slow growth in investment observed in past years reflects the vulnerability of the PV solar system on the financial structure. The PV solar costs that are highly vulnerable to technological innovations, and the subsidies in such cases are bound to accumulate financial liabilities for government in terms of opportunity cost foregone by not investing in new technology. Moreover, the reduction in the costs of PV solar technology is contributing in shorten the gestation period and achieving break even hinders investors in making investment decisions. The present situation of PV solar development in India needs not only a periodic assessment process to tackle the issue of rapid innovation in technology but also relevant policies and procedures promoting buyback options to integrate upgradation of technology.</t>
+          <t>From 1980s on,China has experience a profound change in social structure.In the course of the system transferring,some folk communities and nonprofit organizations have appeared with the color of civil autonomy,which indicates that a new realm of society is arising in between government and enterprises.This new social system can be called as civil society,which is a diversified field where various interests exist and independences and individualities grow together.At the same time,together with modern government and enterprises,it forms a new integrated social structure.The mature civil society has strategic impact on the establishment of harmonious society.The crux of building civil society is to reform the power structure and the traditional pyramidal social structure,to establish a new three-party-balance social structure,to improve citizens' qualities and to form a socialist,democratic and political environment.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2154852184</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1128/mbio.00131-10</t>
+          <t>https://openalex.org/W2277883732</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Smith &amp; Chapman (2010)</t>
+          <t>Kang (2011)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Economical Evolution: Microbes Reduce the Synthetic Cost of Extracellular Proteins</t>
+          <t>Transnationalism and the Internet: the case of London-based Chinese professionals</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Protein evolution is not simply a race toward improved function. Because organisms compete for limited resources, fitness is also affected by the relative economy of an organism's proteome. Indeed, many abundant proteins contain relatively high percentages of amino acids that are metabolically less taxing for the cell to make, thus reducing cellular cost. However, not all abundant proteins are economical, and many economical proteins are not particularly abundant. Here we examined protein composition and found that the relative synthetic cost of amino acids constrains the composition of microbial extracellular proteins. In Escherichia coli, extracellular proteins contain, on average, fewer energetically expensive amino acids independent of their abundance, length, function, or structure. Economic pressures have strategically shaped the amino acid composition of multicomponent surface appendages, such as flagella, curli, and type I pili, and extracellular enzymes, including type III effector proteins and secreted serine proteases. Furthermore, in silico analysis of Pseudomonas syringae, Mycobacterium tuberculosis, Saccharomyces cerevisiae, and over 25 other microbes spanning a wide range of GC content revealed a broad bias toward more economical amino acids in extracellular proteins. The synthesis of any protein, especially those rich in expensive aromatic amino acids, represents a significant investment. Because extracellular proteins are lost to the environment and not recycled like other cellular proteins, they present a greater burden on the cell, as their amino acids cannot be reutilized during translation. We hypothesize that evolution has optimized extracellular proteins to reduce their synthetic burden on the cell.</t>
+          <t>This thesis examines the role of internet use in migrants’ participation in, and articulation of, rising Chinese modernity. It explores the ways in which transnational subjectivity is produced through this process. It investigates how migrants’ various uses of the internet construct and make sense of their connections with China. It demonstrates a new generation of subjectivity among Chinese transnationals that is tech-savvy, modern and triumphal – a subjectivity embedded in the exchange between the (macro) political economy of China’s rise and the (micro) everyday practices surrounding the internet. This is an ethnographic study focusing on an emerging population within the broader Chinese diaspora; that is, mainland Chinese professionals who migrated for higher education and professional training in recent years as a result of China’s reform and economic power. This study locates its enquiries in three offline-grounded institutions – ethnic organisations, states and families. These institutions pre-date the internet but increasingly turn to the technology for transnational and local connections. Regarding Chinese organisations, utilising the internet to build co-ethnic sociality is read as a symbolic practice that signals the users’ belonging to a technologically-advanced, mobile and wealthy sector within the broader idea of the Chinese community. On the role of the state, internet use provides new modes of migrants’ access to China’s state-led development projects, thus opening up new spaces for the state’s disciplinary power to be exercised. This digital governance is enabled by a discourse of Chinese triumphalism constructed by both the state and the migrants. Regarding families, the digitalisation of the gendered division of labour in transnational families provides evidence of the segmented nature of China’s digital modernity and disrupts the triumphal portrait of transnational modernity constructed among the elite-stratum migrants. Overall, this study develops a dialogue between two literatures. On the one hand, it adds to diasporic internet studies by introducing an offline-grounded, geographically-informed approach and by bringing transnational modernity into its research agenda. On the other hand, it draws on Nonini and Ong’s (1997) theorisation of Chinese transnationalism as alternative modernity and further adds to this theorisation with a focus on internet technology and a discussion of the impacts of China’s rise. It contributes to human geography by revisiting a key concept in this discipline – transnationalism – with a discussion of the interweaving impacts of information technology and the geopolitical shift of China’s rising modernity.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3137696247</t>
+          <t>https://openalex.org/W3126634994</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1108/srj-08-2020-0326</t>
+          <t>https://doi.org/10.15211/soveurope620202940</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Soondram et al. (2021)</t>
+          <t>Shcherbak (2020)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>The social welfare impact of double tax treaties in Sub Saharan Africa</t>
+          <t>Strategic Autonomy of the EU and Problems of Formation of the Foreign Policy Agenda in the Time of the Pandemic</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Purpose This study aims to analyze tax revenue in the presence of double tax treaties affecting social welfare of the inhabitants in the Sub-Saharan African (SSA) developing economies, whose fiscal regimes are being branded as responsible for exacerbating poverty for the inhabitants. This paper seeks to determine if double tax treaties are negatively impacting on human development of the host countries. Design/methodology/approach This study analyses 21 SSA countries from 1996 to 2016 using panel models and bootstrapped quantile regression. It uses a devised mathematical model which introduces the interaction between tax revenue and double tax treaties and measures the social welfare impact using the human development index (HDI). Findings The findings have broadly shown that (i) the net effect from the complementarity between tax revenue and double tax treaty (DTTs) in influencing the human development is for the most part negative (ii) the impact of tax revenue from international trade has the most positive net effect as compared to other tax revenues when interacted with the DTT and (iii) the DTT complements the tax revenue from income, profits and capital gains to progressively increase human development in the upper quartiles of HDI. Research limitations/implications This study has examined how the presence of double tax treaties has impacted the effect of tax revenue on human development in 21 SSA countries for the period 1996–2016. A mathematical model was devised and bootstrapped quantile regression was used owing to the specificities of the sample. In accordance with recent literature on net effects, the results were interpreted. Practical implications It is evident that further research is required on whether double tax treaties are indirectly responsible for poverty on the rise in SSA countries or on the contrary, they bring FDI alongside with other positive spillovers which in the end contribute to a rise in the human development aspect of societies in developing host economies. Social implications The HDI is an important measure used nowadays for human development as a proxy for social welfare. This research will use an HDI mathematical model devised by Sinha and Sengupta (2019) and adapt it to the context to testing econometrically whether double tax treaties have an impact on welfare or poverty reduction. The empirical results will help determine whether tax treaties are impacting the social welfare positively or negatively. Originality/value This result is the first research attempt to consider both the impact of tax revenue (which is expected to have a positive impact on social welfare of the people of the host developing countries) and the impact of double tax treaties simultaneously. It is the first empirical study focusing on the impact of tax revenue on human development in the presence of double tax treaties. Its methodology is original and adds to the current literature to benefit policymakers and academia.</t>
+          <t>The article explores the evolution of the EU Strategic Autonomy concept in the context of COVID-19 and the search by the EU for its global role in the modern system of changing international relations. The author underlines that the coronavirus pandemic accelerated transformation of Strategic Autonomy into a complex and flexible instrument, which covers practically all the EU foreign and internal policy priorities, starting from overcoming negative socio-economic impact of COVID-19 and securing the EU “health sovereignty”, achieving autonomy in development of a new generation of IT technologies and artificial intelligence to effective defence, resolution of ecological and migration issues, modern crisis management in global and regional aspects. It is argued that the Strategic Autonomy is used by the EU as a powerful driver for strengthening political unity and solidarity of the EU, increasing effectiveness of political decision-making process and harmonization of coordination management inside the EU. Special attention is paid to the priorities and goals of the EU foreign policy’s agenda for short-term and long-term perspectives. Some for cast is given concerning the strategic relations of the EU with China, Russia, USA and the UN system. Key aspects of the EU strategy on crisis regulation and international security are also described. The author envisages that in the long-term perspectives the EU continues to deepen strategic partnership with the UN in order to increase its influence on the UN system's institutional reforms in the spheres of international security, prevention of conflicts, economic resilience, development of democracy and human rights, protection of environment. The article also outlines the issue of the EU’s international partner selection in light of the Strategic Autonomy and the volatile conditions of the modern system of international relations and rising competition for global influence among key world powers.</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2587538776</t>
+          <t>https://openalex.org/W2017429868</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1176/ps.49.11.1468</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Mohanraj (2013)</t>
+          <t>Hartmann &amp; Meyerson (1998)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Message from the Chief Editor</t>
+          <t>A Debate on Physician-Assisted Suicide</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Welcome to the First Issue of International Journal on Education (IJED) on April 2013. In this issue of IJED, we present to our readers selected articles related to education, teaching, Higher Education, IT in education and some topics in teaching English. Ten papers are presented from Australia, Malaysia, Indonesia and India. The first article by Prof. Dr. Garry Hoban from Wollongong University, Australia with the topic: Engaging with Content and Language Using Student-created Blended Media, innovative approaches to teaching and learning are needed in schools and universities to provide new ways for students to engage with content and language; The second article by Prof. Dr. Mohamad Sahari Nordin from IIUM, Malaysia with the topic: Assessment for Learning: Charting a Future in the Malaysian Higher Education. Assessment for learning is a significant driver of student learning. It serves as a catalyst for reform in instructional practices, and hence, the centerpiece of educational improvement. This presentation reports an intervention programs designed and implemented by an institution of higher education in Malaysia to capitalize on the potentials of assessment for learning; The third article by Dr. Ujang Suparman from Lampung University, Indonesia with topic: The Implementation of the ICT –Based Thesis Supervision at One of Posgraduate School in Indonesia. This study is intended to find out a new effective and efficient strategy to supervise students writing thesis in a postgraduate school and to investigate the implementation of the ICT-based thesis supervision. The fourth article by Adesti Komalasari, MA from Respati University, Yogyakarta, Indonesia with the topic: Employing Experiential Learning to Teach Writing for English as a Foreign Language Learners Through a Reflection Project. Writing is a skill that helps English as Foreign Language (EFL) learners improve their English and also helps them to be exposed more to use English in their day-to-day basis. The fifth article by Alfian Cahyo Budiardi and Baity Anggraeni from University of Muhammadiyah Malang, Indonesia with topic: Facebook Base Writing Learning for Teaching English as a Foreign Language. The sixth article by Dr. Lalu Abd. Khalik from Bumi Gora Academy of Foreign Languages, Nusa Tenggara Barat, Indonesia with topic: The Patterns of Sasak Code Choice. The aims of this paper are to show the patterns of code choice within the Sasak multilingual community. The seventh article by Prof. Dr. Jayashree Mohanraj from English and Foreign Languages University, Hyderabad, India with the topic: Duckling? No, Swan! Non-native Teachers Teaching Spoken English to Non-native Learners. English has been accepted as a global language. Users of English as a second language have outnumbered the native speakers. The statistics which say that second/foreign language users of English are in the range of 1000 million, whereas the native speakers total not more than 400 million. As a result, teaching of English has acquired greater importance in the 21st century. The eight article by Ahmad Cucus , M.Kom and YuthsiAprilinda,M.Kom from Bandar Lampung University, Indonesia with the topic: Distanc E-learning Implementation Strategies For High School in Indonesia. Distance learning or E-learning to be one of the world's most popular method of learning, this is because E-learning allows a student to learn anywhere and at any time, but the application of E-learning can’t be implemented well in Indonesia, this is because the policy of face-to-face in classroom and obstacles to the facilities and high cost. The ninth article by Dr. M Yusuf S Barusman from 1andar Lampung University, Indonesia with the topic: The Development Strategy of Sustainable Competitive Advantage at Indonesian PHEIs.The competition among higher education institutionsin Indonesia has been becoming tougher since a decade ago. The objectives of this research are to analyze the determining factors that influence the sustainability of the PHEIs (PHEI), to analyze future scenarios regarding dynamic of external environment of PHEIs (PHEI), and to develop the best strategy to face the most possible scenario occurred. Finally in the last article by Syafryadin , IstiqomahNur Rahmawati and Rizki Widiastuti from UPI, Bandung, Indonesia with the topic: Improving Grade X Students’ Speaking Achievement under Round Robin Technique. With these selections I sincerely hope that everyone has something to gain from this issue and thank you to article contributors and reviewers for making this first issue possible.</t>
+          <t>Back to table of contents Previous article Next article ArticleFull AccessA Debate on Physician-Assisted SuicideLawrence Hartmann, M.D., and Arthur Meyerson, M.D.Lawrence HartmannSearch for more papers by this author, M.D., and Arthur MeyersonSearch for more papers by this author, M.D.Published Online:1 Nov 1998https://doi.org/10.1176/ps.49.11.1468AboutSectionsPDF/EPUB ToolsAdd to favoritesDownload CitationsTrack Citations ShareShare onFacebookTwitterLinked InEmail Editor's note: As part of the ongoing discussion at many levels of our society about physician-assisted suicide, a debate was held at the October 1997 Institute on Psychiatric Services in Washington, D.C. Dr. Hartmann argued in favor of physician-assisted suicide, and Dr. Meyerson argued in opposition. Alan A. Stone, M.D., was the moderator. This article presents the opening statements of the two debaters, slightly edited and updated to reflect subsequent developments.Dr. Hartmann: This debate is a small part of a large continuing American and international debate on physician-assisted suicide. I will argue that physician-assisted suicide should be legal, and Dr. Meyerson will argue that it should not.The state of Oregon now has a law called the Death With Dignity Act. It narrowly passed by referendum in 1994 with 51 percent of the vote and was then put on hold by legal challenges until October 14, 1997, when the U.S. Supreme Court removed the final legal obstacle to its becoming law. Energetic opponents attempted to repeal the law in a referendum in November 1997, but it was upheld by a vote of about three to two.Under the Oregon law, a mentally competent adult suffering from a terminal illness likely to result in death within six months may choose to receive a lethal dose of medication, after consulting with two doctors and waiting 15 days.I favor that law and others like it.Good values clash with good values in the area of physician-assisted suicide. People often hold on to some of these values with firm feeling and long-standing conviction—feeling and conviction not always fully reasoned or reasonable, and certainly not always stemming from advanced education and training.Part of our possible usefulness today in considering this area, as both citizens and psychiatrists or mental health colleagues, is not just to look at specific and legitimate psychiatric areas of special interest in physician-assisted suicide, such as, "Is the wish to die always a symptom of mental illness?" Part of our potential usefulness is also at what is probably a more general and preliminary level: to acknowledge and identify some psychological obstacles to discussion and to help clear some ground so that these emotion-laden areas can be open for reasonable discussion, as opposed to mere intellectual decoration on the surface of deeply held positions.Laws simply criminalizing physician-assisted suicide do not help clear such ground. Rather, the reverse. They do affect practice, powerfully if always imperfectly, but they also foster passionate premature closure rather than reasonable discussion, acknowledgment of complexity, learning, and evolution of varieties of decent, balanced, and caring solutions.Let me cite an issue that, at least temporarily, displaced physician-assisted suicide as a topic of medical-ethical debate in 1997: cloning. A member of the medical-ethical panel immediately set up to deal with what to do about cloning said of the panel's discussions, "Logic was air-tight, but it did not change anyone's mind.… Logical arguments [were] only rationalizations for gut feelings or religious viewpoints" (1).So let us be a bit modest about the power of this debate. In physician-assisted suicide, there are many obstacles to real discussion, including people's general reluctance to get anywhere near making any exceptions to "thou shalt not kill." However, one large obstacle to discussion of physician-assisted suicide is that people have deep wishes not to be in conflict, to have one simple, clear guiding philosophy or value or commandment or model that will settle difficult dilemmas for us. We wish for the security and beauty of simplicity. We human beings—including physicians and Supreme Court judges—are, on the whole, uncomfortable with what is not perfectly resolved and with the idea that some conflicts are not wholly resolvable—that some of our own powerful values necessarily and inevitably clash with other of our own powerful values.Moreover, we are often uncomfortable even with acknowledging that this discomfort or conflict exists, so we tend to deny that there are major philosophical as well as emotional conflicts, and to deny that we often wish away conflicts by leaning unreasonably on authority and what seem to be familiar or simplifying solutions. At a level that I think is always in conflict with our most adult selves, we all still sometimes have wishes to have good parents. Much of the strength and irrational appeal of authoritative guides or governme</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4237469919</t>
+          <t>https://openalex.org/W2030766845</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1049/pbhe029e_ch8</t>
+          <t>https://doi.org/10.1108/lhs-03-2014-0028</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Arjun et al. (2020)</t>
+          <t>Sebastian et al. (2014)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Reforming the traditional business network</t>
+          <t>Health LEADS Australia and implications for medical leadership</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Today the use of internet provides so much information and knowledge related to healthcare sector that everyone gets gradually forced to use it. This scenario not only saves our time but also saves a large amount of money that many would otherwise spend for physical visit into the hospitals and clinics. Today peoples have already got used to the large number of electronic healthcare methods. It is quite interesting about how fast the healthcare industry is growing with the use of advanced technologies. In the field of healthcare, organizations are utilizing emerging technologies, mainly machine learning (ML) and deep learning. Artificial intelligence (AI) and block chain could turn to establish something exponential in this area. It is clear that the ML and AI applications widely enhance the easiness, accuracy and speed of the diagnosis. The AI tools and algorithms help in analyzing the information more deeply and quickly with high accuracy; hence, the doctors are to be more precise with the diagnosis. Many areas such as image processing, X-ray analysis, bone age calculations and radiology are enhanced by the applications of AI. The blockchain technology is a real timestamped series of the immutable files and records of the data that would be managed by a group of computers that do not belong to any single entity. Storing and retrieving medical and healthcare sector data are more secure with the blockchain. The blockchain tools and applications help in ensuring the global integrity of the medical records. Each and every day the business industries, especially medical and healthcare sectors, are enhanced by the immense usage of adaptive technologies, and also they are establishing well-defined networks across all the interacting participants.</t>
+          <t>Purpose – The purpose of this paper is to call for strong medical co-leadership in transforming the Australian health system. The paper discusses how Health LEADS Australia, the Australian health leadership framework, offers an opportunity to engage medical clinicians and doctors in the leadership of health services. Design/methodology/approach – The paper first discusses the nature of medical leadership and its associated challenges. The paper argues that medical leaders have a key role in the design, implementation and evaluation of healthcare reforms, and in translating these reforms for their colleagues. Second, this paper describes the origins and nature of Health LEADS Australia. Third, this paper discusses the importance of the goal of Health LEADS Australia and suggests the evidence-base underpinning the five foci in shaping medical leadership education and professional development. This paper concludes with suggestions on how Health LEADS Australia might be evaluated. Findings – For the well-being of the Australian health system, doctors need to play an important role in the kind of leadership that makes measurable differences in the retention of clinical professions; improves organisational cultures; enhances the engagement of consumers and their careers; is associated with better patient and public health outcomes; effectively addresses health inequalities; balances cost effectiveness with improved quality and safety; and is sustainable. Originality/value – This is the first article addressing Health LEADS Australia and medical leadership. Australia is actively engaging in a national approach to health leadership. Discussions about the mechanisms and intentions of this are valuable in both national and global health leadership discourses.</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2138530149</t>
+          <t>https://openalex.org/W1546361405</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Bush &amp; Dodson (2014)</t>
+          <t>Malian &amp; Nevin (2005)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Police Officers as Peace Officers: A Philosophical and Theoretical Examination of Policing from a Peacemaking Approach</t>
+          <t>A Framework for Understanding Assessment of Innovation in Teacher Education</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Policing has evolved considerably over time and there have been significant changes in the past 200 years. As such, the mission of police has evolved as well and has mirrored changes in society. Policing has been categorized into various phases, typically referred to as the Political Entrenchment phase, the Reform Efforts, the Professional phase, and the Public and Community Relations phase. Within these phases, the focus of the police mission has changed from providing social service and assistance, law enforcement, police-community relations, and security. Furthermore, the dominant conceptualization of police as crime-fighters has influenced the conceptualization of police, police-community relations, and job-related stress. The purpose of this paper is to explore how peacemaking can facilitate a better understanding of the role of police for citizens, officers, and students who study criminal justice. Peacemaking is a way of thinking and acting that emphasizes “mercy and compassion” within processes and outcomes for the criminal justice system. Three major themes of peacemaking are connectedness, care, and mindfulness. We believe that a peacemaking approach could help officers develop the interpersonal skills and critical and dynamic thinking they will need to be more successful on the streets. Peacemaking also could help strengthen police-community relations and help the public better understand the roles and functions of police. Stories that exemplify the peacemaking approach to policing are provided and discussed.</t>
+          <t>Context Multiple sources of influence impact the decisions about what and how teacher educators are expected to operate, including the innovations that are adopted. Some of those sources of influence (such as teacher certification boards) can demand that certain curricula be adopted, specific instructional procedures be utilized, and delineate the conditions under which candidates will be selected for entry into teacher education programs. Other sources of influence include how other professionals are prepared (e.g., case-based or problem-based learning from legal and business preparation, constructivist teaching methods derived from educational psychology). Issues involving innovation in teacher education have been studied by education researchers, reformers, and practitioners. For example, in a seminal work, Lilly (1973) wrote, first premise is that the technical soundness of an innovation as demonstrated by educational research is seldom necessary and never sufficient to guarantee adoption of that innovation by educational practitioners ... consider the success of educational innovations [between 1960-1970], some proving successful (Sesame Street) and others apparently dying on the vine (performance contracting) (p. 227). Since then, some teacher educators have evaluated instructional innovation (e.g., Barrell, 1996), and in1996, an entire issue of Teacher Education Quarterly was devoted to innovative colleges of education. Other researchers have studied team teaching in teacher education (Cruz &amp; Zaragosa ,1998); teacher educators' beliefs about professional development schools (DeWitt, Birrell, Cook, Ostlund, Y alternative teacher education programs such as school-university partnerships (Benton and colleagues, 1996). However, Melvin (1993) calls for more concerted efforts to study the influence of professional studies by faculties of education on actual practice in classrooms and schools. Kenneth Zeichner, a past president of the Teacher Education Division of the American Educational Research Association, traced the types of scholarship in which teacher educators typically engaged between 1978 and 1999. He stated that the new scholarship in teacher education is a much richer and more varied body of inquiry than that which existed 20 years ago (p. 8). In addition to studies of the nature and impact of teacher education innovative practices such as electronic technologies, field-based programs, interdisciplinary or subject specific methods courses), methodologies have included case studies, narrative and life history methods, action research, life history and autobiographical methods (p. 11). In this themed issue, Assessing Innovation in Teacher Education, the editors hope to show that the types of innovation in teacher education as well as methodologies to study impact of innovation continue to show variety and ingenuity. In this article, the editors (a) summarize the definitions extant in the literature, (b) briefly describe several taxonomies for innovation, (c) explain the process of innovation, (d) explicate the challenges in assessing innovation, and (e) discuss the implications for teacher education research and practice. Definitions of Innovation A review of the literature on innovation yields multiple definitions, components, and processes that attempt to distinguish a unique element. Characteristic to all definitions are proximal, distal, and confluent properties of innovation. The proximal properties include definitions that conjoin to individual or micro perceptions of innovation, versus distal properties that ascribe a community, or macro, perception of innovation. Thus it can be argued that if an individual learns or performs a task for the first time it may be considered innovative. This also includes tasks that may have been available to the individual yet unperformed. The distal element underscores the value of the perceived task within a community or other external validating entity. …</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4234706530</t>
+          <t>https://openalex.org/W90991800</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1201/b10968-10</t>
+          <t>https://doi.org/10.2139/ssrn.2556157</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>NA (2011)</t>
+          <t>Chen &amp; Du (2015)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Crafting Policy with Subsidies and Regulations</t>
+          <t>Regulatory Reform of Cumulative Voting in Corporate China: Who Were Elected and its Impacts</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>In emerging markets characterized by weak institutions, the expropriation of minority shareholders by large shareholders is the primary concern in corporate governance. One important way to indurate the protection of minority shareholder rights is the implementation of cumulative voting (CV) scheme for board election. China carried out an experiment of regulatory reform to introduce the CV rule to many listed companies in China. In 2002, the Chinese Securities Regulatory Commission released the Code of Corporate Governance for Listed Companies'', aiming to elevate minority shareholder rights and to improve corporate governance. In this paper, based on our unique hand-collected data set, we investigate whether the use of CV has substantial effects on board composition and the characteristics of elected board directors, corporate policies and further on firm value. To mitigate the endogeneity'' or self-selection'' problem, this paper adopts matching methods to construct control groups and conduct DID style analysis to further reduce econometrical confoundedness. To increase the robustness of our main empirical results, we employ two different matching methods (Barber and Lyon method and Coarsened exact matching'' method) to construct two samples. To assess the efficacy of the implementation of CV, we examine whether the directors elected via CV are different from those elected via straight voting in terms of personal characteristics of directors including their education qualifications, professional experiences (accountant, lawyer, engineer, economist, etc.), managerial experiences (CEO/chairman experiences), work experiences in the same industry, and political connections (former central, or local government officials). We find that the proportion of directors as representatives of the second largest shareholder significantly increases under the CV rule based on a clean subsample where the top ten shareholders are unrelated. We also find that the implementation of CV has created some positive changes in the quality of directors and the independence'' of independent directors. But the incremental improvements are not significant enough to curb tunneling activities and generate substantial positive effects on firm performance. Our findings imply that the CV reform has achieved some success, bringing some positive changes to corporate boards, but the success is still limited to a large degree. The broad institutional and legal environment in China remains weak, which imposes constraints on the functioning of the reform scheme.</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>https://openalex.org/W263881616</t>
+          <t>https://openalex.org/W4390788410</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.4693086</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>McMillan (1995)</t>
+          <t>McGlynn (2024)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Can ABA Be All Things to All Bankers</t>
+          <t>Conserving Carbon: Evaluating Term-Limited Conservation Programs</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Because a divided banking industry stands virtually no chance of succeeding politically in the nation's capital, the ABA spends a considerable amount of time and resources representing the views and beliefs of all ABA members and the entire banking industry on Capitol Hill. That's why the ABA is in Washington in the first place. But can ABA, or any association for that matter, reasonably hope to represent the many diverse interests of its member banks? No one said it would be an easy job, but it is certainly a job worth doing. Way back in 1875, when that small group of bankers got together in New York City to create the American Bankers Association, the issues of the day were much simpler. Two of the biggest concerns on the minds of ABA bankers in the earliest years of the association were employee education and crime, especially bank robberies. Until creation of the FBI and other steps to improve law enforcement between states, bank robbers like Bonnie and Clyde found it much too easy to rob, run, and rob again. In 1875 there was also much less federal regulation of banking. The Federal Reserve wouldn't be created for another 35 years. Federal deposit insurance didn't exist. In fact, the FDIC itself wouldn't be around for another half-century. The times were simpler, and banks were less-regulated. In 1995, however, the issues facing bankers are more numerous and significantly more complex. The legislative and regulatory priorities developed by ABA and the state bankers associations illustrate the depth of issues bankers are concerned about today. These includes deposit insurance, environmental liability reform, credit unions, government red tape, fair lending, new product and service authorities, and the Farm Credit System. How does the ABA develop industry unity on such a range of issues? Take the Bank Insurance Fund (BIF) and the Savings Association Insurance Fund (SAIF), for example. How can ABA hope to mirror the interest and concerns of so many of its members on an issue as complex as BIF-SAIF? The answer is to put together groups of bankers who represent all regions of the countries and all types and sizes of banks. That's been the strategy of the ABA for many years, and it works. The ABA Government Relations Council, for example, includes bankers who represents a broad cross section of banks nationally. Many of the council's members are CEOs of community banks, and others come from some of the country's largest banks. At the recent ABA Summer Meeting in Colorado, the ABA Government Relations Council reviewed the BIF-SAIF situation and, through consensus, again endorsed ABA's current position that any solution to BIF-SAIF must be a comprehensive one. …</t>
+          <t>Voluntary, term-limited conservation programs, like the Environmental Quality Incentives Program, are the primary policy tool used in the United States to encourage greenhouse gas reductions in the agriculture and forestry sectors, yet they have received relatively little attention in resource economics. I develop a structural model of the landowner decision to participate in a voluntary, term-limited conservation program that constrains the timing of land use change, addressing key literature gaps by explicitly representing landowner option value, accounting for market stochasticity, and allowing for program re-enrollment. I focus on the policy objective of managing urban sprawl, a growing contributor to global land use change and greenhouse gas emissions. Term-limited programs have potential to reduce or avoid environmental impacts through two mechanisms, (1) by subsidizing a protected activity (``subsidy effect”) and (2) by shielding the protected activity from competing activities (``shield effect”). The cost-minimizing term-limited program balances trade-offs in contract length and incentive levels: longer contract lengths increase open space protection but require higher incentives to maintain landowner willingness-to-enroll. Parameterizing the model to Santa Clara County, California, I predict a 20-year term-limited conservation program could avoid development on 16\% of Santa Clara's active farmland and rangeland at lowest cost by 2050.</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3133024699</t>
+          <t>https://openalex.org/W1964032875</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/00323269408402277</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Majnoni et al. (2021)</t>
+          <t>Harman (1994)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>The EU bank insolvency framework: could less be more?</t>
+          <t>Accountability and challenges for Australian governments</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>The framework for bank crisis management in the Banking Union (BU) complies with multiple criteria. Each of these criteria is based on a sound policy rationale; however, when combined, they can generate unintended consequences that undermine the effectiveness of the system, highlighting a case of fallacy of composition. This paper suggests that a piecemeal reform is not adequate to tackle the framework’s shortcomings. A broader effort is required to streamline the current criteria into a single rulebook, achieving effectiveness through simplification. The successful experience of the US framework for bank failure management provides a useful benchmark. It shows that the generalized, if not exclusive, reliance on a single, clearly defined, easily measurable and quickly actionable criterion – the Least Cost Test – makes it possible to offer full protection to taxpayers and to contain the destruction of value caused by bank failures, thereby safeguarding the economy. We suggest that its adoption by the BU would help to frame a common approach to failing banks of all sizes and would provide a unifying force and a solution to the geographic and institutional fragmentation of the current set-up.</t>
+          <t>Australian governments are facing some confusion about public sector accountability. This paper argues that the opaque nature of accountability which persists is the result of changes being wrought, separately and together, by a number of macro factors of which public sector reform and corruption inquiries are but two. This explanation is developed by an examination of some fifteen specific issues which are symptomatic of the lack of transparency in Australian public sector accountability, and simultaneously, contribute to it. The paper contends that clarity is likely to emerge only slowly as gaps and anomalies are recognised and gradually remedied. The paper seeks to contribute to the process by offering a definition of accountability and an outline of several different types of accountability frameworks now operating in Australian governments.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3189533305</t>
+          <t>https://openalex.org/W2522232437</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22067/jrrp.v5i2.48701</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Ballonga (2021)</t>
+          <t>Mousavi et al. (2016)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Expropiación de terreno con yacimiento arqueológico de interés cultural y con premio por el hallazgo</t>
+          <t>Evaluation and Monitoring of Agricultural Land Use Changes Geographic Information System (Case Study: Dastjerdi Village- Tarom County)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>espanolEn el presente trabajo se recogen y explican dos sentencias que reflexionan sobre cual sea el objeto verdadero de la expropiacion forzosa en el caso de yacimientos arqueologicos de interes cultural y sometidos a una proteccion legal especifica a causa de dicho interes. El autor valora muy positivamente ambas sentencias, que son novedosas, y recuerda que en el ano 1983 habia hecho una propuesta de reforma legal en el mismo sentido. Se anaden tambien algunas reflexiones sobre el «premio» o recompensa que otorgan las leyes de patrimonio historico artistico, o de patrimonio cultural, al dueno del lugar en que aparece un yacimiento arqueologico de interes cultural y lo mismo al descubridor de ese yacimiento. EnglishThis paper collects and explains two court sentences that provide an insight into the actual object of the forceful expropriation concerning archaeological sites with specific legal protection, such as cultural interest designation. The author gives a positive assessment of these sentences, both innovative, and recalls that as early as 1983 he made a proposal for a legal reform in the same direction. The research also provides considerations on the prize or reward assigned by the Artistic and Cultural Heritage Laws to the discoverer of the site and to the owner of the land where an archaeological asset is located</t>
+          <t>Extended Abstract_x000D_
+1. INTRODUCTION_x000D_
+Land as habitat and place of having the highest importance in human life and the source of all human needs is. Any planning requires having information about the phenomena on the land, trappings and paraphernalia land. This information collected is an issue that eventually will lead to the management of land information in one system. Organization and operation of information and access to it will be a need for a comprehensive and integrated land information system known in the world, respectively. Arable Land in the world during the time of political powers and peasant revolution changes that lead to an increase in some of them the size of farm units and in some reduction in the distribution of lands and been, so do land reform in developing countries Caused by big owners of lands that culture group MyShdnd to farmers who lost Occupied and then taking possession of land to sell and transfer the action. This disseminate the agricultural lands of farmers in several parts of the village is._x000D_
+2. THEORETICAL FRAMEWORK _x000D_
+Subject of studies Land use, how various phenomena and methods of exploitation of its land. Land use change is one of the drivers of environmental change at the global level for numerous and therefore sustainable development should be considered. The traditional analysis of land use and understand the process and the preferred approach, the decision notified to advanced civilian applications, probable and gives support to environmental objectives in the future. Agriculture, land identified on the basis of segmentation, Identification of agricultural territory, dry land and irrigated crops and pasture for The by responsible organizations such as the Organization of Agriculture and Water, the Real Estate Registration and Department of Natural Resources conducted in the province. Maps could be the comprehensive information provided on the property and the type of agricultural products that could be in economic planning and identification of resources Survey carried out revealed that the years-in (1990-1929) real estate registration law is established on 95% of the territory, which means it is an open list of the phosphating land in Macedonia FhrstHay plasticizers use is made of land use and the remaining 5% there is no recorded data._x000D_
+3. METHODOLOGY_x000D_
+In this research to develop cadastral maps years studied (1998-2011) Aerial Photographs of 1: 10,000 of the area and after the conversion and digitizing Aerial Photographs to map Ground operation in order to remove the attribute information related to cadastral maps were. Ground for the cadastral maps were finally in GIS data base (GIS) was created. And analysis of existing maps, in Medias, AUTO DESKMAP, ARC GIS, IDRISI, took place. For quantitative data analysis of Software Hay like EXCELL, SPSS and to assess any changes occur, such as changes in the statistical method of evaluation methods used Crosstab._x000D_
+4. DISCUSSION _x000D_
+The analyzes conducted on cadastral maps of the study area show. The total number of piece parts from 1304 in 1998 to 1658 in 2011 increased by piece the highest number of land parcels in both periods was related to agriculture and the minimum number of pieces of land use is made. were related to agriculture from 18/79 percent to 47/61 percent of the land in 1998 that the change was in 2011, a downward trend during the period According to the view of the study carried out shows that another user had an increasing trend during this period. The increase Land Use made to other uses that the main reason for its higher-buying and selling of land by investors in the region with the purchase of high-cost rural lands increases the number of factories; industries have been in the area. Surveys showed that the decline in the study area mainly due to the conversion of agricultural Land Use users such as factories made clear the grass, pasta, flour, and livestock industry, etc. There is the main reason these changes are more raw materials to industries and high potential to produce like grapes, it is an agricultural land of the village that creates added value in the sale and export of raisins to other countries in the region is. Increase there in the number of components in the study area showed that the dam construction and water shortages Channeling agriculture among farmers and gardeners somewhat reduced and increased the price of land in the region and to that is why some farmers of their lands divided into smaller pieces and sold to another person._x000D_
+5. CONCLUSION _x000D_
+According to the results of 1304 the total number of piece parts in 1998 to 1658, the highest number of land parcels segment in 2011 increased in both periods related to agriculture and the lowest number of pieces of land due moderate and severe asthma made Its main change is to reduce the problem of water shortage caused by farmers and gardeners and duct-concrete dam between agriculture and an increase in speculative land area respectively. C</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2970731062</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.33915/etd.250</t>
+          <t>https://openalex.org/W2925281043</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Meadows (2019)</t>
+          <t>Yu &amp; Jensen (2008)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Remembering 1989: Post-Communist Commemorations in Berlin and Warsaw</t>
+          <t>Modeling Agricultural Domestic Support Policy in China: recent policy reversals and two hypothetical future scenarios</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Germany and Poland since 1989 have become lands of contested memory, as reflected by their attempts to commemorate the series of reforms that led to the end of their Communist regimes. This study is an attempt to analyze the various modes of commemoration dedicated to the transition from communism that have taken place in the intervening years between 1989 and the present. Included amongst these efforts are events occurring in public spaces, such as official remembrance ceremonies like Berlin's Festival of Freedom in 2009, physical monuments, and institutions dedicated to preserving memory, specifically the Gauck Authority in Germany and the Institute of National Remembrance in Poland. An evaluation of the various forms that commemorations may take demonstrates the pluralities of memory in Germany and Poland, and how political factions have used this malleable state of memory to construct popular narratives. The most common narrative that has been seized upon by right-wing factions in both countries, and which has been supported by the official state memory institutions, is the false demographic separation of Communist era Germany and Poland into lands comprised solely of victims, perpetrators, and collaborators. Despite the major differences in their transitional processes, Germany and Poland followed similar trajectories in their commemorative paths, beginning with an initial period of little commemorative effort in favor of a national focus on political and economic development. After a period in which both countries saw similar major shifts in their national governments, the opening decade of the current century saw a resurgence of right-wing politics which brought about the aforementioned focus on memory. The recent focus on memory and commemoration attests to the fact that only now is the transitional period coming to a close, as younger generations with little to no personal memory of 1989 have begun to receive higher education and enter the workforce. Likewise, by studying Germany and Poland in particular, two countries with contrasting transitional experiences yet similar tracks in post-transition memory development, it is shown that there is likely a pattern to how the former Communist bloc countries that experienced peaceful reforms have remembered their post-transition experiences, and that this has negatively impacted the political landscape.</t>
+          <t>This paper reviews recent development of China’s agricultural domestic support policy, especially the switch from taxing farmers and agriculture to providing direct subsidies to grain production and purchased inputs. A model-based quantitative analysis on the effects of these policy changes has been conducted. Simulation results suggest that recent policy changes likely have positively addressed two of the declared policy objectives in increasing grain production and boosting farm income. Much of the increase in grain production and farm income can be attributed to land reallocation to grain production, cheaper inputs, and extra agricultural employment triggered by the policy changes. _x000D_
+_x000D_
+Judging from the rural-urban and west-east income gaps in China, the diminishing role of agriculture in China’s economy, and the current political environment, it is expected that the tax cut will be permanent and that government assistance to agriculture and farmers will continue and rise. Two hypothetical future scenarios are simulated. If China uses up all its WTO de minimis support allowances and an assumed Blue Box cap in a manner consistent with its current practices, increased grain production, changing trade pattern seemingly contrary to China’s comparative advantage, increased rural employment, and significantly higher farm income (over 16%) will be expected. If alternative, decoupled payments are provided, China’s agricultural production and trade will remain unchanged, rural employment stays stable. But as a way of transferring income, the decoupled payments will be more efficient.</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2023009034</t>
+          <t>https://openalex.org/W2971270587</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.apcatb.2014.09.006</t>
+          <t>https://doi.org/10.1080/00309230.2019.1653946</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Qian et al. (2015)</t>
+          <t>Frölich (2019)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>The promotion effect of hydrogen spillover on CH4 reforming with CO2 over Rh/MCF catalysts</t>
+          <t>The Chinese character: handwriting between utility and identity in twentieth-century China</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>• Rh/MCF with different rhodium dispersion was studied in CH 4 reforming with CO 2 . • TOF(CH 4 ) increased with the strength rise of spilt-over hydrogen on Rh/MCF. • The promotion mechanisms were investigated by controlled atmosphere MAS NMR. • Hydrogen spillover promotes the reforming by facilitating rate determining steps. The mesocellular silica foams (MCF) supported rhodium catalysts, prepared by wetness impregnation method, were tested in CH 4 reforming with CO 2 . Hydrogen temperature-programmed desorption (H 2 -TPD) analysis showed that hydrogen spillover occurs on MCF loaded with highly dispersed rhodium. The turnover frequency of CH 4 (TOF CH4 (s −1 )) increased with the strength rise of spilt-over hydrogen. The promotion mechanism was investigated by controlled atmosphere 13 C and 1 H MAS NMR. The spilt-over hydrogen atoms were found to adsorb on the bridged oxygen sites (Si O Si) of MCF and to form surface terminal silanol groups. Meanwhile, in the reforming reaction steps, CH 4 dissociation into CH 3 * and CH 3 O* decomposition into CH 2 O* occurred. The results confirmed that hydrogen atoms can spill over from highly dispersed rhodium species to the neighboring bridged oxygen atoms of MCF, which promotes the reaction by facilitating rate determining steps of CH 4 dissociation and CH x O*( x = 2, 3) intermediates decomposition on metal surface.</t>
+          <t>In China, unlike in many of the other cases treated in this special issue, it would seem that the standard style of writing by hand did not undergo any significant changes over the course of the twentieth century. Accordingly, the development of everyday Chinese handwriting has not been studied much. This article, however, shows that subtle yet significant changes occurred in both handwriting and the teaching of handwriting. Those changes were part and parcel of China’s twentieth-century quest for identity in a changing world. By analysing curricula and handwriting manuals from the 1900s to the 1980s, I demonstrate how, within a standard framework of “good” handwriting inherited from Imperial China, economic, societal, and nationalist considerations of the Republican, Maoist, and reform-era regimes caused the emphasis to shift back and forth between speed, down-to-earth pragmatism, and aesthetics – or, in other words, between utility and identity. Even within one given standard style of handwriting, therefore, seemingly minor shifts can tell us a lot about larger political and economic developments. To provide some background, I also briefly refer to the debates and measures regarding the abandonment or simplification of Chinese characters during the first half of the twentieth century.</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4362597154</t>
+          <t>https://openalex.org/W3043308539</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/9781009329835.005</t>
+          <t>https://doi.org/10.30564/mmpp.v2i3.1950</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NA (2023)</t>
+          <t>Zhang (2020)</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>One Crusade and Two Failed Inquiries</t>
+          <t>A Discussion for the Protection of the Environnement in the Law of Planification in China</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Chapter 4 relies on secondary sources, official documentation, and interviews to take readers further afield and explore how Lava Jato unfolded under different political conditions than in Peru, where defendants were relatively weak. Ecuador, another positive case, shows the heuristic value of the model when defendants are stronger. In particular, it further demonstrates the critical role that taskforce creation plays in engineering crusades. Mexico and Argentina are the negative cases. They both lack the type of autonomy-building reforms seen in Brazil, Peru, and Ecuador. One consequence of a deficient reform process is that investigations rarely fall in expert hands and become politicised. In particular, the Argentine case suggests that without the synergies associated with teamwork in taskforces, prosecutors are unable to investigate effectively. For this reason, the Argentine inquiry failed to gain momentum despite initially benefiting from a generous window of political opportunity.</t>
+          <t>This article aims to answer the question that if the law of planification of China, really takes account of the objectives of environmental protection. The answer is based on, first of all, the reform of system of land ownership (direct link of the development of urbanization). This article cracks the problem by two approaches: the state and collective property right. The first part of the analysis is macro-perspective, i.e., the course of land reform and the land users. In general, the state remains the sole owner of all the land and delegates the local governments to manage the use of land in China. However, the high interest undermines their roles, and degradation of environment in the process of urbanization continues. Based on this observation, we analyzed their administration, i.e., who are the actors and how the powers are shared. The lack of transparency and independence is in its structure, i.e., they have ambitions to have a good protection but the conflict appears frequently. In the further part, micro-vision was employed. We focused on the regulations of planification, procedures and formalities that is deeply involved. In fact, we find that the volume of law was expanded and a need of consolidation is urgent for the coherence, accessibility and understanding of law. Then it follows the analysis of two typical procedures: the procedure of environmental assessment as well as participation. These procedures are the practical implementation of the consideration of the environment. The fact is that rapid urbanization resulted in a reconfiguration of the urban space, and the appearance of a variety of interests. The degradation of environment, coupled with the importance of urbanization has become a challenge to governance. People realized more and more issues related to housing, welfare and citizenship. This forces the government to change their policies and acts. From different points of views- historical, political, administrative, legal and social- this research determines how a better environmental protection can play in law of planification. The reforms are envisaged, and there are still problems: the harmonization and consistency of the regulations, the clarity of the law for his efficiency and law security, the improvement of the process. Contrary to what is received, the government has intention to solve this question, as demonstrated by his consistency to innovation and reform in the field. At the present, planification, rather than a method of protection, works for the growth of the economy. Due to the lack of effective regulation, the real consideration of environment is still very limited.</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>https://openalex.org/W649140518</t>
+          <t>https://openalex.org/W4210300799</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09733159.2021.2024383</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Rajasthan &amp; Singhal (1964)</t>
+          <t>Masuo (2021)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>The Rajasthan sales tax act (act no. XXIX of 1954) &amp; the Rajasthan sales tax rules, 1955 (as amended upto date) with short notes giving history of amendments</t>
+          <t>China’s “National Spatial Infrastructure” and global governance: Chinese way of Military–Civil Fusion (MCF) over the ocean</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>China is constructing an overwhelming satellite network, called the “National Spatial Infrastructure”, that might change the security and economic operations of global governance. Xi Jinping’s Military–Civil Fusion (MCF) strategy is founded on this system. Along with the well-known BeiDou Navigation Satellite System (BDS), the remote sensing satellite system and the communication and broadcasting satellite system form this new infrastructure. China is using it to establish a strong monitoring capability by: collecting various data on vessels’ navigation and oceanography; developing a huge communication network that covers actors and objects on the ocean as well as in the sky and the space; reforming its fishery administration and establishing new laws that enable the authorities to mobilise the numerous Chinese fishermen operating in global waters; and cultivating people-friendly apps to invite more users into the Chinese systems. Based on its strong victimhood mentality that calls for “great rejuvenation of the Chinese nation”, the Xi Jinping administration is trying to initiate a new human age by developing advanced technology and integrating it with social implementation that aims to increase China’s influence over the globe.</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1707844972</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/0047-2727(85)90009-x</t>
+          <t>https://openalex.org/W3150144809</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Spicer &amp; Hero (1985)</t>
+          <t>Kubatova (2014)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Tax evasion and heuristics</t>
+          <t>The Impact of Large Enterprises on the Economy of the Czech Republic and the Threat of Relocation Tendencies. A Case study of Skoda Auto Company</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>The paper examines the heuristics which taxpayers use in making tax evasion decisions. The following propositions are tested in an experiment using students. First, the taxpaper's own level of evasion will be positively related to what he perceives as the levels of evasion by others. Second, taxpayers who have been audited are more likely to assess the probability of audit as higher and therefore decrease their levels of evasion. The experimental results fail to support the first proposition but do support the second suggesting the presence of an ‘availability’ effect.</t>
+          <t>Large enterprises represent a key group for the economy of the Czech Republic. The aim of the study is to assess the influence of large enterprises namely Skoda Auto, a car manufacturer, on the socio-economic development of the Czech Republic. The study was prepared in response to the currently debated state aid rules, which significantly decrease the maximum public support for large enterprises. At the same time, relocation tendencies of large enterprises can be perceived. These tendencies are emerging, particularly in the manufacturing industry and are caused by various factors. In addition to the natural market factors, such as rising labor costs and high corporate taxes, there are also other non-market factors including in particular investment incentives, lower standards in social and environmental protection. Relocation tendencies are stronger in case of large (multinational) companies. In general, it is possible to mark the effect of large enterprises in the economy as very positive. Despite their relatively low share in terms of total number, they contribute significantly to employment, production and added value throughout the whole economy. Even small proportional changes in economic activities of large enterprises have significant impacts on public budgets and the involvement of SMEs in the export. Large businesses represent a significant demand for research and development results. Large enterprises make up the majority of foreign investment in supported sectors in the Czech Republic and have a major impact on an image of national economies. Investment incentives or any form of state aid therefore work as a tool for equalizing investment conditions in an environment where it is not possible to unify public investment support with countries outside the EU.</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2151437451</t>
+          <t>https://openalex.org/W3179749078</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/000271628145600106</t>
+          <t>https://doi.org/10.47526/habarshy.vi2.605</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Leeds (1981)</t>
+          <t>Турсунова (2021)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Inflation and the Elderly: A Housing Perspective</t>
+          <t>Modern History: the Role of Historical and Cultural Heritage in the Formation of the Identification of the Central Asian States</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Inflation causes special problems for the elderly, a group with special characteristics that make it more difficult for them to cope: they have a less flexible mind set; different expenditure patterns; their income drops by half upon retirement; and the period of retirement is lengthening very significantly and rapidly. As a result, a real possibility of intergenerational conflict is being created. Inflation is especially damaging for those on fixed incomes; at current rates of inflation, erosion of pensions compels the doubling of income in a decade just to keep even; future prospects work against any improvement and toward a steady decline in effective elderly income for the rest of the century. Some solutions suggested include later retirement, unified portable indexed pension plans, reverse annuity mortgages, better use of the housing stock, revision of the tax code to slow down condominium conversions, and finally, behavioral changes to cope with energy and other higher cost demands.</t>
+          <t>The article is devoted to the republics of Central Asia, which, after gaining independence, actively joined the integration processes of the world community. In the context of globalization, issues related to the preservation of interethnic and interfaith harmony have become very relevant. The political and social life of a society is influenced by many factors, including historical and geographical integrity, historical and cultural community, issues of national identity and religious policy. The spiritual development of the people at the present stage is a key element of the internal policy of our country, it aims to ensure the unity of all segments of society and its sustainable development. It is also obvious that it is necessary to build a modern innovative economy that is closely related to the individual, his internal state and quality of life. The level of development of society largely depends on spiritual values, on their place in the life of society. In each of the Central Asian republics we studied, after gaining independence, reforms began, related not only to political, economic and social transformations, but also to spiritual revival, the restoration of their own history, traditions and customs. Historical memory returns. Similar transformations were carried out in each republic, but by looking more closely at the reforms we studied, we were able to identify the differences</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2370276876</t>
+          <t>https://openalex.org/W2226203552</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Fu-shun (2003)</t>
+          <t>Callan &amp; Nolan (1999)</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Labor, Compensation and Surplus——On the Market Reform of Geological Prospecting Units</t>
+          <t>Tax and Welfare Changes, Poverty and Work Incentives in Ireland 1987-1994</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>It is inevitable that market reforms will be needed for geological prospecting units. With this in mind, the paper looks at the following processes: developing a diversified economy, finding new subjects of labor, selecting the labor means, settling down employment and realizing the targets of reform and development, enabling stronger management of geological prospecting units, and understanding the uses of rental capital funds for development and investment. The author argues that the subject of distribution, according to one's performance, should be expanded to: value M of surplus labor; and the labor force entering into the distribution field as capital so as to further reflect the master position of the laborers in the socialist market economy.</t>
+          <t>CONTENTS: GENERAL SUMMARY 1 INTRODUCTION 2 MEASURING THE IMPACT OF TAX AND WELFARE CHANGES 3 CHANGES IN POVERTY, ECONOMIC ENVIRONMENT AND TAX BENEFIT POLICY 1987-1994 4 THE EFFECTIVENESS AND EFFICIENCY OF SOCIAL WELFARE 5 WORK INCENTIVES AND THE TAX WELFARE SYSTEM 1987-1994 6 A COMPARATIVE PERSPECTIVE ON THE EVOLUTION OF TAX BENEFIT POLICY AND WORK INCENTIVES 7 EXTRA BENEFITS AND REPLACEMENT RATES IN IRELAND: THE CASE OF MEDICAL CARD ENTITLEMENT 8 THE DISTRIBUTIONAL IMPACT OF POLICY CHANGES 9 CONCLUSIONS REFERENCES</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>https://openalex.org/W335792105</t>
+          <t>https://openalex.org/W2957429173</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-11032-2_3</t>
+          <t>https://doi.org/10.1002/cl2.155</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Abenheim (1990)</t>
+          <t>Litmanovitz &amp; Montgomery (2016)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>The Citizen in Uniform: Reform and its Critics in the Bundeswehr</t>
+          <t>PROTOCOL: Police Training Interventions to improve the democratic policing of protests</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>The foundation of the West German armed forces in 1955–6 was without precedent. Never before in German history had a democracy created its own army; nor had there been an armed force within a German democracy based upon conscription and integrated in a supranational alliance. Despite the innovations of the Bundeswehr, the men who founded the West German military in the 1950s cast their glance not forward to a nuclear-armed and missile-laden world of the superpowers, but backward to the political misfortunes of German liberalism, social democracy, and the military in the nineteenth and early twentieth centuries.</t>
+          <t>Lawful and just use of police power is important both for protecting and strengthening democratic norms and in order to protect individuals in the society. The standards of professional conduct in policing are determined in part by the norms of the society. In democracies, policing duties should be performed in ways that sustain democratic values, rather than undermine them (Loader, 2006), however that is not always the reality. This shortfall should actively be addressed by the state through the promotion of ‘democratic policing‘. The centrality of the police in everyday life would suggest that police officers are in position of power to actively support or threaten democratic activities (Sklansky, 2008). Democratic policing can be best explained as the norms of policing that citizens in a democracy should expect to experience. This includes four key norms: serving individual citizens and groups (as opposed to authorities); accountability to the law; transparency in activities; and protection of human rights or basic freedoms such as freedom of speech, freedom of association, freedom of movement, freedom from arbitrary arrest and detention and impartiality in the administration of the law (Bayley, 2001). Police officers are present in the deepest sense in ‘democratic spaces’ in which citizens interact with the state; policing of protests provides a clear example of this idea. In these spaces citizens learn about society's position regarding respect for individual privacy, norms of tolerance versus norms of bias and how dangerous it is for them to challenge the authorities (Sklansky, 2008). Citizens may learn about the validity of basic norms, such as ‘respect the rights of others’, when they are implemented on the ground by police officers (Manning, 2010). This is one of the reasons that most countries want police officers to internalize democratic values and habits (Das &amp; Marenin, 2005). Democratic policing practices are situated at one end of the spectrum of police use of the power mandated to them by the state (Weber, 1946 in Rumbaut &amp; Bittner, 1979). At the other end is police violence, which refers to unacceptable misuse of force. It is important to note that use of force in itself, even lethal force, does not imply unlawfulness; it is the question of “how much force is justified in what situations” that determines the lawfulness of any action (Skolnic &amp; Fyfe, 2005, pg. 576). When considering police use of force there is an implicit assumption that the police use force primarily to protect the public, while protection from the police is more problematic and much less discussed (Manning, 2010). Democratic norms and behaviours consistent with Democratic policing are usually part of the mission statements of police organisations in Western countries. This stance is often cemented in legal frameworks. For example, the UK Human Rights Act of 1998 “requires all public authorities – including the police - to act in a way which is compatible with the individual rights and freedoms contained in the European convention on Human Rights”(Northern Ireland Policing Board, 2005). This does not guarantee that institutions take the appropriate measures to ensure the realisation of this vision. Police organisations and societies have a responsibility to advance democratic policing. Policing of protests as a specific case of democratic policing Protests, public rallies and riots are types of political manifestation in which the claims and grievances of different groups in society are expressed. They are pivotal arenas in the interaction of police with individuals and groups, in which human and civil rights at the core of the democratic society, including freedom of expression, freedom of movement and the security of the person, are either exercised and upheld or disregarded and abused. This account establishes the task of policing protests is well aligned to the ‘Human Rights’ criteria of democratic policing, adding theoretical justification to the focus of this review (Bayley, 2001). The interactions between police and protesters (or rioters) can be examined through the prism of procedural justice and police legitimacy; these constructs are increasingly recognized as requisite for the public's cooperation, necessary for effective policing in the democratic state (Tyler, 2004). Actively working to support a more ‘law abiding’ society serves as another line of argument in favour of socializing officers to behave more justly. Protesters do not perceive police officers' actions and decision as simply individual or specific because the police also represent the state, the law, and society's views. Police behaviour could therefore have wide-reaching implications in how protesting groups see themselves, beyond the sting of insult. Prejudice and mistreatment experienced during protests may cause expressive harm and lead to erosion in trust and legitimacy of the police and in the state (Hasisi, Margalioth, &amp; Orgad, 2012; Bradfo</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2328252792</t>
+          <t>https://openalex.org/W2991994744</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2534/jjasnaoe1968.2003.194_281</t>
+          <t>https://doi.org/10.22004/ag.econ.118293</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Kishi et al. (2003)</t>
+          <t>Hao-chuan (2011)</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Market Design for Shipbuilding-Options; An Approach Based on Experimental Economics</t>
+          <t>Research on rural public service system based on the data of "The Eleventh Five-Year Plan".</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>A market system for shipbuilding industry is designed to establish normal competitive conditions against injurious price war. The OECD council on shipbuilding seeks a new agreement to deal with government subsidies, pricing and other practices that distort the shipbuilding market. Our alternative solution of the problem is to create a centralized market trading shipbuilding-options. The shipbuilding-option is a right, but not an obligation, to order shipbuilding at specified shipyard within a certain time period. The shipbuilding-option does not specify the ship price, which is determined by negotiations. It is probable that the shipbuilding-option market will weaken price war in shipbuilding market by giving premiums to leading shipyards. In order to investigate the utility of the shipbuilding-option market we introduce a methodology in experimental economics. Simulative market game is produced, and the game experiment by real human players is carried out. The proposed market system has a damping effect on dumping. Shipbuilding-options contribute to reliable relationships between shipbuilders and shipowners.</t>
+          <t>Rural public service is the various kinds of services served to the rural residents to content the needs of agricultural production,development of rural economy and improvement of peasant's life.Improving rural public service system is good for promoting the development of rural economy,improving the quality of peasant's life,narrowing the gap between rural and urban areas and constructing socialistic harmonious society.Currently,our rural power grid construction can meet the essential needs of economic and social development in rural areas.Rural hydraulic structure also fulfills the needs agricultural production and peasant's life.Rural traffic condition has an obvious improvement.Education,culture,hygiene and other public services all have a general enhancement.However,comparing to the city,rural public service system still exist some problems including infrastructure is imperfect,the quality of education and medical treatment is not high,living environment is not been changed practically and so on.Therefore,it is needed to establish a long-acting system of rural public service to boost the reform of rural basic education,improve the facilities of rural medical treatment and public health,promote the reform of rural cooperative medical service,enhance the management of rural governance and improve the quality of rural life and environment.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2963388974</t>
+          <t>https://openalex.org/W2238594869</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5430/afr.v8n3p118</t>
+          <t>https://doi.org/10.1016/j.techsoc.2015.12.002</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Anyaduba &amp; Otulugbu (2019)</t>
+          <t>Kimmel et al. (2016)</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Taxation and Income Inequality in Nigeria</t>
+          <t>Roadblocks to responsible innovation: Exploring technology assessment and adoption in U.S. public highway construction</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>The study examined taxation and income inequality (GINI), specifically, it determined the impact of Value Added Tax (VAT), Custom and Excise Duties (CED), Petroleum Profit Tax (PPT) and Company Income Tax (CIT) on GINI in Nigeria from the year 1990 to 2016. The Cointegration and Error Correction Models (ECMs) were used to analyze the data. Augmented Dickey Fuller unit root was used to test for stationarity. Data were sourced from the Central Bank of Nigerian statistical bulletin, Federal Inland Revenue Service and the National Bureau of Statistics. The result revealed that VAT, CED and PPT had positive relationship with GINI when measured at 5% critical level, though VAT and CED were not significant. CIT had a negative but significant impact on GINI. Based on the findings, we conclude that only CIT was able to reduce income inequality. We therefore recommend that VAT should be imposed on goods and services consumed by high income earners. In respect of CED, government should address the level of tariffs; for PPT, there is need for adequate diversification of the economy; and for CIT, tax authority should harness corporate taxes to its fullness.</t>
+          <t>U.S. public highway construction industry professionals are responsible for assessing and adopting new technology that can improve the cost and quality of roadways. This paper investigates features of the technology assessment and adoption process in the U.S. public highway construction industry that both facilitate and hinder responsible innovation. Often technological innovations are incongruent with current specifications, i.e., regulatory construction standards, whereby specification reform serves as a precursor to implementation. We examine this aspect of technology assessment and adoption through a novel application of Kingdon's theory of policy agenda setting to a highly technical state bureaucratic institution using a case study on Intelligent Compaction. Specification reform relating to Intelligent Compaction is occurring in nearly a quarter of U.S. states. Analysis of interviews with industry professionals revealed that institutional incentives for supporting innovations were not the main drivers for adoption, and there exists a conservative culture that inhibits change. Individuals that go against this grain by championing change do so based on their personal character, ideological affiliations and a perceived sense of social obligation, which coincides with the principles set forth in the responsible research and innovation literature. These individuals, whom we identify as Kingdon's policy entrepreneurs, appear to present themselves in four roles in this industry: explorer, pioneer, gatekeeper, and leader. Our findings indicate that alignment of these roles creates an environment conducive to responsible technology assessment and adoption, and therefore greater societal benefit. Ultimately, we hope this study will benefit U.S. Highway Construction Industry regulatory environments by enhancing identification of specification processes, key roles, and personal/ethical ideologies that may be conducive to fostering a culture of responsible innovation.</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2365721719</t>
+          <t>https://openalex.org/W4213193893</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.53846/goediss-2442</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Guo (2002)</t>
+          <t>AUTHOR_ID &amp; Michael (2022)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Reform of DCP 90 Gear-Plate Crusher</t>
+          <t>Stadtentwicklung von Hanoi</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Shorten the gap between the mobile plate of DCP 90 Cam Rough Grinder and its bearing, change the filler seal of the chassis and the top cover of bearing case into labyrinth seal by using 2 mm rustless steel plate as lining in the chassis. And when this is done the new crusher can raise the working effciency of the equipment, change its condition, save man power and save time and maitenance expenses.</t>
+          <t>This thesis outlines and describes the urban development of Hanoi from the beginnings to the present day as a series of historical and ongoing processes of transition. The recent economic and social changes, which are part of the transition process known as 'Doi Moi' (Renovation), are most visible in the Vietnamese cities. The country's two major urban centers, Ho Chi Minh City and Hanoi, have gained the most from the Doi Moi policy; but they also illustrate the negative effects of reform such as increasing intra-urban disparities through a growing polarization of incomes, rising unemployment and the emergence of marginal settlements as a result of increasing migration from rural areas. As in many Eastern European cities, distinct actor groups can be seen to initiate processes typical of transition, such as the rapid emergence of private enterprises, the fast-track development of a Central Business District (CBD), internationalization, and displacement processes accompanied by! social and spatial segregation. The present thesis deals with the particular effects of the transition process on the city center of Hanoi, examining them at the micro-level. It intends to show that the nature and the extent of change in the economic and social spheres are strongly influenced by the persistence of architectural structures, which in turn can be traced to historical transition processes. Since no other branch of the economy reacts as quickly and dynamically to social change as the retail trade, a primary survey was conducted to take stock of the highly heterogeneous retail structures of downtown Hanoi and the proprietors were questioned. The focus of the empirical investigation was on Vietnam's oldest existing trade, market and retail estate, the 36 Streets Quarter. In the early stages of the transformational phase, this district experienced a surge of new companies in private retail that was supported predominantly by local traders. Empirical analysis show! s that in the course of transition, new entrepreneurial actors from outside the 36 Streets Quarter have initiated modernization processes that have in turn triggered a development towards displacement. In addition, this publication identifies the various groups of actors and offers an assessment of the structures they are likely to develop in the future. The retail business is thus examined as a mirror image of social polarization, which can be described in terms of 'losers of transition' and 'beneficiaries of transition'. In this context, the policy of Doi Moi represents the latest stage in a series of historical transitions that have had an impact on the urban development of Hanoi, the complex dynamics of which are reflected in the described changes in the retail trade.</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3203408484</t>
+          <t>https://openalex.org/W2318930249</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.bir.2021.09.004</t>
+          <t>https://doi.org/10.1016/j.carage.2012.01.033</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Ryu et al. (2022)</t>
+          <t>Boyd &amp; Haglund (2012)</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Investors’ net buying pressure and implied volatility dynamics</t>
+          <t>Medicare Agency, Providers Face Challenges This Year</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>This study reexamines the influence of different investor types' net options demand on the KOSPI200 options-implied volatility dynamics. We extend Bollen and Whaley (2004) by accounting for options traders' hedging demand for futures contracts, intraday seasonality, dynamic impacts of net buying pressure on implied volatility, and the effect of regulatory reform in the options market. Our empirical analyses provide evidence for the direction-learning behavior of foreign institutional investors. We further show that foreign institutions’ net demand is the most informative about the underlying market volatility independent of the market reform, while domestic retail investors become partially informed only after the reform.</t>
+          <t xml:space="preserve">It's back. The payroll tax extension signed by President Obama on Dec. 23 included language that delayed the 27.4% Medicare physician payment cut – but only until the end of this month. The tumultuous legislation also extended the exemption to caps on Medicare reimbursements for therapy. The 2-month suspension in Medicare fee cuts provided no increase to the Medicare conversion factor. However, a separate, final rule from the Centers for Medicare &amp; Medicaid Services (CMS) had indicated that there would be a 0.18% increase in the conversion factor due to the adoption of the RVS (Relative Value Scale) Update Committee's recommendations to fix misvalued codes. That change became effective Jan. 1, making the 2012 conversion factor $34.0376, up from $33.9764 in 2011. Because Congress acted so late in 2011 to prevent the payment cut based on the Sustainable Growth Rate (SGR) formula, some January Medicare claims were being held to allow the CMS time to develop the new payment rate files and the Medicare claims administration contractors time to install and test the files. If Congress fails to pass a new extension or address the SGR by March 1, the 27.4% cut could be implemented. On Jan. 12, the Medicare Payment Advisory Commission (MedPAC) again voiced its disappointment with Congress's failure to find a permanent fix for the SGR. MedPAC Chairman Glenn Hackbarth said the opportunity to pay for an SGR fix is fading. “Repeal of SGR will only get more expensive.” He added that the likelihood that Congress would forgive any additional federal debt incurred by ending the SGR – now calculated in the hundreds of billions of dollars – also is fading, as are the Medicare savings that could fund the repeal. At its October 2011 meeting, the commission recommended ways to pay for the SGR repeal: freezing payments to primary care physicians for 10 years and cutting reimbursements to specialist physicians by 17% over 3 years, to be followed by a 7-year freeze. The commission's next meeting is March 8. Meanwhile, the CMS issued an updated Survey and Certification memo clarifying the use of civil money penalty funds by states. Superseding one released last September, the memo clarifies requirements of the health reform legislation (the Affordable Care Act) on how states may use some penalties collected for improvements in quality of care and the well-being of nursing home residents. The agency included a sample list of previous uses of civil money penalties it deemed acceptable: •Culture change.•Support of resident or family councils.•Direct improvements to quality of care or resident protection.•Consumer information.•Resident transition due to facility change/downsizing.•Resident transition preparation.•Temporary manager infrastructure.•Training in facility improvement initiatives. The CMS also included examples of prohibited uses of civil money penalties, including: •Conflict-of-interest prohibitions.•Duplication.•Capital improvements.•Nursing home services or supplies.•Temporary manager salaries.•Supplementary funding of federally required services. One of the examples of an approved use cited by the CMS is a project in Wisconsin that “used CMP funds to develop the Wisconsin Clinical Resource Center and access the American Medical Directors Association Clinical Practice Guidelines (the only place that these have been provided electronically and without charge) for all nurses in Wisconsin nursing homes.” David Zimmerman, PhD, director of the Center for Health Systems Research and Analysis at the University of Wisconsin-Madison commented, “This project is an excellent example of the innovative use of CMP funds, to promote quality improvement and provide a safe and healthy environment for the seniors in our state. It also reflects the benefits of cooperation between providers, advocates, state regulators, [AMDA], and the research community.” Last fall also saw the agency propose to make consultant pharmacists for long-term care facilities independent of dispensing pharmacies and pharmacy benefit managers. AMDA supported the idea, asserting that the current system limits the consultant pharmacist's role in providing the best prescribing practices to nursing facility residents. It also stated that “there is an inherent conflict of interest when consultant pharmacists are employed by dispensing pharmacies and pharmacy benefit managers.” However, the association expressed concern that the CMS must fully fund payments to nursing facilities to hire independent consultant pharmacists, noting that allowing compensation by nursing facilities shifts the potential conflict of interest from excessive prescribing for the benefit of the pharmacy to inadequate prescribing for the benefit of the facility's Medicare Part A costs, unless safeguards are in place. AMDA also recommended replacing medication therapy management services by Part D drug plans with reviews by consultant pharmacists. As the year waned, the agency got even busier wrapping </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2362655119</t>
+          <t>https://openalex.org/W1518064280</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.2139/ssrn.936156</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Li (2011)</t>
+          <t>Simon &amp; Markon (2006)</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Reform Scheme of Reactive Power Compensation Devices in Wind Farm</t>
+          <t>Today's Seed ... Tomorrow's Crop: Community Excellence Through Philanthropy</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>This paper investigates reactive power characteristics of GongBaoLage wind power station in Taiqi,Inner Mongolia and obtains the achievements as follows:Calculates reactive power loss and load flow in power systems after the generator is combined to the grid to determine the reactive power compensation capacity in the wind farm,which needs to be installed due to the loss;Studies the reactive compensation capacity and device type needed in the governance unbalanced three-phase current needed;According to the actual situation,determines integration allocation of the reactive power compensation.It also puts forward the comprehensive reactive-power compensation adjustment strategy.Practice shows that this scheme can effectively solve the reactive power loss and unbalanced three-phase power in the wind farm and the theory has high value.</t>
+          <t>Today's young people will be our community and corporate leaders tomorrow. They'll not only occupy future workplaces, they'll be the very fabric of social order through government, church, and most importantly, the family. It is in the most basic of all social institutions, the family, that the community faces dynamic challenges. Torn by abuse, divorce, violence, addictions and a host of other distorted values and practices, the traditional Judeo-Christian family structure is being challenged. Today's response will dictate the quality of tomorrow's life. The attack on the traditional family has vast implications for the corporate world. Employees embroiled in dysfunctional families are more likely to experience productivity problems, suffer injuries from workplace accidents, have counter-productive absentee records and be the object or perpetrator of workplace violence. Today's corporate world is not simply the victim of the breakdown of social and personal values, it has in some cases contributed its own poison. Corporate and financial scandals, stemming from a distorted sense of morality, responsibility and accountability, have rocked the Boardroom and shattered public confidence. Professional standards, once reflecting the absolutes of the Creator, have surrendered to personal greed and creative relativism. Those who once depended on God for guidance in the office have traded prayer for blind ambition. The results have been devastating, to corporate confidence, personal priorities and family moral foundations. So how best can Today's Seed be guided into a Future Crop that returns our families and communities to the fortress of integrity and values that once ruled this land? Do we let them mature with a come what may attitude? - with an inclination to respond to the loudest voice regardless of the message? Or, do we impact lives at their point of need to reap a harvest of young people instilled with the crucial values society needs? When Family Isn't Enough: Non-profit organizations play an important role in Tomorrow's Crop. They offer services and programs that provide the moral compass to point families and youth in the right direction. When families are incapable of providing the proper love and nurturing, these organizations put young lives back on track. Whether the need is for preventive action or intervention when moral patterns have deteriorated, parachurch and other nonprofit organizations are there. The Role of Philanthropy: The direct impact of non-profits on the lives of those who struggle is immeasurable. But an indirect benefit also crowns their efforts. Every non-profit must be involved in fund raising in order to meet the challenge of ever increasing expenses. This fund development task has great value for the community. When people learn to give, the giving binds the community together. The discipline of giving raises the individual and the community from ego-centric thought Rev.5 patterns to actions imparting the greater good to those who struggle. When giving replaces taking or hoarding, the community escapes the bondage of entitlement and rises to full moral maturity. The donor base of most non-profits includes foundations, churches, individuals as well as corporations. Because of the unique symbiotic and mutually beneficial relationship between non-profits and corporations, the focus of this treatise is on corporate philanthropy and volunteerism. Preventive and rehabilitative services partner with corporate interests at the point of identifying resources. Corporations and businesses in a community have both financial and human resources that can be directed to those providing invaluable services. Granted, a corporation exists for purposes other than philanthropy. But as the entrepreneurial energy of leadership realizes success, resources can be identified to compliment the heart and vision of the non-profit. As that partnership flourishes the non-profit is released from the tyranny of financial shortage to impact people at their point of need. The responsibility of the non-profit in the process of fund development is to connect the resources of enterprise to the needs of the disadvantaged and under-achieved. The contribution of financial resources out of corporate success is an investment in the beauty of community and the power of tomorrow's leadership. The people of the corporation benefit in that they rise above self-interest to bless the community. The non-profit benefits as it is enabled to accomplish its beneficial mission. Central to the partnership between corporate entities and non-profits is the role of the business or professional leader. History shows that sincere donors have one or more of the following five motivators in their philanthropy: 1. Personal freedom - a quest to be free from influences that potentially restrict the enjoyment of success. 2. Personal financial freedom - Effective management of financial resources to provide freedom from financial entanglements a</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2409616648</t>
+          <t>https://openalex.org/W1483283727</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>DoBias (2010)</t>
+          <t>Stremlau (1990)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>It'll keep you guessing until the very end. As Obama pushes for closure, still no one's certain how reform will play out.</t>
+          <t>After the cold war : security for development</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>If the Cold War is ending, the paradigm that has framed national security agendas for forty plus years must change. Threats to the environment, instant global communications, access to changing science and technology, and deepening economic interdependence are rapidly eroding national sovereignity and blurring foreign and domestic policy. How the multilateral financial institutions decide to respond to forces for economic reform in Eastern Europe and to advance peace processes underway or imminent in Africa, Asia and Central America, could be as important to the advancement of world order as support for reconstruction and development was for Europe 40 years ago. Multilateral finance and development institutions can ease the transition to a new post bipolar global security regime beneficial to developing countries. They can : 1) prepare briefs on regional and civil conflicts to aid long range planning and assistance for peacekeeping; 2) promote greater regional cooperation in trade, environmental management, communications, and education; 3) integrate the democratizing nations of Eastern Europe into the world economy; and 4) design long range approaches to involve developing countries in international efforts to deal with the degradation of the world's vital atmospheric, marine tropical, water, and biological resources.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2483485450</t>
+          <t>https://openalex.org/W1531278493</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>https://doi.org/10.4159/harvard.9780674498402.c7</t>
+          <t>https://doi.org/10.2139/ssrn.2022518</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Kirkland (1965)</t>
+          <t>MacKinlay (2012)</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>VI. AN AVERSION TO REFORMERS OF THE WRONG SORT</t>
+          <t>(How) Do Taxes Affect Capital Structure?</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Ignoring the cost of debt in firms’ financing decisions leads to an overstatement of the effect of taxes. Separately identifying the impact of the cost of debt, I find the effect of taxes on firms’ overall debt usage to be insignificant. Rather than influencing the total debt in firms’ capital structure, taxes affect the relative composition of debt. Firms shift from private intermediated debt to public bond debt in response to increases in marginal tax rates. Firms’ debt policy is most sensitive to tax rates in high interest rate environments.</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>https://openalex.org/W252889471</t>
+          <t>https://openalex.org/W4389648635</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>https://doi.org/10.59403/3yzhh1z</t>
+          <t>https://doi.org/10.11647/obp.0386.06</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Simader (2014)</t>
+          <t>Padoan (2023)</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>ECJ Referral Regarding Interim Tax for Private Foundations (Familienprivatstiftung Eisenstadt (Case C-589/13))</t>
+          <t>6. Escaping Fragmentation and Secular Stagnation</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>In this article, the author comments on the pending Familienprivatstiftung Eisenstadt case (Case C-589/13), which addresses the special tax provisions for private foundations that apply in Austria, in particular the interim tax levied despite distributions being made to non-resident beneficiaries when such distributions are covered by a tax treaty and relieved in Austria.</t>
+          <t>The EU has been impacted by multiple crises due to economic and geopolitical drivers. These crises have left scarring effects and may lead to fragmentation with serious permanent consequences. This takes place against the background of secular stagnation which makes the policy response more difficult. The main response strategy is the NGEU mechanism, based on public investment and structural reforms. It should deliver sustainable growth and structural change that allows for exit from the multiple crises―pandemic, geopolitical, energy, inflationary―and puts the European Union on a path of twin transformation (digital and green), reverting the drift towards secular stagnation. NGEU is an effective policy tool, provided it acts through policy packages of public investment and structural reforms and allows for time to complete the reform cycle. Its effectiveness must be seen in the context of a new policy mix fit to address the multiple-crises framework.</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2467833379</t>
+          <t>https://openalex.org/W4251310955</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/b0-08-043076-7/03846-8</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Sonachalam (1962)</t>
+          <t>Siegrist (2001)</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Land Reforms and Their Implementation</t>
+          <t>Stress at Work</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>This article starts by describing the role of stress in modern work life which is subject to profound changes. It explains why unambiguous terms and the application of theoretical concepts are needed to advance scientific knowledge in this field. ‘Stressor’ is defined as an environmental demand or threat that taxes or exceeds a person's ability to meet the challenge. ‘Strain’ is the person's response to an unmet stressor in psychological (especially emotional) and physiological terms. ‘Coping’ refers to efforts mobilized to reverse the threat or to meet the demands. ‘Stressful experience’ delineates that part of strain reactions that reaches the awareness of the involved person. Next, three prominent theoretical concepts are introduced termed ‘person–environment fit,’ ‘demand–control,’ and ‘effort–reward imbalance.’ Person–environment fit describes stressful experience, first, as result of a misfit between supplies at work and needs of the working person, second, as result of a misfit between demands and abilities. The demand–control concept claims that strain is contingent on the combined effects of high demands and low control, especially low decision latitude, at work. The model of effort–reward imbalance posits that lack of reciprocity between efforts spent and rewards obtained at work (high effort and low reward) elicits strain. In this approach, rewards include money, esteem, and career opportunities including job security. Selected findings from epidemiologic investigations are summarized that document adverse health effects of stress at work as defined by these concepts. Finally, practical implications of these findings for the design of preventive measures at work are briefly discussed, and future directions are outlined, emphasizing the promise of combining the concepts mentioned, of studying the work–nonwork interface, and of conducting theory-based intervention studies.</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2057581683</t>
+          <t>https://openalex.org/W2528207317</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5539/ijef.v4n4p148</t>
+          <t>https://doi.org/10.1161/circulationaha.116.024635</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Keovongvichith (2012)</t>
+          <t>Cowie (2016)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>An Analysis of the Recent Financial Performance of the Laotian Banking Sector during 2005-2010</t>
+          <t>Returning to Work</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Following the adoption of the New Economic Mechanism, banking sector reform was initiated as one of key components of economic reform policy in Laos. Since the process of reform began in Laos, banking sector has undergone significant changes and the performance of banks has improved significantly, especially in recent years. The banking sector reform, which was initiated by the Bank of the Lao PDR in the late 1980s, has brought a competitive environment for banking industry and banks are now offering a wide range of financial services and products to the public. In light of this development, this paper provides an overview of evolution and current structure and developments of the banking sector in the context of reform measures taken over the past two decades. The paper also analyses the financial performance of the banking sector by firstly examining the key financial development indicators and then uses a widely-used CAMEL framework surrounding capital adequacy, asset quality, management efficiency, earnings and profitability and liquidity to evaluate the financial performance. The results of this study is useful for assisting central bankers to know the strengths and weaknesses for formulating strategies and polices that will promote an effective and sound banking system.</t>
+          <t>HomeCirculationVol. 134, No. 14Returning to Work Free AccessEditorialPDF/EPUBAboutView PDFView EPUBSections ToolsAdd to favoritesDownload citationsTrack citationsPermissions ShareShare onFacebookTwitterLinked InMendeleyReddit Jump toFree AccessEditorialPDF/EPUBReturning to WorkA Forgotten Aspect of Rehabilitation for Heart Failure Martin R. Cowie, MD, MSc Martin R. CowieMartin R. Cowie From Imperial College London, Royal Brompton Hospital, United Kingdom. Originally published4 Oct 2016https://doi.org/10.1161/CIRCULATIONAHA.116.024635Circulation. 2016;134:1010–1012Article, see p 999"Health is a state of complete physical, mental and social well-being and not merely the absence of disease or infirmity."World Health Organization*For the past 60 years, the World Health Organization has defined health in this way. With advances in therapy, heart failure (HF) can now be considered to be a chronic condition with which many individuals will live for some, if not many, years. Reducing morbidity and improving quality of life are important therapeutic aims.1,2 Traditionally, returning individuals to a more optimal state of health was the province of cardiac rehabilitation programs, initially focused on patients after myocardial infarction or coronary artery bypass surgery, but now opened more widely to those after any coronary intervention and, at last, to those with HF. At the core of cardiac rehabilitation programs is the desire to return individuals to their optimal physical, mental, medical, psychological, social, emotional, sexual, vocational, and economic status.3When reading HF clinical guidelines, one could be forgiven for thinking that no patient with HF was in employment, or would seek employment. In the United States, an American Heart Association Presidential Advisory was issued in 2011 calling for a multipronged effort to increase the low referral rates to cardiac rehabilitation/secondary prevention programs after a cardiac event.4 This advisory specifically mentioned vocational counseling. The most recent American Heart Association/American College of Cardiology HF guideline awards a class IIa level recommendation (it is reasonable to offer) for rehabilitation,1 although return to work is not listed as a potential benefit. The 2016 HF guidelines from the European Society of Cardiology do not discuss occupational issues, although the recommendation is made for a "seamless system of multidisciplinary care that embraces both the community and hospital" and mention is made of the value of a social worker.2 Even more detailed guidelines on HF disease management programs go as far as to label HF a cardiogeriatric syndrome, with no reference to vocational rehabilitation.5 This is despite the fact that, in the United Kingdom, a typical northern European country, 14% of people admitted to hospital with HF are likely to be &lt;65 years of age.6Even ignoring the personal cost of never returning to work, the economic cost to society is large. In the most recent American Heart Association update, the annual cost of HF in the United States was estimated to be $30.7 billion.7 Of this total, 68% was attributable to direct medical costs, but an additional $9.8 billion related to the indirect costs of lost productivity from morbidity and premature mortality.8The novel analysis by Rørth and colleagues9 in this issue of Circulation throws all these issues into sharp relief. They report the return to work after a first hospitalization for HF in Denmark from1997 to 2012. Denmark is able to link national health and administrative registries through an individual's unique personal identification number, thereby allowing tracking of vital status, healthcare use, drug prescription, and welfare payments.Rørth and colleagues followed a cohort of individuals aged 18 to 60 years at the time of their first hospitalization for HF who were also employed (or at least available for work) at the time of that admission. During a 4-year follow-up period, none of these individuals crossed the official retirement age for Denmark (65 years). Data were collected on comorbidities coded during any hospitalization before, and including, the index event.In this cohort, the mortality at 12 months after discharge was 7%, but only 68% returned to the workforce. Those aged 18 to 30 years were 3 times more likely to return to work than those aged 51 to 60 years. Few clinical variables were available for analysis, but those most likely to return to work were younger men with higher educational attainment (and higher income), perhaps because their jobs were less likely to require physical exertion or because there was more choice available, or theirexpectations were higher. A history of stroke, diabetes mellitus, chronic kidney disease, chronic obstructive pulmonary disease, or cancer reduced the chances of returning to work, but a history of hypertension, coronary artery disease, or atrial fibrillation did not. A longer initial admission was strongly associa</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3198804907</t>
+          <t>https://openalex.org/W2148267941</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1890/01-4088</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Freedman (2021)</t>
+          <t>Okey (2003)</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Rethinking the PLRA: The Resiliency of Injunctive Practice and Why It’s Not Enough</t>
+          <t>MACROBENTHIC COLONIST GUILDS AND RENEGADES IN MONTEREY CANYON (USA) DRIFT ALGAE: PARTITIONING MULTIDIMENSIONS</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>During the latter part of the twentieth century, prison populations in the United States increased exponentially and the nation became notorious for mass incarceration. Despite what many viewed as a broken prison system, in 1996 Congress passed the Prison Litigation Reform Act (“PLRA”), with the avowed purpose of hindering prisoners and their advocates from bringing civil rights actions to challenge prison conditions, laws, and policies. To accomplish this, Congress curbed courts’ most powerful remedial tool—injunctive relief. As a result, early scholarship predicted that injunctive practice would become a useless tool in prison reform litigation._x000D_
-_x000D_
-Instead, twenty-five years after Congress passed the Act, a limited injunctive practice has adapted and survived. Through a survey of fifty consent decrees and a series of case studies, this Article shows that some injunctive practice remains possible where (1) lawyers carefully craft consent decrees to sidestep the PLRA’s hurdles to injunctive relief, and (2) judges take persistent and stern measures to help move defendants toward compliance with the decrees._x000D_
-_x000D_
-Ultimately, however, this restricted injunctive practice is not enough. This Article demonstrates that despite advocates’ and judges’ best efforts to circumvent the Act’s limitations, the PLRA continues to hamper necessary prison reform. For this reason, it is time to rethink the PLRA—our nation’s recent outcry for reconsideration of the criminal justice system is an ideal catalyst for reassessing the Act and its effects on people least able to assert their rights.</t>
+          <t>Ecological MonographsVolume 73, Issue 3 p. 415-440 Article MACROBENTHIC COLONIST GUILDS AND RENEGADES IN MONTEREY CANYON (USA) DRIFT ALGAE: PARTITIONING MULTIDIMENSIONS Thomas A. Okey, Thomas A. Okey Moss Landing Marine Laboratories, 8272 Moss Landing Road, Moss Landing, California 95039-9647 USA Present address: Fisheries Centre, University of British Columbia, 6660 NW Marine Drive, Building 022, Vancouver, British Columbia, Canada V6T 1Z4. E-mail: [email protected]Search for more papers by this author Thomas A. Okey, Thomas A. Okey Moss Landing Marine Laboratories, 8272 Moss Landing Road, Moss Landing, California 95039-9647 USA Present address: Fisheries Centre, University of British Columbia, 6660 NW Marine Drive, Building 022, Vancouver, British Columbia, Canada V6T 1Z4. E-mail: [email protected]Search for more papers by this author First published: 01 August 2003 https://doi.org/10.1890/01-4088Citations: 18 Read the full textAboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinkedInRedditWechat Abstract Accumulations of sunken drift macrophytes are known to stimulate high secondary production in submarine canyon heads, but the details of macroinvertebrate colonization of these subsidies are poorly known. I conducted a series of algal and macrofanual sampling programs and manipulative algal-placement experiments in different Monterey Canyon head sub-habitats and seasons from 1988 to 1991 to elucidate the dynamics of macroinvertebrate associations with sunken drift macrophytes, severe annual sediment-flushing events, and the physical and chemical changes associated with these agents of subsidy and disturbance. Conducting these investigations in such a highly disturbed and subsidized setting, i.e., with multiple niche axes, would enable novel insights into how biological communities are structured. Up to 5.7 × 105 individual macrofauna/m2 inhabited naturally occurring patches of sunken drift algae in Monterey Canyon's s shallow head (Monterey Bay, California, USA), and the seasonally changing mosaics of macrophyte subsidies led to conspicuously converse responses of amphipods and polychaetes. Amphipods dominated natural patches of sunken algae during winter and spring, while polychaetes dominated during late summer and fall. This community shift corresponded with temporal changes in algal composition, dissolved oxygen (DO), and annual flushing disturbances. Repeated algal-colonization experiments in different habitats further highlighted the contrasting responses of amphipods and polychaetes to drift algae and other habitat characteristics. Mean abundances of motile amphipods increased between 8- and 148-fold within five days after placement of Enteromorpha patches (up to &gt;4 × 105 individuals/m2) while abundances less than doubled in Macrocystis treatments. Amphipod species colonized Enteromorpha treatments in significantly greater numbers than any controls irrespective of date and sub-habitat. Polychaete species did not colonize algae treatments in significant numbers within five days, but experiments did reveal significant temporal and habitat differences in this group. Sampling of swimming macrobenthos in different canyon habitats and depths (including 30, 100, 300, and 500 m) revealed temporal and habitat patterns in crustaceans and provided explanations of guild functional contrasts. Attributes of two “evolutionary renegades,” the phytic polychaete Platynereis bicanaliculata and the hypoxia-tolerant crustacean Nebalia sp., indicated that adaptive constraints inherent in the phenologies and life histories of the two partitioned guilds help reinforce normal functional boundaries. Maximum species richness at intermediate DO and time since disturbance resulted from complementary responses of the two guilds to temporal and habitat characteristics that are shaped by an interacting regime of algal subsidy, hypoxia, and severe flushing disturbance. Corresponding Editor: R. V. Etter. Citing Literature Volume73, Issue3August 2003Pages 415-440 RelatedInformation</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4390562454</t>
+          <t>https://openalex.org/W2134819310</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.joei.2024.101523</t>
+          <t>https://doi.org/10.4103/0972-4923.97493</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Maziviero et al. (2024)</t>
+          <t>León et al. (2012)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Influence of Mn, Mg, Ce, and P promoters on Ni-X/Al2O3 catalysts for dry reforming of methane</t>
+          <t>Public policy reforms and indigenous forest governance: The case of the Yuracaré people in Bolivia</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>In this work, the performance of a series of nickel catalysts supported on alumina containing the promoters Mg, Mn, Ce and P was evaluated against the dry reforming of methane (DRM). Alumina support was obtained quickly and simply through the microwave-assisted combustion method using low levels of urea. The catalysts were characterized by XRD, TPR, FTIR and XRD in situ, proving that successive hydration and heat treatment steps during synthesis can generate modifications in the alumina phases, in addition to the formation of aluminate species that are reduced during the catalytic activation step and modify the level of interaction between active and support phases. The catalytic activity test was performed with GHSV = 100 L g−1 h−1 and the formed carbon was quantified by thermo gravimetric analysis. The Mn promoter exhibited the highest methane conversion rate during the initial stages of the reaction, in which the presence of MnO2 favored parallel reactions of methane decomposition. The phosphorus and cerium produced smaller amounts of coke, reducing the carbon generated due to the interaction of promoters with carbon on the surface of the catalytic sites. The Mg increases the interaction of the active phase with the support.</t>
+          <t>The recent surge in the efforts to reform forest governance—both through decentralisation and tenure reforms—has been coupled by an increase in empirical studies that assess the virtues and limitations of the new regimes. Despite an increasing body of literature, however, there is still limited knowledge about the effects of these reforms on the indigenous groups and their forest governance institutions. This study seeks to contribute to the empirical literature by analysing how policy reforms in Bolivia have affected one indigenous territory, its inhabitants, their de facto property rights regime, and their consequent efforts to govern their forest resources. The case study, about forest use decisions and actions among the Yuracare people in the Bolivian lowlands, is an example of what the Amerindian indigenous societies face in terms of both opportunities and limitations associated with the implementation of formalised de jure rights over forests. We pay particular attention to the effects of the 1996 forestry reforms on the institutional conditions for governing common-pool forests resources. The study draws on primary fi eld data that were collected both before and after the implementation of the reforms. We fi nd that the introduction of formal rights has led to increased security in tenure rights and the emergence of more opportunities for diversifying the sources of income for the Yuracare people. But there are also signifi cant costs associated with the achievement of these benefi ts. The reforms induced the Yuracare people to integrate with the surrounding public and private economies, but we fi nd that these interactions have strained traditional governance arrangements.</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2348868859</t>
+          <t>https://openalex.org/W2223372265</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Lei (2011)</t>
+          <t>Rosenberg et al. (2011)</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Effect of Transformation of Value-added Tax on Finance and Taxation of Yangluo Economic Development Zone</t>
+          <t>Impact of Reductions and Exemptions in Energy Taxes and Levies on German Industry</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>The value-added tax(VAT)is the subject of national and local taxes,but the implementation of the transformation of VAT has the effect of income decrease on both the national and local taxes.In different region the industrial structure is different and the policy effect produced by VAT narrow tax base enlargement of different region is also different.The effects(short and long term) of the transformation of VAT on the local economy are discussed by using Yangluo economic development zone(provincial development zone in Wuhan ) as an example from the characteristics of the local VAT collection and analyzing the pilot,and some corresponding countermeasures and suggestions are put forward.</t>
+          <t>Between 2002 and 2007, Germany introduced its National Strategy for Sustainable Development and its Integrated Climate Protection Program, which both defined clear energy and climate-related objectives, setting an emissions reduction trajectory of 40% below the 1990 level by 2020. This spurred the development and refinement of a set of policies to create incentives for energy efficiency improvements, to reduce labour costs, and to raise funds to finance energy security and climate policy objectives. Special tax and levy reductions and exemptions were introduced for each policy for a transitional period. In this report, CPI presents a tool that it developed to help analyze the impact of tax exemptions and levy reductions on energy prices, which in turn impact energy efficiency and climate related goals. In developing this tool, we studied the impact of four major sets of energy policies and their related exemptions to determine the net impact on industry players, differentiated by the size of the industrial concern (as expressed by energy usage) and by the industrial sub-sector. The four energy policies are: • The Environmental Tax Reform; • The Combined Heat and Power Act; • The EU Emission Trading Scheme; and • The Renewable Energy Act.</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1988483824</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1936-704x.2009.00060.x</t>
+          <t>https://openalex.org/W3201899252</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Webb &amp; Johnson (2009)</t>
+          <t>Caron et al. (2021)</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Federal Engagement in Water Resource Technology Development: Current Programs and the Future</t>
+          <t>Le partage des renseignements de santé dans un contexte de gouvernance informationnelle responsable</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>The Federal Government has made investments, through multiple organizations, in developing technology to improve the efficiency, conservation, preservation and expansion of water supplies. The emphasis on this aspect of water resources management has expanded and contracted over time. For a very limited period in the 1960s and 1970s, there was some degree of coordination of Federal research investments, but the organizations that fostered that coordination have evaporated. As we look to the future, the questions of whether we really need new Federal investments in water resources technology and, if so, what those investments should be, remain as viable and important questions. Furthermore, given the increasing public policy focus on energy as an issue of national security, it is essential to include within the public dialogue recognition of the interdependence of water and energy production. Current energy policy, in an attempt to move towards domestic energy resources, favors resources that require increasing amounts of water for production, such as corn. Simultaneously, thermo-electric power production is predicted to increase over time. This power production requires a certain amount of water to function and, therefore, one can predict that, without increased efficiencies, demand for water will also increase. As policy moves towards alternative energy sources, the affect of the production of these sources on water supply, demand, and quality should be observed. Conversely, water uses and supplies often require energy (e.g., desalination plants), so, as our energy resources become scarcer, we must recognize the affect that our water usage has on our energy supply. Obviously, the first issue is whether there is a need for better protected or expanded water supplies and, if so, are there specific sectors of water demand that need greater attention. If there is a need, then the next question is whether or not developing technology should be one of the important mechanisms for achieving this goal. If so, then, we must determine what part of technology development should be underwritten by Federal investment. Finally, we would need to determine some path forward that acknowledges the existing programs and investments by multiple Federal agencies and allows some form of concerted effort to proceed. This paper is written to provide a snapshot into the current dialog on this topic, offer an additional perspective to the dialogue by including discussions regarding energy and water interdependency, and, finally, to provide an outline for the debate. Across our nation, we use water in two categorically different ways. First, we use water that is withdrawn or extracted and used outside the natural system or hydrosphere. Second, we use water that remains in the natural system. Both provide critical benefits. To sustain the United States' current population of over 300 million people, we withdraw around 345 billion gallons of water a day. This equals 30 percent of all the runoff in the United States. Of these withdrawals, approximately 30 percent is consumed. So approximately 10 percent of all surface runoff (our renewable supply) is consumed currently (Subcommittee on Water Availability and Quality 2007). We use the remainder of the water to provide dilution of municipal, industrial and agricultural discharges; environmental water needs; river based transportation; energy production and support other needs. It is difficult to measure the fraction of the non-diversion capacity currently used. The biota and physical structures of ecosystems provide a wide variety of marketable goods – fish and lumber being two familiar examples. Moreover, society is increasingly recognizing the myriad life support functions, the observable manifestations of ecosystem processes that ecosystems provide and without which human civilizations could not thrive…These include water purification, recharging of groundwater, nutrient recycling, decomposition of wastes, regulation of climate, and maintenance of biodiversity. Despite the importance of ecosystem functions and services, they are often overlooked or taken for granted and their value implicitly set at zero in decisions concerning conservation or restoration.” However, one indicator might be the degree of water quality degradation measured by the U.S. Geological Survey's water quality assessment program. A recent nationwide study of 178 streams found that low levels of pesticides were detected in all streams studied and a little over 83 percent of sample locations along streams in urban settings had concentrations that could impact aquatic life forms (Gilliom et al. 2006). Other indicators of water use would likely show similar results. Without comprehensive information, it is hard to be conclusive, but results like those above indicate that we now use all our available water in either direct or indirect ways. Over the last 25 years, our per-capita water use has decreased, allowing a degree of stability in total water withdrawals. For example, California, due to its burgeoning population and extensive state resources, has assessed and actively pursued conservation at local and state levels. As a consequence, urban use has remained essentially the same as they have added over 3.5 million (around 10 percent) more residents in the last 10 years (California Department of Water Resources 2005). The decoupling of increased water use with increased population is due primarily to greater efficiency in water use or conservation. How long this race between increased population and decreased per-capita use can continue is unclear. One view point is that there remains a very large possible flexibility to increase conservation. Since 1975, per capita water use in the United States has fallen at an annual rate of 1.4 percent. Even absolute water withdrawals peaked about 1980. Industry, alert to technology as well as costs, exemplifies the progress, although it consumes a small fraction of total water. Total U.S. industrial water withdrawals plateaued about 1970, and have since dropped by one-third … Also interesting is that industrial withdrawals per unit of GNP have dropped steadily since 1940. Then, 14 gallons of water flowed into each dollar of output. Now the flow is less than three gallons per dollar…Technology, law, and economics have all favored frugal water use.…Despite the gains, the United States is far from the most efficient practices. Water withdrawals for all users in the OECD countries range tenfold, with the United States and Canada the highest. Allowing for national differences in the major uses (irrigation, electrical cooling, industry, and public water supply), large opportunities for reductions remain At the same time, pressure on water supplies is mounting. Many southwestern cities have reduced per-capita domestic water use to 120-140 gallons per day and find it very costly and difficult to further reduce water consumption below these levels. At the same time, population in the U.S. is anticipated to grow by another 25 percent to around 390 million by the year 2050 (Cheeseman Day 2007). It is highly unlikely that the entire increase in water demand due to population increase will be offset by efficiencies. Withdrawals for the two largest non-domestic users of water, irrigation and thermoelectric power production, are about equal at 40 percent each (Subcommittee on Water Availability and Quality 2007). Dramatic changes in energy policy encouraging ethanol production including the President's call for 35 billion gallons of ethanol per year by 2017 (2007 State of the Union Address) and increased demand for electricity at least proportional to population growth will likely increase both these demands. A recent National Academies review believes that in the short run, production of crops for ethanol will be offset by decreases in production of other irrigated agriculture. At the same time the amount of fertilizer and pesticide loading on rivers will increase. Thus, the consumptive use of water may not increase, but our dilution use will (National Research Council 2007). For electric power production, the water use per kilowatt hour produced has decreased by two-thirds since 1950 and an aggressive research agenda has been proposed to further reduce this dependence (Electric Power Research Institute 2007). However, even with these encouraging results, total electricity demand is anticipated to increase by 41 percent by 2030 regardless of increases in energy efficiency (Energy Information Administration 2007). The result is a significant increase in water withdrawals for one or both of the two main uses of water. It is likely, therefore, that each of the three main uses of water – agriculture irrigation, thermo-electric power production, and municipal-industrial uses – will all increase significantly in the near future. An additional aspect of efficiency is flexibility under stress. Just as electric power generation excess capacity (ability to produce more electricity than normal demand) provides a buffer for short periods of high demand and is critical to long-term stability and reliability of the electricity supply, so too is excess capacity important in water supplies. During times of drought, water in storage and the ability to become even more efficient or conserve for short periods of time is important. As overall average efficiency improves, the excess capacity diminishes and along with it the ability to react without huge societal disruption to drought periods. Along with conservation, there has been a plethora of calls for Federal investment. One fairly cohesive assessment comes through a Government Accounting Office report wherein state water managers were interviewed on this topic. State water managers ranked federal actions that could best help states meet their water resource needs. They preferred: 1) financial assistance to increase storage and distribution capacity; 2) water data from more locations; 3) more flexibility in complying with or administering federal environmental laws; 4) better coordinated federal participation in water-management agreements; and 5) more consultation with states on federal or tribal use of water rights. A second voice on this topic, the American Water Works Association through their National Water Policy Dialogues, have advocated for 1) integrated water management approaches and 2) Federal roles in providing technology, information and collaborative solutions (AWRA 2007) as means to stretch or expand water supplies. The National Science and Technology Council, Committee on Environment and Natural Resources, Subcommittee on Water Availability and Quality identified three primary challenges that must be addressed to ensure an adequate water supply: The United States should accurately assess the quantity and quality of its water resources, should accurately measure how water is used, and should know how water supply and use change over time The United States possesses significant volumes of water that cannot currently be used because they are of marginal quality. The national water supply will be bolstered by the treatment and use of these marginal or impaired waters. Just as water managers now rely on information provided by scientists to make informed decisions about the use of existing water resources, so science and technology will help expand management choices and help expand the water supply. Expanding the water supply should be accomplished through technological means by making poor-quality water usable. Efficiency also plays an essential role; increased water efficiencies will be achieved through both technological and institutional mechanisms Today's decisions and policies will shape our water future. The effectiveness of those decisions depends on the quality of information and on incorporating knowledge about the reliability (or conversely, the uncertainty) associated with predictive management tools. In addition to improved water data, the United States should develop and expand a variety of forecasting and predictive models and systems. Scientists should improve our knowledge of how water resources change because of natural events and human actions. We should develop an array of tools, using behavioral, management, and other social sciences, to educate and influence water-use behavior of individual water users, businesses, industries, and resource managers It is instructive that the state managers representing state interests, AWRA as a broad non-governmental policy development organization, and the Whitehouse Office of Science and Technology Policy as the official policy development arm of the Administration, have reached similar conclusions on what roles the Federal government should play outside direct subsidies. They recommend investment in: Direct support for infrastructure rehabilitation or installation; Knowing the resource; Leading water users in more integrated planning and operations; and Research into treatment and efficiency to expand the supply. If Federal investment is warranted, then which agencies or organizations should undertake which tasks? At present, 20 Federal agencies and bureaus under six cabinet departments have responsibility for water resources management in some way and are directed by 13 Congressional committees with 23 subcommittees and 5 appropriations subcommittees (American Water Resources Association 2007). Unraveling this morass is beyond the scope of this paper, but let it suffice that multiple agencies (and their corresponding Congressional committees) are responsible for each of the potential solutions. Finally, to what degree should the Federal government have a lead role in addressing these topics? As of 1994, The Federal Government had invested $21.8 billion in 133 Western water infrastructure projects pursuant to the Reclamation Act of 1902. Of this, $16.8 billion is scheduled to be repaid (GAO 1997), leaving a relatively small total investment of $5 billion over 90 years. The annual appropriation to the U.S. Bureau of Reclamation to implement operations, maintenance, new projects, undertake environmental activities and research hovers around $1 billion (U.S. Bureau of Reclamation 2007). Additionally, the Federal government has maintained a formal role in financing the nation's drinking water (e.g., Safe Drinking Water Act of 1974) and wastewater systems (e.g., Water Pollution Control Act of 1948) for over fifty years. The investment has been extensive. Since 1948, Congress has appropriated $77.6 billion including $25.5 billion in the State Revolving Fund capitalization grants to improve wastewater management. Congress has also appropriated $9.5 billion for the Drinking Water State Revolving Loan Fund through 2007 to strengthen drinking water systems. Nevertheless, the gap between what we need to invest in our infrastructure and the level of currently available investment is growing. In 2003, the Environmental Protection Agency estimated that national drinking water systems need to invest $276.8 billion over the next 20 years to meet current and new drinking water regulations, not including the cost to maintain and improve wastewater systems (Copeland and Tiemann 2007). The commitment to continue Federal funding exists, but there is conflict over how much Federal investment is appropriate. The Federal investment in fiscal year 2007 for the Clean Water State Revolving Fund grants was $1.08 billion and the investment for the Drinking Water State Revolving Fund grants was $837.5 million. President George W. Bush's proposed budget for fiscal year 2008 for the Clear Water State Revolving Fund was $687.6 million or a decrease of over 30 percent from the amount enacted in 2007 (Congressional Research Service 2007). At the same time, a large number of members of Congress have supported authorizing legislation to expand both the size and the scope of these funds. For example the Water Quality Financing Act of 2007 (H.R. 720) was introduced by Representative James L. Oberstar and 32 colleagues on January 1, 2007. The bill has passed by the House of Representatives in March 2008 and is under consideration in the Senate. This legislation would greatly expand the scope of the projects to be undertaken by existing Environmental Protection Agency infrastructure programs and would add new investment funds. This obvious conflict over local needs represented by members of Congress and the national budget constraints represented by the Administration has lead to significant conflict over the amount of investment (Congressional Research Service 2007). Nevertheless, neither branch of government has proposed eliminating Federal support for water infrastructure needs. Local municipal financing of the full life-cycle costs for water and wastewater is one of the four main policy positions of the Environmental Protection Agency. Nevertheless, the Agency has published a list of 88 Federal or local funding mechanisms that can be used by individual communities to pay for infrastructure improvements (Environmental Protection Agency 2007). The examples provided here are not comprehensive in their description of the Federal investment in water-related infrastructures. However, they provide the flavor of the current investment and debate over the future. What is clear is that the cost of infrastructure development, maintenance and operation is growing, the regulatory requirements and therefore the cost of current operations are increasing, and the Federal government is not unified in its policy positions or its planning for future investment in water infrastructure. The dichotomy between providing assistance and advocating independence is maintained in nearly every Federal water infrastructure support program. Due to the enormous costs, this area of Federal responsibility is likely to remain contentious. The remaining three topic areas fall under the heading of research and development. According to a definition used by the Office of Science and Technology Policy, the Federal role in water resources science or technology research depends on the degree of “public good” measured by whether the benefits of the research are widely dispersed and whether the research “is being or even can be addressed by institutions other than the Federal government” (Subcommittee on Water Availability and Quality 2007). This definition presumes some partnership between public and private investment that can and maybe should evolve so that if private or non-Federal government investments are sufficient to cover an area of research, the Federal interest and investment is diminished. At the same time, it acknowledges that some activities are likely to be a permanent Federal responsibility. Of these potentially Federal responsibilities, collection of national water resources data appears to be a logical responsibility. The U.S. Geological Survey (USGS), the National Oceanic and Atmospheric Administration (NOAA), U.S. Department of Agriculture (USDA), and other agencies currently work to assess the extent of our national water resources. Initial characterization and long-term monitoring go hand in hand. One area of water monitoring – water quality – has received significant attention. The National Water Quality Monitoring Council, consisting of representatives of multiple agencies, has worked to: champion and support water-quality information aspects of natural-resources management and environmental protection. The National Council has a broad mandate that encompasses water quality monitoring and assessment that includes considerations of water quality in relation to water quantity. The purpose of the National Council is to coordinate and provide guidance and technical support for the voluntary implementation of the recommendations presented in the Strategy for Improving Water-Quality Monitoring in the United States (the strategy) by government agencies and the private sector. The intent of the strategy …is to stimulate the monitoring improvements needed to achieve comparable and scientifically defensible information on interpretations and evaluations of water-quality conditions. The information is required to support decision-making at local, state, interstate, regional, tribal, and national scales However, monitoring programs, their assessment, and mapping programs are progressively decreasing in size. For example, between 2004 and 2005, the U.S. Geological Survey has had to discontinue collecting stream gage information at 175 stations with over 30 years of continuous data and is facing the need to discontinue another 165 if funding is not increased. The actual funding for these stream gaging programs has, at best, been stable. At the same time, a group of gaging advocates representing state and local government, and many national interests believe that the National Streamflow Information Program is only funded at 15 percent of what is needed (Letter to Secretary Kempthorne, August 17, 2006). The Federal role in assessing national resources seems clear, but the relative importance of this responsibility (funding priority) and which agencies have which roles is not (Office of Science and Technology Policy 2007). Self identified research priorities exist in each agency and some cross agency discussion has occurred, but true coordinated development of research agencies has yet to occur (Helweg et al. 2006). In the absences of direct administrative action to expand existing water resources monitoring and assessment activities, Senator Jeff Bingaman has introduced and Senator Domenici cosponsored legislation to expand existing programs and produce national, consistent water data. The Science and Engineering to Comprehensively Understand &amp; Responsibly Enhance Water Act (also known as the SECURE Water Act – S. 2156) was enacted in October 4, 2007 and is designed to accomplish the following tasks. Direct the U.S. Bureau of Reclamation to assess the risk of climate change, develop strategies to counteract the impacts and undertake feasibility assessment on potential solutions. Direct the U.S. Bureau of Reclamation to provide financial assistance up to $5,000,000 per application on a 50/50 cost share for projects to increase water efficiency or issue grants for research to improve water efficiency or management. Direct the Department of Energy and the Power Marketing Administrations to assess potential climate change impacts on hydropower production. Create the Climate Change &amp; Water Intra-Governmental (I-G) Panel to assess climate change impacts on water resources, develop strategies to respond and fund small demonstration projects to implement the strategies. Direct the U.S. Geological Survey to integrate and expand the National Streamflow Information Program, develop a national groundwater monitoring program, identify brackish water resources across the nation, develop new tools to measure water resources, and to expand the existing programs to assess national water resources and uses. This legislation has yet to be heard in Committee hearings and has no House of Representatives counterpart. Nevertheless, it is an initial attempt to close the gap on our lack of information on our national water resources and water needs. Every water policy review has identified a need for greater cooperation among local, state and Federal water management organizations to synchronize operations, policies and new development. At the national level there is no coordinated process for considering water resources research needs, for prioritizing them for funding purposes, or for evaluating the effectiveness of research activities. As a result, local cooperation organizations are springing up to fill this void. For example, the Middle Rio Grande Endangered Species Collaborative Program was formed seven to eight years ago to deal with endangered species issues along a section of the Rio Grande in central New Mexico. This organization's mandate is fairly narrow, but it is an example of the emerging trend toward local, state, and Federal cooperation on water issues. Nevertheless, we lack national water coordination. This has not always been the case. In April 1959, the U.S. Senate created a Select Committee on National Water Resources motivated in part by one of the worst droughts in the Nation's history. After nearly two years, the Committee reported to the full Senate a series of major recommendations: Streamflow regulation through reservoir construction and watershed management; Water quality improvement through more adequate pollution abatement programs; Better use of underground storage; Increased efficiency in water use and substitution of air for water cooling; Increasing natural water yield by desalting, weather modification, and other means. The committee recommended that the Federal Government should undertake a coordinated scientific research program on water, aimed both at increasing available water supplies and making more efficient use of existing supplies. It was recommended that this would be accomplished primarily by 1) expanding basic research programs, deemed essential by the committee for major breakthrough in water resources, 2) a more balanced and better constructed program of applied research for increasing water supplies, 3) an expanded program of applied research for water conservation and making better use of available water resources, and 4) evaluation of completed projects with a view to making them more effective in meeting changing needs and providing better guidelines for future projects (Senate Report 1969). After significant debate, the recommendations resulted in passage of the Water Resources Research Act of 1964 (P.L. 88-379) and the Water Resources Planning Act of 1965 (P.L. 89-80). Additionally, the recommendations resulted in the 1961 amendments to the Water Pollution Control Act; extension of the saline water conversion program in 1961 and 1965; and research and development funding for weather modification techniques (Senate Report 1969). The Water Resources Planning Act of 1965 created the Water Resources Council in the Whitehouse and allowed for creation of multiple river basin commissions. The Water Resources Research Act of 1964 created the Water Resources Research Institutes at land grant colleges (Senate Report 1969). Title I of the 1965 Water Resources Planning Act established a Water Resources Council to be composed of Cabinet representatives, including the Secretary of the Interior. Title II established River Basin Commissions and stipulated their duties and authorities. The Council was empowered to maintain a continuing assessment of the adequacy of water supplies in each region of the U.S. In addition, the Council was mandated to establish principles and standards for Federal participants in the preparation of river basin plans and in evaluating Federal water projects. Upon receipt of a river basin plan, the Council was required to review the plan with respect to agricultural, urban, energy, industrial, recreational, and fish and wildlife needs. Title III established a grant program to assist States in participating in the development of related comprehensive water and land use plans. The law creating the Council was never repealed but some of the functions of the Council have been redirected. The Water Resources Council is now defunct. However, the Water Resources Research Institutes are still with us, but do not function in a way as to carry a nation-wide research agenda. To some degree, similar but more narrowly defined responsibilities reside in the Council on Environmental Quality in the Whitehouse which, “coordinates federal environmental efforts and works closely with agencies and other White House offices in the development of environmental policies and initiatives” (http://www.whitehouse.gov/ceq/aboutceq.html). Nevertheless, the Council does not maintain a strong interest or coordination role in water resources management. It is then clear, that some degree of national level cooperation is needed, and that currently this function is only weakly performed at best. If a new coordination role is defined for all water resources or just a single theme in the process, there are several objectives that should be met through the coordination effort. A proposal developed by the National Research Council for coordination includes: doing a regular survey of water resources research using input from federal agency representatives; advising the Office of Management and Budget (OMB) and Congress on the content and balance of a long-term national water resources research agenda every three to five years; advising OMB and Congress on the adequacy of mission-driven research budgets of the federal agencies; advising OMB and Congress on key priorities for fundamental research that could form the core of a competitive grants program; and engaging in vertical coordination with states, industry, and other stakeholders, which would ultimately help refine the agenda-setting process (National Research Council 2004a). With these principals in mind, a new model for coordination on research and development related to the interdependency of energy and water systems has been proposed as part of the Water for Energy, Energy for Water Efficiency Act of 2007 discussed below. The final area of potential Federal investment is in developing technology to help expand water supplies. Our nation faces the following options: we can either find additional funding to rehabilitate and expand our nation's water systems at the enormous costs described above, or we can invest in finding less expensive solutions, or both. This is not a new question. Following an extensive build up of investment by the Environmental Protection Agency in wastewater management grants in the mid-70s, there was recognition that improved technology might reduce the long-term costs for both the Fed</t>
+          <t>L’amelioration de la performance des systemes sociosanitaires est un enjeu majeur pour tous les Etats et le Quebec ne fait pas exception (Fleury et al., 2018). Depuis la creation de son regime public de soins de sante au tournant des annees ’70, de nombreuses reformes ont ete discutees et implantees afin de tenter d’en rehausser l’efficacite et l’efficience (Fleury et al., 2018). Ces reformes ont generalement porte sur la maniere d’organiser l’acces aux soins et la prestation de services (Rochon, 1988; Clair et al., 2000; Barette, 2015) L’organisation et la gestion de ce systeme sont hautement complexes et engendrent des defis de taille vu le nombre d’acteurs, d’organisations, de professionnels ou simplement vu l’univers des enjeux de sante. Parallelement, la nature meme du regime, de sa mission, de ses objectifs, de ses intrants et de ses extrants fait que sa performance repose en grande partie sur la qualite et l’utilisation de l’information et des donnees qu’il genere. Ceci constitue d’ailleurs le fondement de tous les systemes de sante (Nutley et Reynold, 2013). Au cours des dernieres annees, en raison des progres technologiques, le volume de donnees ne cesse de croitre (Debies, 2018). « La sante, comme tant d’autres domaines de l’activite humaine, s’appuie chaque jour un peu plus sur des dispositifs numeriques et, ce faisant, genere massivement des donnees » (Peugeot, 2018, p. 30). La quantite croissante des donnees de sante entraine des changements fondamentaux aux modeles cliniques, operationnels et commerciaux (Abouelmehdi et al., 2018). Des technologies de pointe, dont le fonctionnement et l’efficacite reposent sur les donnees, ont fait leur apparition et s'imposent de plus en plus comme des incontournables pour ameliorer la prestation de soins.</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1509261293</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1787/5kg3nzlp1vmq-en</t>
+          <t>https://openalex.org/W3121409134</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Brandt (2011)</t>
+          <t>Carlin &amp; Soskice (2007)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Informality in Mexico</t>
+          <t>Reforms, Macroeconomic Policy and Economic Performance in Germany</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Mexico has a relatively large informal sector by OECD standards. While this is in part a symptom of limited development and low productivity, it can also be to some extent its cause, as informal firms stay small to hide their activities and have limited access to productivity-enhancing government services, such a protection of property rights and training. A long-term and broad-based strategy with education at its core is needed for Mexico to reach its productivity potential and fight informality. Lowering the costs of formality, while enhancing its benefits and increasing the cost of non-compliance with labour and tax laws, will be an important part of this strategy. This would include more flexible labour laws, a further reduction in the business regulatory burden and a rethink of the social security package to enhance its attractiveness for low-wage workers and limit costs by making service provision more efficient. This Working Paper related to the 2011 OECD Economic Survey of Mexico. (www.oecd.org/eco/surveys/Mexico)</t>
+          <t>The conventional diagnosis of Germany’s poor economic performance focuses on supply-side weaknesses and the need for more vigorous reforms to make low-skill labour markets more flexible. We question this on both theoretical and empirical grounds. In an extended version of a New Keynesian model shifts in aggregate demand can move the economy along a range of constant-inflation medium-run unemployment equilibria. The evolution of the real exchange rate and the external balance help to identify whether aggregate supply or aggregate demand shifts have been dominant in accounting for changes in unemployment. We provide some prima facie evidence for Germany and the UK that aggregate demand factors have played an important role in sustaining growth in the UK and weakening it in Germany over the medium run. We show that Germany has a relatively strong record in implementing OECD recommended reforms but the expected employment effects in low-skill service sectors appear disappointing and poverty has increased. By contrast, it is in high productivity sectors including services that the German economy has performed well, especially in exports. Here labour markets are not flexible in the conventional sense: codetermination, vocational training, and coordinated wage bargaining are important. We pursue the implications of these claims for the design and political economy of reforms in Germany.</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2801042152</t>
+          <t>https://openalex.org/W2325511452</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1787/9789264244580-12-fr</t>
+          <t>https://doi.org/10.2307/3956557</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Sassi et al. (2015)</t>
+          <t>Gilluly (1971)</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Impacts sur l'économie et la santé des principales mesures possibles en matière d'alcool</t>
+          <t>Transportation in the Cities: Pessimism over Solutions</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Les politiques en matiere d’alcool offrent d’immenses possibilites pour limiter les mefaits de l’alcool, ameliorer la sante, renforcer la productivite, faire reculer les delits et les actes de violence et diminuer les depenses publiques. La Strategie mondiale de l’OMS visant a reduire l’usage nocif de l’alcool propose une liste de mesures envisageables fondees sur le consensus international, que l’OCDE a utilisee comme point de depart pour recenser un ensemble d’actions et les evaluer dans le cadre d’une analyse economique s’appuyant sur un modele de simulation par ordinateur. Les actions evaluees dans trois pays – le Canada, la Republique tcheque et l’Allemagne – incluent des politiques de prix, des mesures de reglementation et d’application de la legislation, des programmes d’education et des interventions sanitaires. Les resultats de l’analyse de l’OCDE montrent que l’on peut considerablement ameliorer la sante par de breves interventions dans le domaine des soins primaires, qui ciblent generalement les consommateurs d’alcool a haut risque, mais aussi par des hausses de taxes, qui concernent tous les consommateurs d’alcool.</t>
+          <t>Various facts about transportation are finally emerging in the United States. One is urban mass transit systems in this country are woefully behind those in many other countries-in comfort, speed, safety and efficiency. Another is the nation desperately needs urban mass transit; the automobile simply fails to serve many citizens -there are an estimated 78 million carless people-and those it does serve often are badly served. The third fact is a city's transportation system is not an isolated, separable system of roads and tracks and stations. Rather it is an integral part of a total community, often largely determining its shape, future and social ambience. may be in these areas the automobile has most dismally failed. Even Vice President Agnew, the keynote speaker at the recent Fifth International Conference Urban Transportation in Pittsburgh, acknowledged many of these facts. But his remarks (apart from the usual jab at the New York Times) were mild, indeed, compared with those of some of the speakers. Yet there was a feeling the key issue was too little discussed: How does a city get to leave their cars at home and ride buses, trains, street cars and other kinds of people movers to and from work? Technology is, of course, a large part of the answer to this question; if quiet, comfortable, convenient mass transit is provided, these amenities will encourage to use it. And technology was certainly the emphasis at the conference, if not always in the formal agenda, then in the dozens of displays and their accompanying salesmen. The conference was partly a trade fair, and rightly so. When officials want to build mass transit systems, they must buy the hardware. But if there was an air of optimistic and jovial salesmanship among technologists, there was bitter pessimism among some of the other speakers. What is it, then, one needs to do about [urban transportation]? asked Herbert J. Hollomon, provost of the Massachusetts Institute of Technology. In the first instance, I am not at all sure anyone knows. I am not sure we are yet wise enough to know how to deal with incentives and disincentives, mostly of a political and social nature. It is relatively easy for me, if I pay enough, to get adequate transportation. is not my It is the problem of the poor. is the problem of the young. is the problem of the aged, and it is the problem of all those who are disadvantaged within the economic system.... I don't think it is enough . . . to seek money for new technological solutions . . . for which there will be no market. He despaired of finding solutions. Taxes cars, meter systems providing parking at real cost, rather than subsidized cost, are practical, are imaginative solutions, but probably politically impractical. It is my view until we make substantial commitments, particularly to young people, to be concerned with and knowledgeable of not just the technology of transport but the political, social and economic boundaries which determine it, it will not be possible to make a major impact . . . the function of the cities and their decay. The real costs of using the automobile and not building mass transit systems were described by Hollomon and by K. Leroy Irvis, the black majority leader of the Pennsylvania House of Representatives. Irvis spoke mainly of social costs: More than one-third of our population, some 78 million people, do not possess this package of instant freedom, the automobile. They are poor, or too young, or too old, or handicapped . . . and for the most part they are the inhabitants of our cities. I know children who live in the city but have never been downtown because there is no convenient or economic or even available means of getting there. ... With the advent of the automobile age, the skilled worker, the man with mobility options, deserted the city for the suburbs. Our city populations were suddenly isolated islands of the poor and unskilled, virtually imprisoned by their immobility. Even their places of employment-manufacturing, warehousing, hospitals and department stores -had moved to the suburbs beyond their economic reach and frequently beyond their extremely limited mobility. So there they sit and fester in the rotting cores of our cities, with the shopping centers, the job opportunities, the decent housing tantalizing them just beyond their reach. Small wonder frustration has sometimes boiled over into antisocial acts. Hollomon spoke of the economic costs: Urban transportation based the automobile, costs, he said, on the order of $100 billion, annually. He reports the real cost-for . . . displacement of land, the change of property values, the traffic safety factors, the driveways, the street costs, the pollution costs, the health costs, the cost of welfare which is attributable to lack of mobility, the inability [by the poor] to reach certain schools-is about a dollar a mile for each automobile. which are not borne by the individual driver. The dollar-a-mile figure comes from prelimina</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3124905343</t>
+          <t>https://openalex.org/W2791353115</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/nur.21849</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Drine &amp; Grach (2010)</t>
+          <t>Kearney (2018)</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Supporting Women Entrepreneurs in Tunisia</t>
+          <t>The hidden work of a journal editor</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Whether policy support should be designed differently for women entrepreneurs is a particularly relevant question. To answer this, and to inform the design of policies to provide appropriate support for women entrepreneurs, the paper compares male and female perceptions of typical entrepreneurship support services, such as government provision of information, training and funding. The focus is on Tunisia, a developing country characterized by high level of unemployment, particularly of women. Based on a survey of 50 men and 50 women entrepreneurs in the regions of Sfax, Sousse and Tunis, our results suggest that existing support services are inadequate for promoting female entrepreneurship. Accordingly we discuss support measures specifically designed for women entrepreneurs.</t>
+          <t xml:space="preserve">Many functions of an editor in chief may be hazy or invisible to readers, reviewers, and authors. Some were invisible to me before I took the job, despite my experience as an author, reviewer, and associate editor. As I come to the end of my time as RINAH editor, I am reflecting on what journal editors do. My list of topics to go over with the incoming editor is surprisingly long. There is no editor school to learn this content, and it is not covered in our academic programs. So, with the goal of informing would-be editors and interested others, here is my overview of what is involved in being a journal's editor in chief. The journal's owner hires and supervises the editor. Some journals, like RINAH, are owned and managed by their publisher. Others are owned and managed by professional societies. If the owner is a society or other group, the society hires a publisher to provide marketing, manuscript management, production, printing, and distribution of the journal. (Contracts to offer the journal to members at a discount, such as RINAH's agreement with the Southern Nursing Research Society, are not ownership.) Whether a publisher or a society, the goals of the journal owner cannot help but shape the journal's direction and practices. The owner may promote certain projects or types of scholarship or advocate for more or different journal content. Although support is welcome, journal editors must be vigilant to protect their journals’ scholarly integrity and peer review quality, standing behind the fairness and rigor of the review process and avoiding undue influence on editorial decisions. Editors are supported in these and many other ethical obligations by policy guidelines such as those of ICMJE (International Council of Medical Journal Editors, 2017) and discussed in editors’ forums such as COPE (Committee on Publication Ethics, https://publicationethics.org/). First, one must carve out time amid one's other responsibilities. I spend many hours a week on RINAH work, and I need to do it when I am sharp, meaning before 4 PM for this morning person. Many editors hold academic faculty or administrator posts or other demanding roles. They may need to negotiate for release time, office space, or other assistance to enable them to accept an editor job. An editor typically receives a modest honorarium or stipend, but rarely does it equal the editor's professional salary for the time commitment required, and few can “buy out” sufficient time with the journal stipend. Most editors do their editor work before, after, and between their other responsibilities. A separate email account is needed to handle editorial communication. I set up a RINAH email account at my university ([email protected]). Some editors are provided an email account by the journal owner or publisher. Others establish independent email accounts. Editors may need to create a financial structure to receive and spend funds. Some open separate bank accounts and make payments from it, and others work with their employers to set up journal accounts from which bills and salary support are paid. Some editors turn over the honorarium or stipend to their employers in exchange for release from a certain portion of their workload. When taken as earnings rather than release time, taxes on extra income must be collected and paid. Then, an editor must consider whether more help to run the journal is needed or affordable. Publishers provide varying levels of assistance, and some editors not working with large publishers must hire copy-editors and office staff or do it themselves. Associate editors, typically paid a modest sum for their services, may need to be brought on. If associate editors or office staff are paid by the editor's funds rather than directly by the publisher or association journal owner, mechanisms for tax compliance must be arranged. Associate editors’ work varies by journal; they may manage the peer review process completely for some or all papers; provide specialized input on certain topics or methods; complete an independent review, synthesize recommendations, and recommend decisions after reviews are returned (the current RINAH model); take sole responsibility for soliciting and managing the content of a section of the journal; serve as the editor's deputy; or other functions. Last, before the editor's work can begin, the online system for storing and communicating about submissions must be mastered. A complex manuscript management system will require extensive orientation. These large web-based systems not only provide a place for authors to upload their submissions but generate emails to and from editors and others, list and invite reviewers, store manuscripts and decisions, send accepted papers to the publisher, generate reports on the peer review process and decisions over time, and much more. A new editor must make sure all the built-in deadlines and email templates are congruent with the desired manuscript flow and message and learn </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4379164685</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.32782/apfs.v040.2023.29</t>
+          <t>https://openalex.org/W1558788934</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Horlo (2023)</t>
+          <t>Nathan &amp; León (2007)</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Implementation of power decentralization reform in Ukraine under martial law</t>
+          <t>No ownership, no commitment: a guide to local ownership of Security Sector reform</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>A major problem in security sector reform (SSR) has been a lack of local input to and ownership of the emerging reform agenda. Consequently, many donor governments and organisations have made commitments to the principle of local ownership. Yet this has become more a rhetorical device than a guide to donor practice. This paper, by the Crisis States Research Centre, aims to contribute to operationalising donor countries’ policy commitments to local ownership of SSR. It discusses the content and political nature of SSR, and presents guidelines on guaranteeing the engagement of local actors and ensuring the security needs of citizens are met. It identifies obstacles facing SSR and a framework for their analysis. It suggests means by which donors can improve local ownership and makes proposals on institutionalising local ownership in donor governments’ procedures. The paper also draws on case studies of Afghanistan, Ethiopia, Guatemala, Liberia, Sierra Leone and South Africa._x000D_
+_x000D_
+In practical terms, local ownership of SSR means that the reform of security policies, institutions and activities in a given country must be designed, managed and implemented by local rather than external actors. Donors should support projects initiated by local actors rather than local actors supporting donor programmes._x000D_
+_x000D_
+The principle of local ownership is applicable in both strong and weak developing states, and in sectors other than security, such as development and post-conflict peacebuilding. The absence of local ownership of SSR is inimical to development and democracy. Local ownership should be pursued as a matter of both respect and of pragmatic necessity. Support for local ownership should be the primary objective and outcome of all donor programmes as without it, SSR is bound to fail. Such failure is evident in that:_x000D_
+_x000D_
+- domination and paternalism by external actors generate resentment, resistance and inertia among local actors. Local actors have little commitment to externally imposed products which generally do not reflect local needs, dynamics and resources;_x000D_
+_x000D_
+- a process orientated approach is more likely to yield good results in the long term than a product orientated approach. However good the content of an SSR initiative, a poor process that treats people as objects rather than subjects will lead to flawed outcomes; and_x000D_
+_x000D_
+- while donors justify the absence of local ownership of SSR on the grounds that often local institutions and actors lack capacity and legitimacy, only though enhancing the capacity and legitimacy of such institutions can the security of citizens improve._x000D_
+_x000D_
+SSR takes place in a variety of environments, this limiting the applicability of generalisations that are often made. The strongest general recommendation that can be made is that donors should avoid a mechanical or formulaic approach to SSR and should instead develop programmes that are flexible and responsive to local actors and conditions. This paper also makes the following policy-relevant observations:_x000D_
+_x000D_
+- the major obstacles facing SSR are complexity, lack of capacity, resistance to change, and instability and insecurity;_x000D_
+_x000D_
+- to enhance local ownership donors should offer support in five areas: research of parliamentary committees that deal with security, security policy and planning units in government, small grants schemes for civil society that focus on SSR, drafting legislation, and comparative SSR exchange and study; and_x000D_
+_x000D_
+- the principle of local ownership should be institutionalised in donor governments through inclusion in their funding, evaluation, reporting and other bureaucratic procedures.</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2278314271</t>
+          <t>https://openalex.org/W2286652713</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Solitario &amp; Stolkiner (2008)</t>
+          <t>Müller (2001)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>ALGUNAS ARTICULACIONES ENTRE LAS LEGISLACIONES EN SALUD MENTAL Y LOS PROCESOS DE REFORMA EN LOS MODELOS DE ATENCIÓN</t>
+          <t>How national water policy is helping to achieve South Africa's development vision</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>La perspectiva tradicional de los servicios psiquiatricos monovalentes ha sido cuestionada en sus fundamentos conceptuales y en sus principios eticos. Las personas que padecen problemas abordados en estas instituciones son victimas de exclusion, cronificacion y de falta de garantia de derechos. En este contexto, la reforma de los servicios de salud mental es considerada una necesidad. Sin embargo, las herramientas juridicas sancionadas a nivel local, y la aplicacion de las normas internacionales, aun distan de ser un basamento solido que favorezca estas transformaciones. El objetivo de esta presentacion es analizar la relacion existente entre la legislacion en salud mental y los procesos de en salud mental. La metodologia utilizada en esta etapa es el analisis documental. Conclusiones: Los procesos de reforma en salud mental no garantizan per se la inclusion social y la garantia de derechos al propiciar el traspaso de los pacientes de hospitales psiquiatricos a la asistencia comunitaria. Es necesario analizar las logicas que sostienen la desinstitucionalizacion y los dispositivos que surgen en su lugar, como asi tambien la existencia de normas juridicas que sustentan dichas transformaciones._x000D_
-Palabras clave_x000D_
-Reforma Saludmental Derechos Legislacion_x000D_
-_x000D_
-ABSTRACT_x000D_
-ARTICULATIONS BETWEEN MENTAL HEALTH LEGISLATION AND MENTAL HEALTH CARE REFORM PROCESS The traditional perspective of monovalent psychiatric services has been questioned in their conceptual bases and in their ethical principles. People who suffer from problems treated in these institutions are victims of exclusion, and lack of guarantee of their rights. In this context, the reform of mental health services is considered a necessity. However, the existing legal tools at the local level, still far from being a solid foundation that supports these changes. The objective of this presentation is to analyze the relationship between reform processes and mental health legislation (at national and international level). The methodology used is the documentary analysis. Conclusions: The reform process in mental health does not guarantee itself social inclusion and guaranteeing rights, facilitating the transfer of patients from psychiatric hospitals to community cares. It is necessary to analyze the logic of the deinstitutionalization and the devices that arise in its place, as well as the existence of legal norms that underlie these changes._x000D_
-Key words_x000D_
-Reform Mental health Rights Legislation</t>
+          <t>Policy reform since 1994 has, for obvious reasons of history, been focussed upon the promotion of basic human rights and the democratic values of human dignity, equality and freedom throughout the society. In the water sector, these values have had to be given effect within a demanding physical environment as well as at a time of dramatic social and political change. As a consequence, it has been possible to introduce radical approaches in an environment normally characterised by a relatively slow pace of change.</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3010454830</t>
+          <t>https://openalex.org/W4246216194</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2991/msie-19.2020.47</t>
+          <t>https://doi.org/10.5089/9781498342186.007</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Men (2020)</t>
+          <t>NA (2013)</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Cost-benefit analysis of government regulation reform in transition stage of Suifenhe bonded areas to free trade zone</t>
+          <t>Review of the Policy on Debt Limits in Fund-Supported Programs</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>This review examines the experience with the policy on debt limits in Fund-supported programs across the membership and proposes possible reforms to strengthen the policy. The policy was last reformed in 2009 with a view to adapting it to the changing circumstances in low-income countries (LICs). Given its primary focus on LICs, the reform left the policy applying to the rest of the membership broadly unchanged. The Fund’s debt limits policy has been in place since the 1960s. From the policy’s inception, concessional flows have been excluded from debt limits under the presumption that such financing was critical for LICs and posed only limited risks to debt sustainability. Over time, the exclusion of concessional flows has led to a bifurcation in the policy, with one branch focusing on members to whom concessional financing is normally available, and the other on those to whom it is not—a distinction which in practical terms has involved differentiating between LICs and non-LICs.</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4380449820</t>
+          <t>https://openalex.org/W2672307891</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1117/12.2663982</t>
+          <t>https://doi.org/10.1057/978-1-137-40281-3_4</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Sultana et al. (2023)</t>
+          <t>Ramet (2017)</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>R2UNet for melt pond detection</t>
+          <t>The Interwar Republic, 1918–1939</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>The massive shift in temperatures in the Arctic region has caused the increased Albedo effect as higher amount of solar energy is absorbed in the darker surface due to melting ice and snow. This continuous regional warming results in further melting of glaciers and loss of sea ice. Arctic melt ponds are important indicators of Arctic climate change. High-resolution aerial photographs are invaluable for identifying different sea ice features and are great source for validating, tuning, and improving climate models. Due to the complex shapes and unpredictable boundaries of melt ponds, it is extremely tedious, taxing, and time-consuming to manually analyze these remote sensing data that lead to the need for automatizing the technique. Deep learning is a powerful tool for semantic segmentation, and one of the most popular deep learning architectures for feature cascading and effective pixel classification is the UNet architecture. We introduce an automatic and robust technique to predict the bounding boxes for melt ponds using a Multiclass Recurrent Residual UNet (R2UNet) with UNet as a base model. R2UNet mainly consists of two important components in the architecture namely residual connection and recurrent block in each layer. The residual learning approach prevents vanishing gradients in deep networks by introducing shortcut connections, and the recurrent block, which provides a feedback connection in a loop, allows outputs of a layer to be influenced by subsequent inputs to the same layer. The algorithm is evaluated on Healy-Oden Trans Arctic Expedition (HO-TRAX) dataset containing melt ponds obtained during helicopter photography flights between 5 August and 30 September 2005. The testing and evaluation results show that R2UNet provides improved and superior performance when compared to UNet, Residual UNet (Res-UNet) and Recurrent U-Net (R-UNet).</t>
+          <t>With the restoration of the country’s independence at the end of 1918, the Polish Church was no longer subject to foreign jurisdictions. But, in the Polish Second Republic, secular intelligentsia and Church hierarchs and advocates viewed each other with distrust and the country’s bishops repeatedly expressed their concerns about secularism as well as about the country’s Jews. The first seven years were politically unstable with 14 governments in place between November 1918 and May 1926, when Marshal Józef Piłsudski overthrew the government and established a personal dictatorship, which lasted until his death in 1939. The constitution of 1921 (like that of 1935) described the Church as occupying a ”leading” position among the country’s religions, but it stopped short of declaring Catholicism as the official state religion of Poland. Nonetheless, the interwar era saw the restoration of Catholicism’s strength, with improvements in the seminaries, the reform of the system of parishes, and the growth and spread of Catholic lay organizations, in particular Catholic Action, which counted half a million members by 1936, and more than 700,000 three years later. It was also during the interwar years (specifically, in 1921) that the Catholic University of Lublin (KUL) was established. The Church also published an impressive array of periodicals. In 1925, the Church signed a Concordat with the government. This agreement made some important concessions to the Church, such as Catholic religious education mandatory for Catholic pupils and agreeing that the instructors in religion classes would be subject to Church approval. The government also pledged to provide subsidies for salaries and pensions for priests, monks, and nuns. The year 1926 was pivotal for both the state and the Church. In May of that year, Marshal Józef Piłsudski staged a coup and initiated a period of strong-arm rule; the following month, Bishop August Hlond was named Primate of Poland, a post he retained until his death in 1948. The Piłsudski government thought that the concordat had granted the Church too much and blocked the return to the Church of some formerly Catholic facilities, which had been transferred to the Orthodox Church during the nineteenth century. Nevertheless, the personal friendship between the Polish Marshal and Pope Pius XI (who had served earlier as papal nuncio in Poland) produced an era of Church-state harmony, which lasted until Piłsudski’s death in 1935. Relations between the Church and the state subsequently became more complicated. During the interwar years, the number of parish priests increased gradually, until there were nearly 10,400 by 1939. In the same period, the number of male religious rose to more than 7,000 and that of nuns to nearly 22,000.</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2059912574</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1086/258175</t>
+          <t>https://openalex.org/W2143521050</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Morag (1959)</t>
+          <t>Nikula &amp; Kotilainen (2012)</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Deflationary Effects of Outlay and Income Taxes</t>
+          <t>Determinants for Foreign Direct Investment in the Baltic Sea Region</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Previous articleNext article No AccessDeflationary Effects of Outlay and Income TaxesAmotz MoragAmotz Morag Search for more articles by this author PDFPDF PLUS Add to favoritesDownload CitationTrack CitationsPermissionsReprints Share onFacebookTwitterLinkedInRedditEmail SectionsMoreDetailsFiguresReferencesCited by Journal of Political Economy Volume 67, Number 3Jun., 1959 Article DOIhttps://doi.org/10.1086/258175 Views: 3Total views on this site Copyright 1959 The University of ChicagoPDF download Crossref reports no articles citing this article.</t>
+          <t>Abstract: We have defined the Baltic Sea Region as consisting of the following countries: Denmark, Estonia, Finland, Germany, Latvia, Lithuania, Poland, Sweden, and Russia. We investigate foreign direct investment (FDI) flows from 1995 to 2010 to these countries econometrically. We use two basic models: the first one treats aggregate FDI inflows by countries, and the second focuses on bilateral FDI flows between country pairs. Because of limitations in data availability, the second model is built for a smaller group of countries. In this model we take into account the origin country of the FDI. Our results show that macroeconomic factors such as corporate taxes are important determinants for FDI flows. We notice that these factors and their effects vary between the Baltic Sea Region countries. Foreign trade with the investing country is also a statistically significant determinant for FDI, i.e. the countries that have trade with each other also invest in each other. On the other hand distance between countries doesn’t explain FDI flows. Institutional factors such as EU membership or a common currency are not statistically significant in our estimations but this could be because of data limitations and because of the fact that these changes in countries’ international status are incorporated in the other variables and are also foreseen by the investors.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2073005579</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/j.1530-0277.1994.tb00038.x</t>
+          <t>https://openalex.org/W1972491100</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Lewis &amp; Klinenberg (1994)</t>
+          <t>Janger et al. (2010)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Researchers and Health Care Reform</t>
+          <t>Research and Innovation Policy after the Crisis</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Alcoholism: Clinical and Experimental ResearchVolume 18, Issue 4 p. 771-773 Researchers and Health Care Reform David C. Lewis, Corresponding Author David C. Lewis Brown University Center for Alcohol and Addiction Studies, Brown University, Providence, Rhode Island.Reprint requests: Dr. David C. Lewis, Brown University Center for Alcohol and Addiction Studies, Box G, Brown University, Providence, RI 02912.Search for more papers by this authorEric M. Klinenberg, Eric M. Klinenberg Brown University Center for Alcohol and Addiction Studies, Brown University, Providence, Rhode Island.Search for more papers by this author David C. Lewis, Corresponding Author David C. Lewis Brown University Center for Alcohol and Addiction Studies, Brown University, Providence, Rhode Island.Reprint requests: Dr. David C. Lewis, Brown University Center for Alcohol and Addiction Studies, Box G, Brown University, Providence, RI 02912.Search for more papers by this authorEric M. Klinenberg, Eric M. Klinenberg Brown University Center for Alcohol and Addiction Studies, Brown University, Providence, Rhode Island.Search for more papers by this author First published: August 1994 https://doi.org/10.1111/j.1530-0277.1994.tb00038.xCitations: 3AboutPDF ToolsRequest permissionExport citationAdd to favoritesTrack citation ShareShare Give accessShare full text accessShare full-text accessPlease review our Terms and Conditions of Use and check box below to share full-text version of article.I have read and accept the Wiley Online Library Terms and Conditions of UseShareable LinkUse the link below to share a full-text version of this article with your friends and colleagues. Learn more.Copy URL Share a linkShare onFacebookTwitterLinked InRedditWechat Citing Literature Volume18, Issue4August 1994Pages 771-773 RelatedInformation</t>
+          <t>The economic crisis has had a negative effect on the state of the public budgets. Consolidation measures and the slow recovery of the economy will continue to influence the budget until 2014. However, an increase in public spending on innovation and education is possible in principle, despite budget consolidation. A can be implemented despite limited public resources, mainly by focussing resources and policy instruments on a strengthening of the leverage effect, in order to optimally make use of potential for private financing. Measures to implement this frontrunner strategy by 2020 and establish the pre-conditions for sustainable, innovation-based growth must go beyond a public funding system providing subsidies in the narrow sense. The elimination of bottlenecks in the education system and the improvement of the environment for innovative companies are of central importance to this approach. Intensified start-up dynamics, more dynamic growth of innovative businesses and additional international R&amp;D headquarters can enable the structural change required to achieve these objectives.</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2374271915</t>
+          <t>https://openalex.org/W3123203804</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.59403/21j5cz3</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Song (2012)</t>
+          <t>Weffe et al. (2017)</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interactive Research on Tea Culture Profession Construction in Higher Vocational Colleges and Development of Tea Industry</t>
+          <t>Why Corporate Taxation Should Mean Source Taxation: A Response to the OECD's Actions against Base Erosion and Profit Shifting</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>The profession construction relies on industrial development,while industry development needs professional and technical personnel to support.Their mutual promotion and common development have the dual influences on deep reform of higher vocational and technical education.Based on interaction between the professional construction and industrial development and establishment of an effective mechanism and platform of interaction with the talent,this paper puts forward an interactive mode of the tea culture profession construction and development of tea industry in three aspects.</t>
+          <t>It is widespread practice around the world that corporate entities pay taxes to the country where they are formally registered and to the country in whose territory they generate income. While the former is generally known as the “country of residence” the latter is usually referred to as the “country of source”. This article questions separate taxation based on this distinction between the country of residence and the country of source. It argues for a departure from the traditional international allocation of the right to tax corporate income and suggests that a corporate entity should instead pay income tax exclusively to the countries in which it has relevant business activities. In other words, this article advocates a “source-based corporate income tax”, meaning the global allocation of corporate income based on the source of income. Moreover, in examining the question of where business activities of multinational corporations effectively take place, this article describes criteria for determining source countries. Furthermore, it offers a method for formulary apportionment of corporate income between those countries in which a given multinational corporation generates income. The article argues that source taxation of corporate income would be coherent with the economic nature of corporate income taxation. Source taxation of corporate income would also make the arbitrary concept of corporate residence irrelevant, and it would allow the outdated legal concept of permanent establishment to be abolished. This article takes an interdisciplinary approach to argue from both legal and economic perspectives. It adds to the body of literature that discusses how countries should tax corporate entities doing business across national borders. It also contributes to the ongoing debate about the OECD’s recent controversial efforts to prevent corporations shifting profits between countries to minimize their exposure to national tax systems (base erosion and profit sharing, or BEPS).</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2584558798</t>
+          <t>https://openalex.org/W2163035039</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.2924355</t>
+          <t>https://doi.org/10.17159/1727-3781/2006/v9i1a2809</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Garcia-Saltos et al. (2016)</t>
+          <t>Plessis (2017)</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Potential Output Growth Estimates for Central America and the Dominican Republic</t>
+          <t>Land Restitution through the Lens of Environmental Law: Some Comments on the South African Vista</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>This paper presents estimates of potential output for all Central American economies. Our findings are that potential output growth has declined in recent years in most economies of Central America. Lower capital accumulation and TFP growth are accounting for most of this decline. Apart from Costa Rica, there are no indications of significant economic slack in 2015 in Central America. Looking forward, potential growth in most Central American economies is expected to continue at an average of 4 percent in the medium-term due to structural constraints to capital and employment growth, and low TFP growth. Increasing potential growth, thus, should be a policy priority and structural reforms must be directed at improving business conditions, product and labor markets, and enhancing the capacity for innovation.</t>
+          <t>Land reform in South Africa and the realisation of the section 25 property clause of the Constitution of South Africa, 1996 (hereafter the Constitution) is seen as an integral step in the democratisation process as well as in the social and economic empowerment of previously marginalised groups. For many, the true test for political transformation will be whether land needs (including protection of and care for the environment) are addressed effectively and in a sustainable manner. In recent years, however, government’s addressing of land needs has become a highly controversial issue, especially where land that vests in private owners is claimed back because of its status as ancestral land. &amp;#x0D; &amp;#x0D; Land reform may strongly impact on the environment and sustainable development as protected in section 24 of the Constitution since it involves vast hectares of land, other environmental media and people. Restitution of land processes in terms of section 25(7), as one of the components of land reform, often does not take key provisions contained in environmental and planning law into account. In many instances, for example, government’s restitution projects do not make sufficient provision for harmonisation with environmental principles contained in environmental law and no or limited systems exist whereby to inform and assist land restitution beneficiaries on compliance with environmental and planning law obligations in post settlement development endeavours. These limitations could, inter alia, be linked with the fragmentation of the environmental governance regime and a lack of role clarification. It may furthermore result in significant conflict between sections 24 and 25(7) of the Constitution as overarching framework legislation, and between developmental objectives contained in sectoral-specific subordinate legislation.&amp;#x0D; The restitution of land is, amongst other policies, regulated by section 25(7) of the Constitution and the Restitution of Land Rights Act 22 of 1994 whilst section 24 of the Constitution and the National Environmental Management Act 107 of 1998 aim at protection of the environment, the prevention of pollution, the promotion of conservation, and secured ecologically sustainable development. The conditions following land restitution settlement, including the current state of the environment on land that has been restituted, provide an interesting and factual source of reference for critical analysis of environmental policy implementation in land restitution processes and post-settlement endeavours. It further allows for a critical view on the effective or futile realisation of sustainable development in national and provincial governments’ efforts to finalise claim-driven restitution of land. In order to limit the scope of this article, land restitution policy, progress with the national land restitution programme and some post-settlement accounts will be critically analysed and assessed in the light of obligations and initiatives for environmental governance derived from the legal framework concerned. A land restitution case is briefly discussed with subsequent comments and suggestions for the way forward. &amp;#x0D;</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2027210590</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2478/v10141-011-0003-y</t>
+          <t>https://openalex.org/W651294710</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Király &amp; Gál (2011)</t>
+          <t>Rao (2004)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>From Grass Roots to World Class (A Strategy for Delivering Physical Activity)</t>
+          <t>Poverty, Democracy and Development: Issues for Consideration by the Commonwealth Expert Group on Democracy and Development</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>From Grass Roots to World Class (A Strategy for Delivering Physical Activity) During the 2008 Beijing Olympic Games, the Hungarian sports team's performance was worse than expected by most of the Hungarian people and the leaders of the Hungarian sports establishment. The Hungarian athletes returned home with a much lower medal tally than in previous decades. More than two years have elapsed since the Olympic Games, but instead of analysing the real reasons for the poor performance, most of the debates in Hungary are about whether we will restore our reputation by taking 8-10 gold medals in the 2012 London Olympics. People in the United Kingdom are also full of hope for a great medal tally in London, not just because of the "home team advantage" but also by reason of the UK's outstanding performance in 2008. The British team finished fourth in the final medal table at the Beijing Olympic Games despite their poor performance one-and-half decades ago in Atlanta, surprising not just the British but also the whole world. By this time, the British strategy was to invest not just in elite sports but also in grass-roots participation sports. If Hungary wants to enhance its elite sports, it must engage in similar changes. It is clear from the latest data that the Hungarian XXI Sports Strategy's aim of making Hungary a sporting nation seems an illusion. Participation sports, which are the foundation of national sporting success and provide the future talents for the elite sports sector, are in need of urgent and substantive reform. By means of secondary analyses and document analyses this article discusses the current state of British sport using the latest data. It then examines recent reforms in English participation sports as well as the latest sports strategy in England and its objectives. In all this, it makes comparison with what is happening in Hungary. The upshot is that Hungary and Britain differ at many points throughout the whole process, from strategy planning to implementation. These contrasts explain the differences in the effectiveness of the British and Hungarian processes. We hope that the outcome of this examination of the efficient Western European process and its comparison with the unsuccessful Hungarian system will assist those responsible for the development of participation sports and elite sports in Hungary.</t>
+          <t>1. Introduction A. Poverty and the Challenges Confronting Poor Country Democracies 2 Poverty: How Widespread Is It? 2.1 The Concept of Poverty 2.2 Poverty: The Evidence 2.3 Is the World on Track in Reducing Poverty? 3 New Challenges Confronting Democracies in Combating Poverty 3.1 The Spread of Conflicts, Collapsed States and Terrorism 3.2 Challenges of Transition from Authoritarian Rule to Democratic and Market Freedoms 3.3 Globalisation 3.4 HIV/AIDS 3.5 The Degradation of the Environment B. Support for Democracies for Combating Poverty 4 Tacking Conflicts, Failed States and Terrorism 4.1 Why Do Conflicts Occur? What Causes the Phenomenon of 'Failed States'? 4.2 The Adequacy of Current International Arrangements 4.3 Terrorism 5 Deepening Democracy and Good Governance 5.1 The Links between Democracy, Good Governance and Poverty Reduction: The Argument 5.2 Empirical Evidence 5.3 The Primary of Democracy 5.4 Deeping Democracy 5.5 The Quality of Economic Growth and Democracy 5.6 Corruption and Failure of Good Governance 5.7 Co-opting and Elites for Change 6 The Relationship between Economic Growth and Poverty Reduction 7 Participatory Processes and Empowering the Poor 8 The Washington Consensus and Pro-poor Economic and Social Policies 9 Trade Liberalisation 9.1 The Sequence of Reform 9.2 Why the Present Trade Regime Hurts the Poor 10 Aid and Debt Cancellation 10.1 Official Development Assistance 10.2 Other Sources of Aid 10.3 Aid Effectiveness and the Allocation of Aid 10.4 Debt Forgiveness 11 Reform of the Financial Architecture 12 Pro-poor Health Policies 13 Pro-poor Education Policies 14 New Technologies 15 Global Governance 15.1 Strengthening Global Governance 15.2 Decision-making Process 15.3 Transparency and Accountability C. Strategies for Action 16 Winning Support for Global Action 16.1 The Strategic Interests of the International Community 16.2 Win-Win Approaches 16.3 Socially-responsible Business 17 The role of the Commonwealth D. Summary of the Issues 18 Issues for the consideration of the Expert Group: A Summary Annexes References</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3208561012</t>
+          <t>https://openalex.org/W2102563534</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>David &amp; Ngoc (2015)</t>
+          <t>Dobrolyubova (2008)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Problématiques économiques du réchauffement climatique</t>
+          <t>Implementing Performance Management Principles and Procedures in the Russian Federation: Interim Results and Further Development Priorities</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Les economistes apportent leur contribution a la lutte contre les changement climatiques en elaborant des outils mis en oeuvre par les politiques.Ils cherchent a etablir un cout de carbone implicite qui se decline en taxes et marche d'emission dans un cadre reglemente. Par ailleurs , ils s'interessent au developpement de technologies non carbonnees ou de capture du CO2.</t>
+          <t>Over the past few decades OECD countries have made significant efforts to introduce performance management principles in public administration context so as to promote increasing government efficiency and effectiveness in response to growing public demands and existing fiscal constraints. Recent public administration reforms in Russia also have an important focus on performance management issues; however, the approach that developed itself in the Russian Federation is more controversial and presents a compromise of positions and visions of core government agencies in charge of the reform. In late 2006, an independent group of experts attempted to combine the existing requirements and plans and develop a joint Road Map for Implementing Performance Management Mechanisms in the Russian Public Sector in 2007 - 2010. The Road Map was presented to the key stakeholders at the federal and also regional level in December 2006 and has since then become an informal point of reference for developing performance management agenda. The article presents continuation of this effort and attempts to evaluate the interim results achieved in implementing performance management principles in Russia. The review of achievements also allows to highlight the development priorities for the next two and a half years of public administration reform. The results of this analysis are summarized in an updated Road Map for Implementing Performance Management Mechanisms in the Russian Public Sector. Overall, the author argues that for the last year and a half significant progress has been achieved in implementing performance management principles in the Russian public administration: there has been some progress made in 16 out of 27 areas outlined in the 2006 Road Map. Notable achievements have been made in terms of implementing medium term budgeting, introducing some performance information in budget expenditure planning documents, implementing requirements to financial management quality at the federal level. Development and approval of instruments allowing for cross-regional comparisons and evaluation of regional and local administrations efficiency and effectiveness provided a basis for further regional development planning and supporting performance management practices in the multi-level governance context. Some departmental and regional performance management systems developed and implemented on a pilot basis also provide important lessons learned for the further reform efforts. Overall, the recent review of performance management progress at the regional level revealed significant attention to the matter and considerable achievements in introducing core performance management instruments on the ground. Last but not least, expanding the use of programs in the public sector is also an important trend strengthening accountability for the use of public resources and achievement of performance outcomes. While commending to the progress made, the article also highlights the unfinished reform agenda which should receive more attention in the years to come. Firstly, as the practice of implementation has confirmed and given the complexity of the Russian governance system, there is a need to develop and approve a special document laying out the conceptual framework for implementing performance management in Russia. This concept could, inter alia, streamline the existing system of forecasting, planning and performance management documents existing at various government levels. Secondly, gradually more autonomy should be provided to program managers at the medium level to achieve the program outcomes. Such autonomy calls for inter alia, introduction of management accounting, adoption of performance planning and evaluation systems at the individual level, etc. Finally, it is crucial to invest in transparent monitoring and evaluation systems that could warrant the overall coherence and credibility of performance management efforts. The article concludes that the key effect from implementing performance management in the public sector comes from the change in internal incentives. Such change cannot be implemented overnight and requires several years - if not decades. However, such change is crucial for improving efficiency and effectiveness of the public sector and - hence - supporting sustainable socio-economic development in Russia in the longer term.</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1972581858</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1068/a42514</t>
+          <t>https://openalex.org/W2392198662</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Ng &amp; Pallis (2010)</t>
+          <t>Zhang (2011)</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Port Governance Reforms in Diversified Institutional Frameworks: Generic Solutions, Implementation Asymmetries</t>
+          <t>Effectiveness Evaluation of One Day Experience of Community Health Work in Beijing</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Bringing in neo-institutional perspectives, this paper investigates the recent corporatisation process of three seaports in Asia and Europe. We focus on whether the newly established seaport governance structures follow a path largely affected by the local/national institutional frameworks and the political traditions in place. Findings confirm that path-dependent decisions largely preserve the institutional characteristics of local/national systems, resulting in implementation asymmetries when different countries seek generic governance solutions.</t>
+          <t>Objective To know the residents′ recognition,satisfaction and recommendations of community health services through one day experience of community health activities in Beijing,in order to promote a scientific and sustainable development of community health services work. Methods Totally 190 participators in one day experience of community health in Beijing were recruited.A self-designed questionnaire which was in a combination of objective and subjective questions was used to know the residents′ recognition,satisfaction and recommendations to community health services work in Beijing. Results The participators highly recognized and fully affirmed the activities.They believed that it was necessary to carry out such activities,and expressed willingness to participate in such activities in future.Their biggest gain was that they got a more comprehensive understanding of community health work and changed their intention of seeking medical care,about 82% of them expressed that,in the future,they will chose community health services institutions for medical care of their own and families. Conclusion Beijing community residents are generally satisfied with the medical stuff and their work of community health services institutions.However,it is still necessary to give policy support in medical equipment,staff training,community medication,especially zero-profit-drugs.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3122683851</t>
+          <t>https://openalex.org/W4223975625</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5089/9781451872231.001.a001</t>
+          <t>https://doi.org/10.15353/cfs-rcea.v9i1.552</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Kumhof &amp; Laxton (2009)</t>
+          <t>Shankland (2022)</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Simple, Implementable Fiscal Policy Rules</t>
+          <t>Facing Catastrophe? Food Politics and the Ecological Crisis By Carl Boggs</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>This paper analyzes the scope for systematic rules-based fiscal activism in open economies. Relative to a balanced budget rule, automatic stabilizers significantly improve welfare. But they minimize fiscal instrument volatility rather than business cycle volatility. A more aggressively countercyclical tax revenue gap rule increases welfare gains by around 50 percent, with only modest increases in fiscal instrument volatility. For raw materials revenue gaps the government should let automatic stabilizers work. The best fiscal instruments are targeted transfers, consumption taxes and labor taxes, or, if it enters into private utility, government spending. The welfare gains are significantly lower for more open economies. * Corresponding Author: Modeling Unit, Room 9-548E, 700 19th Street NW, Washington, DC 20431, email: mkumhof@imf.org, Tel.: 202-623-6769, Fax: 202-623-6334. ** Modeling Unit, Room 9-548C, 700 19th Street NW, Washington, DC 20431, email: dlaxton@imf.org, Tel.: 202-623-5353, Fax: 202-623-6334. The views expressed herein are those of the authors and should not be attributed to the IMF, its Executive Board, or its management.</t>
+          <t>In his most recent work, Facing Catastrophe, Boggs takes aim at the environmental movement and calls for radical reform. The author argues that political change matching the extent of the ecological problems we face is urgently needed, and that “there can be no routine, painless ‘greening’ of a neo-liberal world order rooted in the incessant accumulation of wealth, power, and geopolitical advantage, and protected by the largest military apparatus in history (Boggs, 2020, p. xvii).” The book makes suggestions for reform that include redirecting military funds toward the environment, reducing the number of people living in cities, and transitioning to plant-based diets across the world.</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4244327970</t>
+          <t>https://openalex.org/W4233026375</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/978-1-349-21315-3_75</t>
+          <t>https://doi.org/10.1016/s2213-8587(16)00009-7</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Atkinson (1991)</t>
+          <t>Endocrinology (2016)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Poverty</t>
+          <t>Sugar: pushing forward on cutting back</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Concern for poverty has been expressed over the centuries, even if its priority on the agenda for political action has not always been high. Its different meanings and manifestations have been the subject of study by historians, sociologists and economists. Its causes have been identified in a wide variety of sources, ranging from deficiencies in the administration of income support to the injustice of the economic and social system. The relief, or abolition, of poverty has been sought in the reform of social security, in intervention in the labour market, and in major changes in the form of economic organization.</t>
+          <t>When Bing Crosby dreamed of a white Christmas, he probably wasn't thinking about the vast quantities of sugar many of us consume over the festive period. Perhaps with this in mind, the start of the new year saw the launch of a new mobile phone app from Public Health England (PHE), designed to allow parents to see how much sugar is in the food and drink their children consume. The app, which was made available as part of a new Change4Life public health campaign and features a barcode scanner linked to a large database of products, is designed to raise awareness of the quantities of sugar in food and drink to help tackle health problems caused by overconsumption, including obesity and type 2 diabetes. Even leaving aside seasonal excesses, PHE notes that young children in the UK are consuming three times the daily recommended limit of added sugars.2015 saw the overconsumption of sugar come to the forefront of public debate as it garnered increasing recognition as a major public health challenge. In March, WHO issued its new guidelines on sugar consumption for children and adults, setting firm quantitative recommendations, suggesting that free sugars should make up less than 5% of total energy intake in a healthy diet. In the UK, this limit was adopted by the Scientific Advisory Committee on Nutrition (SACN), which advises PHE and other UK Government bodies on nutrition and health issues.One of the most important sources of sugar in the global diet is sugar-sweetened beverages. In a Personal View in this issue of The Lancet Diabetes &amp; Endocrinology, Barry Popkin and Corinna Hawkes explore the evolving patterns of consumption of sugar-sweetened beverages in the USA and worldwide. Analysing previously underused consumption data, they conclude that the world population is getting increasingly sweet-toothed, particularly with respect to beverages. Importantly, intake of caloric beverages is generally not compensated for with an equivalent reduction in food intake, making sugary drinks an important cause of the ill-health effects of overconsumption. With increasing consumption of such beverages in many low-income and middle-income countries, the authors warn that, in the absence of effective policy interventions, the whole world will become more and more like the USA with respect to the pervasiveness of added sugars in the diet.One such intervention that has been widely discussed is the implementation of a tax on sugar-sweetened beverages. Such a policy has been in place in Mexico since the start of 2014, and new data suggest that it has had some effect—the 10% tax led to an average reduction of 6% in purchases of taxed products in 2014 (the reduction became larger over time, reaching a 12% decline by the end of the year), with an increase of 4% in the sales of untaxed products, mostly bottled water. In the UK, the introduction of such a tax has been high on the public agenda, with support from the British Medical Association and celebrity chef Jamie Oliver, whose previous campaigning work around healthy school meals helped to bring about important changes in policy. PHE's report assessing potential policy actions to reduce sugar intake, originally due to be published alongside the SACN recommendations, became the subject of some controversy when its publication was delayed by several months. When it finally emerged, it too supported the implementation of a tax of 10–20%, alongside a host of other recommendations.Increasing the price of sugary beverages is one way to tackle overconsumption, but other policy interventions could be implemented to maximise the resulting benefits. In this issue, Yuan Ma and colleagues propose another tactic. Based on a successful policy to reduce the salt content of processed foods in the UK, they propose a gradual reduction of 40% over 5 years in the sugar content of beverages, without replacement with artificial sweeteners. Their results suggest that this policy would reduce the number of overweight adults in the UK by 0·5 million and the number of obese adults by 1 million, and cut incident cases of type 2 diabetes by about 300 000.One potential benefit of this proposal is that it might be expected to face less resistance from industry than other policies, since the approach would not necessarily harm sales. However, enforced reformulation would work best as part of a concerted strategy, including taxation policies and restrictions on marketing, which are likely to face stronger resistance. Ultimately, if evidence on the health effects of sugar is to be translated to effective action in 2016, governments will need to firmly decide where their commitments lie: supporting the interests of industry or improving the health of the population. When Bing Crosby dreamed of a white Christmas, he probably wasn't thinking about the vast quantities of sugar many of us consume over the festive period. Perhaps with this in mind, the start of the new year saw the launch of a new mobile phone app fr</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2031756556</t>
+          <t>https://openalex.org/W4247441916</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s11125-007-9024-z</t>
+          <t>https://doi.org/10.1108/s1085-462220170000021006</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Roegiers (2007)</t>
+          <t>NA (2017)</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Curricular reforms guide schools: but, where to?</t>
+          <t>Index</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>The article deals with a particular aspect of the competencies-based approach in the curricula of basic and secondary education: the role of complex situations in learning. What should their role be so that education systems gain both in effectiveness and equity? Many research outcomes have shown that it is important to stress first and foremost complex “post” situations in learning knowledge, know-how and life-skills. It is a matter of complex situations (integrative pedagogy) in which the pupil is invited to use the knowledge, know-how and life-skills already acquired, not as ends in themselves, but as resources that the pupils employ to confront the complexity of their environment. It shows to what extent using the problem-solving approach to inculcate knowledge and know-how, in other words using complex situations for “prior” learning, represents a less suitable innovation.</t>
+          <t>Citation (2017), "Index", Advances in Accounting Education: Teaching and Curriculum Innovations (Advances in Accounting Education, Vol. 21), Emerald Publishing Limited, Bingley, pp. 169-174. https://doi.org/10.1108/S1085-462220170000021006 Publisher: Emerald Publishing Limited Copyright © 2017 Emerald Publishing Limited INDEX AAA See American Accounting Association (AAA) AACSB See Association to Advance Collegiate Schools of Business (AACSB) Academic accountants comparative advantage of, 51–52 CPA Exam and, 48–51 writing skills and, 45 Academic values academics concerned about content, 43–44 ambivalence about service of economic interests, 46–47 consistency with, 43–48 CPA Exam and, 43–48 indifference to legal responsibility, 45–46 realism/relevance debate, 47 skills important but not necessarily an academic’s job, 44–45 Accounting academics, 48, 51–53 Accounting education, 101–124 active learning methods, 109–111 background and motivation, 103–105 in business schools, 101–124 class size, teaching techniques by, 117–119 contingency analysis, 115–119 course level, teaching techniques by, 115–117 course subject, teaching techniques by, 115–117 curriculum reform and, 51 discontinuities of, 51 future research and, 24 learning and teaching methods, 111–113 limitations, 24 realism/relevance debate, 47 respondents’ demographics and tests for nonresponse bias, 106–109 teaching experience, teaching techniques by, 119 Accounting Education Change Commission (AECC), 102 accomplishments of, 102 active learning activities and, 110 formation of, 102 mission of, 102 Objectives of Education for Accountants, 102 written communication activities and, 121–122 Accounting Education: Charting the Course through a Perilous Future (Albrecht and Sack), 129 Accounting education journals, 14–22 Active learning defined, 103 innovations see Active learning innovations in large classes, 121 methods, 109–119 research on, 104 techniques see Active learning techniques written communication activities and, 121–122 Active learning innovations, 125–159 direct assessment data, 150–155 faculty feedback, 149–150 Financial Statement Analysis Project, 141–149 financial statement user interview, 136–139 implementation, 134–149 internal control paper assignment, 139–141 learning context and student characteristics, 134–136 literature review, 128–132 motivation for exercises, 132–134 need for change, 129–130 practical suggestions, 155 project efficacy, 149–155 transforming the first accounting course, 130–132 Active learning techniques, 101–124 background and motivation, 103–105 class size, teaching techniques by, 117–119 contingency analysis, 115–119 course level and course subject, teaching techniques by, 115–117 learning and teaching methods, 111–113 teaching experience, teaching techniques by, 119 AECC See Accounting Education Change Commission (AECC) AICPA See American Institute of Certified Public Accountants (AICPA) Albrecht, W. S., 102, 105, 120–121, 129, 131 American Accounting Association (AAA), 102, 135 Bedford Committee of, 126, 129 Ohio Regional meeting, 157 American Institute of Accountants, 29 American Institute of Certified Public Accountants (AICPA), 29, 51–52 Bloom’s typology and, 34 core competencies, 131, 152, 161 CPA credential and, 43 CPA Horizons 2025, 58 periodic reviews, 30 TBS and, 32–33 American Taxation Association, 60 American University of Sharjah, United Arab Emirates, 134–138, 146–147, 152–155, 157 Apostolou, B., 105 Application, as dimension of learning, 133 Association to Advance Collegiate Schools of Business (AACSB), 134 Bandura, A., 60 Beard, D. F., 104 Bline, D., 104 Bloom, B., 33–35, 133 Bloom’s taxonomy, 10, 133, 156 Bloom’s typology, 33–35, 37, 41, 43, 52 Booth-Butterfield, S., 61 Brandon, C., 131 Bryant, S. M., 147 Burney, L., 104 Caring, as dimension of learning, 133 Certified Public Accountants (CPAs), 28, 41–42, 54, 58 Certified Public Accountants’ (CPA) Exam, 27–55 academic accountants and, 48–51 Auditing (AUD) section, 37 Business Environment and Concepts (BEC) section, 37–38 consistency with academic values, 43–48 divining the purposes of, 39–43 elevation of exam questions in Bloom’s typology, 33–35 ethics and, 11, 46 exam computerization and restructuring, 29–30 examination difficulty and composition, 30–33 Financial Accounting and Reporting (FAR) section, 36–37 future research and conclusions, 51–54 recent changes to, 28–39 Regulation (REG) section, 35–36 section-level issues, 35–38 Charting a National Strategy for the Next Generation of Accountants, 129 Cheng, Y., 58, 65, 69 Citation analysis, 2–3 Citation count, 4–5, 12 Citation rate, 4–5, 12 Classroom learning and teaching methods See Learning and teaching methods Cohen, J., 130 Columbus, Christopher, 36 Communication skills, 11 Certified Public Accountants (CPAs) and, 58 communication apprehension and, 58 oral, 58–59 written, 58–59, 71 Contingency analysis, 115–119 Cooperative learning techniques, 131 Course learning experiences, 160 CPA Exam See C</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2330575120</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.2307/2186798</t>
+          <t>https://openalex.org/W3125026247</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Williams (1910)</t>
+          <t>Dziechciarz (2015)</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>The Abolition of Slavery in the Chinese Empire</t>
+          <t>Measurement of Rate of Return in Education. Research Directions</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>The recent Imperial rescript of the Chinese Government abolishing slavery within the empire is a document of unusual interest,1 and adds one more to the many evidences that have been given lately of great changes going on among this ancient people. The farreaching effects of this reform can hardly be estimated at present, but the proclamation of emancipation which is to be posted far and wide throughout the empire will be a charter of liberty to myriads of the down-trodden and oppressed, and will mark for them the upward turning of the way toward freedom and enlightenment.</t>
+          <t>There is a need to measure the efficiency and effectiveness of higher education in its various aspects, including in the area of non-monetary benefits of higher education. Education relates to wider economic and social effects and human welfare depends partly on earnings but also on non-monetary outcomes that all trace back to education in various ways. There exist positive relationships between education and health, the health of family members, the schooling of one’s children, life choices made, fertility choices and infant mortality. Increasing the education level also has a positive effect on the environment and has a strong influence on crime reduction. Article is a review of the impact of intangible benefits of higher education, particularly non-monetary private and social rates of return on investment in education. The traditional, Humboldtian type of the University faces serious criticism. Main weaknesses of such concept includes outdated governance style with fragmented structure and management, insulated, extensive state dependency, overregulated legal status, heavily underfunded budget; uniformity and egalitarianism confronted with strong hierarchical human resource structure. It is accompanied with mono-disciplinary specialization; traditional learners approach; ineffective or lack of knowledge transfer; accompanied with little world-class excellence. The definition of the Universities new role of in the society is based on the triple helix concept. It covers Education; with the priority activity in higher level education. The task is to provide trained people for the needs of contemporary society. The second helix is Research. The role of the university is the knowledge generation, especially on the frontier research. This gives or extends limits of the conceptual or technological basis for new products and services. It works, provided functional processes of knowledge transfer via agencies or people are available and are efficiently working. Third Mission of the university is Society. The traditional role of the university covers regional support inclusive business advice for politics. It is ever growing, grand challenge. The answer of the European commission to the need of the university modernization is the policy promoting three main reforms. First of them is under way for some time now. It consists of radical curricular reform symbolized with the Bologna Process. The second is the governance reform. It promotes transformation from the traditional, Humboldt type of the university towards new, entrepreneurial concept of the university. The governance reform is essential for new challenges formulated for university system. The implementation of the entrepreneurial concept of the university is impossible with current funding system. The funding reform is designed to enable change from input oriented towards output oriented budgeting. The latter needs adequate measurement system of the output in all three activity fields. Only research has more or less functioning assessment indicators. The education and third mission results indicators need to be designed.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2756702977</t>
+          <t>https://openalex.org/W4318754012</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1016/j.mencom.2017.09.027</t>
+          <t>https://doi.org/10.1021/acs.est.2c04246</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Zagaynov et al. (2017)</t>
+          <t>Lamers et al. (2023)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Influence of the Ni/Co ratio in bimetallic NiCo catalysts on methane conversion into synthesis gas</t>
+          <t>Linking Life Cycle and Integrated Assessment Modeling to Evaluate Technologies in an Evolving System Context: A Power-to-Hydrogen Case Study for the United States</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Mesoporous NiCo–Gd0.1Ti0.1Zr0.1Ce0.7O2 catalysts with a variable Ni/Co ratio were synthesized by co-precipitation with sonication. The catalysts exhibited high activity and selectivity for synthesis gas production by CH4–O2 and CH4–CO2 reforming at 850–950 °C. The catalyst with 80Ni/20Co demonstrated the best results in the partial oxidation and dry reforming of methane.</t>
+          <t>Carbon-neutral hydrogen (H2) can reduce emissions from hard-to-electrify sectors and contribute to a net-zero greenhouse gas economy by 2050. Power-to-hydrogen (PtH2) technologies based on clean electricity can provide such H2, yet their carbon intensities alone do not provide sufficient basis to judge their potential contribution to a sustainable and just energy transition. Introducing a prospective life cycle assessment framework to decipher the non-linear relationships between future technology and energy system dynamics over time, we showcase its relevance to inform research, development, demonstration, and deployment by comparing two PtH2 technologies to steam methane reforming (SMR) across a series of environmental and resource-use metrics. We find that the system transitions in the power, cement, steel, and fuel sectors move impacts for both PtH2 technologies to equal or lower levels by 2100 compared to 2020 per kg of H2 except for metal depletion. The decarbonization of the United States power sector by 2035 allows PtH2 to reach parity with SMR at 10 kg of CO2e/kg H2 between 2030 and 2050. Updated H2 radiative forcing and leakage levels only marginally affect these results. Biomass carbon removal and storage power technologies enable carbon-negative H2 after 2040 at about −15 kg of CO2e/kg H2. Still, both PtH2 processes exhibit higher impacts across most other metrics, some of which are worsened by the decarbonization of the power sector. Observed increases in metal depletion and eco- and human toxicity levels can be reduced via PtH2 energy and material use efficiency improvements, but the power sector decarbonization routes also warrant further review and cradle-to-grave assessments to show tradeoffs from a systems perspective.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>https://openalex.org/W658066357</t>
+          <t>https://openalex.org/W1515726453</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5860/choice.48-1581</t>
+          <t>https://doi.org/10.2979/vic.2009.51.3.525</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Collins &amp; Mayer (2010)</t>
+          <t>Schaffer (2009)</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Both hands tied: welfare reform and the race to the bottom in the low-wage labor market</t>
+          <t>&amp;lt;em&amp;gt;Socialism, Sex, and the Culture of Aestheticism in Britain, 1880-1914&amp;lt;/em&amp;gt;, by Ruth Livesey</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Both Hands Tied studies the working poor in the United States, focusing in particular on the relation between welfare and low-wage earnings among working mothers. Grounded in the experience of thirty-three women living in Milwaukee and Racine, Wisconsin, it tells the story of their struggle to balance child care and wage-earning in poorly paying and often state-funded jobs with inflexible schedules - and the moments when these jobs failed them and they turned to the state for additional aid. Jane L. Collins and Victoria Mayer here examine the situations of these women in light of the 1996 national Personal Responsibility and Work Opportunity Reconciliation Act and other like-minded reforms - laws that ended the entitlement to welfare for those in need and provided an incentive for them to return to work. Arguing that this reform came at a time of gendered change in the labor force and profound shifts in the responsibilities of family, firms, and the state, Both Hands Tied provides a stark but poignant portrait of how welfare reform afflicted poor, single-parent families, ultimately eroding the participants' economic rights and affecting their ability to care for themselves and their children.</t>
+          <t>Reviewed by: Socialism, Sex, and the Culture of Aestheticism in Britain, 1880-1914 Talia Schaffer (bio) Socialism, Sex, and the Culture of Aestheticism in Britain, 1880–1914, by Ruth Livesey; pp. viii + 236. Oxford and New York: Oxford University Press for the British Academy, 2007, £30.00, $60.00. Socialism, Sex, and the Culture of Aestheticism in Britain, 1880–1914 is a remarkably knowledgeable study of the varieties of British socialism at the turn of the century. Ruth Livesey draws on her expertise about the personalities, philosophies, affiliations, and influences of the movement to map out complicated interrelations of rival groups. In so doing, she persuasively suggests a new reading of British socialist aesthetics. Livesey points out that William Morris "has long proven troublesome to those seeking to place him in the history of the aesthetic movement and the rise of modernism" (20). But for Livesey, Morris is a crucial point of origin for important strains of socialism, aestheticism, and modernism between 1880 and 1914. She shows that his dream of a collectivist, ethical, labor-rich environment for art production was deeply empowering, particularly for women like Clementina Black, Olive Schreiner, and Dollie Radford. Another group, however, followed the Kantian ideal of a disinterested, autonomous art. The autonomous school eventually abandoned social labor (as Livesey shows by tracing the careers of Alfred Orage and Virginia Woolf). Meanwhile, the ethical, female-friendly, fellowship/ guild socialism derived from Morris underwent various permutations, including attempts by Edward Carpenter and G. B. Shaw to improve virile bodies through discipline of dress and diet, and the prewar neo-pagan practices of Rupert Brooke and his circle. In the 1880s, it seemed, one could have it all: socialist revolution and art and a new lifestyle. But this fragile balance increasingly splintered into opposing groups. After 1910, autonomous art ruled the modernist realm. After an excellent brief introduction providing crisp thumbnail definitions of the various movements the book tackles, Livesey offers an explication of Morris's brand of socialism, rooted in ethical, communitarian, masculine labor, as contrasted with the alternative: Paterian and Wildean individualism and cultivation of the artistic sensibility. Among those who tried to live out Morris's ideal of fellowship were several important women. Livesey explains why Black found Morrisian socialism conducive to her cause of insisting on the value of women's labor (including her own). As Livesey shows in her second chapter, however, Black had to battle not only prurient speculation about her "real" (romantic) motives but also the aestheticizing perspective that scanned her work only for prettiness. Chapter 3 demonstrates that Schreiner similarly enjoyed the Morrisian idea of communalism and the way it accommodated a poetic, artistic particularism. "Paradoxical though it may seem," Livesey explains, "Morris's equation of the artist with the productive virile man provided a means for middle-class women artists to insert themselves into a history of productivity and engaged social action" (101). Somewhat differently, as Livesey explains in chapter 5, Radford explored the tension between the individualist ethos of feminized taste (the Oscar Wilde lineage) [End Page 525] and the socialist ethos of manly labor (the Morris heritage), seeking the best home for her own affective, feminized, lyrical tradition. If these chapters show how female fin-de-siècle reformers enjoyed Morris's space of possibility, it is chapter 4 that provides a refreshing comic interlude as it turns to the men. Livesey explains the appeal of "faddish" socialism. The religion of socialism meant idealist bodily behavior: vegetarianism, homemade sandals, Jaeger woollens, the simple life. Morris's stress on labor licensed both Carpenter and Shaw, in different ways, to imagine that proper dress and diet would generate the virile male body of the future. Perhaps less amusing and more dismaying is Orage's take on the socialist legacy in chapter 6. Famous as the editor of the modernist journal The New Age, Orage leavened its aesthetic pronouncements with Nietzschean heroic individualism, opposing the "effeminate decadence" of ethical socialism (165), which he disdained as sentimental and feminized. Finally, in chapter 7, Livesey offers a brilliantly elegant reading of Woolf. She contrasts the mature Woolf against her own younger socialist self, her husband, her friend Roger Fry, and her...</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>https://openalex.org/W1501812356</t>
+          <t>https://openalex.org/W2264902488</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Kerr et al. (2014)</t>
+          <t>Mwangi (2013)</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Bureaucratic, Leadership, and Workforce Representation among Female Administrators, Principals, Assistant Principals, and Classroom Teachers in U.S. School Districts, 2002-2008</t>
+          <t>Energy consumption among rural households in Mukaro Location of Nyeri County, Kenya</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ABSTRACTOur analysis represents the first attempt by scholars to link school district teacher, principal, and administration gender composition to a measure of school district new hires to assess progress towards gender-based representation. This research also develops ratios with which to explore the probable employment pipeline for placing women in administrative positions. We use a newly available data set compiled by the U. S. Equal Employment Opportunity Commission (EEOC) to answer several research questions. What is the gender composition of administrative, principal, assistant principal, and classroom teacher jobs in U. S. school districts? What are the levels of women's underrepresentation or overrepresentation in the areas of leadership representation and workforce representation? Are male-dominated school districts, based on the new hires record, making progress towards representational parity for women at the administrator and principal levels? The findings, based on analysis of a national data set with up to 6552 school districts from 2002 through 2008, indicate that levels of bureaucratic, leadership, and workforce representation for women have increased over time, but as late as 2008, parity had not been reached on any of these measures of representation in administrative, principal, and assistant principal jobs. Furthermore, large numbers of school districts employ no women in administrative, principal, and/or assistant principal positions-and school districts with disproportionately male administrative workforces, on average, are making little progress towards achieving representational parity for women in administrator and principal positions.INTRODUCTIONThe field of public administration has given insufficient attention to public education (Raffel 2007). Raffel argues that public administration, because it can make unique contributions to education policy scholarship, should not cede the study of education policy to educators, policy analysts, and political scientists (2007, 147). This call for public administration scholars to focus on education is increasingly important given the current focus outside the field. Concerns about equity and social justice, the central principles of Fredrickson's (1971) new public administration, have given way in education policy to calls for efficiency, accountability, high-stakes testing, and privatization (Berliner and Biddle 1995; Apple 1996; Grogan 1999; Kozol 2005; McDermott 2007).Over the last 25 years, education reform scholars have strongly influenced the agenda for education policy research. A combination of factors-the education reform movement's focus on market-based initiatives (Reyes, Wagstaff, and Fuserelli 1999; Moe 2001; Orfield 2005), the widespread abandonment of affirmative action policies at all levels of government (Naff 2001), insufficient attention to education policy by public administration scholars (Raffel 2007), and the direction of scholarly research on descriptive and substantive representation (Reid, Kerr, and Miller 2003)-seems to have contributed to the redirection of public administration scholarship on social equity issues in public education.A key, but overlooked component of social equity in public education is the distribution of jobs, especially high-level positions in U. S. school districts. One of our objectives in this research is to help bring the study of public schools-and particularly public school workforces-into the mainstream of public administration scholarship. A long tradition in public administration, it is important to reexamine periodically questions about gender equity in the area of public sector job distribution (among others see Lewis and Nice 1994; Naff 1994; Kelly and Newman 2001; and Miller, Kerr, and Reid 2010), Such questions are empirical questions, ones that should be revisited on a continuing basis, irrespective of the direction of contemporary debates about the nature of education reform and ones that cannot be answered adequately by referring to anecdotal evidence, limited samples, or politically-motivated pronouncements. …</t>
+          <t>The purpose of this study was to investigate energy consumption by rural households in Mukaro location, Nyeri County. Specifically, the study looked at wood fuel consumption and factors affecting wood fuel consumption. The study went further to identify the strategies adopted by households in dealing with reduced wood fuel availability as well as investigating if the strategies adopted had any environmental or socio-economic effects on the households. The research used the questionnaire as the main tool to collect data though other methods like interviews were applied. The study interviewed 138 households sampled using simple random sampling. The data collected was analyzed using inferential statistics. Hypothesis testing was done using chi-square, regression and qualitative analysis. The results of study showed that wood fuel was the major source of energy for rural households in Mukaro location, Nyeri County. Further, household income, distance travelled to access wood fuel as well as the household size determined the amount of wood fuel consumed by a household. The study also discovered that fuel wood was slowly becoming unavailable and as such households had developed various strategies to cope with reduced wood fuel availability. Among the major coping strategies indentified were use of twigs, reduction in consumption and increase in distance travelled to access wood fuel. The study found out that these coping strategies had some environmental and socio-economic effects on the rural households. They included reduced tree cover, more time spent in collecting fuel wood and increase in distance travelled to collect firewood. Though continued use of wood fuel contributed to reduced vegetation in the area, the study discovered that it was not the sole contributor to reduced vegetation; there were other factors like demand for timber and clearing land for farming. From the findings, the study recommends the following: increased recognition of wood fuel consumption as a source of energy by policy makers, expansion and diversification of household income streams to enable households transition to “green energy”, subsidies on energy saving jikos and fast growing tree seedlings in order to promote energy efficiency, conservation and agroforestry, concessions and credit availability of solar and biogas equipment to reduce on the high installation costs and encourage their use.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2069436219</t>
+          <t>https://openalex.org/W2333350742</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/09540128908260242</t>
+          <t>https://doi.org/10.5171/2012.471840</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Strunin et al. (1989)</t>
+          <t>Zinecker et al. (2012)</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>First year medical students' attitudes and knowledge about AIDS</t>
+          <t>Private Equity and Venture Capital: Investment Fund Structures in Europe</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Abstract Medical students attitudes and resulting behaviors about treating HIV-infected patients are critical and will become increasingly so in the years ahead. An anonymous self-administered questionnaire of 135 first year medical students at Boston University School of Medicine conducted in May 1988 queried students' knowledge of HIV transmission; concerns about contracting HIV; ethical and legal responsibilities; attitudes about testing for HIV and treatment of HIV-infected patients; the effect the epidemic poses for their medical careers; changes in personal sexual and drug use practices. Results indicate that students' careers are being affected because they are worried about contracting HIV, that the epidemic will affect their final choice of specialty, and that they believe they should be allowed to refuse to treat AIDS patients during their medical school training. The findings raise serious questions concerning why medical students hold these beliefs and suggest that students' willingness to care for AIDS patients may be a function of their level of knowledge and understanding of HIV infection and the disease AIDS. The results have implications for curriculum reform to address the AIDS crisis.</t>
+          <t>Suitable legal fund structures for private equity and venture capital (PE/VC) investments and their tax treatment have been considered as a key factor for stimulating the business environment.The Czech Venture Capital Association stresses that legal barriers are an important reason behind the limited scope of resources available to domestic PE/VC funds.Legal barriers prevent the establishment of a standard PE/VC fund in the territory of the Czech Republic, which fact in turn has a negative impact on the level of development of the domestic PE/VC market.In order to encourage the development of the market, this paper addresses filling the existing research gap concerning the following issues of the Czech PE/VC market: How the current Czech legislation regulates the legal fund structures for PE/VC investments?What is the tax treatment of PE/VC funds and individual investors in the Czech Republic?What are the legal and tax regulations on the main European markets for PE/VC?What are the key requirements for improvements of the current situation on the Czech PE/VC market?The nature of this study is explorative and it relies on primary and secondary data.Results of the study stress that the non-existence of the Limited Partnership legal form in particular is a weak spot of the current Czech legislation.The only Czech legal structure for PE/VC investments -the Qualified Investor Fund -does not sufficiently accommodate the requirements of market participants.Inadequate manner of market regulations can also be pointed out in addition to inflexible corporate law, tax obstructions and nontransparency of the current structures.In conclusion this study formulates proposals how to change the existing corporate law and the regulation of the PE/VC financial market segment in the Czech Republic.The proposals are based on models provided by selected European countries and create suitable conditions for a successful development of the Czech PE/VC market.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2612338572</t>
+          <t>https://openalex.org/W2050799063</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/s1526-4114(07)60284-4</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Beznoska &amp; Hentze (2016)</t>
+          <t>Piturro (2007)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Tax policy: The fiscal revenue effects of international tax planning</t>
+          <t>Cost of Care at End of Life Varies Widely by Region</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>In the course of the 'Panama Papers' discussion, questions arise concerning the fiscal effects of international profit shifting and tax avoidance. A recent OECD study estimates the worldwide corporate tax losses to lie between 4 and 10 percent of the revenues. Applied to Germany, this would reflect between 3 and 7 billion Euro or maximum 1 percent of total tax revenues. However, the estimation underlies questionable assumptions and therefore severe uncertainties.</t>
+          <t xml:space="preserve">A report based on data from 4.7 million Medicare enrollees reveals dramatic regional differences in how severely chronically ill patients are treated in the last 2 years of life. The Dartmouth Atlas Project estimates that Medicare could save $34.3 billion on hospitalizations and $5.8 billion on physician visits annually if all providers followed organized care models practiced in lower-spending regions. In the report, The Care of Patients with Severe Chronic Illness, the authors note that this group of patients consumes 75% of Medicare's budget. The authors, who compared Medicare's regional spending in Minneapolis vs. Miami, concluded that “Medicare will reimburse about $50,000 more for health care services during the lifetime of a 65 year old in Miami” than it will reimburse for a person of the same age in Minneapolis. “In total, the difference would be enough to purchase a Lexus for everyone in Miami over 65.” The report represents data from more than 4,300 hospitals in 306 regions. It found that patients living in high-spending cities such as Manhattan, Los Angeles, and Miami have more doctor visits, hospitalizations, ICU stays, diagnostic tests, and procedures than do such patients in efficient areas such as Salt Lake City and Rochester, Minn. The report recognizes Intermountain Health in Salt Lake City and the Mayo Clinic in Rochester, Minn., for organizing and delivering high-quality efficient care. “High-spending states have many more physicians and acute care hospital beds on a per-capita basis than low-spending states, and the current payment system ensures that they stay busy,” says Dr. Elliott Fisher, MPH, and professor of medicine and community and family medicine at Dartmouth Medical School, Hanover, N.H. The differences in cost and utilization between efficient and resource-rich areas for severe chronic illness are most dramatic in the last 6 months of life: 6.5 hospital days in Colorado vs. 19.4 days in New York City; a 74% variation in Medicare spending of $21,599 for lowest utilization areas vs. $37,622 for highest. The report notes higher utilization doesn't buy longer life or better quality of life. Those with chronic illnesses in high-rate regions have slightly shorter life expectancies and less satisfaction with their care than those in lower-spending regions. Dr. David Wennberg, MPH, and chief science and products officer of Boston-based Health Dialog, says: “Medicare fee for service pays doctors and hospitals to do tests and procedures, and a built hospital bed is a used bed.” He argues that waste and overuse stem from supply and demand. “Where there is greater capacity, more care is delivered—whether or not it is warranted.” The report also indicates that the overuse of acute care hospitals and medical specialists in managing chronic illness is worsening: A troubling note for physicians caring for the frail elderly is the report's statement that “the country has a current surplus of physicians and is likely to have enough physicians to meet U.S. needs through 2020. Because of the evidence that more intensive care may worsen outcomes, we believe that policy makers should respond to the current calls for increasing the supply of physicians by 15% to 30% with caution.” Dr. Lynne Kirk, MACP, former president of the American College of Physicians, and a geriatrician at the University of Texas Southwestern Medical School, Dallas, argues that while specialists may be plentiful, primary care physicians are not. “Our surveys of residents, which are corroborated by the AAMC [Association of American Medical Colleges], show that while 50% chose primary care several years ago, today only 20% choose it. Additionally, our survey of internists who didn't recertify after 10 years showed that 20% were gone. They left the physician workforce.” The ACP supports reimbursing primary care physicians for coordinating care for chronically ill patients. Dr. Wennberg says that nursing facility medical directors and attending physicians have important roles to play in decreasing variation and overuse of resources, citing systemic changes that physicians treating the frail elderly could use to improve care. The biggest gains in decreasing variation and improving care, Dr. Wennberg says, have been demonstrated in Washington State and others that encourage medical directors to work with patients and families to write detailed advanced directives. “Very focused use of advanced directives as spelled out by the POLST project (www.polst.org) greatly improves end-of-life care, [and] cuts cost, utilization, and unwanted variations in care.” He cites integrated systems such as Sutter Health as leaders in reducing unwanted variation by treating patients wherever they are along the care continuum (www.sutterhealth.org, “Care at the End of Life”). The Care of Patients With Severe Chronic Illness ultimately focuses on the problem of overuse of acute care hospitals in managing chronic illness, especially “rescue medicine” at </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2346702486</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.12737/19205</t>
+          <t>https://openalex.org/W3202793146</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Makarova &amp; Makarova (2016)</t>
+          <t>Hoekman &amp; Nelson (2020)</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>ON DEFINITION OF A DEPENDENT AGENT AS A TYPE OF PERMANENT ESTABLISHMENT: RUSSIAN AND INTERNATIONAL LEGAL REGULATION</t>
+          <t>Subsidies, Spillovers and Multilateral Cooperation</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>This paper analyzes the definition and characteristics of a dependent agent as a subject of the international tax law and a special type of permanent establishment. The term “dependent agent” is not sufficiently studied either in Russia or globally. Over the last few years the global community has been concerned about capital outflows from developed economies through tax optimization structures, including a scheme aimed at artificial avoidance of permanent establishment. Based on international law and following the release of the OECD recommendations (BEPS project), the author of the article provides the analysis of the definition and main characteristics of a dependent agent, which may be incorporated into the Russian tax legislation. Development of certain criteria necessary for setting up a permanent establishment in the form of a dependent agent may lead to the establishment of clear rules governing this tax category. In turn, this may help to reduce practices of tax avoidance by foreign organizations who may try to artificially avoid creating permanent establishment in another tax jurisdiction.</t>
+          <t>Negative international spillovers created by nontariff policies are a rising source of trade tensions and conflicts. The WTO does not include rules for subsidies for services industries, state-owned enterprises or investment incentives. Existing disciplines on industrial policies are increasingly seen to be inadequate by many WTO members. Efforts to revisit and expand rules for contested policies must recognize the changing nature of international production. A first step in addressing trade conflicts associated with industrial policies is to determine where negative international competition spillovers are both large and systemic in nature. Doing so requires going beyond trade ministries and bringing in finance and line ministries, as well as competition agencies and international organizations with expertise in collecting information on subsidies and analyzing their effects.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4247153268</t>
+          <t>https://openalex.org/W1533928862</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5406/illinois/9780252039003.003.0045</t>
+          <t>https://doi.org/10.4324/9781315182681-5</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Simons (2017)</t>
+          <t>Klemperer (2018)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Introduction</t>
+          <t xml:space="preserve">Impacts of Tax Alternatives on Forest Values and Investment†</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>This introductory chapter provides a background of Simone de Beauvoir's feminism. As the political opposition hardened and the Women's Liberation Movement (MLF) matured in the 1970s, Beauvoir put “her notoriety and her connections at the service of this movement of young rabble-rousers without ever claiming to lead it in any certain direction.” Beauvoir supported those feminists interested in legal reform through the creation of a League of Women's Rights and those “who preferred to fight sexism by denouncing it with perspicacity and humor.” Moreover, she lent her support to a successful campaign for divorce law reform and an unsuccessful one for a law banning sexism, which won the support of the Secretary for Women's Rights in the new Socialist government in 1981, but failed after vehement opposition from advertisers and the press. In 1979, Beauvoir joined an international campaign—also unsuccessful—to defend the rights of women in the Iranian Revolution.</t>
+          <t>Current interest in the theory and application of local government taxes on forests is intense. Conflicting discussions abound in the literature, and several states have recently revised their forest tax laws or are currently considering changes. An ad valorem tax will be applied annually on a regulated forest model. Starting with no taxes, on the same type of model, a yield tax and productivity tax will then be adjusted and applied separately to raise the same annual revenue as the ad valorem tax. Since annual taxes on the model were adjusted to be equal for each tax system, the after-tax value of the entire regulated model at one point in time would be the same under each tax. Therefore, if land values differ under each system, then average investment values of immature timber must also differ, but in the opposite direction.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2910353827</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ijmultiphaseflow.2019.01.003</t>
+          <t>https://openalex.org/W2150765006</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Forgues &amp; McDonald (2019)</t>
+          <t>John (2016)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Higher-order moment models for laminar multiphase flows with accurate particle-stream crossing</t>
+          <t>Romancing Decay: Ideas of Decadence in European Culture</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Modelling of laminar multiphase flow is extremely important in a wide range of engineering and scientific applications. The particle phases are often difficult to model, especially when particles display a range of velocities at each location in space. Lagrangian method can be too costly and many Eulerian methods, though often computationally less taxing, suffer from model deficiencies and mathematical artifacts that lead to non-physical results. In particular, efficient Eulerian models that can accurately predict the crossing of multiple streams of non-interacting particles in laminar flow have traditionally been lacking. The goal of this work is to investigate the predictive capabilities of modern techniques from the kinetic theory of gases to a treatment of disperse multiphase flow. In particular, several moment-methods, including a recently proposed fourteen-moment approximation to the underlying kinetic equation describing particle motion, are applied and their abilities to predict particle-stream crossing are assessed. The derivation, mathematical structure, and physical behaviour of the resulting model are explained. A numerical implementation is presented and results for a flow problem that is designed to demonstrate the fundamental behaviour of each model with respect to particle stream crossing is presented.</t>
+          <t>Contents: Introduction Redeeming the decadent city: changing responses to the urban and wilderness environments in the lives of St Jerome, David Salter Nature, Venus and Royal decadence: political theory and political practice in Chaucera (TM)s Parliament of Fowls, Michael StJohn Reading symptoms of decadence in Forda (TM)s a Tis Pity Shea (TM)s a Whore, Carla Dente a Bawdy in thoughts, precise in wordsa (TM): decadence, divinity and dissent in the Restoration, Michael Davies Dickensian decadents, Vincent Newey Defining decadence in nineteenth-century French and British criticism, Julian North Somewhere therea (TM)s music: John Meade Falknera (TM)s The Lost Stradivarius, Nicholas Daly a Squalid argumentsa (TM): decadence, reform and the Colonial vision in Kiplinga (TM)s The Five Nations, Andrew StJohn The metamorphoses of a fairy-tale: Quillard, Da (TM)Annunzio and The Girl With Cut-Off Hands, Julie Dashwood A passion for dismemberment: Gabriele da (TM)Annunzioa (TM)s portrayals of women, Susan Bassnett The escape from decadence: British travel literature on the Balkans 1900a 45, Andrew Hammond Books and ruins: abject decadence in Gide and Mann, Martin Halliwell Resisting decadence: literary criticism as a corrective to low culture and high science in the world of I. A. Richards, Daniel Cordle Blow it up and start all over again: Second World War apocalypse fiction and the decadence of modernity, Tristram Hooley Decadence and transition in the fiction of Antonio Tabucchi: a reading of Il filo della (TM)orizzonte, Marina Spunta Beyond decadence: Huysmans, Wilde, Baudrillard and Postmodern culture, Nicholas Zurbrugg Translation: decadence or survival of the original?, Amir Ali Nojoumian The decadent university: narratives of decay and the future of higher education, Mark Rawlinson The lateness of the world, or how to leave the twentieth century, Martin L. Davies Bibliography Index.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2787830638</t>
+          <t>https://openalex.org/W2469817877</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1353/aq.2016.0041</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>McKenzie &amp; Ritter (2006)</t>
+          <t>Russo (2016)</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Comprehensive School Reform: A Proven School Improvement Method for Troubled Schools</t>
+          <t>Photogrammar: A New Look at New Deal Photography</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Photogrammar:A New Look at New Deal Photography Jillian Russo (bio) Photogrammar, primary investigator Laura Wexler and codirector Lauren Tilton, New Haven, CT, Yale University, 2014–16, photogrammar.yale.edu/ (accessed January 2016). The new digital archive Photogrammar enables easy access to the collection of 170,000 photographs created by the Farm Security Administration and Office of War Information (FSA-OWI), which is housed by the Library of Congress. Designed by a Yale University team led by Laura Wexler, professor of American studies and coordinator of the Public Humanities Program, and Laura Tilton, a doctoral candidate in American studies, Photogrammar uses interactive maps and data visualizations to encourage a broader understanding of New Deal photography and engage new viewers with the collection. In 1935 the Farm Security Administration, a New Deal agency established to combat rural poverty, initiated a ground-breaking project to document the impact of economic catastrophe, especially for American farmers, and to chronicle the results of the FSA’s social reform programs. Under the direction of Roy Stryker, chief of the Historical Section, a team of photographers including Jack Delano, Walker Evans, Dorothea Lange, Russell Lee, Marion Post Wolcott, Arthur Rothstein, Ben Shahn, and John Vachon were dispatched throughout the nation. Building on the tradition of reform-oriented documentary photography pioneered by Lewis Hine and Jacob Riis, they chronicled prosaic aspects of American life, giving voice to the destitute and producing iconic images that have shaped our understanding of the period. In 1942, when the United States entered World War II, the photographic project was moved to the Office of War Information, thousands of images were sent overseas, and the archive was cataloged using a system designed by Paul Vanderbilt. Photogrammar expands our understanding of the FSA collection beyond the frequently published famous images, such as Lange’s Migrant Mother, Nipomo, California (1936), Evans’s Kitchen of Floyd Burroughs’ Cabin, Hale County, Alabama (1935–36), and Lee’s Kitchen, Hidalgo County Texas (1939), which have become cultural symbols. [End Page 439] At present, the easiest way to navigate the site is through its maps feature, which charts locations for ninety thousand photographs that have geographic information. One map view allows for browsing by state and county, and the other charts the movement of photographers across the United States. The result is a more contextual presentation of the photographic collection than the one offered by the Library of Congress digital archive. The ability to sort for and view a series of images by location is a powerful feature. It approximates, for a larger audience, the experience of the archive, where viewers can explore by subject folders, and comparisons and discoveries can be made. Searching for the famous images by Lange, Evans, and Lee using the county map yields thumbnails of all the related photographs on one page. It was the practice of FSA photographers to take multiple shots, which would later be edited by Stryker, who over the course of the program rejected one hundred thousand negatives. Selecting San Luis Obispo, California, produces Lange’s Nipomo series documenting the plight of destitute pea pickers who transformed their cars into lean-to shelters while they worked the fields that had not been degraded by erosion. Lange’s renowned Migrant Mother appears alongside her four other photographs of the migrant worker Nettie Ferguson taken in March 1936. Seeing Migrant Mother in context is a reminder of the frequently discussed choices Lange made to create the composition, including the close cropping and her decision to photograph the children while they were turned away from the camera. Viewing Evans’s Kitchen of Floyd Burroughs’ Cabin and Lee’s Kitchen by location deepens our understanding of these images as well. Evans’s detailed study of a worn but tidy kitchen corner in Floyd Burroughs’s home reveals Evans’s broader approach of documenting the stories of several families including the Burroughs, the Fields, and the Tengles. Lee’s iconic depiction of a modernist kitchen, although one of numerous images of new housing facilitated by the FSA, is actually somewhat atypical of his Hidalgo photographs, which focused on migrant laborers and vegetable and fruit-packing plants. The second map view traces the path of...</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4385638213</t>
+          <t>https://openalex.org/W4389980826</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1080/0950236x.2023.2243917</t>
+          <t>https://doi.org/10.32782/2414-4436/2023-3-9</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Yazell et al. (2023)</t>
+          <t>Баштанник &amp; Havrylenko (2023)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Theorising the collective in British estate literature</t>
+          <t>INTEGRATED SYSTEMS OF PUBLIC ADMINISTRATION 3.0: TRANSFORMATION OF THE CONCEPTUAL MODEL OF THE DEVELOPMENT OF THE NATIONAL DEVELOPMENT STRATEGY</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>ABSTRACTThis article attends to recent examples of British estate literature, a literary form which extends across disparate genres and media. In general, estate literature attempts to correct pernicious prejudices about communities centred on the council estate, stereotypes which align classist, racist, and sexist rhetoric to marginalise this population. In addition to locating recent examples of estate literature – Caleb Femi’s, Poor (2020), Anders Lustgarten’s The Seven Acts of Mercy (2016), and Guy Gunaratne’s In Our Mad and Furious City (2018) – amidst this socio-economic context, this paper also identifies the various formal features these works draw upon to generate a collective voice which at once rejects the othering of the council estate while also resisting the temptation to substitute one reductive group identity label for another. In these texts, often-surprising connections are formed on the grounds of the estate between people, objects, ideas, art, music – and fade as suddenly as they appear. The essay spans media studies, literary criticism, and sociology to argue that the networks conjured by estate literature are not only corrective but generative, inasmuch as they indicate that more affirmative configurations of these networks are possible.KEYWORDS: British literaturecontemporary literatureprecaritycouncil estatewelfare Disclosure statementNo potential conflict of interest was reported by the author(s).Notes1 Lynsey Hanley, Estates: An Intimate History (London: Granta Books, 2012), p. 38.2 Hanley, Estates, p. 11.3 See, for example, Fish Tank (2009) and Dirty God (2019).4 For example, Benefits Street (2014) and This is England (2010).5 For example, Roy Williams’ Fallout (2003) and Leo Butler’s Redundant (2001).6 Examples include Monica Ali’s Brick Lane (2003), Stephen Kelman’s Pigeon English (2011), and Zadie Smith’s NW (2012).7 For example, Cash Carraway’s Skint Estate: Notes from the Poverty Line (2019).8 Susanne Cuevas, ‘Societies Within’: Council Estates as Cultural Enclaves in Recent Urban Fictions’, in Lars Eckstein, Barbara Korte, Eva Ulrike Pirker, and Christoph Reinfandt (eds), Multi-Ethnic Britain 2000+: New Perspectives in Literature, Film and the Arts (Amsterdam: Rodopi Press, 2008), pp. 383–95 (385).9 Dominic Head, ‘The Demise of Class Fiction’, in James E. English (ed.), A Concise Companion to Contemporary British Fiction (Malden, MA: Blackwell, 2006), pp. 229–47 (230).10 Katie Beswick, ‘“The Council Estate: Representation, Space and the Potential for Performance’, Research in Drama Education: The Journal of Applied Theatre and Performance, 16.3 (2011), pp. 421–35.11 Emily Cuming, Housing, Class, and Gender in Modern British Writing, 1880–2012 (Cambridge: Cambridge University Press, 2016), p. 212.12 Manuel DeLanda, Assemblage Theory (Edinburgh: Edinburgh University Press, 2016).13 Jon Helt Haarder, ‘The Precariat as Place A Literary History of the Danish Ghetto’, Scandinavica: An International Journal of Scandinavian Studies, 59.2 (2020), pp. 29–50 (33).14 The account of council estates as networks or assemblages in this essay builds on recent work putting these theories in dialogue with accounts of urban development. See also Urban Assemblages: How Actor-Network Theory Changes Urban Studies, eds Ignacio Farías and Thomas Bender (London: Routledge, 2009).15 Bruno Latour, Reassembling the Social: An Introduction to Actor-Network-Theory (Oxford: Oxford University Press, 2005), p. 29.16 Rosemary Wakeman, Practicing Utopia An Intellectual History of the New Town Movement (Chicago: Chicago University Press, 2016), p. 3.17 Anders Lustgarten, The Seven Acts of Mercy (Bloomsbury, 2016), p. 9.18 For literature on the stigmatisation of the working class in recent decades see for example: Lisa McKenzie, Getting By: Estates, Class and Culture in Austerity Britain (Bristol: Policy Press); Beverly Skeggs, Class, Self, Culture (London: Routledge, 2004); Gill Valentine and Harris Catherine, ‘Strivers vs Skivers: Class Prejudice and the Demonisation of Dependency in Everyday Life’, Geoforum, 53 (2014), pp. 84–92.19 John Boughton, Municipal Dreams: The Rise and Fall of Council Housing (London: Verso, 2019), pp. 169–77.20 Grenfell Tower Inquiry, ‘Phase 1 Report Overview’, October 2019, p. 5.21 Inquiry, ‘Report Overview’, 24.22 Boughton, Municipal Dreams, 1.23 Imogen Tyler, Revolting Subjects: Social Abjection and Resistance in Neoliberal Britain (London: Bloomsbury, 2013), p. 162.24 See for instance: Sara DeBenedictis ‘Feral Parents: Austerity Parenting Under Neoliberalism’, Studies in the Maternal, 4.2 (2012), pp. 1–21; Beverly Skeggs, ‘The Making of Class and Gender Through Visualizing Moral Subject Formation’, Sociology, 39.5 (2005), pp. 965–82.25 According to Tyler, the figure of the ‘chav mum’ and her crossing of racial boundaries ‘embodies historically familiar and contemporary anxieties about female sexuality, reproduction, fertility, and “racial mixing”’ (p. 17). Imogen Tyler, ‘Chav Mum Chav Scum’, Feminist Media Studies, 8.1, pp. 149–62.26 Lynette Goddard, Contemporary Black British Playwrights: Margins to Mainstream (London: Palgrave, 2015), p. 12.27 Luke Harding, ‘Woolwich Killing: Residents Reflect on Murder of Lee Rigby’, The Guardian, 23 May 2013. https://www.theguardian.com/uk/2013/may/23/woolwich-attack-multicultural-multi-faith-community28 Audrey Gillan, ‘Did Bad Parenting Really Turn these Boys Into Killers?’ The Guardian, 1 November 2000. https://www.theguardian.com/uk/2000/nov/01/bulger.familyandrelationships29 Alex Woloch, The One vs. the Many: Minor Characters and the Space of the Protagonist in the Novel (Princeton: Princeton University Press, 2004), p. 13.30 See Woloch’s distinction between ‘character-space’ and the ‘character-world’ of a literary work. Ibid., 14.31 Latour, Reassembling the Social, p. 248.32 Ibid., p. 247.33 Uri Margolin, ‘Telling in the Plural: From Grammar to Ideology’, Poetics Today, 21.3 (2000), pp. 591–618 (592, 591).34 Guy Gunaratne, In Our Mad and Furious City (London: Tinder), p. 4.35 Given the recent interest among contemporary novelists and literary scholars in first-person plural or ‘we’ narration, the question of how individual voices can uphold or disrupt the cohesion of a larger social group warrants further elaboration. For accounts which contribute to this scholarship, see Bekhta, Natalya, ‘We-Narratives: The Distinctiveness of Collective Narration’, Narrative, 25.2 (2017), pp. 164–81; Susan Sniader Lanser, Fictions of Authority: Women Writers and Narrative Voice (Ithaca: Cornell University Press, 1992); Brian Richardson, Unnatural Voices: Extreme Narration in Modern and Contemporary Fiction (Athens, OH: Ohio State University Press, 2006).36 Gunaratne, In Our Mad and Furious City, p. 29.37 Ibid., p. 30.38 Ibid., p. 31.39 Ibid., p. 30.40 Ibid., p. 9.41 Ibid., p. 11.42 Ibid.43 Ibid., p. 34.44 Ibid., p. 6445 Ibid., p. 67.46 Ibid., p. 34.47 Ibid., p. 61.48 Peter Simonsen and Mathies G. Aarhus, ‘Theater of the Precariat: Staging Precarity in Alexander Zeldin’s Love’, Contemporary Literature, 61 (2021), pp. 335–36.49 Lustgarten, The Seven Acts of Mercy, p. 55.50 Ibid., np.51 Ibid., p. 32.52 Ibid., p. 10.53 Ibid., p. 14.54 On the ‘bedroom tax’, see Kelly Brogue, The Divisive State of Social Policy: The ‘Bedroom Tax,’ Austerity and Housing Insecurity (Bristol: Bristol University Press, 2019).55 Ibid., p. 26.56 Ibid., p. 27.57 Ibid., p. 32.58 Ibid., p. 11.59 Ibid., p. 14.60 Ibid.61 Ibid., p. 20.62 Susan Sontag, Regarding the Pain of Others (New York: Picador, 2003).63 Lustgarten, The Seven Acts of Mercy, p. 15.64 Ibid., p. 16.65 Ibid., p. 18.66 Ibid., p. 98.67 Ibid., p. 100.68 Claire Armistead, ‘Caleb Femi: “Henceforth I’m Solely Preoccupied with Being a Merchant of Joy”’, The Guardian 30 October 2020. https://www.theguardian.com/books/2020/oct/30/caleb-femi-henceforth-im-solely-preoccupied-with-being-a-merchant-of-joy69 Sarah Ozo-Irabor (host). Psychogeography: Poor with Caleb Femi. In Books and Rhymes: The Podcast (11 October 2020). https://shows.acast.com/booksandrhymes/episodes/psychogeography-poorwithcalebfemi70 Boughton, Municipal Dreams.71 Caleb Femi, Poor (Penguin UK, 2020), pp. 7–8.72 Ibid., p. 107.73 Ibid., p. 9.74 The depiction of concrete in Poor is also discussed in Mathies G. Aarhus, ‘Psychogeography on the Council Estate,' in ‘Dossier: Precarity and Public Housing,' eds Emily J. Hogg and Bryan Yazell, ASAP/Journal, 8.1 (2023), pp. 13–39 (27–32).75 Haarder, ‘The Precariat as Place’, p. 33.76 Caleb, Poor, p. 68.77 Ibid., p. 69.78 Ibid., p. 129.79 See also Woloch, The One vs. the Many, p. 17.</t>
+          <t>This article aims to analyze the development of the integrated system of public administration over the fifteen years of formalization of this term in the domestic science of public administration. The obvious task is to study the possibility of modern state (public) administration to act as a platform for national development, to form the latest model of state formation in the conditions of external challenges. The modern foundations of the transformation of social relations in Ukraine, the development of new legal mechanisms for the implementation of the provisions of the Constitution of Ukraine, the implementation of administrative reforms in Ukraine, armed aggression against Ukraine and the local fragmentation of regional management systems have made and continue to make significant changes to the content of state management activities, the formation and implementation of mechanisms regulation of the activities of authorities. At the current stage of the development of society, the goal of administrative and legal regulation is not only the improvement of the forms and methods of management activity, the establishment and regulation of relations between citizens and state institutions, when every person must be guaranteed the real observance and protection of rights and freedoms, the effective protection of these rights and freedoms in cases their violations. In fact, the new social reality sets the task of the functioning of a universal organizational and legal mechanism of identifying, coordinating and realizing public needs and interests based on the use of various legal means, the formation of subjective rights and obligations of participants in social processes, and the transfer of their connections and relations into specific legal relations. In the conditions of armed aggression against Ukraine, the topic of special management regimes, non-standard administrative procedures, and a new format of stateservice relations is being updated. Achieving high efficiency and quality of any type of management activity consists in rational legal provision of management. After all, only the public-legal regulation of the behavior of subjects and objects of public administration, which is carried out with the help of organizational-legal regulation, is able to ensure the coherence and purposefulness of their activities, oriented to the satisfaction of public needs and interests, which objectively exist at a specific stage social development. The peculiarities of modern public administration actualized the need to introduce the concept of "integrated system of public administration" as a terminological concept. The concept of an integrated system of public administration (ISPU) is defined through power and authority. An integrated system of public administration should be defined as a system of public administration within the framework of the implementation of state and selfgoverning administrative powers in accordance with the Constitution and laws of Ukraine, which is able to adapt to changes in the external environment and, accordingly, to change (transform) the qualitative characteristics of the elements of the system, and the adaptation process itself is decisive provides a synergistic effect. So, we are not talking about a completely new type of system, but about the formation of a national management system that combines the activities of authorities at different levels with the necessary level of administrative flexibility, and it is the combination that ensures the management result. Significant advantages of the implementation of ISPU consist in the possibility of transition to a fundamentally new type of relationship without destroying hierarchical relationships between management levels. At the same time, the internal characteristics of such relations are subject to change in the context of standards, rules and procedures proposed by both internal and external entities. That the main criteria of the political organization of society are the obligation of internal orderliness and organization, optimization of the activities of political parties as subjects of social policy, recognition by political parties of the principles of democratic consensus, the formation of civilized public-authority relations. The methodological approach to researching the process of reforming public administration involves determining the need to introduce the concept of "integrated public administration system" (IPAS) as a terminological concept of the science of public administration. IPAS should be considered as a system of public relations within the framework of the implementation of state and self-governing administrative powers in accordance with the Constitution and laws of Ukraine, which is able to adapt to changes in the external environment and, accordingly, change (transform) the qualitative characteristics of subsystems and elements of the system, and the adaptation process itself – as such that decisively prov</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2052387039</t>
+          <t>https://openalex.org/W4232573071</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1017/s174849950000049x</t>
+          <t>https://doi.org/10.1163/9789004397620_003</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Iyer (2008)</t>
+          <t>Bray (2019)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Stochastic Actuarial Modelling of a Defined-Benefit Social Security Pension Scheme: An Analytical Approach</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>ABSTRACT Among the systems in place in different countries for the protection of the population against the long-term contingencies of old-age (or retirement), disability and death (or survivorship), defined-benefit social security pension schemes, i.e. social insurance pension schemes, by far predominate, despite the recent trend towards defined-contribution arrangements in social security reforms. Actuarial valuations of these schemes, unlike other branches of insurance, continue to be carried out almost exclusively on traditional, deterministic lines. Stochastic applications in this area, which have been restricted mainly to occasional special studies, have relied on the simulation technique. This paper develops an analytical model for the stochastic actuarial valuation of a social insurance pension scheme. Formulae are developed for the expected values, variances and covariances of and among the benefit expenditure and salary bill projections and their discounted values, allowing for stochastic variation in three key input factors, i.e., mortality, new entrant intake, and interest (net of salary escalation). Each deterministic output of the valuation is thus supplemented with a confidence interval, that is, a range with an attached probability. The treatment covers the premiums under the different possible financial systems for these schemes, which differ from the funding methods of private pensions, as well as the testing of the level of the Fund ratio when the future contributions schedule is pre-determined. Although it is based on a relatively simplified approach and refers only to retirement pensions, with full adjustment in line with salary escalation, the paper brings out the stochastic features of pension scheme projections and illustrates a comprehensive stochastic valuation. It is hoped that the paper will stimulate interest in further research, both of a theoretical and a practical nature, and lead to progressively increasing recourse to stochastic methods in social insurance pension scheme valuations.</t>
+          <t>This chapter analyzes the role of technology in shaping Chinese material resources, society and governance over the longue durée. What place did technology occupy in Chinese experience and thought before the debacle of the Opium Wars, when there was no concept in the language that corresponded to our modern understanding of technology as sophisticated machinery, or as an irresistible force for progress? What role was attributed to technology during China’s subsequent struggles for survival and recognition as its technological landscapes were repeatedly and dramatically transformed: first, through the final years of the Qing when reformers turned to technological innovation as a way to stave off disaster, then through the Republican period as the government strove to build a modern infrastructure, through the years of war and revolution, during successive Maoist campaigns and finally into the current post-Reform era? How is technology understood and viewed in China today, now that the nation has transcended earlier stigmatization as an inherently non-creative culture capable only of copying Western innovations, to emerge as an acknowledged global leader in high-tech fields like biotechnology? I propose the paired concepts of technological landscape and technological culture as analytical tools for interweaving transformations and continuities in Chinese views and uses of technology between the late nineteenth century and today.</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4242142005</t>
+          <t>https://openalex.org/W2292268703</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>https://doi.org/10.5089/9781513519975.001</t>
+          <t>https://doi.org/10.22004/ag.econ.23672</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Beer et al. (2019)</t>
+          <t>Vreugdenhil &amp; Aakre (2005)</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Hidden Treasure</t>
+          <t>RESULTS OF THE NORTH DAKOTA LAND VALUATION MODEL FOR THE 2005 AGRICULTURAL REAL ESTATE ASSESSMENT</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>We analyze the impact of exchange of information in tax matters in reducing international tax evasion between 1995 and 2018. Based on bilateral deposit data for 39 reporting countries and more than 200 counterparty jurisdictions, we find that recent automatic exchange of information frameworks reduced foreign-owned deposits in offshore jurisdictions by an average of 25 percent. This effect is statistically significant and, as expected, much larger than the effect of information exchange upon request, which is not significant. Furthermore, to test the sensitivity of our findings, we estimate countries’ offshore status and the impact of information exchange simultaneously using a finite mixture model. The results confirm that automatic (and not upon request) exchange of information impacts cross-border deposits in offshore jurisdictions, which are characterized by low income tax rates and strong financial secrecy.</t>
+          <t>This report summarizes the 2005 results of the North Dakota Land Valuation Model. The model is used annually to estimate average land values by county, based on the of production from cropland and non-cropland. The county land values developed from this procedure form the basis for the 2005 valuation of agricultural land for real estate tax assessment. The average land value from this analysis is multiplied by the total acres of agricultural land on the county abstract to determine each county's total agricultural land for taxation purposes. The State Board of Equalization compares this with the total assessed to agricultural property in each county. Each county is required by state statute to assess a total of agricultural property within 5 percent of this value. The average per acre of all agricultural land in North Dakota increased by 7.8 percent based on the of production. Cropland increased by 8.24 percent and non-cropland increased by 5.1 percent. The formula capitalization rate was below the minimum set by the State Legislature, therefore the minimum rate of 8.9 percent was used. Changes in market are included for comparison. Market data are from the annual County Rents and Values survey conducted by North Dakota Agricultural Statistics Service.</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2067387462</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1680/imotp.1887.21244</t>
+          <t>https://openalex.org/W3166104261</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Forrest (1887)</t>
+          <t>Jammulamadaka (2011)</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>ADMINISTRATION OF FISHING-BOAT HARBOURS IN FRANCE-SUMMARY OF INFORMATION COLLECTED BY THE SECRETARY.</t>
+          <t>Microfinance in India: promotional policy or fragmented adhoc reactions</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Keywords ADMINISTRATION, FISHING, BOATS, HARBOURS, TRAWLERS, CONSTRUCTION, COSTS, FINANCE, EXPENDITURE, TAXATION, MANAGEMENT, NATIONALISATION, TAXES, PORTS, GOVERNMENT, CENTRAL FRANCE, EUROPE... Show All</t>
+          <t xml:space="preserve">India has also been part of this microfinance wave for over two decades. India 
+today has the largest microcredit program in the world (Karmakar, 2008). 
+Microfianance practice in India occurs within different institutional formats and it 
+interfaces with a number of agencies- public and private, financial and 
+developmental. Government has instituted policies relevant to microfinance time 
+and again through these agencies. This paper examines these policies in the light of 
+the evolution of microfinance in India. It examines their coherence, consistency and 
+ability to promote long term growth of microfinance in the country. 
+Microfinance in India developed in the hinterland villages as Self Help Groups in the 
+early 1980s. NGOs working for rural development organized women as groups of 
+10-20 around thrift and then used them for other developmental activities. These 
+initiatives were accompanied by action research and pilot projects of agencies like 
+UNICEF and National Bank for Agriculture and Rural Development (NABARD). These 
+self help groups (SHGs) of women were encouraged by linking them with the formal 
+banking system and providing them micro loans through the joint-liability-group 
+lending mechanism. NABARD’s early success together with difficulties in the 
+individual loan format of DWCRA accompanied by an overall macro economic 
+environment that favoured liberalization marked the beginning of what is presently 
+understood as microfinance in India. In 1996, NABARD expanded the bank linkage 
+scheme to the whole country after Reserve Bank of India’s approval. This was the 
+first official policy maneuver in the domain of microfinance. 
+Though NGOs initiated the SHG program, their legal status as charitable entities did 
+not permit them to take up interest earning activities like microfinance. They 
+existed in a legal quagmire which subjected them to constant scrutiny by Income 
+Tax authorities and their charitable status was questioned. Given this difficulty, 
+NGO form was institutionally unsuitable for scaling up and attaining financial 
+sustainability of microfinance programs. Thus when their SHG programs grew in 
+size and SHG federations were being formed, some NGOs registered them under 
+the existing companies act as Non Banking Finance Companies (NBFC) or the newly 
+incorporated Mutually Aided Cooperative Societies (MACS) Act so as to be able to 
+pursue scaling up and financial sustainability. MACS law was enacted in response to 
+growing demand from MFIs, SHG Federations and NGOs for a law that prevented 
+government interference in co-operatives. During this period, microfinance 
+remained an unregulated activity functioning on the good-will of the organizational 
+leadership. 
+In the second half of 1990s, there arose numerous instances of NBFCs duping the 
+public of their investments, consequently, RBI began regulating NBFCs in general. 
+In the process, it made special exceptions for NBFC-MFIs which were unregulated 
+until then. RBI’s regulatory mechanism was focused on protecting depositors and 
+ensuring financial sustainability. Credit co-operatives were governed under the 
+MACS law however; their financial management was not a subject of regulation. 
+NGO-MFIs meanwhile continued to be unregulated. Thus regulatory policy neither 
+promoted the formation nor the sustainable growth of microfinance by NGOs. 
+Financial sustainability though is not the only goal of microfinance. The reason for 
+microfinance emerging as a major development intervention has been its ability to 
+create and capitalize on social capital among the poor and deploy it in the creation 
+of economic capital for them thus empowering them. This creation of social capital 
+is a time-dependent and path-dependent process where the group members have 
+to go through various group processes and mature to function as one collective. 
+These processes have to be ably supported by outside interventionists so as to 
+prevent pre-mature action and breakdown of the group. And among all the MFI 
+forms, the NGO form is the most suitable for such intervention that enables 
+3 
+empowerment because of their focus on group process and capacity building as 
+against the exclusive focus on financial sustainability among NBFCs, MACS and 
+others. This is the rationale for government tying up all development schemes with 
+SHGs. 
+Government acknowledged this strength of the NGOs and promoted NGO 
+participation in microfinance by involving SHGs and NGOs (who are the main 
+implementing agents of government’s development schemes) in its development 
+programs. Government also involved the formal banking system in this program. 
+Regional Rural Banks and other commercial banks got the mandate to promote the 
+formation of these SHGs. (Lending to SHGs became part of priority sector lending.) 
+This process fast forwarded SHG formation and outreach started dominating group 
+strengthening. In early 2000s government announced the creation of a 
+Microfinance Development </t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>https://openalex.org/W3152883531</t>
+          <t>https://openalex.org/W3007872568</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>https://doi.org/10.31635/ccschem.021.202100874</t>
+          <t>https://doi.org/10.31857/s268667300008244-8</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Hao et al. (2022)</t>
+          <t>Prokopiev (2020)</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Dynamic Macro- and Microgels Driven by Adenosine Triphosphate-Fueled Competitive Host–Guest Interaction</t>
+          <t>Main Tendencies in Reforming Human Services within the U.S. Defense Enterprise at the 21st Century Beginning</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Open AccessCCS ChemistryCOMMUNICATION1 Mar 2022Dynamic Macro- and Microgels Driven by Adenosine Triphosphate-Fueled Competitive Host–Guest Interaction Xiang Hao, Hairong Wang, Weijie Zhao, Liteng Wang, Feng Peng and Qiang Yan Xiang Hao *Corresponding authors: E-mail Address: [email protected] E-mail Address: [email protected] Beijing Key Laboratory of Lignocellulosic Chemistry, Beijing Advanced Innovation Center for Tree Breeding by Molecular Design, Beijing Forestry University, Beijing 100083 Google Scholar More articles by this author , Hairong Wang Beijing Key Laboratory of Lignocellulosic Chemistry, Beijing Advanced Innovation Center for Tree Breeding by Molecular Design, Beijing Forestry University, Beijing 100083 Google Scholar More articles by this author , Weijie Zhao Beijing Key Laboratory of Lignocellulosic Chemistry, Beijing Advanced Innovation Center for Tree Breeding by Molecular Design, Beijing Forestry University, Beijing 100083 Google Scholar More articles by this author , Liteng Wang Beijing Key Laboratory of Lignocellulosic Chemistry, Beijing Advanced Innovation Center for Tree Breeding by Molecular Design, Beijing Forestry University, Beijing 100083 Google Scholar More articles by this author , Feng Peng Beijing Key Laboratory of Lignocellulosic Chemistry, Beijing Advanced Innovation Center for Tree Breeding by Molecular Design, Beijing Forestry University, Beijing 100083 Google Scholar More articles by this author and Qiang Yan *Corresponding authors: E-mail Address: [email protected] E-mail Address: [email protected] State Key Laboratory of Molecular Engineering of Polymers, Fudan University, Shanghai 200433 Google Scholar More articles by this author https://doi.org/10.31635/ccschem.021.202100874 SectionsSupplemental MaterialAboutAbstractPDF ToolsAdd to favoritesDownload CitationsTrack Citations ShareFacebookTwitterLinked InEmail Supramolecular host–guest systems are generally at thermodynamic equilibrium states or in kinetically trapped states. Herein, we demonstrate the concept of a chemical fuel-driven competitive host–guest assembly featuring autonomous dynamics. The enabling key principle is to design a chemical fuel that possesses a high binding affinity to defeat the guest transiently, undergoes conversion to a waste product, and exhibit weak binding affinity in order to recover the original host–guest pair. By following this principle, adenosine triphosphate (ATP; chemical fuel and competitive guest), biguanidine-functionalized β-cyclodextrin (β-CD; host), and an adamantine species (ADA; guest) have been engineered to construct dynamic adaptive macrogels or chemo-mechanochromic microgels with programmed time domains. Our reported methodology provides temporal control over the host–guest process, representing a conceptually new tool for the design of living supramolecular materials. Download figure Download PowerPoint Introduction Host–guest supramolecular interactions are powerful tools that allow access to various multifunctional assemblies and materials. A series of macrocyclic host molecules, including crown ethers, calixarenes, cucurbiturils, pillararenes, and cyclodextrins, have been developed to form stable inclusions with various guest molecules.1–5 In general, incorporating a stimulus-responsive guest molecule can provide a means of tailoring the formation of supramolecular inclusions. A variety of external stimuli, including temperature, pH, redox, and light, have been coupled with the host–guest chemistry to construct stimuli-responsive materials, which have been exploited in a broad range of fields.6–8 Nevertheless, this approach relies on the unique physicochemical properties of guest molecules, hindering the application of many responseless moieties, and thus, represents a bottleneck for diversified host–guest supramolecular materials. Another common feature of these host–guest supramolecular systems is that they are in a thermodynamic equilibrium state or a formulating kinetically trapped state. Notably, on a conceptual level, these systems are static such that they cannot exhibit self-regulated control of the time domain. Unlike unidirectional stimuli-responsive systems, living systems are chemical fuel-controlled, whereby these dynamic systems can temporarily program their chemical functions and structures.9–11 In recent years, the chemical fuel-driven approach has been successfully coupled to the fields of supramolecular polymerization,12–14 gel materials,15–17 catalysis,18–20 DNA self-assembly,21,22 and colloidal systems.23,24 Besides, chemical fuels have been explored to fascinate assembly with a few macrocyclic hosts to construct macromolecular micelles,25 vesicles,26 and supramolecular crystals,27 performing transient features that are thermodynamically unfavorable. However, using chemical fuels to modulate thermodynamically stable supramolecular host–guest inclusions have never been exploited. The purpose of this work is to develop a general approach to design dynamic host–guest assemblies using a chemical fuel. Scheme 1 shows this concept of chemical fuel-driven host–guest assembly, compared with the traditional stimuli-responsive host–guest process. For the stimuli-responsive approach, sequential application of “on”- and “off”-triggers is required (Scheme 1a). By contrast, the chemical fuel-driven approach enables the host–guest process to be autonomous and change dynamically, where the chemical fuel functions as a competitive guest (Scheme 1b). The in situ consumption of the fuel leads to dissociation of the transient “occupier” and subsequent recovery of the original supramolecular host–guest pair with time. During this process, the use of stimuli-responsive guests is circumvented by capitalizing on a chemical fuel that exhibits time-programmable competitive binding behavior. Scheme 1 | Representation of (a) a stimuli-responsive supramolecular host–guest process under thermodynamic control and (b) chemical fuel-driven dynamic host–guest assembly. Download figure Download PowerPoint Results and Discussion As a proof of concept, adenosine triphosphate (ATP), polymers bearing biguanidine-functionalized β-cyclodextrin (PCD; Mn = 1.4 × 104, Ɖ = 1.3, three receptors per chain), and adamantine guests (PADA; Mn = 9 × 103, Ɖ = 1.05, eight donors per chain) were selected (Figure 1a and Supporting Information Figures S1–S6). The two-dimensional (2D) nuclear Overhauser effect spectroscopy (NOESY) technique was used to elucidate the competitive supramolecular process. As shown in Supporting Information Figure S7, the spectrum exhibited apparent nuclear Overhauser effect (NOE) correlations between the protons of β-CD (d = 3.80–3.95 ppm) and the adamantine (ADA) species moiety (d = 1.6 ppm, 2.0–2.2 ppm), suggesting that the ADA moiety was deeply included in the cavity of β-CD. After the addition of ATP, the NOE correlations between the protons of β-CD and the adamantyl moiety disappeared, whereas new cross-correlation peaks appeared, assigned to the adenine moiety of ATP and the β-CD moiety (Figure 1b). In contrast, the introduction of adenosine monophosphate (AMP) did not impact the NOE correlations between the protons of β-CD and the ADA moiety, and no NOE correlations were found between the adenine moiety of AMP and the β-CD moiety. Isothermal titration calorimetry (ITC) analysis revealed that the binding affinity of ATP/PCD was as high as ∼106 M−1 (Figure 1c and Supporting Information Figure S8), which is much larger than that of adamantine (∼104 M−1). Importantly, its hydrolysate (AMP) showed a much lower affinity to the host (∼102 M−1), allowing the thermodynamically stable supramolecular inclusion to be reformed. Such a discrepancy in association constants can be ascribed to the decreased supramolecular interaction, as we have discussed previously.26,27 Therefore, we deduced that ATP/AMP/PCD/PADA might represent a potential candidate model to demonstrate the concept of a chemical fuel-driven competitive host–guest process as the binding affinity (Figure 1d), following the order KATP/PCD ≫ KPADA/PCD &gt; KADP/PCD &gt; KAMP/PCD. Figure 1 | (a) Molecular structures of the model guest and host. (b) 2D NOESY spectra of the PADA/PCD supramolecular host–guest system with ATP and AMP at room temperature. Solvent: D2O. T = 293 K. (c) Association constants of PCD with ATP, ADP, AMP, and PADA determined by ITC. (d) Schematic illustration of the ATP-driven competitive host–guest process. Download figure Download PowerPoint With increasing concentrations of PCD and PADA, a supramolecular gel can be obtained due to the host–guest interaction. Notably, potato apyrase was pre-embedded, which did not affect the rheological properties ( Supporting Information Figure S9). Upon the addition of 40 μM ATP, a gel–sol transition was observed in &lt;30 s from the tube inversion test (Figure 2a). At this time, the sample existed as a viscous sol with nonexistent or low yield stress. It took ∼140 min for this sol to revert to the gel state, reminiscent of thixotropy. Unlike many current chemical fuel-driven sol–gel–sol systems,15–17 the ATP-driven competitive host–guest approach afforded an unusual gel–sol–gel supramolecular system. The kinetics of the gel–sol–gel transition were followed by time sweep rheology. From Figure 2b, the disassembly process was rapid, with storage modulus (G′) decreasing from 86 to 0.3 Pa (&lt;1 min), while the re-assembly process lasted a long time (∼140 min). Interestingly, the final G′ value was ∼132.6 Pa, which was 1.5 times that of the original stiffness. In the control experiment, the addition of AMP or Pi induced only a slight decrease in gel strength due to the salt-out effect ( Supporting Information Figure S9). Compared with the fast gelation found in heterogeneous structures, the homogeneous hydrogelation of the network with time may contribute to enhanced stiffness, analogous to annealing.28,29 Consequently, the chemical fuel-driven competitive approach may become a powerful tool to adapt or anneal the properties of host–guest materials, which offer more advantages for transport, pumping, and injection ( Supporting Information Figure S10). Frequency sweep experiments further demonstrated that the initial G′ value had a substantial elastic response and was always higher than the loss modulus (G″) value over the entire range of frequencies (Figure 2c). With ATP addition (∼1 min), G′ was always lower than G″, both of which were frequency dependence, implying a sol state. After a period of ∼140 min, the sample autonomously reverted to the gel state in a frequency-independent manner. Moreover, neither the enzymatic hydrolysate (ADP and AMP) nor other analogs (phosphoric acid, triphosphoric acid, and phytic acid) could trigger the gel–sol–gel transition (Figure 2d). Figure 2 | (a) Photographs and schematic representation of the ATP-driven supramolecular host–guest gel system. (b) Evolution of the storage modulus of the PCD/PADA hydrogel after the addition of ATP over time, monitored by rheometry at a frequency of 1 rad s−1. (c) G′ (filled symbols) and G″ (open symbols) with respect to frequency for PCD/PADA before and after the addition of ATP at different times. (d) The dynamic viscosity changes in the system with varying ATP analogs (shear rate = 0.1 s−1). (e) Dynamic viscosity following four repetitive additions of ATP to the supramolecular system. Conditions for (b–e): [potato apyrase] = 0.25 U mL−1, [ATP] = 45 μM, T = 293 K, hydroxyethyl piperazineethanesulfonic acid (HEPES) buffer (5 mM, pH 7.2). (f and g) Kinetics of the dissipative system showing dynamic viscosity vs time by changing the concentration of components. Conditions for (f): T = 293 K, HEPES buffer (5 mM, pH 7.2), [ATP] = 40 μM. Conditions for (g): T = 293 K, HEPES buffer (5 mM, pH 7.2), [ATP] = 40 μM; [potato apyrase] = 0.2 U mL−1. The PCD and PADA concentrations for (a–e) were set as 1 and 3 wt %, respectively. Download figure Download PowerPoint With a continuous fuel supply, the system can exhibit repetitive gel–sol–gel transitions, and the cycle could be repeated more than 10 times (only four cycles are shown), akin to a sinusoidal wave fashion (Figure 2e). In contrast to other chemical fuel-driven systems, the waste exerts few effects on the cycles. We speculated that the selective recognition nature of the host–guest interaction might reduce the damage of waste products (AMP, Pi) to the cycles.26,27 Moreover, the lifetime of each cycle can be tuned by the concentration of ATP or potato apyrase. As shown in Figure 2f, at higher potato apyrase concentrations, the lifetimes shortened dramatically. The influence of the potato apyrase concentration on the backward contraction process was much more significant, and the whole pulsating period was prolonged. In comparison, the lifetimes were roughly proportional to the amount of fuel added (Figure 2g). As such, the lifetimes showed a negative correlation with the enzyme potato apyrase concentration but a positive correlation with ATP concentration. Having shown that the chemical fuel-driven competitive host–guest approach can readily construct dynamic macrogels, we further extended this approach to fabricate chemo-mechanochromic microgels. The microgel was synthesized by inverse emulsion polymerization using acrylamide (AM), force-responsive spiropyran-based mechanophore cross-link (SP), adamantyl monomer (ADA), and β-CD monomer (Figure 3a). Owing to the absence of an electron-withdrawing group, the SP mechanophore could sense changes in force but insensitive to light,30,31 serving as a real-time reporter in the chemical fuel-driven process. In addition to chemical cross-links, supramolecular inclusions (ADA/β-CD) incorporated within microgels could serve as additional physical cross-links. These physical cross-links exerted little effect on the original size of the microgels ( Supporting Information Figure S11 and Table S1) but influenced their swelling behavior to a large extent. Herein, the swelling ratios were defined as α = (D1/D0)3, where “D0” and “D1” were the hydrodynamic diameters of the microgels in hexane and water, respectively. From the dynamic light scattering (DLS) study, the hydrodynamic diameters of these microgels with different molar fractions of supramolecular cross-links, D0, were ∼80 ± 15 nm, with a relatively uniform size distribution ( Supporting Information Table S1). After redispersion in water, these microgels with fewer supramolecular cross-links absorbed water and expanded drastically (Figure 3b). In the absence of supramolecular cross-links, microgels with 0.5 mol % chemical cross-links exhibited a 6.0-fold size increase to 480 ± 10 nm within 10 min. Concomitantly, a dramatic color change from translucent to pink was observed visually. The appearance of color changes could be attributed to the SP-to-merocyanine (MC) transition within the microgels due to mechanical swelling.30,31 However, the swelling ratio became smaller with increasing molar ratios of the supramolecular or chemical cross-links. Specifically, microgels with the highest contents of supramolecular cross-links (∼10 mol %) or chemical cross-links (∼6.5 mol %) only expanded in size to 110 ± 10 nm, a 1.5-fold increase (Figures 3b and 3c). No color changes were detected for these microgels with a high density of cross-links. Figure 3 | (a) Schematic illustration of a chemo-mechanochromic material based on chemical fuel-driven host–guest assembly. (b) Swelling ratios of microgels with different molar fractions of supramolecular cross-links before and after the addition of ATP. The molar fraction of SP cross-link was set as 0.5 mol %. (c) Swelling ratios of microgels with different molar fractions of SP before and after the addition of ATP. The molar fraction of supramolecular cross-links was set as 6.0 mol %. (d) Photographs and TEM images and (e) UV–vis absorption spectrum of the 0.5 wt % microgel with the addition of 20 μM ATP, 20 μM AMP, and 20 μM ADP. The molar fractions of SP and supramolecular cross-links were set as 0.5 and 6.0 mol %, respectively. Experimental conditions: T = 293 K, scale bar: 500 nm, HEPES buffer (5 mM, pH 7.2). Download figure Download PowerPoint The time-dependent competitive role of ATP in these microgels was then identified. DLS measurements indicated that with the addition of ATP, a remarkable increase in the swelling ratio was observed for the microgels with different supramolecular cross-links (Figures 3b and 3c). For example, microgels with ∼6 mol % supramolecular cross-links expanded to 420 ± 20 nm with 20 μM ATP addition, accompanied by color changes (Figure 3). Notably, after ATP treatment, the maximum swollen size of these microgels decreased as a function of the molar ratios of the supramolecular cross-linkers. This trend was attributed to the hydrophobic effect of the adamantyl-moieties upon dissociation of the supramolecular cross-links.7 In the control experiments, neither ADP nor AMP could trigger a size increase of the microgels. Transmission electron microscopy (TEM) also validated the significant size change elicited by ATP (Figure 3d), revealing that the initial microgels were spherical structures with a mean size of 70 ± 10 nm ( Supporting Information Figure S11). After the addition of ATP, the maximum size reached ∼380 nm. UV–vis spectroscopy further confirmed the competitive supramolecular process. From Figure 3e, after ATP treatment, the absorption band centered at 540 nm became noticeably more intense, corresponding to an increasing amount of the opened MC form. There was no apparent change in the absorption band at ∼500–600 nm when ADP or AMP was added. Then the microgel system was pretreated with the enzyme potato apyrase, followed by the addition of the chemical fuel. The microgel system turned from colorless to pink within 30 min after introducing 40 μM ATP, and then they faded back to colorless in ∼210 min (Figure 4a). Laser confocal microscopy (LCM) was employed to track the real-time changes in fluorescence in the system. Before the ATP treatment, no fluorescent microgels (only black background in Figure 4a) could be found, implying that the chemical cross-links were in the form of colorless SP. When ATP was added, a substantial quantity of fluorescent microgels appeared in a short period (red dots), indicating the chemical fuel-driven SP-to-MC transition. Subsequently, these fluorescent red dots vanished gradually over time. The DLS results further revealed that the size evolution process could be divided into two distinct regimes: in the first regime (0–30 min), all microgels self-dilated, increasing from the initial size of 110 ± 20 nm to a maximum value of 410 ± 30 nm; in the second regime, the microgels experienced self-shrinkage back to their initial size at much longer time of ∼210 min. The color change, LCM, and DLS results suggested that there was a time-orchestrated supramolecular closed loop inside the system: first, ATP destroyed the supramolecular inclusion of β-CD/ADA to decrease the density of cross-links, giving rise to swelling; then the ATP consumption process dominated, with a reformation of the β-CD/ADA supramolecular inclusions, accompanied by contraction of the microgels. Figure 4 | (a) Photographs, LCM images, and DLS data of microgel dispersion with the addition of 40 μM ATP fuel under pretreatment with potato apyrase (0.1 U mL−1). (b) Hydrodynamic diameter vs time following five repetitive additions of ATP (40 μM) to a microgel dispersion in the presence of potato apyrase (0.1 U mL−1). Influence of the substrate concentration on the size changes of the microgel: (c) with different ATP levels, [enzyme] = 0.06 U mL−1, and (d) with varying concentrations of potato apyrase, [ATP] = 20 μM. Experimental conditions: T = 293 K, HEPES buffer (5 mM, pH 7.2), [SP] = 1 mol %, [supramolecular cross-link] = 6 mol %. Download figure Download PowerPoint Since we considered the “swollen” and “shrunken” states of the transient signals as part of one cycle, we wondered whether a new cycle could restart by resupplying chemical energy. Therefore, the kinetics of system evolution was monitored by DLS and fluorescence emission (FM) studies. As shown in Figure 4b, the variations in the microgel size plotted versus ATP incubation time were similar to a pulse wave. The size cycle could be refueled under chemical energy influx, demonstrating that these microgels automatically exhibited persistent reciprocating “breathing” behavior. The FM curve also assumed a sinusoidal wave fashion by continuous ATP supply, in line with the DLS results ( Supporting Information Figure S12). After several cycles, the minimum fluorescence intensity and hydrodynamic size slightly diverged from those of the original state due to the accumulation of waste (AMP and 2Pi). DLS was further employed to study the influence of the concentration of building blocks on the lifetimes of the breathing behavior. Similar to that of the macrogel system, at higher ATP concentration, the forward expansion time of the microgel was shortened, while the backward contraction time lengthened (Figure 4c). Fuel influence on the backward contraction process was much more significant than the whole prolonged lifetime. As expected, the lifetime showed a negative correlation with the enzyme potato apyrase concentration (Figure 4d). The higher the concentration of potato apyrase added to the reaction, the larger the lifetime value became. Notably, the molar fraction of the chemical cross-links was critical in adjusting the periodicity and amplitude of the microgels. As shown in Supporting Information Figure S13, when the molar ratio of chemical cross-links was set as 6.5 mol %, neither size increase nor detectable color change was noted due to the high density of the cross-links. It was only by decreasing the content of cross-links (0.5–3.5 mol %) that the fuel-driven self-regulated process could be initiated. For these microgels with moderate cross-link density, the periodicity and amplitude showed positive correlations with the molar fraction of the chemical cross-links. Conclusion Overall, we have demonstrated a conceptually different approach for temporal control over the host–guest process, whereby a dynamic adaptive macrogel or a chemo-mechanochromic microgel could be achieved. The dual roles of ATP in this study, chemical fuel and competitive guest, contributed to assembling homogeneous macrogels with improved mechanical properties and endowed the chemo-mechanochromic microgels with a breathing feature. This strategy could be viewed as an essential advancement relative to classical stimuli-responsive host–guest assembly, as it provides strategies for more life-like materials with autonomous behavior. We envision that this approach might serve as a generic method that could be extended to orchestrate the lifetimes of other macrocyclic host-based assemblies, including calixarenes, cucurbiturils, pillararenes, and so on. Supporting Information Supporting Information is available and includes detailed synthetic methods and characterizations of the hosts and guests, NMR, ITC, DLS, TEM, and rheological data. Conflict of Interest There is no conflict of interest to report. Funding Information This project was funded by the Beijing Natural Science Foundation (grant no. 6214041), Fundamental Research Funds for the Central Universities (grant no. BLX201918), China Postdoctoral Science Foundation (grant no. 2020M670176), and the Project of State Key Laboratory of Molecular Engineering of Polymers of Fudan University (grant no. K2021-21). References 1. Liu Z.; Nalluri S. K. M.; Stoddart J. F.Surveying Macrocyclic Chemistry: From Flexible Crown Ethers to Rigid Cyclophanes.Chem. Soc. Rev.2017, 46, 2459–2478. Google Scholar 2. Lee J. H.; Park J.; Park J.-W.; Ahn H.-J.; Jaworski J.; Jung J. H.Supramolecular Gels with High Strength by Tuning of Calix[4]arene-Derived Networks.Nat. Commun.2015, 6, 6650. Google Scholar 3. Liu J.; Tan C. S. Y.; Yu Z.; Lan Y.; Abell C.; Scherman O. A.Biomimetic Supramolecular Polymer Networks Exhibiting Both Toughness and Self-Recovery.Adv. Mater.2017, 29, 1604951. Google Scholar 4. Ogoshi T.; Yamagishi T.-A.; Nakamoto Y.Pillar-Shaped Macrocyclic Hosts Pillar[n]arenes: New Key Players for Supramolecular Chemistry.Chem. Rev.2016, 116, 7937–8002. Google Scholar 5. Yin Z.; Song G.; Jiao Y.; Zheng P.; Xu J.-F.; Zhang X.Dissipative Supramolecular Polymerization Powered by Light.CCS Chem.2019, 1, 335–342. Abstract, Google Scholar 6. Yamaguchi H.; Kobayashi Y.; Kobayashi R.; Takashima Y.; Hashidzume A.; Harada A.Photoswitchable Gel Assembly Based on Molecular Recognition.Nat. Commun.2012, 3, 603. Google Scholar 7. Miyamae K.; Nakahata M.; Takashima Y.; Harada A.Self-Healing, Expansion–Contraction, and Shape-Memory Properties of a Preorganized Supramolecular Hydrogel through Host–Guest Interactions.Angew. Chem. Int. Ed.2015, 54, 8984–8987. Google Scholar 8. Wang S.; Xu Z.; Wang T.; Xiao T.; Hu X.-Y.; Shen Y.-Z.; Wang L.Warm/Cool-Tone Switchable Thermochromic Material for Smart Windows by Orthogonally Integrating Properties of Pillar[6]arene and Ferrocene.Nat. Commun.2018, 9, 1737. Google Scholar 9. Ragazzon G.; Prins L. J.Energy Consumption in Chemical Fuel-Driven Self-Assembly.Nat. Nanotechnol.2018, 13, 882–889. Google Scholar 10. Leng Z.; Peng F.; Hao X.Chemical-Fuel-Driven Assembly in Macromolecular Science: Recent Advances and Challenges.ChemPlusChem2020, 85, 1190–1199. Google Scholar 11. Deng J.; Walther A.ATP‐Responsive and ATP‐Fueled Self‐Assembling Systems and Materials.Adv. Mater.2020, 32, 2002629. Google Scholar 12. Dhiman S.; Jain A.; Kumar M.; George S. J.Adenosine-Phosphate-Fueled, Temporally Programmed Supramolecular Polymers with Multiple Transient States.J. Am. Chem. Soc.2017, 139, 16568–16575. Google Scholar 13. Deng J.; Walther A.Pathway Complexity in Fuel-Driven DNA Nanostructures with Autonomous Reconfiguration of Multiple Dynamic Steady States.J. Am. Chem. Soc.2020, 142, 685–689. Google Scholar 14. Sorrenti A.; Leira-Iglesias J.; Markvoort A. J.; de Greef T. F. A.; Hermans T. M.Non-Equilibrium Supramolecular Polymerization.Chem. Soc. Rev.2017, 46, 5476–5490. Google Scholar 15. Boekhoven J.; Hendriksen W. E.; Koper G. J.; Eelkema R.; van Esch J. H.Transient Assembly of Active Materials Fueled by a Chemical Reaction.Science2015, 349, 1075–1079. Google Scholar 16. Hu K.; Sheiko S. S.Time Programmable Hydrogels: Regulating the Onset Time of Network Dissociation by a Reaction Relay.Chem. Commun.2018, 54, 5899–5902. Google Scholar 17. Wojciechowski J. P.; Martin A. D.; Thordarson P.Kinetically Controlled Lifetimes in Redox-Responsive Transient Supramolecular Hydrogels.J. Am. Chem. Soc.2018, 140, 2869–2874. Google Scholar 18. Colomer I.; Morrow S. M.; Fletcher S. P.A Transient Self-Assembling Self-Replicator.Nat. Commun.2018, 9, 2239. Google Scholar 19. Biagini C.; Fielden S. D. P.; Leigh D. A.; Schaufelberger F.; Di Stefano S.; Thomas D.Dissipative Catalysis with a Molecular Machine.Angew. Chem. Int. Ed.2019, 58, 9876–9880. Google Scholar 20. Afrose S. P.; Bal S.; Chatterjee A.; Das K.; Das D.Designed Negative Feedback from Transiently Formed Catalytic Nanostructures.Angew. Chem. Int. Ed.2019, 58, 15783–15787. Google Scholar 21. Heinen L.; Walther A.Programmable Dynamic Steady States in ATP-Driven Nonequilibrium DNA Systems.Sci. Adv.2019, 5, eaaw0590. Google Scholar 22. Deng J.; Walther A.Fuel-Driven Transient DNA Strand Displacement Circuitry with Self-Resetting Function.J. Am. Chem. Soc.2020, 142, 21102–21109. Google Scholar 23. Che H.; Buddingh B. C.; van Hest J. C. M.Self-Regulated and Temporal Control of a “Breathing” Microgel Mediated by Enzymatic Reaction.Angew. Chem. Int. Ed.2017, 56, 12581–12585. Google Scholar 24. van Ravensteijn B. G. P.; Hendriksen W. E.; Eelkema R.; van Esch J. H.; Kegel W. K.Fuel-Mediated Transient Clustering of Colloidal Building Blocks.J. Am. Chem. Soc.2017, 139, 9763–9766. Google Scholar 25. Hao X.; Sang W.; Hu J.; Yan Q.Pulsating Polymer Micelles via ATP-Fueled Dissipative Self-Assembly.ACS Macro Lett.2017, 6, 1151–1155. Google Scholar 26. Hao X.; Chen L.; Sang W.; Yan Q.Periodically Self-Pulsating Microcapsule as Programmed Microseparator via ATP-Regulated Energy Dissipation.Adv. Sci.2018, 5, 1700591. Google Scholar 27. Choi S.; Mukhopadhyay R. D.; Kim Y.; Hwang I.-C.; Hwang W.; Ghosh S. K.; Baek K.; Kim K.Fuel-Driven Transient Crystallization of a Cucurbit[8]uril-Based Host–Guest Complex.Angew. Chem. Int. Ed.2019, 58, 16850–16853. Google Scholar 28. Panja S.; Adams D. J.Gel to Gel Transitions by Dynamic Self-Assembly.Chem. Commun.2019, 55, 10154–10157. Google Scholar 29. Zhang X.; Wang K.; Hu J.; Zhang Y.; Dai Y.; Xia F.Role of a High Calcium Ion Content in Extending the Properties of Alginate Dual-Crosslinked Hydrogels.J. Mater. Chem. A.2020, 8, 25390–25401. Google Scholar 30. Li M.; Lei L.; Zhang Q.; Zhu S.CO2-Breathing Induced Reversible Activation of Mechanophore within Microgels.Macromol. Rapid. Commun.2016, 37, 957–962. Google Scholar 31. Li M.; Zhang Q.; Zhu S.Photo-Inactive Divinyl Spiropyran Mechanophore Cross-Linker for Real-Time Stress Sensing.Polymer2016, 99, 521–528. Google Scholar Previous articleNext article FiguresReferencesRelatedDetails Issue AssignmentVolume 4Issue 3Page: 838-846Supporting Information Copyright &amp; Permissions© 2021 Chinese Chemical SocietyKeywordschemical fuelATPautonomous structuresupramolecularhost–guest Downloaded 1,113 times PDF DownloadLoading ...</t>
+          <t>Providing for social services in the Armed Forces is one of the pillars of maintaining U.S. national defense and security, keeping military service attractive. Social benefits for personnel and their families are aimed at increasing efficiency of the defense enterprise, achieving sufficient level of moral, discipline and readiness. Managing military social services is an important, yet a complicated task. U.S. military leadership considers reforming this area of responsibility one of its top priorities on the list of changes within the Department of Defense that has been steadily increasing investment in human capital since the beginning of the 21st century. As of today, social expenditures comprise approximately 30% of the military budget – almost twice as the expenditures on procuring weapons and military equipment. However, budgeting per se does not mean automatic boost in efficiency of the provided social services. Therefore, the investment is directed at establishing and strengthening a viable management system that allows to administer at the best value the resources at disposal. Since 1990s, the Pentagon has been systematically reorganizing the military healthcare, modernizing remuneration mechanisms and social security of the service members, enhancing retirement system, etc. Major achievements were registered during the administrations of George W. Bush and Barack Obama. In 2010s, the defense enterprise faced the effects of the protracted armed conflicts and austere economic environment that required addressing a wide range of issues related to recovery and social reintegration of the veterans. Donald trump administration in general is committed to the health care and retirement agenda set forth by its predecessors. However, it has yet to resolve all the difficulties due to the inherent red tape that accompanies these are as of activity. Nevertheless, it appears the Americans will continue reforming the military social services in the foreseeable future.</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2266523831</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/978-3-319-60807-5_2</t>
+          <t>https://openalex.org/W3183126856</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>McGraw (2017)</t>
+          <t>Deslaurier (2020)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Trinitarian Doxology: Reassessing John Owen’s Contribution to Reformed Orthodox Trinitarian Theology</t>
+          <t>Les "crises", les prisons et Mandela au Burundi : des contentieux carcéraux aux réformes pénitentiaires (1993-2020)</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Enserre dans une Afrique des Grands lacs souvent instable, le Burundi a traverse depuis plus d’un demi-siecle des « crises » a repetition dont la violence et l’intensite ont profondement marque la societe, mais aussi l’Etat et ses institutions. Pres d’une dizaine de crises graves ont de la sorte ponctue l’histoire burundaise depuis son independance en juillet 1962, avec leur lot de morts, de blesses, de disparus, de deplaces internes, d’exiles et de prisonniers (1965, 1969, 1971, 1972-1973, 1988, 1991, 1993-2008 et depuis 2015)._x000D_
+Dans ces tragedies periodiques, le systeme carceral, au-dela de ses fonctions de controle social exerce depuis la colonisation sur les couches les plus defavorisees de la population, a toujours ete utilise comme un instrument de conservation du pouvoir et d’elimination des oppositions politiques ou ethniques. Les prisons se sont trouvees submergees par des afflux de detenus mis en cause pour des infractions de nature politique, ou de droit commun mais utilisees a des fins politiques . Des contentieux penitentiaires concernant des centaines ou des milliers de prisonniers ont ainsi ete crees, qui sont devenus des enjeux dans les phases de sortie de crise ou de negociations de paix. Leur reglement a suscite et alimente encore d’intenses debats sur la categorie « politique » des detenus, sur le detournement de l’institution penitentiaire a des fins de coercition partisane, et sur les conditions dans lesquelles des detenus enfermes en masse peuvent etre massivement liberes. Mais aussi, et c’est ce qui retiendra l’attention ici, ces « crises » et leur denouement semblent representer des moments uniques d’action sur le systeme penitentiaire, en creant les conditions de sa transformation._x000D_
+Cet article traite du contentieux carceral dit « de 1993 », qui couvre en fait une situation generee au cours d’une longue guerre civile etalee entre 1993 et 2008, de sa portee sur le systeme des prisons au Burundi, et des plus recentes evolutions qui touchent celui-ci. Les sources sur les exces carceraux lors des crises precedentes sont lacunaires, tandis que le debordement des prisons a partir de 1993 est mieux renseigne, et beneficie d’une documentation et de temoignages que j’ai pu recueillir au cours d’enquetes menees entre 2010 et 2019 . L’analyse de ce contentieux, precedee d’une partie en retracant la genese, permet de saisir les controverses qu’il a nourries et les modalites par lesquelles des milliers de prisonniers ont ete affranchis dans les annees 2000. Elle permet aussi d’eclairer les transformations qui ont accompagne le reglement de la crise carcerale, et le poids des acteurs etrangers et nationaux dans celles-ci, parmi lesquels Nelson Mandela est une figure tutelaire. Un detour vers le temps present permettra enfin de questionner les rationalites rivales qui inspirent des reformes tantot temperantes, tantot regressives.</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>https://openalex.org/W2099152860</t>
+          <t>https://openalex.org/W1970943134</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>https://doi.org/10.2139/ssrn.706982</t>
+          <t>https://doi.org/10.1111/j.1468-2311.2009.00562_5.x</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Alesina et al. (2005)</t>
+          <t>Nijhar (2009)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Work and Leisure in the U.S. and Europe: Why so Different?</t>
+          <t>Policing Beyond Macpherson: Issues in Policing, Race and Society by M. Rowe (Ed.)</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Americans average 25.1 working hours per person in working age per week, but the Germans average 18.6 hours. The average American works 46.2 weeks per year, while the French average 40 weeks per year. Why do western Europeans work so much less than Americans? Recent work argues that these differences result from higher European tax rates, but the vast empirical labor supply literature suggests that tax rates can explain only a small amount of the differences in hours between the U.S. and Europe. Another popular view is that these differences are explained by long-standing European "culture", but Europeans worked more than Americans as late as the 1960s. In this paper, we argue that European labor market regulations, advocated by unions in declining European industries who argued "work less, work all" explain the bulk of the difference between the U.S. and Europe. These policies do not seem to have increased employment, but they may have had a more society-wide influence on leisure patterns because of a social multiplier where the returns to leisure increase as more people are taking longer vacations.</t>
+          <t>Cullompton : Willan ( 2007 ) 196pp. £22.00pb ISBN 978-1-84392-212-4 This collection of papers on policing and racism since the Macpherson Report is a curate's egg. Several pieces are theoretically-informed, and noteworthy as key readings for students. Others are of an essentially administrative character, interesting to a lay person, while a final (small) group offers little of substance. It is a contrary text in which several papers demonstrate a clear analytical approach, problematising both the concept of racism and, sometimes, policing itself. But generally, the collection fails to recognise the contribution of criminological theory with regard to conceptualising policing itself. Take Chapter 1, by Whitfield. He furnishes a clear and comprehensive analysis of police reform with regard to ethnicity and racism since 1945. I have not seen a better administrative account of the process. But research periodisation cannot be taken seriously. Whitfield falls back on the myth that the primary function of the police is crime prevention and detection of crime. I had believed that, by now, such an official imprimatur had long been dispelled by historical research. The Peelite assumptions of the former have long been criticised. In intent, in practice, and in organisation, most Anglo-American policework has focused on the control of those people and practices that are perceived as constituting the disorderly (however narrowly or widely framed). Long before the Victorian writings of Henry Mayhew (recall the ‘Hindoo’ beggar on the London streets), it has long been appreciated that police work has commonly had little to do with the reified object of ‘crime’, and more to do with categories of people in particular contexts (Nijhar forthcoming 2009). The latter is rarified in the contrary recognition by Stenson and Waddington. The categories of the policed are constructed by often-intermeshed factors of socio-economic class, of ethnic labelling and histories, of gender, and of age, inequalities traditionally visible in the public space to which most police resources have been targeted. Unilateral explanation of tension between black people and the police are insufficient. Inter alia, Stenson and Waddington, drawing in part upon their own research, argue that without understanding this historically-derived matrix, proposals for reform cannot make progress. Chakraborti adds to this deconstruction of the police racism argument by documenting the disparate nature of the supposed ‘black’ population. Similarly, Holdaway and O'Neill provide a legitimate deconstruction of the Black Police Association, its many diffuse components, and the different types of racist discourse through which complex arguments are subsumed (though to this reviewer, there is something of a ‘blaming the victim’ in this focus). Chapter 3, by Rowe and Garland, furnishes as succinct and careful an analysis of the changes and varieties of police training since the Macpherson Report as I have seen. But within the parameters of that orthodox reform programme, there can only be marginal improvement. Having once been a training consultant to the late and unlamented South African Police (where racism was taught directly in a course module –Ethnology), the models practised in the UK which rebut such poison, are as good as anywhere in the Western world. But criminological scholarship on racism recognises it as sourced in police culture, which, in turn, derives from a confrontational state police model. Rowe and Garland signally fail to consider the key debate about the origins and sustenance of that culture. Is it aberrational (‘the bad apples’ approach), or systemic (the ‘rotten orchard’ of Maurice Punch's (2003) contributions). The systemic approach in its most cogent formulation argues that police racism is not the fault of wayward personnel, practices, and procedures but rather a necessary feature of policing. Given the classic dichotomy of law and order, culture from that perspective is a facilitating device to ‘get the job done’, of resolving the policing polarities. Without reconceptualising the very meaning of policing, discarding the anachronistic Peelite model (as, for example, in the recent heuristic works of Johnston and Shearing (2003)), and tackling police racism as a product of police culture through the technical medium of training reform, is Mission Impossible. Souhami's chapter on institutional racism is a welcome contribution to that critique. It also recognises other tensions in the racism debate. But why is this admission not grounded in the relevant structuralist literature? McLaughlin accepts that Macpherson had tapped the truth that key aspects of policing bear heavily on ethnic minorities. The upshot is that, ‘attention must focus on how and why policing acquires its racism’. He asserts that the analytical locus of police racism should be moved from the occupational culture, which he dismisses as rhetoric, to criteria by which officers use</t>
         </is>
       </c>
     </row>
